--- a/data/observation_datasheet.xlsx
+++ b/data/observation_datasheet.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catchamberlain/Documents/git/chillfreeze/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8140008_{8B020773-D18F-F040-A0A2-33234F39E1A9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5A823244-17AC-0746-A4E9-7A6B12456AA2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11540" yWindow="5480" windowWidth="28040" windowHeight="17440" activeTab="1"/>
+    <workbookView xWindow="11540" yWindow="5480" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="observation_datasheet" sheetId="1" r:id="rId1"/>
@@ -1493,7 +1493,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2010,7 +2010,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -2023,6 +2023,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="36" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2339,7 +2343,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M481"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4795,20 +4799,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B344" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
+      <selection pane="bottomRight" activeCell="B369" sqref="B369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="10.7109375" style="9"/>
+    <col min="2" max="3" width="10.7109375" style="9"/>
+    <col min="4" max="4" width="10.7109375" style="12"/>
+    <col min="5" max="6" width="10.7109375" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -4821,7 +4827,7 @@
       <c r="C1" s="9" t="s">
         <v>485</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="12" t="s">
         <v>486</v>
       </c>
       <c r="E1" s="9" t="s">
@@ -4837,7 +4843,7 @@
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="D2" s="13"/>
       <c r="E2" s="4">
         <v>43823</v>
       </c>
@@ -4848,7 +4854,7 @@
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="D3" s="13"/>
       <c r="E3" s="4">
         <v>43823</v>
       </c>
@@ -4860,7 +4866,7 @@
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="D4" s="13"/>
       <c r="E4" s="4">
         <v>43823</v>
       </c>
@@ -4871,7 +4877,7 @@
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="D5" s="13"/>
       <c r="E5" s="4">
         <v>43823</v>
       </c>
@@ -4883,7 +4889,7 @@
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="D6" s="13"/>
       <c r="E6" s="4">
         <v>43823</v>
       </c>
@@ -4894,7 +4900,7 @@
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="D7" s="13"/>
       <c r="E7" s="4">
         <v>43823</v>
       </c>
@@ -4906,7 +4912,7 @@
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="D8" s="13"/>
       <c r="E8" s="4">
         <v>43823</v>
       </c>
@@ -4917,7 +4923,7 @@
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="D9" s="13"/>
       <c r="E9" s="4">
         <v>43823</v>
       </c>
@@ -4929,7 +4935,7 @@
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="D10" s="13"/>
       <c r="E10" s="4">
         <v>43823</v>
       </c>
@@ -4940,7 +4946,7 @@
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="4">
         <v>43823</v>
       </c>
@@ -4952,7 +4958,7 @@
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="4">
         <v>43823</v>
       </c>
@@ -4963,7 +4969,7 @@
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="D13" s="13"/>
       <c r="E13" s="4">
         <v>43823</v>
       </c>
@@ -4975,7 +4981,7 @@
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="D14" s="13"/>
       <c r="E14" s="4">
         <v>43823</v>
       </c>
@@ -4986,7 +4992,7 @@
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="D15" s="13"/>
       <c r="E15" s="4">
         <v>43823</v>
       </c>
@@ -4998,7 +5004,7 @@
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="D16" s="13"/>
       <c r="E16" s="4">
         <v>43823</v>
       </c>
@@ -5009,7 +5015,7 @@
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="D17" s="13"/>
       <c r="E17" s="4">
         <v>43823</v>
       </c>
@@ -5021,7 +5027,7 @@
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+      <c r="D18" s="14"/>
       <c r="E18" s="6">
         <v>43472</v>
       </c>
@@ -5032,7 +5038,7 @@
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
+      <c r="D19" s="14"/>
       <c r="E19" s="6">
         <v>43472</v>
       </c>
@@ -5044,7 +5050,7 @@
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
+      <c r="D20" s="14"/>
       <c r="E20" s="6">
         <v>43472</v>
       </c>
@@ -5055,7 +5061,7 @@
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
+      <c r="D21" s="14"/>
       <c r="E21" s="6">
         <v>43472</v>
       </c>
@@ -5067,7 +5073,7 @@
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
+      <c r="D22" s="14"/>
       <c r="E22" s="6">
         <v>43472</v>
       </c>
@@ -5078,7 +5084,7 @@
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
+      <c r="D23" s="14"/>
       <c r="E23" s="6">
         <v>43472</v>
       </c>
@@ -5090,7 +5096,7 @@
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
+      <c r="D24" s="14"/>
       <c r="E24" s="6">
         <v>43472</v>
       </c>
@@ -5101,7 +5107,7 @@
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
+      <c r="D25" s="14"/>
       <c r="E25" s="6">
         <v>43472</v>
       </c>
@@ -5113,7 +5119,7 @@
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
+      <c r="D26" s="14"/>
       <c r="E26" s="6">
         <v>43472</v>
       </c>
@@ -5124,7 +5130,7 @@
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
+      <c r="D27" s="14"/>
       <c r="E27" s="6">
         <v>43472</v>
       </c>
@@ -5136,7 +5142,7 @@
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
+      <c r="D28" s="14"/>
       <c r="E28" s="6">
         <v>43472</v>
       </c>
@@ -5147,7 +5153,7 @@
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
+      <c r="D29" s="14"/>
       <c r="E29" s="6">
         <v>43472</v>
       </c>
@@ -5159,7 +5165,7 @@
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
+      <c r="D30" s="14"/>
       <c r="E30" s="6">
         <v>43472</v>
       </c>
@@ -5170,7 +5176,7 @@
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
+      <c r="D31" s="14"/>
       <c r="E31" s="6">
         <v>43472</v>
       </c>
@@ -5182,7 +5188,7 @@
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
+      <c r="D32" s="14"/>
       <c r="E32" s="6">
         <v>43472</v>
       </c>
@@ -5193,7 +5199,7 @@
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
+      <c r="D33" s="14"/>
       <c r="E33" s="6">
         <v>43472</v>
       </c>
@@ -5205,7 +5211,7 @@
       </c>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
+      <c r="D34" s="15"/>
       <c r="E34" s="11"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -5214,7 +5220,7 @@
       </c>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
+      <c r="D35" s="15"/>
       <c r="E35" s="11"/>
       <c r="F35" s="10"/>
     </row>
@@ -5224,7 +5230,7 @@
       </c>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
+      <c r="D36" s="15"/>
       <c r="E36" s="11"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -5233,7 +5239,7 @@
       </c>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
+      <c r="D37" s="15"/>
       <c r="E37" s="11"/>
       <c r="F37" s="10"/>
     </row>
@@ -5243,7 +5249,7 @@
       </c>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
+      <c r="D38" s="15"/>
       <c r="E38" s="11"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -5252,7 +5258,7 @@
       </c>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
+      <c r="D39" s="15"/>
       <c r="E39" s="11"/>
       <c r="F39" s="10"/>
     </row>
@@ -5262,7 +5268,7 @@
       </c>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
+      <c r="D40" s="15"/>
       <c r="E40" s="11"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -5271,7 +5277,7 @@
       </c>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
+      <c r="D41" s="15"/>
       <c r="E41" s="11"/>
       <c r="F41" s="10"/>
     </row>
@@ -5281,7 +5287,7 @@
       </c>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
+      <c r="D42" s="15"/>
       <c r="E42" s="11"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -5290,7 +5296,7 @@
       </c>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
+      <c r="D43" s="15"/>
       <c r="E43" s="11"/>
       <c r="F43" s="10"/>
     </row>
@@ -5300,7 +5306,7 @@
       </c>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
+      <c r="D44" s="15"/>
       <c r="E44" s="11"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -5309,7 +5315,7 @@
       </c>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
+      <c r="D45" s="15"/>
       <c r="E45" s="11"/>
       <c r="F45" s="10"/>
     </row>
@@ -5319,7 +5325,7 @@
       </c>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
+      <c r="D46" s="15"/>
       <c r="E46" s="11"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -5328,7 +5334,7 @@
       </c>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
+      <c r="D47" s="15"/>
       <c r="E47" s="11"/>
       <c r="F47" s="10"/>
     </row>
@@ -5338,7 +5344,7 @@
       </c>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
+      <c r="D48" s="15"/>
       <c r="E48" s="11"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -5347,7 +5353,7 @@
       </c>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
+      <c r="D49" s="15"/>
       <c r="E49" s="11"/>
       <c r="F49" s="10"/>
     </row>
@@ -5357,7 +5363,7 @@
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
+      <c r="D50" s="13"/>
       <c r="E50" s="4">
         <v>43823</v>
       </c>
@@ -5368,7 +5374,7 @@
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
+      <c r="D51" s="13"/>
       <c r="E51" s="4">
         <v>43823</v>
       </c>
@@ -5380,7 +5386,7 @@
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
+      <c r="D52" s="13"/>
       <c r="E52" s="4">
         <v>43823</v>
       </c>
@@ -5391,7 +5397,7 @@
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
+      <c r="D53" s="13"/>
       <c r="E53" s="4">
         <v>43823</v>
       </c>
@@ -5403,7 +5409,7 @@
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
+      <c r="D54" s="13"/>
       <c r="E54" s="4">
         <v>43823</v>
       </c>
@@ -5414,7 +5420,7 @@
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
+      <c r="D55" s="13"/>
       <c r="E55" s="4">
         <v>43823</v>
       </c>
@@ -5424,9 +5430,11 @@
       <c r="A56" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B56" s="4"/>
+      <c r="B56" s="4">
+        <v>43481</v>
+      </c>
       <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
+      <c r="D56" s="13"/>
       <c r="E56" s="4">
         <v>43823</v>
       </c>
@@ -5437,7 +5445,7 @@
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
+      <c r="D57" s="13"/>
       <c r="E57" s="4">
         <v>43823</v>
       </c>
@@ -5449,7 +5457,7 @@
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
+      <c r="D58" s="13"/>
       <c r="E58" s="4">
         <v>43823</v>
       </c>
@@ -5460,7 +5468,7 @@
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
+      <c r="D59" s="13"/>
       <c r="E59" s="4">
         <v>43823</v>
       </c>
@@ -5474,7 +5482,7 @@
         <v>43479</v>
       </c>
       <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
+      <c r="D60" s="13"/>
       <c r="E60" s="4">
         <v>43823</v>
       </c>
@@ -5485,7 +5493,7 @@
       </c>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
+      <c r="D61" s="13"/>
       <c r="E61" s="4">
         <v>43823</v>
       </c>
@@ -5499,7 +5507,7 @@
         <v>43479</v>
       </c>
       <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
+      <c r="D62" s="13"/>
       <c r="E62" s="4">
         <v>43823</v>
       </c>
@@ -5508,9 +5516,11 @@
       <c r="A63" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B63" s="4"/>
+      <c r="B63" s="4">
+        <v>43481</v>
+      </c>
       <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
+      <c r="D63" s="13"/>
       <c r="E63" s="4">
         <v>43823</v>
       </c>
@@ -5520,9 +5530,11 @@
       <c r="A64" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B64" s="4"/>
+      <c r="B64" s="4">
+        <v>43481</v>
+      </c>
       <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
+      <c r="D64" s="13"/>
       <c r="E64" s="4">
         <v>43823</v>
       </c>
@@ -5535,7 +5547,7 @@
         <v>43473</v>
       </c>
       <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
+      <c r="D65" s="13"/>
       <c r="E65" s="4">
         <v>43823</v>
       </c>
@@ -5549,7 +5561,7 @@
       </c>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
+      <c r="D66" s="14"/>
       <c r="E66" s="6">
         <v>43472</v>
       </c>
@@ -5560,7 +5572,7 @@
       </c>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
+      <c r="D67" s="14"/>
       <c r="E67" s="6">
         <v>43472</v>
       </c>
@@ -5572,7 +5584,7 @@
       </c>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
+      <c r="D68" s="14"/>
       <c r="E68" s="6">
         <v>43472</v>
       </c>
@@ -5583,7 +5595,7 @@
       </c>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
+      <c r="D69" s="14"/>
       <c r="E69" s="6">
         <v>43472</v>
       </c>
@@ -5595,7 +5607,7 @@
       </c>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
+      <c r="D70" s="14"/>
       <c r="E70" s="6">
         <v>43472</v>
       </c>
@@ -5606,7 +5618,7 @@
       </c>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
+      <c r="D71" s="14"/>
       <c r="E71" s="6">
         <v>43472</v>
       </c>
@@ -5618,7 +5630,7 @@
       </c>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
+      <c r="D72" s="14"/>
       <c r="E72" s="6">
         <v>43472</v>
       </c>
@@ -5629,7 +5641,7 @@
       </c>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
+      <c r="D73" s="14"/>
       <c r="E73" s="6">
         <v>43472</v>
       </c>
@@ -5641,7 +5653,7 @@
       </c>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
+      <c r="D74" s="14"/>
       <c r="E74" s="6">
         <v>43472</v>
       </c>
@@ -5652,7 +5664,7 @@
       </c>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
+      <c r="D75" s="14"/>
       <c r="E75" s="6">
         <v>43472</v>
       </c>
@@ -5664,7 +5676,7 @@
       </c>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
+      <c r="D76" s="14"/>
       <c r="E76" s="6">
         <v>43472</v>
       </c>
@@ -5675,7 +5687,7 @@
       </c>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
+      <c r="D77" s="14"/>
       <c r="E77" s="6">
         <v>43472</v>
       </c>
@@ -5687,7 +5699,7 @@
       </c>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
+      <c r="D78" s="14"/>
       <c r="E78" s="6">
         <v>43472</v>
       </c>
@@ -5698,7 +5710,7 @@
       </c>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
+      <c r="D79" s="14"/>
       <c r="E79" s="6">
         <v>43472</v>
       </c>
@@ -5710,7 +5722,7 @@
       </c>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
+      <c r="D80" s="14"/>
       <c r="E80" s="6">
         <v>43472</v>
       </c>
@@ -5721,7 +5733,7 @@
       </c>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
+      <c r="D81" s="14"/>
       <c r="E81" s="6">
         <v>43472</v>
       </c>
@@ -5733,7 +5745,7 @@
       </c>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
+      <c r="D82" s="15"/>
       <c r="E82" s="11"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -5742,7 +5754,7 @@
       </c>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
-      <c r="D83" s="11"/>
+      <c r="D83" s="15"/>
       <c r="E83" s="11"/>
       <c r="F83" s="10"/>
     </row>
@@ -5752,7 +5764,7 @@
       </c>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
-      <c r="D84" s="11"/>
+      <c r="D84" s="15"/>
       <c r="E84" s="11"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -5761,7 +5773,7 @@
       </c>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
-      <c r="D85" s="11"/>
+      <c r="D85" s="15"/>
       <c r="E85" s="11"/>
       <c r="F85" s="10"/>
     </row>
@@ -5771,7 +5783,7 @@
       </c>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
-      <c r="D86" s="11"/>
+      <c r="D86" s="15"/>
       <c r="E86" s="11"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -5780,7 +5792,7 @@
       </c>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
-      <c r="D87" s="11"/>
+      <c r="D87" s="15"/>
       <c r="E87" s="11"/>
       <c r="F87" s="10"/>
     </row>
@@ -5790,7 +5802,7 @@
       </c>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
-      <c r="D88" s="11"/>
+      <c r="D88" s="15"/>
       <c r="E88" s="11"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -5799,7 +5811,7 @@
       </c>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
-      <c r="D89" s="11"/>
+      <c r="D89" s="15"/>
       <c r="E89" s="11"/>
       <c r="F89" s="10"/>
     </row>
@@ -5809,7 +5821,7 @@
       </c>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
-      <c r="D90" s="11"/>
+      <c r="D90" s="15"/>
       <c r="E90" s="11"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -5818,7 +5830,7 @@
       </c>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
-      <c r="D91" s="11"/>
+      <c r="D91" s="15"/>
       <c r="E91" s="11"/>
       <c r="F91" s="10"/>
     </row>
@@ -5828,7 +5840,7 @@
       </c>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
-      <c r="D92" s="11"/>
+      <c r="D92" s="15"/>
       <c r="E92" s="11"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -5837,7 +5849,7 @@
       </c>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
-      <c r="D93" s="11"/>
+      <c r="D93" s="15"/>
       <c r="E93" s="11"/>
       <c r="F93" s="10"/>
     </row>
@@ -5847,7 +5859,7 @@
       </c>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
-      <c r="D94" s="11"/>
+      <c r="D94" s="15"/>
       <c r="E94" s="11"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -5856,7 +5868,7 @@
       </c>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
-      <c r="D95" s="11"/>
+      <c r="D95" s="15"/>
       <c r="E95" s="11"/>
       <c r="F95" s="10"/>
     </row>
@@ -5866,7 +5878,7 @@
       </c>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
-      <c r="D96" s="11"/>
+      <c r="D96" s="15"/>
       <c r="E96" s="11"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -5875,7 +5887,7 @@
       </c>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
-      <c r="D97" s="11"/>
+      <c r="D97" s="15"/>
       <c r="E97" s="11"/>
       <c r="F97" s="10"/>
     </row>
@@ -5885,7 +5897,7 @@
       </c>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
-      <c r="D98" s="4"/>
+      <c r="D98" s="13"/>
       <c r="E98" s="4">
         <v>43823</v>
       </c>
@@ -5898,7 +5910,7 @@
         <v>43472</v>
       </c>
       <c r="C99" s="4"/>
-      <c r="D99" s="4"/>
+      <c r="D99" s="13"/>
       <c r="E99" s="4">
         <v>43823</v>
       </c>
@@ -5914,7 +5926,7 @@
         <v>43472</v>
       </c>
       <c r="C100" s="4"/>
-      <c r="D100" s="4"/>
+      <c r="D100" s="13"/>
       <c r="E100" s="4">
         <v>43823</v>
       </c>
@@ -5927,7 +5939,7 @@
         <v>43469</v>
       </c>
       <c r="C101" s="4"/>
-      <c r="D101" s="4"/>
+      <c r="D101" s="13"/>
       <c r="E101" s="4">
         <v>43823</v>
       </c>
@@ -5943,7 +5955,7 @@
         <v>43472</v>
       </c>
       <c r="C102" s="4"/>
-      <c r="D102" s="4"/>
+      <c r="D102" s="13"/>
       <c r="E102" s="4">
         <v>43823</v>
       </c>
@@ -5956,7 +5968,7 @@
         <v>43472</v>
       </c>
       <c r="C103" s="4"/>
-      <c r="D103" s="4"/>
+      <c r="D103" s="13"/>
       <c r="E103" s="4">
         <v>43823</v>
       </c>
@@ -5972,7 +5984,7 @@
         <v>43472</v>
       </c>
       <c r="C104" s="4"/>
-      <c r="D104" s="4"/>
+      <c r="D104" s="13"/>
       <c r="E104" s="4">
         <v>43823</v>
       </c>
@@ -5985,7 +5997,7 @@
         <v>43472</v>
       </c>
       <c r="C105" s="4"/>
-      <c r="D105" s="4"/>
+      <c r="D105" s="13"/>
       <c r="E105" s="4">
         <v>43823</v>
       </c>
@@ -6001,7 +6013,7 @@
         <v>43476</v>
       </c>
       <c r="C106" s="4"/>
-      <c r="D106" s="4"/>
+      <c r="D106" s="13"/>
       <c r="E106" s="4">
         <v>43823</v>
       </c>
@@ -6014,7 +6026,7 @@
         <v>43473</v>
       </c>
       <c r="C107" s="4"/>
-      <c r="D107" s="4"/>
+      <c r="D107" s="13"/>
       <c r="E107" s="4">
         <v>43823</v>
       </c>
@@ -6030,7 +6042,7 @@
         <v>43472</v>
       </c>
       <c r="C108" s="4"/>
-      <c r="D108" s="4"/>
+      <c r="D108" s="13"/>
       <c r="E108" s="4">
         <v>43823</v>
       </c>
@@ -6039,9 +6051,11 @@
       <c r="A109" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B109" s="4"/>
+      <c r="B109" s="4">
+        <v>43481</v>
+      </c>
       <c r="C109" s="4"/>
-      <c r="D109" s="4"/>
+      <c r="D109" s="13"/>
       <c r="E109" s="4">
         <v>43823</v>
       </c>
@@ -6055,7 +6069,7 @@
         <v>43472</v>
       </c>
       <c r="C110" s="4"/>
-      <c r="D110" s="4"/>
+      <c r="D110" s="13"/>
       <c r="E110" s="4">
         <v>43823</v>
       </c>
@@ -6068,7 +6082,7 @@
         <v>43469</v>
       </c>
       <c r="C111" s="4"/>
-      <c r="D111" s="4"/>
+      <c r="D111" s="13"/>
       <c r="E111" s="4">
         <v>43823</v>
       </c>
@@ -6084,7 +6098,7 @@
         <v>43474</v>
       </c>
       <c r="C112" s="4"/>
-      <c r="D112" s="4"/>
+      <c r="D112" s="13"/>
       <c r="E112" s="4">
         <v>43823</v>
       </c>
@@ -6097,7 +6111,7 @@
         <v>43473</v>
       </c>
       <c r="C113" s="4"/>
-      <c r="D113" s="4"/>
+      <c r="D113" s="13"/>
       <c r="E113" s="4">
         <v>43823</v>
       </c>
@@ -6109,7 +6123,7 @@
       </c>
       <c r="B114" s="6"/>
       <c r="C114" s="6"/>
-      <c r="D114" s="6"/>
+      <c r="D114" s="14"/>
       <c r="E114" s="6">
         <v>43472</v>
       </c>
@@ -6120,7 +6134,7 @@
       </c>
       <c r="B115" s="6"/>
       <c r="C115" s="6"/>
-      <c r="D115" s="6"/>
+      <c r="D115" s="14"/>
       <c r="E115" s="6">
         <v>43472</v>
       </c>
@@ -6132,7 +6146,7 @@
       </c>
       <c r="B116" s="6"/>
       <c r="C116" s="6"/>
-      <c r="D116" s="6"/>
+      <c r="D116" s="14"/>
       <c r="E116" s="6">
         <v>43472</v>
       </c>
@@ -6143,7 +6157,7 @@
       </c>
       <c r="B117" s="6"/>
       <c r="C117" s="6"/>
-      <c r="D117" s="6"/>
+      <c r="D117" s="14"/>
       <c r="E117" s="6">
         <v>43472</v>
       </c>
@@ -6155,7 +6169,7 @@
       </c>
       <c r="B118" s="6"/>
       <c r="C118" s="6"/>
-      <c r="D118" s="6"/>
+      <c r="D118" s="14"/>
       <c r="E118" s="6">
         <v>43472</v>
       </c>
@@ -6166,7 +6180,7 @@
       </c>
       <c r="B119" s="6"/>
       <c r="C119" s="6"/>
-      <c r="D119" s="6"/>
+      <c r="D119" s="14"/>
       <c r="E119" s="6">
         <v>43472</v>
       </c>
@@ -6178,7 +6192,7 @@
       </c>
       <c r="B120" s="6"/>
       <c r="C120" s="6"/>
-      <c r="D120" s="6"/>
+      <c r="D120" s="14"/>
       <c r="E120" s="6">
         <v>43472</v>
       </c>
@@ -6189,7 +6203,7 @@
       </c>
       <c r="B121" s="6"/>
       <c r="C121" s="6"/>
-      <c r="D121" s="6"/>
+      <c r="D121" s="14"/>
       <c r="E121" s="6">
         <v>43472</v>
       </c>
@@ -6199,9 +6213,11 @@
       <c r="A122" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B122" s="6"/>
+      <c r="B122" s="6">
+        <v>43481</v>
+      </c>
       <c r="C122" s="6"/>
-      <c r="D122" s="6"/>
+      <c r="D122" s="14"/>
       <c r="E122" s="6">
         <v>43472</v>
       </c>
@@ -6212,7 +6228,7 @@
       </c>
       <c r="B123" s="6"/>
       <c r="C123" s="6"/>
-      <c r="D123" s="6"/>
+      <c r="D123" s="14"/>
       <c r="E123" s="6">
         <v>43472</v>
       </c>
@@ -6226,7 +6242,7 @@
         <v>43479</v>
       </c>
       <c r="C124" s="6"/>
-      <c r="D124" s="6"/>
+      <c r="D124" s="14"/>
       <c r="E124" s="6">
         <v>43472</v>
       </c>
@@ -6237,7 +6253,7 @@
       </c>
       <c r="B125" s="6"/>
       <c r="C125" s="6"/>
-      <c r="D125" s="6"/>
+      <c r="D125" s="14"/>
       <c r="E125" s="6">
         <v>43472</v>
       </c>
@@ -6249,7 +6265,7 @@
       </c>
       <c r="B126" s="6"/>
       <c r="C126" s="6"/>
-      <c r="D126" s="6"/>
+      <c r="D126" s="14"/>
       <c r="E126" s="6">
         <v>43472</v>
       </c>
@@ -6260,7 +6276,7 @@
       </c>
       <c r="B127" s="6"/>
       <c r="C127" s="6"/>
-      <c r="D127" s="6"/>
+      <c r="D127" s="14"/>
       <c r="E127" s="6">
         <v>43472</v>
       </c>
@@ -6272,7 +6288,7 @@
       </c>
       <c r="B128" s="6"/>
       <c r="C128" s="6"/>
-      <c r="D128" s="6"/>
+      <c r="D128" s="14"/>
       <c r="E128" s="6">
         <v>43472</v>
       </c>
@@ -6283,7 +6299,7 @@
       </c>
       <c r="B129" s="6"/>
       <c r="C129" s="6"/>
-      <c r="D129" s="6"/>
+      <c r="D129" s="14"/>
       <c r="E129" s="6">
         <v>43472</v>
       </c>
@@ -6295,7 +6311,7 @@
       </c>
       <c r="B130" s="11"/>
       <c r="C130" s="11"/>
-      <c r="D130" s="11"/>
+      <c r="D130" s="15"/>
       <c r="E130" s="11"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
@@ -6304,7 +6320,7 @@
       </c>
       <c r="B131" s="11"/>
       <c r="C131" s="11"/>
-      <c r="D131" s="11"/>
+      <c r="D131" s="15"/>
       <c r="E131" s="11"/>
       <c r="F131" s="10"/>
     </row>
@@ -6314,7 +6330,7 @@
       </c>
       <c r="B132" s="11"/>
       <c r="C132" s="11"/>
-      <c r="D132" s="11"/>
+      <c r="D132" s="15"/>
       <c r="E132" s="11"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
@@ -6323,7 +6339,7 @@
       </c>
       <c r="B133" s="11"/>
       <c r="C133" s="11"/>
-      <c r="D133" s="11"/>
+      <c r="D133" s="15"/>
       <c r="E133" s="11"/>
       <c r="F133" s="10"/>
     </row>
@@ -6333,7 +6349,7 @@
       </c>
       <c r="B134" s="11"/>
       <c r="C134" s="11"/>
-      <c r="D134" s="11"/>
+      <c r="D134" s="15"/>
       <c r="E134" s="11"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
@@ -6342,7 +6358,7 @@
       </c>
       <c r="B135" s="11"/>
       <c r="C135" s="11"/>
-      <c r="D135" s="11"/>
+      <c r="D135" s="15"/>
       <c r="E135" s="11"/>
       <c r="F135" s="10"/>
     </row>
@@ -6352,7 +6368,7 @@
       </c>
       <c r="B136" s="11"/>
       <c r="C136" s="11"/>
-      <c r="D136" s="11"/>
+      <c r="D136" s="15"/>
       <c r="E136" s="11"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
@@ -6361,7 +6377,7 @@
       </c>
       <c r="B137" s="11"/>
       <c r="C137" s="11"/>
-      <c r="D137" s="11"/>
+      <c r="D137" s="15"/>
       <c r="E137" s="11"/>
       <c r="F137" s="10"/>
     </row>
@@ -6371,7 +6387,7 @@
       </c>
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
-      <c r="D138" s="11"/>
+      <c r="D138" s="15"/>
       <c r="E138" s="11"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
@@ -6380,7 +6396,7 @@
       </c>
       <c r="B139" s="11"/>
       <c r="C139" s="11"/>
-      <c r="D139" s="11"/>
+      <c r="D139" s="15"/>
       <c r="E139" s="11"/>
       <c r="F139" s="10"/>
     </row>
@@ -6390,7 +6406,7 @@
       </c>
       <c r="B140" s="11"/>
       <c r="C140" s="11"/>
-      <c r="D140" s="11"/>
+      <c r="D140" s="15"/>
       <c r="E140" s="11"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
@@ -6399,7 +6415,7 @@
       </c>
       <c r="B141" s="11"/>
       <c r="C141" s="11"/>
-      <c r="D141" s="11"/>
+      <c r="D141" s="15"/>
       <c r="E141" s="11"/>
       <c r="F141" s="10"/>
     </row>
@@ -6409,7 +6425,7 @@
       </c>
       <c r="B142" s="11"/>
       <c r="C142" s="11"/>
-      <c r="D142" s="11"/>
+      <c r="D142" s="15"/>
       <c r="E142" s="11"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
@@ -6418,7 +6434,7 @@
       </c>
       <c r="B143" s="11"/>
       <c r="C143" s="11"/>
-      <c r="D143" s="11"/>
+      <c r="D143" s="15"/>
       <c r="E143" s="11"/>
       <c r="F143" s="10"/>
     </row>
@@ -6428,7 +6444,7 @@
       </c>
       <c r="B144" s="11"/>
       <c r="C144" s="11"/>
-      <c r="D144" s="11"/>
+      <c r="D144" s="15"/>
       <c r="E144" s="11"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
@@ -6437,7 +6453,7 @@
       </c>
       <c r="B145" s="11"/>
       <c r="C145" s="11"/>
-      <c r="D145" s="11"/>
+      <c r="D145" s="15"/>
       <c r="E145" s="11"/>
       <c r="F145" s="10"/>
     </row>
@@ -6449,7 +6465,7 @@
         <v>43474</v>
       </c>
       <c r="C146" s="4"/>
-      <c r="D146" s="4"/>
+      <c r="D146" s="13"/>
       <c r="E146" s="4">
         <v>43823</v>
       </c>
@@ -6458,9 +6474,11 @@
       <c r="A147" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B147" s="4"/>
+      <c r="B147" s="4">
+        <v>43481</v>
+      </c>
       <c r="C147" s="4"/>
-      <c r="D147" s="4"/>
+      <c r="D147" s="13"/>
       <c r="E147" s="4">
         <v>43823</v>
       </c>
@@ -6474,7 +6492,7 @@
         <v>43474</v>
       </c>
       <c r="C148" s="4"/>
-      <c r="D148" s="4"/>
+      <c r="D148" s="13"/>
       <c r="E148" s="4">
         <v>43823</v>
       </c>
@@ -6483,9 +6501,11 @@
       <c r="A149" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B149" s="4"/>
+      <c r="B149" s="4">
+        <v>43481</v>
+      </c>
       <c r="C149" s="4"/>
-      <c r="D149" s="4"/>
+      <c r="D149" s="13"/>
       <c r="E149" s="4">
         <v>43823</v>
       </c>
@@ -6495,9 +6515,11 @@
       <c r="A150" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B150" s="4"/>
+      <c r="B150" s="4">
+        <v>43481</v>
+      </c>
       <c r="C150" s="4"/>
-      <c r="D150" s="4"/>
+      <c r="D150" s="13"/>
       <c r="E150" s="4">
         <v>43823</v>
       </c>
@@ -6510,7 +6532,7 @@
         <v>43479</v>
       </c>
       <c r="C151" s="4"/>
-      <c r="D151" s="4"/>
+      <c r="D151" s="13"/>
       <c r="E151" s="4">
         <v>43823</v>
       </c>
@@ -6524,7 +6546,7 @@
         <v>43479</v>
       </c>
       <c r="C152" s="4"/>
-      <c r="D152" s="4"/>
+      <c r="D152" s="13"/>
       <c r="E152" s="4">
         <v>43823</v>
       </c>
@@ -6535,7 +6557,7 @@
       </c>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
-      <c r="D153" s="4"/>
+      <c r="D153" s="13"/>
       <c r="E153" s="4">
         <v>43823</v>
       </c>
@@ -6549,7 +6571,7 @@
         <v>43476</v>
       </c>
       <c r="C154" s="4"/>
-      <c r="D154" s="4"/>
+      <c r="D154" s="13"/>
       <c r="E154" s="4">
         <v>43823</v>
       </c>
@@ -6560,7 +6582,7 @@
       </c>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
-      <c r="D155" s="4"/>
+      <c r="D155" s="13"/>
       <c r="E155" s="4">
         <v>43823</v>
       </c>
@@ -6574,7 +6596,7 @@
         <v>43479</v>
       </c>
       <c r="C156" s="4"/>
-      <c r="D156" s="4"/>
+      <c r="D156" s="13"/>
       <c r="E156" s="4">
         <v>43823</v>
       </c>
@@ -6587,7 +6609,7 @@
         <v>43476</v>
       </c>
       <c r="C157" s="4"/>
-      <c r="D157" s="4"/>
+      <c r="D157" s="13"/>
       <c r="E157" s="4">
         <v>43823</v>
       </c>
@@ -6601,7 +6623,7 @@
         <v>43479</v>
       </c>
       <c r="C158" s="4"/>
-      <c r="D158" s="4"/>
+      <c r="D158" s="13"/>
       <c r="E158" s="4">
         <v>43823</v>
       </c>
@@ -6614,7 +6636,7 @@
         <v>43476</v>
       </c>
       <c r="C159" s="4"/>
-      <c r="D159" s="4"/>
+      <c r="D159" s="13"/>
       <c r="E159" s="4">
         <v>43823</v>
       </c>
@@ -6628,7 +6650,7 @@
         <v>43474</v>
       </c>
       <c r="C160" s="4"/>
-      <c r="D160" s="4"/>
+      <c r="D160" s="13"/>
       <c r="E160" s="4">
         <v>43823</v>
       </c>
@@ -6639,7 +6661,7 @@
       </c>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
-      <c r="D161" s="4"/>
+      <c r="D161" s="13"/>
       <c r="E161" s="4">
         <v>43823</v>
       </c>
@@ -6651,7 +6673,7 @@
       </c>
       <c r="B162" s="6"/>
       <c r="C162" s="6"/>
-      <c r="D162" s="6"/>
+      <c r="D162" s="14"/>
       <c r="E162" s="6">
         <v>43472</v>
       </c>
@@ -6662,7 +6684,7 @@
       </c>
       <c r="B163" s="6"/>
       <c r="C163" s="6"/>
-      <c r="D163" s="6"/>
+      <c r="D163" s="14"/>
       <c r="E163" s="6">
         <v>43472</v>
       </c>
@@ -6674,7 +6696,7 @@
       </c>
       <c r="B164" s="6"/>
       <c r="C164" s="6"/>
-      <c r="D164" s="6"/>
+      <c r="D164" s="14"/>
       <c r="E164" s="6">
         <v>43472</v>
       </c>
@@ -6685,7 +6707,7 @@
       </c>
       <c r="B165" s="6"/>
       <c r="C165" s="6"/>
-      <c r="D165" s="6"/>
+      <c r="D165" s="14"/>
       <c r="E165" s="6">
         <v>43472</v>
       </c>
@@ -6697,7 +6719,7 @@
       </c>
       <c r="B166" s="6"/>
       <c r="C166" s="6"/>
-      <c r="D166" s="6"/>
+      <c r="D166" s="14"/>
       <c r="E166" s="6">
         <v>43472</v>
       </c>
@@ -6708,7 +6730,7 @@
       </c>
       <c r="B167" s="6"/>
       <c r="C167" s="6"/>
-      <c r="D167" s="6"/>
+      <c r="D167" s="14"/>
       <c r="E167" s="6">
         <v>43472</v>
       </c>
@@ -6720,7 +6742,7 @@
       </c>
       <c r="B168" s="6"/>
       <c r="C168" s="6"/>
-      <c r="D168" s="6"/>
+      <c r="D168" s="14"/>
       <c r="E168" s="6">
         <v>43472</v>
       </c>
@@ -6731,7 +6753,7 @@
       </c>
       <c r="B169" s="6"/>
       <c r="C169" s="6"/>
-      <c r="D169" s="6"/>
+      <c r="D169" s="14"/>
       <c r="E169" s="6">
         <v>43472</v>
       </c>
@@ -6743,7 +6765,7 @@
       </c>
       <c r="B170" s="6"/>
       <c r="C170" s="6"/>
-      <c r="D170" s="6"/>
+      <c r="D170" s="14"/>
       <c r="E170" s="6">
         <v>43472</v>
       </c>
@@ -6754,7 +6776,7 @@
       </c>
       <c r="B171" s="6"/>
       <c r="C171" s="6"/>
-      <c r="D171" s="6"/>
+      <c r="D171" s="14"/>
       <c r="E171" s="6">
         <v>43472</v>
       </c>
@@ -6766,7 +6788,7 @@
       </c>
       <c r="B172" s="6"/>
       <c r="C172" s="6"/>
-      <c r="D172" s="6"/>
+      <c r="D172" s="14"/>
       <c r="E172" s="6">
         <v>43472</v>
       </c>
@@ -6777,7 +6799,7 @@
       </c>
       <c r="B173" s="6"/>
       <c r="C173" s="6"/>
-      <c r="D173" s="6"/>
+      <c r="D173" s="14"/>
       <c r="E173" s="6">
         <v>43472</v>
       </c>
@@ -6789,7 +6811,7 @@
       </c>
       <c r="B174" s="6"/>
       <c r="C174" s="6"/>
-      <c r="D174" s="6"/>
+      <c r="D174" s="14"/>
       <c r="E174" s="6">
         <v>43472</v>
       </c>
@@ -6800,7 +6822,7 @@
       </c>
       <c r="B175" s="6"/>
       <c r="C175" s="6"/>
-      <c r="D175" s="6"/>
+      <c r="D175" s="14"/>
       <c r="E175" s="6">
         <v>43472</v>
       </c>
@@ -6812,7 +6834,7 @@
       </c>
       <c r="B176" s="6"/>
       <c r="C176" s="6"/>
-      <c r="D176" s="6"/>
+      <c r="D176" s="14"/>
       <c r="E176" s="6">
         <v>43472</v>
       </c>
@@ -6823,7 +6845,7 @@
       </c>
       <c r="B177" s="6"/>
       <c r="C177" s="6"/>
-      <c r="D177" s="6"/>
+      <c r="D177" s="14"/>
       <c r="E177" s="6">
         <v>43472</v>
       </c>
@@ -6835,7 +6857,7 @@
       </c>
       <c r="B178" s="11"/>
       <c r="C178" s="11"/>
-      <c r="D178" s="11"/>
+      <c r="D178" s="15"/>
       <c r="E178" s="11"/>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
@@ -6844,7 +6866,7 @@
       </c>
       <c r="B179" s="11"/>
       <c r="C179" s="11"/>
-      <c r="D179" s="11"/>
+      <c r="D179" s="15"/>
       <c r="E179" s="11"/>
       <c r="F179" s="10"/>
     </row>
@@ -6854,7 +6876,7 @@
       </c>
       <c r="B180" s="11"/>
       <c r="C180" s="11"/>
-      <c r="D180" s="11"/>
+      <c r="D180" s="15"/>
       <c r="E180" s="11"/>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
@@ -6863,7 +6885,7 @@
       </c>
       <c r="B181" s="11"/>
       <c r="C181" s="11"/>
-      <c r="D181" s="11"/>
+      <c r="D181" s="15"/>
       <c r="E181" s="11"/>
       <c r="F181" s="10"/>
     </row>
@@ -6873,7 +6895,7 @@
       </c>
       <c r="B182" s="11"/>
       <c r="C182" s="11"/>
-      <c r="D182" s="11"/>
+      <c r="D182" s="15"/>
       <c r="E182" s="11"/>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
@@ -6882,7 +6904,7 @@
       </c>
       <c r="B183" s="11"/>
       <c r="C183" s="11"/>
-      <c r="D183" s="11"/>
+      <c r="D183" s="15"/>
       <c r="E183" s="11"/>
       <c r="F183" s="10"/>
     </row>
@@ -6892,7 +6914,7 @@
       </c>
       <c r="B184" s="11"/>
       <c r="C184" s="11"/>
-      <c r="D184" s="11"/>
+      <c r="D184" s="15"/>
       <c r="E184" s="11"/>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
@@ -6901,7 +6923,7 @@
       </c>
       <c r="B185" s="11"/>
       <c r="C185" s="11"/>
-      <c r="D185" s="11"/>
+      <c r="D185" s="15"/>
       <c r="E185" s="11"/>
       <c r="F185" s="10"/>
     </row>
@@ -6911,7 +6933,7 @@
       </c>
       <c r="B186" s="11"/>
       <c r="C186" s="11"/>
-      <c r="D186" s="11"/>
+      <c r="D186" s="15"/>
       <c r="E186" s="11"/>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
@@ -6920,7 +6942,7 @@
       </c>
       <c r="B187" s="11"/>
       <c r="C187" s="11"/>
-      <c r="D187" s="11"/>
+      <c r="D187" s="15"/>
       <c r="E187" s="11"/>
       <c r="F187" s="10"/>
     </row>
@@ -6930,7 +6952,7 @@
       </c>
       <c r="B188" s="11"/>
       <c r="C188" s="11"/>
-      <c r="D188" s="11"/>
+      <c r="D188" s="15"/>
       <c r="E188" s="11"/>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
@@ -6939,7 +6961,7 @@
       </c>
       <c r="B189" s="11"/>
       <c r="C189" s="11"/>
-      <c r="D189" s="11"/>
+      <c r="D189" s="15"/>
       <c r="E189" s="11"/>
       <c r="F189" s="10"/>
     </row>
@@ -6949,7 +6971,7 @@
       </c>
       <c r="B190" s="11"/>
       <c r="C190" s="11"/>
-      <c r="D190" s="11"/>
+      <c r="D190" s="15"/>
       <c r="E190" s="11"/>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
@@ -6958,7 +6980,7 @@
       </c>
       <c r="B191" s="11"/>
       <c r="C191" s="11"/>
-      <c r="D191" s="11"/>
+      <c r="D191" s="15"/>
       <c r="E191" s="11"/>
       <c r="F191" s="10"/>
     </row>
@@ -6968,7 +6990,7 @@
       </c>
       <c r="B192" s="11"/>
       <c r="C192" s="11"/>
-      <c r="D192" s="11"/>
+      <c r="D192" s="15"/>
       <c r="E192" s="11"/>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
@@ -6977,7 +6999,7 @@
       </c>
       <c r="B193" s="11"/>
       <c r="C193" s="11"/>
-      <c r="D193" s="11"/>
+      <c r="D193" s="15"/>
       <c r="E193" s="11"/>
       <c r="F193" s="10"/>
     </row>
@@ -6989,7 +7011,7 @@
         <v>43472</v>
       </c>
       <c r="C194" s="4"/>
-      <c r="D194" s="4"/>
+      <c r="D194" s="13"/>
       <c r="E194" s="4">
         <v>43823</v>
       </c>
@@ -7002,7 +7024,7 @@
         <v>43474</v>
       </c>
       <c r="C195" s="4"/>
-      <c r="D195" s="4"/>
+      <c r="D195" s="13"/>
       <c r="E195" s="4">
         <v>43823</v>
       </c>
@@ -7018,7 +7040,7 @@
         <v>43472</v>
       </c>
       <c r="C196" s="4"/>
-      <c r="D196" s="4"/>
+      <c r="D196" s="13"/>
       <c r="E196" s="4">
         <v>43823</v>
       </c>
@@ -7029,7 +7051,7 @@
       </c>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
-      <c r="D197" s="4"/>
+      <c r="D197" s="13"/>
       <c r="E197" s="4">
         <v>43823</v>
       </c>
@@ -7043,7 +7065,7 @@
         <v>43472</v>
       </c>
       <c r="C198" s="4"/>
-      <c r="D198" s="4"/>
+      <c r="D198" s="13"/>
       <c r="E198" s="4">
         <v>43823</v>
       </c>
@@ -7056,7 +7078,7 @@
         <v>43476</v>
       </c>
       <c r="C199" s="4"/>
-      <c r="D199" s="4"/>
+      <c r="D199" s="13"/>
       <c r="E199" s="4">
         <v>43823</v>
       </c>
@@ -7070,7 +7092,7 @@
         <v>43479</v>
       </c>
       <c r="C200" s="4"/>
-      <c r="D200" s="4"/>
+      <c r="D200" s="13"/>
       <c r="E200" s="4">
         <v>43823</v>
       </c>
@@ -7081,7 +7103,7 @@
       </c>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
-      <c r="D201" s="4"/>
+      <c r="D201" s="13"/>
       <c r="E201" s="4">
         <v>43823</v>
       </c>
@@ -7095,7 +7117,7 @@
         <v>43476</v>
       </c>
       <c r="C202" s="4"/>
-      <c r="D202" s="4"/>
+      <c r="D202" s="13"/>
       <c r="E202" s="4">
         <v>43823</v>
       </c>
@@ -7108,7 +7130,7 @@
         <v>43473</v>
       </c>
       <c r="C203" s="4"/>
-      <c r="D203" s="4"/>
+      <c r="D203" s="13"/>
       <c r="E203" s="4">
         <v>43823</v>
       </c>
@@ -7122,7 +7144,7 @@
         <v>43479</v>
       </c>
       <c r="C204" s="4"/>
-      <c r="D204" s="4"/>
+      <c r="D204" s="13"/>
       <c r="E204" s="4">
         <v>43823</v>
       </c>
@@ -7135,7 +7157,7 @@
         <v>43467</v>
       </c>
       <c r="C205" s="4"/>
-      <c r="D205" s="4"/>
+      <c r="D205" s="13"/>
       <c r="E205" s="4">
         <v>43823</v>
       </c>
@@ -7151,7 +7173,7 @@
         <v>43469</v>
       </c>
       <c r="C206" s="4"/>
-      <c r="D206" s="4"/>
+      <c r="D206" s="13"/>
       <c r="E206" s="4">
         <v>43823</v>
       </c>
@@ -7164,7 +7186,7 @@
         <v>43469</v>
       </c>
       <c r="C207" s="4"/>
-      <c r="D207" s="4"/>
+      <c r="D207" s="13"/>
       <c r="E207" s="4">
         <v>43823</v>
       </c>
@@ -7179,8 +7201,12 @@
       <c r="B208" s="4">
         <v>43467</v>
       </c>
-      <c r="C208" s="4"/>
-      <c r="D208" s="4"/>
+      <c r="C208" s="4">
+        <v>43481</v>
+      </c>
+      <c r="D208" s="13">
+        <v>55.4</v>
+      </c>
       <c r="E208" s="4">
         <v>43823</v>
       </c>
@@ -7193,7 +7219,7 @@
         <v>43472</v>
       </c>
       <c r="C209" s="4"/>
-      <c r="D209" s="4"/>
+      <c r="D209" s="13"/>
       <c r="E209" s="4">
         <v>43823</v>
       </c>
@@ -7207,7 +7233,7 @@
       </c>
       <c r="B210" s="6"/>
       <c r="C210" s="6"/>
-      <c r="D210" s="6"/>
+      <c r="D210" s="14"/>
       <c r="E210" s="6">
         <v>43472</v>
       </c>
@@ -7218,7 +7244,7 @@
       </c>
       <c r="B211" s="6"/>
       <c r="C211" s="6"/>
-      <c r="D211" s="6"/>
+      <c r="D211" s="14"/>
       <c r="E211" s="6">
         <v>43472</v>
       </c>
@@ -7230,7 +7256,7 @@
       </c>
       <c r="B212" s="6"/>
       <c r="C212" s="6"/>
-      <c r="D212" s="6"/>
+      <c r="D212" s="14"/>
       <c r="E212" s="6">
         <v>43472</v>
       </c>
@@ -7241,7 +7267,7 @@
       </c>
       <c r="B213" s="6"/>
       <c r="C213" s="6"/>
-      <c r="D213" s="6"/>
+      <c r="D213" s="14"/>
       <c r="E213" s="6">
         <v>43472</v>
       </c>
@@ -7253,7 +7279,7 @@
       </c>
       <c r="B214" s="6"/>
       <c r="C214" s="6"/>
-      <c r="D214" s="6"/>
+      <c r="D214" s="14"/>
       <c r="E214" s="6">
         <v>43472</v>
       </c>
@@ -7264,7 +7290,7 @@
       </c>
       <c r="B215" s="6"/>
       <c r="C215" s="6"/>
-      <c r="D215" s="6"/>
+      <c r="D215" s="14"/>
       <c r="E215" s="6">
         <v>43472</v>
       </c>
@@ -7276,7 +7302,7 @@
       </c>
       <c r="B216" s="6"/>
       <c r="C216" s="6"/>
-      <c r="D216" s="6"/>
+      <c r="D216" s="14"/>
       <c r="E216" s="6">
         <v>43472</v>
       </c>
@@ -7287,7 +7313,7 @@
       </c>
       <c r="B217" s="6"/>
       <c r="C217" s="6"/>
-      <c r="D217" s="6"/>
+      <c r="D217" s="14"/>
       <c r="E217" s="6">
         <v>43472</v>
       </c>
@@ -7299,7 +7325,7 @@
       </c>
       <c r="B218" s="6"/>
       <c r="C218" s="6"/>
-      <c r="D218" s="6"/>
+      <c r="D218" s="14"/>
       <c r="E218" s="6">
         <v>43472</v>
       </c>
@@ -7310,7 +7336,7 @@
       </c>
       <c r="B219" s="6"/>
       <c r="C219" s="6"/>
-      <c r="D219" s="6"/>
+      <c r="D219" s="14"/>
       <c r="E219" s="6">
         <v>43472</v>
       </c>
@@ -7322,7 +7348,7 @@
       </c>
       <c r="B220" s="6"/>
       <c r="C220" s="6"/>
-      <c r="D220" s="6"/>
+      <c r="D220" s="14"/>
       <c r="E220" s="6">
         <v>43472</v>
       </c>
@@ -7333,7 +7359,7 @@
       </c>
       <c r="B221" s="6"/>
       <c r="C221" s="6"/>
-      <c r="D221" s="6"/>
+      <c r="D221" s="14"/>
       <c r="E221" s="6">
         <v>43472</v>
       </c>
@@ -7347,7 +7373,7 @@
         <v>43479</v>
       </c>
       <c r="C222" s="6"/>
-      <c r="D222" s="6"/>
+      <c r="D222" s="14"/>
       <c r="E222" s="6">
         <v>43472</v>
       </c>
@@ -7356,9 +7382,11 @@
       <c r="A223" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="B223" s="6"/>
+      <c r="B223" s="6">
+        <v>43481</v>
+      </c>
       <c r="C223" s="6"/>
-      <c r="D223" s="6"/>
+      <c r="D223" s="14"/>
       <c r="E223" s="6">
         <v>43472</v>
       </c>
@@ -7370,7 +7398,7 @@
       </c>
       <c r="B224" s="6"/>
       <c r="C224" s="6"/>
-      <c r="D224" s="6"/>
+      <c r="D224" s="14"/>
       <c r="E224" s="6">
         <v>43472</v>
       </c>
@@ -7381,7 +7409,7 @@
       </c>
       <c r="B225" s="6"/>
       <c r="C225" s="6"/>
-      <c r="D225" s="6"/>
+      <c r="D225" s="14"/>
       <c r="E225" s="6">
         <v>43472</v>
       </c>
@@ -7393,7 +7421,7 @@
       </c>
       <c r="B226" s="11"/>
       <c r="C226" s="11"/>
-      <c r="D226" s="11"/>
+      <c r="D226" s="15"/>
       <c r="E226" s="11"/>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
@@ -7402,7 +7430,7 @@
       </c>
       <c r="B227" s="11"/>
       <c r="C227" s="11"/>
-      <c r="D227" s="11"/>
+      <c r="D227" s="15"/>
       <c r="E227" s="11"/>
       <c r="F227" s="10"/>
     </row>
@@ -7412,7 +7440,7 @@
       </c>
       <c r="B228" s="11"/>
       <c r="C228" s="11"/>
-      <c r="D228" s="11"/>
+      <c r="D228" s="15"/>
       <c r="E228" s="11"/>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
@@ -7421,7 +7449,7 @@
       </c>
       <c r="B229" s="11"/>
       <c r="C229" s="11"/>
-      <c r="D229" s="11"/>
+      <c r="D229" s="15"/>
       <c r="E229" s="11"/>
       <c r="F229" s="10"/>
     </row>
@@ -7431,7 +7459,7 @@
       </c>
       <c r="B230" s="11"/>
       <c r="C230" s="11"/>
-      <c r="D230" s="11"/>
+      <c r="D230" s="15"/>
       <c r="E230" s="11"/>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
@@ -7440,7 +7468,7 @@
       </c>
       <c r="B231" s="11"/>
       <c r="C231" s="11"/>
-      <c r="D231" s="11"/>
+      <c r="D231" s="15"/>
       <c r="E231" s="11"/>
       <c r="F231" s="10"/>
     </row>
@@ -7450,7 +7478,7 @@
       </c>
       <c r="B232" s="11"/>
       <c r="C232" s="11"/>
-      <c r="D232" s="11"/>
+      <c r="D232" s="15"/>
       <c r="E232" s="11"/>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
@@ -7459,7 +7487,7 @@
       </c>
       <c r="B233" s="11"/>
       <c r="C233" s="11"/>
-      <c r="D233" s="11"/>
+      <c r="D233" s="15"/>
       <c r="E233" s="11"/>
       <c r="F233" s="10"/>
     </row>
@@ -7469,7 +7497,7 @@
       </c>
       <c r="B234" s="11"/>
       <c r="C234" s="11"/>
-      <c r="D234" s="11"/>
+      <c r="D234" s="15"/>
       <c r="E234" s="11"/>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
@@ -7478,7 +7506,7 @@
       </c>
       <c r="B235" s="11"/>
       <c r="C235" s="11"/>
-      <c r="D235" s="11"/>
+      <c r="D235" s="15"/>
       <c r="E235" s="11"/>
       <c r="F235" s="10"/>
     </row>
@@ -7488,7 +7516,7 @@
       </c>
       <c r="B236" s="11"/>
       <c r="C236" s="11"/>
-      <c r="D236" s="11"/>
+      <c r="D236" s="15"/>
       <c r="E236" s="11"/>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
@@ -7497,7 +7525,7 @@
       </c>
       <c r="B237" s="11"/>
       <c r="C237" s="11"/>
-      <c r="D237" s="11"/>
+      <c r="D237" s="15"/>
       <c r="E237" s="11"/>
       <c r="F237" s="10"/>
     </row>
@@ -7507,7 +7535,7 @@
       </c>
       <c r="B238" s="11"/>
       <c r="C238" s="11"/>
-      <c r="D238" s="11"/>
+      <c r="D238" s="15"/>
       <c r="E238" s="11"/>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
@@ -7516,7 +7544,7 @@
       </c>
       <c r="B239" s="11"/>
       <c r="C239" s="11"/>
-      <c r="D239" s="11"/>
+      <c r="D239" s="15"/>
       <c r="E239" s="11"/>
       <c r="F239" s="10"/>
     </row>
@@ -7526,7 +7554,7 @@
       </c>
       <c r="B240" s="11"/>
       <c r="C240" s="11"/>
-      <c r="D240" s="11"/>
+      <c r="D240" s="15"/>
       <c r="E240" s="11"/>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
@@ -7535,7 +7563,7 @@
       </c>
       <c r="B241" s="11"/>
       <c r="C241" s="11"/>
-      <c r="D241" s="11"/>
+      <c r="D241" s="15"/>
       <c r="E241" s="11"/>
       <c r="F241" s="10"/>
     </row>
@@ -7545,7 +7573,7 @@
       </c>
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
-      <c r="D242" s="4"/>
+      <c r="D242" s="13"/>
       <c r="E242" s="4">
         <v>43823</v>
       </c>
@@ -7556,7 +7584,7 @@
       </c>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
-      <c r="D243" s="4"/>
+      <c r="D243" s="13"/>
       <c r="E243" s="4">
         <v>43823</v>
       </c>
@@ -7568,7 +7596,7 @@
       </c>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
-      <c r="D244" s="4"/>
+      <c r="D244" s="13"/>
       <c r="E244" s="4">
         <v>43823</v>
       </c>
@@ -7579,7 +7607,7 @@
       </c>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
-      <c r="D245" s="4"/>
+      <c r="D245" s="13"/>
       <c r="E245" s="4">
         <v>43823</v>
       </c>
@@ -7591,7 +7619,7 @@
       </c>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
-      <c r="D246" s="4"/>
+      <c r="D246" s="13"/>
       <c r="E246" s="4">
         <v>43823</v>
       </c>
@@ -7602,7 +7630,7 @@
       </c>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
-      <c r="D247" s="4"/>
+      <c r="D247" s="13"/>
       <c r="E247" s="4">
         <v>43823</v>
       </c>
@@ -7614,7 +7642,7 @@
       </c>
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
-      <c r="D248" s="4"/>
+      <c r="D248" s="13"/>
       <c r="E248" s="4">
         <v>43823</v>
       </c>
@@ -7625,7 +7653,7 @@
       </c>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
-      <c r="D249" s="4"/>
+      <c r="D249" s="13"/>
       <c r="E249" s="4">
         <v>43823</v>
       </c>
@@ -7637,7 +7665,7 @@
       </c>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
-      <c r="D250" s="4"/>
+      <c r="D250" s="13"/>
       <c r="E250" s="4">
         <v>43823</v>
       </c>
@@ -7648,7 +7676,7 @@
       </c>
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
-      <c r="D251" s="4"/>
+      <c r="D251" s="13"/>
       <c r="E251" s="4">
         <v>43823</v>
       </c>
@@ -7660,7 +7688,7 @@
       </c>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
-      <c r="D252" s="4"/>
+      <c r="D252" s="13"/>
       <c r="E252" s="4">
         <v>43823</v>
       </c>
@@ -7671,7 +7699,7 @@
       </c>
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
-      <c r="D253" s="4"/>
+      <c r="D253" s="13"/>
       <c r="E253" s="4">
         <v>43823</v>
       </c>
@@ -7683,7 +7711,7 @@
       </c>
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
-      <c r="D254" s="4"/>
+      <c r="D254" s="13"/>
       <c r="E254" s="4">
         <v>43823</v>
       </c>
@@ -7694,7 +7722,7 @@
       </c>
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
-      <c r="D255" s="4"/>
+      <c r="D255" s="13"/>
       <c r="E255" s="4">
         <v>43823</v>
       </c>
@@ -7706,7 +7734,7 @@
       </c>
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
-      <c r="D256" s="4"/>
+      <c r="D256" s="13"/>
       <c r="E256" s="4">
         <v>43823</v>
       </c>
@@ -7717,7 +7745,7 @@
       </c>
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
-      <c r="D257" s="4"/>
+      <c r="D257" s="13"/>
       <c r="E257" s="4">
         <v>43823</v>
       </c>
@@ -7729,7 +7757,7 @@
       </c>
       <c r="B258" s="6"/>
       <c r="C258" s="6"/>
-      <c r="D258" s="6"/>
+      <c r="D258" s="14"/>
       <c r="E258" s="6">
         <v>43472</v>
       </c>
@@ -7740,7 +7768,7 @@
       </c>
       <c r="B259" s="6"/>
       <c r="C259" s="6"/>
-      <c r="D259" s="6"/>
+      <c r="D259" s="14"/>
       <c r="E259" s="6">
         <v>43472</v>
       </c>
@@ -7752,7 +7780,7 @@
       </c>
       <c r="B260" s="6"/>
       <c r="C260" s="6"/>
-      <c r="D260" s="6"/>
+      <c r="D260" s="14"/>
       <c r="E260" s="6">
         <v>43472</v>
       </c>
@@ -7763,7 +7791,7 @@
       </c>
       <c r="B261" s="6"/>
       <c r="C261" s="6"/>
-      <c r="D261" s="6"/>
+      <c r="D261" s="14"/>
       <c r="E261" s="6">
         <v>43472</v>
       </c>
@@ -7775,7 +7803,7 @@
       </c>
       <c r="B262" s="6"/>
       <c r="C262" s="6"/>
-      <c r="D262" s="6"/>
+      <c r="D262" s="14"/>
       <c r="E262" s="6">
         <v>43472</v>
       </c>
@@ -7786,7 +7814,7 @@
       </c>
       <c r="B263" s="6"/>
       <c r="C263" s="6"/>
-      <c r="D263" s="6"/>
+      <c r="D263" s="14"/>
       <c r="E263" s="6">
         <v>43472</v>
       </c>
@@ -7798,7 +7826,7 @@
       </c>
       <c r="B264" s="6"/>
       <c r="C264" s="6"/>
-      <c r="D264" s="6"/>
+      <c r="D264" s="14"/>
       <c r="E264" s="6">
         <v>43472</v>
       </c>
@@ -7809,7 +7837,7 @@
       </c>
       <c r="B265" s="6"/>
       <c r="C265" s="6"/>
-      <c r="D265" s="6"/>
+      <c r="D265" s="14"/>
       <c r="E265" s="6">
         <v>43472</v>
       </c>
@@ -7821,7 +7849,7 @@
       </c>
       <c r="B266" s="6"/>
       <c r="C266" s="6"/>
-      <c r="D266" s="6"/>
+      <c r="D266" s="14"/>
       <c r="E266" s="6">
         <v>43472</v>
       </c>
@@ -7832,7 +7860,7 @@
       </c>
       <c r="B267" s="6"/>
       <c r="C267" s="6"/>
-      <c r="D267" s="6"/>
+      <c r="D267" s="14"/>
       <c r="E267" s="6">
         <v>43472</v>
       </c>
@@ -7844,7 +7872,7 @@
       </c>
       <c r="B268" s="6"/>
       <c r="C268" s="6"/>
-      <c r="D268" s="6"/>
+      <c r="D268" s="14"/>
       <c r="E268" s="6">
         <v>43472</v>
       </c>
@@ -7855,7 +7883,7 @@
       </c>
       <c r="B269" s="6"/>
       <c r="C269" s="6"/>
-      <c r="D269" s="6"/>
+      <c r="D269" s="14"/>
       <c r="E269" s="6">
         <v>43472</v>
       </c>
@@ -7867,7 +7895,7 @@
       </c>
       <c r="B270" s="6"/>
       <c r="C270" s="6"/>
-      <c r="D270" s="6"/>
+      <c r="D270" s="14"/>
       <c r="E270" s="6">
         <v>43472</v>
       </c>
@@ -7878,7 +7906,7 @@
       </c>
       <c r="B271" s="6"/>
       <c r="C271" s="6"/>
-      <c r="D271" s="6"/>
+      <c r="D271" s="14"/>
       <c r="E271" s="6">
         <v>43472</v>
       </c>
@@ -7890,7 +7918,7 @@
       </c>
       <c r="B272" s="6"/>
       <c r="C272" s="6"/>
-      <c r="D272" s="6"/>
+      <c r="D272" s="14"/>
       <c r="E272" s="6">
         <v>43472</v>
       </c>
@@ -7901,7 +7929,7 @@
       </c>
       <c r="B273" s="6"/>
       <c r="C273" s="6"/>
-      <c r="D273" s="6"/>
+      <c r="D273" s="14"/>
       <c r="E273" s="6">
         <v>43472</v>
       </c>
@@ -7913,7 +7941,7 @@
       </c>
       <c r="B274" s="11"/>
       <c r="C274" s="11"/>
-      <c r="D274" s="11"/>
+      <c r="D274" s="15"/>
       <c r="E274" s="11"/>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.2">
@@ -7922,7 +7950,7 @@
       </c>
       <c r="B275" s="11"/>
       <c r="C275" s="11"/>
-      <c r="D275" s="11"/>
+      <c r="D275" s="15"/>
       <c r="E275" s="11"/>
       <c r="F275" s="10"/>
     </row>
@@ -7932,7 +7960,7 @@
       </c>
       <c r="B276" s="11"/>
       <c r="C276" s="11"/>
-      <c r="D276" s="11"/>
+      <c r="D276" s="15"/>
       <c r="E276" s="11"/>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.2">
@@ -7941,7 +7969,7 @@
       </c>
       <c r="B277" s="11"/>
       <c r="C277" s="11"/>
-      <c r="D277" s="11"/>
+      <c r="D277" s="15"/>
       <c r="E277" s="11"/>
       <c r="F277" s="10"/>
     </row>
@@ -7951,7 +7979,7 @@
       </c>
       <c r="B278" s="11"/>
       <c r="C278" s="11"/>
-      <c r="D278" s="11"/>
+      <c r="D278" s="15"/>
       <c r="E278" s="11"/>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.2">
@@ -7960,7 +7988,7 @@
       </c>
       <c r="B279" s="11"/>
       <c r="C279" s="11"/>
-      <c r="D279" s="11"/>
+      <c r="D279" s="15"/>
       <c r="E279" s="11"/>
       <c r="F279" s="10"/>
     </row>
@@ -7970,7 +7998,7 @@
       </c>
       <c r="B280" s="11"/>
       <c r="C280" s="11"/>
-      <c r="D280" s="11"/>
+      <c r="D280" s="15"/>
       <c r="E280" s="11"/>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.2">
@@ -7979,7 +8007,7 @@
       </c>
       <c r="B281" s="11"/>
       <c r="C281" s="11"/>
-      <c r="D281" s="11"/>
+      <c r="D281" s="15"/>
       <c r="E281" s="11"/>
       <c r="F281" s="10"/>
     </row>
@@ -7989,7 +8017,7 @@
       </c>
       <c r="B282" s="11"/>
       <c r="C282" s="11"/>
-      <c r="D282" s="11"/>
+      <c r="D282" s="15"/>
       <c r="E282" s="11"/>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.2">
@@ -7998,7 +8026,7 @@
       </c>
       <c r="B283" s="11"/>
       <c r="C283" s="11"/>
-      <c r="D283" s="11"/>
+      <c r="D283" s="15"/>
       <c r="E283" s="11"/>
       <c r="F283" s="10"/>
     </row>
@@ -8008,7 +8036,7 @@
       </c>
       <c r="B284" s="11"/>
       <c r="C284" s="11"/>
-      <c r="D284" s="11"/>
+      <c r="D284" s="15"/>
       <c r="E284" s="11"/>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.2">
@@ -8017,7 +8045,7 @@
       </c>
       <c r="B285" s="11"/>
       <c r="C285" s="11"/>
-      <c r="D285" s="11"/>
+      <c r="D285" s="15"/>
       <c r="E285" s="11"/>
       <c r="F285" s="10"/>
     </row>
@@ -8027,7 +8055,7 @@
       </c>
       <c r="B286" s="11"/>
       <c r="C286" s="11"/>
-      <c r="D286" s="11"/>
+      <c r="D286" s="15"/>
       <c r="E286" s="11"/>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.2">
@@ -8036,7 +8064,7 @@
       </c>
       <c r="B287" s="11"/>
       <c r="C287" s="11"/>
-      <c r="D287" s="11"/>
+      <c r="D287" s="15"/>
       <c r="E287" s="11"/>
       <c r="F287" s="10"/>
     </row>
@@ -8046,7 +8074,7 @@
       </c>
       <c r="B288" s="11"/>
       <c r="C288" s="11"/>
-      <c r="D288" s="11"/>
+      <c r="D288" s="15"/>
       <c r="E288" s="11"/>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.2">
@@ -8055,7 +8083,7 @@
       </c>
       <c r="B289" s="11"/>
       <c r="C289" s="11"/>
-      <c r="D289" s="11"/>
+      <c r="D289" s="15"/>
       <c r="E289" s="11"/>
       <c r="F289" s="10"/>
     </row>
@@ -8065,7 +8093,7 @@
       </c>
       <c r="B290" s="4"/>
       <c r="C290" s="4"/>
-      <c r="D290" s="4"/>
+      <c r="D290" s="13"/>
       <c r="E290" s="4">
         <v>43823</v>
       </c>
@@ -8076,7 +8104,7 @@
       </c>
       <c r="B291" s="4"/>
       <c r="C291" s="4"/>
-      <c r="D291" s="4"/>
+      <c r="D291" s="13"/>
       <c r="E291" s="4">
         <v>43823</v>
       </c>
@@ -8088,7 +8116,7 @@
       </c>
       <c r="B292" s="4"/>
       <c r="C292" s="4"/>
-      <c r="D292" s="4"/>
+      <c r="D292" s="13"/>
       <c r="E292" s="4">
         <v>43823</v>
       </c>
@@ -8099,7 +8127,7 @@
       </c>
       <c r="B293" s="4"/>
       <c r="C293" s="4"/>
-      <c r="D293" s="4"/>
+      <c r="D293" s="13"/>
       <c r="E293" s="4">
         <v>43823</v>
       </c>
@@ -8111,7 +8139,7 @@
       </c>
       <c r="B294" s="4"/>
       <c r="C294" s="4"/>
-      <c r="D294" s="4"/>
+      <c r="D294" s="13"/>
       <c r="E294" s="4">
         <v>43823</v>
       </c>
@@ -8122,7 +8150,7 @@
       </c>
       <c r="B295" s="4"/>
       <c r="C295" s="4"/>
-      <c r="D295" s="4"/>
+      <c r="D295" s="13"/>
       <c r="E295" s="4">
         <v>43823</v>
       </c>
@@ -8134,7 +8162,7 @@
       </c>
       <c r="B296" s="4"/>
       <c r="C296" s="4"/>
-      <c r="D296" s="4"/>
+      <c r="D296" s="13"/>
       <c r="E296" s="4">
         <v>43823</v>
       </c>
@@ -8145,7 +8173,7 @@
       </c>
       <c r="B297" s="4"/>
       <c r="C297" s="4"/>
-      <c r="D297" s="4"/>
+      <c r="D297" s="13"/>
       <c r="E297" s="4">
         <v>43823</v>
       </c>
@@ -8157,7 +8185,7 @@
       </c>
       <c r="B298" s="4"/>
       <c r="C298" s="4"/>
-      <c r="D298" s="4"/>
+      <c r="D298" s="13"/>
       <c r="E298" s="4">
         <v>43823</v>
       </c>
@@ -8168,7 +8196,7 @@
       </c>
       <c r="B299" s="4"/>
       <c r="C299" s="4"/>
-      <c r="D299" s="4"/>
+      <c r="D299" s="13"/>
       <c r="E299" s="4">
         <v>43823</v>
       </c>
@@ -8180,7 +8208,7 @@
       </c>
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
-      <c r="D300" s="4"/>
+      <c r="D300" s="13"/>
       <c r="E300" s="4">
         <v>43823</v>
       </c>
@@ -8191,7 +8219,7 @@
       </c>
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
-      <c r="D301" s="4"/>
+      <c r="D301" s="13"/>
       <c r="E301" s="4">
         <v>43823</v>
       </c>
@@ -8203,7 +8231,7 @@
       </c>
       <c r="B302" s="4"/>
       <c r="C302" s="4"/>
-      <c r="D302" s="4"/>
+      <c r="D302" s="13"/>
       <c r="E302" s="4">
         <v>43823</v>
       </c>
@@ -8214,7 +8242,7 @@
       </c>
       <c r="B303" s="4"/>
       <c r="C303" s="4"/>
-      <c r="D303" s="4"/>
+      <c r="D303" s="13"/>
       <c r="E303" s="4">
         <v>43823</v>
       </c>
@@ -8226,7 +8254,7 @@
       </c>
       <c r="B304" s="4"/>
       <c r="C304" s="4"/>
-      <c r="D304" s="4"/>
+      <c r="D304" s="13"/>
       <c r="E304" s="4">
         <v>43823</v>
       </c>
@@ -8237,7 +8265,7 @@
       </c>
       <c r="B305" s="4"/>
       <c r="C305" s="4"/>
-      <c r="D305" s="4"/>
+      <c r="D305" s="13"/>
       <c r="E305" s="4">
         <v>43823</v>
       </c>
@@ -8249,7 +8277,7 @@
       </c>
       <c r="B306" s="6"/>
       <c r="C306" s="6"/>
-      <c r="D306" s="6"/>
+      <c r="D306" s="14"/>
       <c r="E306" s="6">
         <v>43472</v>
       </c>
@@ -8260,7 +8288,7 @@
       </c>
       <c r="B307" s="6"/>
       <c r="C307" s="6"/>
-      <c r="D307" s="6"/>
+      <c r="D307" s="14"/>
       <c r="E307" s="6">
         <v>43472</v>
       </c>
@@ -8272,7 +8300,7 @@
       </c>
       <c r="B308" s="6"/>
       <c r="C308" s="6"/>
-      <c r="D308" s="6"/>
+      <c r="D308" s="14"/>
       <c r="E308" s="6">
         <v>43472</v>
       </c>
@@ -8283,7 +8311,7 @@
       </c>
       <c r="B309" s="6"/>
       <c r="C309" s="6"/>
-      <c r="D309" s="6"/>
+      <c r="D309" s="14"/>
       <c r="E309" s="6">
         <v>43472</v>
       </c>
@@ -8295,7 +8323,7 @@
       </c>
       <c r="B310" s="6"/>
       <c r="C310" s="6"/>
-      <c r="D310" s="6"/>
+      <c r="D310" s="14"/>
       <c r="E310" s="6">
         <v>43472</v>
       </c>
@@ -8306,7 +8334,7 @@
       </c>
       <c r="B311" s="6"/>
       <c r="C311" s="6"/>
-      <c r="D311" s="6"/>
+      <c r="D311" s="14"/>
       <c r="E311" s="6">
         <v>43472</v>
       </c>
@@ -8318,7 +8346,7 @@
       </c>
       <c r="B312" s="6"/>
       <c r="C312" s="6"/>
-      <c r="D312" s="6"/>
+      <c r="D312" s="14"/>
       <c r="E312" s="6">
         <v>43472</v>
       </c>
@@ -8329,7 +8357,7 @@
       </c>
       <c r="B313" s="6"/>
       <c r="C313" s="6"/>
-      <c r="D313" s="6"/>
+      <c r="D313" s="14"/>
       <c r="E313" s="6">
         <v>43472</v>
       </c>
@@ -8341,7 +8369,7 @@
       </c>
       <c r="B314" s="6"/>
       <c r="C314" s="6"/>
-      <c r="D314" s="6"/>
+      <c r="D314" s="14"/>
       <c r="E314" s="6">
         <v>43472</v>
       </c>
@@ -8352,7 +8380,7 @@
       </c>
       <c r="B315" s="6"/>
       <c r="C315" s="6"/>
-      <c r="D315" s="6"/>
+      <c r="D315" s="14"/>
       <c r="E315" s="6">
         <v>43472</v>
       </c>
@@ -8364,7 +8392,7 @@
       </c>
       <c r="B316" s="6"/>
       <c r="C316" s="6"/>
-      <c r="D316" s="6"/>
+      <c r="D316" s="14"/>
       <c r="E316" s="6">
         <v>43472</v>
       </c>
@@ -8375,7 +8403,7 @@
       </c>
       <c r="B317" s="6"/>
       <c r="C317" s="6"/>
-      <c r="D317" s="6"/>
+      <c r="D317" s="14"/>
       <c r="E317" s="6">
         <v>43472</v>
       </c>
@@ -8387,7 +8415,7 @@
       </c>
       <c r="B318" s="6"/>
       <c r="C318" s="6"/>
-      <c r="D318" s="6"/>
+      <c r="D318" s="14"/>
       <c r="E318" s="6">
         <v>43472</v>
       </c>
@@ -8398,7 +8426,7 @@
       </c>
       <c r="B319" s="6"/>
       <c r="C319" s="6"/>
-      <c r="D319" s="6"/>
+      <c r="D319" s="14"/>
       <c r="E319" s="6">
         <v>43472</v>
       </c>
@@ -8410,7 +8438,7 @@
       </c>
       <c r="B320" s="6"/>
       <c r="C320" s="6"/>
-      <c r="D320" s="6"/>
+      <c r="D320" s="14"/>
       <c r="E320" s="6">
         <v>43472</v>
       </c>
@@ -8421,7 +8449,7 @@
       </c>
       <c r="B321" s="6"/>
       <c r="C321" s="6"/>
-      <c r="D321" s="6"/>
+      <c r="D321" s="14"/>
       <c r="E321" s="6">
         <v>43472</v>
       </c>
@@ -8433,7 +8461,7 @@
       </c>
       <c r="B322" s="11"/>
       <c r="C322" s="11"/>
-      <c r="D322" s="11"/>
+      <c r="D322" s="15"/>
       <c r="E322" s="11"/>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.2">
@@ -8442,7 +8470,7 @@
       </c>
       <c r="B323" s="11"/>
       <c r="C323" s="11"/>
-      <c r="D323" s="11"/>
+      <c r="D323" s="15"/>
       <c r="E323" s="11"/>
       <c r="F323" s="10"/>
     </row>
@@ -8452,7 +8480,7 @@
       </c>
       <c r="B324" s="11"/>
       <c r="C324" s="11"/>
-      <c r="D324" s="11"/>
+      <c r="D324" s="15"/>
       <c r="E324" s="11"/>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.2">
@@ -8461,7 +8489,7 @@
       </c>
       <c r="B325" s="11"/>
       <c r="C325" s="11"/>
-      <c r="D325" s="11"/>
+      <c r="D325" s="15"/>
       <c r="E325" s="11"/>
       <c r="F325" s="10"/>
     </row>
@@ -8471,7 +8499,7 @@
       </c>
       <c r="B326" s="11"/>
       <c r="C326" s="11"/>
-      <c r="D326" s="11"/>
+      <c r="D326" s="15"/>
       <c r="E326" s="11"/>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.2">
@@ -8480,7 +8508,7 @@
       </c>
       <c r="B327" s="11"/>
       <c r="C327" s="11"/>
-      <c r="D327" s="11"/>
+      <c r="D327" s="15"/>
       <c r="E327" s="11"/>
       <c r="F327" s="10"/>
     </row>
@@ -8490,7 +8518,7 @@
       </c>
       <c r="B328" s="11"/>
       <c r="C328" s="11"/>
-      <c r="D328" s="11"/>
+      <c r="D328" s="15"/>
       <c r="E328" s="11"/>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.2">
@@ -8499,7 +8527,7 @@
       </c>
       <c r="B329" s="11"/>
       <c r="C329" s="11"/>
-      <c r="D329" s="11"/>
+      <c r="D329" s="15"/>
       <c r="E329" s="11"/>
       <c r="F329" s="10"/>
     </row>
@@ -8509,7 +8537,7 @@
       </c>
       <c r="B330" s="11"/>
       <c r="C330" s="11"/>
-      <c r="D330" s="11"/>
+      <c r="D330" s="15"/>
       <c r="E330" s="11"/>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.2">
@@ -8518,7 +8546,7 @@
       </c>
       <c r="B331" s="11"/>
       <c r="C331" s="11"/>
-      <c r="D331" s="11"/>
+      <c r="D331" s="15"/>
       <c r="E331" s="11"/>
       <c r="F331" s="10"/>
     </row>
@@ -8528,7 +8556,7 @@
       </c>
       <c r="B332" s="11"/>
       <c r="C332" s="11"/>
-      <c r="D332" s="11"/>
+      <c r="D332" s="15"/>
       <c r="E332" s="11"/>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.2">
@@ -8537,7 +8565,7 @@
       </c>
       <c r="B333" s="11"/>
       <c r="C333" s="11"/>
-      <c r="D333" s="11"/>
+      <c r="D333" s="15"/>
       <c r="E333" s="11"/>
       <c r="F333" s="10"/>
     </row>
@@ -8547,7 +8575,7 @@
       </c>
       <c r="B334" s="11"/>
       <c r="C334" s="11"/>
-      <c r="D334" s="11"/>
+      <c r="D334" s="15"/>
       <c r="E334" s="11"/>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.2">
@@ -8556,7 +8584,7 @@
       </c>
       <c r="B335" s="11"/>
       <c r="C335" s="11"/>
-      <c r="D335" s="11"/>
+      <c r="D335" s="15"/>
       <c r="E335" s="11"/>
       <c r="F335" s="10"/>
     </row>
@@ -8566,7 +8594,7 @@
       </c>
       <c r="B336" s="11"/>
       <c r="C336" s="11"/>
-      <c r="D336" s="11"/>
+      <c r="D336" s="15"/>
       <c r="E336" s="11"/>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.2">
@@ -8575,7 +8603,7 @@
       </c>
       <c r="B337" s="11"/>
       <c r="C337" s="11"/>
-      <c r="D337" s="11"/>
+      <c r="D337" s="15"/>
       <c r="E337" s="11"/>
       <c r="F337" s="10"/>
     </row>
@@ -8589,7 +8617,7 @@
       <c r="C338" s="4">
         <v>43479</v>
       </c>
-      <c r="D338" s="4">
+      <c r="D338" s="13">
         <v>28.8</v>
       </c>
       <c r="E338" s="4">
@@ -8604,7 +8632,7 @@
         <v>43472</v>
       </c>
       <c r="C339" s="4"/>
-      <c r="D339" s="4"/>
+      <c r="D339" s="13"/>
       <c r="E339" s="4">
         <v>43823</v>
       </c>
@@ -8622,7 +8650,7 @@
       <c r="C340" s="4">
         <v>43479</v>
       </c>
-      <c r="D340" s="4">
+      <c r="D340" s="13">
         <v>25.6</v>
       </c>
       <c r="E340" s="4">
@@ -8636,8 +8664,12 @@
       <c r="B341" s="4">
         <v>43467</v>
       </c>
-      <c r="C341" s="4"/>
-      <c r="D341" s="4"/>
+      <c r="C341" s="4">
+        <v>43481</v>
+      </c>
+      <c r="D341" s="13">
+        <v>18.2</v>
+      </c>
       <c r="E341" s="4">
         <v>43823</v>
       </c>
@@ -8652,8 +8684,12 @@
       <c r="B342" s="4">
         <v>43472</v>
       </c>
-      <c r="C342" s="4"/>
-      <c r="D342" s="4"/>
+      <c r="C342" s="4">
+        <v>43481</v>
+      </c>
+      <c r="D342" s="13">
+        <v>26.8</v>
+      </c>
       <c r="E342" s="4">
         <v>43823</v>
       </c>
@@ -8668,7 +8704,7 @@
       <c r="C343" s="4">
         <v>43479</v>
       </c>
-      <c r="D343" s="4">
+      <c r="D343" s="13">
         <v>19.2</v>
       </c>
       <c r="E343" s="4">
@@ -8688,7 +8724,7 @@
       <c r="C344" s="4">
         <v>43479</v>
       </c>
-      <c r="D344" s="4">
+      <c r="D344" s="13">
         <v>15.8</v>
       </c>
       <c r="E344" s="4">
@@ -8702,8 +8738,12 @@
       <c r="B345" s="4">
         <v>43467</v>
       </c>
-      <c r="C345" s="4"/>
-      <c r="D345" s="4"/>
+      <c r="C345" s="4">
+        <v>43481</v>
+      </c>
+      <c r="D345" s="13">
+        <v>23.8</v>
+      </c>
       <c r="E345" s="4">
         <v>43823</v>
       </c>
@@ -8721,7 +8761,7 @@
       <c r="C346" s="4">
         <v>43479</v>
       </c>
-      <c r="D346" s="4">
+      <c r="D346" s="13">
         <v>23.4</v>
       </c>
       <c r="E346" s="4">
@@ -8736,7 +8776,7 @@
         <v>43472</v>
       </c>
       <c r="C347" s="4"/>
-      <c r="D347" s="4"/>
+      <c r="D347" s="13"/>
       <c r="E347" s="4">
         <v>43823</v>
       </c>
@@ -8754,7 +8794,7 @@
       <c r="C348" s="4">
         <v>43479</v>
       </c>
-      <c r="D348" s="4">
+      <c r="D348" s="13">
         <v>20.2</v>
       </c>
       <c r="E348" s="4">
@@ -8771,7 +8811,7 @@
       <c r="C349" s="4">
         <v>43479</v>
       </c>
-      <c r="D349" s="4">
+      <c r="D349" s="13">
         <v>33.799999999999997</v>
       </c>
       <c r="E349" s="4">
@@ -8791,7 +8831,7 @@
       <c r="C350" s="4">
         <v>43479</v>
       </c>
-      <c r="D350" s="4">
+      <c r="D350" s="13">
         <v>18.399999999999999</v>
       </c>
       <c r="E350" s="4">
@@ -8806,7 +8846,7 @@
         <v>43472</v>
       </c>
       <c r="C351" s="4"/>
-      <c r="D351" s="4"/>
+      <c r="D351" s="13"/>
       <c r="E351" s="4">
         <v>43823</v>
       </c>
@@ -8824,7 +8864,7 @@
       <c r="C352" s="4">
         <v>43473</v>
       </c>
-      <c r="D352" s="4">
+      <c r="D352" s="13">
         <v>26.4</v>
       </c>
       <c r="E352" s="4">
@@ -8839,7 +8879,7 @@
         <v>43472</v>
       </c>
       <c r="C353" s="4"/>
-      <c r="D353" s="4"/>
+      <c r="D353" s="13"/>
       <c r="E353" s="4">
         <v>43472</v>
       </c>
@@ -8851,9 +8891,11 @@
       <c r="A354" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="B354" s="6"/>
+      <c r="B354" s="6">
+        <v>43481</v>
+      </c>
       <c r="C354" s="6"/>
-      <c r="D354" s="6"/>
+      <c r="D354" s="14"/>
       <c r="E354" s="6">
         <v>43472</v>
       </c>
@@ -8864,7 +8906,7 @@
       </c>
       <c r="B355" s="6"/>
       <c r="C355" s="6"/>
-      <c r="D355" s="6"/>
+      <c r="D355" s="14"/>
       <c r="E355" s="6">
         <v>43472</v>
       </c>
@@ -8874,9 +8916,11 @@
       <c r="A356" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="B356" s="6"/>
+      <c r="B356" s="6">
+        <v>43481</v>
+      </c>
       <c r="C356" s="6"/>
-      <c r="D356" s="6"/>
+      <c r="D356" s="14"/>
       <c r="E356" s="6">
         <v>43472</v>
       </c>
@@ -8885,9 +8929,11 @@
       <c r="A357" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="B357" s="6"/>
+      <c r="B357" s="6">
+        <v>43481</v>
+      </c>
       <c r="C357" s="6"/>
-      <c r="D357" s="6"/>
+      <c r="D357" s="14"/>
       <c r="E357" s="6">
         <v>43472</v>
       </c>
@@ -8899,7 +8945,7 @@
       </c>
       <c r="B358" s="6"/>
       <c r="C358" s="6"/>
-      <c r="D358" s="6"/>
+      <c r="D358" s="14"/>
       <c r="E358" s="6">
         <v>43472</v>
       </c>
@@ -8908,9 +8954,11 @@
       <c r="A359" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="B359" s="6"/>
+      <c r="B359" s="6">
+        <v>43481</v>
+      </c>
       <c r="C359" s="6"/>
-      <c r="D359" s="6"/>
+      <c r="D359" s="14"/>
       <c r="E359" s="6">
         <v>43472</v>
       </c>
@@ -8922,7 +8970,7 @@
       </c>
       <c r="B360" s="6"/>
       <c r="C360" s="6"/>
-      <c r="D360" s="6"/>
+      <c r="D360" s="14"/>
       <c r="E360" s="6">
         <v>43472</v>
       </c>
@@ -8935,7 +8983,7 @@
         <v>43479</v>
       </c>
       <c r="C361" s="6"/>
-      <c r="D361" s="6"/>
+      <c r="D361" s="14"/>
       <c r="E361" s="6">
         <v>43472</v>
       </c>
@@ -8945,9 +8993,11 @@
       <c r="A362" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="B362" s="6"/>
+      <c r="B362" s="6">
+        <v>43481</v>
+      </c>
       <c r="C362" s="6"/>
-      <c r="D362" s="6"/>
+      <c r="D362" s="14"/>
       <c r="E362" s="6">
         <v>43472</v>
       </c>
@@ -8958,7 +9008,7 @@
       </c>
       <c r="B363" s="6"/>
       <c r="C363" s="6"/>
-      <c r="D363" s="6"/>
+      <c r="D363" s="14"/>
       <c r="E363" s="6">
         <v>43472</v>
       </c>
@@ -8970,7 +9020,7 @@
       </c>
       <c r="B364" s="6"/>
       <c r="C364" s="6"/>
-      <c r="D364" s="6"/>
+      <c r="D364" s="14"/>
       <c r="E364" s="6">
         <v>43472</v>
       </c>
@@ -8981,7 +9031,7 @@
       </c>
       <c r="B365" s="6"/>
       <c r="C365" s="6"/>
-      <c r="D365" s="6"/>
+      <c r="D365" s="14"/>
       <c r="E365" s="6">
         <v>43472</v>
       </c>
@@ -8991,9 +9041,11 @@
       <c r="A366" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="B366" s="6"/>
+      <c r="B366" s="6">
+        <v>43481</v>
+      </c>
       <c r="C366" s="6"/>
-      <c r="D366" s="6"/>
+      <c r="D366" s="14"/>
       <c r="E366" s="6">
         <v>43472</v>
       </c>
@@ -9002,9 +9054,11 @@
       <c r="A367" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="B367" s="6"/>
+      <c r="B367" s="6">
+        <v>43481</v>
+      </c>
       <c r="C367" s="6"/>
-      <c r="D367" s="6"/>
+      <c r="D367" s="14"/>
       <c r="E367" s="6">
         <v>43472</v>
       </c>
@@ -9016,7 +9070,7 @@
       </c>
       <c r="B368" s="6"/>
       <c r="C368" s="6"/>
-      <c r="D368" s="6"/>
+      <c r="D368" s="14"/>
       <c r="E368" s="6">
         <v>43472</v>
       </c>
@@ -9027,7 +9081,7 @@
       </c>
       <c r="B369" s="6"/>
       <c r="C369" s="6"/>
-      <c r="D369" s="6"/>
+      <c r="D369" s="14"/>
       <c r="E369" s="6">
         <v>43472</v>
       </c>
@@ -9039,7 +9093,7 @@
       </c>
       <c r="B370" s="11"/>
       <c r="C370" s="11"/>
-      <c r="D370" s="11"/>
+      <c r="D370" s="15"/>
       <c r="E370" s="11"/>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.2">
@@ -9048,7 +9102,7 @@
       </c>
       <c r="B371" s="11"/>
       <c r="C371" s="11"/>
-      <c r="D371" s="11"/>
+      <c r="D371" s="15"/>
       <c r="E371" s="11"/>
       <c r="F371" s="10"/>
     </row>
@@ -9058,7 +9112,7 @@
       </c>
       <c r="B372" s="11"/>
       <c r="C372" s="11"/>
-      <c r="D372" s="11"/>
+      <c r="D372" s="15"/>
       <c r="E372" s="11"/>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.2">
@@ -9067,7 +9121,7 @@
       </c>
       <c r="B373" s="11"/>
       <c r="C373" s="11"/>
-      <c r="D373" s="11"/>
+      <c r="D373" s="15"/>
       <c r="E373" s="11"/>
       <c r="F373" s="10"/>
     </row>
@@ -9077,7 +9131,7 @@
       </c>
       <c r="B374" s="11"/>
       <c r="C374" s="11"/>
-      <c r="D374" s="11"/>
+      <c r="D374" s="15"/>
       <c r="E374" s="11"/>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.2">
@@ -9086,7 +9140,7 @@
       </c>
       <c r="B375" s="11"/>
       <c r="C375" s="11"/>
-      <c r="D375" s="11"/>
+      <c r="D375" s="15"/>
       <c r="E375" s="11"/>
       <c r="F375" s="10"/>
     </row>
@@ -9096,7 +9150,7 @@
       </c>
       <c r="B376" s="11"/>
       <c r="C376" s="11"/>
-      <c r="D376" s="11"/>
+      <c r="D376" s="15"/>
       <c r="E376" s="11"/>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.2">
@@ -9105,7 +9159,7 @@
       </c>
       <c r="B377" s="11"/>
       <c r="C377" s="11"/>
-      <c r="D377" s="11"/>
+      <c r="D377" s="15"/>
       <c r="E377" s="11"/>
       <c r="F377" s="10"/>
     </row>
@@ -9115,7 +9169,7 @@
       </c>
       <c r="B378" s="11"/>
       <c r="C378" s="11"/>
-      <c r="D378" s="11"/>
+      <c r="D378" s="15"/>
       <c r="E378" s="11"/>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.2">
@@ -9124,7 +9178,7 @@
       </c>
       <c r="B379" s="11"/>
       <c r="C379" s="11"/>
-      <c r="D379" s="11"/>
+      <c r="D379" s="15"/>
       <c r="E379" s="11"/>
       <c r="F379" s="10"/>
     </row>
@@ -9134,7 +9188,7 @@
       </c>
       <c r="B380" s="11"/>
       <c r="C380" s="11"/>
-      <c r="D380" s="11"/>
+      <c r="D380" s="15"/>
       <c r="E380" s="11"/>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.2">
@@ -9143,7 +9197,7 @@
       </c>
       <c r="B381" s="11"/>
       <c r="C381" s="11"/>
-      <c r="D381" s="11"/>
+      <c r="D381" s="15"/>
       <c r="E381" s="11"/>
       <c r="F381" s="10"/>
     </row>
@@ -9153,7 +9207,7 @@
       </c>
       <c r="B382" s="11"/>
       <c r="C382" s="11"/>
-      <c r="D382" s="11"/>
+      <c r="D382" s="15"/>
       <c r="E382" s="11"/>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.2">
@@ -9162,7 +9216,7 @@
       </c>
       <c r="B383" s="11"/>
       <c r="C383" s="11"/>
-      <c r="D383" s="11"/>
+      <c r="D383" s="15"/>
       <c r="E383" s="11"/>
       <c r="F383" s="10"/>
     </row>
@@ -9172,7 +9226,7 @@
       </c>
       <c r="B384" s="11"/>
       <c r="C384" s="11"/>
-      <c r="D384" s="11"/>
+      <c r="D384" s="15"/>
       <c r="E384" s="11"/>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.2">
@@ -9181,7 +9235,7 @@
       </c>
       <c r="B385" s="11"/>
       <c r="C385" s="11"/>
-      <c r="D385" s="11"/>
+      <c r="D385" s="15"/>
       <c r="E385" s="11"/>
       <c r="F385" s="10"/>
     </row>
@@ -9191,7 +9245,7 @@
       </c>
       <c r="B386" s="4"/>
       <c r="C386" s="4"/>
-      <c r="D386" s="4"/>
+      <c r="D386" s="13"/>
       <c r="E386" s="4">
         <v>43823</v>
       </c>
@@ -9202,7 +9256,7 @@
       </c>
       <c r="B387" s="4"/>
       <c r="C387" s="4"/>
-      <c r="D387" s="4"/>
+      <c r="D387" s="13"/>
       <c r="E387" s="4">
         <v>43823</v>
       </c>
@@ -9214,7 +9268,7 @@
       </c>
       <c r="B388" s="4"/>
       <c r="C388" s="4"/>
-      <c r="D388" s="4"/>
+      <c r="D388" s="13"/>
       <c r="E388" s="4">
         <v>43823</v>
       </c>
@@ -9225,7 +9279,7 @@
       </c>
       <c r="B389" s="4"/>
       <c r="C389" s="4"/>
-      <c r="D389" s="4"/>
+      <c r="D389" s="13"/>
       <c r="E389" s="4">
         <v>43823</v>
       </c>
@@ -9237,7 +9291,7 @@
       </c>
       <c r="B390" s="4"/>
       <c r="C390" s="4"/>
-      <c r="D390" s="4"/>
+      <c r="D390" s="13"/>
       <c r="E390" s="4">
         <v>43823</v>
       </c>
@@ -9248,7 +9302,7 @@
       </c>
       <c r="B391" s="4"/>
       <c r="C391" s="4"/>
-      <c r="D391" s="4"/>
+      <c r="D391" s="13"/>
       <c r="E391" s="4">
         <v>43823</v>
       </c>
@@ -9260,7 +9314,7 @@
       </c>
       <c r="B392" s="4"/>
       <c r="C392" s="4"/>
-      <c r="D392" s="4"/>
+      <c r="D392" s="13"/>
       <c r="E392" s="4">
         <v>43823</v>
       </c>
@@ -9271,7 +9325,7 @@
       </c>
       <c r="B393" s="4"/>
       <c r="C393" s="4"/>
-      <c r="D393" s="4"/>
+      <c r="D393" s="13"/>
       <c r="E393" s="4">
         <v>43823</v>
       </c>
@@ -9283,7 +9337,7 @@
       </c>
       <c r="B394" s="4"/>
       <c r="C394" s="4"/>
-      <c r="D394" s="4"/>
+      <c r="D394" s="13"/>
       <c r="E394" s="4">
         <v>43823</v>
       </c>
@@ -9294,7 +9348,7 @@
       </c>
       <c r="B395" s="4"/>
       <c r="C395" s="4"/>
-      <c r="D395" s="4"/>
+      <c r="D395" s="13"/>
       <c r="E395" s="4">
         <v>43823</v>
       </c>
@@ -9306,7 +9360,7 @@
       </c>
       <c r="B396" s="4"/>
       <c r="C396" s="4"/>
-      <c r="D396" s="4"/>
+      <c r="D396" s="13"/>
       <c r="E396" s="4">
         <v>43823</v>
       </c>
@@ -9317,7 +9371,7 @@
       </c>
       <c r="B397" s="4"/>
       <c r="C397" s="4"/>
-      <c r="D397" s="4"/>
+      <c r="D397" s="13"/>
       <c r="E397" s="4">
         <v>43823</v>
       </c>
@@ -9329,7 +9383,7 @@
       </c>
       <c r="B398" s="4"/>
       <c r="C398" s="4"/>
-      <c r="D398" s="4"/>
+      <c r="D398" s="13"/>
       <c r="E398" s="4">
         <v>43823</v>
       </c>
@@ -9340,7 +9394,7 @@
       </c>
       <c r="B399" s="4"/>
       <c r="C399" s="4"/>
-      <c r="D399" s="4"/>
+      <c r="D399" s="13"/>
       <c r="E399" s="4">
         <v>43823</v>
       </c>
@@ -9352,7 +9406,7 @@
       </c>
       <c r="B400" s="4"/>
       <c r="C400" s="4"/>
-      <c r="D400" s="4"/>
+      <c r="D400" s="13"/>
       <c r="E400" s="4">
         <v>43823</v>
       </c>
@@ -9363,7 +9417,7 @@
       </c>
       <c r="B401" s="4"/>
       <c r="C401" s="4"/>
-      <c r="D401" s="4"/>
+      <c r="D401" s="13"/>
       <c r="E401" s="4">
         <v>43823</v>
       </c>
@@ -9375,7 +9429,7 @@
       </c>
       <c r="B402" s="6"/>
       <c r="C402" s="6"/>
-      <c r="D402" s="6"/>
+      <c r="D402" s="14"/>
       <c r="E402" s="6">
         <v>43472</v>
       </c>
@@ -9386,7 +9440,7 @@
       </c>
       <c r="B403" s="6"/>
       <c r="C403" s="6"/>
-      <c r="D403" s="6"/>
+      <c r="D403" s="14"/>
       <c r="E403" s="6">
         <v>43472</v>
       </c>
@@ -9398,7 +9452,7 @@
       </c>
       <c r="B404" s="6"/>
       <c r="C404" s="6"/>
-      <c r="D404" s="6"/>
+      <c r="D404" s="14"/>
       <c r="E404" s="6">
         <v>43472</v>
       </c>
@@ -9409,7 +9463,7 @@
       </c>
       <c r="B405" s="6"/>
       <c r="C405" s="6"/>
-      <c r="D405" s="6"/>
+      <c r="D405" s="14"/>
       <c r="E405" s="6">
         <v>43472</v>
       </c>
@@ -9421,7 +9475,7 @@
       </c>
       <c r="B406" s="6"/>
       <c r="C406" s="6"/>
-      <c r="D406" s="6"/>
+      <c r="D406" s="14"/>
       <c r="E406" s="6">
         <v>43472</v>
       </c>
@@ -9432,7 +9486,7 @@
       </c>
       <c r="B407" s="6"/>
       <c r="C407" s="6"/>
-      <c r="D407" s="6"/>
+      <c r="D407" s="14"/>
       <c r="E407" s="6">
         <v>43472</v>
       </c>
@@ -9444,7 +9498,7 @@
       </c>
       <c r="B408" s="6"/>
       <c r="C408" s="6"/>
-      <c r="D408" s="6"/>
+      <c r="D408" s="14"/>
       <c r="E408" s="6">
         <v>43472</v>
       </c>
@@ -9455,7 +9509,7 @@
       </c>
       <c r="B409" s="6"/>
       <c r="C409" s="6"/>
-      <c r="D409" s="6"/>
+      <c r="D409" s="14"/>
       <c r="E409" s="6">
         <v>43472</v>
       </c>
@@ -9467,7 +9521,7 @@
       </c>
       <c r="B410" s="6"/>
       <c r="C410" s="6"/>
-      <c r="D410" s="6"/>
+      <c r="D410" s="14"/>
       <c r="E410" s="6">
         <v>43472</v>
       </c>
@@ -9478,7 +9532,7 @@
       </c>
       <c r="B411" s="6"/>
       <c r="C411" s="6"/>
-      <c r="D411" s="6"/>
+      <c r="D411" s="14"/>
       <c r="E411" s="6">
         <v>43472</v>
       </c>
@@ -9490,7 +9544,7 @@
       </c>
       <c r="B412" s="6"/>
       <c r="C412" s="6"/>
-      <c r="D412" s="6"/>
+      <c r="D412" s="14"/>
       <c r="E412" s="6">
         <v>43472</v>
       </c>
@@ -9501,7 +9555,7 @@
       </c>
       <c r="B413" s="6"/>
       <c r="C413" s="6"/>
-      <c r="D413" s="6"/>
+      <c r="D413" s="14"/>
       <c r="E413" s="6">
         <v>43472</v>
       </c>
@@ -9513,7 +9567,7 @@
       </c>
       <c r="B414" s="6"/>
       <c r="C414" s="6"/>
-      <c r="D414" s="6"/>
+      <c r="D414" s="14"/>
       <c r="E414" s="6">
         <v>43472</v>
       </c>
@@ -9524,7 +9578,7 @@
       </c>
       <c r="B415" s="6"/>
       <c r="C415" s="6"/>
-      <c r="D415" s="6"/>
+      <c r="D415" s="14"/>
       <c r="E415" s="6">
         <v>43472</v>
       </c>
@@ -9536,7 +9590,7 @@
       </c>
       <c r="B416" s="6"/>
       <c r="C416" s="6"/>
-      <c r="D416" s="6"/>
+      <c r="D416" s="14"/>
       <c r="E416" s="6">
         <v>43472</v>
       </c>
@@ -9547,7 +9601,7 @@
       </c>
       <c r="B417" s="6"/>
       <c r="C417" s="6"/>
-      <c r="D417" s="6"/>
+      <c r="D417" s="14"/>
       <c r="E417" s="6">
         <v>43472</v>
       </c>
@@ -9559,7 +9613,7 @@
       </c>
       <c r="B418" s="11"/>
       <c r="C418" s="11"/>
-      <c r="D418" s="11"/>
+      <c r="D418" s="15"/>
       <c r="E418" s="11"/>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.2">
@@ -9568,7 +9622,7 @@
       </c>
       <c r="B419" s="11"/>
       <c r="C419" s="11"/>
-      <c r="D419" s="11"/>
+      <c r="D419" s="15"/>
       <c r="E419" s="11"/>
       <c r="F419" s="10"/>
     </row>
@@ -9578,7 +9632,7 @@
       </c>
       <c r="B420" s="11"/>
       <c r="C420" s="11"/>
-      <c r="D420" s="11"/>
+      <c r="D420" s="15"/>
       <c r="E420" s="11"/>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.2">
@@ -9587,7 +9641,7 @@
       </c>
       <c r="B421" s="11"/>
       <c r="C421" s="11"/>
-      <c r="D421" s="11"/>
+      <c r="D421" s="15"/>
       <c r="E421" s="11"/>
       <c r="F421" s="10"/>
     </row>
@@ -9597,7 +9651,7 @@
       </c>
       <c r="B422" s="11"/>
       <c r="C422" s="11"/>
-      <c r="D422" s="11"/>
+      <c r="D422" s="15"/>
       <c r="E422" s="11"/>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.2">
@@ -9606,7 +9660,7 @@
       </c>
       <c r="B423" s="11"/>
       <c r="C423" s="11"/>
-      <c r="D423" s="11"/>
+      <c r="D423" s="15"/>
       <c r="E423" s="11"/>
       <c r="F423" s="10"/>
     </row>
@@ -9616,7 +9670,7 @@
       </c>
       <c r="B424" s="11"/>
       <c r="C424" s="11"/>
-      <c r="D424" s="11"/>
+      <c r="D424" s="15"/>
       <c r="E424" s="11"/>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.2">
@@ -9625,7 +9679,7 @@
       </c>
       <c r="B425" s="11"/>
       <c r="C425" s="11"/>
-      <c r="D425" s="11"/>
+      <c r="D425" s="15"/>
       <c r="E425" s="11"/>
       <c r="F425" s="10"/>
     </row>
@@ -9635,7 +9689,7 @@
       </c>
       <c r="B426" s="11"/>
       <c r="C426" s="11"/>
-      <c r="D426" s="11"/>
+      <c r="D426" s="15"/>
       <c r="E426" s="11"/>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.2">
@@ -9644,7 +9698,7 @@
       </c>
       <c r="B427" s="11"/>
       <c r="C427" s="11"/>
-      <c r="D427" s="11"/>
+      <c r="D427" s="15"/>
       <c r="E427" s="11"/>
       <c r="F427" s="10"/>
     </row>
@@ -9654,7 +9708,7 @@
       </c>
       <c r="B428" s="11"/>
       <c r="C428" s="11"/>
-      <c r="D428" s="11"/>
+      <c r="D428" s="15"/>
       <c r="E428" s="11"/>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.2">
@@ -9663,7 +9717,7 @@
       </c>
       <c r="B429" s="11"/>
       <c r="C429" s="11"/>
-      <c r="D429" s="11"/>
+      <c r="D429" s="15"/>
       <c r="E429" s="11"/>
       <c r="F429" s="10"/>
     </row>
@@ -9673,7 +9727,7 @@
       </c>
       <c r="B430" s="11"/>
       <c r="C430" s="11"/>
-      <c r="D430" s="11"/>
+      <c r="D430" s="15"/>
       <c r="E430" s="11"/>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.2">
@@ -9682,7 +9736,7 @@
       </c>
       <c r="B431" s="11"/>
       <c r="C431" s="11"/>
-      <c r="D431" s="11"/>
+      <c r="D431" s="15"/>
       <c r="E431" s="11"/>
       <c r="F431" s="10"/>
     </row>
@@ -9692,7 +9746,7 @@
       </c>
       <c r="B432" s="11"/>
       <c r="C432" s="11"/>
-      <c r="D432" s="11"/>
+      <c r="D432" s="15"/>
       <c r="E432" s="11"/>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.2">
@@ -9701,7 +9755,7 @@
       </c>
       <c r="B433" s="11"/>
       <c r="C433" s="11"/>
-      <c r="D433" s="11"/>
+      <c r="D433" s="15"/>
       <c r="E433" s="11"/>
       <c r="F433" s="10"/>
     </row>
@@ -9711,7 +9765,7 @@
       </c>
       <c r="B434" s="4"/>
       <c r="C434" s="4"/>
-      <c r="D434" s="4"/>
+      <c r="D434" s="13"/>
       <c r="E434" s="4">
         <v>43823</v>
       </c>
@@ -9722,7 +9776,7 @@
       </c>
       <c r="B435" s="4"/>
       <c r="C435" s="4"/>
-      <c r="D435" s="4"/>
+      <c r="D435" s="13"/>
       <c r="E435" s="4">
         <v>43823</v>
       </c>
@@ -9734,7 +9788,7 @@
       </c>
       <c r="B436" s="4"/>
       <c r="C436" s="4"/>
-      <c r="D436" s="4"/>
+      <c r="D436" s="13"/>
       <c r="E436" s="4">
         <v>43823</v>
       </c>
@@ -9745,7 +9799,7 @@
       </c>
       <c r="B437" s="4"/>
       <c r="C437" s="4"/>
-      <c r="D437" s="4"/>
+      <c r="D437" s="13"/>
       <c r="E437" s="4">
         <v>43823</v>
       </c>
@@ -9757,7 +9811,7 @@
       </c>
       <c r="B438" s="4"/>
       <c r="C438" s="4"/>
-      <c r="D438" s="4"/>
+      <c r="D438" s="13"/>
       <c r="E438" s="4">
         <v>43823</v>
       </c>
@@ -9768,7 +9822,7 @@
       </c>
       <c r="B439" s="4"/>
       <c r="C439" s="4"/>
-      <c r="D439" s="4"/>
+      <c r="D439" s="13"/>
       <c r="E439" s="4">
         <v>43823</v>
       </c>
@@ -9780,7 +9834,7 @@
       </c>
       <c r="B440" s="4"/>
       <c r="C440" s="4"/>
-      <c r="D440" s="4"/>
+      <c r="D440" s="13"/>
       <c r="E440" s="4">
         <v>43823</v>
       </c>
@@ -9791,7 +9845,7 @@
       </c>
       <c r="B441" s="4"/>
       <c r="C441" s="4"/>
-      <c r="D441" s="4"/>
+      <c r="D441" s="13"/>
       <c r="E441" s="4">
         <v>43823</v>
       </c>
@@ -9803,7 +9857,7 @@
       </c>
       <c r="B442" s="4"/>
       <c r="C442" s="4"/>
-      <c r="D442" s="4"/>
+      <c r="D442" s="13"/>
       <c r="E442" s="4">
         <v>43823</v>
       </c>
@@ -9814,7 +9868,7 @@
       </c>
       <c r="B443" s="4"/>
       <c r="C443" s="4"/>
-      <c r="D443" s="4"/>
+      <c r="D443" s="13"/>
       <c r="E443" s="4">
         <v>43823</v>
       </c>
@@ -9826,7 +9880,7 @@
       </c>
       <c r="B444" s="4"/>
       <c r="C444" s="4"/>
-      <c r="D444" s="4"/>
+      <c r="D444" s="13"/>
       <c r="E444" s="4">
         <v>43823</v>
       </c>
@@ -9837,7 +9891,7 @@
       </c>
       <c r="B445" s="4"/>
       <c r="C445" s="4"/>
-      <c r="D445" s="4"/>
+      <c r="D445" s="13"/>
       <c r="E445" s="4">
         <v>43823</v>
       </c>
@@ -9849,7 +9903,7 @@
       </c>
       <c r="B446" s="4"/>
       <c r="C446" s="4"/>
-      <c r="D446" s="4"/>
+      <c r="D446" s="13"/>
       <c r="E446" s="4">
         <v>43823</v>
       </c>
@@ -9860,7 +9914,7 @@
       </c>
       <c r="B447" s="4"/>
       <c r="C447" s="4"/>
-      <c r="D447" s="4"/>
+      <c r="D447" s="13"/>
       <c r="E447" s="4">
         <v>43823</v>
       </c>
@@ -9872,7 +9926,7 @@
       </c>
       <c r="B448" s="4"/>
       <c r="C448" s="4"/>
-      <c r="D448" s="4"/>
+      <c r="D448" s="13"/>
       <c r="E448" s="4">
         <v>43823</v>
       </c>
@@ -9883,7 +9937,7 @@
       </c>
       <c r="B449" s="4"/>
       <c r="C449" s="4"/>
-      <c r="D449" s="4"/>
+      <c r="D449" s="13"/>
       <c r="E449" s="4">
         <v>43823</v>
       </c>
@@ -9895,7 +9949,7 @@
       </c>
       <c r="B450" s="6"/>
       <c r="C450" s="6"/>
-      <c r="D450" s="6"/>
+      <c r="D450" s="14"/>
       <c r="E450" s="6">
         <v>43472</v>
       </c>
@@ -9906,7 +9960,7 @@
       </c>
       <c r="B451" s="6"/>
       <c r="C451" s="6"/>
-      <c r="D451" s="6"/>
+      <c r="D451" s="14"/>
       <c r="E451" s="6">
         <v>43472</v>
       </c>
@@ -9918,7 +9972,7 @@
       </c>
       <c r="B452" s="6"/>
       <c r="C452" s="6"/>
-      <c r="D452" s="6"/>
+      <c r="D452" s="14"/>
       <c r="E452" s="6">
         <v>43472</v>
       </c>
@@ -9929,7 +9983,7 @@
       </c>
       <c r="B453" s="6"/>
       <c r="C453" s="6"/>
-      <c r="D453" s="6"/>
+      <c r="D453" s="14"/>
       <c r="E453" s="6">
         <v>43472</v>
       </c>
@@ -9941,7 +9995,7 @@
       </c>
       <c r="B454" s="6"/>
       <c r="C454" s="6"/>
-      <c r="D454" s="6"/>
+      <c r="D454" s="14"/>
       <c r="E454" s="6">
         <v>43472</v>
       </c>
@@ -9952,7 +10006,7 @@
       </c>
       <c r="B455" s="6"/>
       <c r="C455" s="6"/>
-      <c r="D455" s="6"/>
+      <c r="D455" s="14"/>
       <c r="E455" s="6">
         <v>43472</v>
       </c>
@@ -9964,7 +10018,7 @@
       </c>
       <c r="B456" s="6"/>
       <c r="C456" s="6"/>
-      <c r="D456" s="6"/>
+      <c r="D456" s="14"/>
       <c r="E456" s="6">
         <v>43472</v>
       </c>
@@ -9975,7 +10029,7 @@
       </c>
       <c r="B457" s="6"/>
       <c r="C457" s="6"/>
-      <c r="D457" s="6"/>
+      <c r="D457" s="14"/>
       <c r="E457" s="6">
         <v>43472</v>
       </c>
@@ -9987,7 +10041,7 @@
       </c>
       <c r="B458" s="6"/>
       <c r="C458" s="6"/>
-      <c r="D458" s="6"/>
+      <c r="D458" s="14"/>
       <c r="E458" s="6">
         <v>43472</v>
       </c>
@@ -9998,7 +10052,7 @@
       </c>
       <c r="B459" s="6"/>
       <c r="C459" s="6"/>
-      <c r="D459" s="6"/>
+      <c r="D459" s="14"/>
       <c r="E459" s="6">
         <v>43472</v>
       </c>
@@ -10010,7 +10064,7 @@
       </c>
       <c r="B460" s="6"/>
       <c r="C460" s="6"/>
-      <c r="D460" s="6"/>
+      <c r="D460" s="14"/>
       <c r="E460" s="6">
         <v>43472</v>
       </c>
@@ -10021,7 +10075,7 @@
       </c>
       <c r="B461" s="6"/>
       <c r="C461" s="6"/>
-      <c r="D461" s="6"/>
+      <c r="D461" s="14"/>
       <c r="E461" s="6">
         <v>43472</v>
       </c>
@@ -10033,7 +10087,7 @@
       </c>
       <c r="B462" s="6"/>
       <c r="C462" s="6"/>
-      <c r="D462" s="6"/>
+      <c r="D462" s="14"/>
       <c r="E462" s="6">
         <v>43472</v>
       </c>
@@ -10044,7 +10098,7 @@
       </c>
       <c r="B463" s="6"/>
       <c r="C463" s="6"/>
-      <c r="D463" s="6"/>
+      <c r="D463" s="14"/>
       <c r="E463" s="6">
         <v>43472</v>
       </c>
@@ -10056,7 +10110,7 @@
       </c>
       <c r="B464" s="6"/>
       <c r="C464" s="6"/>
-      <c r="D464" s="6"/>
+      <c r="D464" s="14"/>
       <c r="E464" s="6">
         <v>43472</v>
       </c>
@@ -10067,7 +10121,7 @@
       </c>
       <c r="B465" s="6"/>
       <c r="C465" s="6"/>
-      <c r="D465" s="6"/>
+      <c r="D465" s="14"/>
       <c r="E465" s="6">
         <v>43472</v>
       </c>
@@ -10079,7 +10133,7 @@
       </c>
       <c r="B466" s="11"/>
       <c r="C466" s="11"/>
-      <c r="D466" s="11"/>
+      <c r="D466" s="15"/>
       <c r="E466" s="11"/>
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.2">
@@ -10088,7 +10142,7 @@
       </c>
       <c r="B467" s="11"/>
       <c r="C467" s="11"/>
-      <c r="D467" s="11"/>
+      <c r="D467" s="15"/>
       <c r="E467" s="11"/>
       <c r="F467" s="10"/>
     </row>
@@ -10098,7 +10152,7 @@
       </c>
       <c r="B468" s="11"/>
       <c r="C468" s="11"/>
-      <c r="D468" s="11"/>
+      <c r="D468" s="15"/>
       <c r="E468" s="11"/>
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.2">
@@ -10107,7 +10161,7 @@
       </c>
       <c r="B469" s="11"/>
       <c r="C469" s="11"/>
-      <c r="D469" s="11"/>
+      <c r="D469" s="15"/>
       <c r="E469" s="11"/>
       <c r="F469" s="10"/>
     </row>
@@ -10117,7 +10171,7 @@
       </c>
       <c r="B470" s="11"/>
       <c r="C470" s="11"/>
-      <c r="D470" s="11"/>
+      <c r="D470" s="15"/>
       <c r="E470" s="11"/>
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.2">
@@ -10126,7 +10180,7 @@
       </c>
       <c r="B471" s="11"/>
       <c r="C471" s="11"/>
-      <c r="D471" s="11"/>
+      <c r="D471" s="15"/>
       <c r="E471" s="11"/>
       <c r="F471" s="10"/>
     </row>
@@ -10136,7 +10190,7 @@
       </c>
       <c r="B472" s="11"/>
       <c r="C472" s="11"/>
-      <c r="D472" s="11"/>
+      <c r="D472" s="15"/>
       <c r="E472" s="11"/>
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.2">
@@ -10145,7 +10199,7 @@
       </c>
       <c r="B473" s="11"/>
       <c r="C473" s="11"/>
-      <c r="D473" s="11"/>
+      <c r="D473" s="15"/>
       <c r="E473" s="11"/>
       <c r="F473" s="10"/>
     </row>
@@ -10155,7 +10209,7 @@
       </c>
       <c r="B474" s="11"/>
       <c r="C474" s="11"/>
-      <c r="D474" s="11"/>
+      <c r="D474" s="15"/>
       <c r="E474" s="11"/>
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.2">
@@ -10164,7 +10218,7 @@
       </c>
       <c r="B475" s="11"/>
       <c r="C475" s="11"/>
-      <c r="D475" s="11"/>
+      <c r="D475" s="15"/>
       <c r="E475" s="11"/>
       <c r="F475" s="10"/>
     </row>
@@ -10174,7 +10228,7 @@
       </c>
       <c r="B476" s="11"/>
       <c r="C476" s="11"/>
-      <c r="D476" s="11"/>
+      <c r="D476" s="15"/>
       <c r="E476" s="11"/>
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.2">
@@ -10183,7 +10237,7 @@
       </c>
       <c r="B477" s="11"/>
       <c r="C477" s="11"/>
-      <c r="D477" s="11"/>
+      <c r="D477" s="15"/>
       <c r="E477" s="11"/>
       <c r="F477" s="10"/>
     </row>
@@ -10193,7 +10247,7 @@
       </c>
       <c r="B478" s="11"/>
       <c r="C478" s="11"/>
-      <c r="D478" s="11"/>
+      <c r="D478" s="15"/>
       <c r="E478" s="11"/>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.2">
@@ -10202,7 +10256,7 @@
       </c>
       <c r="B479" s="11"/>
       <c r="C479" s="11"/>
-      <c r="D479" s="11"/>
+      <c r="D479" s="15"/>
       <c r="E479" s="11"/>
       <c r="F479" s="10"/>
     </row>
@@ -10212,7 +10266,7 @@
       </c>
       <c r="B480" s="11"/>
       <c r="C480" s="11"/>
-      <c r="D480" s="11"/>
+      <c r="D480" s="15"/>
       <c r="E480" s="11"/>
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.2">
@@ -10221,7 +10275,7 @@
       </c>
       <c r="B481" s="11"/>
       <c r="C481" s="11"/>
-      <c r="D481" s="11"/>
+      <c r="D481" s="15"/>
       <c r="E481" s="11"/>
       <c r="F481" s="10"/>
     </row>

--- a/data/observation_datasheet.xlsx
+++ b/data/observation_datasheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catchamberlain/Documents/git/chillfreeze/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5A823244-17AC-0746-A4E9-7A6B12456AA2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4464B621-2521-494B-93B2-631EEBB04C3F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11540" yWindow="5480" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="492">
   <si>
     <t>ID</t>
   </si>
@@ -1488,6 +1488,15 @@
   </si>
   <si>
     <t>frz</t>
+  </si>
+  <si>
+    <t>MISSING</t>
+  </si>
+  <si>
+    <t>3 Extra</t>
+  </si>
+  <si>
+    <t>1 Extra</t>
   </si>
 </sst>
 </file>
@@ -1630,7 +1639,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1834,6 +1843,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -2010,7 +2025,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -2027,6 +2042,11 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="37" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4800,13 +4820,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F481"/>
+  <dimension ref="A1:G481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B344" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B94" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B369" sqref="B369"/>
+      <selection pane="bottomRight" activeCell="G114" sqref="G114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5212,7 +5232,9 @@
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
       <c r="D34" s="15"/>
-      <c r="E34" s="11"/>
+      <c r="E34" s="11">
+        <v>43486</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
@@ -5221,7 +5243,9 @@
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
       <c r="D35" s="15"/>
-      <c r="E35" s="11"/>
+      <c r="E35" s="11">
+        <v>43486</v>
+      </c>
       <c r="F35" s="10"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -5231,7 +5255,9 @@
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
       <c r="D36" s="15"/>
-      <c r="E36" s="11"/>
+      <c r="E36" s="11">
+        <v>43486</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
@@ -5240,7 +5266,9 @@
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
       <c r="D37" s="15"/>
-      <c r="E37" s="11"/>
+      <c r="E37" s="11">
+        <v>43486</v>
+      </c>
       <c r="F37" s="10"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -5250,7 +5278,9 @@
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
       <c r="D38" s="15"/>
-      <c r="E38" s="11"/>
+      <c r="E38" s="11">
+        <v>43486</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
@@ -5259,7 +5289,9 @@
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
       <c r="D39" s="15"/>
-      <c r="E39" s="11"/>
+      <c r="E39" s="11">
+        <v>43486</v>
+      </c>
       <c r="F39" s="10"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -5269,7 +5301,9 @@
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
       <c r="D40" s="15"/>
-      <c r="E40" s="11"/>
+      <c r="E40" s="11">
+        <v>43486</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
@@ -5278,7 +5312,9 @@
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
       <c r="D41" s="15"/>
-      <c r="E41" s="11"/>
+      <c r="E41" s="11">
+        <v>43486</v>
+      </c>
       <c r="F41" s="10"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -5288,7 +5324,9 @@
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
       <c r="D42" s="15"/>
-      <c r="E42" s="11"/>
+      <c r="E42" s="11">
+        <v>43486</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
@@ -5297,7 +5335,9 @@
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
       <c r="D43" s="15"/>
-      <c r="E43" s="11"/>
+      <c r="E43" s="11">
+        <v>43486</v>
+      </c>
       <c r="F43" s="10"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -5307,7 +5347,9 @@
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
       <c r="D44" s="15"/>
-      <c r="E44" s="11"/>
+      <c r="E44" s="11">
+        <v>43486</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
@@ -5316,7 +5358,9 @@
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
       <c r="D45" s="15"/>
-      <c r="E45" s="11"/>
+      <c r="E45" s="11">
+        <v>43486</v>
+      </c>
       <c r="F45" s="10"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -5326,7 +5370,9 @@
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
       <c r="D46" s="15"/>
-      <c r="E46" s="11"/>
+      <c r="E46" s="11">
+        <v>43486</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
@@ -5335,7 +5381,9 @@
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
       <c r="D47" s="15"/>
-      <c r="E47" s="11"/>
+      <c r="E47" s="11">
+        <v>43486</v>
+      </c>
       <c r="F47" s="10"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -5345,7 +5393,9 @@
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
       <c r="D48" s="15"/>
-      <c r="E48" s="11"/>
+      <c r="E48" s="11">
+        <v>43486</v>
+      </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
@@ -5354,7 +5404,9 @@
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
       <c r="D49" s="15"/>
-      <c r="E49" s="11"/>
+      <c r="E49" s="11">
+        <v>43486</v>
+      </c>
       <c r="F49" s="10"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -5395,7 +5447,9 @@
       <c r="A53" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B53" s="4"/>
+      <c r="B53" s="4">
+        <v>43483</v>
+      </c>
       <c r="C53" s="4"/>
       <c r="D53" s="13"/>
       <c r="E53" s="4">
@@ -5407,7 +5461,9 @@
       <c r="A54" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="4"/>
+      <c r="B54" s="4">
+        <v>43483</v>
+      </c>
       <c r="C54" s="4"/>
       <c r="D54" s="13"/>
       <c r="E54" s="4">
@@ -5418,7 +5474,9 @@
       <c r="A55" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B55" s="4"/>
+      <c r="B55" s="4">
+        <v>43483</v>
+      </c>
       <c r="C55" s="4"/>
       <c r="D55" s="13"/>
       <c r="E55" s="4">
@@ -5455,7 +5513,9 @@
       <c r="A58" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B58" s="4"/>
+      <c r="B58" s="4">
+        <v>43486</v>
+      </c>
       <c r="C58" s="4"/>
       <c r="D58" s="13"/>
       <c r="E58" s="4">
@@ -5746,7 +5806,9 @@
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
       <c r="D82" s="15"/>
-      <c r="E82" s="11"/>
+      <c r="E82" s="11">
+        <v>43486</v>
+      </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
@@ -5755,7 +5817,9 @@
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
       <c r="D83" s="15"/>
-      <c r="E83" s="11"/>
+      <c r="E83" s="11">
+        <v>43486</v>
+      </c>
       <c r="F83" s="10"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -5765,7 +5829,9 @@
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
       <c r="D84" s="15"/>
-      <c r="E84" s="11"/>
+      <c r="E84" s="11">
+        <v>43486</v>
+      </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
@@ -5774,7 +5840,9 @@
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
       <c r="D85" s="15"/>
-      <c r="E85" s="11"/>
+      <c r="E85" s="11">
+        <v>43486</v>
+      </c>
       <c r="F85" s="10"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -5784,7 +5852,9 @@
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
       <c r="D86" s="15"/>
-      <c r="E86" s="11"/>
+      <c r="E86" s="11">
+        <v>43486</v>
+      </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
@@ -5793,7 +5863,9 @@
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
       <c r="D87" s="15"/>
-      <c r="E87" s="11"/>
+      <c r="E87" s="11">
+        <v>43486</v>
+      </c>
       <c r="F87" s="10"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -5803,7 +5875,9 @@
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
       <c r="D88" s="15"/>
-      <c r="E88" s="11"/>
+      <c r="E88" s="11">
+        <v>43486</v>
+      </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
@@ -5812,7 +5886,9 @@
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
       <c r="D89" s="15"/>
-      <c r="E89" s="11"/>
+      <c r="E89" s="11">
+        <v>43486</v>
+      </c>
       <c r="F89" s="10"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -5822,7 +5898,9 @@
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
       <c r="D90" s="15"/>
-      <c r="E90" s="11"/>
+      <c r="E90" s="11">
+        <v>43486</v>
+      </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
@@ -5831,7 +5909,9 @@
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
       <c r="D91" s="15"/>
-      <c r="E91" s="11"/>
+      <c r="E91" s="11">
+        <v>43486</v>
+      </c>
       <c r="F91" s="10"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -5841,7 +5921,9 @@
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
       <c r="D92" s="15"/>
-      <c r="E92" s="11"/>
+      <c r="E92" s="11">
+        <v>43486</v>
+      </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
@@ -5850,7 +5932,9 @@
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
       <c r="D93" s="15"/>
-      <c r="E93" s="11"/>
+      <c r="E93" s="11">
+        <v>43486</v>
+      </c>
       <c r="F93" s="10"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -5860,7 +5944,9 @@
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
       <c r="D94" s="15"/>
-      <c r="E94" s="11"/>
+      <c r="E94" s="11">
+        <v>43486</v>
+      </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
@@ -5869,7 +5955,9 @@
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
       <c r="D95" s="15"/>
-      <c r="E95" s="11"/>
+      <c r="E95" s="11">
+        <v>43486</v>
+      </c>
       <c r="F95" s="10"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -5879,7 +5967,9 @@
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
       <c r="D96" s="15"/>
-      <c r="E96" s="11"/>
+      <c r="E96" s="11">
+        <v>43486</v>
+      </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
@@ -5888,14 +5978,18 @@
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
       <c r="D97" s="15"/>
-      <c r="E97" s="11"/>
+      <c r="E97" s="11">
+        <v>43486</v>
+      </c>
       <c r="F97" s="10"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B98" s="4"/>
+      <c r="B98" s="4">
+        <v>43483</v>
+      </c>
       <c r="C98" s="4"/>
       <c r="D98" s="13"/>
       <c r="E98" s="4">
@@ -5925,8 +6019,12 @@
       <c r="B100" s="4">
         <v>43472</v>
       </c>
-      <c r="C100" s="4"/>
-      <c r="D100" s="13"/>
+      <c r="C100" s="4">
+        <v>43486</v>
+      </c>
+      <c r="D100" s="13">
+        <v>34.4</v>
+      </c>
       <c r="E100" s="4">
         <v>43823</v>
       </c>
@@ -5954,8 +6052,12 @@
       <c r="B102" s="4">
         <v>43472</v>
       </c>
-      <c r="C102" s="4"/>
-      <c r="D102" s="13"/>
+      <c r="C102" s="4">
+        <v>43486</v>
+      </c>
+      <c r="D102" s="13">
+        <v>36.1</v>
+      </c>
       <c r="E102" s="4">
         <v>43823</v>
       </c>
@@ -5983,8 +6085,12 @@
       <c r="B104" s="4">
         <v>43472</v>
       </c>
-      <c r="C104" s="4"/>
-      <c r="D104" s="13"/>
+      <c r="C104" s="4">
+        <v>43486</v>
+      </c>
+      <c r="D104" s="13">
+        <v>34.1</v>
+      </c>
       <c r="E104" s="4">
         <v>43823</v>
       </c>
@@ -5996,8 +6102,12 @@
       <c r="B105" s="4">
         <v>43472</v>
       </c>
-      <c r="C105" s="4"/>
-      <c r="D105" s="13"/>
+      <c r="C105" s="4">
+        <v>43486</v>
+      </c>
+      <c r="D105" s="13">
+        <v>41.2</v>
+      </c>
       <c r="E105" s="4">
         <v>43823</v>
       </c>
@@ -6041,8 +6151,12 @@
       <c r="B108" s="4">
         <v>43472</v>
       </c>
-      <c r="C108" s="4"/>
-      <c r="D108" s="13"/>
+      <c r="C108" s="4">
+        <v>43486</v>
+      </c>
+      <c r="D108" s="13">
+        <v>35.200000000000003</v>
+      </c>
       <c r="E108" s="4">
         <v>43823</v>
       </c>
@@ -6103,7 +6217,7 @@
         <v>43823</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>114</v>
       </c>
@@ -6115,9 +6229,14 @@
       <c r="E113" s="4">
         <v>43823</v>
       </c>
-      <c r="F113" s="10"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F113" s="10">
+        <v>43483</v>
+      </c>
+      <c r="G113" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
         <v>115</v>
       </c>
@@ -6128,7 +6247,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="5" t="s">
         <v>116</v>
       </c>
@@ -6140,18 +6259,20 @@
       </c>
       <c r="F115" s="10"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B116" s="6"/>
+      <c r="B116" s="6">
+        <v>43486</v>
+      </c>
       <c r="C116" s="6"/>
       <c r="D116" s="14"/>
       <c r="E116" s="6">
         <v>43472</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="5" t="s">
         <v>118</v>
       </c>
@@ -6163,18 +6284,20 @@
       </c>
       <c r="F117" s="10"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B118" s="6"/>
+      <c r="B118" s="6">
+        <v>43486</v>
+      </c>
       <c r="C118" s="6"/>
       <c r="D118" s="14"/>
       <c r="E118" s="6">
         <v>43472</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="5" t="s">
         <v>120</v>
       </c>
@@ -6186,22 +6309,26 @@
       </c>
       <c r="F119" s="10"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B120" s="6"/>
+      <c r="B120" s="6">
+        <v>43483</v>
+      </c>
       <c r="C120" s="6"/>
       <c r="D120" s="14"/>
       <c r="E120" s="6">
         <v>43472</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B121" s="6"/>
+      <c r="B121" s="6">
+        <v>43486</v>
+      </c>
       <c r="C121" s="6"/>
       <c r="D121" s="14"/>
       <c r="E121" s="6">
@@ -6209,7 +6336,7 @@
       </c>
       <c r="F121" s="10"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="5" t="s">
         <v>123</v>
       </c>
@@ -6222,7 +6349,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
         <v>124</v>
       </c>
@@ -6234,7 +6361,7 @@
       </c>
       <c r="F123" s="10"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
         <v>125</v>
       </c>
@@ -6247,11 +6374,13 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B125" s="6"/>
+      <c r="B125" s="6">
+        <v>43486</v>
+      </c>
       <c r="C125" s="6"/>
       <c r="D125" s="14"/>
       <c r="E125" s="6">
@@ -6259,18 +6388,20 @@
       </c>
       <c r="F125" s="10"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B126" s="6"/>
+      <c r="B126" s="6">
+        <v>43486</v>
+      </c>
       <c r="C126" s="6"/>
       <c r="D126" s="14"/>
       <c r="E126" s="6">
         <v>43472</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="5" t="s">
         <v>128</v>
       </c>
@@ -6282,11 +6413,13 @@
       </c>
       <c r="F127" s="10"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B128" s="6"/>
+      <c r="B128" s="6">
+        <v>43486</v>
+      </c>
       <c r="C128" s="6"/>
       <c r="D128" s="14"/>
       <c r="E128" s="6">
@@ -6297,7 +6430,9 @@
       <c r="A129" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B129" s="6"/>
+      <c r="B129" s="6">
+        <v>43486</v>
+      </c>
       <c r="C129" s="6"/>
       <c r="D129" s="14"/>
       <c r="E129" s="6">
@@ -6312,7 +6447,9 @@
       <c r="B130" s="11"/>
       <c r="C130" s="11"/>
       <c r="D130" s="15"/>
-      <c r="E130" s="11"/>
+      <c r="E130" s="11">
+        <v>43486</v>
+      </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="7" t="s">
@@ -6321,7 +6458,9 @@
       <c r="B131" s="11"/>
       <c r="C131" s="11"/>
       <c r="D131" s="15"/>
-      <c r="E131" s="11"/>
+      <c r="E131" s="11">
+        <v>43486</v>
+      </c>
       <c r="F131" s="10"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
@@ -6331,7 +6470,9 @@
       <c r="B132" s="11"/>
       <c r="C132" s="11"/>
       <c r="D132" s="15"/>
-      <c r="E132" s="11"/>
+      <c r="E132" s="11">
+        <v>43486</v>
+      </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="7" t="s">
@@ -6340,7 +6481,9 @@
       <c r="B133" s="11"/>
       <c r="C133" s="11"/>
       <c r="D133" s="15"/>
-      <c r="E133" s="11"/>
+      <c r="E133" s="11">
+        <v>43486</v>
+      </c>
       <c r="F133" s="10"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
@@ -6350,7 +6493,9 @@
       <c r="B134" s="11"/>
       <c r="C134" s="11"/>
       <c r="D134" s="15"/>
-      <c r="E134" s="11"/>
+      <c r="E134" s="11">
+        <v>43486</v>
+      </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="7" t="s">
@@ -6359,7 +6504,9 @@
       <c r="B135" s="11"/>
       <c r="C135" s="11"/>
       <c r="D135" s="15"/>
-      <c r="E135" s="11"/>
+      <c r="E135" s="11">
+        <v>43486</v>
+      </c>
       <c r="F135" s="10"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
@@ -6369,7 +6516,9 @@
       <c r="B136" s="11"/>
       <c r="C136" s="11"/>
       <c r="D136" s="15"/>
-      <c r="E136" s="11"/>
+      <c r="E136" s="11">
+        <v>43486</v>
+      </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="7" t="s">
@@ -6378,7 +6527,9 @@
       <c r="B137" s="11"/>
       <c r="C137" s="11"/>
       <c r="D137" s="15"/>
-      <c r="E137" s="11"/>
+      <c r="E137" s="11">
+        <v>43486</v>
+      </c>
       <c r="F137" s="10"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
@@ -6388,7 +6539,9 @@
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
       <c r="D138" s="15"/>
-      <c r="E138" s="11"/>
+      <c r="E138" s="11">
+        <v>43486</v>
+      </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="7" t="s">
@@ -6397,7 +6550,9 @@
       <c r="B139" s="11"/>
       <c r="C139" s="11"/>
       <c r="D139" s="15"/>
-      <c r="E139" s="11"/>
+      <c r="E139" s="11">
+        <v>43486</v>
+      </c>
       <c r="F139" s="10"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
@@ -6407,7 +6562,9 @@
       <c r="B140" s="11"/>
       <c r="C140" s="11"/>
       <c r="D140" s="15"/>
-      <c r="E140" s="11"/>
+      <c r="E140" s="11">
+        <v>43486</v>
+      </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="7" t="s">
@@ -6416,7 +6573,9 @@
       <c r="B141" s="11"/>
       <c r="C141" s="11"/>
       <c r="D141" s="15"/>
-      <c r="E141" s="11"/>
+      <c r="E141" s="11">
+        <v>43486</v>
+      </c>
       <c r="F141" s="10"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
@@ -6426,7 +6585,9 @@
       <c r="B142" s="11"/>
       <c r="C142" s="11"/>
       <c r="D142" s="15"/>
-      <c r="E142" s="11"/>
+      <c r="E142" s="11">
+        <v>43486</v>
+      </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="7" t="s">
@@ -6435,7 +6596,9 @@
       <c r="B143" s="11"/>
       <c r="C143" s="11"/>
       <c r="D143" s="15"/>
-      <c r="E143" s="11"/>
+      <c r="E143" s="11">
+        <v>43486</v>
+      </c>
       <c r="F143" s="10"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
@@ -6445,7 +6608,9 @@
       <c r="B144" s="11"/>
       <c r="C144" s="11"/>
       <c r="D144" s="15"/>
-      <c r="E144" s="11"/>
+      <c r="E144" s="11">
+        <v>43486</v>
+      </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="7" t="s">
@@ -6454,7 +6619,9 @@
       <c r="B145" s="11"/>
       <c r="C145" s="11"/>
       <c r="D145" s="15"/>
-      <c r="E145" s="11"/>
+      <c r="E145" s="11">
+        <v>43486</v>
+      </c>
       <c r="F145" s="10"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
@@ -6536,7 +6703,9 @@
       <c r="E151" s="4">
         <v>43823</v>
       </c>
-      <c r="F151" s="10"/>
+      <c r="F151" s="10">
+        <v>43483</v>
+      </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
@@ -6555,7 +6724,9 @@
       <c r="A153" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B153" s="4"/>
+      <c r="B153" s="4">
+        <v>43486</v>
+      </c>
       <c r="C153" s="4"/>
       <c r="D153" s="13"/>
       <c r="E153" s="4">
@@ -6580,7 +6751,9 @@
       <c r="A155" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B155" s="4"/>
+      <c r="B155" s="4">
+        <v>43483</v>
+      </c>
       <c r="C155" s="4"/>
       <c r="D155" s="13"/>
       <c r="E155" s="4">
@@ -6640,7 +6813,9 @@
       <c r="E159" s="4">
         <v>43823</v>
       </c>
-      <c r="F159" s="10"/>
+      <c r="F159" s="10">
+        <v>43483</v>
+      </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
@@ -6659,7 +6834,9 @@
       <c r="A161" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B161" s="4"/>
+      <c r="B161" s="4">
+        <v>43483</v>
+      </c>
       <c r="C161" s="4"/>
       <c r="D161" s="13"/>
       <c r="E161" s="4">
@@ -6671,7 +6848,9 @@
       <c r="A162" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B162" s="6"/>
+      <c r="B162" s="6">
+        <v>43486</v>
+      </c>
       <c r="C162" s="6"/>
       <c r="D162" s="14"/>
       <c r="E162" s="6">
@@ -6717,7 +6896,9 @@
       <c r="A166" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B166" s="6"/>
+      <c r="B166" s="6">
+        <v>43486</v>
+      </c>
       <c r="C166" s="6"/>
       <c r="D166" s="14"/>
       <c r="E166" s="6">
@@ -6751,7 +6932,9 @@
       <c r="A169" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B169" s="6"/>
+      <c r="B169" s="6">
+        <v>43486</v>
+      </c>
       <c r="C169" s="6"/>
       <c r="D169" s="14"/>
       <c r="E169" s="6">
@@ -6858,7 +7041,9 @@
       <c r="B178" s="11"/>
       <c r="C178" s="11"/>
       <c r="D178" s="15"/>
-      <c r="E178" s="11"/>
+      <c r="E178" s="11">
+        <v>43486</v>
+      </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" s="7" t="s">
@@ -6867,7 +7052,9 @@
       <c r="B179" s="11"/>
       <c r="C179" s="11"/>
       <c r="D179" s="15"/>
-      <c r="E179" s="11"/>
+      <c r="E179" s="11">
+        <v>43486</v>
+      </c>
       <c r="F179" s="10"/>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
@@ -6877,7 +7064,9 @@
       <c r="B180" s="11"/>
       <c r="C180" s="11"/>
       <c r="D180" s="15"/>
-      <c r="E180" s="11"/>
+      <c r="E180" s="11">
+        <v>43486</v>
+      </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" s="7" t="s">
@@ -6886,7 +7075,9 @@
       <c r="B181" s="11"/>
       <c r="C181" s="11"/>
       <c r="D181" s="15"/>
-      <c r="E181" s="11"/>
+      <c r="E181" s="11">
+        <v>43486</v>
+      </c>
       <c r="F181" s="10"/>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
@@ -6896,7 +7087,9 @@
       <c r="B182" s="11"/>
       <c r="C182" s="11"/>
       <c r="D182" s="15"/>
-      <c r="E182" s="11"/>
+      <c r="E182" s="11">
+        <v>43486</v>
+      </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="7" t="s">
@@ -6905,7 +7098,9 @@
       <c r="B183" s="11"/>
       <c r="C183" s="11"/>
       <c r="D183" s="15"/>
-      <c r="E183" s="11"/>
+      <c r="E183" s="11">
+        <v>43486</v>
+      </c>
       <c r="F183" s="10"/>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
@@ -6915,7 +7110,9 @@
       <c r="B184" s="11"/>
       <c r="C184" s="11"/>
       <c r="D184" s="15"/>
-      <c r="E184" s="11"/>
+      <c r="E184" s="11">
+        <v>43486</v>
+      </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" s="7" t="s">
@@ -6924,7 +7121,9 @@
       <c r="B185" s="11"/>
       <c r="C185" s="11"/>
       <c r="D185" s="15"/>
-      <c r="E185" s="11"/>
+      <c r="E185" s="11">
+        <v>43486</v>
+      </c>
       <c r="F185" s="10"/>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
@@ -6934,7 +7133,9 @@
       <c r="B186" s="11"/>
       <c r="C186" s="11"/>
       <c r="D186" s="15"/>
-      <c r="E186" s="11"/>
+      <c r="E186" s="11">
+        <v>43486</v>
+      </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" s="7" t="s">
@@ -6943,7 +7144,9 @@
       <c r="B187" s="11"/>
       <c r="C187" s="11"/>
       <c r="D187" s="15"/>
-      <c r="E187" s="11"/>
+      <c r="E187" s="11">
+        <v>43486</v>
+      </c>
       <c r="F187" s="10"/>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
@@ -6953,7 +7156,9 @@
       <c r="B188" s="11"/>
       <c r="C188" s="11"/>
       <c r="D188" s="15"/>
-      <c r="E188" s="11"/>
+      <c r="E188" s="11">
+        <v>43486</v>
+      </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" s="7" t="s">
@@ -6962,7 +7167,9 @@
       <c r="B189" s="11"/>
       <c r="C189" s="11"/>
       <c r="D189" s="15"/>
-      <c r="E189" s="11"/>
+      <c r="E189" s="11">
+        <v>43486</v>
+      </c>
       <c r="F189" s="10"/>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
@@ -6972,7 +7179,9 @@
       <c r="B190" s="11"/>
       <c r="C190" s="11"/>
       <c r="D190" s="15"/>
-      <c r="E190" s="11"/>
+      <c r="E190" s="11">
+        <v>43486</v>
+      </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" s="7" t="s">
@@ -6981,7 +7190,9 @@
       <c r="B191" s="11"/>
       <c r="C191" s="11"/>
       <c r="D191" s="15"/>
-      <c r="E191" s="11"/>
+      <c r="E191" s="11">
+        <v>43486</v>
+      </c>
       <c r="F191" s="10"/>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
@@ -6991,7 +7202,9 @@
       <c r="B192" s="11"/>
       <c r="C192" s="11"/>
       <c r="D192" s="15"/>
-      <c r="E192" s="11"/>
+      <c r="E192" s="11">
+        <v>43486</v>
+      </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" s="7" t="s">
@@ -7000,7 +7213,9 @@
       <c r="B193" s="11"/>
       <c r="C193" s="11"/>
       <c r="D193" s="15"/>
-      <c r="E193" s="11"/>
+      <c r="E193" s="11">
+        <v>43486</v>
+      </c>
       <c r="F193" s="10"/>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
@@ -7010,8 +7225,12 @@
       <c r="B194" s="4">
         <v>43472</v>
       </c>
-      <c r="C194" s="4"/>
-      <c r="D194" s="13"/>
+      <c r="C194" s="4">
+        <v>43486</v>
+      </c>
+      <c r="D194" s="13">
+        <v>55.8</v>
+      </c>
       <c r="E194" s="4">
         <v>43823</v>
       </c>
@@ -7064,8 +7283,12 @@
       <c r="B198" s="4">
         <v>43472</v>
       </c>
-      <c r="C198" s="4"/>
-      <c r="D198" s="13"/>
+      <c r="C198" s="4">
+        <v>43483</v>
+      </c>
+      <c r="D198" s="13">
+        <v>34.200000000000003</v>
+      </c>
       <c r="E198" s="4">
         <v>43823</v>
       </c>
@@ -7156,8 +7379,12 @@
       <c r="B205" s="4">
         <v>43467</v>
       </c>
-      <c r="C205" s="4"/>
-      <c r="D205" s="13"/>
+      <c r="C205" s="4">
+        <v>43486</v>
+      </c>
+      <c r="D205" s="13">
+        <v>58.2</v>
+      </c>
       <c r="E205" s="4">
         <v>43823</v>
       </c>
@@ -7172,8 +7399,12 @@
       <c r="B206" s="4">
         <v>43469</v>
       </c>
-      <c r="C206" s="4"/>
-      <c r="D206" s="13"/>
+      <c r="C206" s="4">
+        <v>43486</v>
+      </c>
+      <c r="D206" s="13">
+        <v>53.6</v>
+      </c>
       <c r="E206" s="4">
         <v>43823</v>
       </c>
@@ -7231,7 +7462,9 @@
       <c r="A210" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="B210" s="6"/>
+      <c r="B210" s="6">
+        <v>43486</v>
+      </c>
       <c r="C210" s="6"/>
       <c r="D210" s="14"/>
       <c r="E210" s="6">
@@ -7254,7 +7487,9 @@
       <c r="A212" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B212" s="6"/>
+      <c r="B212" s="6">
+        <v>43486</v>
+      </c>
       <c r="C212" s="6"/>
       <c r="D212" s="14"/>
       <c r="E212" s="6">
@@ -7288,7 +7523,9 @@
       <c r="A215" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="B215" s="6"/>
+      <c r="B215" s="6">
+        <v>43486</v>
+      </c>
       <c r="C215" s="6"/>
       <c r="D215" s="14"/>
       <c r="E215" s="6">
@@ -7323,7 +7560,9 @@
       <c r="A218" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="B218" s="6"/>
+      <c r="B218" s="6">
+        <v>43486</v>
+      </c>
       <c r="C218" s="6"/>
       <c r="D218" s="14"/>
       <c r="E218" s="6">
@@ -7346,7 +7585,9 @@
       <c r="A220" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="B220" s="6"/>
+      <c r="B220" s="6">
+        <v>43486</v>
+      </c>
       <c r="C220" s="6"/>
       <c r="D220" s="14"/>
       <c r="E220" s="6">
@@ -7357,7 +7598,9 @@
       <c r="A221" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="B221" s="6"/>
+      <c r="B221" s="6">
+        <v>43483</v>
+      </c>
       <c r="C221" s="6"/>
       <c r="D221" s="14"/>
       <c r="E221" s="6">
@@ -7396,7 +7639,9 @@
       <c r="A224" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="B224" s="6"/>
+      <c r="B224" s="6">
+        <v>43486</v>
+      </c>
       <c r="C224" s="6"/>
       <c r="D224" s="14"/>
       <c r="E224" s="6">
@@ -7407,7 +7652,9 @@
       <c r="A225" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="B225" s="6"/>
+      <c r="B225" s="6">
+        <v>43483</v>
+      </c>
       <c r="C225" s="6"/>
       <c r="D225" s="14"/>
       <c r="E225" s="6">
@@ -7422,7 +7669,9 @@
       <c r="B226" s="11"/>
       <c r="C226" s="11"/>
       <c r="D226" s="15"/>
-      <c r="E226" s="11"/>
+      <c r="E226" s="11">
+        <v>43486</v>
+      </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" s="7" t="s">
@@ -7431,7 +7680,9 @@
       <c r="B227" s="11"/>
       <c r="C227" s="11"/>
       <c r="D227" s="15"/>
-      <c r="E227" s="11"/>
+      <c r="E227" s="11">
+        <v>43486</v>
+      </c>
       <c r="F227" s="10"/>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
@@ -7441,7 +7692,9 @@
       <c r="B228" s="11"/>
       <c r="C228" s="11"/>
       <c r="D228" s="15"/>
-      <c r="E228" s="11"/>
+      <c r="E228" s="11">
+        <v>43486</v>
+      </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" s="7" t="s">
@@ -7450,7 +7703,9 @@
       <c r="B229" s="11"/>
       <c r="C229" s="11"/>
       <c r="D229" s="15"/>
-      <c r="E229" s="11"/>
+      <c r="E229" s="11">
+        <v>43486</v>
+      </c>
       <c r="F229" s="10"/>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
@@ -7460,7 +7715,9 @@
       <c r="B230" s="11"/>
       <c r="C230" s="11"/>
       <c r="D230" s="15"/>
-      <c r="E230" s="11"/>
+      <c r="E230" s="11">
+        <v>43486</v>
+      </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" s="7" t="s">
@@ -7469,7 +7726,9 @@
       <c r="B231" s="11"/>
       <c r="C231" s="11"/>
       <c r="D231" s="15"/>
-      <c r="E231" s="11"/>
+      <c r="E231" s="11">
+        <v>43486</v>
+      </c>
       <c r="F231" s="10"/>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
@@ -7479,7 +7738,9 @@
       <c r="B232" s="11"/>
       <c r="C232" s="11"/>
       <c r="D232" s="15"/>
-      <c r="E232" s="11"/>
+      <c r="E232" s="11">
+        <v>43486</v>
+      </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" s="7" t="s">
@@ -7488,7 +7749,9 @@
       <c r="B233" s="11"/>
       <c r="C233" s="11"/>
       <c r="D233" s="15"/>
-      <c r="E233" s="11"/>
+      <c r="E233" s="11">
+        <v>43486</v>
+      </c>
       <c r="F233" s="10"/>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
@@ -7498,7 +7761,9 @@
       <c r="B234" s="11"/>
       <c r="C234" s="11"/>
       <c r="D234" s="15"/>
-      <c r="E234" s="11"/>
+      <c r="E234" s="11">
+        <v>43486</v>
+      </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" s="7" t="s">
@@ -7507,7 +7772,9 @@
       <c r="B235" s="11"/>
       <c r="C235" s="11"/>
       <c r="D235" s="15"/>
-      <c r="E235" s="11"/>
+      <c r="E235" s="11">
+        <v>43486</v>
+      </c>
       <c r="F235" s="10"/>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
@@ -7517,7 +7784,9 @@
       <c r="B236" s="11"/>
       <c r="C236" s="11"/>
       <c r="D236" s="15"/>
-      <c r="E236" s="11"/>
+      <c r="E236" s="11">
+        <v>43486</v>
+      </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" s="7" t="s">
@@ -7526,7 +7795,9 @@
       <c r="B237" s="11"/>
       <c r="C237" s="11"/>
       <c r="D237" s="15"/>
-      <c r="E237" s="11"/>
+      <c r="E237" s="11">
+        <v>43486</v>
+      </c>
       <c r="F237" s="10"/>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
@@ -7536,7 +7807,9 @@
       <c r="B238" s="11"/>
       <c r="C238" s="11"/>
       <c r="D238" s="15"/>
-      <c r="E238" s="11"/>
+      <c r="E238" s="11">
+        <v>43486</v>
+      </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" s="7" t="s">
@@ -7545,7 +7818,9 @@
       <c r="B239" s="11"/>
       <c r="C239" s="11"/>
       <c r="D239" s="15"/>
-      <c r="E239" s="11"/>
+      <c r="E239" s="11">
+        <v>43486</v>
+      </c>
       <c r="F239" s="10"/>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
@@ -7555,7 +7830,9 @@
       <c r="B240" s="11"/>
       <c r="C240" s="11"/>
       <c r="D240" s="15"/>
-      <c r="E240" s="11"/>
+      <c r="E240" s="11">
+        <v>43486</v>
+      </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" s="7" t="s">
@@ -7564,7 +7841,9 @@
       <c r="B241" s="11"/>
       <c r="C241" s="11"/>
       <c r="D241" s="15"/>
-      <c r="E241" s="11"/>
+      <c r="E241" s="11">
+        <v>43486</v>
+      </c>
       <c r="F241" s="10"/>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
@@ -7942,7 +8221,9 @@
       <c r="B274" s="11"/>
       <c r="C274" s="11"/>
       <c r="D274" s="15"/>
-      <c r="E274" s="11"/>
+      <c r="E274" s="11">
+        <v>43486</v>
+      </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" s="7" t="s">
@@ -7951,7 +8232,9 @@
       <c r="B275" s="11"/>
       <c r="C275" s="11"/>
       <c r="D275" s="15"/>
-      <c r="E275" s="11"/>
+      <c r="E275" s="11">
+        <v>43486</v>
+      </c>
       <c r="F275" s="10"/>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.2">
@@ -7961,7 +8244,9 @@
       <c r="B276" s="11"/>
       <c r="C276" s="11"/>
       <c r="D276" s="15"/>
-      <c r="E276" s="11"/>
+      <c r="E276" s="11">
+        <v>43486</v>
+      </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" s="7" t="s">
@@ -7970,7 +8255,9 @@
       <c r="B277" s="11"/>
       <c r="C277" s="11"/>
       <c r="D277" s="15"/>
-      <c r="E277" s="11"/>
+      <c r="E277" s="11">
+        <v>43486</v>
+      </c>
       <c r="F277" s="10"/>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.2">
@@ -7980,7 +8267,9 @@
       <c r="B278" s="11"/>
       <c r="C278" s="11"/>
       <c r="D278" s="15"/>
-      <c r="E278" s="11"/>
+      <c r="E278" s="11">
+        <v>43486</v>
+      </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" s="7" t="s">
@@ -7989,7 +8278,9 @@
       <c r="B279" s="11"/>
       <c r="C279" s="11"/>
       <c r="D279" s="15"/>
-      <c r="E279" s="11"/>
+      <c r="E279" s="11">
+        <v>43486</v>
+      </c>
       <c r="F279" s="10"/>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.2">
@@ -7999,7 +8290,9 @@
       <c r="B280" s="11"/>
       <c r="C280" s="11"/>
       <c r="D280" s="15"/>
-      <c r="E280" s="11"/>
+      <c r="E280" s="11">
+        <v>43486</v>
+      </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" s="7" t="s">
@@ -8008,7 +8301,9 @@
       <c r="B281" s="11"/>
       <c r="C281" s="11"/>
       <c r="D281" s="15"/>
-      <c r="E281" s="11"/>
+      <c r="E281" s="11">
+        <v>43486</v>
+      </c>
       <c r="F281" s="10"/>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.2">
@@ -8018,7 +8313,9 @@
       <c r="B282" s="11"/>
       <c r="C282" s="11"/>
       <c r="D282" s="15"/>
-      <c r="E282" s="11"/>
+      <c r="E282" s="11">
+        <v>43486</v>
+      </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" s="7" t="s">
@@ -8027,7 +8324,9 @@
       <c r="B283" s="11"/>
       <c r="C283" s="11"/>
       <c r="D283" s="15"/>
-      <c r="E283" s="11"/>
+      <c r="E283" s="11">
+        <v>43486</v>
+      </c>
       <c r="F283" s="10"/>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.2">
@@ -8037,7 +8336,9 @@
       <c r="B284" s="11"/>
       <c r="C284" s="11"/>
       <c r="D284" s="15"/>
-      <c r="E284" s="11"/>
+      <c r="E284" s="11">
+        <v>43486</v>
+      </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" s="7" t="s">
@@ -8046,7 +8347,9 @@
       <c r="B285" s="11"/>
       <c r="C285" s="11"/>
       <c r="D285" s="15"/>
-      <c r="E285" s="11"/>
+      <c r="E285" s="11">
+        <v>43486</v>
+      </c>
       <c r="F285" s="10"/>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.2">
@@ -8056,7 +8359,9 @@
       <c r="B286" s="11"/>
       <c r="C286" s="11"/>
       <c r="D286" s="15"/>
-      <c r="E286" s="11"/>
+      <c r="E286" s="11">
+        <v>43486</v>
+      </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" s="7" t="s">
@@ -8065,7 +8370,9 @@
       <c r="B287" s="11"/>
       <c r="C287" s="11"/>
       <c r="D287" s="15"/>
-      <c r="E287" s="11"/>
+      <c r="E287" s="11">
+        <v>43486</v>
+      </c>
       <c r="F287" s="10"/>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.2">
@@ -8075,7 +8382,9 @@
       <c r="B288" s="11"/>
       <c r="C288" s="11"/>
       <c r="D288" s="15"/>
-      <c r="E288" s="11"/>
+      <c r="E288" s="11">
+        <v>43486</v>
+      </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289" s="7" t="s">
@@ -8084,7 +8393,9 @@
       <c r="B289" s="11"/>
       <c r="C289" s="11"/>
       <c r="D289" s="15"/>
-      <c r="E289" s="11"/>
+      <c r="E289" s="11">
+        <v>43486</v>
+      </c>
       <c r="F289" s="10"/>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.2">
@@ -8462,7 +8773,9 @@
       <c r="B322" s="11"/>
       <c r="C322" s="11"/>
       <c r="D322" s="15"/>
-      <c r="E322" s="11"/>
+      <c r="E322" s="11">
+        <v>43486</v>
+      </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A323" s="7" t="s">
@@ -8471,7 +8784,9 @@
       <c r="B323" s="11"/>
       <c r="C323" s="11"/>
       <c r="D323" s="15"/>
-      <c r="E323" s="11"/>
+      <c r="E323" s="11">
+        <v>43486</v>
+      </c>
       <c r="F323" s="10"/>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.2">
@@ -8481,7 +8796,9 @@
       <c r="B324" s="11"/>
       <c r="C324" s="11"/>
       <c r="D324" s="15"/>
-      <c r="E324" s="11"/>
+      <c r="E324" s="11">
+        <v>43486</v>
+      </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A325" s="7" t="s">
@@ -8490,7 +8807,9 @@
       <c r="B325" s="11"/>
       <c r="C325" s="11"/>
       <c r="D325" s="15"/>
-      <c r="E325" s="11"/>
+      <c r="E325" s="11">
+        <v>43486</v>
+      </c>
       <c r="F325" s="10"/>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.2">
@@ -8500,7 +8819,9 @@
       <c r="B326" s="11"/>
       <c r="C326" s="11"/>
       <c r="D326" s="15"/>
-      <c r="E326" s="11"/>
+      <c r="E326" s="11">
+        <v>43486</v>
+      </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A327" s="7" t="s">
@@ -8509,7 +8830,9 @@
       <c r="B327" s="11"/>
       <c r="C327" s="11"/>
       <c r="D327" s="15"/>
-      <c r="E327" s="11"/>
+      <c r="E327" s="11">
+        <v>43486</v>
+      </c>
       <c r="F327" s="10"/>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.2">
@@ -8519,7 +8842,9 @@
       <c r="B328" s="11"/>
       <c r="C328" s="11"/>
       <c r="D328" s="15"/>
-      <c r="E328" s="11"/>
+      <c r="E328" s="11">
+        <v>43486</v>
+      </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A329" s="7" t="s">
@@ -8528,7 +8853,9 @@
       <c r="B329" s="11"/>
       <c r="C329" s="11"/>
       <c r="D329" s="15"/>
-      <c r="E329" s="11"/>
+      <c r="E329" s="11">
+        <v>43486</v>
+      </c>
       <c r="F329" s="10"/>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.2">
@@ -8538,7 +8865,9 @@
       <c r="B330" s="11"/>
       <c r="C330" s="11"/>
       <c r="D330" s="15"/>
-      <c r="E330" s="11"/>
+      <c r="E330" s="11">
+        <v>43486</v>
+      </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A331" s="7" t="s">
@@ -8547,7 +8876,9 @@
       <c r="B331" s="11"/>
       <c r="C331" s="11"/>
       <c r="D331" s="15"/>
-      <c r="E331" s="11"/>
+      <c r="E331" s="11">
+        <v>43486</v>
+      </c>
       <c r="F331" s="10"/>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.2">
@@ -8557,7 +8888,9 @@
       <c r="B332" s="11"/>
       <c r="C332" s="11"/>
       <c r="D332" s="15"/>
-      <c r="E332" s="11"/>
+      <c r="E332" s="11">
+        <v>43486</v>
+      </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A333" s="7" t="s">
@@ -8566,7 +8899,9 @@
       <c r="B333" s="11"/>
       <c r="C333" s="11"/>
       <c r="D333" s="15"/>
-      <c r="E333" s="11"/>
+      <c r="E333" s="11">
+        <v>43486</v>
+      </c>
       <c r="F333" s="10"/>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.2">
@@ -8576,7 +8911,9 @@
       <c r="B334" s="11"/>
       <c r="C334" s="11"/>
       <c r="D334" s="15"/>
-      <c r="E334" s="11"/>
+      <c r="E334" s="11">
+        <v>43486</v>
+      </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A335" s="7" t="s">
@@ -8585,7 +8922,9 @@
       <c r="B335" s="11"/>
       <c r="C335" s="11"/>
       <c r="D335" s="15"/>
-      <c r="E335" s="11"/>
+      <c r="E335" s="11">
+        <v>43486</v>
+      </c>
       <c r="F335" s="10"/>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.2">
@@ -8595,7 +8934,9 @@
       <c r="B336" s="11"/>
       <c r="C336" s="11"/>
       <c r="D336" s="15"/>
-      <c r="E336" s="11"/>
+      <c r="E336" s="11">
+        <v>43486</v>
+      </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A337" s="7" t="s">
@@ -8604,7 +8945,9 @@
       <c r="B337" s="11"/>
       <c r="C337" s="11"/>
       <c r="D337" s="15"/>
-      <c r="E337" s="11"/>
+      <c r="E337" s="11">
+        <v>43486</v>
+      </c>
       <c r="F337" s="10"/>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.2">
@@ -8631,8 +8974,12 @@
       <c r="B339" s="4">
         <v>43472</v>
       </c>
-      <c r="C339" s="4"/>
-      <c r="D339" s="13"/>
+      <c r="C339" s="4">
+        <v>43483</v>
+      </c>
+      <c r="D339" s="13">
+        <v>35</v>
+      </c>
       <c r="E339" s="4">
         <v>43823</v>
       </c>
@@ -8775,8 +9122,12 @@
       <c r="B347" s="4">
         <v>43472</v>
       </c>
-      <c r="C347" s="4"/>
-      <c r="D347" s="13"/>
+      <c r="C347" s="4">
+        <v>43483</v>
+      </c>
+      <c r="D347" s="13">
+        <v>24.6</v>
+      </c>
       <c r="E347" s="4">
         <v>43823</v>
       </c>
@@ -8878,8 +9229,12 @@
       <c r="B353" s="4">
         <v>43472</v>
       </c>
-      <c r="C353" s="4"/>
-      <c r="D353" s="13"/>
+      <c r="C353" s="4">
+        <v>43483</v>
+      </c>
+      <c r="D353" s="13">
+        <v>31.8</v>
+      </c>
       <c r="E353" s="4">
         <v>43472</v>
       </c>
@@ -8904,7 +9259,9 @@
       <c r="A355" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="B355" s="6"/>
+      <c r="B355" s="6">
+        <v>43486</v>
+      </c>
       <c r="C355" s="6"/>
       <c r="D355" s="14"/>
       <c r="E355" s="6">
@@ -8943,7 +9300,9 @@
       <c r="A358" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="B358" s="6"/>
+      <c r="B358" s="6">
+        <v>43483</v>
+      </c>
       <c r="C358" s="6"/>
       <c r="D358" s="14"/>
       <c r="E358" s="6">
@@ -8968,7 +9327,9 @@
       <c r="A360" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="B360" s="6"/>
+      <c r="B360" s="6">
+        <v>43483</v>
+      </c>
       <c r="C360" s="6"/>
       <c r="D360" s="14"/>
       <c r="E360" s="6">
@@ -9006,7 +9367,9 @@
       <c r="A363" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="B363" s="6"/>
+      <c r="B363" s="6">
+        <v>43483</v>
+      </c>
       <c r="C363" s="6"/>
       <c r="D363" s="14"/>
       <c r="E363" s="6">
@@ -9018,7 +9381,9 @@
       <c r="A364" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="B364" s="6"/>
+      <c r="B364" s="6">
+        <v>43486</v>
+      </c>
       <c r="C364" s="6"/>
       <c r="D364" s="14"/>
       <c r="E364" s="6">
@@ -9029,7 +9394,9 @@
       <c r="A365" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="B365" s="6"/>
+      <c r="B365" s="6">
+        <v>43483</v>
+      </c>
       <c r="C365" s="6"/>
       <c r="D365" s="14"/>
       <c r="E365" s="6">
@@ -9068,7 +9435,9 @@
       <c r="A368" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="B368" s="6"/>
+      <c r="B368" s="6">
+        <v>43483</v>
+      </c>
       <c r="C368" s="6"/>
       <c r="D368" s="14"/>
       <c r="E368" s="6">
@@ -9079,7 +9448,9 @@
       <c r="A369" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="B369" s="6"/>
+      <c r="B369" s="6">
+        <v>43483</v>
+      </c>
       <c r="C369" s="6"/>
       <c r="D369" s="14"/>
       <c r="E369" s="6">
@@ -9094,7 +9465,9 @@
       <c r="B370" s="11"/>
       <c r="C370" s="11"/>
       <c r="D370" s="15"/>
-      <c r="E370" s="11"/>
+      <c r="E370" s="11">
+        <v>43486</v>
+      </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A371" s="7" t="s">
@@ -9103,7 +9476,9 @@
       <c r="B371" s="11"/>
       <c r="C371" s="11"/>
       <c r="D371" s="15"/>
-      <c r="E371" s="11"/>
+      <c r="E371" s="11">
+        <v>43486</v>
+      </c>
       <c r="F371" s="10"/>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.2">
@@ -9113,7 +9488,9 @@
       <c r="B372" s="11"/>
       <c r="C372" s="11"/>
       <c r="D372" s="15"/>
-      <c r="E372" s="11"/>
+      <c r="E372" s="11">
+        <v>43486</v>
+      </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A373" s="7" t="s">
@@ -9122,7 +9499,9 @@
       <c r="B373" s="11"/>
       <c r="C373" s="11"/>
       <c r="D373" s="15"/>
-      <c r="E373" s="11"/>
+      <c r="E373" s="11">
+        <v>43486</v>
+      </c>
       <c r="F373" s="10"/>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.2">
@@ -9132,7 +9511,9 @@
       <c r="B374" s="11"/>
       <c r="C374" s="11"/>
       <c r="D374" s="15"/>
-      <c r="E374" s="11"/>
+      <c r="E374" s="11">
+        <v>43486</v>
+      </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A375" s="7" t="s">
@@ -9141,7 +9522,9 @@
       <c r="B375" s="11"/>
       <c r="C375" s="11"/>
       <c r="D375" s="15"/>
-      <c r="E375" s="11"/>
+      <c r="E375" s="11">
+        <v>43486</v>
+      </c>
       <c r="F375" s="10"/>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.2">
@@ -9151,7 +9534,9 @@
       <c r="B376" s="11"/>
       <c r="C376" s="11"/>
       <c r="D376" s="15"/>
-      <c r="E376" s="11"/>
+      <c r="E376" s="11">
+        <v>43486</v>
+      </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A377" s="7" t="s">
@@ -9160,7 +9545,9 @@
       <c r="B377" s="11"/>
       <c r="C377" s="11"/>
       <c r="D377" s="15"/>
-      <c r="E377" s="11"/>
+      <c r="E377" s="11">
+        <v>43486</v>
+      </c>
       <c r="F377" s="10"/>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.2">
@@ -9170,7 +9557,9 @@
       <c r="B378" s="11"/>
       <c r="C378" s="11"/>
       <c r="D378" s="15"/>
-      <c r="E378" s="11"/>
+      <c r="E378" s="11">
+        <v>43486</v>
+      </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A379" s="7" t="s">
@@ -9179,7 +9568,9 @@
       <c r="B379" s="11"/>
       <c r="C379" s="11"/>
       <c r="D379" s="15"/>
-      <c r="E379" s="11"/>
+      <c r="E379" s="11">
+        <v>43486</v>
+      </c>
       <c r="F379" s="10"/>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.2">
@@ -9189,7 +9580,9 @@
       <c r="B380" s="11"/>
       <c r="C380" s="11"/>
       <c r="D380" s="15"/>
-      <c r="E380" s="11"/>
+      <c r="E380" s="11">
+        <v>43486</v>
+      </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A381" s="7" t="s">
@@ -9198,7 +9591,9 @@
       <c r="B381" s="11"/>
       <c r="C381" s="11"/>
       <c r="D381" s="15"/>
-      <c r="E381" s="11"/>
+      <c r="E381" s="11">
+        <v>43486</v>
+      </c>
       <c r="F381" s="10"/>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.2">
@@ -9208,7 +9603,9 @@
       <c r="B382" s="11"/>
       <c r="C382" s="11"/>
       <c r="D382" s="15"/>
-      <c r="E382" s="11"/>
+      <c r="E382" s="11">
+        <v>43486</v>
+      </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A383" s="7" t="s">
@@ -9217,7 +9614,9 @@
       <c r="B383" s="11"/>
       <c r="C383" s="11"/>
       <c r="D383" s="15"/>
-      <c r="E383" s="11"/>
+      <c r="E383" s="11">
+        <v>43486</v>
+      </c>
       <c r="F383" s="10"/>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.2">
@@ -9227,19 +9626,26 @@
       <c r="B384" s="11"/>
       <c r="C384" s="11"/>
       <c r="D384" s="15"/>
-      <c r="E384" s="11"/>
-    </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A385" s="7" t="s">
+      <c r="E384" s="11">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A385" s="16" t="s">
         <v>386</v>
       </c>
-      <c r="B385" s="11"/>
-      <c r="C385" s="11"/>
-      <c r="D385" s="15"/>
-      <c r="E385" s="11"/>
-      <c r="F385" s="10"/>
-    </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B385" s="17"/>
+      <c r="C385" s="17"/>
+      <c r="D385" s="18"/>
+      <c r="E385" s="17">
+        <v>43486</v>
+      </c>
+      <c r="F385" s="17"/>
+      <c r="G385" s="19" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A386" s="3" t="s">
         <v>387</v>
       </c>
@@ -9250,7 +9656,7 @@
         <v>43823</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A387" s="3" t="s">
         <v>388</v>
       </c>
@@ -9262,7 +9668,7 @@
       </c>
       <c r="F387" s="10"/>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A388" s="3" t="s">
         <v>389</v>
       </c>
@@ -9273,7 +9679,7 @@
         <v>43823</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A389" s="3" t="s">
         <v>390</v>
       </c>
@@ -9285,7 +9691,7 @@
       </c>
       <c r="F389" s="10"/>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A390" s="3" t="s">
         <v>391</v>
       </c>
@@ -9296,7 +9702,7 @@
         <v>43823</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A391" s="3" t="s">
         <v>392</v>
       </c>
@@ -9308,7 +9714,7 @@
       </c>
       <c r="F391" s="10"/>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A392" s="3" t="s">
         <v>393</v>
       </c>
@@ -9319,7 +9725,7 @@
         <v>43823</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A393" s="3" t="s">
         <v>394</v>
       </c>
@@ -9331,7 +9737,7 @@
       </c>
       <c r="F393" s="10"/>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A394" s="3" t="s">
         <v>395</v>
       </c>
@@ -9342,7 +9748,7 @@
         <v>43823</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A395" s="3" t="s">
         <v>396</v>
       </c>
@@ -9354,7 +9760,7 @@
       </c>
       <c r="F395" s="10"/>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A396" s="3" t="s">
         <v>397</v>
       </c>
@@ -9365,7 +9771,7 @@
         <v>43823</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A397" s="3" t="s">
         <v>398</v>
       </c>
@@ -9377,7 +9783,7 @@
       </c>
       <c r="F397" s="10"/>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A398" s="3" t="s">
         <v>399</v>
       </c>
@@ -9388,7 +9794,7 @@
         <v>43823</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A399" s="3" t="s">
         <v>400</v>
       </c>
@@ -9400,11 +9806,13 @@
       </c>
       <c r="F399" s="10"/>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A400" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="B400" s="4"/>
+      <c r="B400" s="4">
+        <v>43483</v>
+      </c>
       <c r="C400" s="4"/>
       <c r="D400" s="13"/>
       <c r="E400" s="4">
@@ -9595,7 +10003,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A417" s="5" t="s">
         <v>418</v>
       </c>
@@ -9607,147 +10015,181 @@
       </c>
       <c r="F417" s="10"/>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A418" s="7" t="s">
         <v>419</v>
       </c>
       <c r="B418" s="11"/>
       <c r="C418" s="11"/>
       <c r="D418" s="15"/>
-      <c r="E418" s="11"/>
-    </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E418" s="11">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A419" s="7" t="s">
         <v>420</v>
       </c>
       <c r="B419" s="11"/>
       <c r="C419" s="11"/>
       <c r="D419" s="15"/>
-      <c r="E419" s="11"/>
+      <c r="E419" s="11">
+        <v>43486</v>
+      </c>
       <c r="F419" s="10"/>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A420" s="7" t="s">
         <v>421</v>
       </c>
       <c r="B420" s="11"/>
       <c r="C420" s="11"/>
       <c r="D420" s="15"/>
-      <c r="E420" s="11"/>
-    </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E420" s="11">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A421" s="7" t="s">
         <v>422</v>
       </c>
       <c r="B421" s="11"/>
       <c r="C421" s="11"/>
       <c r="D421" s="15"/>
-      <c r="E421" s="11"/>
+      <c r="E421" s="11">
+        <v>43486</v>
+      </c>
       <c r="F421" s="10"/>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A422" s="7" t="s">
         <v>423</v>
       </c>
       <c r="B422" s="11"/>
       <c r="C422" s="11"/>
       <c r="D422" s="15"/>
-      <c r="E422" s="11"/>
-    </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E422" s="11">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A423" s="7" t="s">
         <v>424</v>
       </c>
       <c r="B423" s="11"/>
       <c r="C423" s="11"/>
       <c r="D423" s="15"/>
-      <c r="E423" s="11"/>
+      <c r="E423" s="11">
+        <v>43486</v>
+      </c>
       <c r="F423" s="10"/>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A424" s="7" t="s">
         <v>425</v>
       </c>
       <c r="B424" s="11"/>
       <c r="C424" s="11"/>
       <c r="D424" s="15"/>
-      <c r="E424" s="11"/>
-    </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E424" s="11">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A425" s="7" t="s">
         <v>426</v>
       </c>
       <c r="B425" s="11"/>
       <c r="C425" s="11"/>
       <c r="D425" s="15"/>
-      <c r="E425" s="11"/>
+      <c r="E425" s="11">
+        <v>43486</v>
+      </c>
       <c r="F425" s="10"/>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A426" s="7" t="s">
         <v>427</v>
       </c>
       <c r="B426" s="11"/>
       <c r="C426" s="11"/>
       <c r="D426" s="15"/>
-      <c r="E426" s="11"/>
-    </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E426" s="11">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A427" s="7" t="s">
         <v>428</v>
       </c>
       <c r="B427" s="11"/>
       <c r="C427" s="11"/>
       <c r="D427" s="15"/>
-      <c r="E427" s="11"/>
+      <c r="E427" s="11">
+        <v>43486</v>
+      </c>
       <c r="F427" s="10"/>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A428" s="7" t="s">
         <v>429</v>
       </c>
       <c r="B428" s="11"/>
       <c r="C428" s="11"/>
       <c r="D428" s="15"/>
-      <c r="E428" s="11"/>
-    </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E428" s="11">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A429" s="7" t="s">
         <v>430</v>
       </c>
       <c r="B429" s="11"/>
       <c r="C429" s="11"/>
       <c r="D429" s="15"/>
-      <c r="E429" s="11"/>
+      <c r="E429" s="11">
+        <v>43486</v>
+      </c>
       <c r="F429" s="10"/>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A430" s="7" t="s">
         <v>431</v>
       </c>
       <c r="B430" s="11"/>
       <c r="C430" s="11"/>
       <c r="D430" s="15"/>
-      <c r="E430" s="11"/>
-    </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E430" s="11">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A431" s="7" t="s">
         <v>432</v>
       </c>
       <c r="B431" s="11"/>
       <c r="C431" s="11"/>
       <c r="D431" s="15"/>
-      <c r="E431" s="11"/>
+      <c r="E431" s="11">
+        <v>43486</v>
+      </c>
       <c r="F431" s="10"/>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A432" s="7" t="s">
+    <row r="432" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A432" s="16" t="s">
         <v>433</v>
       </c>
-      <c r="B432" s="11"/>
-      <c r="C432" s="11"/>
-      <c r="D432" s="15"/>
-      <c r="E432" s="11"/>
+      <c r="B432" s="17"/>
+      <c r="C432" s="17"/>
+      <c r="D432" s="18"/>
+      <c r="E432" s="17">
+        <v>43486</v>
+      </c>
+      <c r="F432" s="17"/>
+      <c r="G432" s="19" t="s">
+        <v>489</v>
+      </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A433" s="7" t="s">
@@ -9756,7 +10198,9 @@
       <c r="B433" s="11"/>
       <c r="C433" s="11"/>
       <c r="D433" s="15"/>
-      <c r="E433" s="11"/>
+      <c r="E433" s="11">
+        <v>43486</v>
+      </c>
       <c r="F433" s="10"/>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.2">
@@ -10134,7 +10578,9 @@
       <c r="B466" s="11"/>
       <c r="C466" s="11"/>
       <c r="D466" s="15"/>
-      <c r="E466" s="11"/>
+      <c r="E466" s="11">
+        <v>43486</v>
+      </c>
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A467" s="7" t="s">
@@ -10143,7 +10589,9 @@
       <c r="B467" s="11"/>
       <c r="C467" s="11"/>
       <c r="D467" s="15"/>
-      <c r="E467" s="11"/>
+      <c r="E467" s="11">
+        <v>43486</v>
+      </c>
       <c r="F467" s="10"/>
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.2">
@@ -10153,7 +10601,9 @@
       <c r="B468" s="11"/>
       <c r="C468" s="11"/>
       <c r="D468" s="15"/>
-      <c r="E468" s="11"/>
+      <c r="E468" s="11">
+        <v>43486</v>
+      </c>
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A469" s="7" t="s">
@@ -10162,7 +10612,9 @@
       <c r="B469" s="11"/>
       <c r="C469" s="11"/>
       <c r="D469" s="15"/>
-      <c r="E469" s="11"/>
+      <c r="E469" s="11">
+        <v>43486</v>
+      </c>
       <c r="F469" s="10"/>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.2">
@@ -10172,7 +10624,9 @@
       <c r="B470" s="11"/>
       <c r="C470" s="11"/>
       <c r="D470" s="15"/>
-      <c r="E470" s="11"/>
+      <c r="E470" s="11">
+        <v>43486</v>
+      </c>
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A471" s="7" t="s">
@@ -10181,7 +10635,9 @@
       <c r="B471" s="11"/>
       <c r="C471" s="11"/>
       <c r="D471" s="15"/>
-      <c r="E471" s="11"/>
+      <c r="E471" s="11">
+        <v>43486</v>
+      </c>
       <c r="F471" s="10"/>
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.2">
@@ -10191,7 +10647,9 @@
       <c r="B472" s="11"/>
       <c r="C472" s="11"/>
       <c r="D472" s="15"/>
-      <c r="E472" s="11"/>
+      <c r="E472" s="11">
+        <v>43486</v>
+      </c>
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A473" s="7" t="s">
@@ -10200,7 +10658,9 @@
       <c r="B473" s="11"/>
       <c r="C473" s="11"/>
       <c r="D473" s="15"/>
-      <c r="E473" s="11"/>
+      <c r="E473" s="11">
+        <v>43486</v>
+      </c>
       <c r="F473" s="10"/>
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.2">
@@ -10210,7 +10670,9 @@
       <c r="B474" s="11"/>
       <c r="C474" s="11"/>
       <c r="D474" s="15"/>
-      <c r="E474" s="11"/>
+      <c r="E474" s="11">
+        <v>43486</v>
+      </c>
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A475" s="7" t="s">
@@ -10219,7 +10681,9 @@
       <c r="B475" s="11"/>
       <c r="C475" s="11"/>
       <c r="D475" s="15"/>
-      <c r="E475" s="11"/>
+      <c r="E475" s="11">
+        <v>43486</v>
+      </c>
       <c r="F475" s="10"/>
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.2">
@@ -10229,7 +10693,9 @@
       <c r="B476" s="11"/>
       <c r="C476" s="11"/>
       <c r="D476" s="15"/>
-      <c r="E476" s="11"/>
+      <c r="E476" s="11">
+        <v>43486</v>
+      </c>
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A477" s="7" t="s">
@@ -10238,7 +10704,9 @@
       <c r="B477" s="11"/>
       <c r="C477" s="11"/>
       <c r="D477" s="15"/>
-      <c r="E477" s="11"/>
+      <c r="E477" s="11">
+        <v>43486</v>
+      </c>
       <c r="F477" s="10"/>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.2">
@@ -10248,7 +10716,9 @@
       <c r="B478" s="11"/>
       <c r="C478" s="11"/>
       <c r="D478" s="15"/>
-      <c r="E478" s="11"/>
+      <c r="E478" s="11">
+        <v>43486</v>
+      </c>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A479" s="7" t="s">
@@ -10257,7 +10727,9 @@
       <c r="B479" s="11"/>
       <c r="C479" s="11"/>
       <c r="D479" s="15"/>
-      <c r="E479" s="11"/>
+      <c r="E479" s="11">
+        <v>43486</v>
+      </c>
       <c r="F479" s="10"/>
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.2">
@@ -10267,17 +10739,24 @@
       <c r="B480" s="11"/>
       <c r="C480" s="11"/>
       <c r="D480" s="15"/>
-      <c r="E480" s="11"/>
-    </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E480" s="11">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="481" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A481" s="7" t="s">
         <v>482</v>
       </c>
       <c r="B481" s="11"/>
       <c r="C481" s="11"/>
       <c r="D481" s="15"/>
-      <c r="E481" s="11"/>
+      <c r="E481" s="11">
+        <v>43486</v>
+      </c>
       <c r="F481" s="10"/>
+      <c r="G481" t="s">
+        <v>490</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/observation_datasheet.xlsx
+++ b/data/observation_datasheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catchamberlain/Documents/git/chillfreeze/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4464B621-2521-494B-93B2-631EEBB04C3F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DE70EDA8-05DC-1641-A0FB-DE6054A3A6AD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11540" yWindow="5480" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2025,7 +2025,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -2047,6 +2047,7 @@
     <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4823,10 +4824,10 @@
   <dimension ref="A1:G481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B94" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B424" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G114" sqref="G114"/>
+      <selection pane="bottomRight" activeCell="B449" sqref="B449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5413,7 +5414,9 @@
       <c r="A50" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B50" s="4"/>
+      <c r="B50" s="4">
+        <v>43488</v>
+      </c>
       <c r="C50" s="4"/>
       <c r="D50" s="13"/>
       <c r="E50" s="4">
@@ -5424,7 +5427,9 @@
       <c r="A51" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="4"/>
+      <c r="B51" s="4">
+        <v>43488</v>
+      </c>
       <c r="C51" s="4"/>
       <c r="D51" s="13"/>
       <c r="E51" s="4">
@@ -5436,7 +5441,9 @@
       <c r="A52" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B52" s="4"/>
+      <c r="B52" s="4">
+        <v>43488</v>
+      </c>
       <c r="C52" s="4"/>
       <c r="D52" s="13"/>
       <c r="E52" s="4">
@@ -5455,7 +5462,9 @@
       <c r="E53" s="4">
         <v>43823</v>
       </c>
-      <c r="F53" s="10"/>
+      <c r="F53" s="10">
+        <v>43488</v>
+      </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
@@ -5482,7 +5491,9 @@
       <c r="E55" s="4">
         <v>43823</v>
       </c>
-      <c r="F55" s="10"/>
+      <c r="F55" s="10">
+        <v>43490</v>
+      </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
@@ -5501,7 +5512,9 @@
       <c r="A57" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B57" s="4"/>
+      <c r="B57" s="4">
+        <v>43488</v>
+      </c>
       <c r="C57" s="4"/>
       <c r="D57" s="13"/>
       <c r="E57" s="4">
@@ -5584,7 +5597,9 @@
       <c r="E63" s="4">
         <v>43823</v>
       </c>
-      <c r="F63" s="10"/>
+      <c r="F63" s="10">
+        <v>43488</v>
+      </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
@@ -6003,8 +6018,12 @@
       <c r="B99" s="4">
         <v>43472</v>
       </c>
-      <c r="C99" s="4"/>
-      <c r="D99" s="13"/>
+      <c r="C99" s="4">
+        <v>43490</v>
+      </c>
+      <c r="D99" s="13">
+        <v>33.9</v>
+      </c>
       <c r="E99" s="4">
         <v>43823</v>
       </c>
@@ -6173,7 +6192,9 @@
       <c r="E109" s="4">
         <v>43823</v>
       </c>
-      <c r="F109" s="10"/>
+      <c r="F109" s="10">
+        <v>43488</v>
+      </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
@@ -6182,8 +6203,12 @@
       <c r="B110" s="4">
         <v>43472</v>
       </c>
-      <c r="C110" s="4"/>
-      <c r="D110" s="13"/>
+      <c r="C110" s="4">
+        <v>43490</v>
+      </c>
+      <c r="D110" s="13">
+        <v>30.6</v>
+      </c>
       <c r="E110" s="4">
         <v>43823</v>
       </c>
@@ -6240,7 +6265,9 @@
       <c r="A114" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B114" s="6"/>
+      <c r="B114" s="6">
+        <v>43488</v>
+      </c>
       <c r="C114" s="6"/>
       <c r="D114" s="14"/>
       <c r="E114" s="6">
@@ -6251,7 +6278,9 @@
       <c r="A115" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B115" s="6"/>
+      <c r="B115" s="6">
+        <v>43488</v>
+      </c>
       <c r="C115" s="6"/>
       <c r="D115" s="14"/>
       <c r="E115" s="6">
@@ -6301,7 +6330,9 @@
       <c r="A119" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B119" s="6"/>
+      <c r="B119" s="6">
+        <v>43488</v>
+      </c>
       <c r="C119" s="6"/>
       <c r="D119" s="14"/>
       <c r="E119" s="6">
@@ -6353,7 +6384,9 @@
       <c r="A123" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B123" s="6"/>
+      <c r="B123" s="6">
+        <v>43490</v>
+      </c>
       <c r="C123" s="6"/>
       <c r="D123" s="14"/>
       <c r="E123" s="6">
@@ -6386,7 +6419,9 @@
       <c r="E125" s="6">
         <v>43472</v>
       </c>
-      <c r="F125" s="10"/>
+      <c r="F125" s="10">
+        <v>43490</v>
+      </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="5" t="s">
@@ -6438,7 +6473,9 @@
       <c r="E129" s="6">
         <v>43472</v>
       </c>
-      <c r="F129" s="10"/>
+      <c r="F129" s="10">
+        <v>43490</v>
+      </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="7" t="s">
@@ -6649,7 +6686,9 @@
       <c r="E147" s="4">
         <v>43823</v>
       </c>
-      <c r="F147" s="10"/>
+      <c r="F147" s="10">
+        <v>43488</v>
+      </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
@@ -6676,7 +6715,9 @@
       <c r="E149" s="4">
         <v>43823</v>
       </c>
-      <c r="F149" s="10"/>
+      <c r="F149" s="10">
+        <v>43488</v>
+      </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
@@ -6714,8 +6755,12 @@
       <c r="B152" s="4">
         <v>43479</v>
       </c>
-      <c r="C152" s="4"/>
-      <c r="D152" s="13"/>
+      <c r="C152" s="4">
+        <v>43490</v>
+      </c>
+      <c r="D152" s="13">
+        <v>39.4</v>
+      </c>
       <c r="E152" s="4">
         <v>43823</v>
       </c>
@@ -6732,7 +6777,9 @@
       <c r="E153" s="4">
         <v>43823</v>
       </c>
-      <c r="F153" s="10"/>
+      <c r="F153" s="10">
+        <v>43490</v>
+      </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
@@ -6759,7 +6806,9 @@
       <c r="E155" s="4">
         <v>43823</v>
       </c>
-      <c r="F155" s="10"/>
+      <c r="F155" s="10">
+        <v>43488</v>
+      </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
@@ -6786,7 +6835,9 @@
       <c r="E157" s="4">
         <v>43823</v>
       </c>
-      <c r="F157" s="10"/>
+      <c r="F157" s="10">
+        <v>43488</v>
+      </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
@@ -6842,7 +6893,9 @@
       <c r="E161" s="4">
         <v>43823</v>
       </c>
-      <c r="F161" s="10"/>
+      <c r="F161" s="10">
+        <v>43490</v>
+      </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="5" t="s">
@@ -6873,7 +6926,9 @@
       <c r="A164" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B164" s="6"/>
+      <c r="B164" s="6">
+        <v>43488</v>
+      </c>
       <c r="C164" s="6"/>
       <c r="D164" s="14"/>
       <c r="E164" s="6">
@@ -6884,7 +6939,9 @@
       <c r="A165" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="B165" s="6"/>
+      <c r="B165" s="6">
+        <v>43490</v>
+      </c>
       <c r="C165" s="6"/>
       <c r="D165" s="14"/>
       <c r="E165" s="6">
@@ -6921,7 +6978,9 @@
       <c r="A168" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B168" s="6"/>
+      <c r="B168" s="6">
+        <v>43490</v>
+      </c>
       <c r="C168" s="6"/>
       <c r="D168" s="14"/>
       <c r="E168" s="6">
@@ -6946,7 +7005,9 @@
       <c r="A170" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B170" s="6"/>
+      <c r="B170" s="6">
+        <v>43490</v>
+      </c>
       <c r="C170" s="6"/>
       <c r="D170" s="14"/>
       <c r="E170" s="6">
@@ -6957,7 +7018,9 @@
       <c r="A171" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B171" s="6"/>
+      <c r="B171" s="6">
+        <v>43488</v>
+      </c>
       <c r="C171" s="6"/>
       <c r="D171" s="14"/>
       <c r="E171" s="6">
@@ -6969,7 +7032,9 @@
       <c r="A172" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="B172" s="6"/>
+      <c r="B172" s="6">
+        <v>43488</v>
+      </c>
       <c r="C172" s="6"/>
       <c r="D172" s="14"/>
       <c r="E172" s="6">
@@ -6980,7 +7045,9 @@
       <c r="A173" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B173" s="6"/>
+      <c r="B173" s="6">
+        <v>43490</v>
+      </c>
       <c r="C173" s="6"/>
       <c r="D173" s="14"/>
       <c r="E173" s="6">
@@ -6992,7 +7059,9 @@
       <c r="A174" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="B174" s="6"/>
+      <c r="B174" s="6">
+        <v>43490</v>
+      </c>
       <c r="C174" s="6"/>
       <c r="D174" s="14"/>
       <c r="E174" s="6">
@@ -7015,7 +7084,9 @@
       <c r="A176" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="B176" s="6"/>
+      <c r="B176" s="6">
+        <v>43488</v>
+      </c>
       <c r="C176" s="6"/>
       <c r="D176" s="14"/>
       <c r="E176" s="6">
@@ -7206,7 +7277,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" s="7" t="s">
         <v>194</v>
       </c>
@@ -7218,7 +7289,7 @@
       </c>
       <c r="F193" s="10"/>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
         <v>195</v>
       </c>
@@ -7235,15 +7306,19 @@
         <v>43823</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
         <v>196</v>
       </c>
       <c r="B195" s="4">
         <v>43474</v>
       </c>
-      <c r="C195" s="4"/>
-      <c r="D195" s="13"/>
+      <c r="C195" s="4">
+        <v>43488</v>
+      </c>
+      <c r="D195" s="13">
+        <v>57.6</v>
+      </c>
       <c r="E195" s="4">
         <v>43823</v>
       </c>
@@ -7251,24 +7326,30 @@
         <v>43479</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
         <v>197</v>
       </c>
       <c r="B196" s="4">
         <v>43472</v>
       </c>
-      <c r="C196" s="4"/>
-      <c r="D196" s="13"/>
+      <c r="C196" s="4">
+        <v>43490</v>
+      </c>
+      <c r="D196" s="13">
+        <v>61.1</v>
+      </c>
       <c r="E196" s="4">
         <v>43823</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B197" s="4"/>
+      <c r="B197" s="4">
+        <v>43488</v>
+      </c>
       <c r="C197" s="4"/>
       <c r="D197" s="13"/>
       <c r="E197" s="4">
@@ -7276,7 +7357,7 @@
       </c>
       <c r="F197" s="10"/>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
         <v>199</v>
       </c>
@@ -7293,7 +7374,7 @@
         <v>43823</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
         <v>200</v>
       </c>
@@ -7305,9 +7386,11 @@
       <c r="E199" s="4">
         <v>43823</v>
       </c>
-      <c r="F199" s="10"/>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F199" s="10">
+        <v>43488</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
         <v>201</v>
       </c>
@@ -7320,11 +7403,13 @@
         <v>43823</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="B201" s="4"/>
+      <c r="B201" s="4">
+        <v>43488</v>
+      </c>
       <c r="C201" s="4"/>
       <c r="D201" s="13"/>
       <c r="E201" s="4">
@@ -7332,7 +7417,7 @@
       </c>
       <c r="F201" s="10"/>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
         <v>203</v>
       </c>
@@ -7345,7 +7430,7 @@
         <v>43823</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
         <v>204</v>
       </c>
@@ -7357,9 +7442,11 @@
       <c r="E203" s="4">
         <v>43823</v>
       </c>
-      <c r="F203" s="10"/>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F203" s="10">
+        <v>43488</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
         <v>205</v>
       </c>
@@ -7372,7 +7459,7 @@
         <v>43823</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
         <v>206</v>
       </c>
@@ -7392,7 +7479,7 @@
         <v>43473</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
         <v>207</v>
       </c>
@@ -7409,23 +7496,30 @@
         <v>43823</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
         <v>208</v>
       </c>
       <c r="B207" s="4">
         <v>43469</v>
       </c>
-      <c r="C207" s="4"/>
-      <c r="D207" s="13"/>
+      <c r="C207" s="4">
+        <v>43490</v>
+      </c>
+      <c r="D207" s="13">
+        <v>60.8</v>
+      </c>
       <c r="E207" s="4">
         <v>43823</v>
       </c>
       <c r="F207" s="10">
         <v>43473</v>
       </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G207" s="21">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
         <v>209</v>
       </c>
@@ -7449,8 +7543,12 @@
       <c r="B209" s="4">
         <v>43472</v>
       </c>
-      <c r="C209" s="4"/>
-      <c r="D209" s="13"/>
+      <c r="C209" s="4">
+        <v>43488</v>
+      </c>
+      <c r="D209" s="13">
+        <v>58.4</v>
+      </c>
       <c r="E209" s="4">
         <v>43823</v>
       </c>
@@ -7537,7 +7635,9 @@
       <c r="A216" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="B216" s="6"/>
+      <c r="B216" s="6">
+        <v>43488</v>
+      </c>
       <c r="C216" s="6"/>
       <c r="D216" s="14"/>
       <c r="E216" s="6">
@@ -7606,7 +7706,9 @@
       <c r="E221" s="6">
         <v>43472</v>
       </c>
-      <c r="F221" s="10"/>
+      <c r="F221" s="10">
+        <v>43490</v>
+      </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" s="5" t="s">
@@ -7633,7 +7735,9 @@
       <c r="E223" s="6">
         <v>43472</v>
       </c>
-      <c r="F223" s="10"/>
+      <c r="F223" s="10">
+        <v>43490</v>
+      </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" s="5" t="s">
@@ -7660,7 +7764,9 @@
       <c r="E225" s="6">
         <v>43472</v>
       </c>
-      <c r="F225" s="10"/>
+      <c r="F225" s="10">
+        <v>43490</v>
+      </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" s="7" t="s">
@@ -8938,7 +9044,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A337" s="7" t="s">
         <v>338</v>
       </c>
@@ -8950,7 +9056,7 @@
       </c>
       <c r="F337" s="10"/>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A338" s="3" t="s">
         <v>339</v>
       </c>
@@ -8967,7 +9073,7 @@
         <v>43823</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A339" s="3" t="s">
         <v>340</v>
       </c>
@@ -8987,7 +9093,7 @@
         <v>43473</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A340" s="3" t="s">
         <v>341</v>
       </c>
@@ -9004,7 +9110,7 @@
         <v>43823</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A341" s="3" t="s">
         <v>342</v>
       </c>
@@ -9024,7 +9130,7 @@
         <v>43469</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A342" s="3" t="s">
         <v>343</v>
       </c>
@@ -9041,7 +9147,7 @@
         <v>43823</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A343" s="3" t="s">
         <v>344</v>
       </c>
@@ -9061,7 +9167,7 @@
         <v>43469</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A344" s="3" t="s">
         <v>345</v>
       </c>
@@ -9078,7 +9184,7 @@
         <v>43823</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A345" s="3" t="s">
         <v>346</v>
       </c>
@@ -9098,7 +9204,7 @@
         <v>43469</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A346" s="3" t="s">
         <v>347</v>
       </c>
@@ -9115,7 +9221,7 @@
         <v>43823</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A347" s="3" t="s">
         <v>348</v>
       </c>
@@ -9135,7 +9241,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A348" s="3" t="s">
         <v>349</v>
       </c>
@@ -9152,7 +9258,7 @@
         <v>43823</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A349" s="3" t="s">
         <v>350</v>
       </c>
@@ -9172,7 +9278,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A350" s="3" t="s">
         <v>351</v>
       </c>
@@ -9189,23 +9295,30 @@
         <v>43823</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A351" s="3" t="s">
         <v>352</v>
       </c>
       <c r="B351" s="4">
         <v>43472</v>
       </c>
-      <c r="C351" s="4"/>
-      <c r="D351" s="13"/>
+      <c r="C351" s="4">
+        <v>43490</v>
+      </c>
+      <c r="D351" s="13">
+        <v>27.2</v>
+      </c>
       <c r="E351" s="4">
         <v>43823</v>
       </c>
       <c r="F351" s="10">
         <v>43472</v>
       </c>
-    </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G351" s="21">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A352" s="3" t="s">
         <v>353</v>
       </c>
@@ -9294,7 +9407,9 @@
       <c r="E357" s="6">
         <v>43472</v>
       </c>
-      <c r="F357" s="10"/>
+      <c r="F357" s="10">
+        <v>43488</v>
+      </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A358" s="5" t="s">
@@ -9321,7 +9436,9 @@
       <c r="E359" s="6">
         <v>43472</v>
       </c>
-      <c r="F359" s="10"/>
+      <c r="F359" s="10">
+        <v>43490</v>
+      </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A360" s="5" t="s">
@@ -9348,7 +9465,9 @@
       <c r="E361" s="6">
         <v>43472</v>
       </c>
-      <c r="F361" s="10"/>
+      <c r="F361" s="10">
+        <v>43488</v>
+      </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A362" s="5" t="s">
@@ -9375,7 +9494,9 @@
       <c r="E363" s="6">
         <v>43472</v>
       </c>
-      <c r="F363" s="10"/>
+      <c r="F363" s="10">
+        <v>43488</v>
+      </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A364" s="5" t="s">
@@ -9402,7 +9523,9 @@
       <c r="E365" s="6">
         <v>43472</v>
       </c>
-      <c r="F365" s="10"/>
+      <c r="F365" s="10">
+        <v>43490</v>
+      </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A366" s="5" t="s">
@@ -9429,7 +9552,9 @@
       <c r="E367" s="6">
         <v>43472</v>
       </c>
-      <c r="F367" s="10"/>
+      <c r="F367" s="10">
+        <v>43488</v>
+      </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A368" s="5" t="s">
@@ -9456,7 +9581,9 @@
       <c r="E369" s="6">
         <v>43472</v>
       </c>
-      <c r="F369" s="10"/>
+      <c r="F369" s="10">
+        <v>43488</v>
+      </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A370" s="7" t="s">
@@ -9542,7 +9669,9 @@
       <c r="A377" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="B377" s="11"/>
+      <c r="B377" s="11">
+        <v>43490</v>
+      </c>
       <c r="C377" s="11"/>
       <c r="D377" s="15"/>
       <c r="E377" s="11">
@@ -9623,7 +9752,9 @@
       <c r="A384" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="B384" s="11"/>
+      <c r="B384" s="11">
+        <v>43490</v>
+      </c>
       <c r="C384" s="11"/>
       <c r="D384" s="15"/>
       <c r="E384" s="11">
@@ -9683,7 +9814,9 @@
       <c r="A389" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="B389" s="4"/>
+      <c r="B389" s="4">
+        <v>43490</v>
+      </c>
       <c r="C389" s="4"/>
       <c r="D389" s="13"/>
       <c r="E389" s="4">
@@ -9695,7 +9828,9 @@
       <c r="A390" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="B390" s="4"/>
+      <c r="B390" s="4">
+        <v>43488</v>
+      </c>
       <c r="C390" s="4"/>
       <c r="D390" s="13"/>
       <c r="E390" s="4">
@@ -9718,7 +9853,9 @@
       <c r="A392" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="B392" s="4"/>
+      <c r="B392" s="4">
+        <v>43490</v>
+      </c>
       <c r="C392" s="4"/>
       <c r="D392" s="13"/>
       <c r="E392" s="4">
@@ -9729,7 +9866,9 @@
       <c r="A393" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="B393" s="4"/>
+      <c r="B393" s="4">
+        <v>43490</v>
+      </c>
       <c r="C393" s="4"/>
       <c r="D393" s="13"/>
       <c r="E393" s="4">
@@ -9741,7 +9880,9 @@
       <c r="A394" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="B394" s="4"/>
+      <c r="B394" s="4">
+        <v>43488</v>
+      </c>
       <c r="C394" s="4"/>
       <c r="D394" s="13"/>
       <c r="E394" s="4">
@@ -9775,7 +9916,9 @@
       <c r="A397" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="B397" s="4"/>
+      <c r="B397" s="4">
+        <v>43490</v>
+      </c>
       <c r="C397" s="4"/>
       <c r="D397" s="13"/>
       <c r="E397" s="4">
@@ -9787,7 +9930,9 @@
       <c r="A398" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="B398" s="4"/>
+      <c r="B398" s="4">
+        <v>43488</v>
+      </c>
       <c r="C398" s="4"/>
       <c r="D398" s="13"/>
       <c r="E398" s="4">
@@ -9798,21 +9943,23 @@
       <c r="A399" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="B399" s="4"/>
+      <c r="B399" s="4">
+        <v>43483</v>
+      </c>
       <c r="C399" s="4"/>
       <c r="D399" s="13"/>
       <c r="E399" s="4">
         <v>43823</v>
       </c>
-      <c r="F399" s="10"/>
+      <c r="F399" s="10">
+        <v>43490</v>
+      </c>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A400" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="B400" s="4">
-        <v>43483</v>
-      </c>
+      <c r="B400" s="4"/>
       <c r="C400" s="4"/>
       <c r="D400" s="13"/>
       <c r="E400" s="4">
@@ -9823,7 +9970,9 @@
       <c r="A401" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="B401" s="4"/>
+      <c r="B401" s="4">
+        <v>43490</v>
+      </c>
       <c r="C401" s="4"/>
       <c r="D401" s="13"/>
       <c r="E401" s="4">
@@ -10218,7 +10367,9 @@
       <c r="A435" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="B435" s="4"/>
+      <c r="B435" s="4">
+        <v>43490</v>
+      </c>
       <c r="C435" s="4"/>
       <c r="D435" s="13"/>
       <c r="E435" s="4">
@@ -10253,7 +10404,9 @@
       <c r="A438" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="B438" s="4"/>
+      <c r="B438" s="4">
+        <v>43488</v>
+      </c>
       <c r="C438" s="4"/>
       <c r="D438" s="13"/>
       <c r="E438" s="4">
@@ -10333,7 +10486,9 @@
       <c r="A445" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="B445" s="4"/>
+      <c r="B445" s="4">
+        <v>43488</v>
+      </c>
       <c r="C445" s="4"/>
       <c r="D445" s="13"/>
       <c r="E445" s="4">
@@ -10356,7 +10511,9 @@
       <c r="A447" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="B447" s="4"/>
+      <c r="B447" s="4">
+        <v>43490</v>
+      </c>
       <c r="C447" s="4"/>
       <c r="D447" s="13"/>
       <c r="E447" s="4">

--- a/data/observation_datasheet.xlsx
+++ b/data/observation_datasheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catchamberlain/Documents/git/chillfreeze/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DE70EDA8-05DC-1641-A0FB-DE6054A3A6AD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{46A99981-4AD3-214C-8E80-26AC82328559}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11540" yWindow="5480" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4824,10 +4824,10 @@
   <dimension ref="A1:G481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B424" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B449" sqref="B449"/>
+      <selection pane="bottomRight" activeCell="B460" sqref="B460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5435,7 +5435,9 @@
       <c r="E51" s="4">
         <v>43823</v>
       </c>
-      <c r="F51" s="10"/>
+      <c r="F51" s="10">
+        <v>43493</v>
+      </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
@@ -5520,7 +5522,9 @@
       <c r="E57" s="4">
         <v>43823</v>
       </c>
-      <c r="F57" s="10"/>
+      <c r="F57" s="10">
+        <v>43493</v>
+      </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
@@ -5657,7 +5661,9 @@
       <c r="A68" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B68" s="6"/>
+      <c r="B68" s="6">
+        <v>43493</v>
+      </c>
       <c r="C68" s="6"/>
       <c r="D68" s="14"/>
       <c r="E68" s="6">
@@ -5680,7 +5686,9 @@
       <c r="A70" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B70" s="6"/>
+      <c r="B70" s="6">
+        <v>43493</v>
+      </c>
       <c r="C70" s="6"/>
       <c r="D70" s="14"/>
       <c r="E70" s="6">
@@ -5691,7 +5699,9 @@
       <c r="A71" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B71" s="6"/>
+      <c r="B71" s="6">
+        <v>43493</v>
+      </c>
       <c r="C71" s="6"/>
       <c r="D71" s="14"/>
       <c r="E71" s="6">
@@ -5726,7 +5736,9 @@
       <c r="A74" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B74" s="6"/>
+      <c r="B74" s="6">
+        <v>43493</v>
+      </c>
       <c r="C74" s="6"/>
       <c r="D74" s="14"/>
       <c r="E74" s="6">
@@ -5749,7 +5761,9 @@
       <c r="A76" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B76" s="6"/>
+      <c r="B76" s="6">
+        <v>43493</v>
+      </c>
       <c r="C76" s="6"/>
       <c r="D76" s="14"/>
       <c r="E76" s="6">
@@ -5772,7 +5786,9 @@
       <c r="A78" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B78" s="6"/>
+      <c r="B78" s="6">
+        <v>43493</v>
+      </c>
       <c r="C78" s="6"/>
       <c r="D78" s="14"/>
       <c r="E78" s="6">
@@ -5783,7 +5799,9 @@
       <c r="A79" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B79" s="6"/>
+      <c r="B79" s="6">
+        <v>43493</v>
+      </c>
       <c r="C79" s="6"/>
       <c r="D79" s="14"/>
       <c r="E79" s="6">
@@ -5806,7 +5824,9 @@
       <c r="A81" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B81" s="6"/>
+      <c r="B81" s="6">
+        <v>43493</v>
+      </c>
       <c r="C81" s="6"/>
       <c r="D81" s="14"/>
       <c r="E81" s="6">
@@ -6055,8 +6075,12 @@
       <c r="B101" s="4">
         <v>43469</v>
       </c>
-      <c r="C101" s="4"/>
-      <c r="D101" s="13"/>
+      <c r="C101" s="4">
+        <v>43493</v>
+      </c>
+      <c r="D101" s="13">
+        <v>32.799999999999997</v>
+      </c>
       <c r="E101" s="4">
         <v>43823</v>
       </c>
@@ -6141,8 +6165,12 @@
       <c r="B106" s="4">
         <v>43476</v>
       </c>
-      <c r="C106" s="4"/>
-      <c r="D106" s="13"/>
+      <c r="C106" s="4">
+        <v>43493</v>
+      </c>
+      <c r="D106" s="13">
+        <v>41.4</v>
+      </c>
       <c r="E106" s="4">
         <v>43823</v>
       </c>
@@ -6220,8 +6248,12 @@
       <c r="B111" s="4">
         <v>43469</v>
       </c>
-      <c r="C111" s="4"/>
-      <c r="D111" s="13"/>
+      <c r="C111" s="4">
+        <v>43493</v>
+      </c>
+      <c r="D111" s="13">
+        <v>43.9</v>
+      </c>
       <c r="E111" s="4">
         <v>43823</v>
       </c>
@@ -6236,8 +6268,12 @@
       <c r="B112" s="4">
         <v>43474</v>
       </c>
-      <c r="C112" s="4"/>
-      <c r="D112" s="13"/>
+      <c r="C112" s="4">
+        <v>43493</v>
+      </c>
+      <c r="D112" s="13">
+        <v>33.200000000000003</v>
+      </c>
       <c r="E112" s="4">
         <v>43823</v>
       </c>
@@ -6286,7 +6322,9 @@
       <c r="E115" s="6">
         <v>43472</v>
       </c>
-      <c r="F115" s="10"/>
+      <c r="F115" s="10">
+        <v>43493</v>
+      </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="5" t="s">
@@ -6305,7 +6343,9 @@
       <c r="A117" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B117" s="6"/>
+      <c r="B117" s="6">
+        <v>43493</v>
+      </c>
       <c r="C117" s="6"/>
       <c r="D117" s="14"/>
       <c r="E117" s="6">
@@ -6440,7 +6480,9 @@
       <c r="A127" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B127" s="6"/>
+      <c r="B127" s="6">
+        <v>43493</v>
+      </c>
       <c r="C127" s="6"/>
       <c r="D127" s="14"/>
       <c r="E127" s="6">
@@ -6561,7 +6603,9 @@
       <c r="A137" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="B137" s="11"/>
+      <c r="B137" s="11">
+        <v>43493</v>
+      </c>
       <c r="C137" s="11"/>
       <c r="D137" s="15"/>
       <c r="E137" s="11">
@@ -6573,7 +6617,9 @@
       <c r="A138" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="B138" s="11"/>
+      <c r="B138" s="11">
+        <v>43493</v>
+      </c>
       <c r="C138" s="11"/>
       <c r="D138" s="15"/>
       <c r="E138" s="11">
@@ -6607,7 +6653,9 @@
       <c r="A141" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="B141" s="11"/>
+      <c r="B141" s="11">
+        <v>43493</v>
+      </c>
       <c r="C141" s="11"/>
       <c r="D141" s="15"/>
       <c r="E141" s="11">
@@ -6668,8 +6716,12 @@
       <c r="B146" s="4">
         <v>43474</v>
       </c>
-      <c r="C146" s="4"/>
-      <c r="D146" s="13"/>
+      <c r="C146" s="4">
+        <v>43493</v>
+      </c>
+      <c r="D146" s="13">
+        <v>56.2</v>
+      </c>
       <c r="E146" s="4">
         <v>43823</v>
       </c>
@@ -6846,8 +6898,12 @@
       <c r="B158" s="4">
         <v>43479</v>
       </c>
-      <c r="C158" s="4"/>
-      <c r="D158" s="13"/>
+      <c r="C158" s="4">
+        <v>43493</v>
+      </c>
+      <c r="D158" s="13">
+        <v>52.8</v>
+      </c>
       <c r="E158" s="4">
         <v>43823</v>
       </c>
@@ -6875,8 +6931,12 @@
       <c r="B160" s="4">
         <v>43474</v>
       </c>
-      <c r="C160" s="4"/>
-      <c r="D160" s="13"/>
+      <c r="C160" s="4">
+        <v>43493</v>
+      </c>
+      <c r="D160" s="13">
+        <v>51.7</v>
+      </c>
       <c r="E160" s="4">
         <v>43823</v>
       </c>
@@ -6999,7 +7059,9 @@
       <c r="E169" s="6">
         <v>43472</v>
       </c>
-      <c r="F169" s="10"/>
+      <c r="F169" s="10">
+        <v>43493</v>
+      </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="5" t="s">
@@ -7072,7 +7134,9 @@
       <c r="A175" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="B175" s="6"/>
+      <c r="B175" s="6">
+        <v>43493</v>
+      </c>
       <c r="C175" s="6"/>
       <c r="D175" s="14"/>
       <c r="E175" s="6">
@@ -7355,7 +7419,9 @@
       <c r="E197" s="4">
         <v>43823</v>
       </c>
-      <c r="F197" s="10"/>
+      <c r="F197" s="10">
+        <v>43493</v>
+      </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
@@ -7415,7 +7481,9 @@
       <c r="E201" s="4">
         <v>43823</v>
       </c>
-      <c r="F201" s="10"/>
+      <c r="F201" s="10">
+        <v>43493</v>
+      </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
@@ -7573,7 +7641,9 @@
       <c r="A211" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="B211" s="6"/>
+      <c r="B211" s="6">
+        <v>43493</v>
+      </c>
       <c r="C211" s="6"/>
       <c r="D211" s="14"/>
       <c r="E211" s="6">
@@ -7629,7 +7699,9 @@
       <c r="E215" s="6">
         <v>43472</v>
       </c>
-      <c r="F215" s="10"/>
+      <c r="F215" s="10">
+        <v>43493</v>
+      </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" s="5" t="s">
@@ -7648,7 +7720,9 @@
       <c r="A217" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="B217" s="6"/>
+      <c r="B217" s="6">
+        <v>43493</v>
+      </c>
       <c r="C217" s="6"/>
       <c r="D217" s="14"/>
       <c r="E217" s="6">
@@ -7673,7 +7747,9 @@
       <c r="A219" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="B219" s="6"/>
+      <c r="B219" s="6">
+        <v>43493</v>
+      </c>
       <c r="C219" s="6"/>
       <c r="D219" s="14"/>
       <c r="E219" s="6">
@@ -7717,8 +7793,12 @@
       <c r="B222" s="6">
         <v>43479</v>
       </c>
-      <c r="C222" s="6"/>
-      <c r="D222" s="14"/>
+      <c r="C222" s="6">
+        <v>43493</v>
+      </c>
+      <c r="D222" s="14">
+        <v>50.2</v>
+      </c>
       <c r="E222" s="6">
         <v>43472</v>
       </c>
@@ -7841,7 +7921,9 @@
       <c r="A232" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="B232" s="11"/>
+      <c r="B232" s="11">
+        <v>43493</v>
+      </c>
       <c r="C232" s="11"/>
       <c r="D232" s="15"/>
       <c r="E232" s="11">
@@ -7875,7 +7957,9 @@
       <c r="A235" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="B235" s="11"/>
+      <c r="B235" s="11">
+        <v>43493</v>
+      </c>
       <c r="C235" s="11"/>
       <c r="D235" s="15"/>
       <c r="E235" s="11">
@@ -7887,7 +7971,9 @@
       <c r="A236" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="B236" s="11"/>
+      <c r="B236" s="11">
+        <v>43493</v>
+      </c>
       <c r="C236" s="11"/>
       <c r="D236" s="15"/>
       <c r="E236" s="11">
@@ -7944,7 +8030,9 @@
       <c r="A241" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="B241" s="11"/>
+      <c r="B241" s="11">
+        <v>43493</v>
+      </c>
       <c r="C241" s="11"/>
       <c r="D241" s="15"/>
       <c r="E241" s="11">
@@ -9362,8 +9450,12 @@
       <c r="B354" s="6">
         <v>43481</v>
       </c>
-      <c r="C354" s="6"/>
-      <c r="D354" s="14"/>
+      <c r="C354" s="6">
+        <v>43493</v>
+      </c>
+      <c r="D354" s="14">
+        <v>18.8</v>
+      </c>
       <c r="E354" s="6">
         <v>43472</v>
       </c>
@@ -9380,7 +9472,9 @@
       <c r="E355" s="6">
         <v>43472</v>
       </c>
-      <c r="F355" s="10"/>
+      <c r="F355" s="10">
+        <v>43493</v>
+      </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A356" s="5" t="s">
@@ -9563,8 +9657,12 @@
       <c r="B368" s="6">
         <v>43483</v>
       </c>
-      <c r="C368" s="6"/>
-      <c r="D368" s="14"/>
+      <c r="C368" s="6">
+        <v>43493</v>
+      </c>
+      <c r="D368" s="14">
+        <v>25.4</v>
+      </c>
       <c r="E368" s="6">
         <v>43472</v>
       </c>
@@ -9729,7 +9827,9 @@
       <c r="A382" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="B382" s="11"/>
+      <c r="B382" s="11">
+        <v>43493</v>
+      </c>
       <c r="C382" s="11"/>
       <c r="D382" s="15"/>
       <c r="E382" s="11">
@@ -9822,7 +9922,9 @@
       <c r="E389" s="4">
         <v>43823</v>
       </c>
-      <c r="F389" s="10"/>
+      <c r="F389" s="10">
+        <v>43493</v>
+      </c>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A390" s="3" t="s">
@@ -9978,7 +10080,9 @@
       <c r="E401" s="4">
         <v>43823</v>
       </c>
-      <c r="F401" s="10"/>
+      <c r="F401" s="10">
+        <v>43493</v>
+      </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A402" s="5" t="s">
@@ -10452,7 +10556,9 @@
       <c r="A442" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="B442" s="4"/>
+      <c r="B442" s="4">
+        <v>43493</v>
+      </c>
       <c r="C442" s="4"/>
       <c r="D442" s="13"/>
       <c r="E442" s="4">
@@ -10463,7 +10569,9 @@
       <c r="A443" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="B443" s="4"/>
+      <c r="B443" s="4">
+        <v>43493</v>
+      </c>
       <c r="C443" s="4"/>
       <c r="D443" s="13"/>
       <c r="E443" s="4">
@@ -10548,7 +10656,9 @@
       <c r="A450" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="B450" s="6"/>
+      <c r="B450" s="6">
+        <v>43493</v>
+      </c>
       <c r="C450" s="6"/>
       <c r="D450" s="14"/>
       <c r="E450" s="6">
@@ -10651,7 +10761,9 @@
       <c r="A459" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="B459" s="6"/>
+      <c r="B459" s="6">
+        <v>43493</v>
+      </c>
       <c r="C459" s="6"/>
       <c r="D459" s="14"/>
       <c r="E459" s="6">

--- a/data/observation_datasheet.xlsx
+++ b/data/observation_datasheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catchamberlain/Documents/git/chillfreeze/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{46A99981-4AD3-214C-8E80-26AC82328559}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6FAEA741-E3D6-9840-BF18-89CF1B667414}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11540" yWindow="5480" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4824,10 +4824,10 @@
   <dimension ref="A1:G481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B147" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B460" sqref="B460"/>
+      <selection pane="bottomRight" activeCell="B176" sqref="B176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7107,9 +7107,7 @@
       <c r="A173" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B173" s="6">
-        <v>43490</v>
-      </c>
+      <c r="B173" s="6"/>
       <c r="C173" s="6"/>
       <c r="D173" s="14"/>
       <c r="E173" s="6">
@@ -7135,7 +7133,7 @@
         <v>176</v>
       </c>
       <c r="B175" s="6">
-        <v>43493</v>
+        <v>43490</v>
       </c>
       <c r="C175" s="6"/>
       <c r="D175" s="14"/>

--- a/data/observation_datasheet.xlsx
+++ b/data/observation_datasheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catchamberlain/Documents/git/chillfreeze/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6FAEA741-E3D6-9840-BF18-89CF1B667414}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AC14EC47-5CDD-374B-83DA-9A70D1342768}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11540" yWindow="5480" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1496,7 +1496,7 @@
     <t>3 Extra</t>
   </si>
   <si>
-    <t>1 Extra</t>
+    <t>Damage</t>
   </si>
 </sst>
 </file>
@@ -4824,10 +4824,10 @@
   <dimension ref="A1:G481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B147" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B435" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B176" sqref="B176"/>
+      <selection pane="bottomRight" activeCell="B465" sqref="B465"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4862,7 +4862,9 @@
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="4">
+        <v>43497</v>
+      </c>
       <c r="C2" s="4"/>
       <c r="D2" s="13"/>
       <c r="E2" s="4">
@@ -4885,7 +4887,9 @@
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="4">
+        <v>43495</v>
+      </c>
       <c r="C4" s="4"/>
       <c r="D4" s="13"/>
       <c r="E4" s="4">
@@ -4942,7 +4946,9 @@
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B9" s="4">
+        <v>43497</v>
+      </c>
       <c r="C9" s="4"/>
       <c r="D9" s="13"/>
       <c r="E9" s="4">
@@ -4954,7 +4960,9 @@
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="4"/>
+      <c r="B10" s="4">
+        <v>43495</v>
+      </c>
       <c r="C10" s="4"/>
       <c r="D10" s="13"/>
       <c r="E10" s="4">
@@ -4988,7 +4996,9 @@
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="4"/>
+      <c r="B13" s="4">
+        <v>43495</v>
+      </c>
       <c r="C13" s="4"/>
       <c r="D13" s="13"/>
       <c r="E13" s="4">
@@ -5011,7 +5021,9 @@
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="4"/>
+      <c r="B15" s="4">
+        <v>43497</v>
+      </c>
       <c r="C15" s="4"/>
       <c r="D15" s="13"/>
       <c r="E15" s="4">
@@ -5649,7 +5661,9 @@
       <c r="A67" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B67" s="6"/>
+      <c r="B67" s="6">
+        <v>43495</v>
+      </c>
       <c r="C67" s="6"/>
       <c r="D67" s="14"/>
       <c r="E67" s="6">
@@ -5707,7 +5721,9 @@
       <c r="E71" s="6">
         <v>43472</v>
       </c>
-      <c r="F71" s="10"/>
+      <c r="F71" s="10">
+        <v>43497</v>
+      </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
@@ -5724,7 +5740,9 @@
       <c r="A73" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B73" s="6"/>
+      <c r="B73" s="6">
+        <v>43497</v>
+      </c>
       <c r="C73" s="6"/>
       <c r="D73" s="14"/>
       <c r="E73" s="6">
@@ -5813,7 +5831,9 @@
       <c r="A80" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B80" s="6"/>
+      <c r="B80" s="6">
+        <v>43497</v>
+      </c>
       <c r="C80" s="6"/>
       <c r="D80" s="14"/>
       <c r="E80" s="6">
@@ -6182,8 +6202,12 @@
       <c r="B107" s="4">
         <v>43473</v>
       </c>
-      <c r="C107" s="4"/>
-      <c r="D107" s="13"/>
+      <c r="C107" s="4">
+        <v>43495</v>
+      </c>
+      <c r="D107" s="13">
+        <v>31.2</v>
+      </c>
       <c r="E107" s="4">
         <v>43823</v>
       </c>
@@ -6215,8 +6239,12 @@
       <c r="B109" s="4">
         <v>43481</v>
       </c>
-      <c r="C109" s="4"/>
-      <c r="D109" s="13"/>
+      <c r="C109" s="4">
+        <v>43495</v>
+      </c>
+      <c r="D109" s="13">
+        <v>28.1</v>
+      </c>
       <c r="E109" s="4">
         <v>43823</v>
       </c>
@@ -6285,16 +6313,20 @@
       <c r="B113" s="4">
         <v>43473</v>
       </c>
-      <c r="C113" s="4"/>
-      <c r="D113" s="13"/>
+      <c r="C113" s="4">
+        <v>43495</v>
+      </c>
+      <c r="D113" s="13">
+        <v>39</v>
+      </c>
       <c r="E113" s="4">
         <v>43823</v>
       </c>
       <c r="F113" s="10">
         <v>43483</v>
       </c>
-      <c r="G113" t="s">
-        <v>491</v>
+      <c r="G113" s="21">
+        <v>0.85</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
@@ -6378,7 +6410,9 @@
       <c r="E119" s="6">
         <v>43472</v>
       </c>
-      <c r="F119" s="10"/>
+      <c r="F119" s="10">
+        <v>43497</v>
+      </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="5" t="s">
@@ -6405,7 +6439,9 @@
       <c r="E121" s="6">
         <v>43472</v>
       </c>
-      <c r="F121" s="10"/>
+      <c r="F121" s="10">
+        <v>43497</v>
+      </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="5" t="s">
@@ -6432,7 +6468,9 @@
       <c r="E123" s="6">
         <v>43472</v>
       </c>
-      <c r="F123" s="10"/>
+      <c r="F123" s="10">
+        <v>43497</v>
+      </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
@@ -6441,8 +6479,12 @@
       <c r="B124" s="6">
         <v>43479</v>
       </c>
-      <c r="C124" s="6"/>
-      <c r="D124" s="14"/>
+      <c r="C124" s="6">
+        <v>43497</v>
+      </c>
+      <c r="D124" s="14">
+        <v>35</v>
+      </c>
       <c r="E124" s="6">
         <v>43472</v>
       </c>
@@ -6470,8 +6512,12 @@
       <c r="B126" s="6">
         <v>43486</v>
       </c>
-      <c r="C126" s="6"/>
-      <c r="D126" s="14"/>
+      <c r="C126" s="6">
+        <v>43497</v>
+      </c>
+      <c r="D126" s="14">
+        <v>38.700000000000003</v>
+      </c>
       <c r="E126" s="6">
         <v>43472</v>
       </c>
@@ -6546,7 +6592,9 @@
       <c r="A132" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B132" s="11"/>
+      <c r="B132" s="11">
+        <v>43497</v>
+      </c>
       <c r="C132" s="11"/>
       <c r="D132" s="15"/>
       <c r="E132" s="11">
@@ -6569,7 +6617,9 @@
       <c r="A134" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="B134" s="11"/>
+      <c r="B134" s="11">
+        <v>43497</v>
+      </c>
       <c r="C134" s="11"/>
       <c r="D134" s="15"/>
       <c r="E134" s="11">
@@ -6690,14 +6740,16 @@
       <c r="A144" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="B144" s="11"/>
+      <c r="B144" s="11">
+        <v>43495</v>
+      </c>
       <c r="C144" s="11"/>
       <c r="D144" s="15"/>
       <c r="E144" s="11">
         <v>43486</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="7" t="s">
         <v>146</v>
       </c>
@@ -6709,7 +6761,7 @@
       </c>
       <c r="F145" s="10"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
         <v>147</v>
       </c>
@@ -6726,7 +6778,7 @@
         <v>43823</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>148</v>
       </c>
@@ -6742,57 +6794,76 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
         <v>149</v>
       </c>
       <c r="B148" s="4">
         <v>43474</v>
       </c>
-      <c r="C148" s="4"/>
-      <c r="D148" s="13"/>
+      <c r="C148" s="4">
+        <v>43495</v>
+      </c>
+      <c r="D148" s="13">
+        <v>60.5</v>
+      </c>
       <c r="E148" s="4">
         <v>43823</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
         <v>150</v>
       </c>
       <c r="B149" s="4">
         <v>43481</v>
       </c>
-      <c r="C149" s="4"/>
-      <c r="D149" s="13"/>
+      <c r="C149" s="4">
+        <v>43497</v>
+      </c>
+      <c r="D149" s="13">
+        <v>56.5</v>
+      </c>
       <c r="E149" s="4">
         <v>43823</v>
       </c>
       <c r="F149" s="10">
         <v>43488</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G149" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
         <v>151</v>
       </c>
       <c r="B150" s="4">
         <v>43481</v>
       </c>
-      <c r="C150" s="4"/>
-      <c r="D150" s="13"/>
+      <c r="C150" s="4">
+        <v>43497</v>
+      </c>
+      <c r="D150" s="13">
+        <v>53.8</v>
+      </c>
       <c r="E150" s="4">
         <v>43823</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
         <v>152</v>
       </c>
       <c r="B151" s="4">
         <v>43479</v>
       </c>
-      <c r="C151" s="4"/>
-      <c r="D151" s="13"/>
+      <c r="C151" s="4">
+        <v>43497</v>
+      </c>
+      <c r="D151" s="13">
+        <v>49.4</v>
+      </c>
       <c r="E151" s="4">
         <v>43823</v>
       </c>
@@ -6800,7 +6871,7 @@
         <v>43483</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
         <v>153</v>
       </c>
@@ -6817,7 +6888,7 @@
         <v>43823</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
         <v>154</v>
       </c>
@@ -6833,7 +6904,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
         <v>155</v>
       </c>
@@ -6846,7 +6917,7 @@
         <v>43823</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
         <v>156</v>
       </c>
@@ -6862,28 +6933,36 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
         <v>157</v>
       </c>
       <c r="B156" s="4">
         <v>43479</v>
       </c>
-      <c r="C156" s="4"/>
-      <c r="D156" s="13"/>
+      <c r="C156" s="4">
+        <v>43497</v>
+      </c>
+      <c r="D156" s="13">
+        <v>55.7</v>
+      </c>
       <c r="E156" s="4">
         <v>43823</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
         <v>158</v>
       </c>
       <c r="B157" s="4">
         <v>43476</v>
       </c>
-      <c r="C157" s="4"/>
-      <c r="D157" s="13"/>
+      <c r="C157" s="4">
+        <v>43497</v>
+      </c>
+      <c r="D157" s="13">
+        <v>37.1</v>
+      </c>
       <c r="E157" s="4">
         <v>43823</v>
       </c>
@@ -6891,7 +6970,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
         <v>159</v>
       </c>
@@ -6908,15 +6987,19 @@
         <v>43823</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
         <v>160</v>
       </c>
       <c r="B159" s="4">
         <v>43476</v>
       </c>
-      <c r="C159" s="4"/>
-      <c r="D159" s="13"/>
+      <c r="C159" s="4">
+        <v>43497</v>
+      </c>
+      <c r="D159" s="13">
+        <v>43.8</v>
+      </c>
       <c r="E159" s="4">
         <v>43823</v>
       </c>
@@ -6924,7 +7007,7 @@
         <v>43483</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
         <v>161</v>
       </c>
@@ -6974,7 +7057,9 @@
       <c r="A163" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B163" s="6"/>
+      <c r="B163" s="6">
+        <v>43495</v>
+      </c>
       <c r="C163" s="6"/>
       <c r="D163" s="14"/>
       <c r="E163" s="6">
@@ -7026,7 +7111,9 @@
       <c r="A167" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B167" s="6"/>
+      <c r="B167" s="6">
+        <v>43495</v>
+      </c>
       <c r="C167" s="6"/>
       <c r="D167" s="14"/>
       <c r="E167" s="6">
@@ -7088,7 +7175,9 @@
       <c r="E171" s="6">
         <v>43472</v>
       </c>
-      <c r="F171" s="10"/>
+      <c r="F171" s="10">
+        <v>43497</v>
+      </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="5" t="s">
@@ -7107,7 +7196,9 @@
       <c r="A173" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B173" s="6"/>
+      <c r="B173" s="6">
+        <v>43497</v>
+      </c>
       <c r="C173" s="6"/>
       <c r="D173" s="14"/>
       <c r="E173" s="6">
@@ -7140,7 +7231,9 @@
       <c r="E175" s="6">
         <v>43472</v>
       </c>
-      <c r="F175" s="10"/>
+      <c r="F175" s="10">
+        <v>43497</v>
+      </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="5" t="s">
@@ -7159,7 +7252,9 @@
       <c r="A177" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="B177" s="6"/>
+      <c r="B177" s="6">
+        <v>43497</v>
+      </c>
       <c r="C177" s="6"/>
       <c r="D177" s="14"/>
       <c r="E177" s="6">
@@ -7490,8 +7585,12 @@
       <c r="B202" s="4">
         <v>43476</v>
       </c>
-      <c r="C202" s="4"/>
-      <c r="D202" s="13"/>
+      <c r="C202" s="4">
+        <v>43495</v>
+      </c>
+      <c r="D202" s="13">
+        <v>54.1</v>
+      </c>
       <c r="E202" s="4">
         <v>43823</v>
       </c>
@@ -7503,8 +7602,12 @@
       <c r="B203" s="4">
         <v>43473</v>
       </c>
-      <c r="C203" s="4"/>
-      <c r="D203" s="13"/>
+      <c r="C203" s="4">
+        <v>43495</v>
+      </c>
+      <c r="D203" s="13">
+        <v>49.2</v>
+      </c>
       <c r="E203" s="4">
         <v>43823</v>
       </c>
@@ -7666,7 +7769,9 @@
       <c r="A213" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="B213" s="6"/>
+      <c r="B213" s="6">
+        <v>43495</v>
+      </c>
       <c r="C213" s="6"/>
       <c r="D213" s="14"/>
       <c r="E213" s="6">
@@ -7678,7 +7783,9 @@
       <c r="A214" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="B214" s="6"/>
+      <c r="B214" s="6">
+        <v>43497</v>
+      </c>
       <c r="C214" s="6"/>
       <c r="D214" s="14"/>
       <c r="E214" s="6">
@@ -7726,7 +7833,9 @@
       <c r="E217" s="6">
         <v>43472</v>
       </c>
-      <c r="F217" s="10"/>
+      <c r="F217" s="10">
+        <v>43497</v>
+      </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" s="5" t="s">
@@ -7861,7 +7970,9 @@
       <c r="A227" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="B227" s="11"/>
+      <c r="B227" s="11">
+        <v>43495</v>
+      </c>
       <c r="C227" s="11"/>
       <c r="D227" s="15"/>
       <c r="E227" s="11">
@@ -7907,7 +8018,9 @@
       <c r="A231" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="B231" s="11"/>
+      <c r="B231" s="11">
+        <v>43497</v>
+      </c>
       <c r="C231" s="11"/>
       <c r="D231" s="15"/>
       <c r="E231" s="11">
@@ -7994,7 +8107,9 @@
       <c r="A238" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="B238" s="11"/>
+      <c r="B238" s="11">
+        <v>43495</v>
+      </c>
       <c r="C238" s="11"/>
       <c r="D238" s="15"/>
       <c r="E238" s="11">
@@ -8663,7 +8778,9 @@
       <c r="A296" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="B296" s="4"/>
+      <c r="B296" s="4">
+        <v>43495</v>
+      </c>
       <c r="C296" s="4"/>
       <c r="D296" s="13"/>
       <c r="E296" s="4">
@@ -8697,7 +8814,9 @@
       <c r="A299" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="B299" s="4"/>
+      <c r="B299" s="4">
+        <v>43495</v>
+      </c>
       <c r="C299" s="4"/>
       <c r="D299" s="13"/>
       <c r="E299" s="4">
@@ -8709,7 +8828,9 @@
       <c r="A300" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="B300" s="4"/>
+      <c r="B300" s="4">
+        <v>43495</v>
+      </c>
       <c r="C300" s="4"/>
       <c r="D300" s="13"/>
       <c r="E300" s="4">
@@ -8743,7 +8864,9 @@
       <c r="A303" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="B303" s="4"/>
+      <c r="B303" s="4">
+        <v>43495</v>
+      </c>
       <c r="C303" s="4"/>
       <c r="D303" s="13"/>
       <c r="E303" s="4">
@@ -8755,7 +8878,9 @@
       <c r="A304" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="B304" s="4"/>
+      <c r="B304" s="4">
+        <v>43495</v>
+      </c>
       <c r="C304" s="4"/>
       <c r="D304" s="13"/>
       <c r="E304" s="4">
@@ -9481,8 +9606,12 @@
       <c r="B356" s="6">
         <v>43481</v>
       </c>
-      <c r="C356" s="6"/>
-      <c r="D356" s="14"/>
+      <c r="C356" s="6">
+        <v>43497</v>
+      </c>
+      <c r="D356" s="14">
+        <v>22.3</v>
+      </c>
       <c r="E356" s="6">
         <v>43472</v>
       </c>
@@ -9494,8 +9623,12 @@
       <c r="B357" s="6">
         <v>43481</v>
       </c>
-      <c r="C357" s="6"/>
-      <c r="D357" s="14"/>
+      <c r="C357" s="6">
+        <v>43497</v>
+      </c>
+      <c r="D357" s="14">
+        <v>18.399999999999999</v>
+      </c>
       <c r="E357" s="6">
         <v>43472</v>
       </c>
@@ -9523,8 +9656,12 @@
       <c r="B359" s="6">
         <v>43481</v>
       </c>
-      <c r="C359" s="6"/>
-      <c r="D359" s="14"/>
+      <c r="C359" s="6">
+        <v>43497</v>
+      </c>
+      <c r="D359" s="14">
+        <v>19.600000000000001</v>
+      </c>
       <c r="E359" s="6">
         <v>43472</v>
       </c>
@@ -9539,8 +9676,12 @@
       <c r="B360" s="6">
         <v>43483</v>
       </c>
-      <c r="C360" s="6"/>
-      <c r="D360" s="14"/>
+      <c r="C360" s="6">
+        <v>43497</v>
+      </c>
+      <c r="D360" s="14">
+        <v>22.2</v>
+      </c>
       <c r="E360" s="6">
         <v>43472</v>
       </c>
@@ -9685,7 +9826,9 @@
       <c r="A370" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="B370" s="11"/>
+      <c r="B370" s="11">
+        <v>43495</v>
+      </c>
       <c r="C370" s="11"/>
       <c r="D370" s="15"/>
       <c r="E370" s="11">
@@ -9696,7 +9839,9 @@
       <c r="A371" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="B371" s="11"/>
+      <c r="B371" s="11">
+        <v>43495</v>
+      </c>
       <c r="C371" s="11"/>
       <c r="D371" s="15"/>
       <c r="E371" s="11">
@@ -9708,7 +9853,9 @@
       <c r="A372" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="B372" s="11"/>
+      <c r="B372" s="11">
+        <v>43495</v>
+      </c>
       <c r="C372" s="11"/>
       <c r="D372" s="15"/>
       <c r="E372" s="11">
@@ -9719,7 +9866,9 @@
       <c r="A373" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="B373" s="11"/>
+      <c r="B373" s="11">
+        <v>43495</v>
+      </c>
       <c r="C373" s="11"/>
       <c r="D373" s="15"/>
       <c r="E373" s="11">
@@ -9731,7 +9880,9 @@
       <c r="A374" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="B374" s="11"/>
+      <c r="B374" s="11">
+        <v>43495</v>
+      </c>
       <c r="C374" s="11"/>
       <c r="D374" s="15"/>
       <c r="E374" s="11">
@@ -9742,7 +9893,9 @@
       <c r="A375" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="B375" s="11"/>
+      <c r="B375" s="11">
+        <v>43495</v>
+      </c>
       <c r="C375" s="11"/>
       <c r="D375" s="15"/>
       <c r="E375" s="11">
@@ -9754,7 +9907,9 @@
       <c r="A376" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="B376" s="11"/>
+      <c r="B376" s="11">
+        <v>43497</v>
+      </c>
       <c r="C376" s="11"/>
       <c r="D376" s="15"/>
       <c r="E376" s="11">
@@ -9779,7 +9934,9 @@
       <c r="A378" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="B378" s="11"/>
+      <c r="B378" s="11">
+        <v>43497</v>
+      </c>
       <c r="C378" s="11"/>
       <c r="D378" s="15"/>
       <c r="E378" s="11">
@@ -9790,7 +9947,9 @@
       <c r="A379" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="B379" s="11"/>
+      <c r="B379" s="11">
+        <v>43495</v>
+      </c>
       <c r="C379" s="11"/>
       <c r="D379" s="15"/>
       <c r="E379" s="11">
@@ -9802,7 +9961,9 @@
       <c r="A380" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="B380" s="11"/>
+      <c r="B380" s="11">
+        <v>43495</v>
+      </c>
       <c r="C380" s="11"/>
       <c r="D380" s="15"/>
       <c r="E380" s="11">
@@ -9813,7 +9974,9 @@
       <c r="A381" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="B381" s="11"/>
+      <c r="B381" s="11">
+        <v>43495</v>
+      </c>
       <c r="C381" s="11"/>
       <c r="D381" s="15"/>
       <c r="E381" s="11">
@@ -10005,7 +10168,9 @@
       <c r="A396" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="B396" s="4"/>
+      <c r="B396" s="4">
+        <v>43495</v>
+      </c>
       <c r="C396" s="4"/>
       <c r="D396" s="13"/>
       <c r="E396" s="4">
@@ -10016,9 +10181,7 @@
       <c r="A397" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="B397" s="4">
-        <v>43490</v>
-      </c>
+      <c r="B397" s="4"/>
       <c r="C397" s="4"/>
       <c r="D397" s="13"/>
       <c r="E397" s="4">
@@ -10059,7 +10222,9 @@
       <c r="A400" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="B400" s="4"/>
+      <c r="B400" s="4">
+        <v>43495</v>
+      </c>
       <c r="C400" s="4"/>
       <c r="D400" s="13"/>
       <c r="E400" s="4">
@@ -10247,7 +10412,9 @@
       <c r="A416" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="B416" s="6"/>
+      <c r="B416" s="6">
+        <v>43495</v>
+      </c>
       <c r="C416" s="6"/>
       <c r="D416" s="14"/>
       <c r="E416" s="6">
@@ -10458,7 +10625,9 @@
       <c r="A434" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="B434" s="4"/>
+      <c r="B434" s="4">
+        <v>43495</v>
+      </c>
       <c r="C434" s="4"/>
       <c r="D434" s="13"/>
       <c r="E434" s="4">
@@ -10477,7 +10646,9 @@
       <c r="E435" s="4">
         <v>43823</v>
       </c>
-      <c r="F435" s="10"/>
+      <c r="F435" s="10">
+        <v>43497</v>
+      </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A436" s="3" t="s">
@@ -10494,7 +10665,9 @@
       <c r="A437" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="B437" s="4"/>
+      <c r="B437" s="4">
+        <v>43495</v>
+      </c>
       <c r="C437" s="4"/>
       <c r="D437" s="13"/>
       <c r="E437" s="4">
@@ -10575,13 +10748,17 @@
       <c r="E443" s="4">
         <v>43823</v>
       </c>
-      <c r="F443" s="10"/>
+      <c r="F443" s="10">
+        <v>43497</v>
+      </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A444" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="B444" s="4"/>
+      <c r="B444" s="4">
+        <v>43497</v>
+      </c>
       <c r="C444" s="4"/>
       <c r="D444" s="13"/>
       <c r="E444" s="4">
@@ -10595,7 +10772,9 @@
       <c r="B445" s="4">
         <v>43488</v>
       </c>
-      <c r="C445" s="4"/>
+      <c r="C445" s="4">
+        <v>43497</v>
+      </c>
       <c r="D445" s="13"/>
       <c r="E445" s="4">
         <v>43823</v>
@@ -10690,7 +10869,9 @@
       <c r="A453" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="B453" s="6"/>
+      <c r="B453" s="6">
+        <v>43497</v>
+      </c>
       <c r="C453" s="6"/>
       <c r="D453" s="14"/>
       <c r="E453" s="6">
@@ -10702,7 +10883,9 @@
       <c r="A454" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="B454" s="6"/>
+      <c r="B454" s="6">
+        <v>43495</v>
+      </c>
       <c r="C454" s="6"/>
       <c r="D454" s="14"/>
       <c r="E454" s="6">
@@ -10725,7 +10908,9 @@
       <c r="A456" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="B456" s="6"/>
+      <c r="B456" s="6">
+        <v>43497</v>
+      </c>
       <c r="C456" s="6"/>
       <c r="D456" s="14"/>
       <c r="E456" s="6">
@@ -10819,7 +11004,9 @@
       <c r="A464" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="B464" s="6"/>
+      <c r="B464" s="6">
+        <v>43497</v>
+      </c>
       <c r="C464" s="6"/>
       <c r="D464" s="14"/>
       <c r="E464" s="6">

--- a/data/observation_datasheet.xlsx
+++ b/data/observation_datasheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catchamberlain/Documents/git/chillfreeze/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AC14EC47-5CDD-374B-83DA-9A70D1342768}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2103F9AE-8D70-DB49-BDE6-35AA4C3DC354}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11540" yWindow="5480" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4824,10 +4824,10 @@
   <dimension ref="A1:G481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B435" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B465" sqref="B465"/>
+      <selection pane="bottomRight" activeCell="E354" sqref="E354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4868,7 +4868,7 @@
       <c r="C2" s="4"/>
       <c r="D2" s="13"/>
       <c r="E2" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -4879,7 +4879,7 @@
       <c r="C3" s="4"/>
       <c r="D3" s="13"/>
       <c r="E3" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
       <c r="F3" s="10"/>
     </row>
@@ -4893,7 +4893,7 @@
       <c r="C4" s="4"/>
       <c r="D4" s="13"/>
       <c r="E4" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -4904,7 +4904,7 @@
       <c r="C5" s="4"/>
       <c r="D5" s="13"/>
       <c r="E5" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
       <c r="F5" s="10"/>
     </row>
@@ -4916,7 +4916,7 @@
       <c r="C6" s="4"/>
       <c r="D6" s="13"/>
       <c r="E6" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -4927,7 +4927,7 @@
       <c r="C7" s="4"/>
       <c r="D7" s="13"/>
       <c r="E7" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
       <c r="F7" s="10"/>
     </row>
@@ -4939,7 +4939,7 @@
       <c r="C8" s="4"/>
       <c r="D8" s="13"/>
       <c r="E8" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -4952,7 +4952,7 @@
       <c r="C9" s="4"/>
       <c r="D9" s="13"/>
       <c r="E9" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
       <c r="F9" s="10"/>
     </row>
@@ -4966,7 +4966,7 @@
       <c r="C10" s="4"/>
       <c r="D10" s="13"/>
       <c r="E10" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -4977,7 +4977,7 @@
       <c r="C11" s="4"/>
       <c r="D11" s="13"/>
       <c r="E11" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
       <c r="F11" s="10"/>
     </row>
@@ -4989,7 +4989,7 @@
       <c r="C12" s="4"/>
       <c r="D12" s="13"/>
       <c r="E12" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -5002,7 +5002,7 @@
       <c r="C13" s="4"/>
       <c r="D13" s="13"/>
       <c r="E13" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
       <c r="F13" s="10"/>
     </row>
@@ -5014,7 +5014,7 @@
       <c r="C14" s="4"/>
       <c r="D14" s="13"/>
       <c r="E14" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -5027,7 +5027,7 @@
       <c r="C15" s="4"/>
       <c r="D15" s="13"/>
       <c r="E15" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
       <c r="F15" s="10"/>
     </row>
@@ -5039,7 +5039,7 @@
       <c r="C16" s="4"/>
       <c r="D16" s="13"/>
       <c r="E16" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -5050,7 +5050,7 @@
       <c r="C17" s="4"/>
       <c r="D17" s="13"/>
       <c r="E17" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
       <c r="F17" s="10"/>
     </row>
@@ -5432,7 +5432,7 @@
       <c r="C50" s="4"/>
       <c r="D50" s="13"/>
       <c r="E50" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -5445,7 +5445,7 @@
       <c r="C51" s="4"/>
       <c r="D51" s="13"/>
       <c r="E51" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
       <c r="F51" s="10">
         <v>43493</v>
@@ -5461,7 +5461,7 @@
       <c r="C52" s="4"/>
       <c r="D52" s="13"/>
       <c r="E52" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -5474,7 +5474,7 @@
       <c r="C53" s="4"/>
       <c r="D53" s="13"/>
       <c r="E53" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
       <c r="F53" s="10">
         <v>43488</v>
@@ -5490,7 +5490,7 @@
       <c r="C54" s="4"/>
       <c r="D54" s="13"/>
       <c r="E54" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -5503,7 +5503,7 @@
       <c r="C55" s="4"/>
       <c r="D55" s="13"/>
       <c r="E55" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
       <c r="F55" s="10">
         <v>43490</v>
@@ -5519,7 +5519,7 @@
       <c r="C56" s="4"/>
       <c r="D56" s="13"/>
       <c r="E56" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -5532,7 +5532,7 @@
       <c r="C57" s="4"/>
       <c r="D57" s="13"/>
       <c r="E57" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
       <c r="F57" s="10">
         <v>43493</v>
@@ -5548,7 +5548,7 @@
       <c r="C58" s="4"/>
       <c r="D58" s="13"/>
       <c r="E58" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -5559,7 +5559,7 @@
       <c r="C59" s="4"/>
       <c r="D59" s="13"/>
       <c r="E59" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
       <c r="F59" s="10"/>
     </row>
@@ -5573,7 +5573,7 @@
       <c r="C60" s="4"/>
       <c r="D60" s="13"/>
       <c r="E60" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -5584,7 +5584,7 @@
       <c r="C61" s="4"/>
       <c r="D61" s="13"/>
       <c r="E61" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
       <c r="F61" s="10"/>
     </row>
@@ -5598,7 +5598,7 @@
       <c r="C62" s="4"/>
       <c r="D62" s="13"/>
       <c r="E62" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -5611,7 +5611,7 @@
       <c r="C63" s="4"/>
       <c r="D63" s="13"/>
       <c r="E63" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
       <c r="F63" s="10">
         <v>43488</v>
@@ -5627,7 +5627,7 @@
       <c r="C64" s="4"/>
       <c r="D64" s="13"/>
       <c r="E64" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -5640,7 +5640,7 @@
       <c r="C65" s="4"/>
       <c r="D65" s="13"/>
       <c r="E65" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
       <c r="F65" s="10">
         <v>43479</v>
@@ -6048,7 +6048,7 @@
       <c r="C98" s="4"/>
       <c r="D98" s="13"/>
       <c r="E98" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
@@ -6065,7 +6065,7 @@
         <v>33.9</v>
       </c>
       <c r="E99" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
       <c r="F99" s="10">
         <v>43476</v>
@@ -6085,7 +6085,7 @@
         <v>34.4</v>
       </c>
       <c r="E100" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
@@ -6102,7 +6102,7 @@
         <v>32.799999999999997</v>
       </c>
       <c r="E101" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
       <c r="F101" s="10">
         <v>43473</v>
@@ -6122,7 +6122,7 @@
         <v>36.1</v>
       </c>
       <c r="E102" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
@@ -6135,7 +6135,7 @@
       <c r="C103" s="4"/>
       <c r="D103" s="13"/>
       <c r="E103" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
       <c r="F103" s="10">
         <v>43476</v>
@@ -6155,7 +6155,7 @@
         <v>34.1</v>
       </c>
       <c r="E104" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
@@ -6172,7 +6172,7 @@
         <v>41.2</v>
       </c>
       <c r="E105" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
       <c r="F105" s="10">
         <v>43476</v>
@@ -6192,7 +6192,7 @@
         <v>41.4</v>
       </c>
       <c r="E106" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -6209,7 +6209,7 @@
         <v>31.2</v>
       </c>
       <c r="E107" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
       <c r="F107" s="10">
         <v>43476</v>
@@ -6229,7 +6229,7 @@
         <v>35.200000000000003</v>
       </c>
       <c r="E108" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
@@ -6246,7 +6246,7 @@
         <v>28.1</v>
       </c>
       <c r="E109" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
       <c r="F109" s="10">
         <v>43488</v>
@@ -6266,7 +6266,7 @@
         <v>30.6</v>
       </c>
       <c r="E110" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -6283,7 +6283,7 @@
         <v>43.9</v>
       </c>
       <c r="E111" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
       <c r="F111" s="10">
         <v>43473</v>
@@ -6303,7 +6303,7 @@
         <v>33.200000000000003</v>
       </c>
       <c r="E112" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
@@ -6320,7 +6320,7 @@
         <v>39</v>
       </c>
       <c r="E113" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
       <c r="F113" s="10">
         <v>43483</v>
@@ -6775,7 +6775,7 @@
         <v>56.2</v>
       </c>
       <c r="E146" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
@@ -6788,7 +6788,7 @@
       <c r="C147" s="4"/>
       <c r="D147" s="13"/>
       <c r="E147" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
       <c r="F147" s="10">
         <v>43488</v>
@@ -6808,7 +6808,7 @@
         <v>60.5</v>
       </c>
       <c r="E148" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
@@ -6825,7 +6825,7 @@
         <v>56.5</v>
       </c>
       <c r="E149" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
       <c r="F149" s="10">
         <v>43488</v>
@@ -6848,7 +6848,7 @@
         <v>53.8</v>
       </c>
       <c r="E150" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
@@ -6865,7 +6865,7 @@
         <v>49.4</v>
       </c>
       <c r="E151" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
       <c r="F151" s="10">
         <v>43483</v>
@@ -6885,7 +6885,7 @@
         <v>39.4</v>
       </c>
       <c r="E152" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
@@ -6898,7 +6898,7 @@
       <c r="C153" s="4"/>
       <c r="D153" s="13"/>
       <c r="E153" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
       <c r="F153" s="10">
         <v>43490</v>
@@ -6914,7 +6914,7 @@
       <c r="C154" s="4"/>
       <c r="D154" s="13"/>
       <c r="E154" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
@@ -6927,7 +6927,7 @@
       <c r="C155" s="4"/>
       <c r="D155" s="13"/>
       <c r="E155" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
       <c r="F155" s="10">
         <v>43488</v>
@@ -6947,7 +6947,7 @@
         <v>55.7</v>
       </c>
       <c r="E156" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
@@ -6964,7 +6964,7 @@
         <v>37.1</v>
       </c>
       <c r="E157" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
       <c r="F157" s="10">
         <v>43488</v>
@@ -6984,7 +6984,7 @@
         <v>52.8</v>
       </c>
       <c r="E158" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
@@ -7001,7 +7001,7 @@
         <v>43.8</v>
       </c>
       <c r="E159" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
       <c r="F159" s="10">
         <v>43483</v>
@@ -7021,7 +7021,7 @@
         <v>51.7</v>
       </c>
       <c r="E160" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
@@ -7034,7 +7034,7 @@
       <c r="C161" s="4"/>
       <c r="D161" s="13"/>
       <c r="E161" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
       <c r="F161" s="10">
         <v>43490</v>
@@ -7460,7 +7460,7 @@
         <v>55.8</v>
       </c>
       <c r="E194" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
@@ -7477,7 +7477,7 @@
         <v>57.6</v>
       </c>
       <c r="E195" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
       <c r="F195" s="10">
         <v>43479</v>
@@ -7497,7 +7497,7 @@
         <v>61.1</v>
       </c>
       <c r="E196" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
@@ -7510,7 +7510,7 @@
       <c r="C197" s="4"/>
       <c r="D197" s="13"/>
       <c r="E197" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
       <c r="F197" s="10">
         <v>43493</v>
@@ -7530,7 +7530,7 @@
         <v>34.200000000000003</v>
       </c>
       <c r="E198" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
@@ -7543,7 +7543,7 @@
       <c r="C199" s="4"/>
       <c r="D199" s="13"/>
       <c r="E199" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
       <c r="F199" s="10">
         <v>43488</v>
@@ -7559,7 +7559,7 @@
       <c r="C200" s="4"/>
       <c r="D200" s="13"/>
       <c r="E200" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
@@ -7572,7 +7572,7 @@
       <c r="C201" s="4"/>
       <c r="D201" s="13"/>
       <c r="E201" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
       <c r="F201" s="10">
         <v>43493</v>
@@ -7592,7 +7592,7 @@
         <v>54.1</v>
       </c>
       <c r="E202" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
@@ -7609,7 +7609,7 @@
         <v>49.2</v>
       </c>
       <c r="E203" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
       <c r="F203" s="10">
         <v>43488</v>
@@ -7625,7 +7625,7 @@
       <c r="C204" s="4"/>
       <c r="D204" s="13"/>
       <c r="E204" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
@@ -7642,7 +7642,7 @@
         <v>58.2</v>
       </c>
       <c r="E205" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
       <c r="F205" s="10">
         <v>43473</v>
@@ -7662,7 +7662,7 @@
         <v>53.6</v>
       </c>
       <c r="E206" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
@@ -7679,7 +7679,7 @@
         <v>60.8</v>
       </c>
       <c r="E207" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
       <c r="F207" s="10">
         <v>43473</v>
@@ -7702,7 +7702,7 @@
         <v>55.4</v>
       </c>
       <c r="E208" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
@@ -7719,7 +7719,7 @@
         <v>58.4</v>
       </c>
       <c r="E209" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
       <c r="F209" s="10">
         <v>43473</v>
@@ -8161,7 +8161,7 @@
       <c r="C242" s="4"/>
       <c r="D242" s="13"/>
       <c r="E242" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
@@ -8172,7 +8172,7 @@
       <c r="C243" s="4"/>
       <c r="D243" s="13"/>
       <c r="E243" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
       <c r="F243" s="10"/>
     </row>
@@ -8184,7 +8184,7 @@
       <c r="C244" s="4"/>
       <c r="D244" s="13"/>
       <c r="E244" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
@@ -8195,7 +8195,7 @@
       <c r="C245" s="4"/>
       <c r="D245" s="13"/>
       <c r="E245" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
       <c r="F245" s="10"/>
     </row>
@@ -8207,7 +8207,7 @@
       <c r="C246" s="4"/>
       <c r="D246" s="13"/>
       <c r="E246" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
@@ -8218,7 +8218,7 @@
       <c r="C247" s="4"/>
       <c r="D247" s="13"/>
       <c r="E247" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
       <c r="F247" s="10"/>
     </row>
@@ -8230,7 +8230,7 @@
       <c r="C248" s="4"/>
       <c r="D248" s="13"/>
       <c r="E248" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
@@ -8241,7 +8241,7 @@
       <c r="C249" s="4"/>
       <c r="D249" s="13"/>
       <c r="E249" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
       <c r="F249" s="10"/>
     </row>
@@ -8253,7 +8253,7 @@
       <c r="C250" s="4"/>
       <c r="D250" s="13"/>
       <c r="E250" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
@@ -8264,7 +8264,7 @@
       <c r="C251" s="4"/>
       <c r="D251" s="13"/>
       <c r="E251" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
       <c r="F251" s="10"/>
     </row>
@@ -8276,7 +8276,7 @@
       <c r="C252" s="4"/>
       <c r="D252" s="13"/>
       <c r="E252" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
@@ -8287,7 +8287,7 @@
       <c r="C253" s="4"/>
       <c r="D253" s="13"/>
       <c r="E253" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
       <c r="F253" s="10"/>
     </row>
@@ -8299,7 +8299,7 @@
       <c r="C254" s="4"/>
       <c r="D254" s="13"/>
       <c r="E254" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
@@ -8310,7 +8310,7 @@
       <c r="C255" s="4"/>
       <c r="D255" s="13"/>
       <c r="E255" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
       <c r="F255" s="10"/>
     </row>
@@ -8322,7 +8322,7 @@
       <c r="C256" s="4"/>
       <c r="D256" s="13"/>
       <c r="E256" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
@@ -8333,7 +8333,7 @@
       <c r="C257" s="4"/>
       <c r="D257" s="13"/>
       <c r="E257" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
       <c r="F257" s="10"/>
     </row>
@@ -8713,7 +8713,7 @@
       <c r="C290" s="4"/>
       <c r="D290" s="13"/>
       <c r="E290" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.2">
@@ -8724,7 +8724,7 @@
       <c r="C291" s="4"/>
       <c r="D291" s="13"/>
       <c r="E291" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
       <c r="F291" s="10"/>
     </row>
@@ -8736,7 +8736,7 @@
       <c r="C292" s="4"/>
       <c r="D292" s="13"/>
       <c r="E292" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.2">
@@ -8747,7 +8747,7 @@
       <c r="C293" s="4"/>
       <c r="D293" s="13"/>
       <c r="E293" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
       <c r="F293" s="10"/>
     </row>
@@ -8759,7 +8759,7 @@
       <c r="C294" s="4"/>
       <c r="D294" s="13"/>
       <c r="E294" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.2">
@@ -8770,7 +8770,7 @@
       <c r="C295" s="4"/>
       <c r="D295" s="13"/>
       <c r="E295" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
       <c r="F295" s="10"/>
     </row>
@@ -8784,7 +8784,7 @@
       <c r="C296" s="4"/>
       <c r="D296" s="13"/>
       <c r="E296" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.2">
@@ -8795,7 +8795,7 @@
       <c r="C297" s="4"/>
       <c r="D297" s="13"/>
       <c r="E297" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
       <c r="F297" s="10"/>
     </row>
@@ -8807,7 +8807,7 @@
       <c r="C298" s="4"/>
       <c r="D298" s="13"/>
       <c r="E298" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.2">
@@ -8820,7 +8820,7 @@
       <c r="C299" s="4"/>
       <c r="D299" s="13"/>
       <c r="E299" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
       <c r="F299" s="10"/>
     </row>
@@ -8834,7 +8834,7 @@
       <c r="C300" s="4"/>
       <c r="D300" s="13"/>
       <c r="E300" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.2">
@@ -8845,7 +8845,7 @@
       <c r="C301" s="4"/>
       <c r="D301" s="13"/>
       <c r="E301" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
       <c r="F301" s="10"/>
     </row>
@@ -8857,7 +8857,7 @@
       <c r="C302" s="4"/>
       <c r="D302" s="13"/>
       <c r="E302" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.2">
@@ -8870,7 +8870,7 @@
       <c r="C303" s="4"/>
       <c r="D303" s="13"/>
       <c r="E303" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
       <c r="F303" s="10"/>
     </row>
@@ -8884,7 +8884,7 @@
       <c r="C304" s="4"/>
       <c r="D304" s="13"/>
       <c r="E304" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.2">
@@ -8895,7 +8895,7 @@
       <c r="C305" s="4"/>
       <c r="D305" s="13"/>
       <c r="E305" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
       <c r="F305" s="10"/>
     </row>
@@ -9281,7 +9281,7 @@
         <v>28.8</v>
       </c>
       <c r="E338" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.2">
@@ -9298,7 +9298,7 @@
         <v>35</v>
       </c>
       <c r="E339" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
       <c r="F339" s="10">
         <v>43473</v>
@@ -9318,7 +9318,7 @@
         <v>25.6</v>
       </c>
       <c r="E340" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.2">
@@ -9335,7 +9335,7 @@
         <v>18.2</v>
       </c>
       <c r="E341" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
       <c r="F341" s="10">
         <v>43469</v>
@@ -9355,7 +9355,7 @@
         <v>26.8</v>
       </c>
       <c r="E342" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.2">
@@ -9372,7 +9372,7 @@
         <v>19.2</v>
       </c>
       <c r="E343" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
       <c r="F343" s="10">
         <v>43469</v>
@@ -9392,7 +9392,7 @@
         <v>15.8</v>
       </c>
       <c r="E344" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.2">
@@ -9409,7 +9409,7 @@
         <v>23.8</v>
       </c>
       <c r="E345" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
       <c r="F345" s="10">
         <v>43469</v>
@@ -9429,7 +9429,7 @@
         <v>23.4</v>
       </c>
       <c r="E346" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.2">
@@ -9446,7 +9446,7 @@
         <v>24.6</v>
       </c>
       <c r="E347" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
       <c r="F347" s="10">
         <v>43472</v>
@@ -9466,7 +9466,7 @@
         <v>20.2</v>
       </c>
       <c r="E348" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.2">
@@ -9483,7 +9483,7 @@
         <v>33.799999999999997</v>
       </c>
       <c r="E349" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
       <c r="F349" s="10">
         <v>43472</v>
@@ -9503,7 +9503,7 @@
         <v>18.399999999999999</v>
       </c>
       <c r="E350" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.2">
@@ -9520,7 +9520,7 @@
         <v>27.2</v>
       </c>
       <c r="E351" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
       <c r="F351" s="10">
         <v>43472</v>
@@ -9543,7 +9543,7 @@
         <v>26.4</v>
       </c>
       <c r="E352" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.2">
@@ -9560,7 +9560,7 @@
         <v>31.8</v>
       </c>
       <c r="E353" s="4">
-        <v>43472</v>
+        <v>43458</v>
       </c>
       <c r="F353" s="10">
         <v>43472</v>
@@ -10045,7 +10045,7 @@
       <c r="C386" s="4"/>
       <c r="D386" s="13"/>
       <c r="E386" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.2">
@@ -10056,7 +10056,7 @@
       <c r="C387" s="4"/>
       <c r="D387" s="13"/>
       <c r="E387" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
       <c r="F387" s="10"/>
     </row>
@@ -10068,7 +10068,7 @@
       <c r="C388" s="4"/>
       <c r="D388" s="13"/>
       <c r="E388" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.2">
@@ -10081,7 +10081,7 @@
       <c r="C389" s="4"/>
       <c r="D389" s="13"/>
       <c r="E389" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
       <c r="F389" s="10">
         <v>43493</v>
@@ -10097,7 +10097,7 @@
       <c r="C390" s="4"/>
       <c r="D390" s="13"/>
       <c r="E390" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.2">
@@ -10108,7 +10108,7 @@
       <c r="C391" s="4"/>
       <c r="D391" s="13"/>
       <c r="E391" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
       <c r="F391" s="10"/>
     </row>
@@ -10122,7 +10122,7 @@
       <c r="C392" s="4"/>
       <c r="D392" s="13"/>
       <c r="E392" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.2">
@@ -10135,7 +10135,7 @@
       <c r="C393" s="4"/>
       <c r="D393" s="13"/>
       <c r="E393" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
       <c r="F393" s="10"/>
     </row>
@@ -10149,7 +10149,7 @@
       <c r="C394" s="4"/>
       <c r="D394" s="13"/>
       <c r="E394" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.2">
@@ -10160,7 +10160,7 @@
       <c r="C395" s="4"/>
       <c r="D395" s="13"/>
       <c r="E395" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
       <c r="F395" s="10"/>
     </row>
@@ -10174,7 +10174,7 @@
       <c r="C396" s="4"/>
       <c r="D396" s="13"/>
       <c r="E396" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.2">
@@ -10185,7 +10185,7 @@
       <c r="C397" s="4"/>
       <c r="D397" s="13"/>
       <c r="E397" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
       <c r="F397" s="10"/>
     </row>
@@ -10199,7 +10199,7 @@
       <c r="C398" s="4"/>
       <c r="D398" s="13"/>
       <c r="E398" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.2">
@@ -10212,7 +10212,7 @@
       <c r="C399" s="4"/>
       <c r="D399" s="13"/>
       <c r="E399" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
       <c r="F399" s="10">
         <v>43490</v>
@@ -10228,7 +10228,7 @@
       <c r="C400" s="4"/>
       <c r="D400" s="13"/>
       <c r="E400" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.2">
@@ -10241,7 +10241,7 @@
       <c r="C401" s="4"/>
       <c r="D401" s="13"/>
       <c r="E401" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
       <c r="F401" s="10">
         <v>43493</v>
@@ -10631,7 +10631,7 @@
       <c r="C434" s="4"/>
       <c r="D434" s="13"/>
       <c r="E434" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.2">
@@ -10644,7 +10644,7 @@
       <c r="C435" s="4"/>
       <c r="D435" s="13"/>
       <c r="E435" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
       <c r="F435" s="10">
         <v>43497</v>
@@ -10658,7 +10658,7 @@
       <c r="C436" s="4"/>
       <c r="D436" s="13"/>
       <c r="E436" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.2">
@@ -10671,7 +10671,7 @@
       <c r="C437" s="4"/>
       <c r="D437" s="13"/>
       <c r="E437" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
       <c r="F437" s="10"/>
     </row>
@@ -10685,7 +10685,7 @@
       <c r="C438" s="4"/>
       <c r="D438" s="13"/>
       <c r="E438" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.2">
@@ -10696,7 +10696,7 @@
       <c r="C439" s="4"/>
       <c r="D439" s="13"/>
       <c r="E439" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
       <c r="F439" s="10"/>
     </row>
@@ -10708,7 +10708,7 @@
       <c r="C440" s="4"/>
       <c r="D440" s="13"/>
       <c r="E440" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.2">
@@ -10719,7 +10719,7 @@
       <c r="C441" s="4"/>
       <c r="D441" s="13"/>
       <c r="E441" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
       <c r="F441" s="10"/>
     </row>
@@ -10733,7 +10733,7 @@
       <c r="C442" s="4"/>
       <c r="D442" s="13"/>
       <c r="E442" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.2">
@@ -10746,7 +10746,7 @@
       <c r="C443" s="4"/>
       <c r="D443" s="13"/>
       <c r="E443" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
       <c r="F443" s="10">
         <v>43497</v>
@@ -10762,7 +10762,7 @@
       <c r="C444" s="4"/>
       <c r="D444" s="13"/>
       <c r="E444" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.2">
@@ -10777,7 +10777,7 @@
       </c>
       <c r="D445" s="13"/>
       <c r="E445" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
       <c r="F445" s="10"/>
     </row>
@@ -10789,7 +10789,7 @@
       <c r="C446" s="4"/>
       <c r="D446" s="13"/>
       <c r="E446" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.2">
@@ -10802,7 +10802,7 @@
       <c r="C447" s="4"/>
       <c r="D447" s="13"/>
       <c r="E447" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
       <c r="F447" s="10"/>
     </row>
@@ -10814,7 +10814,7 @@
       <c r="C448" s="4"/>
       <c r="D448" s="13"/>
       <c r="E448" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.2">
@@ -10825,7 +10825,7 @@
       <c r="C449" s="4"/>
       <c r="D449" s="13"/>
       <c r="E449" s="4">
-        <v>43823</v>
+        <v>43458</v>
       </c>
       <c r="F449" s="10"/>
     </row>

--- a/data/observation_datasheet.xlsx
+++ b/data/observation_datasheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catchamberlain/Documents/git/chillfreeze/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2103F9AE-8D70-DB49-BDE6-35AA4C3DC354}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{368483CA-8E4D-DC40-AB80-2AAF8495ECF9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11540" yWindow="5480" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21500" yWindow="3660" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="observation_datasheet" sheetId="1" r:id="rId1"/>
@@ -4824,10 +4824,10 @@
   <dimension ref="A1:G481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B432" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E354" sqref="E354"/>
+      <selection pane="bottomRight" activeCell="F445" sqref="F445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4973,7 +4973,9 @@
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="4"/>
+      <c r="B11" s="4">
+        <v>43500</v>
+      </c>
       <c r="C11" s="4"/>
       <c r="D11" s="13"/>
       <c r="E11" s="4">
@@ -5035,7 +5037,9 @@
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="4"/>
+      <c r="B16" s="4">
+        <v>43500</v>
+      </c>
       <c r="C16" s="4"/>
       <c r="D16" s="13"/>
       <c r="E16" s="4">
@@ -5046,7 +5050,9 @@
       <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="4"/>
+      <c r="B17" s="4">
+        <v>43500</v>
+      </c>
       <c r="C17" s="4"/>
       <c r="D17" s="13"/>
       <c r="E17" s="4">
@@ -5219,7 +5225,9 @@
       <c r="A32" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="6"/>
+      <c r="B32" s="6">
+        <v>43500</v>
+      </c>
       <c r="C32" s="6"/>
       <c r="D32" s="14"/>
       <c r="E32" s="6">
@@ -5555,7 +5563,9 @@
       <c r="A59" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B59" s="4"/>
+      <c r="B59" s="4">
+        <v>43500</v>
+      </c>
       <c r="C59" s="4"/>
       <c r="D59" s="13"/>
       <c r="E59" s="4">
@@ -5792,7 +5802,9 @@
       <c r="A77" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B77" s="6"/>
+      <c r="B77" s="6">
+        <v>43500</v>
+      </c>
       <c r="C77" s="6"/>
       <c r="D77" s="14"/>
       <c r="E77" s="6">
@@ -5825,7 +5837,9 @@
       <c r="E79" s="6">
         <v>43472</v>
       </c>
-      <c r="F79" s="10"/>
+      <c r="F79" s="10">
+        <v>43500</v>
+      </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
@@ -5852,7 +5866,9 @@
       <c r="E81" s="6">
         <v>43472</v>
       </c>
-      <c r="F81" s="10"/>
+      <c r="F81" s="10">
+        <v>43500</v>
+      </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
@@ -6383,7 +6399,9 @@
       <c r="E117" s="6">
         <v>43472</v>
       </c>
-      <c r="F117" s="10"/>
+      <c r="F117" s="10">
+        <v>43500</v>
+      </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="5" t="s">
@@ -6450,8 +6468,12 @@
       <c r="B122" s="6">
         <v>43481</v>
       </c>
-      <c r="C122" s="6"/>
-      <c r="D122" s="14"/>
+      <c r="C122" s="6">
+        <v>43500</v>
+      </c>
+      <c r="D122" s="14">
+        <v>45.8</v>
+      </c>
       <c r="E122" s="6">
         <v>43472</v>
       </c>
@@ -6534,7 +6556,9 @@
       <c r="E127" s="6">
         <v>43472</v>
       </c>
-      <c r="F127" s="10"/>
+      <c r="F127" s="10">
+        <v>43500</v>
+      </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="5" t="s">
@@ -6569,7 +6593,9 @@
       <c r="A130" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B130" s="11"/>
+      <c r="B130" s="11">
+        <v>43500</v>
+      </c>
       <c r="C130" s="11"/>
       <c r="D130" s="15"/>
       <c r="E130" s="11">
@@ -6580,7 +6606,9 @@
       <c r="A131" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="B131" s="11"/>
+      <c r="B131" s="11">
+        <v>43500</v>
+      </c>
       <c r="C131" s="11"/>
       <c r="D131" s="15"/>
       <c r="E131" s="11">
@@ -6661,7 +6689,9 @@
       <c r="E137" s="11">
         <v>43486</v>
       </c>
-      <c r="F137" s="10"/>
+      <c r="F137" s="10">
+        <v>43500</v>
+      </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="7" t="s">
@@ -6711,13 +6741,17 @@
       <c r="E141" s="11">
         <v>43486</v>
       </c>
-      <c r="F141" s="10"/>
+      <c r="F141" s="10">
+        <v>43500</v>
+      </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B142" s="11"/>
+      <c r="B142" s="11">
+        <v>43500</v>
+      </c>
       <c r="C142" s="11"/>
       <c r="D142" s="15"/>
       <c r="E142" s="11">
@@ -6728,7 +6762,9 @@
       <c r="A143" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="B143" s="11"/>
+      <c r="B143" s="11">
+        <v>43500</v>
+      </c>
       <c r="C143" s="11"/>
       <c r="D143" s="15"/>
       <c r="E143" s="11">
@@ -6785,7 +6821,9 @@
       <c r="B147" s="4">
         <v>43481</v>
       </c>
-      <c r="C147" s="4"/>
+      <c r="C147" s="4">
+        <v>43500</v>
+      </c>
       <c r="D147" s="13"/>
       <c r="E147" s="4">
         <v>43458</v>
@@ -6895,7 +6933,9 @@
       <c r="B153" s="4">
         <v>43486</v>
       </c>
-      <c r="C153" s="4"/>
+      <c r="C153" s="4">
+        <v>43500</v>
+      </c>
       <c r="D153" s="13"/>
       <c r="E153" s="4">
         <v>43458</v>
@@ -6911,7 +6951,9 @@
       <c r="B154" s="4">
         <v>43476</v>
       </c>
-      <c r="C154" s="4"/>
+      <c r="C154" s="4">
+        <v>43500</v>
+      </c>
       <c r="D154" s="13"/>
       <c r="E154" s="4">
         <v>43458</v>
@@ -6924,7 +6966,9 @@
       <c r="B155" s="4">
         <v>43483</v>
       </c>
-      <c r="C155" s="4"/>
+      <c r="C155" s="4">
+        <v>43500</v>
+      </c>
       <c r="D155" s="13"/>
       <c r="E155" s="4">
         <v>43458</v>
@@ -7031,7 +7075,9 @@
       <c r="B161" s="4">
         <v>43483</v>
       </c>
-      <c r="C161" s="4"/>
+      <c r="C161" s="4">
+        <v>43500</v>
+      </c>
       <c r="D161" s="13"/>
       <c r="E161" s="4">
         <v>43458</v>
@@ -7065,7 +7111,9 @@
       <c r="E163" s="6">
         <v>43472</v>
       </c>
-      <c r="F163" s="10"/>
+      <c r="F163" s="10">
+        <v>43500</v>
+      </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="5" t="s">
@@ -7092,7 +7140,9 @@
       <c r="E165" s="6">
         <v>43472</v>
       </c>
-      <c r="F165" s="10"/>
+      <c r="F165" s="10">
+        <v>43500</v>
+      </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="5" t="s">
@@ -7119,7 +7169,9 @@
       <c r="E167" s="6">
         <v>43472</v>
       </c>
-      <c r="F167" s="10"/>
+      <c r="F167" s="10">
+        <v>43500</v>
+      </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="5" t="s">
@@ -7260,7 +7312,9 @@
       <c r="E177" s="6">
         <v>43472</v>
       </c>
-      <c r="F177" s="10"/>
+      <c r="F177" s="10">
+        <v>43500</v>
+      </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="7" t="s">
@@ -7335,7 +7389,9 @@
       <c r="A184" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="B184" s="11"/>
+      <c r="B184" s="11">
+        <v>43500</v>
+      </c>
       <c r="C184" s="11"/>
       <c r="D184" s="15"/>
       <c r="E184" s="11">
@@ -7346,7 +7402,9 @@
       <c r="A185" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="B185" s="11"/>
+      <c r="B185" s="11">
+        <v>43500</v>
+      </c>
       <c r="C185" s="11"/>
       <c r="D185" s="15"/>
       <c r="E185" s="11">
@@ -7381,7 +7439,9 @@
       <c r="A188" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="B188" s="11"/>
+      <c r="B188" s="11">
+        <v>43500</v>
+      </c>
       <c r="C188" s="11"/>
       <c r="D188" s="15"/>
       <c r="E188" s="11">
@@ -7427,7 +7487,9 @@
       <c r="A192" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="B192" s="11"/>
+      <c r="B192" s="11">
+        <v>43500</v>
+      </c>
       <c r="C192" s="11"/>
       <c r="D192" s="15"/>
       <c r="E192" s="11">
@@ -7540,8 +7602,12 @@
       <c r="B199" s="4">
         <v>43476</v>
       </c>
-      <c r="C199" s="4"/>
-      <c r="D199" s="13"/>
+      <c r="C199" s="4">
+        <v>43500</v>
+      </c>
+      <c r="D199" s="13">
+        <v>54.4</v>
+      </c>
       <c r="E199" s="4">
         <v>43458</v>
       </c>
@@ -7622,8 +7688,12 @@
       <c r="B204" s="4">
         <v>43479</v>
       </c>
-      <c r="C204" s="4"/>
-      <c r="D204" s="13"/>
+      <c r="C204" s="4">
+        <v>43500</v>
+      </c>
+      <c r="D204" s="13">
+        <v>51.3</v>
+      </c>
       <c r="E204" s="4">
         <v>43458</v>
       </c>
@@ -7777,7 +7847,9 @@
       <c r="E213" s="6">
         <v>43472</v>
       </c>
-      <c r="F213" s="10"/>
+      <c r="F213" s="10">
+        <v>43500</v>
+      </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" s="5" t="s">
@@ -7844,8 +7916,12 @@
       <c r="B218" s="6">
         <v>43486</v>
       </c>
-      <c r="C218" s="6"/>
-      <c r="D218" s="14"/>
+      <c r="C218" s="6">
+        <v>43500</v>
+      </c>
+      <c r="D218" s="14">
+        <v>48.2</v>
+      </c>
       <c r="E218" s="6">
         <v>43472</v>
       </c>
@@ -7862,7 +7938,9 @@
       <c r="E219" s="6">
         <v>43472</v>
       </c>
-      <c r="F219" s="10"/>
+      <c r="F219" s="10">
+        <v>43500</v>
+      </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" s="5" t="s">
@@ -7884,8 +7962,12 @@
       <c r="B221" s="6">
         <v>43483</v>
       </c>
-      <c r="C221" s="6"/>
-      <c r="D221" s="14"/>
+      <c r="C221" s="6">
+        <v>43500</v>
+      </c>
+      <c r="D221" s="14">
+        <v>50.2</v>
+      </c>
       <c r="E221" s="6">
         <v>43472</v>
       </c>
@@ -7946,8 +8028,12 @@
       <c r="B225" s="6">
         <v>43483</v>
       </c>
-      <c r="C225" s="6"/>
-      <c r="D225" s="14"/>
+      <c r="C225" s="6">
+        <v>43500</v>
+      </c>
+      <c r="D225" s="14">
+        <v>34.200000000000003</v>
+      </c>
       <c r="E225" s="6">
         <v>43472</v>
       </c>
@@ -7959,7 +8045,9 @@
       <c r="A226" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="B226" s="11"/>
+      <c r="B226" s="11">
+        <v>43500</v>
+      </c>
       <c r="C226" s="11"/>
       <c r="D226" s="15"/>
       <c r="E226" s="11">
@@ -8076,7 +8164,9 @@
       <c r="E235" s="11">
         <v>43486</v>
       </c>
-      <c r="F235" s="10"/>
+      <c r="F235" s="10">
+        <v>43500</v>
+      </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" s="7" t="s">
@@ -8095,7 +8185,9 @@
       <c r="A237" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="B237" s="11"/>
+      <c r="B237" s="11">
+        <v>43500</v>
+      </c>
       <c r="C237" s="11"/>
       <c r="D237" s="15"/>
       <c r="E237" s="11">
@@ -8120,7 +8212,9 @@
       <c r="A239" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="B239" s="11"/>
+      <c r="B239" s="11">
+        <v>43500</v>
+      </c>
       <c r="C239" s="11"/>
       <c r="D239" s="15"/>
       <c r="E239" s="11">
@@ -8132,7 +8226,9 @@
       <c r="A240" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="B240" s="11"/>
+      <c r="B240" s="11">
+        <v>43500</v>
+      </c>
       <c r="C240" s="11"/>
       <c r="D240" s="15"/>
       <c r="E240" s="11">
@@ -8151,7 +8247,9 @@
       <c r="E241" s="11">
         <v>43486</v>
       </c>
-      <c r="F241" s="10"/>
+      <c r="F241" s="10">
+        <v>43500</v>
+      </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" s="3" t="s">
@@ -9643,8 +9741,12 @@
       <c r="B358" s="6">
         <v>43483</v>
       </c>
-      <c r="C358" s="6"/>
-      <c r="D358" s="14"/>
+      <c r="C358" s="6">
+        <v>43500</v>
+      </c>
+      <c r="D358" s="14">
+        <v>29.4</v>
+      </c>
       <c r="E358" s="6">
         <v>43472</v>
       </c>
@@ -9738,8 +9840,12 @@
       <c r="B364" s="6">
         <v>43486</v>
       </c>
-      <c r="C364" s="6"/>
-      <c r="D364" s="14"/>
+      <c r="C364" s="6">
+        <v>43500</v>
+      </c>
+      <c r="D364" s="14">
+        <v>27.8</v>
+      </c>
       <c r="E364" s="6">
         <v>43472</v>
       </c>
@@ -9751,8 +9857,12 @@
       <c r="B365" s="6">
         <v>43483</v>
       </c>
-      <c r="C365" s="6"/>
-      <c r="D365" s="14"/>
+      <c r="C365" s="6">
+        <v>43500</v>
+      </c>
+      <c r="D365" s="14">
+        <v>29.6</v>
+      </c>
       <c r="E365" s="6">
         <v>43472</v>
       </c>
@@ -9767,8 +9877,12 @@
       <c r="B366" s="6">
         <v>43481</v>
       </c>
-      <c r="C366" s="6"/>
-      <c r="D366" s="14"/>
+      <c r="C366" s="6">
+        <v>43493</v>
+      </c>
+      <c r="D366" s="14">
+        <v>28.6</v>
+      </c>
       <c r="E366" s="6">
         <v>43472</v>
       </c>
@@ -9780,8 +9894,12 @@
       <c r="B367" s="6">
         <v>43481</v>
       </c>
-      <c r="C367" s="6"/>
-      <c r="D367" s="14"/>
+      <c r="C367" s="6">
+        <v>43500</v>
+      </c>
+      <c r="D367" s="14">
+        <v>25.6</v>
+      </c>
       <c r="E367" s="6">
         <v>43472</v>
       </c>
@@ -9874,7 +9992,9 @@
       <c r="E373" s="11">
         <v>43486</v>
       </c>
-      <c r="F373" s="10"/>
+      <c r="F373" s="10">
+        <v>43500</v>
+      </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A374" s="7" t="s">
@@ -9901,7 +10021,9 @@
       <c r="E375" s="11">
         <v>43486</v>
       </c>
-      <c r="F375" s="10"/>
+      <c r="F375" s="10">
+        <v>43500</v>
+      </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A376" s="7" t="s">
@@ -9928,7 +10050,9 @@
       <c r="E377" s="11">
         <v>43486</v>
       </c>
-      <c r="F377" s="10"/>
+      <c r="F377" s="10">
+        <v>43500</v>
+      </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A378" s="7" t="s">
@@ -9982,7 +10106,9 @@
       <c r="E381" s="11">
         <v>43486</v>
       </c>
-      <c r="F381" s="10"/>
+      <c r="F381" s="10">
+        <v>43500</v>
+      </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A382" s="7" t="s">
@@ -10001,7 +10127,9 @@
       <c r="A383" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="B383" s="11"/>
+      <c r="B383" s="11">
+        <v>43500</v>
+      </c>
       <c r="C383" s="11"/>
       <c r="D383" s="15"/>
       <c r="E383" s="11">
@@ -10169,7 +10297,7 @@
         <v>397</v>
       </c>
       <c r="B396" s="4">
-        <v>43495</v>
+        <v>43500</v>
       </c>
       <c r="C396" s="4"/>
       <c r="D396" s="13"/>
@@ -10181,7 +10309,9 @@
       <c r="A397" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="B397" s="4"/>
+      <c r="B397" s="4">
+        <v>43500</v>
+      </c>
       <c r="C397" s="4"/>
       <c r="D397" s="13"/>
       <c r="E397" s="4">
@@ -10354,7 +10484,9 @@
       <c r="A411" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="B411" s="6"/>
+      <c r="B411" s="6">
+        <v>43500</v>
+      </c>
       <c r="C411" s="6"/>
       <c r="D411" s="14"/>
       <c r="E411" s="6">
@@ -10772,14 +10904,14 @@
       <c r="B445" s="4">
         <v>43488</v>
       </c>
-      <c r="C445" s="4">
-        <v>43497</v>
-      </c>
+      <c r="C445" s="4"/>
       <c r="D445" s="13"/>
       <c r="E445" s="4">
         <v>43458</v>
       </c>
-      <c r="F445" s="10"/>
+      <c r="F445" s="10">
+        <v>43497</v>
+      </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A446" s="3" t="s">
@@ -10804,13 +10936,17 @@
       <c r="E447" s="4">
         <v>43458</v>
       </c>
-      <c r="F447" s="10"/>
+      <c r="F447" s="10">
+        <v>43500</v>
+      </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A448" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="B448" s="4"/>
+      <c r="B448" s="4">
+        <v>43500</v>
+      </c>
       <c r="C448" s="4"/>
       <c r="D448" s="13"/>
       <c r="E448" s="4">
@@ -10933,7 +11069,9 @@
       <c r="A458" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="B458" s="6"/>
+      <c r="B458" s="6">
+        <v>43500</v>
+      </c>
       <c r="C458" s="6"/>
       <c r="D458" s="14"/>
       <c r="E458" s="6">
@@ -10952,7 +11090,9 @@
       <c r="E459" s="6">
         <v>43472</v>
       </c>
-      <c r="F459" s="10"/>
+      <c r="F459" s="10">
+        <v>43500</v>
+      </c>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A460" s="5" t="s">

--- a/data/observation_datasheet.xlsx
+++ b/data/observation_datasheet.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catchamberlain/Documents/git/chillfreeze/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{368483CA-8E4D-DC40-AB80-2AAF8495ECF9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{68B72D8C-43AE-074C-AAA8-4B251A6C527F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21500" yWindow="3660" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10300" yWindow="2020" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="observation_datasheet" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="493">
   <si>
     <t>ID</t>
   </si>
@@ -1497,6 +1497,9 @@
   </si>
   <si>
     <t>Damage</t>
+  </si>
+  <si>
+    <t>onemonth.ht</t>
   </si>
 </sst>
 </file>
@@ -1850,7 +1853,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1980,6 +1983,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2025,7 +2037,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -2048,6 +2060,7 @@
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4821,13 +4834,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G481"/>
+  <dimension ref="A1:H481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B432" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F445" sqref="F445"/>
+      <selection pane="bottomRight" activeCell="H207" sqref="H207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4838,7 +4851,7 @@
     <col min="5" max="6" width="10.7109375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>487</v>
       </c>
@@ -4857,8 +4870,11 @@
       <c r="F1" s="8" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1" s="22" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -4871,7 +4887,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -4883,7 +4899,7 @@
       </c>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -4896,7 +4912,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -4908,7 +4924,7 @@
       </c>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -4919,7 +4935,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -4931,7 +4947,7 @@
       </c>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -4942,7 +4958,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -4956,7 +4972,7 @@
       </c>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -4969,7 +4985,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
@@ -4983,7 +4999,7 @@
       </c>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
@@ -4994,7 +5010,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -5008,7 +5024,7 @@
       </c>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
@@ -5019,7 +5035,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
@@ -5033,7 +5049,7 @@
       </c>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
@@ -7966,7 +7982,7 @@
         <v>43500</v>
       </c>
       <c r="D221" s="14">
-        <v>50.2</v>
+        <v>43.6</v>
       </c>
       <c r="E221" s="6">
         <v>43472</v>
@@ -9353,7 +9369,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A337" s="7" t="s">
         <v>338</v>
       </c>
@@ -9365,7 +9381,7 @@
       </c>
       <c r="F337" s="10"/>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A338" s="3" t="s">
         <v>339</v>
       </c>
@@ -9382,7 +9398,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A339" s="3" t="s">
         <v>340</v>
       </c>
@@ -9402,7 +9418,7 @@
         <v>43473</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A340" s="3" t="s">
         <v>341</v>
       </c>
@@ -9419,7 +9435,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A341" s="3" t="s">
         <v>342</v>
       </c>
@@ -9439,7 +9455,7 @@
         <v>43469</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A342" s="3" t="s">
         <v>343</v>
       </c>
@@ -9456,7 +9472,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A343" s="3" t="s">
         <v>344</v>
       </c>
@@ -9476,7 +9492,7 @@
         <v>43469</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A344" s="3" t="s">
         <v>345</v>
       </c>
@@ -9493,7 +9509,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A345" s="3" t="s">
         <v>346</v>
       </c>
@@ -9513,7 +9529,7 @@
         <v>43469</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A346" s="3" t="s">
         <v>347</v>
       </c>
@@ -9530,7 +9546,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A347" s="3" t="s">
         <v>348</v>
       </c>
@@ -9550,7 +9566,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A348" s="3" t="s">
         <v>349</v>
       </c>
@@ -9567,7 +9583,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A349" s="3" t="s">
         <v>350</v>
       </c>
@@ -9587,7 +9603,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A350" s="3" t="s">
         <v>351</v>
       </c>
@@ -9604,7 +9620,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A351" s="3" t="s">
         <v>352</v>
       </c>
@@ -9627,7 +9643,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A352" s="3" t="s">
         <v>353</v>
       </c>
@@ -9642,6 +9658,9 @@
       </c>
       <c r="E352" s="4">
         <v>43458</v>
+      </c>
+      <c r="H352">
+        <v>55.4</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.2">

--- a/data/observation_datasheet.xlsx
+++ b/data/observation_datasheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catchamberlain/Documents/git/chillfreeze/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{68B72D8C-43AE-074C-AAA8-4B251A6C527F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2B196BC3-25CD-464E-8F03-64389092E804}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10300" yWindow="2020" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19360" yWindow="1780" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="observation_datasheet" sheetId="1" r:id="rId1"/>
@@ -4837,10 +4837,10 @@
   <dimension ref="A1:H481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B351" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H207" sqref="H207"/>
+      <selection pane="bottomRight" activeCell="D370" sqref="D370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5028,7 +5028,9 @@
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="4"/>
+      <c r="B14" s="4">
+        <v>43502</v>
+      </c>
       <c r="C14" s="4"/>
       <c r="D14" s="13"/>
       <c r="E14" s="4">
@@ -5047,7 +5049,9 @@
       <c r="E15" s="4">
         <v>43458</v>
       </c>
-      <c r="F15" s="10"/>
+      <c r="F15" s="10">
+        <v>43502</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
@@ -5453,8 +5457,12 @@
       <c r="B50" s="4">
         <v>43488</v>
       </c>
-      <c r="C50" s="4"/>
-      <c r="D50" s="13"/>
+      <c r="C50" s="4">
+        <v>43502</v>
+      </c>
+      <c r="D50" s="13">
+        <v>30</v>
+      </c>
       <c r="E50" s="4">
         <v>43458</v>
       </c>
@@ -5596,8 +5604,12 @@
       <c r="B60" s="4">
         <v>43479</v>
       </c>
-      <c r="C60" s="4"/>
-      <c r="D60" s="13"/>
+      <c r="C60" s="4">
+        <v>43502</v>
+      </c>
+      <c r="D60" s="13">
+        <v>52.4</v>
+      </c>
       <c r="E60" s="4">
         <v>43458</v>
       </c>
@@ -5650,8 +5662,12 @@
       <c r="B64" s="4">
         <v>43481</v>
       </c>
-      <c r="C64" s="4"/>
-      <c r="D64" s="13"/>
+      <c r="C64" s="4">
+        <v>43502</v>
+      </c>
+      <c r="D64" s="13">
+        <v>21.6</v>
+      </c>
       <c r="E64" s="4">
         <v>43458</v>
       </c>
@@ -5714,7 +5730,9 @@
       <c r="A69" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B69" s="6"/>
+      <c r="B69" s="6">
+        <v>43502</v>
+      </c>
       <c r="C69" s="6"/>
       <c r="D69" s="14"/>
       <c r="E69" s="6">
@@ -5774,7 +5792,9 @@
       <c r="E73" s="6">
         <v>43472</v>
       </c>
-      <c r="F73" s="10"/>
+      <c r="F73" s="10">
+        <v>43502</v>
+      </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
@@ -6028,7 +6048,9 @@
       <c r="A94" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B94" s="11"/>
+      <c r="B94" s="11">
+        <v>43502</v>
+      </c>
       <c r="C94" s="11"/>
       <c r="D94" s="15"/>
       <c r="E94" s="11">
@@ -6077,8 +6099,12 @@
       <c r="B98" s="4">
         <v>43483</v>
       </c>
-      <c r="C98" s="4"/>
-      <c r="D98" s="13"/>
+      <c r="C98" s="4">
+        <v>43502</v>
+      </c>
+      <c r="D98" s="13">
+        <v>40.200000000000003</v>
+      </c>
       <c r="E98" s="4">
         <v>43458</v>
       </c>
@@ -6164,8 +6190,12 @@
       <c r="B103" s="4">
         <v>43472</v>
       </c>
-      <c r="C103" s="4"/>
-      <c r="D103" s="13"/>
+      <c r="C103" s="4">
+        <v>43502</v>
+      </c>
+      <c r="D103" s="13">
+        <v>39.4</v>
+      </c>
       <c r="E103" s="4">
         <v>43458</v>
       </c>
@@ -6397,8 +6427,12 @@
       <c r="B116" s="6">
         <v>43486</v>
       </c>
-      <c r="C116" s="6"/>
-      <c r="D116" s="14"/>
+      <c r="C116" s="6">
+        <v>43502</v>
+      </c>
+      <c r="D116" s="14">
+        <v>36.4</v>
+      </c>
       <c r="E116" s="6">
         <v>43472</v>
       </c>
@@ -6534,8 +6568,12 @@
       <c r="B125" s="6">
         <v>43486</v>
       </c>
-      <c r="C125" s="6"/>
-      <c r="D125" s="14"/>
+      <c r="C125" s="6">
+        <v>43502</v>
+      </c>
+      <c r="D125" s="14">
+        <v>35</v>
+      </c>
       <c r="E125" s="6">
         <v>43472</v>
       </c>
@@ -6583,8 +6621,12 @@
       <c r="B128" s="6">
         <v>43486</v>
       </c>
-      <c r="C128" s="6"/>
-      <c r="D128" s="14"/>
+      <c r="C128" s="6">
+        <v>43502</v>
+      </c>
+      <c r="D128" s="14">
+        <v>38.700000000000003</v>
+      </c>
       <c r="E128" s="6">
         <v>43472</v>
       </c>
@@ -6649,7 +6691,9 @@
       <c r="A133" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="B133" s="11"/>
+      <c r="B133" s="11">
+        <v>43502</v>
+      </c>
       <c r="C133" s="11"/>
       <c r="D133" s="15"/>
       <c r="E133" s="11">
@@ -6726,7 +6770,9 @@
       <c r="A139" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="B139" s="11"/>
+      <c r="B139" s="11">
+        <v>43502</v>
+      </c>
       <c r="C139" s="11"/>
       <c r="D139" s="15"/>
       <c r="E139" s="11">
@@ -6738,7 +6784,9 @@
       <c r="A140" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B140" s="11"/>
+      <c r="B140" s="11">
+        <v>43502</v>
+      </c>
       <c r="C140" s="11"/>
       <c r="D140" s="15"/>
       <c r="E140" s="11">
@@ -6805,7 +6853,9 @@
       <c r="A145" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="B145" s="11"/>
+      <c r="B145" s="11">
+        <v>43502</v>
+      </c>
       <c r="C145" s="11"/>
       <c r="D145" s="15"/>
       <c r="E145" s="11">
@@ -6840,7 +6890,9 @@
       <c r="C147" s="4">
         <v>43500</v>
       </c>
-      <c r="D147" s="13"/>
+      <c r="D147" s="13">
+        <v>56.4</v>
+      </c>
       <c r="E147" s="4">
         <v>43458</v>
       </c>
@@ -6952,7 +7004,9 @@
       <c r="C153" s="4">
         <v>43500</v>
       </c>
-      <c r="D153" s="13"/>
+      <c r="D153" s="13">
+        <v>45.1</v>
+      </c>
       <c r="E153" s="4">
         <v>43458</v>
       </c>
@@ -6970,7 +7024,9 @@
       <c r="C154" s="4">
         <v>43500</v>
       </c>
-      <c r="D154" s="13"/>
+      <c r="D154" s="13">
+        <v>46.2</v>
+      </c>
       <c r="E154" s="4">
         <v>43458</v>
       </c>
@@ -6985,7 +7041,9 @@
       <c r="C155" s="4">
         <v>43500</v>
       </c>
-      <c r="D155" s="13"/>
+      <c r="D155" s="13">
+        <v>44.8</v>
+      </c>
       <c r="E155" s="4">
         <v>43458</v>
       </c>
@@ -7094,7 +7152,9 @@
       <c r="C161" s="4">
         <v>43500</v>
       </c>
-      <c r="D161" s="13"/>
+      <c r="D161" s="13">
+        <v>47</v>
+      </c>
       <c r="E161" s="4">
         <v>43458</v>
       </c>
@@ -7167,8 +7227,12 @@
       <c r="B166" s="6">
         <v>43486</v>
       </c>
-      <c r="C166" s="6"/>
-      <c r="D166" s="14"/>
+      <c r="C166" s="6">
+        <v>43502</v>
+      </c>
+      <c r="D166" s="14">
+        <v>36.200000000000003</v>
+      </c>
       <c r="E166" s="6">
         <v>43472</v>
       </c>
@@ -7272,7 +7336,9 @@
       <c r="E173" s="6">
         <v>43472</v>
       </c>
-      <c r="F173" s="10"/>
+      <c r="F173" s="10">
+        <v>43502</v>
+      </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="5" t="s">
@@ -7336,7 +7402,9 @@
       <c r="A178" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="B178" s="11"/>
+      <c r="B178" s="11">
+        <v>43502</v>
+      </c>
       <c r="C178" s="11"/>
       <c r="D178" s="15"/>
       <c r="E178" s="11">
@@ -7382,7 +7450,9 @@
       <c r="A182" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="B182" s="11"/>
+      <c r="B182" s="11">
+        <v>43502</v>
+      </c>
       <c r="C182" s="11"/>
       <c r="D182" s="15"/>
       <c r="E182" s="11">
@@ -7443,7 +7513,9 @@
       <c r="A187" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="B187" s="11"/>
+      <c r="B187" s="11">
+        <v>43502</v>
+      </c>
       <c r="C187" s="11"/>
       <c r="D187" s="15"/>
       <c r="E187" s="11">
@@ -7468,7 +7540,9 @@
       <c r="A189" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="B189" s="11"/>
+      <c r="B189" s="11">
+        <v>43502</v>
+      </c>
       <c r="C189" s="11"/>
       <c r="D189" s="15"/>
       <c r="E189" s="11">
@@ -7491,7 +7565,9 @@
       <c r="A191" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="B191" s="11"/>
+      <c r="B191" s="11">
+        <v>43502</v>
+      </c>
       <c r="C191" s="11"/>
       <c r="D191" s="15"/>
       <c r="E191" s="11">
@@ -7516,7 +7592,9 @@
       <c r="A193" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="B193" s="11"/>
+      <c r="B193" s="11">
+        <v>43502</v>
+      </c>
       <c r="C193" s="11"/>
       <c r="D193" s="15"/>
       <c r="E193" s="11">
@@ -7651,8 +7729,12 @@
       <c r="B201" s="4">
         <v>43488</v>
       </c>
-      <c r="C201" s="4"/>
-      <c r="D201" s="13"/>
+      <c r="C201" s="4">
+        <v>43502</v>
+      </c>
+      <c r="D201" s="13">
+        <v>51.8</v>
+      </c>
       <c r="E201" s="4">
         <v>43458</v>
       </c>
@@ -7836,7 +7918,9 @@
       <c r="E211" s="6">
         <v>43472</v>
       </c>
-      <c r="F211" s="10"/>
+      <c r="F211" s="10">
+        <v>43502</v>
+      </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" s="5" t="s">
@@ -7845,8 +7929,12 @@
       <c r="B212" s="6">
         <v>43486</v>
       </c>
-      <c r="C212" s="6"/>
-      <c r="D212" s="14"/>
+      <c r="C212" s="6">
+        <v>43502</v>
+      </c>
+      <c r="D212" s="14">
+        <v>57.6</v>
+      </c>
       <c r="E212" s="6">
         <v>43472</v>
       </c>
@@ -7887,8 +7975,12 @@
       <c r="B215" s="6">
         <v>43486</v>
       </c>
-      <c r="C215" s="6"/>
-      <c r="D215" s="14"/>
+      <c r="C215" s="6">
+        <v>43502</v>
+      </c>
+      <c r="D215" s="14">
+        <v>39.1</v>
+      </c>
       <c r="E215" s="6">
         <v>43472</v>
       </c>
@@ -7903,8 +7995,12 @@
       <c r="B216" s="6">
         <v>43488</v>
       </c>
-      <c r="C216" s="6"/>
-      <c r="D216" s="14"/>
+      <c r="C216" s="6">
+        <v>43502</v>
+      </c>
+      <c r="D216" s="14">
+        <v>52</v>
+      </c>
       <c r="E216" s="6">
         <v>43472</v>
       </c>
@@ -8015,8 +8111,12 @@
       <c r="B223" s="6">
         <v>43481</v>
       </c>
-      <c r="C223" s="6"/>
-      <c r="D223" s="14"/>
+      <c r="C223" s="6">
+        <v>43502</v>
+      </c>
+      <c r="D223" s="14">
+        <v>50.2</v>
+      </c>
       <c r="E223" s="6">
         <v>43472</v>
       </c>
@@ -8130,7 +8230,9 @@
       <c r="E231" s="11">
         <v>43486</v>
       </c>
-      <c r="F231" s="10"/>
+      <c r="F231" s="10">
+        <v>43502</v>
+      </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" s="7" t="s">
@@ -8149,7 +8251,9 @@
       <c r="A233" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="B233" s="11"/>
+      <c r="B233" s="11">
+        <v>43502</v>
+      </c>
       <c r="C233" s="11"/>
       <c r="D233" s="15"/>
       <c r="E233" s="11">
@@ -9814,8 +9918,12 @@
       <c r="B361" s="6">
         <v>43479</v>
       </c>
-      <c r="C361" s="6"/>
-      <c r="D361" s="14"/>
+      <c r="C361" s="6">
+        <v>43502</v>
+      </c>
+      <c r="D361" s="14">
+        <v>25.8</v>
+      </c>
       <c r="E361" s="6">
         <v>43472</v>
       </c>
@@ -9830,8 +9938,12 @@
       <c r="B362" s="6">
         <v>43481</v>
       </c>
-      <c r="C362" s="6"/>
-      <c r="D362" s="14"/>
+      <c r="C362" s="6">
+        <v>43502</v>
+      </c>
+      <c r="D362" s="14">
+        <v>24.2</v>
+      </c>
       <c r="E362" s="6">
         <v>43472</v>
       </c>
@@ -9943,23 +10055,30 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A369" s="5" t="s">
         <v>370</v>
       </c>
       <c r="B369" s="6">
         <v>43483</v>
       </c>
-      <c r="C369" s="6"/>
-      <c r="D369" s="14"/>
+      <c r="C369" s="6">
+        <v>43502</v>
+      </c>
+      <c r="D369" s="14">
+        <v>25.2</v>
+      </c>
       <c r="E369" s="6">
         <v>43472</v>
       </c>
       <c r="F369" s="10">
         <v>43488</v>
       </c>
-    </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G369" s="21">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A370" s="7" t="s">
         <v>371</v>
       </c>
@@ -9972,7 +10091,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A371" s="7" t="s">
         <v>372</v>
       </c>
@@ -9984,9 +10103,11 @@
       <c r="E371" s="11">
         <v>43486</v>
       </c>
-      <c r="F371" s="10"/>
-    </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F371" s="10">
+        <v>43502</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A372" s="7" t="s">
         <v>373</v>
       </c>
@@ -9999,7 +10120,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A373" s="7" t="s">
         <v>374</v>
       </c>
@@ -10015,7 +10136,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A374" s="7" t="s">
         <v>375</v>
       </c>
@@ -10028,7 +10149,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A375" s="7" t="s">
         <v>376</v>
       </c>
@@ -10044,7 +10165,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A376" s="7" t="s">
         <v>377</v>
       </c>
@@ -10057,7 +10178,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A377" s="7" t="s">
         <v>378</v>
       </c>
@@ -10073,7 +10194,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A378" s="7" t="s">
         <v>379</v>
       </c>
@@ -10086,7 +10207,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A379" s="7" t="s">
         <v>380</v>
       </c>
@@ -10098,9 +10219,11 @@
       <c r="E379" s="11">
         <v>43486</v>
       </c>
-      <c r="F379" s="10"/>
-    </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F379" s="10">
+        <v>43502</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A380" s="7" t="s">
         <v>381</v>
       </c>
@@ -10113,7 +10236,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A381" s="7" t="s">
         <v>382</v>
       </c>
@@ -10129,7 +10252,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A382" s="7" t="s">
         <v>383</v>
       </c>
@@ -10142,7 +10265,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A383" s="7" t="s">
         <v>384</v>
       </c>
@@ -10154,9 +10277,11 @@
       <c r="E383" s="11">
         <v>43486</v>
       </c>
-      <c r="F383" s="10"/>
-    </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F383" s="10">
+        <v>43502</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A384" s="7" t="s">
         <v>385</v>
       </c>
@@ -10511,7 +10636,9 @@
       <c r="E411" s="6">
         <v>43472</v>
       </c>
-      <c r="F411" s="10"/>
+      <c r="F411" s="10">
+        <v>43502</v>
+      </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A412" s="5" t="s">
@@ -10824,7 +10951,9 @@
       <c r="E437" s="4">
         <v>43458</v>
       </c>
-      <c r="F437" s="10"/>
+      <c r="F437" s="10">
+        <v>43502</v>
+      </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A438" s="3" t="s">
@@ -10843,7 +10972,9 @@
       <c r="A439" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="B439" s="4"/>
+      <c r="B439" s="4">
+        <v>43502</v>
+      </c>
       <c r="C439" s="4"/>
       <c r="D439" s="13"/>
       <c r="E439" s="4">
@@ -10855,7 +10986,9 @@
       <c r="A440" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="B440" s="4"/>
+      <c r="B440" s="4">
+        <v>43502</v>
+      </c>
       <c r="C440" s="4"/>
       <c r="D440" s="13"/>
       <c r="E440" s="4">
@@ -11001,7 +11134,9 @@
       <c r="A451" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="B451" s="6"/>
+      <c r="B451" s="6">
+        <v>43502</v>
+      </c>
       <c r="C451" s="6"/>
       <c r="D451" s="14"/>
       <c r="E451" s="6">
@@ -11025,7 +11160,7 @@
         <v>454</v>
       </c>
       <c r="B453" s="6">
-        <v>43497</v>
+        <v>43502</v>
       </c>
       <c r="C453" s="6"/>
       <c r="D453" s="14"/>
@@ -11051,7 +11186,9 @@
       <c r="A455" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="B455" s="6"/>
+      <c r="B455" s="6">
+        <v>43502</v>
+      </c>
       <c r="C455" s="6"/>
       <c r="D455" s="14"/>
       <c r="E455" s="6">
@@ -11188,7 +11325,9 @@
       <c r="A466" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="B466" s="11"/>
+      <c r="B466" s="11">
+        <v>43502</v>
+      </c>
       <c r="C466" s="11"/>
       <c r="D466" s="15"/>
       <c r="E466" s="11">
@@ -11199,7 +11338,9 @@
       <c r="A467" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="B467" s="11"/>
+      <c r="B467" s="11">
+        <v>43502</v>
+      </c>
       <c r="C467" s="11"/>
       <c r="D467" s="15"/>
       <c r="E467" s="11">
@@ -11303,7 +11444,9 @@
       <c r="A476" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="B476" s="11"/>
+      <c r="B476" s="11">
+        <v>43502</v>
+      </c>
       <c r="C476" s="11"/>
       <c r="D476" s="15"/>
       <c r="E476" s="11">
@@ -11326,7 +11469,9 @@
       <c r="A478" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="B478" s="11"/>
+      <c r="B478" s="11">
+        <v>43502</v>
+      </c>
       <c r="C478" s="11"/>
       <c r="D478" s="15"/>
       <c r="E478" s="11">
@@ -11337,7 +11482,9 @@
       <c r="A479" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="B479" s="11"/>
+      <c r="B479" s="11">
+        <v>43502</v>
+      </c>
       <c r="C479" s="11"/>
       <c r="D479" s="15"/>
       <c r="E479" s="11">

--- a/data/observation_datasheet.xlsx
+++ b/data/observation_datasheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catchamberlain/Documents/git/chillfreeze/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2B196BC3-25CD-464E-8F03-64389092E804}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B42A0D60-0D70-6845-B468-A3349B17553F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19360" yWindow="1780" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4837,10 +4837,10 @@
   <dimension ref="A1:H481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B351" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B443" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D370" sqref="D370"/>
+      <selection pane="bottomRight" activeCell="B472" sqref="B472"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4928,7 +4928,9 @@
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4"/>
+      <c r="B6" s="4">
+        <v>43504</v>
+      </c>
       <c r="C6" s="4"/>
       <c r="D6" s="13"/>
       <c r="E6" s="4">
@@ -4997,7 +4999,9 @@
       <c r="E11" s="4">
         <v>43458</v>
       </c>
-      <c r="F11" s="10"/>
+      <c r="F11" s="10">
+        <v>43504</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
@@ -5022,7 +5026,9 @@
       <c r="E13" s="4">
         <v>43458</v>
       </c>
-      <c r="F13" s="10"/>
+      <c r="F13" s="10">
+        <v>43504</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
@@ -5153,7 +5159,9 @@
       <c r="A24" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="6"/>
+      <c r="B24" s="6">
+        <v>43504</v>
+      </c>
       <c r="C24" s="6"/>
       <c r="D24" s="14"/>
       <c r="E24" s="6">
@@ -5258,7 +5266,9 @@
       <c r="A33" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="6"/>
+      <c r="B33" s="6">
+        <v>43504</v>
+      </c>
       <c r="C33" s="6"/>
       <c r="D33" s="14"/>
       <c r="E33" s="6">
@@ -5503,8 +5513,12 @@
       <c r="B53" s="4">
         <v>43483</v>
       </c>
-      <c r="C53" s="4"/>
-      <c r="D53" s="13"/>
+      <c r="C53" s="4">
+        <v>43504</v>
+      </c>
+      <c r="D53" s="13">
+        <v>29.4</v>
+      </c>
       <c r="E53" s="4">
         <v>43458</v>
       </c>
@@ -5548,8 +5562,12 @@
       <c r="B56" s="4">
         <v>43481</v>
       </c>
-      <c r="C56" s="4"/>
-      <c r="D56" s="13"/>
+      <c r="C56" s="4">
+        <v>43504</v>
+      </c>
+      <c r="D56" s="13">
+        <v>33.299999999999997</v>
+      </c>
       <c r="E56" s="4">
         <v>43458</v>
       </c>
@@ -5577,8 +5595,12 @@
       <c r="B58" s="4">
         <v>43486</v>
       </c>
-      <c r="C58" s="4"/>
-      <c r="D58" s="13"/>
+      <c r="C58" s="4">
+        <v>43504</v>
+      </c>
+      <c r="D58" s="13">
+        <v>28.9</v>
+      </c>
       <c r="E58" s="4">
         <v>43458</v>
       </c>
@@ -5595,7 +5617,9 @@
       <c r="E59" s="4">
         <v>43458</v>
       </c>
-      <c r="F59" s="10"/>
+      <c r="F59" s="10">
+        <v>43504</v>
+      </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
@@ -5633,8 +5657,12 @@
       <c r="B62" s="4">
         <v>43479</v>
       </c>
-      <c r="C62" s="4"/>
-      <c r="D62" s="13"/>
+      <c r="C62" s="4">
+        <v>43504</v>
+      </c>
+      <c r="D62" s="13">
+        <v>26.2</v>
+      </c>
       <c r="E62" s="4">
         <v>43458</v>
       </c>
@@ -5646,8 +5674,12 @@
       <c r="B63" s="4">
         <v>43481</v>
       </c>
-      <c r="C63" s="4"/>
-      <c r="D63" s="13"/>
+      <c r="C63" s="4">
+        <v>43504</v>
+      </c>
+      <c r="D63" s="13">
+        <v>32.200000000000003</v>
+      </c>
       <c r="E63" s="4">
         <v>43458</v>
       </c>
@@ -5738,7 +5770,9 @@
       <c r="E69" s="6">
         <v>43472</v>
       </c>
-      <c r="F69" s="10"/>
+      <c r="F69" s="10">
+        <v>43504</v>
+      </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
@@ -5933,7 +5967,9 @@
       <c r="A84" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B84" s="11"/>
+      <c r="B84" s="11">
+        <v>43502</v>
+      </c>
       <c r="C84" s="11"/>
       <c r="D84" s="15"/>
       <c r="E84" s="11">
@@ -5944,7 +5980,9 @@
       <c r="A85" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B85" s="11"/>
+      <c r="B85" s="11">
+        <v>43502</v>
+      </c>
       <c r="C85" s="11"/>
       <c r="D85" s="15"/>
       <c r="E85" s="11">
@@ -5956,7 +5994,9 @@
       <c r="A86" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B86" s="11"/>
+      <c r="B86" s="11">
+        <v>43504</v>
+      </c>
       <c r="C86" s="11"/>
       <c r="D86" s="15"/>
       <c r="E86" s="11">
@@ -6002,7 +6042,9 @@
       <c r="A90" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B90" s="11"/>
+      <c r="B90" s="11">
+        <v>43504</v>
+      </c>
       <c r="C90" s="11"/>
       <c r="D90" s="15"/>
       <c r="E90" s="11">
@@ -6061,7 +6103,9 @@
       <c r="A95" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B95" s="11"/>
+      <c r="B95" s="11">
+        <v>43504</v>
+      </c>
       <c r="C95" s="11"/>
       <c r="D95" s="15"/>
       <c r="E95" s="11">
@@ -6489,8 +6533,12 @@
       <c r="B120" s="6">
         <v>43483</v>
       </c>
-      <c r="C120" s="6"/>
-      <c r="D120" s="14"/>
+      <c r="C120" s="6">
+        <v>43504</v>
+      </c>
+      <c r="D120" s="14">
+        <v>27.8</v>
+      </c>
       <c r="E120" s="6">
         <v>43472</v>
       </c>
@@ -6638,8 +6686,12 @@
       <c r="B129" s="6">
         <v>43486</v>
       </c>
-      <c r="C129" s="6"/>
-      <c r="D129" s="14"/>
+      <c r="C129" s="6">
+        <v>43504</v>
+      </c>
+      <c r="D129" s="14">
+        <v>47.1</v>
+      </c>
       <c r="E129" s="6">
         <v>43472</v>
       </c>
@@ -6672,7 +6724,9 @@
       <c r="E131" s="11">
         <v>43486</v>
       </c>
-      <c r="F131" s="10"/>
+      <c r="F131" s="10">
+        <v>43504</v>
+      </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="7" t="s">
@@ -6834,7 +6888,9 @@
       <c r="E143" s="11">
         <v>43486</v>
       </c>
-      <c r="F143" s="10"/>
+      <c r="F143" s="10">
+        <v>43504</v>
+      </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="7" t="s">
@@ -7169,8 +7225,12 @@
       <c r="B162" s="6">
         <v>43486</v>
       </c>
-      <c r="C162" s="6"/>
-      <c r="D162" s="14"/>
+      <c r="C162" s="6">
+        <v>43504</v>
+      </c>
+      <c r="D162" s="14">
+        <v>50.2</v>
+      </c>
       <c r="E162" s="6">
         <v>43472</v>
       </c>
@@ -7198,8 +7258,12 @@
       <c r="B164" s="6">
         <v>43488</v>
       </c>
-      <c r="C164" s="6"/>
-      <c r="D164" s="14"/>
+      <c r="C164" s="6">
+        <v>43504</v>
+      </c>
+      <c r="D164" s="14">
+        <v>36</v>
+      </c>
       <c r="E164" s="6">
         <v>43472</v>
       </c>
@@ -7273,8 +7337,12 @@
       <c r="B169" s="6">
         <v>43486</v>
       </c>
-      <c r="C169" s="6"/>
-      <c r="D169" s="14"/>
+      <c r="C169" s="6">
+        <v>43504</v>
+      </c>
+      <c r="D169" s="14">
+        <v>46</v>
+      </c>
       <c r="E169" s="6">
         <v>43472</v>
       </c>
@@ -7289,8 +7357,12 @@
       <c r="B170" s="6">
         <v>43490</v>
       </c>
-      <c r="C170" s="6"/>
-      <c r="D170" s="14"/>
+      <c r="C170" s="6">
+        <v>43504</v>
+      </c>
+      <c r="D170" s="14">
+        <v>51.3</v>
+      </c>
       <c r="E170" s="6">
         <v>43472</v>
       </c>
@@ -7302,8 +7374,12 @@
       <c r="B171" s="6">
         <v>43488</v>
       </c>
-      <c r="C171" s="6"/>
-      <c r="D171" s="14"/>
+      <c r="C171" s="6">
+        <v>43504</v>
+      </c>
+      <c r="D171" s="14">
+        <v>34.200000000000003</v>
+      </c>
       <c r="E171" s="6">
         <v>43472</v>
       </c>
@@ -7318,8 +7394,12 @@
       <c r="B172" s="6">
         <v>43488</v>
       </c>
-      <c r="C172" s="6"/>
-      <c r="D172" s="14"/>
+      <c r="C172" s="6">
+        <v>43504</v>
+      </c>
+      <c r="D172" s="14">
+        <v>43.6</v>
+      </c>
       <c r="E172" s="6">
         <v>43472</v>
       </c>
@@ -7347,8 +7427,12 @@
       <c r="B174" s="6">
         <v>43490</v>
       </c>
-      <c r="C174" s="6"/>
-      <c r="D174" s="14"/>
+      <c r="C174" s="6">
+        <v>43504</v>
+      </c>
+      <c r="D174" s="14">
+        <v>46.2</v>
+      </c>
       <c r="E174" s="6">
         <v>43472</v>
       </c>
@@ -7360,8 +7444,12 @@
       <c r="B175" s="6">
         <v>43490</v>
       </c>
-      <c r="C175" s="6"/>
-      <c r="D175" s="14"/>
+      <c r="C175" s="6">
+        <v>43504</v>
+      </c>
+      <c r="D175" s="14">
+        <v>47.4</v>
+      </c>
       <c r="E175" s="6">
         <v>43472</v>
       </c>
@@ -7376,8 +7464,12 @@
       <c r="B176" s="6">
         <v>43488</v>
       </c>
-      <c r="C176" s="6"/>
-      <c r="D176" s="14"/>
+      <c r="C176" s="6">
+        <v>43504</v>
+      </c>
+      <c r="D176" s="14">
+        <v>56.8</v>
+      </c>
       <c r="E176" s="6">
         <v>43472</v>
       </c>
@@ -7415,7 +7507,9 @@
       <c r="A179" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="B179" s="11"/>
+      <c r="B179" s="11">
+        <v>43504</v>
+      </c>
       <c r="C179" s="11"/>
       <c r="D179" s="15"/>
       <c r="E179" s="11">
@@ -7463,7 +7557,9 @@
       <c r="A183" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="B183" s="11"/>
+      <c r="B183" s="11">
+        <v>43504</v>
+      </c>
       <c r="C183" s="11"/>
       <c r="D183" s="15"/>
       <c r="E183" s="11">
@@ -7496,7 +7592,9 @@
       <c r="E185" s="11">
         <v>43486</v>
       </c>
-      <c r="F185" s="10"/>
+      <c r="F185" s="10">
+        <v>43504</v>
+      </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" s="7" t="s">
@@ -7663,8 +7761,12 @@
       <c r="B197" s="4">
         <v>43488</v>
       </c>
-      <c r="C197" s="4"/>
-      <c r="D197" s="13"/>
+      <c r="C197" s="4">
+        <v>43504</v>
+      </c>
+      <c r="D197" s="13">
+        <v>31.8</v>
+      </c>
       <c r="E197" s="4">
         <v>43458</v>
       </c>
@@ -7716,8 +7818,12 @@
       <c r="B200" s="4">
         <v>43479</v>
       </c>
-      <c r="C200" s="4"/>
-      <c r="D200" s="13"/>
+      <c r="C200" s="4">
+        <v>43504</v>
+      </c>
+      <c r="D200" s="13">
+        <v>51.6</v>
+      </c>
       <c r="E200" s="4">
         <v>43458</v>
       </c>
@@ -7900,8 +8006,12 @@
       <c r="B210" s="6">
         <v>43486</v>
       </c>
-      <c r="C210" s="6"/>
-      <c r="D210" s="14"/>
+      <c r="C210" s="6">
+        <v>43504</v>
+      </c>
+      <c r="D210" s="14">
+        <v>48.4</v>
+      </c>
       <c r="E210" s="6">
         <v>43472</v>
       </c>
@@ -8131,8 +8241,12 @@
       <c r="B224" s="6">
         <v>43486</v>
       </c>
-      <c r="C224" s="6"/>
-      <c r="D224" s="14"/>
+      <c r="C224" s="6">
+        <v>43504</v>
+      </c>
+      <c r="D224" s="14">
+        <v>45</v>
+      </c>
       <c r="E224" s="6">
         <v>43472</v>
       </c>
@@ -8182,13 +8296,17 @@
       <c r="E227" s="11">
         <v>43486</v>
       </c>
-      <c r="F227" s="10"/>
+      <c r="F227" s="10">
+        <v>43504</v>
+      </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="B228" s="11"/>
+      <c r="B228" s="11">
+        <v>43504</v>
+      </c>
       <c r="C228" s="11"/>
       <c r="D228" s="15"/>
       <c r="E228" s="11">
@@ -8199,7 +8317,9 @@
       <c r="A229" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="B229" s="11"/>
+      <c r="B229" s="11">
+        <v>43504</v>
+      </c>
       <c r="C229" s="11"/>
       <c r="D229" s="15"/>
       <c r="E229" s="11">
@@ -9811,8 +9931,12 @@
       <c r="B355" s="6">
         <v>43486</v>
       </c>
-      <c r="C355" s="6"/>
-      <c r="D355" s="14"/>
+      <c r="C355" s="6">
+        <v>43504</v>
+      </c>
+      <c r="D355" s="14">
+        <v>31.8</v>
+      </c>
       <c r="E355" s="6">
         <v>43472</v>
       </c>
@@ -9955,8 +10079,12 @@
       <c r="B363" s="6">
         <v>43483</v>
       </c>
-      <c r="C363" s="6"/>
-      <c r="D363" s="14"/>
+      <c r="C363" s="6">
+        <v>43504</v>
+      </c>
+      <c r="D363" s="14">
+        <v>20.399999999999999</v>
+      </c>
       <c r="E363" s="6">
         <v>43472</v>
       </c>
@@ -10085,8 +10213,12 @@
       <c r="B370" s="11">
         <v>43495</v>
       </c>
-      <c r="C370" s="11"/>
-      <c r="D370" s="15"/>
+      <c r="C370" s="11">
+        <v>43502</v>
+      </c>
+      <c r="D370" s="15">
+        <v>25.2</v>
+      </c>
       <c r="E370" s="11">
         <v>43486</v>
       </c>
@@ -10288,8 +10420,12 @@
       <c r="B384" s="11">
         <v>43490</v>
       </c>
-      <c r="C384" s="11"/>
-      <c r="D384" s="15"/>
+      <c r="C384" s="11">
+        <v>43504</v>
+      </c>
+      <c r="D384" s="15">
+        <v>22.4</v>
+      </c>
       <c r="E384" s="11">
         <v>43486</v>
       </c>
@@ -10324,7 +10460,9 @@
       <c r="A387" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="B387" s="4"/>
+      <c r="B387" s="4">
+        <v>43504</v>
+      </c>
       <c r="C387" s="4"/>
       <c r="D387" s="13"/>
       <c r="E387" s="4">
@@ -10350,8 +10488,12 @@
       <c r="B389" s="4">
         <v>43490</v>
       </c>
-      <c r="C389" s="4"/>
-      <c r="D389" s="13"/>
+      <c r="C389" s="4">
+        <v>43504</v>
+      </c>
+      <c r="D389" s="13">
+        <v>49.8</v>
+      </c>
       <c r="E389" s="4">
         <v>43458</v>
       </c>
@@ -10418,8 +10560,12 @@
       <c r="B394" s="4">
         <v>43488</v>
       </c>
-      <c r="C394" s="4"/>
-      <c r="D394" s="13"/>
+      <c r="C394" s="4">
+        <v>43504</v>
+      </c>
+      <c r="D394" s="13">
+        <v>44.8</v>
+      </c>
       <c r="E394" s="4">
         <v>43458</v>
       </c>
@@ -10428,7 +10574,9 @@
       <c r="A395" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="B395" s="4"/>
+      <c r="B395" s="4">
+        <v>43504</v>
+      </c>
       <c r="C395" s="4"/>
       <c r="D395" s="13"/>
       <c r="E395" s="4">
@@ -10461,7 +10609,9 @@
       <c r="E397" s="4">
         <v>43458</v>
       </c>
-      <c r="F397" s="10"/>
+      <c r="F397" s="10">
+        <v>43504</v>
+      </c>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A398" s="3" t="s">
@@ -10548,7 +10698,9 @@
       <c r="A404" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="B404" s="6"/>
+      <c r="B404" s="6">
+        <v>43504</v>
+      </c>
       <c r="C404" s="6"/>
       <c r="D404" s="14"/>
       <c r="E404" s="6">
@@ -10559,7 +10711,9 @@
       <c r="A405" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="B405" s="6"/>
+      <c r="B405" s="6">
+        <v>43504</v>
+      </c>
       <c r="C405" s="6"/>
       <c r="D405" s="14"/>
       <c r="E405" s="6">
@@ -10962,8 +11116,12 @@
       <c r="B438" s="4">
         <v>43488</v>
       </c>
-      <c r="C438" s="4"/>
-      <c r="D438" s="13"/>
+      <c r="C438" s="4">
+        <v>43504</v>
+      </c>
+      <c r="D438" s="13">
+        <v>19.5</v>
+      </c>
       <c r="E438" s="4">
         <v>43458</v>
       </c>
@@ -11265,7 +11423,9 @@
       <c r="A461" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="B461" s="6"/>
+      <c r="B461" s="6">
+        <v>43504</v>
+      </c>
       <c r="C461" s="6"/>
       <c r="D461" s="14"/>
       <c r="E461" s="6">
@@ -11288,7 +11448,9 @@
       <c r="A463" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="B463" s="6"/>
+      <c r="B463" s="6">
+        <v>43504</v>
+      </c>
       <c r="C463" s="6"/>
       <c r="D463" s="14"/>
       <c r="E463" s="6">
@@ -11386,7 +11548,9 @@
       <c r="A471" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="B471" s="11"/>
+      <c r="B471" s="11">
+        <v>43504</v>
+      </c>
       <c r="C471" s="11"/>
       <c r="D471" s="15"/>
       <c r="E471" s="11">

--- a/data/observation_datasheet.xlsx
+++ b/data/observation_datasheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catchamberlain/Documents/git/chillfreeze/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B42A0D60-0D70-6845-B468-A3349B17553F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{889A8DBB-66AB-C940-AB9F-8A9F43A10C73}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19360" yWindow="1780" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="498">
   <si>
     <t>ID</t>
   </si>
@@ -1500,6 +1500,21 @@
   </si>
   <si>
     <t>onemonth.ht</t>
+  </si>
+  <si>
+    <t>Chl1</t>
+  </si>
+  <si>
+    <t>Chl2</t>
+  </si>
+  <si>
+    <t>Chl3</t>
+  </si>
+  <si>
+    <t>Chl4</t>
+  </si>
+  <si>
+    <t>ChlAvg</t>
   </si>
 </sst>
 </file>
@@ -4834,13 +4849,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H481"/>
+  <dimension ref="A1:M481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B443" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B196" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B472" sqref="B472"/>
+      <selection pane="bottomRight" activeCell="O210" sqref="O210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4851,7 +4866,7 @@
     <col min="5" max="6" width="10.7109375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>487</v>
       </c>
@@ -4873,21 +4888,40 @@
       <c r="H1" s="22" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="22" t="s">
+        <v>493</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>494</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>495</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>496</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="4">
         <v>43497</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="13"/>
+      <c r="C2" s="4">
+        <v>43507</v>
+      </c>
+      <c r="D2" s="13">
+        <v>29.6</v>
+      </c>
       <c r="E2" s="4">
         <v>43458</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -4899,24 +4933,30 @@
       </c>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="4">
         <v>43495</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="13"/>
+      <c r="C4" s="4">
+        <v>43507</v>
+      </c>
+      <c r="D4" s="13">
+        <v>30.1</v>
+      </c>
       <c r="E4" s="4">
         <v>43458</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="4">
+        <v>43507</v>
+      </c>
       <c r="C5" s="4"/>
       <c r="D5" s="13"/>
       <c r="E5" s="4">
@@ -4924,7 +4964,7 @@
       </c>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -4937,7 +4977,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -4949,7 +4989,7 @@
       </c>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -4960,7 +5000,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -4974,7 +5014,7 @@
       </c>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -4987,7 +5027,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
@@ -5003,7 +5043,7 @@
         <v>43504</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
@@ -5014,7 +5054,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -5030,7 +5070,7 @@
         <v>43504</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
@@ -5043,7 +5083,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
@@ -5059,7 +5099,7 @@
         <v>43502</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
@@ -5113,7 +5153,9 @@
       <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="6"/>
+      <c r="B20" s="6">
+        <v>43507</v>
+      </c>
       <c r="C20" s="6"/>
       <c r="D20" s="14"/>
       <c r="E20" s="6">
@@ -5172,7 +5214,9 @@
       <c r="A25" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="6"/>
+      <c r="B25" s="6">
+        <v>43507</v>
+      </c>
       <c r="C25" s="6"/>
       <c r="D25" s="14"/>
       <c r="E25" s="6">
@@ -5230,7 +5274,9 @@
       <c r="A30" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="6"/>
+      <c r="B30" s="6">
+        <v>43507</v>
+      </c>
       <c r="C30" s="6"/>
       <c r="D30" s="14"/>
       <c r="E30" s="6">
@@ -5500,8 +5546,12 @@
       <c r="B52" s="4">
         <v>43488</v>
       </c>
-      <c r="C52" s="4"/>
-      <c r="D52" s="13"/>
+      <c r="C52" s="4">
+        <v>43507</v>
+      </c>
+      <c r="D52" s="13">
+        <v>20.2</v>
+      </c>
       <c r="E52" s="4">
         <v>43458</v>
       </c>
@@ -5579,8 +5629,12 @@
       <c r="B57" s="4">
         <v>43488</v>
       </c>
-      <c r="C57" s="4"/>
-      <c r="D57" s="13"/>
+      <c r="C57" s="4">
+        <v>43507</v>
+      </c>
+      <c r="D57" s="13">
+        <v>35.200000000000003</v>
+      </c>
       <c r="E57" s="4">
         <v>43458</v>
       </c>
@@ -5711,8 +5765,12 @@
       <c r="B65" s="4">
         <v>43473</v>
       </c>
-      <c r="C65" s="4"/>
-      <c r="D65" s="13"/>
+      <c r="C65" s="4">
+        <v>43507</v>
+      </c>
+      <c r="D65" s="13">
+        <v>31.6</v>
+      </c>
       <c r="E65" s="4">
         <v>43458</v>
       </c>
@@ -5724,7 +5782,9 @@
       <c r="A66" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B66" s="6"/>
+      <c r="B66" s="6">
+        <v>43507</v>
+      </c>
       <c r="C66" s="6"/>
       <c r="D66" s="14"/>
       <c r="E66" s="6">
@@ -5743,7 +5803,9 @@
       <c r="E67" s="6">
         <v>43472</v>
       </c>
-      <c r="F67" s="10"/>
+      <c r="F67" s="10">
+        <v>43507</v>
+      </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
@@ -5880,7 +5942,9 @@
       <c r="E77" s="6">
         <v>43472</v>
       </c>
-      <c r="F77" s="10"/>
+      <c r="F77" s="10">
+        <v>43507</v>
+      </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
@@ -5955,7 +6019,9 @@
       <c r="A83" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B83" s="11"/>
+      <c r="B83" s="11">
+        <v>43507</v>
+      </c>
       <c r="C83" s="11"/>
       <c r="D83" s="15"/>
       <c r="E83" s="11">
@@ -6055,7 +6121,9 @@
       <c r="A91" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B91" s="11"/>
+      <c r="B91" s="11">
+        <v>43507</v>
+      </c>
       <c r="C91" s="11"/>
       <c r="D91" s="15"/>
       <c r="E91" s="11">
@@ -6078,7 +6146,9 @@
       <c r="A93" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B93" s="11"/>
+      <c r="B93" s="11">
+        <v>43507</v>
+      </c>
       <c r="C93" s="11"/>
       <c r="D93" s="15"/>
       <c r="E93" s="11">
@@ -6117,7 +6187,9 @@
       <c r="A96" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B96" s="11"/>
+      <c r="B96" s="11">
+        <v>43507</v>
+      </c>
       <c r="C96" s="11"/>
       <c r="D96" s="15"/>
       <c r="E96" s="11">
@@ -6442,8 +6514,12 @@
       <c r="B114" s="6">
         <v>43488</v>
       </c>
-      <c r="C114" s="6"/>
-      <c r="D114" s="14"/>
+      <c r="C114" s="6">
+        <v>43507</v>
+      </c>
+      <c r="D114" s="14">
+        <v>28.4</v>
+      </c>
       <c r="E114" s="6">
         <v>43472</v>
       </c>
@@ -6550,8 +6626,12 @@
       <c r="B121" s="6">
         <v>43486</v>
       </c>
-      <c r="C121" s="6"/>
-      <c r="D121" s="14"/>
+      <c r="C121" s="6">
+        <v>43507</v>
+      </c>
+      <c r="D121" s="14">
+        <v>29.2</v>
+      </c>
       <c r="E121" s="6">
         <v>43472</v>
       </c>
@@ -6753,7 +6833,9 @@
       <c r="E133" s="11">
         <v>43486</v>
       </c>
-      <c r="F133" s="10"/>
+      <c r="F133" s="10">
+        <v>43507</v>
+      </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="7" t="s">
@@ -6772,7 +6854,9 @@
       <c r="A135" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B135" s="11"/>
+      <c r="B135" s="11">
+        <v>43507</v>
+      </c>
       <c r="C135" s="11"/>
       <c r="D135" s="15"/>
       <c r="E135" s="11">
@@ -6832,7 +6916,9 @@
       <c r="E139" s="11">
         <v>43486</v>
       </c>
-      <c r="F139" s="10"/>
+      <c r="F139" s="10">
+        <v>43507</v>
+      </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="7" t="s">
@@ -6917,7 +7003,9 @@
       <c r="E145" s="11">
         <v>43486</v>
       </c>
-      <c r="F145" s="10"/>
+      <c r="F145" s="10">
+        <v>43507</v>
+      </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
@@ -7324,8 +7412,12 @@
       <c r="B168" s="6">
         <v>43490</v>
       </c>
-      <c r="C168" s="6"/>
-      <c r="D168" s="14"/>
+      <c r="C168" s="6">
+        <v>43507</v>
+      </c>
+      <c r="D168" s="14">
+        <v>59.1</v>
+      </c>
       <c r="E168" s="6">
         <v>43472</v>
       </c>
@@ -7515,13 +7607,17 @@
       <c r="E179" s="11">
         <v>43486</v>
       </c>
-      <c r="F179" s="10"/>
+      <c r="F179" s="10">
+        <v>43507</v>
+      </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="B180" s="11"/>
+      <c r="B180" s="11">
+        <v>43507</v>
+      </c>
       <c r="C180" s="11"/>
       <c r="D180" s="15"/>
       <c r="E180" s="11">
@@ -7532,7 +7628,9 @@
       <c r="A181" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="B181" s="11"/>
+      <c r="B181" s="11">
+        <v>43507</v>
+      </c>
       <c r="C181" s="11"/>
       <c r="D181" s="15"/>
       <c r="E181" s="11">
@@ -7600,7 +7698,9 @@
       <c r="A186" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="B186" s="11"/>
+      <c r="B186" s="11">
+        <v>43507</v>
+      </c>
       <c r="C186" s="11"/>
       <c r="D186" s="15"/>
       <c r="E186" s="11">
@@ -7619,7 +7719,9 @@
       <c r="E187" s="11">
         <v>43486</v>
       </c>
-      <c r="F187" s="10"/>
+      <c r="F187" s="10">
+        <v>43507</v>
+      </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" s="7" t="s">
@@ -7646,13 +7748,17 @@
       <c r="E189" s="11">
         <v>43486</v>
       </c>
-      <c r="F189" s="10"/>
+      <c r="F189" s="10">
+        <v>43507</v>
+      </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="B190" s="11"/>
+      <c r="B190" s="11">
+        <v>43507</v>
+      </c>
       <c r="C190" s="11"/>
       <c r="D190" s="15"/>
       <c r="E190" s="11">
@@ -7671,7 +7777,9 @@
       <c r="E191" s="11">
         <v>43486</v>
       </c>
-      <c r="F191" s="10"/>
+      <c r="F191" s="10">
+        <v>43507</v>
+      </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" s="7" t="s">
@@ -7686,7 +7794,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A193" s="7" t="s">
         <v>194</v>
       </c>
@@ -7698,9 +7806,11 @@
       <c r="E193" s="11">
         <v>43486</v>
       </c>
-      <c r="F193" s="10"/>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F193" s="10">
+        <v>43507</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
         <v>195</v>
       </c>
@@ -7717,7 +7827,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
         <v>196</v>
       </c>
@@ -7737,7 +7847,7 @@
         <v>43479</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
         <v>197</v>
       </c>
@@ -7754,7 +7864,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
         <v>198</v>
       </c>
@@ -7774,7 +7884,7 @@
         <v>43493</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
         <v>199</v>
       </c>
@@ -7791,7 +7901,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
         <v>200</v>
       </c>
@@ -7811,7 +7921,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
         <v>201</v>
       </c>
@@ -7828,7 +7938,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
         <v>202</v>
       </c>
@@ -7848,7 +7958,7 @@
         <v>43493</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
         <v>203</v>
       </c>
@@ -7865,7 +7975,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
         <v>204</v>
       </c>
@@ -7885,7 +7995,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
         <v>205</v>
       </c>
@@ -7902,7 +8012,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
         <v>206</v>
       </c>
@@ -7922,7 +8032,7 @@
         <v>43473</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
         <v>207</v>
       </c>
@@ -7939,7 +8049,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
         <v>208</v>
       </c>
@@ -7962,7 +8072,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
         <v>209</v>
       </c>
@@ -7977,6 +8087,25 @@
       </c>
       <c r="E208" s="4">
         <v>43458</v>
+      </c>
+      <c r="H208">
+        <v>58.6</v>
+      </c>
+      <c r="I208">
+        <v>20.9</v>
+      </c>
+      <c r="J208">
+        <v>25.2</v>
+      </c>
+      <c r="K208">
+        <v>23.7</v>
+      </c>
+      <c r="L208">
+        <v>40.5</v>
+      </c>
+      <c r="M208">
+        <f>AVERAGE(I208:L208)</f>
+        <v>27.574999999999999</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
@@ -8171,8 +8300,12 @@
       <c r="B220" s="6">
         <v>43486</v>
       </c>
-      <c r="C220" s="6"/>
-      <c r="D220" s="14"/>
+      <c r="C220" s="6">
+        <v>43507</v>
+      </c>
+      <c r="D220" s="14">
+        <v>51.4</v>
+      </c>
       <c r="E220" s="6">
         <v>43472</v>
       </c>
@@ -8361,8 +8494,12 @@
       <c r="B232" s="11">
         <v>43493</v>
       </c>
-      <c r="C232" s="11"/>
-      <c r="D232" s="15"/>
+      <c r="C232" s="11">
+        <v>43507</v>
+      </c>
+      <c r="D232" s="15">
+        <v>36.200000000000003</v>
+      </c>
       <c r="E232" s="11">
         <v>43486</v>
       </c>
@@ -8379,7 +8516,9 @@
       <c r="E233" s="11">
         <v>43486</v>
       </c>
-      <c r="F233" s="10"/>
+      <c r="F233" s="10">
+        <v>43507</v>
+      </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" s="7" t="s">
@@ -8415,8 +8554,12 @@
       <c r="B236" s="11">
         <v>43493</v>
       </c>
-      <c r="C236" s="11"/>
-      <c r="D236" s="15"/>
+      <c r="C236" s="11">
+        <v>43507</v>
+      </c>
+      <c r="D236" s="15">
+        <v>53.4</v>
+      </c>
       <c r="E236" s="11">
         <v>43486</v>
       </c>
@@ -8460,7 +8603,9 @@
       <c r="E239" s="11">
         <v>43486</v>
       </c>
-      <c r="F239" s="10"/>
+      <c r="F239" s="10">
+        <v>43507</v>
+      </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" s="7" t="s">
@@ -9179,7 +9324,9 @@
       <c r="A301" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="B301" s="4"/>
+      <c r="B301" s="4">
+        <v>43507</v>
+      </c>
       <c r="C301" s="4"/>
       <c r="D301" s="13"/>
       <c r="E301" s="4">
@@ -9593,7 +9740,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A337" s="7" t="s">
         <v>338</v>
       </c>
@@ -9605,7 +9752,7 @@
       </c>
       <c r="F337" s="10"/>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A338" s="3" t="s">
         <v>339</v>
       </c>
@@ -9621,8 +9768,27 @@
       <c r="E338" s="4">
         <v>43458</v>
       </c>
-    </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H338">
+        <v>56.8</v>
+      </c>
+      <c r="I338">
+        <v>44.2</v>
+      </c>
+      <c r="J338">
+        <v>41.2</v>
+      </c>
+      <c r="K338">
+        <v>37.6</v>
+      </c>
+      <c r="L338">
+        <v>45.5</v>
+      </c>
+      <c r="M338">
+        <f>AVERAGE(I338:L338)</f>
+        <v>42.125</v>
+      </c>
+    </row>
+    <row r="339" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A339" s="3" t="s">
         <v>340</v>
       </c>
@@ -9642,7 +9808,7 @@
         <v>43473</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A340" s="3" t="s">
         <v>341</v>
       </c>
@@ -9658,8 +9824,27 @@
       <c r="E340" s="4">
         <v>43458</v>
       </c>
-    </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H340">
+        <v>54.6</v>
+      </c>
+      <c r="I340">
+        <v>51.4</v>
+      </c>
+      <c r="J340">
+        <v>50.3</v>
+      </c>
+      <c r="K340">
+        <v>52.2</v>
+      </c>
+      <c r="L340">
+        <v>39.9</v>
+      </c>
+      <c r="M340">
+        <f t="shared" ref="M340:M352" si="0">AVERAGE(I340:L340)</f>
+        <v>48.449999999999996</v>
+      </c>
+    </row>
+    <row r="341" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A341" s="3" t="s">
         <v>342</v>
       </c>
@@ -9678,8 +9863,27 @@
       <c r="F341" s="10">
         <v>43469</v>
       </c>
-    </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H341">
+        <v>51.2</v>
+      </c>
+      <c r="I341">
+        <v>43.9</v>
+      </c>
+      <c r="J341">
+        <v>42.7</v>
+      </c>
+      <c r="K341">
+        <v>52.8</v>
+      </c>
+      <c r="L341">
+        <v>43.9</v>
+      </c>
+      <c r="M341">
+        <f>AVERAGE(I341:L341)</f>
+        <v>45.824999999999996</v>
+      </c>
+    </row>
+    <row r="342" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A342" s="3" t="s">
         <v>343</v>
       </c>
@@ -9695,8 +9899,27 @@
       <c r="E342" s="4">
         <v>43458</v>
       </c>
-    </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H342">
+        <v>51.6</v>
+      </c>
+      <c r="I342">
+        <v>46.2</v>
+      </c>
+      <c r="J342">
+        <v>43.4</v>
+      </c>
+      <c r="K342">
+        <v>44.1</v>
+      </c>
+      <c r="L342">
+        <v>46.5</v>
+      </c>
+      <c r="M342">
+        <f t="shared" si="0"/>
+        <v>45.05</v>
+      </c>
+    </row>
+    <row r="343" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A343" s="3" t="s">
         <v>344</v>
       </c>
@@ -9715,8 +9938,27 @@
       <c r="F343" s="10">
         <v>43469</v>
       </c>
-    </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H343">
+        <v>48</v>
+      </c>
+      <c r="I343">
+        <v>29.4</v>
+      </c>
+      <c r="J343">
+        <v>41.9</v>
+      </c>
+      <c r="K343">
+        <v>51.5</v>
+      </c>
+      <c r="L343">
+        <v>40.5</v>
+      </c>
+      <c r="M343">
+        <f t="shared" si="0"/>
+        <v>40.825000000000003</v>
+      </c>
+    </row>
+    <row r="344" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A344" s="3" t="s">
         <v>345</v>
       </c>
@@ -9732,8 +9974,27 @@
       <c r="E344" s="4">
         <v>43458</v>
       </c>
-    </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H344">
+        <v>39.6</v>
+      </c>
+      <c r="I344">
+        <v>41.6</v>
+      </c>
+      <c r="J344">
+        <v>41</v>
+      </c>
+      <c r="K344">
+        <v>41.9</v>
+      </c>
+      <c r="L344">
+        <v>27</v>
+      </c>
+      <c r="M344">
+        <f t="shared" si="0"/>
+        <v>37.875</v>
+      </c>
+    </row>
+    <row r="345" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A345" s="3" t="s">
         <v>346</v>
       </c>
@@ -9752,8 +10013,27 @@
       <c r="F345" s="10">
         <v>43469</v>
       </c>
-    </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H345">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="I345">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="J345">
+        <v>33.6</v>
+      </c>
+      <c r="K345">
+        <v>39.4</v>
+      </c>
+      <c r="L345">
+        <v>37.9</v>
+      </c>
+      <c r="M345">
+        <f t="shared" si="0"/>
+        <v>37.650000000000006</v>
+      </c>
+    </row>
+    <row r="346" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A346" s="3" t="s">
         <v>347</v>
       </c>
@@ -9769,8 +10049,27 @@
       <c r="E346" s="4">
         <v>43458</v>
       </c>
-    </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H346">
+        <v>52.2</v>
+      </c>
+      <c r="I346">
+        <v>40.9</v>
+      </c>
+      <c r="J346">
+        <v>44.3</v>
+      </c>
+      <c r="K346">
+        <v>46.4</v>
+      </c>
+      <c r="L346">
+        <v>44.5</v>
+      </c>
+      <c r="M346">
+        <f t="shared" si="0"/>
+        <v>44.024999999999999</v>
+      </c>
+    </row>
+    <row r="347" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A347" s="3" t="s">
         <v>348</v>
       </c>
@@ -9790,7 +10089,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A348" s="3" t="s">
         <v>349</v>
       </c>
@@ -9806,8 +10105,27 @@
       <c r="E348" s="4">
         <v>43458</v>
       </c>
-    </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H348">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="I348">
+        <v>37.6</v>
+      </c>
+      <c r="J348">
+        <v>44.3</v>
+      </c>
+      <c r="K348">
+        <v>44</v>
+      </c>
+      <c r="L348">
+        <v>42.3</v>
+      </c>
+      <c r="M348">
+        <f t="shared" si="0"/>
+        <v>42.05</v>
+      </c>
+    </row>
+    <row r="349" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A349" s="3" t="s">
         <v>350</v>
       </c>
@@ -9826,8 +10144,27 @@
       <c r="F349" s="10">
         <v>43472</v>
       </c>
-    </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H349">
+        <v>55.8</v>
+      </c>
+      <c r="I349">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="J349">
+        <v>44.7</v>
+      </c>
+      <c r="K349">
+        <v>37.4</v>
+      </c>
+      <c r="L349">
+        <v>42.9</v>
+      </c>
+      <c r="M349">
+        <f t="shared" si="0"/>
+        <v>39.950000000000003</v>
+      </c>
+    </row>
+    <row r="350" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A350" s="3" t="s">
         <v>351</v>
       </c>
@@ -9843,8 +10180,27 @@
       <c r="E350" s="4">
         <v>43458</v>
       </c>
-    </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H350">
+        <v>47.2</v>
+      </c>
+      <c r="I350">
+        <v>41.9</v>
+      </c>
+      <c r="J350">
+        <v>50.2</v>
+      </c>
+      <c r="K350">
+        <v>46.7</v>
+      </c>
+      <c r="L350">
+        <v>52.3</v>
+      </c>
+      <c r="M350">
+        <f t="shared" si="0"/>
+        <v>47.775000000000006</v>
+      </c>
+    </row>
+    <row r="351" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A351" s="3" t="s">
         <v>352</v>
       </c>
@@ -9867,7 +10223,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A352" s="3" t="s">
         <v>353</v>
       </c>
@@ -9885,6 +10241,22 @@
       </c>
       <c r="H352">
         <v>55.4</v>
+      </c>
+      <c r="I352">
+        <v>51</v>
+      </c>
+      <c r="J352">
+        <v>40</v>
+      </c>
+      <c r="K352">
+        <v>50.6</v>
+      </c>
+      <c r="L352">
+        <v>48.9</v>
+      </c>
+      <c r="M352">
+        <f t="shared" si="0"/>
+        <v>47.625</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.2">
@@ -10230,8 +10602,12 @@
       <c r="B371" s="11">
         <v>43495</v>
       </c>
-      <c r="C371" s="11"/>
-      <c r="D371" s="15"/>
+      <c r="C371" s="11">
+        <v>43507</v>
+      </c>
+      <c r="D371" s="15">
+        <v>26</v>
+      </c>
       <c r="E371" s="11">
         <v>43486</v>
       </c>
@@ -10275,8 +10651,12 @@
       <c r="B374" s="11">
         <v>43495</v>
       </c>
-      <c r="C374" s="11"/>
-      <c r="D374" s="15"/>
+      <c r="C374" s="11">
+        <v>43507</v>
+      </c>
+      <c r="D374" s="15">
+        <v>25.6</v>
+      </c>
       <c r="E374" s="11">
         <v>43486</v>
       </c>
@@ -10317,8 +10697,12 @@
       <c r="B377" s="11">
         <v>43490</v>
       </c>
-      <c r="C377" s="11"/>
-      <c r="D377" s="15"/>
+      <c r="C377" s="11">
+        <v>43507</v>
+      </c>
+      <c r="D377" s="15">
+        <v>18.2</v>
+      </c>
       <c r="E377" s="11">
         <v>43486</v>
       </c>
@@ -10333,8 +10717,12 @@
       <c r="B378" s="11">
         <v>43497</v>
       </c>
-      <c r="C378" s="11"/>
-      <c r="D378" s="15"/>
+      <c r="C378" s="11">
+        <v>43507</v>
+      </c>
+      <c r="D378" s="15">
+        <v>21</v>
+      </c>
       <c r="E378" s="11">
         <v>43486</v>
       </c>
@@ -10391,8 +10779,12 @@
       <c r="B382" s="11">
         <v>43493</v>
       </c>
-      <c r="C382" s="11"/>
-      <c r="D382" s="15"/>
+      <c r="C382" s="11">
+        <v>43507</v>
+      </c>
+      <c r="D382" s="15">
+        <v>28.2</v>
+      </c>
       <c r="E382" s="11">
         <v>43486</v>
       </c>
@@ -10449,7 +10841,9 @@
       <c r="A386" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="B386" s="4"/>
+      <c r="B386" s="4">
+        <v>43507</v>
+      </c>
       <c r="C386" s="4"/>
       <c r="D386" s="13"/>
       <c r="E386" s="4">
@@ -10468,7 +10862,9 @@
       <c r="E387" s="4">
         <v>43458</v>
       </c>
-      <c r="F387" s="10"/>
+      <c r="F387" s="10">
+        <v>43507</v>
+      </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A388" s="3" t="s">
@@ -10508,8 +10904,12 @@
       <c r="B390" s="4">
         <v>43488</v>
       </c>
-      <c r="C390" s="4"/>
-      <c r="D390" s="13"/>
+      <c r="C390" s="4">
+        <v>43507</v>
+      </c>
+      <c r="D390" s="13">
+        <v>48.8</v>
+      </c>
       <c r="E390" s="4">
         <v>43458</v>
       </c>
@@ -10533,8 +10933,12 @@
       <c r="B392" s="4">
         <v>43490</v>
       </c>
-      <c r="C392" s="4"/>
-      <c r="D392" s="13"/>
+      <c r="C392" s="4">
+        <v>43507</v>
+      </c>
+      <c r="D392" s="13">
+        <v>54.6</v>
+      </c>
       <c r="E392" s="4">
         <v>43458</v>
       </c>
@@ -10546,8 +10950,12 @@
       <c r="B393" s="4">
         <v>43490</v>
       </c>
-      <c r="C393" s="4"/>
-      <c r="D393" s="13"/>
+      <c r="C393" s="4">
+        <v>43507</v>
+      </c>
+      <c r="D393" s="13">
+        <v>38.6</v>
+      </c>
       <c r="E393" s="4">
         <v>43458</v>
       </c>
@@ -10582,7 +10990,9 @@
       <c r="E395" s="4">
         <v>43458</v>
       </c>
-      <c r="F395" s="10"/>
+      <c r="F395" s="10">
+        <v>43507</v>
+      </c>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A396" s="3" t="s">
@@ -10620,8 +11030,12 @@
       <c r="B398" s="4">
         <v>43488</v>
       </c>
-      <c r="C398" s="4"/>
-      <c r="D398" s="13"/>
+      <c r="C398" s="4">
+        <v>43507</v>
+      </c>
+      <c r="D398" s="13">
+        <v>55.4</v>
+      </c>
       <c r="E398" s="4">
         <v>43458</v>
       </c>
@@ -10649,8 +11063,12 @@
       <c r="B400" s="4">
         <v>43495</v>
       </c>
-      <c r="C400" s="4"/>
-      <c r="D400" s="13"/>
+      <c r="C400" s="4">
+        <v>43507</v>
+      </c>
+      <c r="D400" s="13">
+        <v>59.2</v>
+      </c>
       <c r="E400" s="4">
         <v>43458</v>
       </c>
@@ -10662,8 +11080,12 @@
       <c r="B401" s="4">
         <v>43490</v>
       </c>
-      <c r="C401" s="4"/>
-      <c r="D401" s="13"/>
+      <c r="C401" s="4">
+        <v>43507</v>
+      </c>
+      <c r="D401" s="13">
+        <v>58.4</v>
+      </c>
       <c r="E401" s="4">
         <v>43458</v>
       </c>
@@ -10675,7 +11097,9 @@
       <c r="A402" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="B402" s="6"/>
+      <c r="B402" s="6">
+        <v>43507</v>
+      </c>
       <c r="C402" s="6"/>
       <c r="D402" s="14"/>
       <c r="E402" s="6">
@@ -10719,7 +11143,9 @@
       <c r="E405" s="6">
         <v>43472</v>
       </c>
-      <c r="F405" s="10"/>
+      <c r="F405" s="10">
+        <v>43507</v>
+      </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A406" s="5" t="s">
@@ -10771,7 +11197,9 @@
       <c r="A410" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="B410" s="6"/>
+      <c r="B410" s="6">
+        <v>43507</v>
+      </c>
       <c r="C410" s="6"/>
       <c r="D410" s="14"/>
       <c r="E410" s="6">
@@ -10832,7 +11260,9 @@
       <c r="A415" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="B415" s="6"/>
+      <c r="B415" s="6">
+        <v>43507</v>
+      </c>
       <c r="C415" s="6"/>
       <c r="D415" s="14"/>
       <c r="E415" s="6">
@@ -10857,7 +11287,9 @@
       <c r="A417" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="B417" s="6"/>
+      <c r="B417" s="6">
+        <v>43507</v>
+      </c>
       <c r="C417" s="6"/>
       <c r="D417" s="14"/>
       <c r="E417" s="6">
@@ -11086,7 +11518,9 @@
       <c r="A436" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="B436" s="4"/>
+      <c r="B436" s="4">
+        <v>43507</v>
+      </c>
       <c r="C436" s="4"/>
       <c r="D436" s="13"/>
       <c r="E436" s="4">
@@ -11138,7 +11572,9 @@
       <c r="E439" s="4">
         <v>43458</v>
       </c>
-      <c r="F439" s="10"/>
+      <c r="F439" s="10">
+        <v>43507</v>
+      </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A440" s="3" t="s">
@@ -11282,8 +11718,12 @@
       <c r="B450" s="6">
         <v>43493</v>
       </c>
-      <c r="C450" s="6"/>
-      <c r="D450" s="14"/>
+      <c r="C450" s="6">
+        <v>43507</v>
+      </c>
+      <c r="D450" s="14">
+        <v>25.6</v>
+      </c>
       <c r="E450" s="6">
         <v>43472</v>
       </c>
@@ -11300,13 +11740,17 @@
       <c r="E451" s="6">
         <v>43472</v>
       </c>
-      <c r="F451" s="10"/>
+      <c r="F451" s="10">
+        <v>43507</v>
+      </c>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A452" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="B452" s="6"/>
+      <c r="B452" s="6">
+        <v>43507</v>
+      </c>
       <c r="C452" s="6"/>
       <c r="D452" s="14"/>
       <c r="E452" s="6">
@@ -11412,7 +11856,9 @@
       <c r="A460" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="B460" s="6"/>
+      <c r="B460" s="6">
+        <v>43507</v>
+      </c>
       <c r="C460" s="6"/>
       <c r="D460" s="14"/>
       <c r="E460" s="6">
@@ -11456,7 +11902,9 @@
       <c r="E463" s="6">
         <v>43472</v>
       </c>
-      <c r="F463" s="10"/>
+      <c r="F463" s="10">
+        <v>43507</v>
+      </c>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A464" s="5" t="s">
@@ -11475,7 +11923,9 @@
       <c r="A465" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="B465" s="6"/>
+      <c r="B465" s="6">
+        <v>43507</v>
+      </c>
       <c r="C465" s="6"/>
       <c r="D465" s="14"/>
       <c r="E465" s="6">
@@ -11508,13 +11958,17 @@
       <c r="E467" s="11">
         <v>43486</v>
       </c>
-      <c r="F467" s="10"/>
+      <c r="F467" s="10">
+        <v>43507</v>
+      </c>
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A468" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="B468" s="11"/>
+      <c r="B468" s="11">
+        <v>43507</v>
+      </c>
       <c r="C468" s="11"/>
       <c r="D468" s="15"/>
       <c r="E468" s="11">
@@ -11537,7 +11991,9 @@
       <c r="A470" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="B470" s="11"/>
+      <c r="B470" s="11">
+        <v>43507</v>
+      </c>
       <c r="C470" s="11"/>
       <c r="D470" s="15"/>
       <c r="E470" s="11">
@@ -11562,7 +12018,9 @@
       <c r="A472" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="B472" s="11"/>
+      <c r="B472" s="11">
+        <v>43507</v>
+      </c>
       <c r="C472" s="11"/>
       <c r="D472" s="15"/>
       <c r="E472" s="11">
@@ -11654,7 +12112,9 @@
       <c r="E479" s="11">
         <v>43486</v>
       </c>
-      <c r="F479" s="10"/>
+      <c r="F479" s="10">
+        <v>43507</v>
+      </c>
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A480" s="7" t="s">

--- a/data/observation_datasheet.xlsx
+++ b/data/observation_datasheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catchamberlain/Documents/git/chillfreeze/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{889A8DBB-66AB-C940-AB9F-8A9F43A10C73}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BD024D67-FDE7-804B-9D0F-8DA2F56CCBD3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19360" yWindow="1780" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12100" yWindow="1820" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="observation_datasheet" sheetId="1" r:id="rId1"/>
@@ -4852,10 +4852,10 @@
   <dimension ref="A1:M481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B196" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O210" sqref="O210"/>
+      <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4925,7 +4925,9 @@
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="4">
+        <v>43509</v>
+      </c>
       <c r="C3" s="4"/>
       <c r="D3" s="13"/>
       <c r="E3" s="4">
@@ -5090,8 +5092,12 @@
       <c r="B15" s="4">
         <v>43497</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="13"/>
+      <c r="C15" s="4">
+        <v>43509</v>
+      </c>
+      <c r="D15" s="13">
+        <v>33.299999999999997</v>
+      </c>
       <c r="E15" s="4">
         <v>43458</v>
       </c>
@@ -5124,7 +5130,9 @@
       <c r="E17" s="4">
         <v>43458</v>
       </c>
-      <c r="F17" s="10"/>
+      <c r="F17" s="10">
+        <v>43509</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
@@ -5214,9 +5222,7 @@
       <c r="A25" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="6">
-        <v>43507</v>
-      </c>
+      <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="14"/>
       <c r="E25" s="6">
@@ -5274,9 +5280,7 @@
       <c r="A30" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="6">
-        <v>43507</v>
-      </c>
+      <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="14"/>
       <c r="E30" s="6">
@@ -5530,8 +5534,12 @@
       <c r="B51" s="4">
         <v>43488</v>
       </c>
-      <c r="C51" s="4"/>
-      <c r="D51" s="13"/>
+      <c r="C51" s="4">
+        <v>43509</v>
+      </c>
+      <c r="D51" s="13">
+        <v>31.8</v>
+      </c>
       <c r="E51" s="4">
         <v>43458</v>
       </c>
@@ -5583,8 +5591,12 @@
       <c r="B54" s="4">
         <v>43483</v>
       </c>
-      <c r="C54" s="4"/>
-      <c r="D54" s="13"/>
+      <c r="C54" s="4">
+        <v>43509</v>
+      </c>
+      <c r="D54" s="13">
+        <v>32.6</v>
+      </c>
       <c r="E54" s="4">
         <v>43458</v>
       </c>
@@ -5596,8 +5608,12 @@
       <c r="B55" s="4">
         <v>43483</v>
       </c>
-      <c r="C55" s="4"/>
-      <c r="D55" s="13"/>
+      <c r="C55" s="4">
+        <v>43509</v>
+      </c>
+      <c r="D55" s="13">
+        <v>32.200000000000003</v>
+      </c>
       <c r="E55" s="4">
         <v>43458</v>
       </c>
@@ -5843,8 +5859,12 @@
       <c r="B70" s="6">
         <v>43493</v>
       </c>
-      <c r="C70" s="6"/>
-      <c r="D70" s="14"/>
+      <c r="C70" s="6">
+        <v>43509</v>
+      </c>
+      <c r="D70" s="14">
+        <v>36.6</v>
+      </c>
       <c r="E70" s="6">
         <v>43472</v>
       </c>
@@ -6054,7 +6074,9 @@
       <c r="E85" s="11">
         <v>43486</v>
       </c>
-      <c r="F85" s="10"/>
+      <c r="F85" s="10">
+        <v>43509</v>
+      </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
@@ -6096,7 +6118,9 @@
       <c r="A89" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B89" s="11"/>
+      <c r="B89" s="11">
+        <v>43509</v>
+      </c>
       <c r="C89" s="11"/>
       <c r="D89" s="15"/>
       <c r="E89" s="11">
@@ -6593,13 +6617,20 @@
       <c r="B119" s="6">
         <v>43488</v>
       </c>
-      <c r="C119" s="6"/>
-      <c r="D119" s="14"/>
+      <c r="C119" s="6">
+        <v>43509</v>
+      </c>
+      <c r="D119" s="14">
+        <v>39</v>
+      </c>
       <c r="E119" s="6">
         <v>43472</v>
       </c>
       <c r="F119" s="10">
         <v>43497</v>
+      </c>
+      <c r="G119" s="21">
+        <v>0.9</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
@@ -6898,8 +6929,12 @@
       <c r="B138" s="11">
         <v>43493</v>
       </c>
-      <c r="C138" s="11"/>
-      <c r="D138" s="15"/>
+      <c r="C138" s="11">
+        <v>43509</v>
+      </c>
+      <c r="D138" s="15">
+        <v>28.4</v>
+      </c>
       <c r="E138" s="11">
         <v>43486</v>
       </c>
@@ -6985,8 +7020,12 @@
       <c r="B144" s="11">
         <v>43495</v>
       </c>
-      <c r="C144" s="11"/>
-      <c r="D144" s="15"/>
+      <c r="C144" s="11">
+        <v>43509</v>
+      </c>
+      <c r="D144" s="15">
+        <v>25.8</v>
+      </c>
       <c r="E144" s="11">
         <v>43486</v>
       </c>
@@ -7330,8 +7369,12 @@
       <c r="B163" s="6">
         <v>43495</v>
       </c>
-      <c r="C163" s="6"/>
-      <c r="D163" s="14"/>
+      <c r="C163" s="6">
+        <v>43509</v>
+      </c>
+      <c r="D163" s="14">
+        <v>48.8</v>
+      </c>
       <c r="E163" s="6">
         <v>43472</v>
       </c>
@@ -7396,8 +7439,12 @@
       <c r="B167" s="6">
         <v>43495</v>
       </c>
-      <c r="C167" s="6"/>
-      <c r="D167" s="14"/>
+      <c r="C167" s="6">
+        <v>43509</v>
+      </c>
+      <c r="D167" s="14">
+        <v>54.8</v>
+      </c>
       <c r="E167" s="6">
         <v>43472</v>
       </c>
@@ -7573,8 +7620,12 @@
       <c r="B177" s="6">
         <v>43497</v>
       </c>
-      <c r="C177" s="6"/>
-      <c r="D177" s="14"/>
+      <c r="C177" s="6">
+        <v>43509</v>
+      </c>
+      <c r="D177" s="14">
+        <v>53.4</v>
+      </c>
       <c r="E177" s="6">
         <v>43472</v>
       </c>
@@ -7636,7 +7687,9 @@
       <c r="E181" s="11">
         <v>43486</v>
       </c>
-      <c r="F181" s="10"/>
+      <c r="F181" s="10">
+        <v>43509</v>
+      </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" s="7" t="s">
@@ -7663,7 +7716,9 @@
       <c r="E183" s="11">
         <v>43486</v>
       </c>
-      <c r="F183" s="10"/>
+      <c r="F183" s="10">
+        <v>43509</v>
+      </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" s="7" t="s">
@@ -7900,6 +7955,25 @@
       <c r="E198" s="4">
         <v>43458</v>
       </c>
+      <c r="H198">
+        <v>43.4</v>
+      </c>
+      <c r="I198">
+        <v>32.4</v>
+      </c>
+      <c r="J198">
+        <v>35.4</v>
+      </c>
+      <c r="K198">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="L198">
+        <v>37</v>
+      </c>
+      <c r="M198">
+        <f>AVERAGE(I198:L198)</f>
+        <v>34.375</v>
+      </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
@@ -8251,8 +8325,12 @@
       <c r="B217" s="6">
         <v>43493</v>
       </c>
-      <c r="C217" s="6"/>
-      <c r="D217" s="14"/>
+      <c r="C217" s="6">
+        <v>43509</v>
+      </c>
+      <c r="D217" s="14">
+        <v>48.2</v>
+      </c>
       <c r="E217" s="6">
         <v>43472</v>
       </c>
@@ -8524,7 +8602,9 @@
       <c r="A234" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="B234" s="11"/>
+      <c r="B234" s="11">
+        <v>43509</v>
+      </c>
       <c r="C234" s="11"/>
       <c r="D234" s="15"/>
       <c r="E234" s="11">
@@ -9305,7 +9385,9 @@
       <c r="E299" s="4">
         <v>43458</v>
       </c>
-      <c r="F299" s="10"/>
+      <c r="F299" s="10">
+        <v>43509</v>
+      </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300" s="3" t="s">
@@ -9807,6 +9889,25 @@
       <c r="F339" s="10">
         <v>43473</v>
       </c>
+      <c r="H339">
+        <v>62.2</v>
+      </c>
+      <c r="I339">
+        <v>41.1</v>
+      </c>
+      <c r="J339">
+        <v>40.4</v>
+      </c>
+      <c r="K339">
+        <v>45.6</v>
+      </c>
+      <c r="L339">
+        <v>42.1</v>
+      </c>
+      <c r="M339">
+        <f>AVERAGE(I339:L339)</f>
+        <v>42.3</v>
+      </c>
     </row>
     <row r="340" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A340" s="3" t="s">
@@ -10088,6 +10189,25 @@
       <c r="F347" s="10">
         <v>43472</v>
       </c>
+      <c r="H347">
+        <v>46.8</v>
+      </c>
+      <c r="I347">
+        <v>40.9</v>
+      </c>
+      <c r="J347">
+        <v>44.3</v>
+      </c>
+      <c r="K347">
+        <v>46.4</v>
+      </c>
+      <c r="L347">
+        <v>44.5</v>
+      </c>
+      <c r="M347">
+        <f t="shared" si="0"/>
+        <v>44.024999999999999</v>
+      </c>
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A348" s="3" t="s">
@@ -10222,6 +10342,25 @@
       <c r="G351" s="21">
         <v>0.9</v>
       </c>
+      <c r="H351">
+        <v>56.6</v>
+      </c>
+      <c r="I351">
+        <v>39.6</v>
+      </c>
+      <c r="J351">
+        <v>47.9</v>
+      </c>
+      <c r="K351">
+        <v>45.4</v>
+      </c>
+      <c r="L351">
+        <v>48.2</v>
+      </c>
+      <c r="M351">
+        <f t="shared" si="0"/>
+        <v>45.275000000000006</v>
+      </c>
     </row>
     <row r="352" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A352" s="3" t="s">
@@ -10635,8 +10774,12 @@
       <c r="B373" s="11">
         <v>43495</v>
       </c>
-      <c r="C373" s="11"/>
-      <c r="D373" s="15"/>
+      <c r="C373" s="11">
+        <v>43509</v>
+      </c>
+      <c r="D373" s="15">
+        <v>26</v>
+      </c>
       <c r="E373" s="11">
         <v>43486</v>
       </c>
@@ -10684,8 +10827,12 @@
       <c r="B376" s="11">
         <v>43497</v>
       </c>
-      <c r="C376" s="11"/>
-      <c r="D376" s="15"/>
+      <c r="C376" s="11">
+        <v>43509</v>
+      </c>
+      <c r="D376" s="15">
+        <v>27.4</v>
+      </c>
       <c r="E376" s="11">
         <v>43486</v>
       </c>
@@ -10750,8 +10897,12 @@
       <c r="B380" s="11">
         <v>43495</v>
       </c>
-      <c r="C380" s="11"/>
-      <c r="D380" s="15"/>
+      <c r="C380" s="11">
+        <v>43509</v>
+      </c>
+      <c r="D380" s="15">
+        <v>25.4</v>
+      </c>
       <c r="E380" s="11">
         <v>43486</v>
       </c>
@@ -10763,8 +10914,12 @@
       <c r="B381" s="11">
         <v>43495</v>
       </c>
-      <c r="C381" s="11"/>
-      <c r="D381" s="15"/>
+      <c r="C381" s="11">
+        <v>43509</v>
+      </c>
+      <c r="D381" s="15">
+        <v>32.6</v>
+      </c>
       <c r="E381" s="11">
         <v>43486</v>
       </c>
@@ -11001,8 +11156,12 @@
       <c r="B396" s="4">
         <v>43500</v>
       </c>
-      <c r="C396" s="4"/>
-      <c r="D396" s="13"/>
+      <c r="C396" s="4">
+        <v>43509</v>
+      </c>
+      <c r="D396" s="13">
+        <v>40.4</v>
+      </c>
       <c r="E396" s="4">
         <v>43458</v>
       </c>
@@ -11047,13 +11206,20 @@
       <c r="B399" s="4">
         <v>43483</v>
       </c>
-      <c r="C399" s="4"/>
-      <c r="D399" s="13"/>
+      <c r="C399" s="4">
+        <v>43509</v>
+      </c>
+      <c r="D399" s="13">
+        <v>43.4</v>
+      </c>
       <c r="E399" s="4">
         <v>43458</v>
       </c>
       <c r="F399" s="10">
         <v>43490</v>
+      </c>
+      <c r="G399" s="21">
+        <v>0.9</v>
       </c>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.2">
@@ -11174,7 +11340,9 @@
       <c r="A408" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="B408" s="6"/>
+      <c r="B408" s="6">
+        <v>43509</v>
+      </c>
       <c r="C408" s="6"/>
       <c r="D408" s="14"/>
       <c r="E408" s="6">
@@ -11185,7 +11353,9 @@
       <c r="A409" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="B409" s="6"/>
+      <c r="B409" s="6">
+        <v>43509</v>
+      </c>
       <c r="C409" s="6"/>
       <c r="D409" s="14"/>
       <c r="E409" s="6">
@@ -11237,7 +11407,9 @@
       <c r="A413" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="B413" s="6"/>
+      <c r="B413" s="6">
+        <v>43509</v>
+      </c>
       <c r="C413" s="6"/>
       <c r="D413" s="14"/>
       <c r="E413" s="6">
@@ -11295,7 +11467,9 @@
       <c r="E417" s="6">
         <v>43472</v>
       </c>
-      <c r="F417" s="10"/>
+      <c r="F417" s="10">
+        <v>43509</v>
+      </c>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A418" s="7" t="s">
@@ -11505,8 +11679,12 @@
       <c r="B435" s="4">
         <v>43490</v>
       </c>
-      <c r="C435" s="4"/>
-      <c r="D435" s="13"/>
+      <c r="C435" s="4">
+        <v>43509</v>
+      </c>
+      <c r="D435" s="13">
+        <v>25</v>
+      </c>
       <c r="E435" s="4">
         <v>43458</v>
       </c>
@@ -11769,7 +11947,9 @@
       <c r="E453" s="6">
         <v>43472</v>
       </c>
-      <c r="F453" s="10"/>
+      <c r="F453" s="10">
+        <v>43509</v>
+      </c>
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A454" s="5" t="s">
@@ -11796,7 +11976,9 @@
       <c r="E455" s="6">
         <v>43472</v>
       </c>
-      <c r="F455" s="10"/>
+      <c r="F455" s="10">
+        <v>43509</v>
+      </c>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A456" s="5" t="s">
@@ -11877,7 +12059,9 @@
       <c r="E461" s="6">
         <v>43472</v>
       </c>
-      <c r="F461" s="10"/>
+      <c r="F461" s="10">
+        <v>43509</v>
+      </c>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A462" s="5" t="s">
@@ -12031,7 +12215,9 @@
       <c r="A473" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="B473" s="11"/>
+      <c r="B473" s="11">
+        <v>43509</v>
+      </c>
       <c r="C473" s="11"/>
       <c r="D473" s="15"/>
       <c r="E473" s="11">
@@ -12131,7 +12317,9 @@
       <c r="A481" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="B481" s="11"/>
+      <c r="B481" s="11">
+        <v>43509</v>
+      </c>
       <c r="C481" s="11"/>
       <c r="D481" s="15"/>
       <c r="E481" s="11">

--- a/data/observation_datasheet.xlsx
+++ b/data/observation_datasheet.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catchamberlain/Documents/git/chillfreeze/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BD024D67-FDE7-804B-9D0F-8DA2F56CCBD3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28125"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12100" yWindow="1820" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="observation_datasheet" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1520,8 +1519,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1652,6 +1651,22 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Rockwell"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Rockwell"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Rockwell"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1985,22 +2000,22 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -2008,7 +2023,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -2051,6 +2066,20 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2077,7 +2106,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="56">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -2106,11 +2135,25 @@
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -2177,7 +2220,7 @@
     </a:clrScheme>
     <a:fontScheme name="Atlas">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2212,7 +2255,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Rockwell" panose="02060603020205020403"/>
+        <a:latin typeface="Rockwell"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2385,23 +2428,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Atlas" id="{5156B0E4-0EB1-49FE-A26B-15F6F698AEC6}" vid="{508F7963-D0B5-43F7-BB2C-FCE3009C08EC}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Atlas" id="{5156B0E4-0EB1-49FE-A26B-15F6F698AEC6}" vid="{508F7963-D0B5-43F7-BB2C-FCE3009C08EC}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M481"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2442,2431 +2485,2437 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1">
       <c r="A30" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1">
       <c r="A31" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1">
       <c r="A32" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1">
       <c r="A33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1">
       <c r="A34" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1">
       <c r="A35" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1">
       <c r="A36" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1">
       <c r="A37" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1">
       <c r="A38" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1">
       <c r="A39" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1">
       <c r="A40" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1">
       <c r="A41" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1">
       <c r="A42" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1">
       <c r="A43" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1">
       <c r="A44" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1">
       <c r="A45" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1">
       <c r="A46" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1">
       <c r="A47" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1">
       <c r="A48" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1">
       <c r="A49" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1">
       <c r="A50" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1">
       <c r="A51" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1">
       <c r="A52" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1">
       <c r="A53" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1">
       <c r="A54" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1">
       <c r="A55" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1">
       <c r="A56" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1">
       <c r="A57" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1">
       <c r="A58" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1">
       <c r="A59" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1">
       <c r="A60" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1">
       <c r="A61" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1">
       <c r="A62" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1">
       <c r="A63" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1">
       <c r="A64" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1">
       <c r="A65" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1">
       <c r="A66" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1">
       <c r="A67" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1">
       <c r="A68" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1">
       <c r="A69" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1">
       <c r="A70" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1">
       <c r="A71" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1">
       <c r="A72" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1">
       <c r="A73" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1">
       <c r="A74" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1">
       <c r="A75" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1">
       <c r="A76" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1">
       <c r="A77" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1">
       <c r="A78" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1">
       <c r="A79" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1">
       <c r="A80" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1">
       <c r="A81" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1">
       <c r="A82" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1">
       <c r="A83" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1">
       <c r="A84" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1">
       <c r="A85" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1">
       <c r="A86" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1">
       <c r="A87" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1">
       <c r="A88" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1">
       <c r="A89" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1">
       <c r="A90" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1">
       <c r="A91" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1">
       <c r="A92" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1">
       <c r="A93" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1">
       <c r="A94" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1">
       <c r="A95" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1">
       <c r="A96" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1">
       <c r="A97" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1">
       <c r="A98" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:1">
       <c r="A99" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1">
       <c r="A100" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:1">
       <c r="A101" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:1">
       <c r="A102" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:1">
       <c r="A103" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:1">
       <c r="A104" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:1">
       <c r="A105" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:1">
       <c r="A106" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:1">
       <c r="A107" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:1">
       <c r="A108" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:1">
       <c r="A109" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:1">
       <c r="A110" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:1">
       <c r="A111" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:1">
       <c r="A112" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:1">
       <c r="A113" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:1">
       <c r="A114" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:1">
       <c r="A115" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:1">
       <c r="A116" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:1">
       <c r="A117" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:1">
       <c r="A118" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:1">
       <c r="A119" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:1">
       <c r="A120" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:1">
       <c r="A121" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:1">
       <c r="A122" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:1">
       <c r="A123" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:1">
       <c r="A124" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:1">
       <c r="A125" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:1">
       <c r="A126" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:1">
       <c r="A127" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:1">
       <c r="A128" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:1">
       <c r="A129" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:1">
       <c r="A130" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:1">
       <c r="A131" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:1">
       <c r="A132" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:1">
       <c r="A133" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:1">
       <c r="A134" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:1">
       <c r="A135" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:1">
       <c r="A136" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:1">
       <c r="A137" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:1">
       <c r="A138" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:1">
       <c r="A139" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:1">
       <c r="A140" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:1">
       <c r="A141" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:1">
       <c r="A142" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:1">
       <c r="A143" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:1">
       <c r="A144" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:1">
       <c r="A145" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:1">
       <c r="A146" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:1">
       <c r="A147" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:1">
       <c r="A148" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:1">
       <c r="A149" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:1">
       <c r="A150" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:1">
       <c r="A151" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:1">
       <c r="A152" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:1">
       <c r="A153" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:1">
       <c r="A154" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:1">
       <c r="A155" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:1">
       <c r="A156" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:1">
       <c r="A157" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:1">
       <c r="A158" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:1">
       <c r="A159" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:1">
       <c r="A160" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:1">
       <c r="A161" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:1">
       <c r="A162" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:1">
       <c r="A163" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:1">
       <c r="A164" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:1">
       <c r="A165" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:1">
       <c r="A166" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:1">
       <c r="A167" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:1">
       <c r="A168" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:1">
       <c r="A169" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:1">
       <c r="A170" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:1">
       <c r="A171" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:1">
       <c r="A172" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:1">
       <c r="A173" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:1">
       <c r="A174" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:1">
       <c r="A175" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:1">
       <c r="A176" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:1">
       <c r="A177" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:1">
       <c r="A178" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:1">
       <c r="A179" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:1">
       <c r="A180" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:1">
       <c r="A181" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:1">
       <c r="A182" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:1">
       <c r="A183" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:1">
       <c r="A184" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:1">
       <c r="A185" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:1">
       <c r="A186" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:1">
       <c r="A187" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:1">
       <c r="A188" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:1">
       <c r="A189" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:1">
       <c r="A190" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:1">
       <c r="A191" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:1">
       <c r="A192" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:1">
       <c r="A193" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:1">
       <c r="A194" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:1">
       <c r="A195" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:1">
       <c r="A196" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:1">
       <c r="A197" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:1">
       <c r="A198" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:1">
       <c r="A199" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:1">
       <c r="A200" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:1">
       <c r="A201" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:1">
       <c r="A202" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:1">
       <c r="A203" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:1">
       <c r="A204" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:1">
       <c r="A205" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:1">
       <c r="A206" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:1">
       <c r="A207" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:1">
       <c r="A208" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:1">
       <c r="A209" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:1">
       <c r="A210" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:1">
       <c r="A211" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:1">
       <c r="A212" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:1">
       <c r="A213" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:1">
       <c r="A214" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:1">
       <c r="A215" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:1">
       <c r="A216" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:1">
       <c r="A217" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:1">
       <c r="A218" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:1">
       <c r="A219" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:1">
       <c r="A220" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:1">
       <c r="A221" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:1">
       <c r="A222" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:1">
       <c r="A223" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:1">
       <c r="A224" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:1">
       <c r="A225" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:1">
       <c r="A226" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:1">
       <c r="A227" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:1">
       <c r="A228" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:1">
       <c r="A229" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:1">
       <c r="A230" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:1">
       <c r="A231" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:1">
       <c r="A232" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:1">
       <c r="A233" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:1">
       <c r="A234" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:1">
       <c r="A235" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:1">
       <c r="A236" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:1">
       <c r="A237" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:1">
       <c r="A238" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:1">
       <c r="A239" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:1">
       <c r="A240" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:1">
       <c r="A241" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:1">
       <c r="A242" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:1">
       <c r="A243" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:1">
       <c r="A244" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:1">
       <c r="A245" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:1">
       <c r="A246" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:1">
       <c r="A247" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:1">
       <c r="A248" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:1">
       <c r="A249" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:1">
       <c r="A250" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:1">
       <c r="A251" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:1">
       <c r="A252" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:1">
       <c r="A253" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:1">
       <c r="A254" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:1">
       <c r="A255" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:1">
       <c r="A256" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:1">
       <c r="A257" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:1">
       <c r="A258" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:1">
       <c r="A259" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:1">
       <c r="A260" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:1">
       <c r="A261" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:1">
       <c r="A262" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:1">
       <c r="A263" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:1">
       <c r="A264" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:1">
       <c r="A265" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:1">
       <c r="A266" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:1">
       <c r="A267" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:1">
       <c r="A268" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:1">
       <c r="A269" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:1">
       <c r="A270" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:1">
       <c r="A271" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:1">
       <c r="A272" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:1">
       <c r="A273" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:1">
       <c r="A274" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:1">
       <c r="A275" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:1">
       <c r="A276" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:1">
       <c r="A277" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:1">
       <c r="A278" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:1">
       <c r="A279" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:1">
       <c r="A280" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:1">
       <c r="A281" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:1">
       <c r="A282" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:1">
       <c r="A283" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:1">
       <c r="A284" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:1">
       <c r="A285" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:1">
       <c r="A286" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:1">
       <c r="A287" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:1">
       <c r="A288" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:1">
       <c r="A289" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:1">
       <c r="A290" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:1">
       <c r="A291" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:1">
       <c r="A292" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:1">
       <c r="A293" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:1">
       <c r="A294" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:1">
       <c r="A295" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:1">
       <c r="A296" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:1">
       <c r="A297" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:1">
       <c r="A298" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:1">
       <c r="A299" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:1">
       <c r="A300" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:1">
       <c r="A301" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:1">
       <c r="A302" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:1">
       <c r="A303" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:1">
       <c r="A304" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:1">
       <c r="A305" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:1">
       <c r="A306" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:1">
       <c r="A307" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:1">
       <c r="A308" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:1">
       <c r="A309" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:1">
       <c r="A310" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:1">
       <c r="A311" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:1">
       <c r="A312" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:1">
       <c r="A313" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:1">
       <c r="A314" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:1">
       <c r="A315" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:1">
       <c r="A316" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:1">
       <c r="A317" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:1">
       <c r="A318" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:1">
       <c r="A319" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:1">
       <c r="A320" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:1">
       <c r="A321" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:1">
       <c r="A322" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:1">
       <c r="A323" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:1">
       <c r="A324" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:1">
       <c r="A325" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:1">
       <c r="A326" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:1">
       <c r="A327" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:1">
       <c r="A328" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:1">
       <c r="A329" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:1">
       <c r="A330" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:1">
       <c r="A331" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:1">
       <c r="A332" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:1">
       <c r="A333" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:1">
       <c r="A334" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:1">
       <c r="A335" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:1">
       <c r="A336" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:1">
       <c r="A337" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:1">
       <c r="A338" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:1">
       <c r="A339" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:1">
       <c r="A340" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:1">
       <c r="A341" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:1">
       <c r="A342" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:1">
       <c r="A343" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:1">
       <c r="A344" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:1">
       <c r="A345" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:1">
       <c r="A346" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:1">
       <c r="A347" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:1">
       <c r="A348" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:1">
       <c r="A349" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:1">
       <c r="A350" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:1">
       <c r="A351" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:1">
       <c r="A352" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:1">
       <c r="A353" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:1">
       <c r="A354" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:1">
       <c r="A355" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:1">
       <c r="A356" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:1">
       <c r="A357" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:1">
       <c r="A358" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:1">
       <c r="A359" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:1">
       <c r="A360" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:1">
       <c r="A361" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:1">
       <c r="A362" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:1">
       <c r="A363" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:1">
       <c r="A364" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:1">
       <c r="A365" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:1">
       <c r="A366" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:1">
       <c r="A367" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:1">
       <c r="A368" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:1">
       <c r="A369" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:1">
       <c r="A370" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:1">
       <c r="A371" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:1">
       <c r="A372" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:1">
       <c r="A373" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:1">
       <c r="A374" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:1">
       <c r="A375" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:1">
       <c r="A376" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:1">
       <c r="A377" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:1">
       <c r="A378" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:1">
       <c r="A379" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:1">
       <c r="A380" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:1">
       <c r="A381" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:1">
       <c r="A382" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:1">
       <c r="A383" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:1">
       <c r="A384" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:1">
       <c r="A385" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:1">
       <c r="A386" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:1">
       <c r="A387" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:1">
       <c r="A388" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:1">
       <c r="A389" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:1">
       <c r="A390" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:1">
       <c r="A391" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:1">
       <c r="A392" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:1">
       <c r="A393" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:1">
       <c r="A394" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:1">
       <c r="A395" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:1">
       <c r="A396" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:1">
       <c r="A397" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:1">
       <c r="A398" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:1">
       <c r="A399" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:1">
       <c r="A400" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:1">
       <c r="A401" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:1">
       <c r="A402" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:1">
       <c r="A403" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:1">
       <c r="A404" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:1">
       <c r="A405" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:1">
       <c r="A406" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:1">
       <c r="A407" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:1">
       <c r="A408" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:1">
       <c r="A409" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:1">
       <c r="A410" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:1">
       <c r="A411" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:1">
       <c r="A412" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:1">
       <c r="A413" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:1">
       <c r="A414" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:1">
       <c r="A415" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:1">
       <c r="A416" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:1">
       <c r="A417" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:1">
       <c r="A418" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:1">
       <c r="A419" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:1">
       <c r="A420" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:1">
       <c r="A421" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:1">
       <c r="A422" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:1">
       <c r="A423" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:1">
       <c r="A424" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:1">
       <c r="A425" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:1">
       <c r="A426" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:1">
       <c r="A427" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:1">
       <c r="A428" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:1">
       <c r="A429" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:1">
       <c r="A430" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:1">
       <c r="A431" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:1">
       <c r="A432" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:1">
       <c r="A433" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:1">
       <c r="A434" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:1">
       <c r="A435" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:1">
       <c r="A436" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:1">
       <c r="A437" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:1">
       <c r="A438" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:1">
       <c r="A439" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:1">
       <c r="A440" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:1">
       <c r="A441" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:1">
       <c r="A442" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:1">
       <c r="A443" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:1">
       <c r="A444" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:1">
       <c r="A445" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:1">
       <c r="A446" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:1">
       <c r="A447" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:1">
       <c r="A448" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:1">
       <c r="A449" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:1">
       <c r="A450" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:1">
       <c r="A451" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:1">
       <c r="A452" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:1">
       <c r="A453" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:1">
       <c r="A454" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:1">
       <c r="A455" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:1">
       <c r="A456" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:1">
       <c r="A457" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:1">
       <c r="A458" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:1">
       <c r="A459" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:1">
       <c r="A460" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:1">
       <c r="A461" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:1">
       <c r="A462" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:1">
       <c r="A463" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:1">
       <c r="A464" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:1">
       <c r="A465" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:1">
       <c r="A466" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:1">
       <c r="A467" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:1">
       <c r="A468" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:1">
       <c r="A469" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:1">
       <c r="A470" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:1">
       <c r="A471" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:1">
       <c r="A472" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:1">
       <c r="A473" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:1">
       <c r="A474" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:1">
       <c r="A475" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:1">
       <c r="A476" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:1">
       <c r="A477" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:1">
       <c r="A478" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:1">
       <c r="A479" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:1">
       <c r="A480" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:1">
       <c r="A481" t="s">
         <v>482</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B187" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
+      <selection pane="bottomRight" activeCell="J209" sqref="J209"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.7109375" style="9"/>
+    <col min="1" max="1" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="9"/>
     <col min="4" max="4" width="10.7109375" style="12"/>
     <col min="5" max="6" width="10.7109375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>487</v>
       </c>
@@ -4904,7 +4953,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -4921,7 +4970,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -4933,9 +4982,11 @@
       <c r="E3" s="4">
         <v>43458</v>
       </c>
-      <c r="F3" s="10"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F3" s="10">
+        <v>43511</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -4952,7 +5003,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -4964,26 +5015,34 @@
       <c r="E5" s="4">
         <v>43458</v>
       </c>
-      <c r="F5" s="10"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F5" s="10">
+        <v>43511</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="4">
         <v>43504</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="13"/>
+      <c r="C6" s="4">
+        <v>43512</v>
+      </c>
+      <c r="D6" s="13">
+        <v>16.399999999999999</v>
+      </c>
       <c r="E6" s="4">
         <v>43458</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="4"/>
+      <c r="B7" s="4">
+        <v>43512</v>
+      </c>
       <c r="C7" s="4"/>
       <c r="D7" s="13"/>
       <c r="E7" s="4">
@@ -4991,45 +5050,57 @@
       </c>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="4">
+        <v>43512</v>
+      </c>
       <c r="C8" s="4"/>
       <c r="D8" s="13"/>
       <c r="E8" s="4">
         <v>43458</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="4">
         <v>43497</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="13"/>
+      <c r="C9" s="4">
+        <v>43515</v>
+      </c>
+      <c r="D9" s="13">
+        <v>31.1</v>
+      </c>
       <c r="E9" s="4">
         <v>43458</v>
       </c>
-      <c r="F9" s="10"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F9" s="10">
+        <v>43511</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="4">
         <v>43495</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="13"/>
+      <c r="C10" s="4">
+        <v>43512</v>
+      </c>
+      <c r="D10" s="13">
+        <v>30</v>
+      </c>
       <c r="E10" s="4">
         <v>43458</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
@@ -5045,7 +5116,7 @@
         <v>43504</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
@@ -5056,15 +5127,19 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="4">
         <v>43495</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="13"/>
+      <c r="C13" s="4">
+        <v>43512</v>
+      </c>
+      <c r="D13" s="13">
+        <v>27.6</v>
+      </c>
       <c r="E13" s="4">
         <v>43458</v>
       </c>
@@ -5072,20 +5147,24 @@
         <v>43504</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="4">
         <v>43502</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="13"/>
+      <c r="C14" s="4">
+        <v>43512</v>
+      </c>
+      <c r="D14" s="13">
+        <v>22.1</v>
+      </c>
       <c r="E14" s="4">
         <v>43458</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
@@ -5105,20 +5184,24 @@
         <v>43502</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="4">
         <v>43500</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="13"/>
+      <c r="C16" s="4">
+        <v>43515</v>
+      </c>
+      <c r="D16" s="13">
+        <v>20.2</v>
+      </c>
       <c r="E16" s="4">
         <v>43458</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
@@ -5134,18 +5217,20 @@
         <v>43509</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="6"/>
+      <c r="B18" s="6">
+        <v>43512</v>
+      </c>
       <c r="C18" s="6"/>
       <c r="D18" s="14"/>
       <c r="E18" s="6">
         <v>43472</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" s="5" t="s">
         <v>20</v>
       </c>
@@ -5157,7 +5242,7 @@
       </c>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
@@ -5170,11 +5255,13 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="6"/>
+      <c r="B21" s="6">
+        <v>43512</v>
+      </c>
       <c r="C21" s="6"/>
       <c r="D21" s="14"/>
       <c r="E21" s="6">
@@ -5182,22 +5269,26 @@
       </c>
       <c r="F21" s="10"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="6"/>
+      <c r="B22" s="6">
+        <v>43515</v>
+      </c>
       <c r="C22" s="6"/>
       <c r="D22" s="14"/>
       <c r="E22" s="6">
         <v>43472</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="6"/>
+      <c r="B23" s="6">
+        <v>43512</v>
+      </c>
       <c r="C23" s="6"/>
       <c r="D23" s="14"/>
       <c r="E23" s="6">
@@ -5205,7 +5296,7 @@
       </c>
       <c r="F23" s="10"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" s="5" t="s">
         <v>25</v>
       </c>
@@ -5218,7 +5309,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" s="5" t="s">
         <v>26</v>
       </c>
@@ -5230,7 +5321,7 @@
       </c>
       <c r="F25" s="10"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" s="5" t="s">
         <v>27</v>
       </c>
@@ -5241,11 +5332,13 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="6"/>
+      <c r="B27" s="6">
+        <v>43512</v>
+      </c>
       <c r="C27" s="6"/>
       <c r="D27" s="14"/>
       <c r="E27" s="6">
@@ -5253,22 +5346,26 @@
       </c>
       <c r="F27" s="10"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="6"/>
+      <c r="B28" s="6">
+        <v>43512</v>
+      </c>
       <c r="C28" s="6"/>
       <c r="D28" s="14"/>
       <c r="E28" s="6">
         <v>43472</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="6"/>
+      <c r="B29" s="6">
+        <v>43515</v>
+      </c>
       <c r="C29" s="6"/>
       <c r="D29" s="14"/>
       <c r="E29" s="6">
@@ -5276,7 +5373,7 @@
       </c>
       <c r="F29" s="10"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" s="5" t="s">
         <v>31</v>
       </c>
@@ -5287,11 +5384,13 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="6"/>
+      <c r="B31" s="6">
+        <v>43515</v>
+      </c>
       <c r="C31" s="6"/>
       <c r="D31" s="14"/>
       <c r="E31" s="6">
@@ -5299,20 +5398,24 @@
       </c>
       <c r="F31" s="10"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B32" s="6">
         <v>43500</v>
       </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="14"/>
+      <c r="C32" s="6">
+        <v>43515</v>
+      </c>
+      <c r="D32" s="14">
+        <v>30.2</v>
+      </c>
       <c r="E32" s="6">
         <v>43472</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" s="5" t="s">
         <v>34</v>
       </c>
@@ -5324,9 +5427,11 @@
       <c r="E33" s="6">
         <v>43472</v>
       </c>
-      <c r="F33" s="10"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F33" s="10">
+        <v>43515</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="7" t="s">
         <v>35</v>
       </c>
@@ -5337,7 +5442,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" s="7" t="s">
         <v>36</v>
       </c>
@@ -5349,18 +5454,20 @@
       </c>
       <c r="F35" s="10"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="11"/>
+      <c r="B36" s="11">
+        <v>43515</v>
+      </c>
       <c r="C36" s="11"/>
       <c r="D36" s="15"/>
       <c r="E36" s="11">
         <v>43486</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" s="7" t="s">
         <v>38</v>
       </c>
@@ -5372,7 +5479,7 @@
       </c>
       <c r="F37" s="10"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38" s="7" t="s">
         <v>39</v>
       </c>
@@ -5383,11 +5490,13 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6">
       <c r="A39" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="11"/>
+      <c r="B39" s="11">
+        <v>43515</v>
+      </c>
       <c r="C39" s="11"/>
       <c r="D39" s="15"/>
       <c r="E39" s="11">
@@ -5395,7 +5504,7 @@
       </c>
       <c r="F39" s="10"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6">
       <c r="A40" s="7" t="s">
         <v>41</v>
       </c>
@@ -5406,11 +5515,13 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6">
       <c r="A41" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="11"/>
+      <c r="B41" s="11">
+        <v>43515</v>
+      </c>
       <c r="C41" s="11"/>
       <c r="D41" s="15"/>
       <c r="E41" s="11">
@@ -5418,7 +5529,7 @@
       </c>
       <c r="F41" s="10"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6">
       <c r="A42" s="7" t="s">
         <v>43</v>
       </c>
@@ -5429,7 +5540,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6">
       <c r="A43" s="7" t="s">
         <v>44</v>
       </c>
@@ -5441,7 +5552,7 @@
       </c>
       <c r="F43" s="10"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6">
       <c r="A44" s="7" t="s">
         <v>45</v>
       </c>
@@ -5452,7 +5563,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6">
       <c r="A45" s="7" t="s">
         <v>46</v>
       </c>
@@ -5464,7 +5575,7 @@
       </c>
       <c r="F45" s="10"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6">
       <c r="A46" s="7" t="s">
         <v>47</v>
       </c>
@@ -5475,11 +5586,13 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6">
       <c r="A47" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="11"/>
+      <c r="B47" s="11">
+        <v>43515</v>
+      </c>
       <c r="C47" s="11"/>
       <c r="D47" s="15"/>
       <c r="E47" s="11">
@@ -5487,7 +5600,7 @@
       </c>
       <c r="F47" s="10"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6">
       <c r="A48" s="7" t="s">
         <v>49</v>
       </c>
@@ -5498,7 +5611,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6">
       <c r="A49" s="7" t="s">
         <v>50</v>
       </c>
@@ -5510,7 +5623,7 @@
       </c>
       <c r="F49" s="10"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6">
       <c r="A50" s="3" t="s">
         <v>51</v>
       </c>
@@ -5527,7 +5640,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6">
       <c r="A51" s="3" t="s">
         <v>52</v>
       </c>
@@ -5547,7 +5660,7 @@
         <v>43493</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6">
       <c r="A52" s="3" t="s">
         <v>53</v>
       </c>
@@ -5564,7 +5677,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6">
       <c r="A53" s="3" t="s">
         <v>54</v>
       </c>
@@ -5584,7 +5697,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6">
       <c r="A54" s="3" t="s">
         <v>55</v>
       </c>
@@ -5601,7 +5714,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6">
       <c r="A55" s="3" t="s">
         <v>56</v>
       </c>
@@ -5621,7 +5734,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6">
       <c r="A56" s="3" t="s">
         <v>57</v>
       </c>
@@ -5638,7 +5751,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6">
       <c r="A57" s="3" t="s">
         <v>58</v>
       </c>
@@ -5658,7 +5771,7 @@
         <v>43493</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6">
       <c r="A58" s="3" t="s">
         <v>59</v>
       </c>
@@ -5675,7 +5788,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6">
       <c r="A59" s="3" t="s">
         <v>60</v>
       </c>
@@ -5691,7 +5804,7 @@
         <v>43504</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6">
       <c r="A60" s="3" t="s">
         <v>61</v>
       </c>
@@ -5708,7 +5821,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6">
       <c r="A61" s="3" t="s">
         <v>62</v>
       </c>
@@ -5720,7 +5833,7 @@
       </c>
       <c r="F61" s="10"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6">
       <c r="A62" s="3" t="s">
         <v>63</v>
       </c>
@@ -5737,7 +5850,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6">
       <c r="A63" s="3" t="s">
         <v>64</v>
       </c>
@@ -5757,7 +5870,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6">
       <c r="A64" s="3" t="s">
         <v>65</v>
       </c>
@@ -5774,7 +5887,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6">
       <c r="A65" s="3" t="s">
         <v>66</v>
       </c>
@@ -5794,7 +5907,7 @@
         <v>43479</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6">
       <c r="A66" s="5" t="s">
         <v>67</v>
       </c>
@@ -5807,7 +5920,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6">
       <c r="A67" s="5" t="s">
         <v>68</v>
       </c>
@@ -5823,20 +5936,24 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6">
       <c r="A68" s="5" t="s">
         <v>69</v>
       </c>
       <c r="B68" s="6">
         <v>43493</v>
       </c>
-      <c r="C68" s="6"/>
-      <c r="D68" s="14"/>
+      <c r="C68" s="6">
+        <v>43512</v>
+      </c>
+      <c r="D68" s="14">
+        <v>36.4</v>
+      </c>
       <c r="E68" s="6">
         <v>43472</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6">
       <c r="A69" s="5" t="s">
         <v>70</v>
       </c>
@@ -5852,7 +5969,7 @@
         <v>43504</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6">
       <c r="A70" s="5" t="s">
         <v>71</v>
       </c>
@@ -5869,7 +5986,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6">
       <c r="A71" s="5" t="s">
         <v>72</v>
       </c>
@@ -5885,7 +6002,7 @@
         <v>43497</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6">
       <c r="A72" s="5" t="s">
         <v>73</v>
       </c>
@@ -5896,15 +6013,19 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6">
       <c r="A73" s="5" t="s">
         <v>74</v>
       </c>
       <c r="B73" s="6">
         <v>43497</v>
       </c>
-      <c r="C73" s="6"/>
-      <c r="D73" s="14"/>
+      <c r="C73" s="6">
+        <v>43515</v>
+      </c>
+      <c r="D73" s="14">
+        <v>25.4</v>
+      </c>
       <c r="E73" s="6">
         <v>43472</v>
       </c>
@@ -5912,24 +6033,30 @@
         <v>43502</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6">
       <c r="A74" s="5" t="s">
         <v>75</v>
       </c>
       <c r="B74" s="6">
         <v>43493</v>
       </c>
-      <c r="C74" s="6"/>
-      <c r="D74" s="14"/>
+      <c r="C74" s="6">
+        <v>43512</v>
+      </c>
+      <c r="D74" s="14">
+        <v>33.799999999999997</v>
+      </c>
       <c r="E74" s="6">
         <v>43472</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6">
       <c r="A75" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B75" s="6"/>
+      <c r="B75" s="6">
+        <v>43512</v>
+      </c>
       <c r="C75" s="6"/>
       <c r="D75" s="14"/>
       <c r="E75" s="6">
@@ -5937,20 +6064,24 @@
       </c>
       <c r="F75" s="10"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6">
       <c r="A76" s="5" t="s">
         <v>77</v>
       </c>
       <c r="B76" s="6">
         <v>43493</v>
       </c>
-      <c r="C76" s="6"/>
-      <c r="D76" s="14"/>
+      <c r="C76" s="6">
+        <v>43512</v>
+      </c>
+      <c r="D76" s="14">
+        <v>27</v>
+      </c>
       <c r="E76" s="6">
         <v>43472</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6">
       <c r="A77" s="5" t="s">
         <v>78</v>
       </c>
@@ -5966,28 +6097,36 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6">
       <c r="A78" s="5" t="s">
         <v>79</v>
       </c>
       <c r="B78" s="6">
         <v>43493</v>
       </c>
-      <c r="C78" s="6"/>
-      <c r="D78" s="14"/>
+      <c r="C78" s="6">
+        <v>43512</v>
+      </c>
+      <c r="D78" s="14">
+        <v>20</v>
+      </c>
       <c r="E78" s="6">
         <v>43472</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6">
       <c r="A79" s="5" t="s">
         <v>80</v>
       </c>
       <c r="B79" s="6">
         <v>43493</v>
       </c>
-      <c r="C79" s="6"/>
-      <c r="D79" s="14"/>
+      <c r="C79" s="6">
+        <v>43515</v>
+      </c>
+      <c r="D79" s="14">
+        <v>25.4</v>
+      </c>
       <c r="E79" s="6">
         <v>43472</v>
       </c>
@@ -5995,28 +6134,36 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6">
       <c r="A80" s="5" t="s">
         <v>81</v>
       </c>
       <c r="B80" s="6">
         <v>43497</v>
       </c>
-      <c r="C80" s="6"/>
-      <c r="D80" s="14"/>
+      <c r="C80" s="6">
+        <v>43515</v>
+      </c>
+      <c r="D80" s="14">
+        <v>30.4</v>
+      </c>
       <c r="E80" s="6">
         <v>43472</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6">
       <c r="A81" s="5" t="s">
         <v>82</v>
       </c>
       <c r="B81" s="6">
         <v>43493</v>
       </c>
-      <c r="C81" s="6"/>
-      <c r="D81" s="14"/>
+      <c r="C81" s="6">
+        <v>43515</v>
+      </c>
+      <c r="D81" s="14">
+        <v>25.5</v>
+      </c>
       <c r="E81" s="6">
         <v>43472</v>
       </c>
@@ -6024,7 +6171,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6">
       <c r="A82" s="7" t="s">
         <v>83</v>
       </c>
@@ -6035,7 +6182,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6">
       <c r="A83" s="7" t="s">
         <v>84</v>
       </c>
@@ -6047,9 +6194,11 @@
       <c r="E83" s="11">
         <v>43486</v>
       </c>
-      <c r="F83" s="10"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F83" s="10">
+        <v>43511</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="7" t="s">
         <v>85</v>
       </c>
@@ -6062,7 +6211,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6">
       <c r="A85" s="7" t="s">
         <v>86</v>
       </c>
@@ -6078,7 +6227,7 @@
         <v>43509</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6">
       <c r="A86" s="7" t="s">
         <v>87</v>
       </c>
@@ -6091,7 +6240,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6">
       <c r="A87" s="7" t="s">
         <v>88</v>
       </c>
@@ -6103,7 +6252,7 @@
       </c>
       <c r="F87" s="10"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6">
       <c r="A88" s="7" t="s">
         <v>89</v>
       </c>
@@ -6114,7 +6263,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6">
       <c r="A89" s="7" t="s">
         <v>90</v>
       </c>
@@ -6128,7 +6277,7 @@
       </c>
       <c r="F89" s="10"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6">
       <c r="A90" s="7" t="s">
         <v>91</v>
       </c>
@@ -6141,7 +6290,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6">
       <c r="A91" s="7" t="s">
         <v>92</v>
       </c>
@@ -6153,20 +6302,24 @@
       <c r="E91" s="11">
         <v>43486</v>
       </c>
-      <c r="F91" s="10"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F91" s="10">
+        <v>43511</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B92" s="11"/>
+      <c r="B92" s="11">
+        <v>43512</v>
+      </c>
       <c r="C92" s="11"/>
       <c r="D92" s="15"/>
       <c r="E92" s="11">
         <v>43486</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6">
       <c r="A93" s="7" t="s">
         <v>94</v>
       </c>
@@ -6178,9 +6331,11 @@
       <c r="E93" s="11">
         <v>43486</v>
       </c>
-      <c r="F93" s="10"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F93" s="10">
+        <v>43515</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="7" t="s">
         <v>95</v>
       </c>
@@ -6193,7 +6348,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6">
       <c r="A95" s="7" t="s">
         <v>96</v>
       </c>
@@ -6205,9 +6360,11 @@
       <c r="E95" s="11">
         <v>43486</v>
       </c>
-      <c r="F95" s="10"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F95" s="10">
+        <v>43515</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="7" t="s">
         <v>97</v>
       </c>
@@ -6220,19 +6377,23 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13">
       <c r="A97" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B97" s="11"/>
+      <c r="B97" s="11">
+        <v>43512</v>
+      </c>
       <c r="C97" s="11"/>
       <c r="D97" s="15"/>
       <c r="E97" s="11">
         <v>43486</v>
       </c>
-      <c r="F97" s="10"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F97" s="10">
+        <v>43515</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="3" t="s">
         <v>99</v>
       </c>
@@ -6249,7 +6410,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13">
       <c r="A99" s="3" t="s">
         <v>100</v>
       </c>
@@ -6269,7 +6430,7 @@
         <v>43476</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13">
       <c r="A100" s="3" t="s">
         <v>101</v>
       </c>
@@ -6285,8 +6446,27 @@
       <c r="E100" s="4">
         <v>43458</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H100">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="I100">
+        <v>31.4</v>
+      </c>
+      <c r="J100">
+        <v>22.8</v>
+      </c>
+      <c r="K100">
+        <v>35.4</v>
+      </c>
+      <c r="L100">
+        <v>32.4</v>
+      </c>
+      <c r="M100">
+        <f>AVERAGE(I100:L100)</f>
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="3" t="s">
         <v>102</v>
       </c>
@@ -6306,7 +6486,7 @@
         <v>43473</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13">
       <c r="A102" s="3" t="s">
         <v>103</v>
       </c>
@@ -6322,8 +6502,27 @@
       <c r="E102" s="4">
         <v>43458</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H102">
+        <v>47.9</v>
+      </c>
+      <c r="I102">
+        <v>35.4</v>
+      </c>
+      <c r="J102">
+        <v>28</v>
+      </c>
+      <c r="K102">
+        <v>43.5</v>
+      </c>
+      <c r="L102">
+        <v>34.6</v>
+      </c>
+      <c r="M102">
+        <f>AVERAGE(I102:L102)</f>
+        <v>35.375</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="3" t="s">
         <v>104</v>
       </c>
@@ -6343,7 +6542,7 @@
         <v>43476</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13">
       <c r="A104" s="3" t="s">
         <v>105</v>
       </c>
@@ -6359,8 +6558,27 @@
       <c r="E104" s="4">
         <v>43458</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H104">
+        <v>40.6</v>
+      </c>
+      <c r="I104">
+        <v>41.7</v>
+      </c>
+      <c r="J104">
+        <v>24.8</v>
+      </c>
+      <c r="K104">
+        <v>47.3</v>
+      </c>
+      <c r="L104">
+        <v>34.6</v>
+      </c>
+      <c r="M104">
+        <f>AVERAGE(I104:L104)</f>
+        <v>37.1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
       <c r="A105" s="3" t="s">
         <v>106</v>
       </c>
@@ -6379,8 +6597,27 @@
       <c r="F105" s="10">
         <v>43476</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H105">
+        <v>43.6</v>
+      </c>
+      <c r="I105">
+        <v>28.6</v>
+      </c>
+      <c r="J105">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="K105">
+        <v>37.4</v>
+      </c>
+      <c r="L105">
+        <v>32.1</v>
+      </c>
+      <c r="M105">
+        <f>AVERAGE(I105:L105)</f>
+        <v>33.475000000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13">
       <c r="A106" s="3" t="s">
         <v>107</v>
       </c>
@@ -6397,7 +6634,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13">
       <c r="A107" s="3" t="s">
         <v>108</v>
       </c>
@@ -6417,7 +6654,7 @@
         <v>43476</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13">
       <c r="A108" s="3" t="s">
         <v>109</v>
       </c>
@@ -6433,8 +6670,27 @@
       <c r="E108" s="4">
         <v>43458</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H108">
+        <v>40.6</v>
+      </c>
+      <c r="I108">
+        <v>42.2</v>
+      </c>
+      <c r="J108">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="K108">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="L108">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="M108">
+        <f>AVERAGE(I108:L108)</f>
+        <v>38.375</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
       <c r="A109" s="3" t="s">
         <v>110</v>
       </c>
@@ -6454,7 +6710,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13">
       <c r="A110" s="3" t="s">
         <v>111</v>
       </c>
@@ -6471,7 +6727,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13">
       <c r="A111" s="3" t="s">
         <v>112</v>
       </c>
@@ -6491,7 +6747,7 @@
         <v>43473</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13">
       <c r="A112" s="3" t="s">
         <v>113</v>
       </c>
@@ -6508,7 +6764,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7">
       <c r="A113" s="3" t="s">
         <v>114</v>
       </c>
@@ -6531,7 +6787,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7">
       <c r="A114" s="5" t="s">
         <v>115</v>
       </c>
@@ -6548,15 +6804,19 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7">
       <c r="A115" s="5" t="s">
         <v>116</v>
       </c>
       <c r="B115" s="6">
         <v>43488</v>
       </c>
-      <c r="C115" s="6"/>
-      <c r="D115" s="14"/>
+      <c r="C115" s="6">
+        <v>43515</v>
+      </c>
+      <c r="D115" s="14">
+        <v>26.2</v>
+      </c>
       <c r="E115" s="6">
         <v>43472</v>
       </c>
@@ -6564,7 +6824,7 @@
         <v>43493</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7">
       <c r="A116" s="5" t="s">
         <v>117</v>
       </c>
@@ -6581,15 +6841,19 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7">
       <c r="A117" s="5" t="s">
         <v>118</v>
       </c>
       <c r="B117" s="6">
         <v>43493</v>
       </c>
-      <c r="C117" s="6"/>
-      <c r="D117" s="14"/>
+      <c r="C117" s="6">
+        <v>43515</v>
+      </c>
+      <c r="D117" s="14">
+        <v>38.6</v>
+      </c>
       <c r="E117" s="6">
         <v>43472</v>
       </c>
@@ -6597,20 +6861,24 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7">
       <c r="A118" s="5" t="s">
         <v>119</v>
       </c>
       <c r="B118" s="6">
         <v>43486</v>
       </c>
-      <c r="C118" s="6"/>
-      <c r="D118" s="14"/>
+      <c r="C118" s="6">
+        <v>43512</v>
+      </c>
+      <c r="D118" s="14">
+        <v>45.2</v>
+      </c>
       <c r="E118" s="6">
         <v>43472</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7">
       <c r="A119" s="5" t="s">
         <v>120</v>
       </c>
@@ -6633,7 +6901,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7">
       <c r="A120" s="5" t="s">
         <v>121</v>
       </c>
@@ -6650,7 +6918,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7">
       <c r="A121" s="5" t="s">
         <v>122</v>
       </c>
@@ -6670,7 +6938,7 @@
         <v>43497</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7">
       <c r="A122" s="5" t="s">
         <v>123</v>
       </c>
@@ -6687,23 +6955,30 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7">
       <c r="A123" s="5" t="s">
         <v>124</v>
       </c>
       <c r="B123" s="6">
         <v>43490</v>
       </c>
-      <c r="C123" s="6"/>
-      <c r="D123" s="14"/>
+      <c r="C123" s="6">
+        <v>43515</v>
+      </c>
+      <c r="D123" s="14">
+        <v>47.7</v>
+      </c>
       <c r="E123" s="6">
         <v>43472</v>
       </c>
       <c r="F123" s="10">
         <v>43497</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G123" s="21">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
       <c r="A124" s="5" t="s">
         <v>125</v>
       </c>
@@ -6720,7 +6995,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7">
       <c r="A125" s="5" t="s">
         <v>126</v>
       </c>
@@ -6740,7 +7015,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7">
       <c r="A126" s="5" t="s">
         <v>127</v>
       </c>
@@ -6757,15 +7032,19 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7">
       <c r="A127" s="5" t="s">
         <v>128</v>
       </c>
       <c r="B127" s="6">
         <v>43493</v>
       </c>
-      <c r="C127" s="6"/>
-      <c r="D127" s="14"/>
+      <c r="C127" s="6">
+        <v>43512</v>
+      </c>
+      <c r="D127" s="14">
+        <v>40.4</v>
+      </c>
       <c r="E127" s="6">
         <v>43472</v>
       </c>
@@ -6773,7 +7052,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7">
       <c r="A128" s="5" t="s">
         <v>129</v>
       </c>
@@ -6790,7 +7069,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6">
       <c r="A129" s="5" t="s">
         <v>130</v>
       </c>
@@ -6810,20 +7089,24 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6">
       <c r="A130" s="7" t="s">
         <v>131</v>
       </c>
       <c r="B130" s="11">
         <v>43500</v>
       </c>
-      <c r="C130" s="11"/>
-      <c r="D130" s="15"/>
+      <c r="C130" s="11">
+        <v>43512</v>
+      </c>
+      <c r="D130" s="15">
+        <v>38.6</v>
+      </c>
       <c r="E130" s="11">
         <v>43486</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6">
       <c r="A131" s="7" t="s">
         <v>132</v>
       </c>
@@ -6839,20 +7122,24 @@
         <v>43504</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6">
       <c r="A132" s="7" t="s">
         <v>133</v>
       </c>
       <c r="B132" s="11">
         <v>43497</v>
       </c>
-      <c r="C132" s="11"/>
-      <c r="D132" s="15"/>
+      <c r="C132" s="11">
+        <v>43512</v>
+      </c>
+      <c r="D132" s="15">
+        <v>36.200000000000003</v>
+      </c>
       <c r="E132" s="11">
         <v>43486</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6">
       <c r="A133" s="7" t="s">
         <v>134</v>
       </c>
@@ -6868,20 +7155,24 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6">
       <c r="A134" s="7" t="s">
         <v>135</v>
       </c>
       <c r="B134" s="11">
         <v>43497</v>
       </c>
-      <c r="C134" s="11"/>
-      <c r="D134" s="15"/>
+      <c r="C134" s="11">
+        <v>43512</v>
+      </c>
+      <c r="D134" s="15">
+        <v>45.7</v>
+      </c>
       <c r="E134" s="11">
         <v>43486</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6">
       <c r="A135" s="7" t="s">
         <v>136</v>
       </c>
@@ -6893,28 +7184,36 @@
       <c r="E135" s="11">
         <v>43486</v>
       </c>
-      <c r="F135" s="10"/>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F135" s="10">
+        <v>43511</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
       <c r="A136" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="B136" s="11"/>
+      <c r="B136" s="11">
+        <v>43512</v>
+      </c>
       <c r="C136" s="11"/>
       <c r="D136" s="15"/>
       <c r="E136" s="11">
         <v>43486</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6">
       <c r="A137" s="7" t="s">
         <v>138</v>
       </c>
       <c r="B137" s="11">
         <v>43493</v>
       </c>
-      <c r="C137" s="11"/>
-      <c r="D137" s="15"/>
+      <c r="C137" s="11">
+        <v>43515</v>
+      </c>
+      <c r="D137" s="15">
+        <v>33</v>
+      </c>
       <c r="E137" s="11">
         <v>43486</v>
       </c>
@@ -6922,7 +7221,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6">
       <c r="A138" s="7" t="s">
         <v>139</v>
       </c>
@@ -6939,7 +7238,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6">
       <c r="A139" s="7" t="s">
         <v>140</v>
       </c>
@@ -6955,7 +7254,7 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6">
       <c r="A140" s="7" t="s">
         <v>141</v>
       </c>
@@ -6968,15 +7267,19 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6">
       <c r="A141" s="7" t="s">
         <v>142</v>
       </c>
       <c r="B141" s="11">
         <v>43493</v>
       </c>
-      <c r="C141" s="11"/>
-      <c r="D141" s="15"/>
+      <c r="C141" s="11">
+        <v>43512</v>
+      </c>
+      <c r="D141" s="15">
+        <v>36</v>
+      </c>
       <c r="E141" s="11">
         <v>43486</v>
       </c>
@@ -6984,20 +7287,24 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6">
       <c r="A142" s="7" t="s">
         <v>143</v>
       </c>
       <c r="B142" s="11">
         <v>43500</v>
       </c>
-      <c r="C142" s="11"/>
-      <c r="D142" s="15"/>
+      <c r="C142" s="11">
+        <v>43512</v>
+      </c>
+      <c r="D142" s="15">
+        <v>38.4</v>
+      </c>
       <c r="E142" s="11">
         <v>43486</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6">
       <c r="A143" s="7" t="s">
         <v>144</v>
       </c>
@@ -7013,7 +7320,7 @@
         <v>43504</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6">
       <c r="A144" s="7" t="s">
         <v>145</v>
       </c>
@@ -7030,7 +7337,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7">
       <c r="A145" s="7" t="s">
         <v>146</v>
       </c>
@@ -7046,7 +7353,7 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7">
       <c r="A146" s="3" t="s">
         <v>147</v>
       </c>
@@ -7063,7 +7370,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7">
       <c r="A147" s="3" t="s">
         <v>148</v>
       </c>
@@ -7083,7 +7390,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7">
       <c r="A148" s="3" t="s">
         <v>149</v>
       </c>
@@ -7100,7 +7407,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7">
       <c r="A149" s="3" t="s">
         <v>150</v>
       </c>
@@ -7123,7 +7430,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7">
       <c r="A150" s="3" t="s">
         <v>151</v>
       </c>
@@ -7140,7 +7447,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7">
       <c r="A151" s="3" t="s">
         <v>152</v>
       </c>
@@ -7160,7 +7467,7 @@
         <v>43483</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7">
       <c r="A152" s="3" t="s">
         <v>153</v>
       </c>
@@ -7177,7 +7484,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7">
       <c r="A153" s="3" t="s">
         <v>154</v>
       </c>
@@ -7197,7 +7504,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7">
       <c r="A154" s="3" t="s">
         <v>155</v>
       </c>
@@ -7214,7 +7521,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7">
       <c r="A155" s="3" t="s">
         <v>156</v>
       </c>
@@ -7234,7 +7541,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7">
       <c r="A156" s="3" t="s">
         <v>157</v>
       </c>
@@ -7251,7 +7558,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7">
       <c r="A157" s="3" t="s">
         <v>158</v>
       </c>
@@ -7271,7 +7578,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7">
       <c r="A158" s="3" t="s">
         <v>159</v>
       </c>
@@ -7288,7 +7595,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7">
       <c r="A159" s="3" t="s">
         <v>160</v>
       </c>
@@ -7308,7 +7615,7 @@
         <v>43483</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7">
       <c r="A160" s="3" t="s">
         <v>161</v>
       </c>
@@ -7325,7 +7632,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6">
       <c r="A161" s="3" t="s">
         <v>162</v>
       </c>
@@ -7345,7 +7652,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6">
       <c r="A162" s="5" t="s">
         <v>163</v>
       </c>
@@ -7362,7 +7669,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6">
       <c r="A163" s="5" t="s">
         <v>164</v>
       </c>
@@ -7382,7 +7689,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6">
       <c r="A164" s="5" t="s">
         <v>165</v>
       </c>
@@ -7399,15 +7706,19 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6">
       <c r="A165" s="5" t="s">
         <v>166</v>
       </c>
       <c r="B165" s="6">
         <v>43490</v>
       </c>
-      <c r="C165" s="6"/>
-      <c r="D165" s="14"/>
+      <c r="C165" s="6">
+        <v>43512</v>
+      </c>
+      <c r="D165" s="14">
+        <v>51.4</v>
+      </c>
       <c r="E165" s="6">
         <v>43472</v>
       </c>
@@ -7415,7 +7726,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6">
       <c r="A166" s="5" t="s">
         <v>167</v>
       </c>
@@ -7432,7 +7743,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6">
       <c r="A167" s="5" t="s">
         <v>168</v>
       </c>
@@ -7452,7 +7763,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6">
       <c r="A168" s="5" t="s">
         <v>169</v>
       </c>
@@ -7469,7 +7780,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6">
       <c r="A169" s="5" t="s">
         <v>170</v>
       </c>
@@ -7489,7 +7800,7 @@
         <v>43493</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6">
       <c r="A170" s="5" t="s">
         <v>171</v>
       </c>
@@ -7506,7 +7817,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6">
       <c r="A171" s="5" t="s">
         <v>172</v>
       </c>
@@ -7526,7 +7837,7 @@
         <v>43497</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6">
       <c r="A172" s="5" t="s">
         <v>173</v>
       </c>
@@ -7543,15 +7854,19 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6">
       <c r="A173" s="5" t="s">
         <v>174</v>
       </c>
       <c r="B173" s="6">
         <v>43497</v>
       </c>
-      <c r="C173" s="6"/>
-      <c r="D173" s="14"/>
+      <c r="C173" s="6">
+        <v>43512</v>
+      </c>
+      <c r="D173" s="14">
+        <v>50</v>
+      </c>
       <c r="E173" s="6">
         <v>43472</v>
       </c>
@@ -7559,7 +7874,7 @@
         <v>43502</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6">
       <c r="A174" s="5" t="s">
         <v>175</v>
       </c>
@@ -7576,7 +7891,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6">
       <c r="A175" s="5" t="s">
         <v>176</v>
       </c>
@@ -7596,7 +7911,7 @@
         <v>43497</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6">
       <c r="A176" s="5" t="s">
         <v>177</v>
       </c>
@@ -7613,7 +7928,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6">
       <c r="A177" s="5" t="s">
         <v>178</v>
       </c>
@@ -7633,20 +7948,24 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6">
       <c r="A178" s="7" t="s">
         <v>179</v>
       </c>
       <c r="B178" s="11">
         <v>43502</v>
       </c>
-      <c r="C178" s="11"/>
-      <c r="D178" s="15"/>
+      <c r="C178" s="11">
+        <v>43515</v>
+      </c>
+      <c r="D178" s="15">
+        <v>51.8</v>
+      </c>
       <c r="E178" s="11">
         <v>43486</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6">
       <c r="A179" s="7" t="s">
         <v>180</v>
       </c>
@@ -7662,7 +7981,7 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6">
       <c r="A180" s="7" t="s">
         <v>181</v>
       </c>
@@ -7675,7 +7994,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6">
       <c r="A181" s="7" t="s">
         <v>182</v>
       </c>
@@ -7691,20 +8010,24 @@
         <v>43509</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6">
       <c r="A182" s="7" t="s">
         <v>183</v>
       </c>
       <c r="B182" s="11">
         <v>43502</v>
       </c>
-      <c r="C182" s="11"/>
-      <c r="D182" s="15"/>
+      <c r="C182" s="11">
+        <v>43515</v>
+      </c>
+      <c r="D182" s="15">
+        <v>41.4</v>
+      </c>
       <c r="E182" s="11">
         <v>43486</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6">
       <c r="A183" s="7" t="s">
         <v>184</v>
       </c>
@@ -7720,20 +8043,24 @@
         <v>43509</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6">
       <c r="A184" s="7" t="s">
         <v>185</v>
       </c>
       <c r="B184" s="11">
         <v>43500</v>
       </c>
-      <c r="C184" s="11"/>
-      <c r="D184" s="15"/>
+      <c r="C184" s="11">
+        <v>43512</v>
+      </c>
+      <c r="D184" s="15">
+        <v>51.6</v>
+      </c>
       <c r="E184" s="11">
         <v>43486</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6">
       <c r="A185" s="7" t="s">
         <v>186</v>
       </c>
@@ -7749,7 +8076,7 @@
         <v>43504</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6">
       <c r="A186" s="7" t="s">
         <v>187</v>
       </c>
@@ -7762,7 +8089,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6">
       <c r="A187" s="7" t="s">
         <v>188</v>
       </c>
@@ -7778,28 +8105,36 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6">
       <c r="A188" s="7" t="s">
         <v>189</v>
       </c>
       <c r="B188" s="11">
         <v>43500</v>
       </c>
-      <c r="C188" s="11"/>
-      <c r="D188" s="15"/>
+      <c r="C188" s="11">
+        <v>43512</v>
+      </c>
+      <c r="D188" s="15">
+        <v>49.8</v>
+      </c>
       <c r="E188" s="11">
         <v>43486</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6">
       <c r="A189" s="7" t="s">
         <v>190</v>
       </c>
       <c r="B189" s="11">
         <v>43502</v>
       </c>
-      <c r="C189" s="11"/>
-      <c r="D189" s="15"/>
+      <c r="C189" s="11">
+        <v>43515</v>
+      </c>
+      <c r="D189" s="15">
+        <v>51.6</v>
+      </c>
       <c r="E189" s="11">
         <v>43486</v>
       </c>
@@ -7807,28 +8142,36 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6">
       <c r="A190" s="7" t="s">
         <v>191</v>
       </c>
       <c r="B190" s="11">
         <v>43507</v>
       </c>
-      <c r="C190" s="11"/>
-      <c r="D190" s="15"/>
+      <c r="C190" s="11">
+        <v>43515</v>
+      </c>
+      <c r="D190" s="15">
+        <v>53.7</v>
+      </c>
       <c r="E190" s="11">
         <v>43486</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6">
       <c r="A191" s="7" t="s">
         <v>192</v>
       </c>
       <c r="B191" s="11">
         <v>43502</v>
       </c>
-      <c r="C191" s="11"/>
-      <c r="D191" s="15"/>
+      <c r="C191" s="11">
+        <v>43515</v>
+      </c>
+      <c r="D191" s="15">
+        <v>46.3</v>
+      </c>
       <c r="E191" s="11">
         <v>43486</v>
       </c>
@@ -7836,20 +8179,24 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6">
       <c r="A192" s="7" t="s">
         <v>193</v>
       </c>
       <c r="B192" s="11">
         <v>43500</v>
       </c>
-      <c r="C192" s="11"/>
-      <c r="D192" s="15"/>
+      <c r="C192" s="11">
+        <v>43512</v>
+      </c>
+      <c r="D192" s="15">
+        <v>49</v>
+      </c>
       <c r="E192" s="11">
         <v>43486</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:13">
       <c r="A193" s="7" t="s">
         <v>194</v>
       </c>
@@ -7865,7 +8212,7 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:13">
       <c r="A194" s="3" t="s">
         <v>195</v>
       </c>
@@ -7881,8 +8228,27 @@
       <c r="E194" s="4">
         <v>43458</v>
       </c>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H194">
+        <v>60.4</v>
+      </c>
+      <c r="I194">
+        <v>35</v>
+      </c>
+      <c r="J194">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="K194">
+        <v>32</v>
+      </c>
+      <c r="L194">
+        <v>30.8</v>
+      </c>
+      <c r="M194">
+        <f>AVERAGE(I194:L194)</f>
+        <v>33.75</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13">
       <c r="A195" s="3" t="s">
         <v>196</v>
       </c>
@@ -7902,7 +8268,7 @@
         <v>43479</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:13">
       <c r="A196" s="3" t="s">
         <v>197</v>
       </c>
@@ -7919,7 +8285,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:13">
       <c r="A197" s="3" t="s">
         <v>198</v>
       </c>
@@ -7939,7 +8305,7 @@
         <v>43493</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:13">
       <c r="A198" s="3" t="s">
         <v>199</v>
       </c>
@@ -7975,7 +8341,7 @@
         <v>34.375</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:13">
       <c r="A199" s="3" t="s">
         <v>200</v>
       </c>
@@ -7995,7 +8361,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:13">
       <c r="A200" s="3" t="s">
         <v>201</v>
       </c>
@@ -8012,7 +8378,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:13">
       <c r="A201" s="3" t="s">
         <v>202</v>
       </c>
@@ -8032,7 +8398,7 @@
         <v>43493</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:13">
       <c r="A202" s="3" t="s">
         <v>203</v>
       </c>
@@ -8049,7 +8415,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:13" ht="19" customHeight="1">
       <c r="A203" s="3" t="s">
         <v>204</v>
       </c>
@@ -8069,7 +8435,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:13" ht="17" customHeight="1">
       <c r="A204" s="3" t="s">
         <v>205</v>
       </c>
@@ -8086,7 +8452,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:13" ht="18" customHeight="1">
       <c r="A205" s="3" t="s">
         <v>206</v>
       </c>
@@ -8105,8 +8471,27 @@
       <c r="F205" s="10">
         <v>43473</v>
       </c>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H205">
+        <v>64.3</v>
+      </c>
+      <c r="I205">
+        <v>33.9</v>
+      </c>
+      <c r="J205">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="K205">
+        <v>30.9</v>
+      </c>
+      <c r="L205">
+        <v>33.1</v>
+      </c>
+      <c r="M205">
+        <f t="shared" ref="M205:M206" si="0">AVERAGE(I205:L205)</f>
+        <v>32.799999999999997</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" ht="17" customHeight="1">
       <c r="A206" s="3" t="s">
         <v>207</v>
       </c>
@@ -8122,8 +8507,27 @@
       <c r="E206" s="4">
         <v>43458</v>
       </c>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H206">
+        <v>62</v>
+      </c>
+      <c r="I206">
+        <v>25.9</v>
+      </c>
+      <c r="J206">
+        <v>25</v>
+      </c>
+      <c r="K206">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="L206">
+        <v>30.6</v>
+      </c>
+      <c r="M206">
+        <f t="shared" si="0"/>
+        <v>28.674999999999997</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" ht="17" customHeight="1">
       <c r="A207" s="3" t="s">
         <v>208</v>
       </c>
@@ -8146,7 +8550,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:13">
       <c r="A208" s="3" t="s">
         <v>209</v>
       </c>
@@ -8182,7 +8586,7 @@
         <v>27.574999999999999</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7">
       <c r="A209" s="3" t="s">
         <v>210</v>
       </c>
@@ -8202,7 +8606,7 @@
         <v>43473</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:7">
       <c r="A210" s="5" t="s">
         <v>211</v>
       </c>
@@ -8219,15 +8623,19 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:7">
       <c r="A211" s="5" t="s">
         <v>212</v>
       </c>
       <c r="B211" s="6">
         <v>43493</v>
       </c>
-      <c r="C211" s="6"/>
-      <c r="D211" s="14"/>
+      <c r="C211" s="6">
+        <v>43515</v>
+      </c>
+      <c r="D211" s="14">
+        <v>39.5</v>
+      </c>
       <c r="E211" s="6">
         <v>43472</v>
       </c>
@@ -8235,7 +8643,7 @@
         <v>43502</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:7">
       <c r="A212" s="5" t="s">
         <v>213</v>
       </c>
@@ -8252,36 +8660,47 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:7">
       <c r="A213" s="5" t="s">
         <v>214</v>
       </c>
       <c r="B213" s="6">
         <v>43495</v>
       </c>
-      <c r="C213" s="6"/>
-      <c r="D213" s="14"/>
+      <c r="C213" s="6">
+        <v>43515</v>
+      </c>
+      <c r="D213" s="14">
+        <v>53.8</v>
+      </c>
       <c r="E213" s="6">
         <v>43472</v>
       </c>
       <c r="F213" s="10">
         <v>43500</v>
       </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G213" s="21">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
       <c r="A214" s="5" t="s">
         <v>215</v>
       </c>
       <c r="B214" s="6">
         <v>43497</v>
       </c>
-      <c r="C214" s="6"/>
-      <c r="D214" s="14"/>
+      <c r="C214" s="6">
+        <v>43512</v>
+      </c>
+      <c r="D214" s="14">
+        <v>39.6</v>
+      </c>
       <c r="E214" s="6">
         <v>43472</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:7">
       <c r="A215" s="5" t="s">
         <v>216</v>
       </c>
@@ -8301,7 +8720,7 @@
         <v>43493</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:7">
       <c r="A216" s="5" t="s">
         <v>217</v>
       </c>
@@ -8318,7 +8737,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:7">
       <c r="A217" s="5" t="s">
         <v>218</v>
       </c>
@@ -8338,7 +8757,7 @@
         <v>43497</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:7">
       <c r="A218" s="5" t="s">
         <v>219</v>
       </c>
@@ -8355,15 +8774,19 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:7">
       <c r="A219" s="5" t="s">
         <v>220</v>
       </c>
       <c r="B219" s="6">
         <v>43493</v>
       </c>
-      <c r="C219" s="6"/>
-      <c r="D219" s="14"/>
+      <c r="C219" s="6">
+        <v>43515</v>
+      </c>
+      <c r="D219" s="14">
+        <v>51.2</v>
+      </c>
       <c r="E219" s="6">
         <v>43472</v>
       </c>
@@ -8371,7 +8794,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:7">
       <c r="A220" s="5" t="s">
         <v>221</v>
       </c>
@@ -8388,7 +8811,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:7">
       <c r="A221" s="5" t="s">
         <v>222</v>
       </c>
@@ -8408,7 +8831,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:7">
       <c r="A222" s="5" t="s">
         <v>223</v>
       </c>
@@ -8425,7 +8848,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:7">
       <c r="A223" s="5" t="s">
         <v>224</v>
       </c>
@@ -8445,7 +8868,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:7">
       <c r="A224" s="5" t="s">
         <v>225</v>
       </c>
@@ -8462,7 +8885,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:6">
       <c r="A225" s="5" t="s">
         <v>226</v>
       </c>
@@ -8482,20 +8905,24 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:6">
       <c r="A226" s="7" t="s">
         <v>227</v>
       </c>
       <c r="B226" s="11">
         <v>43500</v>
       </c>
-      <c r="C226" s="11"/>
-      <c r="D226" s="15"/>
+      <c r="C226" s="11">
+        <v>43515</v>
+      </c>
+      <c r="D226" s="15">
+        <v>62.9</v>
+      </c>
       <c r="E226" s="11">
         <v>43486</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:6">
       <c r="A227" s="7" t="s">
         <v>228</v>
       </c>
@@ -8511,20 +8938,24 @@
         <v>43504</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:6">
       <c r="A228" s="7" t="s">
         <v>229</v>
       </c>
       <c r="B228" s="11">
         <v>43504</v>
       </c>
-      <c r="C228" s="11"/>
-      <c r="D228" s="15"/>
+      <c r="C228" s="11">
+        <v>43515</v>
+      </c>
+      <c r="D228" s="15">
+        <v>41.6</v>
+      </c>
       <c r="E228" s="11">
         <v>43486</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:6">
       <c r="A229" s="7" t="s">
         <v>230</v>
       </c>
@@ -8536,28 +8967,36 @@
       <c r="E229" s="11">
         <v>43486</v>
       </c>
-      <c r="F229" s="10"/>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F229" s="10">
+        <v>43511</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
       <c r="A230" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="B230" s="11"/>
+      <c r="B230" s="11">
+        <v>43512</v>
+      </c>
       <c r="C230" s="11"/>
       <c r="D230" s="15"/>
       <c r="E230" s="11">
         <v>43486</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:6">
       <c r="A231" s="7" t="s">
         <v>232</v>
       </c>
       <c r="B231" s="11">
         <v>43497</v>
       </c>
-      <c r="C231" s="11"/>
-      <c r="D231" s="15"/>
+      <c r="C231" s="11">
+        <v>43515</v>
+      </c>
+      <c r="D231" s="15">
+        <v>56</v>
+      </c>
       <c r="E231" s="11">
         <v>43486</v>
       </c>
@@ -8565,7 +9004,7 @@
         <v>43502</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:6">
       <c r="A232" s="7" t="s">
         <v>233</v>
       </c>
@@ -8582,7 +9021,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:6">
       <c r="A233" s="7" t="s">
         <v>234</v>
       </c>
@@ -8598,7 +9037,7 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:6">
       <c r="A234" s="7" t="s">
         <v>235</v>
       </c>
@@ -8611,15 +9050,19 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:6">
       <c r="A235" s="7" t="s">
         <v>236</v>
       </c>
       <c r="B235" s="11">
         <v>43493</v>
       </c>
-      <c r="C235" s="11"/>
-      <c r="D235" s="15"/>
+      <c r="C235" s="11">
+        <v>43512</v>
+      </c>
+      <c r="D235" s="15">
+        <v>55.9</v>
+      </c>
       <c r="E235" s="11">
         <v>43486</v>
       </c>
@@ -8627,7 +9070,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:6">
       <c r="A236" s="7" t="s">
         <v>237</v>
       </c>
@@ -8644,7 +9087,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:6">
       <c r="A237" s="7" t="s">
         <v>238</v>
       </c>
@@ -8656,22 +9099,28 @@
       <c r="E237" s="11">
         <v>43486</v>
       </c>
-      <c r="F237" s="10"/>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F237" s="10">
+        <v>43511</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
       <c r="A238" s="7" t="s">
         <v>239</v>
       </c>
       <c r="B238" s="11">
         <v>43495</v>
       </c>
-      <c r="C238" s="11"/>
-      <c r="D238" s="15"/>
+      <c r="C238" s="11">
+        <v>43512</v>
+      </c>
+      <c r="D238" s="15">
+        <v>60.4</v>
+      </c>
       <c r="E238" s="11">
         <v>43486</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:6">
       <c r="A239" s="7" t="s">
         <v>240</v>
       </c>
@@ -8687,7 +9136,7 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:6">
       <c r="A240" s="7" t="s">
         <v>241</v>
       </c>
@@ -8700,23 +9149,30 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:7">
       <c r="A241" s="7" t="s">
         <v>242</v>
       </c>
       <c r="B241" s="11">
         <v>43493</v>
       </c>
-      <c r="C241" s="11"/>
-      <c r="D241" s="15"/>
+      <c r="C241" s="11">
+        <v>43515</v>
+      </c>
+      <c r="D241" s="15">
+        <v>58.6</v>
+      </c>
       <c r="E241" s="11">
         <v>43486</v>
       </c>
       <c r="F241" s="10">
         <v>43500</v>
       </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G241" s="21">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
       <c r="A242" s="3" t="s">
         <v>243</v>
       </c>
@@ -8727,7 +9183,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:7">
       <c r="A243" s="3" t="s">
         <v>244</v>
       </c>
@@ -8739,7 +9195,7 @@
       </c>
       <c r="F243" s="10"/>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:7">
       <c r="A244" s="3" t="s">
         <v>245</v>
       </c>
@@ -8750,7 +9206,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:7">
       <c r="A245" s="3" t="s">
         <v>246</v>
       </c>
@@ -8762,7 +9218,7 @@
       </c>
       <c r="F245" s="10"/>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:7">
       <c r="A246" s="3" t="s">
         <v>247</v>
       </c>
@@ -8773,7 +9229,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:7">
       <c r="A247" s="3" t="s">
         <v>248</v>
       </c>
@@ -8785,7 +9241,7 @@
       </c>
       <c r="F247" s="10"/>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:7">
       <c r="A248" s="3" t="s">
         <v>249</v>
       </c>
@@ -8796,7 +9252,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:7">
       <c r="A249" s="3" t="s">
         <v>250</v>
       </c>
@@ -8808,7 +9264,7 @@
       </c>
       <c r="F249" s="10"/>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:7">
       <c r="A250" s="3" t="s">
         <v>251</v>
       </c>
@@ -8819,7 +9275,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:7">
       <c r="A251" s="3" t="s">
         <v>252</v>
       </c>
@@ -8831,7 +9287,7 @@
       </c>
       <c r="F251" s="10"/>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:7">
       <c r="A252" s="3" t="s">
         <v>253</v>
       </c>
@@ -8842,7 +9298,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:7">
       <c r="A253" s="3" t="s">
         <v>254</v>
       </c>
@@ -8854,7 +9310,7 @@
       </c>
       <c r="F253" s="10"/>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:7">
       <c r="A254" s="3" t="s">
         <v>255</v>
       </c>
@@ -8865,7 +9321,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:7">
       <c r="A255" s="3" t="s">
         <v>256</v>
       </c>
@@ -8877,7 +9333,7 @@
       </c>
       <c r="F255" s="10"/>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:7">
       <c r="A256" s="3" t="s">
         <v>257</v>
       </c>
@@ -8888,7 +9344,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:6">
       <c r="A257" s="3" t="s">
         <v>258</v>
       </c>
@@ -8900,7 +9356,7 @@
       </c>
       <c r="F257" s="10"/>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:6">
       <c r="A258" s="5" t="s">
         <v>259</v>
       </c>
@@ -8911,7 +9367,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:6">
       <c r="A259" s="5" t="s">
         <v>260</v>
       </c>
@@ -8923,7 +9379,7 @@
       </c>
       <c r="F259" s="10"/>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:6">
       <c r="A260" s="5" t="s">
         <v>261</v>
       </c>
@@ -8934,7 +9390,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:6">
       <c r="A261" s="5" t="s">
         <v>262</v>
       </c>
@@ -8946,7 +9402,7 @@
       </c>
       <c r="F261" s="10"/>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:6">
       <c r="A262" s="5" t="s">
         <v>263</v>
       </c>
@@ -8957,7 +9413,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:6">
       <c r="A263" s="5" t="s">
         <v>264</v>
       </c>
@@ -8969,7 +9425,7 @@
       </c>
       <c r="F263" s="10"/>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:6">
       <c r="A264" s="5" t="s">
         <v>265</v>
       </c>
@@ -8980,7 +9436,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:6">
       <c r="A265" s="5" t="s">
         <v>266</v>
       </c>
@@ -8992,7 +9448,7 @@
       </c>
       <c r="F265" s="10"/>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:6">
       <c r="A266" s="5" t="s">
         <v>267</v>
       </c>
@@ -9003,7 +9459,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:6">
       <c r="A267" s="5" t="s">
         <v>268</v>
       </c>
@@ -9015,7 +9471,7 @@
       </c>
       <c r="F267" s="10"/>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:6">
       <c r="A268" s="5" t="s">
         <v>269</v>
       </c>
@@ -9026,7 +9482,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:6">
       <c r="A269" s="5" t="s">
         <v>270</v>
       </c>
@@ -9038,7 +9494,7 @@
       </c>
       <c r="F269" s="10"/>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:6">
       <c r="A270" s="5" t="s">
         <v>271</v>
       </c>
@@ -9049,7 +9505,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:6">
       <c r="A271" s="5" t="s">
         <v>272</v>
       </c>
@@ -9061,7 +9517,7 @@
       </c>
       <c r="F271" s="10"/>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:6">
       <c r="A272" s="5" t="s">
         <v>273</v>
       </c>
@@ -9072,7 +9528,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:6">
       <c r="A273" s="5" t="s">
         <v>274</v>
       </c>
@@ -9084,7 +9540,7 @@
       </c>
       <c r="F273" s="10"/>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:6">
       <c r="A274" s="7" t="s">
         <v>275</v>
       </c>
@@ -9095,7 +9551,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:6">
       <c r="A275" s="7" t="s">
         <v>276</v>
       </c>
@@ -9107,7 +9563,7 @@
       </c>
       <c r="F275" s="10"/>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:6">
       <c r="A276" s="7" t="s">
         <v>277</v>
       </c>
@@ -9118,7 +9574,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:6">
       <c r="A277" s="7" t="s">
         <v>278</v>
       </c>
@@ -9130,7 +9586,7 @@
       </c>
       <c r="F277" s="10"/>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:6">
       <c r="A278" s="7" t="s">
         <v>279</v>
       </c>
@@ -9141,7 +9597,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:6">
       <c r="A279" s="7" t="s">
         <v>280</v>
       </c>
@@ -9153,7 +9609,7 @@
       </c>
       <c r="F279" s="10"/>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:6">
       <c r="A280" s="7" t="s">
         <v>281</v>
       </c>
@@ -9164,7 +9620,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:6">
       <c r="A281" s="7" t="s">
         <v>282</v>
       </c>
@@ -9176,7 +9632,7 @@
       </c>
       <c r="F281" s="10"/>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:6">
       <c r="A282" s="7" t="s">
         <v>283</v>
       </c>
@@ -9187,7 +9643,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:6">
       <c r="A283" s="7" t="s">
         <v>284</v>
       </c>
@@ -9199,7 +9655,7 @@
       </c>
       <c r="F283" s="10"/>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:6">
       <c r="A284" s="7" t="s">
         <v>285</v>
       </c>
@@ -9210,7 +9666,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:6">
       <c r="A285" s="7" t="s">
         <v>286</v>
       </c>
@@ -9222,7 +9678,7 @@
       </c>
       <c r="F285" s="10"/>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:6">
       <c r="A286" s="7" t="s">
         <v>287</v>
       </c>
@@ -9233,7 +9689,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:6">
       <c r="A287" s="7" t="s">
         <v>288</v>
       </c>
@@ -9245,7 +9701,7 @@
       </c>
       <c r="F287" s="10"/>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:6">
       <c r="A288" s="7" t="s">
         <v>289</v>
       </c>
@@ -9256,7 +9712,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:6">
       <c r="A289" s="7" t="s">
         <v>290</v>
       </c>
@@ -9268,7 +9724,7 @@
       </c>
       <c r="F289" s="10"/>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:6">
       <c r="A290" s="3" t="s">
         <v>291</v>
       </c>
@@ -9279,7 +9735,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:6">
       <c r="A291" s="3" t="s">
         <v>292</v>
       </c>
@@ -9291,7 +9747,7 @@
       </c>
       <c r="F291" s="10"/>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:6">
       <c r="A292" s="3" t="s">
         <v>293</v>
       </c>
@@ -9302,7 +9758,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:6">
       <c r="A293" s="3" t="s">
         <v>294</v>
       </c>
@@ -9314,7 +9770,7 @@
       </c>
       <c r="F293" s="10"/>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:6">
       <c r="A294" s="3" t="s">
         <v>295</v>
       </c>
@@ -9325,7 +9781,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:6">
       <c r="A295" s="3" t="s">
         <v>296</v>
       </c>
@@ -9337,7 +9793,7 @@
       </c>
       <c r="F295" s="10"/>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:6">
       <c r="A296" s="3" t="s">
         <v>297</v>
       </c>
@@ -9350,7 +9806,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:6">
       <c r="A297" s="3" t="s">
         <v>298</v>
       </c>
@@ -9362,7 +9818,7 @@
       </c>
       <c r="F297" s="10"/>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:6">
       <c r="A298" s="3" t="s">
         <v>299</v>
       </c>
@@ -9373,7 +9829,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:6">
       <c r="A299" s="3" t="s">
         <v>300</v>
       </c>
@@ -9389,7 +9845,7 @@
         <v>43509</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:6">
       <c r="A300" s="3" t="s">
         <v>301</v>
       </c>
@@ -9402,7 +9858,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:6">
       <c r="A301" s="3" t="s">
         <v>302</v>
       </c>
@@ -9414,9 +9870,11 @@
       <c r="E301" s="4">
         <v>43458</v>
       </c>
-      <c r="F301" s="10"/>
-    </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F301" s="10">
+        <v>43515</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6">
       <c r="A302" s="3" t="s">
         <v>303</v>
       </c>
@@ -9427,7 +9885,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:6">
       <c r="A303" s="3" t="s">
         <v>304</v>
       </c>
@@ -9439,22 +9897,28 @@
       <c r="E303" s="4">
         <v>43458</v>
       </c>
-      <c r="F303" s="10"/>
-    </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F303" s="10">
+        <v>43509</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6">
       <c r="A304" s="3" t="s">
         <v>305</v>
       </c>
       <c r="B304" s="4">
         <v>43495</v>
       </c>
-      <c r="C304" s="4"/>
-      <c r="D304" s="13"/>
+      <c r="C304" s="4">
+        <v>43515</v>
+      </c>
+      <c r="D304" s="13">
+        <v>23.6</v>
+      </c>
       <c r="E304" s="4">
         <v>43458</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:6">
       <c r="A305" s="3" t="s">
         <v>306</v>
       </c>
@@ -9466,7 +9930,7 @@
       </c>
       <c r="F305" s="10"/>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:6">
       <c r="A306" s="5" t="s">
         <v>307</v>
       </c>
@@ -9477,7 +9941,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:6">
       <c r="A307" s="5" t="s">
         <v>308</v>
       </c>
@@ -9489,7 +9953,7 @@
       </c>
       <c r="F307" s="10"/>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:6">
       <c r="A308" s="5" t="s">
         <v>309</v>
       </c>
@@ -9500,7 +9964,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:6">
       <c r="A309" s="5" t="s">
         <v>310</v>
       </c>
@@ -9512,7 +9976,7 @@
       </c>
       <c r="F309" s="10"/>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:6">
       <c r="A310" s="5" t="s">
         <v>311</v>
       </c>
@@ -9523,7 +9987,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:6">
       <c r="A311" s="5" t="s">
         <v>312</v>
       </c>
@@ -9535,7 +9999,7 @@
       </c>
       <c r="F311" s="10"/>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:6">
       <c r="A312" s="5" t="s">
         <v>313</v>
       </c>
@@ -9546,7 +10010,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:6">
       <c r="A313" s="5" t="s">
         <v>314</v>
       </c>
@@ -9558,7 +10022,7 @@
       </c>
       <c r="F313" s="10"/>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:6">
       <c r="A314" s="5" t="s">
         <v>315</v>
       </c>
@@ -9569,7 +10033,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:6">
       <c r="A315" s="5" t="s">
         <v>316</v>
       </c>
@@ -9581,7 +10045,7 @@
       </c>
       <c r="F315" s="10"/>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:6">
       <c r="A316" s="5" t="s">
         <v>317</v>
       </c>
@@ -9592,7 +10056,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:6">
       <c r="A317" s="5" t="s">
         <v>318</v>
       </c>
@@ -9604,7 +10068,7 @@
       </c>
       <c r="F317" s="10"/>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:6">
       <c r="A318" s="5" t="s">
         <v>319</v>
       </c>
@@ -9615,7 +10079,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:6">
       <c r="A319" s="5" t="s">
         <v>320</v>
       </c>
@@ -9627,7 +10091,7 @@
       </c>
       <c r="F319" s="10"/>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:6">
       <c r="A320" s="5" t="s">
         <v>321</v>
       </c>
@@ -9638,7 +10102,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:6">
       <c r="A321" s="5" t="s">
         <v>322</v>
       </c>
@@ -9650,7 +10114,7 @@
       </c>
       <c r="F321" s="10"/>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:6">
       <c r="A322" s="7" t="s">
         <v>323</v>
       </c>
@@ -9661,7 +10125,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:6">
       <c r="A323" s="7" t="s">
         <v>324</v>
       </c>
@@ -9673,7 +10137,7 @@
       </c>
       <c r="F323" s="10"/>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:6">
       <c r="A324" s="7" t="s">
         <v>325</v>
       </c>
@@ -9684,7 +10148,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:6">
       <c r="A325" s="7" t="s">
         <v>326</v>
       </c>
@@ -9696,7 +10160,7 @@
       </c>
       <c r="F325" s="10"/>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:6">
       <c r="A326" s="7" t="s">
         <v>327</v>
       </c>
@@ -9707,7 +10171,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:6">
       <c r="A327" s="7" t="s">
         <v>328</v>
       </c>
@@ -9719,7 +10183,7 @@
       </c>
       <c r="F327" s="10"/>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:6">
       <c r="A328" s="7" t="s">
         <v>329</v>
       </c>
@@ -9730,7 +10194,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:6">
       <c r="A329" s="7" t="s">
         <v>330</v>
       </c>
@@ -9742,7 +10206,7 @@
       </c>
       <c r="F329" s="10"/>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:6">
       <c r="A330" s="7" t="s">
         <v>331</v>
       </c>
@@ -9753,7 +10217,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:6">
       <c r="A331" s="7" t="s">
         <v>332</v>
       </c>
@@ -9765,7 +10229,7 @@
       </c>
       <c r="F331" s="10"/>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:6">
       <c r="A332" s="7" t="s">
         <v>333</v>
       </c>
@@ -9776,7 +10240,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:6">
       <c r="A333" s="7" t="s">
         <v>334</v>
       </c>
@@ -9788,7 +10252,7 @@
       </c>
       <c r="F333" s="10"/>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:6">
       <c r="A334" s="7" t="s">
         <v>335</v>
       </c>
@@ -9799,7 +10263,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:6">
       <c r="A335" s="7" t="s">
         <v>336</v>
       </c>
@@ -9811,7 +10275,7 @@
       </c>
       <c r="F335" s="10"/>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:6">
       <c r="A336" s="7" t="s">
         <v>337</v>
       </c>
@@ -9822,7 +10286,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:13">
       <c r="A337" s="7" t="s">
         <v>338</v>
       </c>
@@ -9834,7 +10298,7 @@
       </c>
       <c r="F337" s="10"/>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:13">
       <c r="A338" s="3" t="s">
         <v>339</v>
       </c>
@@ -9870,7 +10334,7 @@
         <v>42.125</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:13">
       <c r="A339" s="3" t="s">
         <v>340</v>
       </c>
@@ -9909,7 +10373,7 @@
         <v>42.3</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:13">
       <c r="A340" s="3" t="s">
         <v>341</v>
       </c>
@@ -9941,11 +10405,11 @@
         <v>39.9</v>
       </c>
       <c r="M340">
-        <f t="shared" ref="M340:M352" si="0">AVERAGE(I340:L340)</f>
+        <f t="shared" ref="M340:M352" si="1">AVERAGE(I340:L340)</f>
         <v>48.449999999999996</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:13">
       <c r="A341" s="3" t="s">
         <v>342</v>
       </c>
@@ -9984,7 +10448,7 @@
         <v>45.824999999999996</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:13">
       <c r="A342" s="3" t="s">
         <v>343</v>
       </c>
@@ -10016,11 +10480,11 @@
         <v>46.5</v>
       </c>
       <c r="M342">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45.05</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:13">
       <c r="A343" s="3" t="s">
         <v>344</v>
       </c>
@@ -10055,11 +10519,11 @@
         <v>40.5</v>
       </c>
       <c r="M343">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40.825000000000003</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:13">
       <c r="A344" s="3" t="s">
         <v>345</v>
       </c>
@@ -10091,11 +10555,11 @@
         <v>27</v>
       </c>
       <c r="M344">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37.875</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:13">
       <c r="A345" s="3" t="s">
         <v>346</v>
       </c>
@@ -10130,11 +10594,11 @@
         <v>37.9</v>
       </c>
       <c r="M345">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37.650000000000006</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:13">
       <c r="A346" s="3" t="s">
         <v>347</v>
       </c>
@@ -10166,11 +10630,11 @@
         <v>44.5</v>
       </c>
       <c r="M346">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44.024999999999999</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:13">
       <c r="A347" s="3" t="s">
         <v>348</v>
       </c>
@@ -10205,11 +10669,11 @@
         <v>44.5</v>
       </c>
       <c r="M347">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44.024999999999999</v>
       </c>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:13">
       <c r="A348" s="3" t="s">
         <v>349</v>
       </c>
@@ -10241,11 +10705,11 @@
         <v>42.3</v>
       </c>
       <c r="M348">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42.05</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:13">
       <c r="A349" s="3" t="s">
         <v>350</v>
       </c>
@@ -10280,11 +10744,11 @@
         <v>42.9</v>
       </c>
       <c r="M349">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39.950000000000003</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:13">
       <c r="A350" s="3" t="s">
         <v>351</v>
       </c>
@@ -10316,11 +10780,11 @@
         <v>52.3</v>
       </c>
       <c r="M350">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47.775000000000006</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:13">
       <c r="A351" s="3" t="s">
         <v>352</v>
       </c>
@@ -10358,11 +10822,11 @@
         <v>48.2</v>
       </c>
       <c r="M351">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45.275000000000006</v>
       </c>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:13">
       <c r="A352" s="3" t="s">
         <v>353</v>
       </c>
@@ -10394,11 +10858,11 @@
         <v>48.9</v>
       </c>
       <c r="M352">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47.625</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:6">
       <c r="A353" s="3" t="s">
         <v>354</v>
       </c>
@@ -10418,7 +10882,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:6">
       <c r="A354" s="5" t="s">
         <v>355</v>
       </c>
@@ -10435,7 +10899,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:6">
       <c r="A355" s="5" t="s">
         <v>356</v>
       </c>
@@ -10455,7 +10919,7 @@
         <v>43493</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:6">
       <c r="A356" s="5" t="s">
         <v>357</v>
       </c>
@@ -10472,7 +10936,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:6">
       <c r="A357" s="5" t="s">
         <v>358</v>
       </c>
@@ -10492,7 +10956,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:6">
       <c r="A358" s="5" t="s">
         <v>359</v>
       </c>
@@ -10509,7 +10973,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:6">
       <c r="A359" s="5" t="s">
         <v>360</v>
       </c>
@@ -10529,7 +10993,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:6">
       <c r="A360" s="5" t="s">
         <v>361</v>
       </c>
@@ -10546,7 +11010,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:6">
       <c r="A361" s="5" t="s">
         <v>362</v>
       </c>
@@ -10566,7 +11030,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:6">
       <c r="A362" s="5" t="s">
         <v>363</v>
       </c>
@@ -10583,7 +11047,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:6">
       <c r="A363" s="5" t="s">
         <v>364</v>
       </c>
@@ -10603,7 +11067,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:6">
       <c r="A364" s="5" t="s">
         <v>365</v>
       </c>
@@ -10620,7 +11084,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:6">
       <c r="A365" s="5" t="s">
         <v>366</v>
       </c>
@@ -10640,7 +11104,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:6">
       <c r="A366" s="5" t="s">
         <v>367</v>
       </c>
@@ -10657,7 +11121,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:6">
       <c r="A367" s="5" t="s">
         <v>368</v>
       </c>
@@ -10677,7 +11141,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:6">
       <c r="A368" s="5" t="s">
         <v>369</v>
       </c>
@@ -10694,7 +11158,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:7">
       <c r="A369" s="5" t="s">
         <v>370</v>
       </c>
@@ -10717,7 +11181,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:7">
       <c r="A370" s="7" t="s">
         <v>371</v>
       </c>
@@ -10725,16 +11189,16 @@
         <v>43495</v>
       </c>
       <c r="C370" s="11">
-        <v>43502</v>
+        <v>43507</v>
       </c>
       <c r="D370" s="15">
-        <v>25.2</v>
+        <v>26</v>
       </c>
       <c r="E370" s="11">
         <v>43486</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:7">
       <c r="A371" s="7" t="s">
         <v>372</v>
       </c>
@@ -10742,10 +11206,10 @@
         <v>43495</v>
       </c>
       <c r="C371" s="11">
-        <v>43507</v>
+        <v>43511</v>
       </c>
       <c r="D371" s="15">
-        <v>26</v>
+        <v>24.1</v>
       </c>
       <c r="E371" s="11">
         <v>43486</v>
@@ -10754,20 +11218,24 @@
         <v>43502</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:7">
       <c r="A372" s="7" t="s">
         <v>373</v>
       </c>
       <c r="B372" s="11">
         <v>43495</v>
       </c>
-      <c r="C372" s="11"/>
-      <c r="D372" s="15"/>
+      <c r="C372" s="11">
+        <v>43511</v>
+      </c>
+      <c r="D372" s="15">
+        <v>21.2</v>
+      </c>
       <c r="E372" s="11">
         <v>43486</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:7">
       <c r="A373" s="7" t="s">
         <v>374</v>
       </c>
@@ -10787,7 +11255,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:7">
       <c r="A374" s="7" t="s">
         <v>375</v>
       </c>
@@ -10804,15 +11272,19 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:7">
       <c r="A375" s="7" t="s">
         <v>376</v>
       </c>
       <c r="B375" s="11">
         <v>43495</v>
       </c>
-      <c r="C375" s="11"/>
-      <c r="D375" s="15"/>
+      <c r="C375" s="11">
+        <v>43509</v>
+      </c>
+      <c r="D375" s="15">
+        <v>27.4</v>
+      </c>
       <c r="E375" s="11">
         <v>43486</v>
       </c>
@@ -10820,7 +11292,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:7">
       <c r="A376" s="7" t="s">
         <v>377</v>
       </c>
@@ -10837,7 +11309,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:7">
       <c r="A377" s="7" t="s">
         <v>378</v>
       </c>
@@ -10857,7 +11329,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:7">
       <c r="A378" s="7" t="s">
         <v>379</v>
       </c>
@@ -10874,15 +11346,19 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:7">
       <c r="A379" s="7" t="s">
         <v>380</v>
       </c>
       <c r="B379" s="11">
         <v>43495</v>
       </c>
-      <c r="C379" s="11"/>
-      <c r="D379" s="15"/>
+      <c r="C379" s="11">
+        <v>43511</v>
+      </c>
+      <c r="D379" s="15">
+        <v>34</v>
+      </c>
       <c r="E379" s="11">
         <v>43486</v>
       </c>
@@ -10890,7 +11366,7 @@
         <v>43502</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:7">
       <c r="A380" s="7" t="s">
         <v>381</v>
       </c>
@@ -10907,7 +11383,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:7">
       <c r="A381" s="7" t="s">
         <v>382</v>
       </c>
@@ -10927,7 +11403,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:7">
       <c r="A382" s="7" t="s">
         <v>383</v>
       </c>
@@ -10944,23 +11420,30 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:7">
       <c r="A383" s="7" t="s">
         <v>384</v>
       </c>
       <c r="B383" s="11">
         <v>43500</v>
       </c>
-      <c r="C383" s="11"/>
-      <c r="D383" s="15"/>
+      <c r="C383" s="11">
+        <v>43512</v>
+      </c>
+      <c r="D383" s="15">
+        <v>26.2</v>
+      </c>
       <c r="E383" s="11">
         <v>43486</v>
       </c>
       <c r="F383" s="10">
         <v>43502</v>
       </c>
-    </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G383" s="21">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7">
       <c r="A384" s="7" t="s">
         <v>385</v>
       </c>
@@ -10977,7 +11460,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="385" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:7" s="20" customFormat="1">
       <c r="A385" s="16" t="s">
         <v>386</v>
       </c>
@@ -10992,7 +11475,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:7">
       <c r="A386" s="3" t="s">
         <v>387</v>
       </c>
@@ -11005,7 +11488,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:7">
       <c r="A387" s="3" t="s">
         <v>388</v>
       </c>
@@ -11021,7 +11504,7 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:7">
       <c r="A388" s="3" t="s">
         <v>389</v>
       </c>
@@ -11032,7 +11515,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:7">
       <c r="A389" s="3" t="s">
         <v>390</v>
       </c>
@@ -11052,7 +11535,7 @@
         <v>43493</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:7">
       <c r="A390" s="3" t="s">
         <v>391</v>
       </c>
@@ -11069,19 +11552,23 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:7">
       <c r="A391" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="B391" s="4"/>
+      <c r="B391" s="4">
+        <v>43512</v>
+      </c>
       <c r="C391" s="4"/>
       <c r="D391" s="13"/>
       <c r="E391" s="4">
         <v>43458</v>
       </c>
-      <c r="F391" s="10"/>
-    </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F391" s="10">
+        <v>43515</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7">
       <c r="A392" s="3" t="s">
         <v>393</v>
       </c>
@@ -11098,7 +11585,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:7">
       <c r="A393" s="3" t="s">
         <v>394</v>
       </c>
@@ -11116,7 +11603,7 @@
       </c>
       <c r="F393" s="10"/>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:7">
       <c r="A394" s="3" t="s">
         <v>395</v>
       </c>
@@ -11133,7 +11620,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:7">
       <c r="A395" s="3" t="s">
         <v>396</v>
       </c>
@@ -11149,7 +11636,7 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:7">
       <c r="A396" s="3" t="s">
         <v>397</v>
       </c>
@@ -11166,7 +11653,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:7">
       <c r="A397" s="3" t="s">
         <v>398</v>
       </c>
@@ -11182,7 +11669,7 @@
         <v>43504</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:7">
       <c r="A398" s="3" t="s">
         <v>399</v>
       </c>
@@ -11199,7 +11686,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:7">
       <c r="A399" s="3" t="s">
         <v>400</v>
       </c>
@@ -11222,7 +11709,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:7">
       <c r="A400" s="3" t="s">
         <v>401</v>
       </c>
@@ -11239,7 +11726,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:6">
       <c r="A401" s="3" t="s">
         <v>402</v>
       </c>
@@ -11259,7 +11746,7 @@
         <v>43493</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:6">
       <c r="A402" s="5" t="s">
         <v>403</v>
       </c>
@@ -11272,32 +11759,40 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:6">
       <c r="A403" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="B403" s="6"/>
+      <c r="B403" s="6">
+        <v>43512</v>
+      </c>
       <c r="C403" s="6"/>
       <c r="D403" s="14"/>
       <c r="E403" s="6">
         <v>43472</v>
       </c>
-      <c r="F403" s="10"/>
-    </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F403" s="10">
+        <v>43515</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6">
       <c r="A404" s="5" t="s">
         <v>405</v>
       </c>
       <c r="B404" s="6">
         <v>43504</v>
       </c>
-      <c r="C404" s="6"/>
-      <c r="D404" s="14"/>
+      <c r="C404" s="6">
+        <v>43515</v>
+      </c>
+      <c r="D404" s="14">
+        <v>50.4</v>
+      </c>
       <c r="E404" s="6">
         <v>43472</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:6">
       <c r="A405" s="5" t="s">
         <v>406</v>
       </c>
@@ -11313,18 +11808,20 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:6">
       <c r="A406" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="B406" s="6"/>
+      <c r="B406" s="6">
+        <v>43515</v>
+      </c>
       <c r="C406" s="6"/>
       <c r="D406" s="14"/>
       <c r="E406" s="6">
         <v>43472</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:6">
       <c r="A407" s="5" t="s">
         <v>408</v>
       </c>
@@ -11336,7 +11833,7 @@
       </c>
       <c r="F407" s="10"/>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:6">
       <c r="A408" s="5" t="s">
         <v>409</v>
       </c>
@@ -11349,7 +11846,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:6">
       <c r="A409" s="5" t="s">
         <v>410</v>
       </c>
@@ -11361,30 +11858,40 @@
       <c r="E409" s="6">
         <v>43472</v>
       </c>
-      <c r="F409" s="10"/>
-    </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F409" s="10">
+        <v>43511</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6">
       <c r="A410" s="5" t="s">
         <v>411</v>
       </c>
       <c r="B410" s="6">
         <v>43507</v>
       </c>
-      <c r="C410" s="6"/>
-      <c r="D410" s="14"/>
+      <c r="C410" s="6">
+        <v>43515</v>
+      </c>
+      <c r="D410" s="14">
+        <v>43.7</v>
+      </c>
       <c r="E410" s="6">
         <v>43472</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:6">
       <c r="A411" s="5" t="s">
         <v>412</v>
       </c>
       <c r="B411" s="6">
         <v>43500</v>
       </c>
-      <c r="C411" s="6"/>
-      <c r="D411" s="14"/>
+      <c r="C411" s="6">
+        <v>43515</v>
+      </c>
+      <c r="D411" s="14">
+        <v>44.8</v>
+      </c>
       <c r="E411" s="6">
         <v>43472</v>
       </c>
@@ -11392,43 +11899,49 @@
         <v>43502</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:6">
       <c r="A412" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="B412" s="6"/>
+      <c r="B412" s="6">
+        <v>43509</v>
+      </c>
       <c r="C412" s="6"/>
       <c r="D412" s="14"/>
       <c r="E412" s="6">
         <v>43472</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:6">
       <c r="A413" s="5" t="s">
         <v>414</v>
       </c>
       <c r="B413" s="6">
-        <v>43509</v>
+        <v>43515</v>
       </c>
       <c r="C413" s="6"/>
       <c r="D413" s="14"/>
       <c r="E413" s="6">
         <v>43472</v>
       </c>
-      <c r="F413" s="10"/>
-    </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F413" s="10">
+        <v>43515</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6">
       <c r="A414" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="B414" s="6"/>
+      <c r="B414" s="6">
+        <v>43512</v>
+      </c>
       <c r="C414" s="6"/>
       <c r="D414" s="14"/>
       <c r="E414" s="6">
         <v>43472</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:6">
       <c r="A415" s="5" t="s">
         <v>416</v>
       </c>
@@ -11440,22 +11953,28 @@
       <c r="E415" s="6">
         <v>43472</v>
       </c>
-      <c r="F415" s="10"/>
-    </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F415" s="10">
+        <v>43511</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6">
       <c r="A416" s="5" t="s">
         <v>417</v>
       </c>
       <c r="B416" s="6">
         <v>43495</v>
       </c>
-      <c r="C416" s="6"/>
-      <c r="D416" s="14"/>
+      <c r="C416" s="6">
+        <v>43512</v>
+      </c>
+      <c r="D416" s="14">
+        <v>52.6</v>
+      </c>
       <c r="E416" s="6">
         <v>43472</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:7">
       <c r="A417" s="5" t="s">
         <v>418</v>
       </c>
@@ -11471,7 +11990,7 @@
         <v>43509</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:7">
       <c r="A418" s="7" t="s">
         <v>419</v>
       </c>
@@ -11482,7 +12001,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:7">
       <c r="A419" s="7" t="s">
         <v>420</v>
       </c>
@@ -11494,7 +12013,7 @@
       </c>
       <c r="F419" s="10"/>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:7">
       <c r="A420" s="7" t="s">
         <v>421</v>
       </c>
@@ -11505,11 +12024,13 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:7">
       <c r="A421" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="B421" s="11"/>
+      <c r="B421" s="11">
+        <v>43515</v>
+      </c>
       <c r="C421" s="11"/>
       <c r="D421" s="15"/>
       <c r="E421" s="11">
@@ -11517,7 +12038,7 @@
       </c>
       <c r="F421" s="10"/>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:7">
       <c r="A422" s="7" t="s">
         <v>423</v>
       </c>
@@ -11528,11 +12049,13 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:7">
       <c r="A423" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="B423" s="11"/>
+      <c r="B423" s="11">
+        <v>43512</v>
+      </c>
       <c r="C423" s="11"/>
       <c r="D423" s="15"/>
       <c r="E423" s="11">
@@ -11540,18 +12063,20 @@
       </c>
       <c r="F423" s="10"/>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:7">
       <c r="A424" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="B424" s="11"/>
+      <c r="B424" s="11">
+        <v>43512</v>
+      </c>
       <c r="C424" s="11"/>
       <c r="D424" s="15"/>
       <c r="E424" s="11">
         <v>43486</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:7">
       <c r="A425" s="7" t="s">
         <v>426</v>
       </c>
@@ -11563,18 +12088,20 @@
       </c>
       <c r="F425" s="10"/>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:7">
       <c r="A426" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="B426" s="11"/>
+      <c r="B426" s="11">
+        <v>43515</v>
+      </c>
       <c r="C426" s="11"/>
       <c r="D426" s="15"/>
       <c r="E426" s="11">
         <v>43486</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:7">
       <c r="A427" s="7" t="s">
         <v>428</v>
       </c>
@@ -11586,7 +12113,7 @@
       </c>
       <c r="F427" s="10"/>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:7">
       <c r="A428" s="7" t="s">
         <v>429</v>
       </c>
@@ -11597,7 +12124,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:7">
       <c r="A429" s="7" t="s">
         <v>430</v>
       </c>
@@ -11609,7 +12136,7 @@
       </c>
       <c r="F429" s="10"/>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:7">
       <c r="A430" s="7" t="s">
         <v>431</v>
       </c>
@@ -11620,7 +12147,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:7">
       <c r="A431" s="7" t="s">
         <v>432</v>
       </c>
@@ -11632,7 +12159,7 @@
       </c>
       <c r="F431" s="10"/>
     </row>
-    <row r="432" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:7" s="20" customFormat="1">
       <c r="A432" s="16" t="s">
         <v>433</v>
       </c>
@@ -11647,11 +12174,13 @@
         <v>489</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:7">
       <c r="A433" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="B433" s="11"/>
+      <c r="B433" s="11">
+        <v>43515</v>
+      </c>
       <c r="C433" s="11"/>
       <c r="D433" s="15"/>
       <c r="E433" s="11">
@@ -11659,7 +12188,7 @@
       </c>
       <c r="F433" s="10"/>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:7">
       <c r="A434" s="3" t="s">
         <v>435</v>
       </c>
@@ -11672,7 +12201,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:7">
       <c r="A435" s="3" t="s">
         <v>436</v>
       </c>
@@ -11692,7 +12221,7 @@
         <v>43497</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:7">
       <c r="A436" s="3" t="s">
         <v>437</v>
       </c>
@@ -11705,7 +12234,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:7">
       <c r="A437" s="3" t="s">
         <v>438</v>
       </c>
@@ -11721,7 +12250,7 @@
         <v>43502</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:7">
       <c r="A438" s="3" t="s">
         <v>439</v>
       </c>
@@ -11738,7 +12267,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:7">
       <c r="A439" s="3" t="s">
         <v>440</v>
       </c>
@@ -11754,7 +12283,7 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:7">
       <c r="A440" s="3" t="s">
         <v>441</v>
       </c>
@@ -11767,7 +12296,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:7">
       <c r="A441" s="3" t="s">
         <v>442</v>
       </c>
@@ -11779,36 +12308,47 @@
       </c>
       <c r="F441" s="10"/>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:7">
       <c r="A442" s="3" t="s">
         <v>443</v>
       </c>
       <c r="B442" s="4">
         <v>43493</v>
       </c>
-      <c r="C442" s="4"/>
-      <c r="D442" s="13"/>
+      <c r="C442" s="4">
+        <v>43512</v>
+      </c>
+      <c r="D442" s="13">
+        <v>33.6</v>
+      </c>
       <c r="E442" s="4">
         <v>43458</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:7">
       <c r="A443" s="3" t="s">
         <v>444</v>
       </c>
       <c r="B443" s="4">
         <v>43493</v>
       </c>
-      <c r="C443" s="4"/>
-      <c r="D443" s="13"/>
+      <c r="C443" s="4">
+        <v>43512</v>
+      </c>
+      <c r="D443" s="13">
+        <v>26.8</v>
+      </c>
       <c r="E443" s="4">
         <v>43458</v>
       </c>
       <c r="F443" s="10">
         <v>43497</v>
       </c>
-    </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G443" s="21">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7">
       <c r="A444" s="3" t="s">
         <v>445</v>
       </c>
@@ -11821,7 +12361,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:7">
       <c r="A445" s="3" t="s">
         <v>446</v>
       </c>
@@ -11837,18 +12377,20 @@
         <v>43497</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:7">
       <c r="A446" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="B446" s="4"/>
+      <c r="B446" s="4">
+        <v>43512</v>
+      </c>
       <c r="C446" s="4"/>
       <c r="D446" s="13"/>
       <c r="E446" s="4">
         <v>43458</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:7">
       <c r="A447" s="3" t="s">
         <v>448</v>
       </c>
@@ -11864,7 +12406,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:7">
       <c r="A448" s="3" t="s">
         <v>449</v>
       </c>
@@ -11877,11 +12419,13 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:6">
       <c r="A449" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="B449" s="4"/>
+      <c r="B449" s="4">
+        <v>43515</v>
+      </c>
       <c r="C449" s="4"/>
       <c r="D449" s="13"/>
       <c r="E449" s="4">
@@ -11889,7 +12433,7 @@
       </c>
       <c r="F449" s="10"/>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:6">
       <c r="A450" s="5" t="s">
         <v>451</v>
       </c>
@@ -11906,7 +12450,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:6">
       <c r="A451" s="5" t="s">
         <v>452</v>
       </c>
@@ -11922,7 +12466,7 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:6">
       <c r="A452" s="5" t="s">
         <v>453</v>
       </c>
@@ -11935,7 +12479,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:6">
       <c r="A453" s="5" t="s">
         <v>454</v>
       </c>
@@ -11951,20 +12495,24 @@
         <v>43509</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:6">
       <c r="A454" s="5" t="s">
         <v>455</v>
       </c>
       <c r="B454" s="6">
         <v>43495</v>
       </c>
-      <c r="C454" s="6"/>
-      <c r="D454" s="14"/>
+      <c r="C454" s="6">
+        <v>43512</v>
+      </c>
+      <c r="D454" s="14">
+        <v>35.1</v>
+      </c>
       <c r="E454" s="6">
         <v>43472</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:6">
       <c r="A455" s="5" t="s">
         <v>456</v>
       </c>
@@ -11980,32 +12528,44 @@
         <v>43509</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:6">
       <c r="A456" s="5" t="s">
         <v>457</v>
       </c>
       <c r="B456" s="6">
         <v>43497</v>
       </c>
-      <c r="C456" s="6"/>
-      <c r="D456" s="14"/>
+      <c r="C456" s="6">
+        <v>43515</v>
+      </c>
+      <c r="D456" s="14">
+        <v>22.7</v>
+      </c>
       <c r="E456" s="6">
         <v>43472</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:6">
       <c r="A457" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="B457" s="6"/>
-      <c r="C457" s="6"/>
-      <c r="D457" s="14"/>
+      <c r="B457" s="6">
+        <v>43512</v>
+      </c>
+      <c r="C457" s="6">
+        <v>43515</v>
+      </c>
+      <c r="D457" s="14">
+        <v>20.399999999999999</v>
+      </c>
       <c r="E457" s="6">
         <v>43472</v>
       </c>
-      <c r="F457" s="10"/>
-    </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F457" s="10">
+        <v>43515</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6">
       <c r="A458" s="5" t="s">
         <v>459</v>
       </c>
@@ -12018,7 +12578,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:6">
       <c r="A459" s="5" t="s">
         <v>460</v>
       </c>
@@ -12034,7 +12594,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:6">
       <c r="A460" s="5" t="s">
         <v>461</v>
       </c>
@@ -12047,7 +12607,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:6">
       <c r="A461" s="5" t="s">
         <v>462</v>
       </c>
@@ -12063,18 +12623,20 @@
         <v>43509</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:6">
       <c r="A462" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="B462" s="6"/>
+      <c r="B462" s="6">
+        <v>43512</v>
+      </c>
       <c r="C462" s="6"/>
       <c r="D462" s="14"/>
       <c r="E462" s="6">
         <v>43472</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:6">
       <c r="A463" s="5" t="s">
         <v>464</v>
       </c>
@@ -12090,20 +12652,24 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:6">
       <c r="A464" s="5" t="s">
         <v>465</v>
       </c>
       <c r="B464" s="6">
         <v>43497</v>
       </c>
-      <c r="C464" s="6"/>
-      <c r="D464" s="14"/>
+      <c r="C464" s="6">
+        <v>43515</v>
+      </c>
+      <c r="D464" s="14">
+        <v>25</v>
+      </c>
       <c r="E464" s="6">
         <v>43472</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:6">
       <c r="A465" s="5" t="s">
         <v>466</v>
       </c>
@@ -12115,22 +12681,28 @@
       <c r="E465" s="6">
         <v>43472</v>
       </c>
-      <c r="F465" s="10"/>
-    </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F465" s="10">
+        <v>43515</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6">
       <c r="A466" s="7" t="s">
         <v>467</v>
       </c>
       <c r="B466" s="11">
         <v>43502</v>
       </c>
-      <c r="C466" s="11"/>
-      <c r="D466" s="15"/>
+      <c r="C466" s="11">
+        <v>43515</v>
+      </c>
+      <c r="D466" s="15">
+        <v>20.3</v>
+      </c>
       <c r="E466" s="11">
         <v>43486</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:6">
       <c r="A467" s="7" t="s">
         <v>468</v>
       </c>
@@ -12146,7 +12718,7 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:6">
       <c r="A468" s="7" t="s">
         <v>469</v>
       </c>
@@ -12159,11 +12731,13 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:6">
       <c r="A469" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="B469" s="11"/>
+      <c r="B469" s="11">
+        <v>43511</v>
+      </c>
       <c r="C469" s="11"/>
       <c r="D469" s="15"/>
       <c r="E469" s="11">
@@ -12171,7 +12745,7 @@
       </c>
       <c r="F469" s="10"/>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:6">
       <c r="A470" s="7" t="s">
         <v>471</v>
       </c>
@@ -12184,7 +12758,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:6">
       <c r="A471" s="7" t="s">
         <v>472</v>
       </c>
@@ -12198,7 +12772,7 @@
       </c>
       <c r="F471" s="10"/>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:6">
       <c r="A472" s="7" t="s">
         <v>473</v>
       </c>
@@ -12211,7 +12785,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:6">
       <c r="A473" s="7" t="s">
         <v>474</v>
       </c>
@@ -12223,24 +12797,30 @@
       <c r="E473" s="11">
         <v>43486</v>
       </c>
-      <c r="F473" s="10"/>
-    </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F473" s="10">
+        <v>43515</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6">
       <c r="A474" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="B474" s="11"/>
+      <c r="B474" s="11">
+        <v>43515</v>
+      </c>
       <c r="C474" s="11"/>
       <c r="D474" s="15"/>
       <c r="E474" s="11">
         <v>43486</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:6">
       <c r="A475" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="B475" s="11"/>
+      <c r="B475" s="11">
+        <v>43512</v>
+      </c>
       <c r="C475" s="11"/>
       <c r="D475" s="15"/>
       <c r="E475" s="11">
@@ -12248,7 +12828,7 @@
       </c>
       <c r="F475" s="10"/>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:6">
       <c r="A476" s="7" t="s">
         <v>477</v>
       </c>
@@ -12261,11 +12841,13 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:6">
       <c r="A477" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="B477" s="11"/>
+      <c r="B477" s="11">
+        <v>43512</v>
+      </c>
       <c r="C477" s="11"/>
       <c r="D477" s="15"/>
       <c r="E477" s="11">
@@ -12273,7 +12855,7 @@
       </c>
       <c r="F477" s="10"/>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:6">
       <c r="A478" s="7" t="s">
         <v>479</v>
       </c>
@@ -12286,7 +12868,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:6">
       <c r="A479" s="7" t="s">
         <v>480</v>
       </c>
@@ -12302,18 +12884,20 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:6">
       <c r="A480" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="B480" s="11"/>
+      <c r="B480" s="11">
+        <v>43515</v>
+      </c>
       <c r="C480" s="11"/>
       <c r="D480" s="15"/>
       <c r="E480" s="11">
         <v>43486</v>
       </c>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:7">
       <c r="A481" s="7" t="s">
         <v>482</v>
       </c>
@@ -12325,12 +12909,20 @@
       <c r="E481" s="11">
         <v>43486</v>
       </c>
-      <c r="F481" s="10"/>
+      <c r="F481" s="10">
+        <v>43515</v>
+      </c>
       <c r="G481" t="s">
         <v>490</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/data/observation_datasheet.xlsx
+++ b/data/observation_datasheet.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28125"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catchamberlain/Documents/git/chillfreeze/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B917C3FA-9182-3B4E-9CA6-3F03948FCA5F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14300" activeTab="1"/>
+    <workbookView xWindow="12380" yWindow="460" windowWidth="29720" windowHeight="20980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="observation_datasheet" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1519,7 +1525,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2428,23 +2434,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Atlas" id="{5156B0E4-0EB1-49FE-A26B-15F6F698AEC6}" vid="{508F7963-D0B5-43F7-BB2C-FCE3009C08EC}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Atlas" id="{5156B0E4-0EB1-49FE-A26B-15F6F698AEC6}" vid="{508F7963-D0B5-43F7-BB2C-FCE3009C08EC}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M481"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2485,2402 +2491,2402 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="138" spans="1:1">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="140" spans="1:1">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="141" spans="1:1">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="142" spans="1:1">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="144" spans="1:1">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="145" spans="1:1">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="146" spans="1:1">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="147" spans="1:1">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="149" spans="1:1">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="150" spans="1:1">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="151" spans="1:1">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="152" spans="1:1">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="153" spans="1:1">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="154" spans="1:1">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="155" spans="1:1">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="156" spans="1:1">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="157" spans="1:1">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="158" spans="1:1">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="159" spans="1:1">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="160" spans="1:1">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="161" spans="1:1">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="162" spans="1:1">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="163" spans="1:1">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="164" spans="1:1">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="165" spans="1:1">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="166" spans="1:1">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="167" spans="1:1">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="168" spans="1:1">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="169" spans="1:1">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="170" spans="1:1">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="171" spans="1:1">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="172" spans="1:1">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="173" spans="1:1">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="174" spans="1:1">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="175" spans="1:1">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="176" spans="1:1">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="177" spans="1:1">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="178" spans="1:1">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="179" spans="1:1">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="180" spans="1:1">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="181" spans="1:1">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="182" spans="1:1">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="183" spans="1:1">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="184" spans="1:1">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="185" spans="1:1">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="186" spans="1:1">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="187" spans="1:1">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="188" spans="1:1">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="189" spans="1:1">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="190" spans="1:1">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="191" spans="1:1">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="192" spans="1:1">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="193" spans="1:1">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="194" spans="1:1">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="195" spans="1:1">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="196" spans="1:1">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="197" spans="1:1">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="198" spans="1:1">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="199" spans="1:1">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="200" spans="1:1">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="201" spans="1:1">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="202" spans="1:1">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="203" spans="1:1">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="204" spans="1:1">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="205" spans="1:1">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="206" spans="1:1">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="207" spans="1:1">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="208" spans="1:1">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="209" spans="1:1">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="210" spans="1:1">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="211" spans="1:1">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="212" spans="1:1">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="213" spans="1:1">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="214" spans="1:1">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="215" spans="1:1">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="216" spans="1:1">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="217" spans="1:1">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="218" spans="1:1">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="219" spans="1:1">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="220" spans="1:1">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="221" spans="1:1">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="222" spans="1:1">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="223" spans="1:1">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="224" spans="1:1">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="225" spans="1:1">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="226" spans="1:1">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="227" spans="1:1">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="228" spans="1:1">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="229" spans="1:1">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="230" spans="1:1">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="231" spans="1:1">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="232" spans="1:1">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="233" spans="1:1">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="234" spans="1:1">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="235" spans="1:1">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="236" spans="1:1">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="237" spans="1:1">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="238" spans="1:1">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="239" spans="1:1">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="240" spans="1:1">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="241" spans="1:1">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="242" spans="1:1">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="243" spans="1:1">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="244" spans="1:1">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="245" spans="1:1">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="246" spans="1:1">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="247" spans="1:1">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="248" spans="1:1">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="249" spans="1:1">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="250" spans="1:1">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="251" spans="1:1">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="252" spans="1:1">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="253" spans="1:1">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="254" spans="1:1">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="255" spans="1:1">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="256" spans="1:1">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="257" spans="1:1">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="258" spans="1:1">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="259" spans="1:1">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="260" spans="1:1">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="261" spans="1:1">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="262" spans="1:1">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="263" spans="1:1">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="264" spans="1:1">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="265" spans="1:1">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="266" spans="1:1">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="267" spans="1:1">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="268" spans="1:1">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="269" spans="1:1">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="270" spans="1:1">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="271" spans="1:1">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="272" spans="1:1">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="273" spans="1:1">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="274" spans="1:1">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="275" spans="1:1">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="276" spans="1:1">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="277" spans="1:1">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="278" spans="1:1">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="279" spans="1:1">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="280" spans="1:1">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="281" spans="1:1">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="282" spans="1:1">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="283" spans="1:1">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="284" spans="1:1">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="285" spans="1:1">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="286" spans="1:1">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="287" spans="1:1">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="288" spans="1:1">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="289" spans="1:1">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="290" spans="1:1">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="291" spans="1:1">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="292" spans="1:1">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="293" spans="1:1">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="294" spans="1:1">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="295" spans="1:1">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="296" spans="1:1">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="297" spans="1:1">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="298" spans="1:1">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="299" spans="1:1">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="300" spans="1:1">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="301" spans="1:1">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="302" spans="1:1">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="303" spans="1:1">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="304" spans="1:1">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="305" spans="1:1">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="306" spans="1:1">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="307" spans="1:1">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="308" spans="1:1">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="309" spans="1:1">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="310" spans="1:1">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="311" spans="1:1">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="312" spans="1:1">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="313" spans="1:1">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="314" spans="1:1">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="315" spans="1:1">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="316" spans="1:1">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="317" spans="1:1">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="318" spans="1:1">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="319" spans="1:1">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="320" spans="1:1">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="321" spans="1:1">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="322" spans="1:1">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="323" spans="1:1">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="324" spans="1:1">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="325" spans="1:1">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="326" spans="1:1">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="327" spans="1:1">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="328" spans="1:1">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="329" spans="1:1">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="330" spans="1:1">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="331" spans="1:1">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="332" spans="1:1">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="333" spans="1:1">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="334" spans="1:1">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="335" spans="1:1">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="336" spans="1:1">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="337" spans="1:1">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="338" spans="1:1">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="339" spans="1:1">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="340" spans="1:1">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="341" spans="1:1">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="342" spans="1:1">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="343" spans="1:1">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="344" spans="1:1">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="345" spans="1:1">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="346" spans="1:1">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="347" spans="1:1">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="348" spans="1:1">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="349" spans="1:1">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="350" spans="1:1">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="351" spans="1:1">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="352" spans="1:1">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="353" spans="1:1">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="354" spans="1:1">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="355" spans="1:1">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="356" spans="1:1">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="357" spans="1:1">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="358" spans="1:1">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="359" spans="1:1">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="360" spans="1:1">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="361" spans="1:1">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="362" spans="1:1">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="363" spans="1:1">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="364" spans="1:1">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="365" spans="1:1">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="366" spans="1:1">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="367" spans="1:1">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="368" spans="1:1">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="369" spans="1:1">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="370" spans="1:1">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="371" spans="1:1">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="372" spans="1:1">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="373" spans="1:1">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="374" spans="1:1">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="375" spans="1:1">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="376" spans="1:1">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="377" spans="1:1">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="378" spans="1:1">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="379" spans="1:1">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="380" spans="1:1">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="381" spans="1:1">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="382" spans="1:1">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="383" spans="1:1">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="384" spans="1:1">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="385" spans="1:1">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="386" spans="1:1">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="387" spans="1:1">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="388" spans="1:1">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="389" spans="1:1">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="390" spans="1:1">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="391" spans="1:1">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="392" spans="1:1">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="393" spans="1:1">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="394" spans="1:1">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="395" spans="1:1">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="396" spans="1:1">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="397" spans="1:1">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="398" spans="1:1">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="399" spans="1:1">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="400" spans="1:1">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="401" spans="1:1">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="402" spans="1:1">
+    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="403" spans="1:1">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="404" spans="1:1">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="405" spans="1:1">
+    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="406" spans="1:1">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="407" spans="1:1">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="408" spans="1:1">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="409" spans="1:1">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="410" spans="1:1">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="411" spans="1:1">
+    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="412" spans="1:1">
+    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="413" spans="1:1">
+    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="414" spans="1:1">
+    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="415" spans="1:1">
+    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="416" spans="1:1">
+    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="417" spans="1:1">
+    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="418" spans="1:1">
+    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="419" spans="1:1">
+    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="420" spans="1:1">
+    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="421" spans="1:1">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="422" spans="1:1">
+    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="423" spans="1:1">
+    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="424" spans="1:1">
+    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="425" spans="1:1">
+    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="426" spans="1:1">
+    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="427" spans="1:1">
+    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="428" spans="1:1">
+    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="429" spans="1:1">
+    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="430" spans="1:1">
+    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="431" spans="1:1">
+    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="432" spans="1:1">
+    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="433" spans="1:1">
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="434" spans="1:1">
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="435" spans="1:1">
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="436" spans="1:1">
+    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="437" spans="1:1">
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="438" spans="1:1">
+    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="439" spans="1:1">
+    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="440" spans="1:1">
+    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="441" spans="1:1">
+    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="442" spans="1:1">
+    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="443" spans="1:1">
+    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="444" spans="1:1">
+    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="445" spans="1:1">
+    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="446" spans="1:1">
+    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="447" spans="1:1">
+    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="448" spans="1:1">
+    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="449" spans="1:1">
+    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="450" spans="1:1">
+    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="451" spans="1:1">
+    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="452" spans="1:1">
+    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="453" spans="1:1">
+    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="454" spans="1:1">
+    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="455" spans="1:1">
+    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="456" spans="1:1">
+    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="457" spans="1:1">
+    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="458" spans="1:1">
+    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="459" spans="1:1">
+    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="460" spans="1:1">
+    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="461" spans="1:1">
+    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="462" spans="1:1">
+    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="463" spans="1:1">
+    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="464" spans="1:1">
+    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="465" spans="1:1">
+    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="466" spans="1:1">
+    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="467" spans="1:1">
+    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="468" spans="1:1">
+    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="469" spans="1:1">
+    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="470" spans="1:1">
+    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="471" spans="1:1">
+    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="472" spans="1:1">
+    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="473" spans="1:1">
+    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="474" spans="1:1">
+    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="475" spans="1:1">
+    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="476" spans="1:1">
+    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="477" spans="1:1">
+    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="478" spans="1:1">
+    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="479" spans="1:1">
+    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="480" spans="1:1">
+    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="481" spans="1:1">
+    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>482</v>
       </c>
@@ -4896,17 +4902,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B187" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B447" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J209" sqref="J209"/>
+      <selection pane="bottomRight" activeCell="D477" sqref="D477"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" style="9" bestFit="1" customWidth="1"/>
@@ -4915,7 +4921,7 @@
     <col min="5" max="6" width="10.7109375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>487</v>
       </c>
@@ -4953,7 +4959,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -4970,7 +4976,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -4986,7 +4992,7 @@
         <v>43511</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -5003,15 +5009,19 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="4">
         <v>43507</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="13"/>
+      <c r="C5" s="4">
+        <v>43518</v>
+      </c>
+      <c r="D5" s="13">
+        <v>22.2</v>
+      </c>
       <c r="E5" s="4">
         <v>43458</v>
       </c>
@@ -5019,7 +5029,7 @@
         <v>43511</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -5036,7 +5046,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -5050,7 +5060,7 @@
       </c>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -5063,7 +5073,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -5083,7 +5093,7 @@
         <v>43511</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -5100,34 +5110,43 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="4">
         <v>43500</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="13"/>
+      <c r="C11" s="4">
+        <v>43518</v>
+      </c>
+      <c r="D11" s="13">
+        <v>46.8</v>
+      </c>
       <c r="E11" s="4">
         <v>43458</v>
       </c>
       <c r="F11" s="10">
         <v>43504</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="G11" s="21">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="4"/>
+      <c r="B12" s="4">
+        <v>43518</v>
+      </c>
       <c r="C12" s="4"/>
       <c r="D12" s="13"/>
       <c r="E12" s="4">
         <v>43458</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -5147,7 +5166,7 @@
         <v>43504</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
@@ -5164,7 +5183,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
@@ -5184,7 +5203,7 @@
         <v>43502</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
@@ -5201,14 +5220,16 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="4">
         <v>43500</v>
       </c>
-      <c r="C17" s="4"/>
+      <c r="C17" s="4">
+        <v>43518</v>
+      </c>
       <c r="D17" s="13"/>
       <c r="E17" s="4">
         <v>43458</v>
@@ -5217,7 +5238,7 @@
         <v>43509</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
@@ -5230,7 +5251,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>20</v>
       </c>
@@ -5242,20 +5263,24 @@
       </c>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="6">
         <v>43507</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="14"/>
+      <c r="C20" s="6">
+        <v>43518</v>
+      </c>
+      <c r="D20" s="14">
+        <v>34.299999999999997</v>
+      </c>
       <c r="E20" s="6">
         <v>43472</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>22</v>
       </c>
@@ -5267,9 +5292,11 @@
       <c r="E21" s="6">
         <v>43472</v>
       </c>
-      <c r="F21" s="10"/>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="F21" s="10">
+        <v>43518</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>23</v>
       </c>
@@ -5282,7 +5309,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>24</v>
       </c>
@@ -5294,9 +5321,11 @@
       <c r="E23" s="6">
         <v>43472</v>
       </c>
-      <c r="F23" s="10"/>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="F23" s="10">
+        <v>43518</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>25</v>
       </c>
@@ -5309,7 +5338,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>26</v>
       </c>
@@ -5321,7 +5350,7 @@
       </c>
       <c r="F25" s="10"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>27</v>
       </c>
@@ -5332,7 +5361,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>28</v>
       </c>
@@ -5344,9 +5373,11 @@
       <c r="E27" s="6">
         <v>43472</v>
       </c>
-      <c r="F27" s="10"/>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="F27" s="10">
+        <v>43518</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>29</v>
       </c>
@@ -5359,7 +5390,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>30</v>
       </c>
@@ -5373,7 +5404,7 @@
       </c>
       <c r="F29" s="10"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>31</v>
       </c>
@@ -5384,7 +5415,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>32</v>
       </c>
@@ -5398,7 +5429,7 @@
       </c>
       <c r="F31" s="10"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>33</v>
       </c>
@@ -5415,15 +5446,19 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B33" s="6">
         <v>43504</v>
       </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="14"/>
+      <c r="C33" s="6">
+        <v>43518</v>
+      </c>
+      <c r="D33" s="14">
+        <v>21.4</v>
+      </c>
       <c r="E33" s="6">
         <v>43472</v>
       </c>
@@ -5431,18 +5466,20 @@
         <v>43515</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="11"/>
+      <c r="B34" s="11">
+        <v>43518</v>
+      </c>
       <c r="C34" s="11"/>
       <c r="D34" s="15"/>
       <c r="E34" s="11">
         <v>43486</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>36</v>
       </c>
@@ -5454,7 +5491,7 @@
       </c>
       <c r="F35" s="10"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>37</v>
       </c>
@@ -5467,7 +5504,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>38</v>
       </c>
@@ -5479,7 +5516,7 @@
       </c>
       <c r="F37" s="10"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>39</v>
       </c>
@@ -5490,7 +5527,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>40</v>
       </c>
@@ -5504,7 +5541,7 @@
       </c>
       <c r="F39" s="10"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>41</v>
       </c>
@@ -5515,7 +5552,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>42</v>
       </c>
@@ -5529,7 +5566,7 @@
       </c>
       <c r="F41" s="10"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>43</v>
       </c>
@@ -5540,7 +5577,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>44</v>
       </c>
@@ -5552,18 +5589,20 @@
       </c>
       <c r="F43" s="10"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="11"/>
+      <c r="B44" s="11">
+        <v>43518</v>
+      </c>
       <c r="C44" s="11"/>
       <c r="D44" s="15"/>
       <c r="E44" s="11">
         <v>43486</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>46</v>
       </c>
@@ -5575,18 +5614,20 @@
       </c>
       <c r="F45" s="10"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B46" s="11"/>
+      <c r="B46" s="11">
+        <v>43518</v>
+      </c>
       <c r="C46" s="11"/>
       <c r="D46" s="15"/>
       <c r="E46" s="11">
         <v>43486</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>48</v>
       </c>
@@ -5600,7 +5641,7 @@
       </c>
       <c r="F47" s="10"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>49</v>
       </c>
@@ -5611,7 +5652,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>50</v>
       </c>
@@ -5623,7 +5664,7 @@
       </c>
       <c r="F49" s="10"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>51</v>
       </c>
@@ -5640,7 +5681,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>52</v>
       </c>
@@ -5660,7 +5701,7 @@
         <v>43493</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>53</v>
       </c>
@@ -5677,7 +5718,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>54</v>
       </c>
@@ -5697,7 +5738,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>55</v>
       </c>
@@ -5714,7 +5755,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>56</v>
       </c>
@@ -5734,7 +5775,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>57</v>
       </c>
@@ -5751,7 +5792,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>58</v>
       </c>
@@ -5771,7 +5812,7 @@
         <v>43493</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>59</v>
       </c>
@@ -5788,7 +5829,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>60</v>
       </c>
@@ -5804,7 +5845,7 @@
         <v>43504</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>61</v>
       </c>
@@ -5821,7 +5862,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>62</v>
       </c>
@@ -5833,7 +5874,7 @@
       </c>
       <c r="F61" s="10"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>63</v>
       </c>
@@ -5850,7 +5891,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>64</v>
       </c>
@@ -5870,7 +5911,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>65</v>
       </c>
@@ -5887,7 +5928,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>66</v>
       </c>
@@ -5907,7 +5948,7 @@
         <v>43479</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
         <v>67</v>
       </c>
@@ -5920,7 +5961,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
         <v>68</v>
       </c>
@@ -5936,7 +5977,7 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
         <v>69</v>
       </c>
@@ -5953,15 +5994,19 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
         <v>70</v>
       </c>
       <c r="B69" s="6">
         <v>43502</v>
       </c>
-      <c r="C69" s="6"/>
-      <c r="D69" s="14"/>
+      <c r="C69" s="6">
+        <v>43518</v>
+      </c>
+      <c r="D69" s="14">
+        <v>28.7</v>
+      </c>
       <c r="E69" s="6">
         <v>43472</v>
       </c>
@@ -5969,7 +6014,7 @@
         <v>43504</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
         <v>71</v>
       </c>
@@ -5986,7 +6031,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
         <v>72</v>
       </c>
@@ -6002,7 +6047,7 @@
         <v>43497</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
         <v>73</v>
       </c>
@@ -6013,7 +6058,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
         <v>74</v>
       </c>
@@ -6033,7 +6078,7 @@
         <v>43502</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
         <v>75</v>
       </c>
@@ -6050,7 +6095,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
         <v>76</v>
       </c>
@@ -6062,9 +6107,11 @@
       <c r="E75" s="6">
         <v>43472</v>
       </c>
-      <c r="F75" s="10"/>
-    </row>
-    <row r="76" spans="1:6">
+      <c r="F75" s="10">
+        <v>43518</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
         <v>77</v>
       </c>
@@ -6081,7 +6128,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
         <v>78</v>
       </c>
@@ -6097,7 +6144,7 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
         <v>79</v>
       </c>
@@ -6114,7 +6161,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
         <v>80</v>
       </c>
@@ -6134,7 +6181,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
         <v>81</v>
       </c>
@@ -6151,7 +6198,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
         <v>82</v>
       </c>
@@ -6171,7 +6218,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
         <v>83</v>
       </c>
@@ -6182,7 +6229,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
         <v>84</v>
       </c>
@@ -6198,20 +6245,24 @@
         <v>43511</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
         <v>85</v>
       </c>
       <c r="B84" s="11">
         <v>43502</v>
       </c>
-      <c r="C84" s="11"/>
-      <c r="D84" s="15"/>
+      <c r="C84" s="11">
+        <v>43518</v>
+      </c>
+      <c r="D84" s="15">
+        <v>25.4</v>
+      </c>
       <c r="E84" s="11">
         <v>43486</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
         <v>86</v>
       </c>
@@ -6227,20 +6278,24 @@
         <v>43509</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
         <v>87</v>
       </c>
       <c r="B86" s="11">
         <v>43504</v>
       </c>
-      <c r="C86" s="11"/>
-      <c r="D86" s="15"/>
+      <c r="C86" s="11">
+        <v>43518</v>
+      </c>
+      <c r="D86" s="15">
+        <v>35.4</v>
+      </c>
       <c r="E86" s="11">
         <v>43486</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
         <v>88</v>
       </c>
@@ -6252,7 +6307,7 @@
       </c>
       <c r="F87" s="10"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
         <v>89</v>
       </c>
@@ -6263,7 +6318,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
         <v>90</v>
       </c>
@@ -6275,9 +6330,11 @@
       <c r="E89" s="11">
         <v>43486</v>
       </c>
-      <c r="F89" s="10"/>
-    </row>
-    <row r="90" spans="1:6">
+      <c r="F89" s="10">
+        <v>43518</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
         <v>91</v>
       </c>
@@ -6290,7 +6347,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
         <v>92</v>
       </c>
@@ -6306,7 +6363,7 @@
         <v>43511</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
         <v>93</v>
       </c>
@@ -6319,7 +6376,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
         <v>94</v>
       </c>
@@ -6335,7 +6392,7 @@
         <v>43515</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
         <v>95</v>
       </c>
@@ -6348,7 +6405,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
         <v>96</v>
       </c>
@@ -6364,7 +6421,7 @@
         <v>43515</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
         <v>97</v>
       </c>
@@ -6377,7 +6434,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
         <v>98</v>
       </c>
@@ -6393,7 +6450,7 @@
         <v>43515</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>99</v>
       </c>
@@ -6410,7 +6467,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>100</v>
       </c>
@@ -6430,7 +6487,7 @@
         <v>43476</v>
       </c>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>101</v>
       </c>
@@ -6466,7 +6523,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>102</v>
       </c>
@@ -6486,7 +6543,7 @@
         <v>43473</v>
       </c>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>103</v>
       </c>
@@ -6522,7 +6579,7 @@
         <v>35.375</v>
       </c>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>104</v>
       </c>
@@ -6542,7 +6599,7 @@
         <v>43476</v>
       </c>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>105</v>
       </c>
@@ -6578,7 +6635,7 @@
         <v>37.1</v>
       </c>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>106</v>
       </c>
@@ -6617,7 +6674,7 @@
         <v>33.475000000000001</v>
       </c>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>107</v>
       </c>
@@ -6634,7 +6691,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>108</v>
       </c>
@@ -6654,7 +6711,7 @@
         <v>43476</v>
       </c>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>109</v>
       </c>
@@ -6690,7 +6747,7 @@
         <v>38.375</v>
       </c>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>110</v>
       </c>
@@ -6710,7 +6767,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>111</v>
       </c>
@@ -6727,7 +6784,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>112</v>
       </c>
@@ -6747,7 +6804,7 @@
         <v>43473</v>
       </c>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>113</v>
       </c>
@@ -6764,7 +6821,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>114</v>
       </c>
@@ -6787,7 +6844,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
         <v>115</v>
       </c>
@@ -6804,7 +6861,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="5" t="s">
         <v>116</v>
       </c>
@@ -6824,7 +6881,7 @@
         <v>43493</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="5" t="s">
         <v>117</v>
       </c>
@@ -6841,7 +6898,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="5" t="s">
         <v>118</v>
       </c>
@@ -6861,7 +6918,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="5" t="s">
         <v>119</v>
       </c>
@@ -6878,7 +6935,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="5" t="s">
         <v>120</v>
       </c>
@@ -6901,7 +6958,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="5" t="s">
         <v>121</v>
       </c>
@@ -6918,7 +6975,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="5" t="s">
         <v>122</v>
       </c>
@@ -6938,7 +6995,7 @@
         <v>43497</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="5" t="s">
         <v>123</v>
       </c>
@@ -6955,7 +7012,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
         <v>124</v>
       </c>
@@ -6978,7 +7035,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
         <v>125</v>
       </c>
@@ -6995,7 +7052,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="5" t="s">
         <v>126</v>
       </c>
@@ -7015,7 +7072,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="5" t="s">
         <v>127</v>
       </c>
@@ -7032,7 +7089,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="5" t="s">
         <v>128</v>
       </c>
@@ -7052,7 +7109,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="5" t="s">
         <v>129</v>
       </c>
@@ -7069,7 +7126,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
         <v>130</v>
       </c>
@@ -7089,7 +7146,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="7" t="s">
         <v>131</v>
       </c>
@@ -7106,15 +7163,19 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="7" t="s">
         <v>132</v>
       </c>
       <c r="B131" s="11">
         <v>43500</v>
       </c>
-      <c r="C131" s="11"/>
-      <c r="D131" s="15"/>
+      <c r="C131" s="11">
+        <v>43518</v>
+      </c>
+      <c r="D131" s="15">
+        <v>33.5</v>
+      </c>
       <c r="E131" s="11">
         <v>43486</v>
       </c>
@@ -7122,7 +7183,7 @@
         <v>43504</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="7" t="s">
         <v>133</v>
       </c>
@@ -7139,7 +7200,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="7" t="s">
         <v>134</v>
       </c>
@@ -7155,7 +7216,7 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="7" t="s">
         <v>135</v>
       </c>
@@ -7172,14 +7233,16 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="7" t="s">
         <v>136</v>
       </c>
       <c r="B135" s="11">
         <v>43507</v>
       </c>
-      <c r="C135" s="11"/>
+      <c r="C135" s="11">
+        <v>43518</v>
+      </c>
       <c r="D135" s="15"/>
       <c r="E135" s="11">
         <v>43486</v>
@@ -7188,7 +7251,7 @@
         <v>43511</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="7" t="s">
         <v>137</v>
       </c>
@@ -7201,7 +7264,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="7" t="s">
         <v>138</v>
       </c>
@@ -7221,7 +7284,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="7" t="s">
         <v>139</v>
       </c>
@@ -7238,15 +7301,19 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="7" t="s">
         <v>140</v>
       </c>
       <c r="B139" s="11">
         <v>43502</v>
       </c>
-      <c r="C139" s="11"/>
-      <c r="D139" s="15"/>
+      <c r="C139" s="11">
+        <v>43518</v>
+      </c>
+      <c r="D139" s="15">
+        <v>45.6</v>
+      </c>
       <c r="E139" s="11">
         <v>43486</v>
       </c>
@@ -7254,20 +7321,24 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="7" t="s">
         <v>141</v>
       </c>
       <c r="B140" s="11">
         <v>43502</v>
       </c>
-      <c r="C140" s="11"/>
-      <c r="D140" s="15"/>
+      <c r="C140" s="11">
+        <v>43518</v>
+      </c>
+      <c r="D140" s="15">
+        <v>30.8</v>
+      </c>
       <c r="E140" s="11">
         <v>43486</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="7" t="s">
         <v>142</v>
       </c>
@@ -7287,7 +7358,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="7" t="s">
         <v>143</v>
       </c>
@@ -7304,7 +7375,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="7" t="s">
         <v>144</v>
       </c>
@@ -7320,7 +7391,7 @@
         <v>43504</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="7" t="s">
         <v>145</v>
       </c>
@@ -7337,15 +7408,19 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="7" t="s">
         <v>146</v>
       </c>
       <c r="B145" s="11">
         <v>43502</v>
       </c>
-      <c r="C145" s="11"/>
-      <c r="D145" s="15"/>
+      <c r="C145" s="11">
+        <v>43518</v>
+      </c>
+      <c r="D145" s="15">
+        <v>39.700000000000003</v>
+      </c>
       <c r="E145" s="11">
         <v>43486</v>
       </c>
@@ -7353,7 +7428,7 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
         <v>147</v>
       </c>
@@ -7370,7 +7445,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>148</v>
       </c>
@@ -7390,7 +7465,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
         <v>149</v>
       </c>
@@ -7407,7 +7482,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
         <v>150</v>
       </c>
@@ -7430,7 +7505,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
         <v>151</v>
       </c>
@@ -7447,7 +7522,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
         <v>152</v>
       </c>
@@ -7467,7 +7542,7 @@
         <v>43483</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
         <v>153</v>
       </c>
@@ -7484,7 +7559,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
         <v>154</v>
       </c>
@@ -7504,7 +7579,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
         <v>155</v>
       </c>
@@ -7521,7 +7596,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
         <v>156</v>
       </c>
@@ -7541,7 +7616,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
         <v>157</v>
       </c>
@@ -7558,7 +7633,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
         <v>158</v>
       </c>
@@ -7578,7 +7653,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
         <v>159</v>
       </c>
@@ -7595,7 +7670,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
         <v>160</v>
       </c>
@@ -7615,7 +7690,7 @@
         <v>43483</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
         <v>161</v>
       </c>
@@ -7632,7 +7707,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
         <v>162</v>
       </c>
@@ -7652,7 +7727,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="5" t="s">
         <v>163</v>
       </c>
@@ -7669,7 +7744,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="5" t="s">
         <v>164</v>
       </c>
@@ -7689,7 +7764,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="5" t="s">
         <v>165</v>
       </c>
@@ -7706,7 +7781,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="5" t="s">
         <v>166</v>
       </c>
@@ -7726,7 +7801,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="5" t="s">
         <v>167</v>
       </c>
@@ -7743,7 +7818,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="5" t="s">
         <v>168</v>
       </c>
@@ -7763,7 +7838,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="5" t="s">
         <v>169</v>
       </c>
@@ -7780,7 +7855,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="5" t="s">
         <v>170</v>
       </c>
@@ -7800,7 +7875,7 @@
         <v>43493</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="5" t="s">
         <v>171</v>
       </c>
@@ -7817,7 +7892,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="5" t="s">
         <v>172</v>
       </c>
@@ -7837,7 +7912,7 @@
         <v>43497</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="5" t="s">
         <v>173</v>
       </c>
@@ -7854,7 +7929,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="5" t="s">
         <v>174</v>
       </c>
@@ -7874,7 +7949,7 @@
         <v>43502</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="5" t="s">
         <v>175</v>
       </c>
@@ -7891,7 +7966,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="5" t="s">
         <v>176</v>
       </c>
@@ -7911,7 +7986,7 @@
         <v>43497</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="5" t="s">
         <v>177</v>
       </c>
@@ -7928,7 +8003,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" s="5" t="s">
         <v>178</v>
       </c>
@@ -7948,7 +8023,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="7" t="s">
         <v>179</v>
       </c>
@@ -7965,15 +8040,19 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" s="7" t="s">
         <v>180</v>
       </c>
       <c r="B179" s="11">
         <v>43504</v>
       </c>
-      <c r="C179" s="11"/>
-      <c r="D179" s="15"/>
+      <c r="C179" s="11">
+        <v>43518</v>
+      </c>
+      <c r="D179" s="15">
+        <v>54.1</v>
+      </c>
       <c r="E179" s="11">
         <v>43486</v>
       </c>
@@ -7981,28 +8060,36 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" s="7" t="s">
         <v>181</v>
       </c>
       <c r="B180" s="11">
         <v>43507</v>
       </c>
-      <c r="C180" s="11"/>
-      <c r="D180" s="15"/>
+      <c r="C180" s="11">
+        <v>43518</v>
+      </c>
+      <c r="D180" s="15">
+        <v>46.6</v>
+      </c>
       <c r="E180" s="11">
         <v>43486</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" s="7" t="s">
         <v>182</v>
       </c>
       <c r="B181" s="11">
         <v>43507</v>
       </c>
-      <c r="C181" s="11"/>
-      <c r="D181" s="15"/>
+      <c r="C181" s="11">
+        <v>43518</v>
+      </c>
+      <c r="D181" s="15">
+        <v>47.9</v>
+      </c>
       <c r="E181" s="11">
         <v>43486</v>
       </c>
@@ -8010,7 +8097,7 @@
         <v>43509</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" s="7" t="s">
         <v>183</v>
       </c>
@@ -8027,14 +8114,16 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="7" t="s">
         <v>184</v>
       </c>
       <c r="B183" s="11">
         <v>43504</v>
       </c>
-      <c r="C183" s="11"/>
+      <c r="C183" s="11">
+        <v>43518</v>
+      </c>
       <c r="D183" s="15"/>
       <c r="E183" s="11">
         <v>43486</v>
@@ -8043,7 +8132,7 @@
         <v>43509</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" s="7" t="s">
         <v>185</v>
       </c>
@@ -8060,7 +8149,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" s="7" t="s">
         <v>186</v>
       </c>
@@ -8076,20 +8165,24 @@
         <v>43504</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" s="7" t="s">
         <v>187</v>
       </c>
       <c r="B186" s="11">
         <v>43507</v>
       </c>
-      <c r="C186" s="11"/>
-      <c r="D186" s="15"/>
+      <c r="C186" s="11">
+        <v>43518</v>
+      </c>
+      <c r="D186" s="15">
+        <v>54.7</v>
+      </c>
       <c r="E186" s="11">
         <v>43486</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" s="7" t="s">
         <v>188</v>
       </c>
@@ -8105,7 +8198,7 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" s="7" t="s">
         <v>189</v>
       </c>
@@ -8122,7 +8215,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" s="7" t="s">
         <v>190</v>
       </c>
@@ -8142,7 +8235,7 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" s="7" t="s">
         <v>191</v>
       </c>
@@ -8159,7 +8252,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" s="7" t="s">
         <v>192</v>
       </c>
@@ -8179,7 +8272,7 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" s="7" t="s">
         <v>193</v>
       </c>
@@ -8196,15 +8289,19 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="193" spans="1:13">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A193" s="7" t="s">
         <v>194</v>
       </c>
       <c r="B193" s="11">
         <v>43502</v>
       </c>
-      <c r="C193" s="11"/>
-      <c r="D193" s="15"/>
+      <c r="C193" s="11">
+        <v>43518</v>
+      </c>
+      <c r="D193" s="15">
+        <v>46.5</v>
+      </c>
       <c r="E193" s="11">
         <v>43486</v>
       </c>
@@ -8212,7 +8309,7 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="194" spans="1:13">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
         <v>195</v>
       </c>
@@ -8248,7 +8345,7 @@
         <v>33.75</v>
       </c>
     </row>
-    <row r="195" spans="1:13">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
         <v>196</v>
       </c>
@@ -8268,7 +8365,7 @@
         <v>43479</v>
       </c>
     </row>
-    <row r="196" spans="1:13">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
         <v>197</v>
       </c>
@@ -8285,7 +8382,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="197" spans="1:13">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
         <v>198</v>
       </c>
@@ -8305,7 +8402,7 @@
         <v>43493</v>
       </c>
     </row>
-    <row r="198" spans="1:13">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
         <v>199</v>
       </c>
@@ -8341,7 +8438,7 @@
         <v>34.375</v>
       </c>
     </row>
-    <row r="199" spans="1:13">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
         <v>200</v>
       </c>
@@ -8361,7 +8458,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="200" spans="1:13">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
         <v>201</v>
       </c>
@@ -8378,7 +8475,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="201" spans="1:13">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
         <v>202</v>
       </c>
@@ -8398,7 +8495,7 @@
         <v>43493</v>
       </c>
     </row>
-    <row r="202" spans="1:13">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
         <v>203</v>
       </c>
@@ -8415,7 +8512,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="203" spans="1:13" ht="19" customHeight="1">
+    <row r="203" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
         <v>204</v>
       </c>
@@ -8435,7 +8532,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="204" spans="1:13" ht="17" customHeight="1">
+    <row r="204" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
         <v>205</v>
       </c>
@@ -8452,7 +8549,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="205" spans="1:13" ht="18" customHeight="1">
+    <row r="205" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
         <v>206</v>
       </c>
@@ -8491,7 +8588,7 @@
         <v>32.799999999999997</v>
       </c>
     </row>
-    <row r="206" spans="1:13" ht="17" customHeight="1">
+    <row r="206" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
         <v>207</v>
       </c>
@@ -8527,7 +8624,7 @@
         <v>28.674999999999997</v>
       </c>
     </row>
-    <row r="207" spans="1:13" ht="17" customHeight="1">
+    <row r="207" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
         <v>208</v>
       </c>
@@ -8550,7 +8647,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="208" spans="1:13">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
         <v>209</v>
       </c>
@@ -8586,7 +8683,7 @@
         <v>27.574999999999999</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
         <v>210</v>
       </c>
@@ -8606,7 +8703,7 @@
         <v>43473</v>
       </c>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" s="5" t="s">
         <v>211</v>
       </c>
@@ -8623,7 +8720,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" s="5" t="s">
         <v>212</v>
       </c>
@@ -8643,7 +8740,7 @@
         <v>43502</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" s="5" t="s">
         <v>213</v>
       </c>
@@ -8660,7 +8757,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" s="5" t="s">
         <v>214</v>
       </c>
@@ -8683,7 +8780,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" s="5" t="s">
         <v>215</v>
       </c>
@@ -8700,7 +8797,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" s="5" t="s">
         <v>216</v>
       </c>
@@ -8720,7 +8817,7 @@
         <v>43493</v>
       </c>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" s="5" t="s">
         <v>217</v>
       </c>
@@ -8737,7 +8834,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" s="5" t="s">
         <v>218</v>
       </c>
@@ -8757,7 +8854,7 @@
         <v>43497</v>
       </c>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" s="5" t="s">
         <v>219</v>
       </c>
@@ -8774,7 +8871,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" s="5" t="s">
         <v>220</v>
       </c>
@@ -8794,7 +8891,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" s="5" t="s">
         <v>221</v>
       </c>
@@ -8811,7 +8908,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" s="5" t="s">
         <v>222</v>
       </c>
@@ -8831,7 +8928,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="222" spans="1:7">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" s="5" t="s">
         <v>223</v>
       </c>
@@ -8848,7 +8945,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" s="5" t="s">
         <v>224</v>
       </c>
@@ -8868,7 +8965,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" s="5" t="s">
         <v>225</v>
       </c>
@@ -8885,7 +8982,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="225" spans="1:6">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" s="5" t="s">
         <v>226</v>
       </c>
@@ -8905,7 +9002,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="226" spans="1:6">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" s="7" t="s">
         <v>227</v>
       </c>
@@ -8922,7 +9019,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="227" spans="1:6">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" s="7" t="s">
         <v>228</v>
       </c>
@@ -8938,7 +9035,7 @@
         <v>43504</v>
       </c>
     </row>
-    <row r="228" spans="1:6">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" s="7" t="s">
         <v>229</v>
       </c>
@@ -8955,15 +9052,19 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="229" spans="1:6">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" s="7" t="s">
         <v>230</v>
       </c>
       <c r="B229" s="11">
         <v>43504</v>
       </c>
-      <c r="C229" s="11"/>
-      <c r="D229" s="15"/>
+      <c r="C229" s="11">
+        <v>43518</v>
+      </c>
+      <c r="D229" s="15">
+        <v>50.3</v>
+      </c>
       <c r="E229" s="11">
         <v>43486</v>
       </c>
@@ -8971,7 +9072,7 @@
         <v>43511</v>
       </c>
     </row>
-    <row r="230" spans="1:6">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" s="7" t="s">
         <v>231</v>
       </c>
@@ -8984,7 +9085,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="231" spans="1:6">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" s="7" t="s">
         <v>232</v>
       </c>
@@ -9004,7 +9105,7 @@
         <v>43502</v>
       </c>
     </row>
-    <row r="232" spans="1:6">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" s="7" t="s">
         <v>233</v>
       </c>
@@ -9021,15 +9122,19 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="233" spans="1:6">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" s="7" t="s">
         <v>234</v>
       </c>
       <c r="B233" s="11">
         <v>43502</v>
       </c>
-      <c r="C233" s="11"/>
-      <c r="D233" s="15"/>
+      <c r="C233" s="11">
+        <v>43518</v>
+      </c>
+      <c r="D233" s="15">
+        <v>40.6</v>
+      </c>
       <c r="E233" s="11">
         <v>43486</v>
       </c>
@@ -9037,20 +9142,24 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="234" spans="1:6">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" s="7" t="s">
         <v>235</v>
       </c>
       <c r="B234" s="11">
         <v>43509</v>
       </c>
-      <c r="C234" s="11"/>
-      <c r="D234" s="15"/>
+      <c r="C234" s="11">
+        <v>43518</v>
+      </c>
+      <c r="D234" s="15">
+        <v>55</v>
+      </c>
       <c r="E234" s="11">
         <v>43486</v>
       </c>
     </row>
-    <row r="235" spans="1:6">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" s="7" t="s">
         <v>236</v>
       </c>
@@ -9070,7 +9179,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="236" spans="1:6">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" s="7" t="s">
         <v>237</v>
       </c>
@@ -9087,7 +9196,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="237" spans="1:6">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" s="7" t="s">
         <v>238</v>
       </c>
@@ -9103,7 +9212,7 @@
         <v>43511</v>
       </c>
     </row>
-    <row r="238" spans="1:6">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" s="7" t="s">
         <v>239</v>
       </c>
@@ -9120,15 +9229,19 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="239" spans="1:6">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" s="7" t="s">
         <v>240</v>
       </c>
       <c r="B239" s="11">
         <v>43500</v>
       </c>
-      <c r="C239" s="11"/>
-      <c r="D239" s="15"/>
+      <c r="C239" s="11">
+        <v>43518</v>
+      </c>
+      <c r="D239" s="15">
+        <v>55.6</v>
+      </c>
       <c r="E239" s="11">
         <v>43486</v>
       </c>
@@ -9136,7 +9249,7 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="240" spans="1:6">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" s="7" t="s">
         <v>241</v>
       </c>
@@ -9149,7 +9262,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="241" spans="1:7">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" s="7" t="s">
         <v>242</v>
       </c>
@@ -9172,7 +9285,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="242" spans="1:7">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" s="3" t="s">
         <v>243</v>
       </c>
@@ -9183,7 +9296,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" s="3" t="s">
         <v>244</v>
       </c>
@@ -9195,7 +9308,7 @@
       </c>
       <c r="F243" s="10"/>
     </row>
-    <row r="244" spans="1:7">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" s="3" t="s">
         <v>245</v>
       </c>
@@ -9206,7 +9319,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="245" spans="1:7">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" s="3" t="s">
         <v>246</v>
       </c>
@@ -9218,7 +9331,7 @@
       </c>
       <c r="F245" s="10"/>
     </row>
-    <row r="246" spans="1:7">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" s="3" t="s">
         <v>247</v>
       </c>
@@ -9229,7 +9342,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="247" spans="1:7">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" s="3" t="s">
         <v>248</v>
       </c>
@@ -9241,7 +9354,7 @@
       </c>
       <c r="F247" s="10"/>
     </row>
-    <row r="248" spans="1:7">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" s="3" t="s">
         <v>249</v>
       </c>
@@ -9252,7 +9365,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="249" spans="1:7">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="s">
         <v>250</v>
       </c>
@@ -9264,7 +9377,7 @@
       </c>
       <c r="F249" s="10"/>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" s="3" t="s">
         <v>251</v>
       </c>
@@ -9275,7 +9388,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="251" spans="1:7">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" s="3" t="s">
         <v>252</v>
       </c>
@@ -9287,7 +9400,7 @@
       </c>
       <c r="F251" s="10"/>
     </row>
-    <row r="252" spans="1:7">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" s="3" t="s">
         <v>253</v>
       </c>
@@ -9298,7 +9411,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="253" spans="1:7">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" s="3" t="s">
         <v>254</v>
       </c>
@@ -9310,7 +9423,7 @@
       </c>
       <c r="F253" s="10"/>
     </row>
-    <row r="254" spans="1:7">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" s="3" t="s">
         <v>255</v>
       </c>
@@ -9321,7 +9434,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="255" spans="1:7">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" s="3" t="s">
         <v>256</v>
       </c>
@@ -9333,7 +9446,7 @@
       </c>
       <c r="F255" s="10"/>
     </row>
-    <row r="256" spans="1:7">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
         <v>257</v>
       </c>
@@ -9344,7 +9457,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="257" spans="1:6">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" s="3" t="s">
         <v>258</v>
       </c>
@@ -9356,7 +9469,7 @@
       </c>
       <c r="F257" s="10"/>
     </row>
-    <row r="258" spans="1:6">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" s="5" t="s">
         <v>259</v>
       </c>
@@ -9367,7 +9480,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="259" spans="1:6">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" s="5" t="s">
         <v>260</v>
       </c>
@@ -9379,7 +9492,7 @@
       </c>
       <c r="F259" s="10"/>
     </row>
-    <row r="260" spans="1:6">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" s="5" t="s">
         <v>261</v>
       </c>
@@ -9390,7 +9503,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="261" spans="1:6">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" s="5" t="s">
         <v>262</v>
       </c>
@@ -9402,7 +9515,7 @@
       </c>
       <c r="F261" s="10"/>
     </row>
-    <row r="262" spans="1:6">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" s="5" t="s">
         <v>263</v>
       </c>
@@ -9413,7 +9526,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="263" spans="1:6">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" s="5" t="s">
         <v>264</v>
       </c>
@@ -9425,7 +9538,7 @@
       </c>
       <c r="F263" s="10"/>
     </row>
-    <row r="264" spans="1:6">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" s="5" t="s">
         <v>265</v>
       </c>
@@ -9436,7 +9549,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="265" spans="1:6">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" s="5" t="s">
         <v>266</v>
       </c>
@@ -9448,7 +9561,7 @@
       </c>
       <c r="F265" s="10"/>
     </row>
-    <row r="266" spans="1:6">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266" s="5" t="s">
         <v>267</v>
       </c>
@@ -9459,7 +9572,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="267" spans="1:6">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" s="5" t="s">
         <v>268</v>
       </c>
@@ -9471,7 +9584,7 @@
       </c>
       <c r="F267" s="10"/>
     </row>
-    <row r="268" spans="1:6">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" s="5" t="s">
         <v>269</v>
       </c>
@@ -9482,7 +9595,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="269" spans="1:6">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" s="5" t="s">
         <v>270</v>
       </c>
@@ -9494,7 +9607,7 @@
       </c>
       <c r="F269" s="10"/>
     </row>
-    <row r="270" spans="1:6">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" s="5" t="s">
         <v>271</v>
       </c>
@@ -9505,7 +9618,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="271" spans="1:6">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" s="5" t="s">
         <v>272</v>
       </c>
@@ -9517,7 +9630,7 @@
       </c>
       <c r="F271" s="10"/>
     </row>
-    <row r="272" spans="1:6">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" s="5" t="s">
         <v>273</v>
       </c>
@@ -9528,7 +9641,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="273" spans="1:6">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" s="5" t="s">
         <v>274</v>
       </c>
@@ -9540,7 +9653,7 @@
       </c>
       <c r="F273" s="10"/>
     </row>
-    <row r="274" spans="1:6">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" s="7" t="s">
         <v>275</v>
       </c>
@@ -9551,7 +9664,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="275" spans="1:6">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" s="7" t="s">
         <v>276</v>
       </c>
@@ -9563,7 +9676,7 @@
       </c>
       <c r="F275" s="10"/>
     </row>
-    <row r="276" spans="1:6">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" s="7" t="s">
         <v>277</v>
       </c>
@@ -9574,7 +9687,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="277" spans="1:6">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" s="7" t="s">
         <v>278</v>
       </c>
@@ -9586,7 +9699,7 @@
       </c>
       <c r="F277" s="10"/>
     </row>
-    <row r="278" spans="1:6">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" s="7" t="s">
         <v>279</v>
       </c>
@@ -9597,7 +9710,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="279" spans="1:6">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" s="7" t="s">
         <v>280</v>
       </c>
@@ -9609,7 +9722,7 @@
       </c>
       <c r="F279" s="10"/>
     </row>
-    <row r="280" spans="1:6">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" s="7" t="s">
         <v>281</v>
       </c>
@@ -9620,7 +9733,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="281" spans="1:6">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" s="7" t="s">
         <v>282</v>
       </c>
@@ -9632,7 +9745,7 @@
       </c>
       <c r="F281" s="10"/>
     </row>
-    <row r="282" spans="1:6">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" s="7" t="s">
         <v>283</v>
       </c>
@@ -9643,7 +9756,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="283" spans="1:6">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" s="7" t="s">
         <v>284</v>
       </c>
@@ -9655,7 +9768,7 @@
       </c>
       <c r="F283" s="10"/>
     </row>
-    <row r="284" spans="1:6">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" s="7" t="s">
         <v>285</v>
       </c>
@@ -9666,7 +9779,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="285" spans="1:6">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" s="7" t="s">
         <v>286</v>
       </c>
@@ -9678,7 +9791,7 @@
       </c>
       <c r="F285" s="10"/>
     </row>
-    <row r="286" spans="1:6">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" s="7" t="s">
         <v>287</v>
       </c>
@@ -9689,7 +9802,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="287" spans="1:6">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" s="7" t="s">
         <v>288</v>
       </c>
@@ -9701,7 +9814,7 @@
       </c>
       <c r="F287" s="10"/>
     </row>
-    <row r="288" spans="1:6">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" s="7" t="s">
         <v>289</v>
       </c>
@@ -9712,7 +9825,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="289" spans="1:6">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289" s="7" t="s">
         <v>290</v>
       </c>
@@ -9724,7 +9837,7 @@
       </c>
       <c r="F289" s="10"/>
     </row>
-    <row r="290" spans="1:6">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" s="3" t="s">
         <v>291</v>
       </c>
@@ -9735,7 +9848,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="291" spans="1:6">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" s="3" t="s">
         <v>292</v>
       </c>
@@ -9747,7 +9860,7 @@
       </c>
       <c r="F291" s="10"/>
     </row>
-    <row r="292" spans="1:6">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292" s="3" t="s">
         <v>293</v>
       </c>
@@ -9758,7 +9871,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="293" spans="1:6">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293" s="3" t="s">
         <v>294</v>
       </c>
@@ -9770,7 +9883,7 @@
       </c>
       <c r="F293" s="10"/>
     </row>
-    <row r="294" spans="1:6">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294" s="3" t="s">
         <v>295</v>
       </c>
@@ -9781,7 +9894,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="295" spans="1:6">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295" s="3" t="s">
         <v>296</v>
       </c>
@@ -9793,7 +9906,7 @@
       </c>
       <c r="F295" s="10"/>
     </row>
-    <row r="296" spans="1:6">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296" s="3" t="s">
         <v>297</v>
       </c>
@@ -9806,7 +9919,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="297" spans="1:6">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" s="3" t="s">
         <v>298</v>
       </c>
@@ -9818,7 +9931,7 @@
       </c>
       <c r="F297" s="10"/>
     </row>
-    <row r="298" spans="1:6">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" s="3" t="s">
         <v>299</v>
       </c>
@@ -9829,7 +9942,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="299" spans="1:6">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299" s="3" t="s">
         <v>300</v>
       </c>
@@ -9845,7 +9958,7 @@
         <v>43509</v>
       </c>
     </row>
-    <row r="300" spans="1:6">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300" s="3" t="s">
         <v>301</v>
       </c>
@@ -9858,7 +9971,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="301" spans="1:6">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301" s="3" t="s">
         <v>302</v>
       </c>
@@ -9874,7 +9987,7 @@
         <v>43515</v>
       </c>
     </row>
-    <row r="302" spans="1:6">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302" s="3" t="s">
         <v>303</v>
       </c>
@@ -9885,7 +9998,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="303" spans="1:6">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303" s="3" t="s">
         <v>304</v>
       </c>
@@ -9901,7 +10014,7 @@
         <v>43509</v>
       </c>
     </row>
-    <row r="304" spans="1:6">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304" s="3" t="s">
         <v>305</v>
       </c>
@@ -9918,7 +10031,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="305" spans="1:6">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305" s="3" t="s">
         <v>306</v>
       </c>
@@ -9930,7 +10043,7 @@
       </c>
       <c r="F305" s="10"/>
     </row>
-    <row r="306" spans="1:6">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A306" s="5" t="s">
         <v>307</v>
       </c>
@@ -9941,7 +10054,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="307" spans="1:6">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307" s="5" t="s">
         <v>308</v>
       </c>
@@ -9953,7 +10066,7 @@
       </c>
       <c r="F307" s="10"/>
     </row>
-    <row r="308" spans="1:6">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308" s="5" t="s">
         <v>309</v>
       </c>
@@ -9964,7 +10077,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="309" spans="1:6">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309" s="5" t="s">
         <v>310</v>
       </c>
@@ -9976,7 +10089,7 @@
       </c>
       <c r="F309" s="10"/>
     </row>
-    <row r="310" spans="1:6">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310" s="5" t="s">
         <v>311</v>
       </c>
@@ -9987,7 +10100,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="311" spans="1:6">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311" s="5" t="s">
         <v>312</v>
       </c>
@@ -9999,7 +10112,7 @@
       </c>
       <c r="F311" s="10"/>
     </row>
-    <row r="312" spans="1:6">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312" s="5" t="s">
         <v>313</v>
       </c>
@@ -10010,7 +10123,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="313" spans="1:6">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A313" s="5" t="s">
         <v>314</v>
       </c>
@@ -10022,7 +10135,7 @@
       </c>
       <c r="F313" s="10"/>
     </row>
-    <row r="314" spans="1:6">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A314" s="5" t="s">
         <v>315</v>
       </c>
@@ -10033,7 +10146,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="315" spans="1:6">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315" s="5" t="s">
         <v>316</v>
       </c>
@@ -10045,7 +10158,7 @@
       </c>
       <c r="F315" s="10"/>
     </row>
-    <row r="316" spans="1:6">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A316" s="5" t="s">
         <v>317</v>
       </c>
@@ -10056,7 +10169,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="317" spans="1:6">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317" s="5" t="s">
         <v>318</v>
       </c>
@@ -10068,7 +10181,7 @@
       </c>
       <c r="F317" s="10"/>
     </row>
-    <row r="318" spans="1:6">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318" s="5" t="s">
         <v>319</v>
       </c>
@@ -10079,7 +10192,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="319" spans="1:6">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319" s="5" t="s">
         <v>320</v>
       </c>
@@ -10091,7 +10204,7 @@
       </c>
       <c r="F319" s="10"/>
     </row>
-    <row r="320" spans="1:6">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A320" s="5" t="s">
         <v>321</v>
       </c>
@@ -10102,7 +10215,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="321" spans="1:6">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321" s="5" t="s">
         <v>322</v>
       </c>
@@ -10114,7 +10227,7 @@
       </c>
       <c r="F321" s="10"/>
     </row>
-    <row r="322" spans="1:6">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322" s="7" t="s">
         <v>323</v>
       </c>
@@ -10125,7 +10238,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="323" spans="1:6">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A323" s="7" t="s">
         <v>324</v>
       </c>
@@ -10137,7 +10250,7 @@
       </c>
       <c r="F323" s="10"/>
     </row>
-    <row r="324" spans="1:6">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A324" s="7" t="s">
         <v>325</v>
       </c>
@@ -10148,7 +10261,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="325" spans="1:6">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A325" s="7" t="s">
         <v>326</v>
       </c>
@@ -10160,7 +10273,7 @@
       </c>
       <c r="F325" s="10"/>
     </row>
-    <row r="326" spans="1:6">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A326" s="7" t="s">
         <v>327</v>
       </c>
@@ -10171,7 +10284,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="327" spans="1:6">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A327" s="7" t="s">
         <v>328</v>
       </c>
@@ -10183,7 +10296,7 @@
       </c>
       <c r="F327" s="10"/>
     </row>
-    <row r="328" spans="1:6">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A328" s="7" t="s">
         <v>329</v>
       </c>
@@ -10194,7 +10307,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="329" spans="1:6">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A329" s="7" t="s">
         <v>330</v>
       </c>
@@ -10206,7 +10319,7 @@
       </c>
       <c r="F329" s="10"/>
     </row>
-    <row r="330" spans="1:6">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A330" s="7" t="s">
         <v>331</v>
       </c>
@@ -10217,7 +10330,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="331" spans="1:6">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A331" s="7" t="s">
         <v>332</v>
       </c>
@@ -10229,7 +10342,7 @@
       </c>
       <c r="F331" s="10"/>
     </row>
-    <row r="332" spans="1:6">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A332" s="7" t="s">
         <v>333</v>
       </c>
@@ -10240,7 +10353,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="333" spans="1:6">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A333" s="7" t="s">
         <v>334</v>
       </c>
@@ -10252,7 +10365,7 @@
       </c>
       <c r="F333" s="10"/>
     </row>
-    <row r="334" spans="1:6">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A334" s="7" t="s">
         <v>335</v>
       </c>
@@ -10263,7 +10376,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="335" spans="1:6">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A335" s="7" t="s">
         <v>336</v>
       </c>
@@ -10275,7 +10388,7 @@
       </c>
       <c r="F335" s="10"/>
     </row>
-    <row r="336" spans="1:6">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A336" s="7" t="s">
         <v>337</v>
       </c>
@@ -10286,7 +10399,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="337" spans="1:13">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A337" s="7" t="s">
         <v>338</v>
       </c>
@@ -10298,7 +10411,7 @@
       </c>
       <c r="F337" s="10"/>
     </row>
-    <row r="338" spans="1:13">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A338" s="3" t="s">
         <v>339</v>
       </c>
@@ -10334,7 +10447,7 @@
         <v>42.125</v>
       </c>
     </row>
-    <row r="339" spans="1:13">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A339" s="3" t="s">
         <v>340</v>
       </c>
@@ -10373,7 +10486,7 @@
         <v>42.3</v>
       </c>
     </row>
-    <row r="340" spans="1:13">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A340" s="3" t="s">
         <v>341</v>
       </c>
@@ -10409,7 +10522,7 @@
         <v>48.449999999999996</v>
       </c>
     </row>
-    <row r="341" spans="1:13">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A341" s="3" t="s">
         <v>342</v>
       </c>
@@ -10448,7 +10561,7 @@
         <v>45.824999999999996</v>
       </c>
     </row>
-    <row r="342" spans="1:13">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A342" s="3" t="s">
         <v>343</v>
       </c>
@@ -10484,7 +10597,7 @@
         <v>45.05</v>
       </c>
     </row>
-    <row r="343" spans="1:13">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A343" s="3" t="s">
         <v>344</v>
       </c>
@@ -10523,7 +10636,7 @@
         <v>40.825000000000003</v>
       </c>
     </row>
-    <row r="344" spans="1:13">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A344" s="3" t="s">
         <v>345</v>
       </c>
@@ -10559,7 +10672,7 @@
         <v>37.875</v>
       </c>
     </row>
-    <row r="345" spans="1:13">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A345" s="3" t="s">
         <v>346</v>
       </c>
@@ -10598,7 +10711,7 @@
         <v>37.650000000000006</v>
       </c>
     </row>
-    <row r="346" spans="1:13">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A346" s="3" t="s">
         <v>347</v>
       </c>
@@ -10634,7 +10747,7 @@
         <v>44.024999999999999</v>
       </c>
     </row>
-    <row r="347" spans="1:13">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A347" s="3" t="s">
         <v>348</v>
       </c>
@@ -10673,7 +10786,7 @@
         <v>44.024999999999999</v>
       </c>
     </row>
-    <row r="348" spans="1:13">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A348" s="3" t="s">
         <v>349</v>
       </c>
@@ -10709,7 +10822,7 @@
         <v>42.05</v>
       </c>
     </row>
-    <row r="349" spans="1:13">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A349" s="3" t="s">
         <v>350</v>
       </c>
@@ -10748,7 +10861,7 @@
         <v>39.950000000000003</v>
       </c>
     </row>
-    <row r="350" spans="1:13">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A350" s="3" t="s">
         <v>351</v>
       </c>
@@ -10784,7 +10897,7 @@
         <v>47.775000000000006</v>
       </c>
     </row>
-    <row r="351" spans="1:13">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A351" s="3" t="s">
         <v>352</v>
       </c>
@@ -10826,7 +10939,7 @@
         <v>45.275000000000006</v>
       </c>
     </row>
-    <row r="352" spans="1:13">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A352" s="3" t="s">
         <v>353</v>
       </c>
@@ -10862,7 +10975,7 @@
         <v>47.625</v>
       </c>
     </row>
-    <row r="353" spans="1:6">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A353" s="3" t="s">
         <v>354</v>
       </c>
@@ -10882,7 +10995,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="354" spans="1:6">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A354" s="5" t="s">
         <v>355</v>
       </c>
@@ -10899,7 +11012,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="355" spans="1:6">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A355" s="5" t="s">
         <v>356</v>
       </c>
@@ -10919,7 +11032,7 @@
         <v>43493</v>
       </c>
     </row>
-    <row r="356" spans="1:6">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A356" s="5" t="s">
         <v>357</v>
       </c>
@@ -10936,7 +11049,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="357" spans="1:6">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A357" s="5" t="s">
         <v>358</v>
       </c>
@@ -10956,7 +11069,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="358" spans="1:6">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A358" s="5" t="s">
         <v>359</v>
       </c>
@@ -10973,7 +11086,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="359" spans="1:6">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A359" s="5" t="s">
         <v>360</v>
       </c>
@@ -10993,7 +11106,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="360" spans="1:6">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A360" s="5" t="s">
         <v>361</v>
       </c>
@@ -11010,7 +11123,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="361" spans="1:6">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A361" s="5" t="s">
         <v>362</v>
       </c>
@@ -11030,7 +11143,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="362" spans="1:6">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A362" s="5" t="s">
         <v>363</v>
       </c>
@@ -11047,7 +11160,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="363" spans="1:6">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A363" s="5" t="s">
         <v>364</v>
       </c>
@@ -11067,7 +11180,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="364" spans="1:6">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A364" s="5" t="s">
         <v>365</v>
       </c>
@@ -11084,7 +11197,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="365" spans="1:6">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A365" s="5" t="s">
         <v>366</v>
       </c>
@@ -11104,7 +11217,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="366" spans="1:6">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A366" s="5" t="s">
         <v>367</v>
       </c>
@@ -11121,7 +11234,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="367" spans="1:6">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A367" s="5" t="s">
         <v>368</v>
       </c>
@@ -11141,7 +11254,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="368" spans="1:6">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A368" s="5" t="s">
         <v>369</v>
       </c>
@@ -11158,7 +11271,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="369" spans="1:7">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A369" s="5" t="s">
         <v>370</v>
       </c>
@@ -11181,7 +11294,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="370" spans="1:7">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A370" s="7" t="s">
         <v>371</v>
       </c>
@@ -11198,7 +11311,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="371" spans="1:7">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A371" s="7" t="s">
         <v>372</v>
       </c>
@@ -11218,7 +11331,7 @@
         <v>43502</v>
       </c>
     </row>
-    <row r="372" spans="1:7">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A372" s="7" t="s">
         <v>373</v>
       </c>
@@ -11235,7 +11348,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="373" spans="1:7">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A373" s="7" t="s">
         <v>374</v>
       </c>
@@ -11255,7 +11368,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="374" spans="1:7">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A374" s="7" t="s">
         <v>375</v>
       </c>
@@ -11272,7 +11385,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="375" spans="1:7">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A375" s="7" t="s">
         <v>376</v>
       </c>
@@ -11292,7 +11405,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="376" spans="1:7">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A376" s="7" t="s">
         <v>377</v>
       </c>
@@ -11309,7 +11422,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="377" spans="1:7">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A377" s="7" t="s">
         <v>378</v>
       </c>
@@ -11329,7 +11442,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="378" spans="1:7">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A378" s="7" t="s">
         <v>379</v>
       </c>
@@ -11346,7 +11459,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="379" spans="1:7">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A379" s="7" t="s">
         <v>380</v>
       </c>
@@ -11366,7 +11479,7 @@
         <v>43502</v>
       </c>
     </row>
-    <row r="380" spans="1:7">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A380" s="7" t="s">
         <v>381</v>
       </c>
@@ -11383,7 +11496,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="381" spans="1:7">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A381" s="7" t="s">
         <v>382</v>
       </c>
@@ -11403,7 +11516,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="382" spans="1:7">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A382" s="7" t="s">
         <v>383</v>
       </c>
@@ -11420,7 +11533,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="383" spans="1:7">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A383" s="7" t="s">
         <v>384</v>
       </c>
@@ -11443,7 +11556,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="384" spans="1:7">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A384" s="7" t="s">
         <v>385</v>
       </c>
@@ -11460,7 +11573,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="385" spans="1:7" s="20" customFormat="1">
+    <row r="385" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A385" s="16" t="s">
         <v>386</v>
       </c>
@@ -11475,28 +11588,36 @@
         <v>489</v>
       </c>
     </row>
-    <row r="386" spans="1:7">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A386" s="3" t="s">
         <v>387</v>
       </c>
       <c r="B386" s="4">
         <v>43507</v>
       </c>
-      <c r="C386" s="4"/>
-      <c r="D386" s="13"/>
+      <c r="C386" s="4">
+        <v>43518</v>
+      </c>
+      <c r="D386" s="13">
+        <v>46</v>
+      </c>
       <c r="E386" s="4">
         <v>43458</v>
       </c>
     </row>
-    <row r="387" spans="1:7">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A387" s="3" t="s">
         <v>388</v>
       </c>
       <c r="B387" s="4">
         <v>43504</v>
       </c>
-      <c r="C387" s="4"/>
-      <c r="D387" s="13"/>
+      <c r="C387" s="4">
+        <v>43518</v>
+      </c>
+      <c r="D387" s="13">
+        <v>65.400000000000006</v>
+      </c>
       <c r="E387" s="4">
         <v>43458</v>
       </c>
@@ -11504,18 +11625,20 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="388" spans="1:7">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A388" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="B388" s="4"/>
+      <c r="B388" s="4">
+        <v>43518</v>
+      </c>
       <c r="C388" s="4"/>
       <c r="D388" s="13"/>
       <c r="E388" s="4">
         <v>43458</v>
       </c>
     </row>
-    <row r="389" spans="1:7">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A389" s="3" t="s">
         <v>390</v>
       </c>
@@ -11535,7 +11658,7 @@
         <v>43493</v>
       </c>
     </row>
-    <row r="390" spans="1:7">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A390" s="3" t="s">
         <v>391</v>
       </c>
@@ -11552,7 +11675,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="391" spans="1:7">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A391" s="3" t="s">
         <v>392</v>
       </c>
@@ -11568,7 +11691,7 @@
         <v>43515</v>
       </c>
     </row>
-    <row r="392" spans="1:7">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A392" s="3" t="s">
         <v>393</v>
       </c>
@@ -11585,7 +11708,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="393" spans="1:7">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A393" s="3" t="s">
         <v>394</v>
       </c>
@@ -11603,7 +11726,7 @@
       </c>
       <c r="F393" s="10"/>
     </row>
-    <row r="394" spans="1:7">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A394" s="3" t="s">
         <v>395</v>
       </c>
@@ -11620,15 +11743,19 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="395" spans="1:7">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A395" s="3" t="s">
         <v>396</v>
       </c>
       <c r="B395" s="4">
         <v>43504</v>
       </c>
-      <c r="C395" s="4"/>
-      <c r="D395" s="13"/>
+      <c r="C395" s="4">
+        <v>43518</v>
+      </c>
+      <c r="D395" s="13">
+        <v>39.4</v>
+      </c>
       <c r="E395" s="4">
         <v>43458</v>
       </c>
@@ -11636,7 +11763,7 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="396" spans="1:7">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A396" s="3" t="s">
         <v>397</v>
       </c>
@@ -11653,7 +11780,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="397" spans="1:7">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A397" s="3" t="s">
         <v>398</v>
       </c>
@@ -11669,7 +11796,7 @@
         <v>43504</v>
       </c>
     </row>
-    <row r="398" spans="1:7">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A398" s="3" t="s">
         <v>399</v>
       </c>
@@ -11686,7 +11813,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="399" spans="1:7">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A399" s="3" t="s">
         <v>400</v>
       </c>
@@ -11709,7 +11836,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="400" spans="1:7">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A400" s="3" t="s">
         <v>401</v>
       </c>
@@ -11726,7 +11853,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="401" spans="1:6">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A401" s="3" t="s">
         <v>402</v>
       </c>
@@ -11746,7 +11873,7 @@
         <v>43493</v>
       </c>
     </row>
-    <row r="402" spans="1:6">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A402" s="5" t="s">
         <v>403</v>
       </c>
@@ -11759,7 +11886,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="403" spans="1:6">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A403" s="5" t="s">
         <v>404</v>
       </c>
@@ -11775,7 +11902,7 @@
         <v>43515</v>
       </c>
     </row>
-    <row r="404" spans="1:6">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A404" s="5" t="s">
         <v>405</v>
       </c>
@@ -11792,14 +11919,16 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="405" spans="1:6">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A405" s="5" t="s">
         <v>406</v>
       </c>
       <c r="B405" s="6">
         <v>43504</v>
       </c>
-      <c r="C405" s="6"/>
+      <c r="C405" s="6">
+        <v>43518</v>
+      </c>
       <c r="D405" s="14"/>
       <c r="E405" s="6">
         <v>43472</v>
@@ -11808,7 +11937,7 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="406" spans="1:6">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A406" s="5" t="s">
         <v>407</v>
       </c>
@@ -11821,19 +11950,23 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="407" spans="1:6">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A407" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="B407" s="6"/>
+      <c r="B407" s="6">
+        <v>43518</v>
+      </c>
       <c r="C407" s="6"/>
       <c r="D407" s="14"/>
       <c r="E407" s="6">
         <v>43472</v>
       </c>
-      <c r="F407" s="10"/>
-    </row>
-    <row r="408" spans="1:6">
+      <c r="F407" s="10">
+        <v>43518</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A408" s="5" t="s">
         <v>409</v>
       </c>
@@ -11846,7 +11979,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="409" spans="1:6">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A409" s="5" t="s">
         <v>410</v>
       </c>
@@ -11862,7 +11995,7 @@
         <v>43511</v>
       </c>
     </row>
-    <row r="410" spans="1:6">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A410" s="5" t="s">
         <v>411</v>
       </c>
@@ -11879,7 +12012,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="411" spans="1:6">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A411" s="5" t="s">
         <v>412</v>
       </c>
@@ -11899,7 +12032,7 @@
         <v>43502</v>
       </c>
     </row>
-    <row r="412" spans="1:6">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A412" s="5" t="s">
         <v>413</v>
       </c>
@@ -11912,7 +12045,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="413" spans="1:6">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A413" s="5" t="s">
         <v>414</v>
       </c>
@@ -11928,7 +12061,7 @@
         <v>43515</v>
       </c>
     </row>
-    <row r="414" spans="1:6">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A414" s="5" t="s">
         <v>415</v>
       </c>
@@ -11941,7 +12074,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="415" spans="1:6">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A415" s="5" t="s">
         <v>416</v>
       </c>
@@ -11957,7 +12090,7 @@
         <v>43511</v>
       </c>
     </row>
-    <row r="416" spans="1:6">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A416" s="5" t="s">
         <v>417</v>
       </c>
@@ -11974,7 +12107,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="417" spans="1:7">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A417" s="5" t="s">
         <v>418</v>
       </c>
@@ -11990,18 +12123,20 @@
         <v>43509</v>
       </c>
     </row>
-    <row r="418" spans="1:7">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A418" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="B418" s="11"/>
+      <c r="B418" s="11">
+        <v>43518</v>
+      </c>
       <c r="C418" s="11"/>
       <c r="D418" s="15"/>
       <c r="E418" s="11">
         <v>43486</v>
       </c>
     </row>
-    <row r="419" spans="1:7">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A419" s="7" t="s">
         <v>420</v>
       </c>
@@ -12013,7 +12148,7 @@
       </c>
       <c r="F419" s="10"/>
     </row>
-    <row r="420" spans="1:7">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A420" s="7" t="s">
         <v>421</v>
       </c>
@@ -12024,7 +12159,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="421" spans="1:7">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A421" s="7" t="s">
         <v>422</v>
       </c>
@@ -12036,9 +12171,11 @@
       <c r="E421" s="11">
         <v>43486</v>
       </c>
-      <c r="F421" s="10"/>
-    </row>
-    <row r="422" spans="1:7">
+      <c r="F421" s="10">
+        <v>43518</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A422" s="7" t="s">
         <v>423</v>
       </c>
@@ -12049,7 +12186,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="423" spans="1:7">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A423" s="7" t="s">
         <v>424</v>
       </c>
@@ -12061,9 +12198,11 @@
       <c r="E423" s="11">
         <v>43486</v>
       </c>
-      <c r="F423" s="10"/>
-    </row>
-    <row r="424" spans="1:7">
+      <c r="F423" s="10">
+        <v>43518</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A424" s="7" t="s">
         <v>425</v>
       </c>
@@ -12076,7 +12215,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="425" spans="1:7">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A425" s="7" t="s">
         <v>426</v>
       </c>
@@ -12088,7 +12227,7 @@
       </c>
       <c r="F425" s="10"/>
     </row>
-    <row r="426" spans="1:7">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A426" s="7" t="s">
         <v>427</v>
       </c>
@@ -12101,7 +12240,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="427" spans="1:7">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A427" s="7" t="s">
         <v>428</v>
       </c>
@@ -12113,30 +12252,36 @@
       </c>
       <c r="F427" s="10"/>
     </row>
-    <row r="428" spans="1:7">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A428" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="B428" s="11"/>
+      <c r="B428" s="11">
+        <v>43518</v>
+      </c>
       <c r="C428" s="11"/>
       <c r="D428" s="15"/>
       <c r="E428" s="11">
         <v>43486</v>
       </c>
     </row>
-    <row r="429" spans="1:7">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A429" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="B429" s="11"/>
+      <c r="B429" s="11">
+        <v>43518</v>
+      </c>
       <c r="C429" s="11"/>
       <c r="D429" s="15"/>
       <c r="E429" s="11">
         <v>43486</v>
       </c>
-      <c r="F429" s="10"/>
-    </row>
-    <row r="430" spans="1:7">
+      <c r="F429" s="10">
+        <v>43518</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A430" s="7" t="s">
         <v>431</v>
       </c>
@@ -12147,7 +12292,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="431" spans="1:7">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A431" s="7" t="s">
         <v>432</v>
       </c>
@@ -12159,7 +12304,7 @@
       </c>
       <c r="F431" s="10"/>
     </row>
-    <row r="432" spans="1:7" s="20" customFormat="1">
+    <row r="432" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A432" s="16" t="s">
         <v>433</v>
       </c>
@@ -12174,7 +12319,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="433" spans="1:7">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A433" s="7" t="s">
         <v>434</v>
       </c>
@@ -12188,20 +12333,24 @@
       </c>
       <c r="F433" s="10"/>
     </row>
-    <row r="434" spans="1:7">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A434" s="3" t="s">
         <v>435</v>
       </c>
       <c r="B434" s="4">
         <v>43495</v>
       </c>
-      <c r="C434" s="4"/>
-      <c r="D434" s="13"/>
+      <c r="C434" s="4">
+        <v>43518</v>
+      </c>
+      <c r="D434" s="13">
+        <v>21.1</v>
+      </c>
       <c r="E434" s="4">
         <v>43458</v>
       </c>
     </row>
-    <row r="435" spans="1:7">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A435" s="3" t="s">
         <v>436</v>
       </c>
@@ -12221,28 +12370,36 @@
         <v>43497</v>
       </c>
     </row>
-    <row r="436" spans="1:7">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A436" s="3" t="s">
         <v>437</v>
       </c>
       <c r="B436" s="4">
         <v>43507</v>
       </c>
-      <c r="C436" s="4"/>
-      <c r="D436" s="13"/>
+      <c r="C436" s="4">
+        <v>43518</v>
+      </c>
+      <c r="D436" s="13">
+        <v>33.6</v>
+      </c>
       <c r="E436" s="4">
         <v>43458</v>
       </c>
     </row>
-    <row r="437" spans="1:7">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A437" s="3" t="s">
         <v>438</v>
       </c>
       <c r="B437" s="4">
         <v>43495</v>
       </c>
-      <c r="C437" s="4"/>
-      <c r="D437" s="13"/>
+      <c r="C437" s="4">
+        <v>43518</v>
+      </c>
+      <c r="D437" s="13">
+        <v>29.5</v>
+      </c>
       <c r="E437" s="4">
         <v>43458</v>
       </c>
@@ -12250,7 +12407,7 @@
         <v>43502</v>
       </c>
     </row>
-    <row r="438" spans="1:7">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A438" s="3" t="s">
         <v>439</v>
       </c>
@@ -12267,7 +12424,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="439" spans="1:7">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A439" s="3" t="s">
         <v>440</v>
       </c>
@@ -12283,20 +12440,24 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="440" spans="1:7">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A440" s="3" t="s">
         <v>441</v>
       </c>
       <c r="B440" s="4">
         <v>43502</v>
       </c>
-      <c r="C440" s="4"/>
-      <c r="D440" s="13"/>
+      <c r="C440" s="4">
+        <v>43518</v>
+      </c>
+      <c r="D440" s="13">
+        <v>32.200000000000003</v>
+      </c>
       <c r="E440" s="4">
         <v>43458</v>
       </c>
     </row>
-    <row r="441" spans="1:7">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A441" s="3" t="s">
         <v>442</v>
       </c>
@@ -12308,7 +12469,7 @@
       </c>
       <c r="F441" s="10"/>
     </row>
-    <row r="442" spans="1:7">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A442" s="3" t="s">
         <v>443</v>
       </c>
@@ -12325,7 +12486,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="443" spans="1:7">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A443" s="3" t="s">
         <v>444</v>
       </c>
@@ -12348,7 +12509,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="444" spans="1:7">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A444" s="3" t="s">
         <v>445</v>
       </c>
@@ -12361,7 +12522,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="445" spans="1:7">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A445" s="3" t="s">
         <v>446</v>
       </c>
@@ -12377,7 +12538,7 @@
         <v>43497</v>
       </c>
     </row>
-    <row r="446" spans="1:7">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A446" s="3" t="s">
         <v>447</v>
       </c>
@@ -12390,15 +12551,19 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="447" spans="1:7">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A447" s="3" t="s">
         <v>448</v>
       </c>
       <c r="B447" s="4">
         <v>43490</v>
       </c>
-      <c r="C447" s="4"/>
-      <c r="D447" s="13"/>
+      <c r="C447" s="4">
+        <v>43518</v>
+      </c>
+      <c r="D447" s="13">
+        <v>24.7</v>
+      </c>
       <c r="E447" s="4">
         <v>43458</v>
       </c>
@@ -12406,7 +12571,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="448" spans="1:7">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A448" s="3" t="s">
         <v>449</v>
       </c>
@@ -12419,7 +12584,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="449" spans="1:6">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A449" s="3" t="s">
         <v>450</v>
       </c>
@@ -12433,7 +12598,7 @@
       </c>
       <c r="F449" s="10"/>
     </row>
-    <row r="450" spans="1:6">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A450" s="5" t="s">
         <v>451</v>
       </c>
@@ -12450,15 +12615,19 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="451" spans="1:6">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A451" s="5" t="s">
         <v>452</v>
       </c>
       <c r="B451" s="6">
         <v>43502</v>
       </c>
-      <c r="C451" s="6"/>
-      <c r="D451" s="14"/>
+      <c r="C451" s="6">
+        <v>43518</v>
+      </c>
+      <c r="D451" s="14">
+        <v>27.9</v>
+      </c>
       <c r="E451" s="6">
         <v>43472</v>
       </c>
@@ -12466,28 +12635,36 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="452" spans="1:6">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A452" s="5" t="s">
         <v>453</v>
       </c>
       <c r="B452" s="6">
         <v>43507</v>
       </c>
-      <c r="C452" s="6"/>
-      <c r="D452" s="14"/>
+      <c r="C452" s="6">
+        <v>43518</v>
+      </c>
+      <c r="D452" s="14">
+        <v>28.4</v>
+      </c>
       <c r="E452" s="6">
         <v>43472</v>
       </c>
     </row>
-    <row r="453" spans="1:6">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A453" s="5" t="s">
         <v>454</v>
       </c>
       <c r="B453" s="6">
         <v>43502</v>
       </c>
-      <c r="C453" s="6"/>
-      <c r="D453" s="14"/>
+      <c r="C453" s="6">
+        <v>43518</v>
+      </c>
+      <c r="D453" s="14">
+        <v>34.799999999999997</v>
+      </c>
       <c r="E453" s="6">
         <v>43472</v>
       </c>
@@ -12495,7 +12672,7 @@
         <v>43509</v>
       </c>
     </row>
-    <row r="454" spans="1:6">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A454" s="5" t="s">
         <v>455</v>
       </c>
@@ -12512,7 +12689,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="455" spans="1:6">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A455" s="5" t="s">
         <v>456</v>
       </c>
@@ -12528,7 +12705,7 @@
         <v>43509</v>
       </c>
     </row>
-    <row r="456" spans="1:6">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A456" s="5" t="s">
         <v>457</v>
       </c>
@@ -12545,7 +12722,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="457" spans="1:6">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A457" s="5" t="s">
         <v>458</v>
       </c>
@@ -12565,7 +12742,7 @@
         <v>43515</v>
       </c>
     </row>
-    <row r="458" spans="1:6">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A458" s="5" t="s">
         <v>459</v>
       </c>
@@ -12578,7 +12755,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="459" spans="1:6">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A459" s="5" t="s">
         <v>460</v>
       </c>
@@ -12594,7 +12771,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="460" spans="1:6">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A460" s="5" t="s">
         <v>461</v>
       </c>
@@ -12607,15 +12784,19 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="461" spans="1:6">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A461" s="5" t="s">
         <v>462</v>
       </c>
       <c r="B461" s="6">
         <v>43504</v>
       </c>
-      <c r="C461" s="6"/>
-      <c r="D461" s="14"/>
+      <c r="C461" s="6">
+        <v>43518</v>
+      </c>
+      <c r="D461" s="14">
+        <v>32.700000000000003</v>
+      </c>
       <c r="E461" s="6">
         <v>43472</v>
       </c>
@@ -12623,7 +12804,7 @@
         <v>43509</v>
       </c>
     </row>
-    <row r="462" spans="1:6">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A462" s="5" t="s">
         <v>463</v>
       </c>
@@ -12636,15 +12817,19 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="463" spans="1:6">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A463" s="5" t="s">
         <v>464</v>
       </c>
       <c r="B463" s="6">
         <v>43504</v>
       </c>
-      <c r="C463" s="6"/>
-      <c r="D463" s="14"/>
+      <c r="C463" s="6">
+        <v>43518</v>
+      </c>
+      <c r="D463" s="14">
+        <v>31.6</v>
+      </c>
       <c r="E463" s="6">
         <v>43472</v>
       </c>
@@ -12652,7 +12837,7 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="464" spans="1:6">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A464" s="5" t="s">
         <v>465</v>
       </c>
@@ -12669,7 +12854,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="465" spans="1:6">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A465" s="5" t="s">
         <v>466</v>
       </c>
@@ -12685,7 +12870,7 @@
         <v>43515</v>
       </c>
     </row>
-    <row r="466" spans="1:6">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A466" s="7" t="s">
         <v>467</v>
       </c>
@@ -12702,15 +12887,19 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="467" spans="1:6">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A467" s="7" t="s">
         <v>468</v>
       </c>
       <c r="B467" s="11">
         <v>43502</v>
       </c>
-      <c r="C467" s="11"/>
-      <c r="D467" s="15"/>
+      <c r="C467" s="11">
+        <v>43518</v>
+      </c>
+      <c r="D467" s="15">
+        <v>23.6</v>
+      </c>
       <c r="E467" s="11">
         <v>43486</v>
       </c>
@@ -12718,7 +12907,7 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="468" spans="1:6">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A468" s="7" t="s">
         <v>469</v>
       </c>
@@ -12731,7 +12920,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="469" spans="1:6">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A469" s="7" t="s">
         <v>470</v>
       </c>
@@ -12743,22 +12932,28 @@
       <c r="E469" s="11">
         <v>43486</v>
       </c>
-      <c r="F469" s="10"/>
-    </row>
-    <row r="470" spans="1:6">
+      <c r="F469" s="10">
+        <v>43518</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A470" s="7" t="s">
         <v>471</v>
       </c>
       <c r="B470" s="11">
         <v>43507</v>
       </c>
-      <c r="C470" s="11"/>
-      <c r="D470" s="15"/>
+      <c r="C470" s="11">
+        <v>43518</v>
+      </c>
+      <c r="D470" s="15">
+        <v>26.4</v>
+      </c>
       <c r="E470" s="11">
         <v>43486</v>
       </c>
     </row>
-    <row r="471" spans="1:6">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A471" s="7" t="s">
         <v>472</v>
       </c>
@@ -12770,9 +12965,11 @@
       <c r="E471" s="11">
         <v>43486</v>
       </c>
-      <c r="F471" s="10"/>
-    </row>
-    <row r="472" spans="1:6">
+      <c r="F471" s="10">
+        <v>43518</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A472" s="7" t="s">
         <v>473</v>
       </c>
@@ -12785,7 +12982,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="473" spans="1:6">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A473" s="7" t="s">
         <v>474</v>
       </c>
@@ -12801,7 +12998,7 @@
         <v>43515</v>
       </c>
     </row>
-    <row r="474" spans="1:6">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A474" s="7" t="s">
         <v>475</v>
       </c>
@@ -12814,7 +13011,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="475" spans="1:6">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A475" s="7" t="s">
         <v>476</v>
       </c>
@@ -12826,22 +13023,28 @@
       <c r="E475" s="11">
         <v>43486</v>
       </c>
-      <c r="F475" s="10"/>
-    </row>
-    <row r="476" spans="1:6">
+      <c r="F475" s="10">
+        <v>43518</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A476" s="7" t="s">
         <v>477</v>
       </c>
       <c r="B476" s="11">
         <v>43502</v>
       </c>
-      <c r="C476" s="11"/>
-      <c r="D476" s="15"/>
+      <c r="C476" s="11">
+        <v>43518</v>
+      </c>
+      <c r="D476" s="15">
+        <v>23.4</v>
+      </c>
       <c r="E476" s="11">
         <v>43486</v>
       </c>
     </row>
-    <row r="477" spans="1:6">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A477" s="7" t="s">
         <v>478</v>
       </c>
@@ -12853,30 +13056,40 @@
       <c r="E477" s="11">
         <v>43486</v>
       </c>
-      <c r="F477" s="10"/>
-    </row>
-    <row r="478" spans="1:6">
+      <c r="F477" s="10">
+        <v>43518</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A478" s="7" t="s">
         <v>479</v>
       </c>
       <c r="B478" s="11">
         <v>43502</v>
       </c>
-      <c r="C478" s="11"/>
-      <c r="D478" s="15"/>
+      <c r="C478" s="11">
+        <v>43518</v>
+      </c>
+      <c r="D478" s="15">
+        <v>27.9</v>
+      </c>
       <c r="E478" s="11">
         <v>43486</v>
       </c>
     </row>
-    <row r="479" spans="1:6">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A479" s="7" t="s">
         <v>480</v>
       </c>
       <c r="B479" s="11">
         <v>43502</v>
       </c>
-      <c r="C479" s="11"/>
-      <c r="D479" s="15"/>
+      <c r="C479" s="11">
+        <v>43518</v>
+      </c>
+      <c r="D479" s="15">
+        <v>30</v>
+      </c>
       <c r="E479" s="11">
         <v>43486</v>
       </c>
@@ -12884,7 +13097,7 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="480" spans="1:6">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A480" s="7" t="s">
         <v>481</v>
       </c>
@@ -12897,7 +13110,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="481" spans="1:7">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A481" s="7" t="s">
         <v>482</v>
       </c>

--- a/data/observation_datasheet.xlsx
+++ b/data/observation_datasheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catchamberlain/Documents/git/chillfreeze/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B917C3FA-9182-3B4E-9CA6-3F03948FCA5F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100008_{356323A3-CD5D-1142-ACFD-722050F9E3BD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12380" yWindow="460" windowWidth="29720" windowHeight="20980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="1300" windowWidth="29720" windowHeight="20980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="observation_datasheet" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="499">
   <si>
     <t>ID</t>
   </si>
@@ -1520,6 +1520,9 @@
   </si>
   <si>
     <t>ChlAvg</t>
+  </si>
+  <si>
+    <t>BBCH</t>
   </si>
 </sst>
 </file>
@@ -1678,7 +1681,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1888,6 +1891,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -2087,7 +2096,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -2111,6 +2120,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="56">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2442,20 +2452,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:M481"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="B205" sqref="B205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
-        <v>43465</v>
+      <c r="B1" s="1" t="s">
+        <v>498</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2966,162 +2982,195 @@
         <v>97</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="23" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B99" s="1">
+        <v>43517</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="23" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B101" s="1">
+        <v>43520</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="23" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
+      <c r="B106" s="1">
+        <v>43520</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="23" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B107" s="1">
+        <v>43522</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="23" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
+      <c r="B109" s="1">
+        <v>43522</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="23" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
+      <c r="B110" s="1">
+        <v>43517</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="23" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
+      <c r="B111" s="1">
+        <v>43520</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="23" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
+      <c r="B112" s="1">
+        <v>43520</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" s="23" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B113" s="1">
+        <v>43522</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" s="23" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B124" s="1">
+        <v>43525</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" s="23" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B126" s="1">
+        <v>43525</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>129</v>
       </c>
@@ -3206,162 +3255,207 @@
         <v>145</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" s="23" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
+      <c r="B146" s="1">
+        <v>43520</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" s="23" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B147" s="1">
+        <v>43527</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" s="23" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
+      <c r="B149" s="1">
+        <v>43524</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" s="23" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
+      <c r="B150" s="1">
+        <v>43524</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" s="23" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
+      <c r="B151" s="1">
+        <v>43524</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" s="23" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
+      <c r="B152" s="1">
+        <v>43517</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" s="23" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
+      <c r="B153" s="1">
+        <v>43527</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" s="23" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
+      <c r="B154" s="1">
+        <v>43527</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" s="23" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
+      <c r="B155" s="1">
+        <v>43527</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" s="23" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
+      <c r="B156" s="1">
+        <v>43524</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" s="23" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
+      <c r="B157" s="1">
+        <v>43524</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" s="23" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
+      <c r="B158" s="1">
+        <v>43520</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" s="23" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
+      <c r="B159" s="1">
+        <v>43524</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" s="23" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
+      <c r="B160" s="1">
+        <v>43520</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" s="23" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B161" s="1">
+        <v>43527</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>177</v>
       </c>
@@ -3446,162 +3540,189 @@
         <v>193</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A195" t="s">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" s="23" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A196" t="s">
+      <c r="B195" s="1">
+        <v>43515</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" s="23" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B196" s="1">
+        <v>43517</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A199" t="s">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199" s="23" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B199" s="1">
+        <v>43527</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A202" t="s">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202" s="23" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A203" t="s">
+      <c r="B202" s="1">
+        <v>43522</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203" s="23" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A204" t="s">
+      <c r="B203" s="1">
+        <v>43522</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204" s="23" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B204" s="1">
+        <v>43527</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A207" t="s">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207" s="23" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B207" s="1">
+        <v>43517</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A209" t="s">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209" s="23" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B209" s="1">
+        <v>43515</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A212" t="s">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212" s="23" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B212" s="1">
+        <v>43521</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>225</v>
       </c>
@@ -4166,164 +4287,188 @@
         <v>337</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A351" t="s">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A351" s="23" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B351" s="1">
+        <v>43517</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A354" t="s">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A354" s="23" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B354" s="1">
+        <v>43521</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A356" t="s">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A356" s="23" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A357" t="s">
+      <c r="B356" s="1">
+        <v>43525</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A357" s="23" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B357" s="1">
+        <v>43525</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A359" t="s">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A359" s="23" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A360" t="s">
+      <c r="B359" s="1">
+        <v>43525</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A360" s="23" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B360" s="1">
+        <v>43525</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A366" t="s">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A366" s="23" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B366" s="1">
+        <v>43521</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A368" t="s">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A368" s="23" t="s">
         <v>369</v>
+      </c>
+      <c r="B368" s="1">
+        <v>43521</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.2">
@@ -4892,7 +5037,9 @@
       </c>
     </row>
   </sheetData>
+  <printOptions headings="1" gridLines="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="67" fitToHeight="11" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4906,10 +5053,10 @@
   <dimension ref="A1:M481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B447" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B374" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D477" sqref="D477"/>
+      <selection pane="bottomRight" activeCell="F386" sqref="F386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4983,8 +5130,12 @@
       <c r="B3" s="4">
         <v>43509</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="13"/>
+      <c r="C3" s="4">
+        <v>43521</v>
+      </c>
+      <c r="D3" s="13">
+        <v>22.6</v>
+      </c>
       <c r="E3" s="4">
         <v>43458</v>
       </c>
@@ -5058,7 +5209,9 @@
       <c r="E7" s="4">
         <v>43458</v>
       </c>
-      <c r="F7" s="10"/>
+      <c r="F7" s="10">
+        <v>43521</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
@@ -5121,7 +5274,7 @@
         <v>43518</v>
       </c>
       <c r="D11" s="13">
-        <v>46.8</v>
+        <v>25.2</v>
       </c>
       <c r="E11" s="4">
         <v>43458</v>
@@ -5332,8 +5485,12 @@
       <c r="B24" s="6">
         <v>43504</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="14"/>
+      <c r="C24" s="6">
+        <v>43521</v>
+      </c>
+      <c r="D24" s="14">
+        <v>17.8</v>
+      </c>
       <c r="E24" s="6">
         <v>43472</v>
       </c>
@@ -5368,8 +5525,12 @@
       <c r="B27" s="6">
         <v>43512</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="14"/>
+      <c r="C27" s="6">
+        <v>43521</v>
+      </c>
+      <c r="D27" s="14">
+        <v>24.7</v>
+      </c>
       <c r="E27" s="6">
         <v>43472</v>
       </c>
@@ -5427,7 +5588,9 @@
       <c r="E31" s="6">
         <v>43472</v>
       </c>
-      <c r="F31" s="10"/>
+      <c r="F31" s="10">
+        <v>43521</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
@@ -5508,7 +5671,9 @@
       <c r="A37" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="11"/>
+      <c r="B37" s="11">
+        <v>43521</v>
+      </c>
       <c r="C37" s="11"/>
       <c r="D37" s="15"/>
       <c r="E37" s="11">
@@ -5539,7 +5704,9 @@
       <c r="E39" s="11">
         <v>43486</v>
       </c>
-      <c r="F39" s="10"/>
+      <c r="F39" s="10">
+        <v>43521</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
@@ -5581,7 +5748,9 @@
       <c r="A43" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="11"/>
+      <c r="B43" s="11">
+        <v>43521</v>
+      </c>
       <c r="C43" s="11"/>
       <c r="D43" s="15"/>
       <c r="E43" s="11">
@@ -6341,8 +6510,12 @@
       <c r="B90" s="11">
         <v>43504</v>
       </c>
-      <c r="C90" s="11"/>
-      <c r="D90" s="15"/>
+      <c r="C90" s="11">
+        <v>43521</v>
+      </c>
+      <c r="D90" s="15">
+        <v>29.1</v>
+      </c>
       <c r="E90" s="11">
         <v>43486</v>
       </c>
@@ -6354,8 +6527,12 @@
       <c r="B91" s="11">
         <v>43507</v>
       </c>
-      <c r="C91" s="11"/>
-      <c r="D91" s="15"/>
+      <c r="C91" s="11">
+        <v>43521</v>
+      </c>
+      <c r="D91" s="15">
+        <v>20.2</v>
+      </c>
       <c r="E91" s="11">
         <v>43486</v>
       </c>
@@ -6399,8 +6576,12 @@
       <c r="B94" s="11">
         <v>43502</v>
       </c>
-      <c r="C94" s="11"/>
-      <c r="D94" s="15"/>
+      <c r="C94" s="11">
+        <v>43521</v>
+      </c>
+      <c r="D94" s="15">
+        <v>27</v>
+      </c>
       <c r="E94" s="11">
         <v>43486</v>
       </c>
@@ -7241,9 +7422,11 @@
         <v>43507</v>
       </c>
       <c r="C135" s="11">
-        <v>43518</v>
-      </c>
-      <c r="D135" s="15"/>
+        <v>43521</v>
+      </c>
+      <c r="D135" s="15">
+        <v>37.200000000000003</v>
+      </c>
       <c r="E135" s="11">
         <v>43486</v>
       </c>
@@ -8982,7 +9165,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" s="5" t="s">
         <v>226</v>
       </c>
@@ -9002,7 +9185,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" s="7" t="s">
         <v>227</v>
       </c>
@@ -9019,7 +9202,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" s="7" t="s">
         <v>228</v>
       </c>
@@ -9035,7 +9218,7 @@
         <v>43504</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" s="7" t="s">
         <v>229</v>
       </c>
@@ -9052,7 +9235,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" s="7" t="s">
         <v>230</v>
       </c>
@@ -9072,7 +9255,7 @@
         <v>43511</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" s="7" t="s">
         <v>231</v>
       </c>
@@ -9085,7 +9268,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" s="7" t="s">
         <v>232</v>
       </c>
@@ -9105,7 +9288,7 @@
         <v>43502</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" s="7" t="s">
         <v>233</v>
       </c>
@@ -9122,7 +9305,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" s="7" t="s">
         <v>234</v>
       </c>
@@ -9142,7 +9325,7 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" s="7" t="s">
         <v>235</v>
       </c>
@@ -9159,7 +9342,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" s="7" t="s">
         <v>236</v>
       </c>
@@ -9179,7 +9362,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" s="7" t="s">
         <v>237</v>
       </c>
@@ -9196,23 +9379,30 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" s="7" t="s">
         <v>238</v>
       </c>
       <c r="B237" s="11">
         <v>43500</v>
       </c>
-      <c r="C237" s="11"/>
-      <c r="D237" s="15"/>
+      <c r="C237" s="11">
+        <v>43521</v>
+      </c>
+      <c r="D237" s="15">
+        <v>47.3</v>
+      </c>
       <c r="E237" s="11">
         <v>43486</v>
       </c>
       <c r="F237" s="10">
         <v>43511</v>
       </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G237" s="21">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" s="7" t="s">
         <v>239</v>
       </c>
@@ -9229,7 +9419,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" s="7" t="s">
         <v>240</v>
       </c>
@@ -9249,15 +9439,19 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" s="7" t="s">
         <v>241</v>
       </c>
       <c r="B240" s="11">
         <v>43500</v>
       </c>
-      <c r="C240" s="11"/>
-      <c r="D240" s="15"/>
+      <c r="C240" s="11">
+        <v>43521</v>
+      </c>
+      <c r="D240" s="15">
+        <v>50.2</v>
+      </c>
       <c r="E240" s="11">
         <v>43486</v>
       </c>
@@ -9312,7 +9506,9 @@
       <c r="A244" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="B244" s="4"/>
+      <c r="B244" s="4">
+        <v>43521</v>
+      </c>
       <c r="C244" s="4"/>
       <c r="D244" s="13"/>
       <c r="E244" s="4">
@@ -10265,7 +10461,9 @@
       <c r="A325" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="B325" s="11"/>
+      <c r="B325" s="11">
+        <v>43521</v>
+      </c>
       <c r="C325" s="11"/>
       <c r="D325" s="15"/>
       <c r="E325" s="11">
@@ -11574,18 +11772,19 @@
       </c>
     </row>
     <row r="385" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A385" s="16" t="s">
+      <c r="A385" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="B385" s="17"/>
-      <c r="C385" s="17"/>
-      <c r="D385" s="18"/>
-      <c r="E385" s="17">
-        <v>43486</v>
-      </c>
-      <c r="F385" s="17"/>
-      <c r="G385" s="19" t="s">
-        <v>489</v>
+      <c r="B385" s="11">
+        <v>43518</v>
+      </c>
+      <c r="C385" s="11"/>
+      <c r="D385" s="15"/>
+      <c r="E385" s="11">
+        <v>43486</v>
+      </c>
+      <c r="F385" s="10">
+        <v>43521</v>
       </c>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.2">
@@ -11724,7 +11923,9 @@
       <c r="E393" s="4">
         <v>43458</v>
       </c>
-      <c r="F393" s="10"/>
+      <c r="F393" s="10">
+        <v>43493</v>
+      </c>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A394" s="3" t="s">
@@ -11880,8 +12081,12 @@
       <c r="B402" s="6">
         <v>43507</v>
       </c>
-      <c r="C402" s="6"/>
-      <c r="D402" s="14"/>
+      <c r="C402" s="6">
+        <v>43521</v>
+      </c>
+      <c r="D402" s="14">
+        <v>57.6</v>
+      </c>
       <c r="E402" s="6">
         <v>43472</v>
       </c>
@@ -11973,8 +12178,12 @@
       <c r="B408" s="6">
         <v>43509</v>
       </c>
-      <c r="C408" s="6"/>
-      <c r="D408" s="14"/>
+      <c r="C408" s="6">
+        <v>43521</v>
+      </c>
+      <c r="D408" s="14">
+        <v>58.3</v>
+      </c>
       <c r="E408" s="6">
         <v>43472</v>
       </c>
@@ -12039,8 +12248,12 @@
       <c r="B412" s="6">
         <v>43509</v>
       </c>
-      <c r="C412" s="6"/>
-      <c r="D412" s="14"/>
+      <c r="C412" s="6">
+        <v>43521</v>
+      </c>
+      <c r="D412" s="14">
+        <v>57.2</v>
+      </c>
       <c r="E412" s="6">
         <v>43472</v>
       </c>
@@ -12068,8 +12281,12 @@
       <c r="B414" s="6">
         <v>43512</v>
       </c>
-      <c r="C414" s="6"/>
-      <c r="D414" s="14"/>
+      <c r="C414" s="6">
+        <v>43521</v>
+      </c>
+      <c r="D414" s="14">
+        <v>51.1</v>
+      </c>
       <c r="E414" s="6">
         <v>43472</v>
       </c>
@@ -12081,8 +12298,12 @@
       <c r="B415" s="6">
         <v>43507</v>
       </c>
-      <c r="C415" s="6"/>
-      <c r="D415" s="14"/>
+      <c r="C415" s="6">
+        <v>43521</v>
+      </c>
+      <c r="D415" s="14">
+        <v>58.5</v>
+      </c>
       <c r="E415" s="6">
         <v>43472</v>
       </c>
@@ -12152,7 +12373,9 @@
       <c r="A420" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="B420" s="11"/>
+      <c r="B420" s="11">
+        <v>43521</v>
+      </c>
       <c r="C420" s="11"/>
       <c r="D420" s="15"/>
       <c r="E420" s="11">
@@ -12179,7 +12402,9 @@
       <c r="A422" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="B422" s="11"/>
+      <c r="B422" s="11">
+        <v>43521</v>
+      </c>
       <c r="C422" s="11"/>
       <c r="D422" s="15"/>
       <c r="E422" s="11">
@@ -12225,7 +12450,9 @@
       <c r="E425" s="11">
         <v>43486</v>
       </c>
-      <c r="F425" s="10"/>
+      <c r="F425" s="10">
+        <v>43521</v>
+      </c>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A426" s="7" t="s">
@@ -12285,7 +12512,9 @@
       <c r="A430" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="B430" s="11"/>
+      <c r="B430" s="11">
+        <v>43521</v>
+      </c>
       <c r="C430" s="11"/>
       <c r="D430" s="15"/>
       <c r="E430" s="11">
@@ -12296,7 +12525,9 @@
       <c r="A431" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="B431" s="11"/>
+      <c r="B431" s="11">
+        <v>43521</v>
+      </c>
       <c r="C431" s="11"/>
       <c r="D431" s="15"/>
       <c r="E431" s="11">
@@ -12331,7 +12562,9 @@
       <c r="E433" s="11">
         <v>43486</v>
       </c>
-      <c r="F433" s="10"/>
+      <c r="F433" s="10">
+        <v>43521</v>
+      </c>
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A434" s="3" t="s">
@@ -12696,8 +12929,12 @@
       <c r="B455" s="6">
         <v>43502</v>
       </c>
-      <c r="C455" s="6"/>
-      <c r="D455" s="14"/>
+      <c r="C455" s="6">
+        <v>43521</v>
+      </c>
+      <c r="D455" s="14">
+        <v>26.4</v>
+      </c>
       <c r="E455" s="6">
         <v>43472</v>
       </c>

--- a/data/observation_datasheet.xlsx
+++ b/data/observation_datasheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catchamberlain/Documents/git/chillfreeze/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100008_{356323A3-CD5D-1142-ACFD-722050F9E3BD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{81C99C16-4A8E-314B-AC7F-AD2777C7287A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1300" windowWidth="29720" windowHeight="20980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8820" yWindow="1100" windowWidth="29720" windowHeight="20980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="observation_datasheet" sheetId="1" r:id="rId1"/>
@@ -1887,13 +1887,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2113,13 +2113,13 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="37" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="38" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="56">
@@ -2993,7 +2993,7 @@
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="23" t="s">
+      <c r="A99" s="19" t="s">
         <v>100</v>
       </c>
       <c r="B99" s="1">
@@ -3006,7 +3006,7 @@
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="23" t="s">
+      <c r="A101" s="19" t="s">
         <v>102</v>
       </c>
       <c r="B101" s="1">
@@ -3034,7 +3034,7 @@
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" s="23" t="s">
+      <c r="A106" s="19" t="s">
         <v>107</v>
       </c>
       <c r="B106" s="1">
@@ -3042,7 +3042,7 @@
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" s="23" t="s">
+      <c r="A107" s="19" t="s">
         <v>108</v>
       </c>
       <c r="B107" s="1">
@@ -3055,7 +3055,7 @@
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" s="23" t="s">
+      <c r="A109" s="19" t="s">
         <v>110</v>
       </c>
       <c r="B109" s="1">
@@ -3063,7 +3063,7 @@
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" s="23" t="s">
+      <c r="A110" s="19" t="s">
         <v>111</v>
       </c>
       <c r="B110" s="1">
@@ -3071,7 +3071,7 @@
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" s="23" t="s">
+      <c r="A111" s="19" t="s">
         <v>112</v>
       </c>
       <c r="B111" s="1">
@@ -3079,7 +3079,7 @@
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" s="23" t="s">
+      <c r="A112" s="19" t="s">
         <v>113</v>
       </c>
       <c r="B112" s="1">
@@ -3087,7 +3087,7 @@
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" s="23" t="s">
+      <c r="A113" s="19" t="s">
         <v>114</v>
       </c>
       <c r="B113" s="1">
@@ -3145,7 +3145,7 @@
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124" s="23" t="s">
+      <c r="A124" s="19" t="s">
         <v>125</v>
       </c>
       <c r="B124" s="1">
@@ -3158,7 +3158,7 @@
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126" s="23" t="s">
+      <c r="A126" s="19" t="s">
         <v>127</v>
       </c>
       <c r="B126" s="1">
@@ -3261,7 +3261,7 @@
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A146" s="23" t="s">
+      <c r="A146" s="19" t="s">
         <v>147</v>
       </c>
       <c r="B146" s="1">
@@ -3269,7 +3269,7 @@
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A147" s="23" t="s">
+      <c r="A147" s="19" t="s">
         <v>148</v>
       </c>
       <c r="B147" s="1">
@@ -3282,7 +3282,7 @@
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A149" s="23" t="s">
+      <c r="A149" s="19" t="s">
         <v>150</v>
       </c>
       <c r="B149" s="1">
@@ -3290,7 +3290,7 @@
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A150" s="23" t="s">
+      <c r="A150" s="19" t="s">
         <v>151</v>
       </c>
       <c r="B150" s="1">
@@ -3298,7 +3298,7 @@
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A151" s="23" t="s">
+      <c r="A151" s="19" t="s">
         <v>152</v>
       </c>
       <c r="B151" s="1">
@@ -3306,7 +3306,7 @@
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152" s="23" t="s">
+      <c r="A152" s="19" t="s">
         <v>153</v>
       </c>
       <c r="B152" s="1">
@@ -3314,7 +3314,7 @@
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A153" s="23" t="s">
+      <c r="A153" s="19" t="s">
         <v>154</v>
       </c>
       <c r="B153" s="1">
@@ -3322,7 +3322,7 @@
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A154" s="23" t="s">
+      <c r="A154" s="19" t="s">
         <v>155</v>
       </c>
       <c r="B154" s="1">
@@ -3330,7 +3330,7 @@
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A155" s="23" t="s">
+      <c r="A155" s="19" t="s">
         <v>156</v>
       </c>
       <c r="B155" s="1">
@@ -3338,7 +3338,7 @@
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A156" s="23" t="s">
+      <c r="A156" s="19" t="s">
         <v>157</v>
       </c>
       <c r="B156" s="1">
@@ -3346,7 +3346,7 @@
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A157" s="23" t="s">
+      <c r="A157" s="19" t="s">
         <v>158</v>
       </c>
       <c r="B157" s="1">
@@ -3354,7 +3354,7 @@
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A158" s="23" t="s">
+      <c r="A158" s="19" t="s">
         <v>159</v>
       </c>
       <c r="B158" s="1">
@@ -3362,7 +3362,7 @@
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A159" s="23" t="s">
+      <c r="A159" s="19" t="s">
         <v>160</v>
       </c>
       <c r="B159" s="1">
@@ -3370,7 +3370,7 @@
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A160" s="23" t="s">
+      <c r="A160" s="19" t="s">
         <v>161</v>
       </c>
       <c r="B160" s="1">
@@ -3378,7 +3378,7 @@
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A161" s="23" t="s">
+      <c r="A161" s="19" t="s">
         <v>162</v>
       </c>
       <c r="B161" s="1">
@@ -3551,7 +3551,7 @@
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A195" s="23" t="s">
+      <c r="A195" s="19" t="s">
         <v>196</v>
       </c>
       <c r="B195" s="1">
@@ -3559,7 +3559,7 @@
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A196" s="23" t="s">
+      <c r="A196" s="19" t="s">
         <v>197</v>
       </c>
       <c r="B196" s="1">
@@ -3577,7 +3577,7 @@
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A199" s="23" t="s">
+      <c r="A199" s="19" t="s">
         <v>200</v>
       </c>
       <c r="B199" s="1">
@@ -3595,7 +3595,7 @@
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A202" s="23" t="s">
+      <c r="A202" s="19" t="s">
         <v>203</v>
       </c>
       <c r="B202" s="1">
@@ -3603,7 +3603,7 @@
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A203" s="23" t="s">
+      <c r="A203" s="19" t="s">
         <v>204</v>
       </c>
       <c r="B203" s="1">
@@ -3611,7 +3611,7 @@
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A204" s="23" t="s">
+      <c r="A204" s="19" t="s">
         <v>205</v>
       </c>
       <c r="B204" s="1">
@@ -3629,7 +3629,7 @@
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A207" s="23" t="s">
+      <c r="A207" s="19" t="s">
         <v>208</v>
       </c>
       <c r="B207" s="1">
@@ -3642,7 +3642,7 @@
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A209" s="23" t="s">
+      <c r="A209" s="19" t="s">
         <v>210</v>
       </c>
       <c r="B209" s="1">
@@ -3660,7 +3660,7 @@
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A212" s="23" t="s">
+      <c r="A212" s="19" t="s">
         <v>213</v>
       </c>
       <c r="B212" s="1">
@@ -4358,7 +4358,7 @@
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A351" s="23" t="s">
+      <c r="A351" s="19" t="s">
         <v>352</v>
       </c>
       <c r="B351" s="1">
@@ -4376,7 +4376,7 @@
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A354" s="23" t="s">
+      <c r="A354" s="19" t="s">
         <v>355</v>
       </c>
       <c r="B354" s="1">
@@ -4389,7 +4389,7 @@
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A356" s="23" t="s">
+      <c r="A356" s="19" t="s">
         <v>357</v>
       </c>
       <c r="B356" s="1">
@@ -4397,7 +4397,7 @@
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A357" s="23" t="s">
+      <c r="A357" s="19" t="s">
         <v>358</v>
       </c>
       <c r="B357" s="1">
@@ -4410,7 +4410,7 @@
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A359" s="23" t="s">
+      <c r="A359" s="19" t="s">
         <v>360</v>
       </c>
       <c r="B359" s="1">
@@ -4418,7 +4418,7 @@
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A360" s="23" t="s">
+      <c r="A360" s="19" t="s">
         <v>361</v>
       </c>
       <c r="B360" s="1">
@@ -4451,7 +4451,7 @@
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A366" s="23" t="s">
+      <c r="A366" s="19" t="s">
         <v>367</v>
       </c>
       <c r="B366" s="1">
@@ -4464,7 +4464,7 @@
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A368" s="23" t="s">
+      <c r="A368" s="19" t="s">
         <v>369</v>
       </c>
       <c r="B368" s="1">
@@ -5053,10 +5053,10 @@
   <dimension ref="A1:M481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B374" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F386" sqref="F386"/>
+      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5087,22 +5087,22 @@
       <c r="F1" s="8" t="s">
         <v>488</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="18" t="s">
         <v>492</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="18" t="s">
         <v>493</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="18" t="s">
         <v>494</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="18" t="s">
         <v>495</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="18" t="s">
         <v>496</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="18" t="s">
         <v>497</v>
       </c>
     </row>
@@ -5282,7 +5282,7 @@
       <c r="F11" s="10">
         <v>43504</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="17">
         <v>0.9</v>
       </c>
     </row>
@@ -5383,7 +5383,9 @@
       <c r="C17" s="4">
         <v>43518</v>
       </c>
-      <c r="D17" s="13"/>
+      <c r="D17" s="13">
+        <v>36.299999999999997</v>
+      </c>
       <c r="E17" s="4">
         <v>43458</v>
       </c>
@@ -5469,8 +5471,12 @@
       <c r="B23" s="6">
         <v>43512</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="14"/>
+      <c r="C23" s="6">
+        <v>43523</v>
+      </c>
+      <c r="D23" s="14">
+        <v>21</v>
+      </c>
       <c r="E23" s="6">
         <v>43472</v>
       </c>
@@ -5511,7 +5517,9 @@
       <c r="A26" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="6"/>
+      <c r="B26" s="6">
+        <v>43523</v>
+      </c>
       <c r="C26" s="6"/>
       <c r="D26" s="14"/>
       <c r="E26" s="6">
@@ -5731,7 +5739,9 @@
       <c r="E41" s="11">
         <v>43486</v>
       </c>
-      <c r="F41" s="10"/>
+      <c r="F41" s="10">
+        <v>43523</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
@@ -5808,7 +5818,9 @@
       <c r="E47" s="11">
         <v>43486</v>
       </c>
-      <c r="F47" s="10"/>
+      <c r="F47" s="10">
+        <v>43523</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
@@ -6005,8 +6017,12 @@
       <c r="B59" s="4">
         <v>43500</v>
       </c>
-      <c r="C59" s="4"/>
-      <c r="D59" s="13"/>
+      <c r="C59" s="4">
+        <v>43523</v>
+      </c>
+      <c r="D59" s="13">
+        <v>36.799999999999997</v>
+      </c>
       <c r="E59" s="4">
         <v>43458</v>
       </c>
@@ -6097,7 +6113,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>66</v>
       </c>
@@ -6117,7 +6133,7 @@
         <v>43479</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
         <v>67</v>
       </c>
@@ -6130,7 +6146,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
         <v>68</v>
       </c>
@@ -6146,7 +6162,7 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
         <v>69</v>
       </c>
@@ -6163,7 +6179,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
         <v>70</v>
       </c>
@@ -6183,7 +6199,7 @@
         <v>43504</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
         <v>71</v>
       </c>
@@ -6200,15 +6216,19 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
         <v>72</v>
       </c>
       <c r="B71" s="6">
         <v>43493</v>
       </c>
-      <c r="C71" s="6"/>
-      <c r="D71" s="14"/>
+      <c r="C71" s="6">
+        <v>43523</v>
+      </c>
+      <c r="D71" s="14">
+        <v>32.200000000000003</v>
+      </c>
       <c r="E71" s="6">
         <v>43472</v>
       </c>
@@ -6216,7 +6236,7 @@
         <v>43497</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
         <v>73</v>
       </c>
@@ -6227,7 +6247,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
         <v>74</v>
       </c>
@@ -6247,7 +6267,7 @@
         <v>43502</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
         <v>75</v>
       </c>
@@ -6264,7 +6284,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
         <v>76</v>
       </c>
@@ -6280,7 +6300,7 @@
         <v>43518</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
         <v>77</v>
       </c>
@@ -6297,23 +6317,30 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
         <v>78</v>
       </c>
       <c r="B77" s="6">
         <v>43500</v>
       </c>
-      <c r="C77" s="6"/>
-      <c r="D77" s="14"/>
+      <c r="C77" s="6">
+        <v>43523</v>
+      </c>
+      <c r="D77" s="14">
+        <v>28.6</v>
+      </c>
       <c r="E77" s="6">
         <v>43472</v>
       </c>
       <c r="F77" s="10">
         <v>43507</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G77" s="17">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
         <v>79</v>
       </c>
@@ -6330,7 +6357,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
         <v>80</v>
       </c>
@@ -6350,7 +6377,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
         <v>81</v>
       </c>
@@ -6494,8 +6521,12 @@
       <c r="B89" s="11">
         <v>43509</v>
       </c>
-      <c r="C89" s="11"/>
-      <c r="D89" s="15"/>
+      <c r="C89" s="11">
+        <v>43523</v>
+      </c>
+      <c r="D89" s="15">
+        <v>31.3</v>
+      </c>
       <c r="E89" s="11">
         <v>43486</v>
       </c>
@@ -7021,7 +7052,7 @@
       <c r="F113" s="10">
         <v>43483</v>
       </c>
-      <c r="G113" s="21">
+      <c r="G113" s="17">
         <v>0.85</v>
       </c>
     </row>
@@ -7135,7 +7166,7 @@
       <c r="F119" s="10">
         <v>43497</v>
       </c>
-      <c r="G119" s="21">
+      <c r="G119" s="17">
         <v>0.9</v>
       </c>
     </row>
@@ -7212,7 +7243,7 @@
       <c r="F123" s="10">
         <v>43497</v>
       </c>
-      <c r="G123" s="21">
+      <c r="G123" s="17">
         <v>0.85</v>
       </c>
     </row>
@@ -7388,8 +7419,12 @@
       <c r="B133" s="11">
         <v>43502</v>
       </c>
-      <c r="C133" s="11"/>
-      <c r="D133" s="15"/>
+      <c r="C133" s="11">
+        <v>43523</v>
+      </c>
+      <c r="D133" s="15">
+        <v>40.1</v>
+      </c>
       <c r="E133" s="11">
         <v>43486</v>
       </c>
@@ -7441,8 +7476,12 @@
       <c r="B136" s="11">
         <v>43512</v>
       </c>
-      <c r="C136" s="11"/>
-      <c r="D136" s="15"/>
+      <c r="C136" s="11">
+        <v>43523</v>
+      </c>
+      <c r="D136" s="15">
+        <v>46.6</v>
+      </c>
       <c r="E136" s="11">
         <v>43486</v>
       </c>
@@ -8307,7 +8346,9 @@
       <c r="C183" s="11">
         <v>43518</v>
       </c>
-      <c r="D183" s="15"/>
+      <c r="D183" s="15">
+        <v>53.4</v>
+      </c>
       <c r="E183" s="11">
         <v>43486</v>
       </c>
@@ -8339,8 +8380,12 @@
       <c r="B185" s="11">
         <v>43500</v>
       </c>
-      <c r="C185" s="11"/>
-      <c r="D185" s="15"/>
+      <c r="C185" s="11">
+        <v>43523</v>
+      </c>
+      <c r="D185" s="15">
+        <v>50.6</v>
+      </c>
       <c r="E185" s="11">
         <v>43486</v>
       </c>
@@ -8372,8 +8417,12 @@
       <c r="B187" s="11">
         <v>43502</v>
       </c>
-      <c r="C187" s="11"/>
-      <c r="D187" s="15"/>
+      <c r="C187" s="11">
+        <v>43518</v>
+      </c>
+      <c r="D187" s="15">
+        <v>55.2</v>
+      </c>
       <c r="E187" s="11">
         <v>43486</v>
       </c>
@@ -8826,7 +8875,7 @@
       <c r="F207" s="10">
         <v>43473</v>
       </c>
-      <c r="G207" s="21">
+      <c r="G207" s="17">
         <v>0.9</v>
       </c>
     </row>
@@ -8959,7 +9008,7 @@
       <c r="F213" s="10">
         <v>43500</v>
       </c>
-      <c r="G213" s="21">
+      <c r="G213" s="17">
         <v>0.85</v>
       </c>
     </row>
@@ -9209,8 +9258,12 @@
       <c r="B227" s="11">
         <v>43495</v>
       </c>
-      <c r="C227" s="11"/>
-      <c r="D227" s="15"/>
+      <c r="C227" s="11">
+        <v>43523</v>
+      </c>
+      <c r="D227" s="15">
+        <v>49.5</v>
+      </c>
       <c r="E227" s="11">
         <v>43486</v>
       </c>
@@ -9262,8 +9315,12 @@
       <c r="B230" s="11">
         <v>43512</v>
       </c>
-      <c r="C230" s="11"/>
-      <c r="D230" s="15"/>
+      <c r="C230" s="11">
+        <v>43523</v>
+      </c>
+      <c r="D230" s="15">
+        <v>49.6</v>
+      </c>
       <c r="E230" s="11">
         <v>43486</v>
       </c>
@@ -9398,7 +9455,7 @@
       <c r="F237" s="10">
         <v>43511</v>
       </c>
-      <c r="G237" s="21">
+      <c r="G237" s="17">
         <v>0.9</v>
       </c>
     </row>
@@ -9475,7 +9532,7 @@
       <c r="F241" s="10">
         <v>43500</v>
       </c>
-      <c r="G241" s="21">
+      <c r="G241" s="17">
         <v>0.9</v>
       </c>
     </row>
@@ -9494,7 +9551,9 @@
       <c r="A243" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="B243" s="4"/>
+      <c r="B243" s="4">
+        <v>43523</v>
+      </c>
       <c r="C243" s="4"/>
       <c r="D243" s="13"/>
       <c r="E243" s="4">
@@ -10578,7 +10637,9 @@
       <c r="A335" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="B335" s="11"/>
+      <c r="B335" s="11">
+        <v>43523</v>
+      </c>
       <c r="C335" s="11"/>
       <c r="D335" s="15"/>
       <c r="E335" s="11">
@@ -11114,7 +11175,7 @@
       <c r="F351" s="10">
         <v>43472</v>
       </c>
-      <c r="G351" s="21">
+      <c r="G351" s="17">
         <v>0.9</v>
       </c>
       <c r="H351">
@@ -11488,7 +11549,7 @@
       <c r="F369" s="10">
         <v>43488</v>
       </c>
-      <c r="G369" s="21">
+      <c r="G369" s="17">
         <v>0.9</v>
       </c>
     </row>
@@ -11750,7 +11811,7 @@
       <c r="F383" s="10">
         <v>43502</v>
       </c>
-      <c r="G383" s="21">
+      <c r="G383" s="17">
         <v>0.9</v>
       </c>
     </row>
@@ -11771,20 +11832,17 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="385" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A385" s="7" t="s">
+    <row r="385" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A385" s="20" t="s">
         <v>386</v>
       </c>
-      <c r="B385" s="11">
-        <v>43518</v>
-      </c>
-      <c r="C385" s="11"/>
-      <c r="D385" s="15"/>
-      <c r="E385" s="11">
-        <v>43486</v>
-      </c>
-      <c r="F385" s="10">
-        <v>43521</v>
+      <c r="B385" s="21"/>
+      <c r="C385" s="21"/>
+      <c r="D385" s="22"/>
+      <c r="E385" s="21"/>
+      <c r="F385" s="21"/>
+      <c r="G385" s="23" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.2">
@@ -12033,7 +12091,7 @@
       <c r="F399" s="10">
         <v>43490</v>
       </c>
-      <c r="G399" s="21">
+      <c r="G399" s="17">
         <v>0.9</v>
       </c>
     </row>
@@ -12195,8 +12253,12 @@
       <c r="B409" s="6">
         <v>43509</v>
       </c>
-      <c r="C409" s="6"/>
-      <c r="D409" s="14"/>
+      <c r="C409" s="6">
+        <v>43523</v>
+      </c>
+      <c r="D409" s="14">
+        <v>50.4</v>
+      </c>
       <c r="E409" s="6">
         <v>43472</v>
       </c>
@@ -12328,15 +12390,19 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A417" s="5" t="s">
         <v>418</v>
       </c>
       <c r="B417" s="6">
         <v>43507</v>
       </c>
-      <c r="C417" s="6"/>
-      <c r="D417" s="14"/>
+      <c r="C417" s="6">
+        <v>43523</v>
+      </c>
+      <c r="D417" s="14">
+        <v>44.1</v>
+      </c>
       <c r="E417" s="6">
         <v>43472</v>
       </c>
@@ -12344,7 +12410,7 @@
         <v>43509</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A418" s="7" t="s">
         <v>419</v>
       </c>
@@ -12357,7 +12423,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A419" s="7" t="s">
         <v>420</v>
       </c>
@@ -12369,7 +12435,7 @@
       </c>
       <c r="F419" s="10"/>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A420" s="7" t="s">
         <v>421</v>
       </c>
@@ -12382,7 +12448,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A421" s="7" t="s">
         <v>422</v>
       </c>
@@ -12398,7 +12464,7 @@
         <v>43518</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A422" s="7" t="s">
         <v>423</v>
       </c>
@@ -12411,7 +12477,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A423" s="7" t="s">
         <v>424</v>
       </c>
@@ -12427,7 +12493,7 @@
         <v>43518</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A424" s="7" t="s">
         <v>425</v>
       </c>
@@ -12440,7 +12506,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A425" s="7" t="s">
         <v>426</v>
       </c>
@@ -12454,7 +12520,7 @@
         <v>43521</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A426" s="7" t="s">
         <v>427</v>
       </c>
@@ -12467,7 +12533,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A427" s="7" t="s">
         <v>428</v>
       </c>
@@ -12479,7 +12545,7 @@
       </c>
       <c r="F427" s="10"/>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A428" s="7" t="s">
         <v>429</v>
       </c>
@@ -12492,7 +12558,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A429" s="7" t="s">
         <v>430</v>
       </c>
@@ -12508,7 +12574,7 @@
         <v>43518</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A430" s="7" t="s">
         <v>431</v>
       </c>
@@ -12521,7 +12587,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A431" s="7" t="s">
         <v>432</v>
       </c>
@@ -12535,20 +12601,17 @@
       </c>
       <c r="F431" s="10"/>
     </row>
-    <row r="432" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A432" s="16" t="s">
+    <row r="432" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A432" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="B432" s="17"/>
-      <c r="C432" s="17"/>
-      <c r="D432" s="18"/>
-      <c r="E432" s="17">
-        <v>43486</v>
-      </c>
-      <c r="F432" s="17"/>
-      <c r="G432" s="19" t="s">
-        <v>489</v>
-      </c>
+      <c r="B432" s="11"/>
+      <c r="C432" s="11"/>
+      <c r="D432" s="15"/>
+      <c r="E432" s="11">
+        <v>43486</v>
+      </c>
+      <c r="F432" s="8"/>
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A433" s="7" t="s">
@@ -12738,7 +12801,7 @@
       <c r="F443" s="10">
         <v>43497</v>
       </c>
-      <c r="G443" s="21">
+      <c r="G443" s="17">
         <v>0.9</v>
       </c>
     </row>
@@ -12811,8 +12874,12 @@
       <c r="B448" s="4">
         <v>43500</v>
       </c>
-      <c r="C448" s="4"/>
-      <c r="D448" s="13"/>
+      <c r="C448" s="4">
+        <v>43523</v>
+      </c>
+      <c r="D448" s="13">
+        <v>33</v>
+      </c>
       <c r="E448" s="4">
         <v>43458</v>
       </c>
@@ -12829,7 +12896,9 @@
       <c r="E449" s="4">
         <v>43458</v>
       </c>
-      <c r="F449" s="10"/>
+      <c r="F449" s="10">
+        <v>43523</v>
+      </c>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A450" s="5" t="s">
@@ -13048,8 +13117,12 @@
       <c r="B462" s="6">
         <v>43512</v>
       </c>
-      <c r="C462" s="6"/>
-      <c r="D462" s="14"/>
+      <c r="C462" s="6">
+        <v>43523</v>
+      </c>
+      <c r="D462" s="14">
+        <v>22.5</v>
+      </c>
       <c r="E462" s="6">
         <v>43472</v>
       </c>
@@ -13151,8 +13224,12 @@
       <c r="B468" s="11">
         <v>43507</v>
       </c>
-      <c r="C468" s="11"/>
-      <c r="D468" s="15"/>
+      <c r="C468" s="11">
+        <v>43523</v>
+      </c>
+      <c r="D468" s="15">
+        <v>32.4</v>
+      </c>
       <c r="E468" s="11">
         <v>43486</v>
       </c>
@@ -13288,8 +13365,12 @@
       <c r="B477" s="11">
         <v>43512</v>
       </c>
-      <c r="C477" s="11"/>
-      <c r="D477" s="15"/>
+      <c r="C477" s="11">
+        <v>43523</v>
+      </c>
+      <c r="D477" s="15">
+        <v>25.4</v>
+      </c>
       <c r="E477" s="11">
         <v>43486</v>
       </c>

--- a/data/observation_datasheet.xlsx
+++ b/data/observation_datasheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catchamberlain/Documents/git/chillfreeze/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{81C99C16-4A8E-314B-AC7F-AD2777C7287A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9442D32D-1751-FF4F-B16A-A7D8623D0FCC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8820" yWindow="1100" windowWidth="29720" windowHeight="20980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13260" yWindow="1320" windowWidth="29720" windowHeight="20980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="observation_datasheet" sheetId="1" r:id="rId1"/>
@@ -5053,10 +5053,10 @@
   <dimension ref="A1:M481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B442" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomRight" activeCell="D474" sqref="D474"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5442,8 +5442,12 @@
       <c r="B21" s="6">
         <v>43512</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="14"/>
+      <c r="C21" s="6">
+        <v>43525</v>
+      </c>
+      <c r="D21" s="14">
+        <v>30.9</v>
+      </c>
       <c r="E21" s="6">
         <v>43472</v>
       </c>
@@ -5654,7 +5658,9 @@
       <c r="A35" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="11"/>
+      <c r="B35" s="11">
+        <v>43525</v>
+      </c>
       <c r="C35" s="11"/>
       <c r="D35" s="15"/>
       <c r="E35" s="11">
@@ -5826,7 +5832,9 @@
       <c r="A48" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="11"/>
+      <c r="B48" s="11">
+        <v>43525</v>
+      </c>
       <c r="C48" s="11"/>
       <c r="D48" s="15"/>
       <c r="E48" s="11">
@@ -5837,7 +5845,9 @@
       <c r="A49" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="11"/>
+      <c r="B49" s="11">
+        <v>43525</v>
+      </c>
       <c r="C49" s="11"/>
       <c r="D49" s="15"/>
       <c r="E49" s="11">
@@ -6153,8 +6163,12 @@
       <c r="B67" s="6">
         <v>43495</v>
       </c>
-      <c r="C67" s="6"/>
-      <c r="D67" s="14"/>
+      <c r="C67" s="6">
+        <v>43525</v>
+      </c>
+      <c r="D67" s="14">
+        <v>17.100000000000001</v>
+      </c>
       <c r="E67" s="6">
         <v>43472</v>
       </c>
@@ -6432,8 +6446,12 @@
       <c r="B83" s="11">
         <v>43507</v>
       </c>
-      <c r="C83" s="11"/>
-      <c r="D83" s="15"/>
+      <c r="C83" s="11">
+        <v>43525</v>
+      </c>
+      <c r="D83" s="15">
+        <v>29</v>
+      </c>
       <c r="E83" s="11">
         <v>43486</v>
       </c>
@@ -6578,8 +6596,12 @@
       <c r="B92" s="11">
         <v>43512</v>
       </c>
-      <c r="C92" s="11"/>
-      <c r="D92" s="15"/>
+      <c r="C92" s="11">
+        <v>43525</v>
+      </c>
+      <c r="D92" s="15">
+        <v>27.3</v>
+      </c>
       <c r="E92" s="11">
         <v>43486</v>
       </c>
@@ -6640,8 +6662,12 @@
       <c r="B96" s="11">
         <v>43507</v>
       </c>
-      <c r="C96" s="11"/>
-      <c r="D96" s="15"/>
+      <c r="C96" s="11">
+        <v>43525</v>
+      </c>
+      <c r="D96" s="15">
+        <v>33.1</v>
+      </c>
       <c r="E96" s="11">
         <v>43486</v>
       </c>
@@ -9578,7 +9604,9 @@
       <c r="A245" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="B245" s="4"/>
+      <c r="B245" s="4">
+        <v>43525</v>
+      </c>
       <c r="C245" s="4"/>
       <c r="D245" s="13"/>
       <c r="E245" s="4">
@@ -9866,7 +9894,9 @@
       <c r="A270" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="B270" s="6"/>
+      <c r="B270" s="6">
+        <v>43525</v>
+      </c>
       <c r="C270" s="6"/>
       <c r="D270" s="14"/>
       <c r="E270" s="6">
@@ -12156,8 +12186,12 @@
       <c r="B403" s="6">
         <v>43512</v>
       </c>
-      <c r="C403" s="6"/>
-      <c r="D403" s="14"/>
+      <c r="C403" s="6">
+        <v>43525</v>
+      </c>
+      <c r="D403" s="14">
+        <v>50.9</v>
+      </c>
       <c r="E403" s="6">
         <v>43472</v>
       </c>
@@ -12207,8 +12241,12 @@
       <c r="B406" s="6">
         <v>43515</v>
       </c>
-      <c r="C406" s="6"/>
-      <c r="D406" s="14"/>
+      <c r="C406" s="6">
+        <v>43525</v>
+      </c>
+      <c r="D406" s="14">
+        <v>50.6</v>
+      </c>
       <c r="E406" s="6">
         <v>43472</v>
       </c>
@@ -12327,8 +12365,12 @@
       <c r="B413" s="6">
         <v>43515</v>
       </c>
-      <c r="C413" s="6"/>
-      <c r="D413" s="14"/>
+      <c r="C413" s="6">
+        <v>43525</v>
+      </c>
+      <c r="D413" s="14">
+        <v>44.1</v>
+      </c>
       <c r="E413" s="6">
         <v>43472</v>
       </c>
@@ -12500,8 +12542,12 @@
       <c r="B424" s="11">
         <v>43512</v>
       </c>
-      <c r="C424" s="11"/>
-      <c r="D424" s="15"/>
+      <c r="C424" s="11">
+        <v>43525</v>
+      </c>
+      <c r="D424" s="15">
+        <v>45.2</v>
+      </c>
       <c r="E424" s="11">
         <v>43486</v>
       </c>
@@ -13303,8 +13349,12 @@
       <c r="B473" s="11">
         <v>43509</v>
       </c>
-      <c r="C473" s="11"/>
-      <c r="D473" s="15"/>
+      <c r="C473" s="11">
+        <v>43525</v>
+      </c>
+      <c r="D473" s="15">
+        <v>35.4</v>
+      </c>
       <c r="E473" s="11">
         <v>43486</v>
       </c>

--- a/data/observation_datasheet.xlsx
+++ b/data/observation_datasheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catchamberlain/Documents/git/chillfreeze/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9442D32D-1751-FF4F-B16A-A7D8623D0FCC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{988C57D9-9262-EA4E-A554-E132BDA4BE2F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13260" yWindow="1320" windowWidth="29720" windowHeight="20980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10760" yWindow="3720" windowWidth="29720" windowHeight="20980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="observation_datasheet" sheetId="1" r:id="rId1"/>
@@ -5053,10 +5053,10 @@
   <dimension ref="A1:M481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B442" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B432" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D474" sqref="D474"/>
+      <selection pane="bottomRight" activeCell="H464" sqref="H464"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5204,8 +5204,12 @@
       <c r="B7" s="4">
         <v>43512</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="13"/>
+      <c r="C7" s="4">
+        <v>43528</v>
+      </c>
+      <c r="D7" s="13">
+        <v>22.1</v>
+      </c>
       <c r="E7" s="4">
         <v>43458</v>
       </c>
@@ -5220,8 +5224,12 @@
       <c r="B8" s="4">
         <v>43512</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="13"/>
+      <c r="C8" s="4">
+        <v>43528</v>
+      </c>
+      <c r="D8" s="13">
+        <v>22.5</v>
+      </c>
       <c r="E8" s="4">
         <v>43458</v>
       </c>
@@ -5400,7 +5408,9 @@
       <c r="B18" s="6">
         <v>43512</v>
       </c>
-      <c r="C18" s="6"/>
+      <c r="C18" s="6">
+        <v>43528</v>
+      </c>
       <c r="D18" s="14"/>
       <c r="E18" s="6">
         <v>43472</v>
@@ -5410,7 +5420,9 @@
       <c r="A19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="6"/>
+      <c r="B19" s="6">
+        <v>43528</v>
+      </c>
       <c r="C19" s="6"/>
       <c r="D19" s="14"/>
       <c r="E19" s="6">
@@ -5462,8 +5474,12 @@
       <c r="B22" s="6">
         <v>43515</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="14"/>
+      <c r="C22" s="6">
+        <v>43528</v>
+      </c>
+      <c r="D22" s="14">
+        <v>30.9</v>
+      </c>
       <c r="E22" s="6">
         <v>43472</v>
       </c>
@@ -5509,13 +5525,17 @@
       <c r="A25" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="6"/>
+      <c r="B25" s="6">
+        <v>43521</v>
+      </c>
       <c r="C25" s="6"/>
       <c r="D25" s="14"/>
       <c r="E25" s="6">
         <v>43472</v>
       </c>
-      <c r="F25" s="10"/>
+      <c r="F25" s="10">
+        <v>43528</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
@@ -5557,8 +5577,12 @@
       <c r="B28" s="6">
         <v>43512</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="14"/>
+      <c r="C28" s="6">
+        <v>43528</v>
+      </c>
+      <c r="D28" s="14">
+        <v>27.7</v>
+      </c>
       <c r="E28" s="6">
         <v>43472</v>
       </c>
@@ -5575,7 +5599,9 @@
       <c r="E29" s="6">
         <v>43472</v>
       </c>
-      <c r="F29" s="10"/>
+      <c r="F29" s="10">
+        <v>43528</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
@@ -5595,8 +5621,12 @@
       <c r="B31" s="6">
         <v>43515</v>
       </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="14"/>
+      <c r="C31" s="6">
+        <v>43528</v>
+      </c>
+      <c r="D31" s="14">
+        <v>35.200000000000003</v>
+      </c>
       <c r="E31" s="6">
         <v>43472</v>
       </c>
@@ -5666,7 +5696,9 @@
       <c r="E35" s="11">
         <v>43486</v>
       </c>
-      <c r="F35" s="10"/>
+      <c r="F35" s="10">
+        <v>43528</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
@@ -5675,8 +5707,12 @@
       <c r="B36" s="11">
         <v>43515</v>
       </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="15"/>
+      <c r="C36" s="11">
+        <v>43528</v>
+      </c>
+      <c r="D36" s="15">
+        <v>28.8</v>
+      </c>
       <c r="E36" s="11">
         <v>43486</v>
       </c>
@@ -5693,7 +5729,9 @@
       <c r="E37" s="11">
         <v>43486</v>
       </c>
-      <c r="F37" s="10"/>
+      <c r="F37" s="10">
+        <v>43528</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
@@ -5772,7 +5810,9 @@
       <c r="E43" s="11">
         <v>43486</v>
       </c>
-      <c r="F43" s="10"/>
+      <c r="F43" s="10">
+        <v>43528</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
@@ -5791,7 +5831,9 @@
       <c r="A45" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="11"/>
+      <c r="B45" s="11">
+        <v>43528</v>
+      </c>
       <c r="C45" s="11"/>
       <c r="D45" s="15"/>
       <c r="E45" s="11">
@@ -5806,8 +5848,12 @@
       <c r="B46" s="11">
         <v>43518</v>
       </c>
-      <c r="C46" s="11"/>
-      <c r="D46" s="15"/>
+      <c r="C46" s="11">
+        <v>43528</v>
+      </c>
+      <c r="D46" s="15">
+        <v>33</v>
+      </c>
       <c r="E46" s="11">
         <v>43486</v>
       </c>
@@ -6150,8 +6196,12 @@
       <c r="B66" s="6">
         <v>43507</v>
       </c>
-      <c r="C66" s="6"/>
-      <c r="D66" s="14"/>
+      <c r="C66" s="6">
+        <v>43528</v>
+      </c>
+      <c r="D66" s="14">
+        <v>46.5</v>
+      </c>
       <c r="E66" s="6">
         <v>43472</v>
       </c>
@@ -6613,8 +6663,12 @@
       <c r="B93" s="11">
         <v>43507</v>
       </c>
-      <c r="C93" s="11"/>
-      <c r="D93" s="15"/>
+      <c r="C93" s="11">
+        <v>43528</v>
+      </c>
+      <c r="D93" s="15">
+        <v>25.5</v>
+      </c>
       <c r="E93" s="11">
         <v>43486</v>
       </c>
@@ -6646,8 +6700,12 @@
       <c r="B95" s="11">
         <v>43504</v>
       </c>
-      <c r="C95" s="11"/>
-      <c r="D95" s="15"/>
+      <c r="C95" s="11">
+        <v>43528</v>
+      </c>
+      <c r="D95" s="15">
+        <v>28.3</v>
+      </c>
       <c r="E95" s="11">
         <v>43486</v>
       </c>
@@ -6679,8 +6737,12 @@
       <c r="B97" s="11">
         <v>43512</v>
       </c>
-      <c r="C97" s="11"/>
-      <c r="D97" s="15"/>
+      <c r="C97" s="11">
+        <v>43528</v>
+      </c>
+      <c r="D97" s="15">
+        <v>23.4</v>
+      </c>
       <c r="E97" s="11">
         <v>43486</v>
       </c>
@@ -9585,7 +9647,9 @@
       <c r="E243" s="4">
         <v>43458</v>
       </c>
-      <c r="F243" s="10"/>
+      <c r="F243" s="10">
+        <v>43528</v>
+      </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" s="3" t="s">
@@ -9612,7 +9676,9 @@
       <c r="E245" s="4">
         <v>43458</v>
       </c>
-      <c r="F245" s="10"/>
+      <c r="F245" s="10">
+        <v>43528</v>
+      </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" s="3" t="s">
@@ -9675,7 +9741,9 @@
       <c r="A251" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="B251" s="4"/>
+      <c r="B251" s="4">
+        <v>43528</v>
+      </c>
       <c r="C251" s="4"/>
       <c r="D251" s="13"/>
       <c r="E251" s="4">
@@ -10250,8 +10318,12 @@
       <c r="B300" s="4">
         <v>43495</v>
       </c>
-      <c r="C300" s="4"/>
-      <c r="D300" s="13"/>
+      <c r="C300" s="4">
+        <v>43528</v>
+      </c>
+      <c r="D300" s="13">
+        <v>21.8</v>
+      </c>
       <c r="E300" s="4">
         <v>43458</v>
       </c>
@@ -10558,7 +10630,9 @@
       <c r="E325" s="11">
         <v>43486</v>
       </c>
-      <c r="F325" s="10"/>
+      <c r="F325" s="10">
+        <v>43528</v>
+      </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A326" s="7" t="s">
@@ -10675,7 +10749,9 @@
       <c r="E335" s="11">
         <v>43486</v>
       </c>
-      <c r="F335" s="10"/>
+      <c r="F335" s="10">
+        <v>43528</v>
+      </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A336" s="7" t="s">
@@ -11969,8 +12045,12 @@
       <c r="B391" s="4">
         <v>43512</v>
       </c>
-      <c r="C391" s="4"/>
-      <c r="D391" s="13"/>
+      <c r="C391" s="4">
+        <v>43528</v>
+      </c>
+      <c r="D391" s="13">
+        <v>48.6</v>
+      </c>
       <c r="E391" s="4">
         <v>43458</v>
       </c>
@@ -12076,8 +12156,12 @@
       <c r="B397" s="4">
         <v>43500</v>
       </c>
-      <c r="C397" s="4"/>
-      <c r="D397" s="13"/>
+      <c r="C397" s="4">
+        <v>43528</v>
+      </c>
+      <c r="D397" s="13">
+        <v>56.6</v>
+      </c>
       <c r="E397" s="4">
         <v>43458</v>
       </c>
@@ -12226,7 +12310,9 @@
       <c r="C405" s="6">
         <v>43518</v>
       </c>
-      <c r="D405" s="14"/>
+      <c r="D405" s="14">
+        <v>45.4</v>
+      </c>
       <c r="E405" s="6">
         <v>43472</v>
       </c>
@@ -12258,8 +12344,12 @@
       <c r="B407" s="6">
         <v>43518</v>
       </c>
-      <c r="C407" s="6"/>
-      <c r="D407" s="14"/>
+      <c r="C407" s="6">
+        <v>43528</v>
+      </c>
+      <c r="D407" s="14">
+        <v>58.3</v>
+      </c>
       <c r="E407" s="6">
         <v>43472</v>
       </c>
@@ -12469,13 +12559,17 @@
       <c r="A419" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="B419" s="11"/>
+      <c r="B419" s="11">
+        <v>43528</v>
+      </c>
       <c r="C419" s="11"/>
       <c r="D419" s="15"/>
       <c r="E419" s="11">
         <v>43486</v>
       </c>
-      <c r="F419" s="10"/>
+      <c r="F419" s="10">
+        <v>43528</v>
+      </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A420" s="7" t="s">
@@ -12497,8 +12591,12 @@
       <c r="B421" s="11">
         <v>43515</v>
       </c>
-      <c r="C421" s="11"/>
-      <c r="D421" s="15"/>
+      <c r="C421" s="11">
+        <v>43528</v>
+      </c>
+      <c r="D421" s="15">
+        <v>46.8</v>
+      </c>
       <c r="E421" s="11">
         <v>43486</v>
       </c>
@@ -12556,7 +12654,9 @@
       <c r="A425" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="B425" s="11"/>
+      <c r="B425" s="11">
+        <v>43521</v>
+      </c>
       <c r="C425" s="11"/>
       <c r="D425" s="15"/>
       <c r="E425" s="11">
@@ -12583,13 +12683,17 @@
       <c r="A427" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="B427" s="11"/>
+      <c r="B427" s="11">
+        <v>43528</v>
+      </c>
       <c r="C427" s="11"/>
       <c r="D427" s="15"/>
       <c r="E427" s="11">
         <v>43486</v>
       </c>
-      <c r="F427" s="10"/>
+      <c r="F427" s="10">
+        <v>43528</v>
+      </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A428" s="7" t="s">
@@ -12598,8 +12702,12 @@
       <c r="B428" s="11">
         <v>43518</v>
       </c>
-      <c r="C428" s="11"/>
-      <c r="D428" s="15"/>
+      <c r="C428" s="11">
+        <v>43528</v>
+      </c>
+      <c r="D428" s="15">
+        <v>40.5</v>
+      </c>
       <c r="E428" s="11">
         <v>43486</v>
       </c>
@@ -12651,9 +12759,15 @@
       <c r="A432" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="B432" s="11"/>
-      <c r="C432" s="11"/>
-      <c r="D432" s="15"/>
+      <c r="B432" s="11">
+        <v>43515</v>
+      </c>
+      <c r="C432" s="11">
+        <v>43528</v>
+      </c>
+      <c r="D432" s="15">
+        <v>42.9</v>
+      </c>
       <c r="E432" s="11">
         <v>43486</v>
       </c>
@@ -12773,7 +12887,9 @@
       <c r="B439" s="4">
         <v>43502</v>
       </c>
-      <c r="C439" s="4"/>
+      <c r="C439" s="4">
+        <v>43528</v>
+      </c>
       <c r="D439" s="13"/>
       <c r="E439" s="4">
         <v>43458</v>
@@ -12858,8 +12974,12 @@
       <c r="B444" s="4">
         <v>43497</v>
       </c>
-      <c r="C444" s="4"/>
-      <c r="D444" s="13"/>
+      <c r="C444" s="4">
+        <v>43528</v>
+      </c>
+      <c r="D444" s="13">
+        <v>22.2</v>
+      </c>
       <c r="E444" s="4">
         <v>43458</v>
       </c>
@@ -12871,8 +12991,12 @@
       <c r="B445" s="4">
         <v>43488</v>
       </c>
-      <c r="C445" s="4"/>
-      <c r="D445" s="13"/>
+      <c r="C445" s="4">
+        <v>43528</v>
+      </c>
+      <c r="D445" s="13">
+        <v>18</v>
+      </c>
       <c r="E445" s="4">
         <v>43458</v>
       </c>
@@ -12887,8 +13011,12 @@
       <c r="B446" s="4">
         <v>43512</v>
       </c>
-      <c r="C446" s="4"/>
-      <c r="D446" s="13"/>
+      <c r="C446" s="4">
+        <v>43528</v>
+      </c>
+      <c r="D446" s="13">
+        <v>27.6</v>
+      </c>
       <c r="E446" s="4">
         <v>43458</v>
       </c>
@@ -12930,7 +13058,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A449" s="3" t="s">
         <v>450</v>
       </c>
@@ -12946,7 +13074,7 @@
         <v>43523</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A450" s="5" t="s">
         <v>451</v>
       </c>
@@ -12963,7 +13091,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A451" s="5" t="s">
         <v>452</v>
       </c>
@@ -12983,7 +13111,7 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A452" s="5" t="s">
         <v>453</v>
       </c>
@@ -13000,7 +13128,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A453" s="5" t="s">
         <v>454</v>
       </c>
@@ -13020,7 +13148,7 @@
         <v>43509</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A454" s="5" t="s">
         <v>455</v>
       </c>
@@ -13037,7 +13165,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A455" s="5" t="s">
         <v>456</v>
       </c>
@@ -13057,7 +13185,7 @@
         <v>43509</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A456" s="5" t="s">
         <v>457</v>
       </c>
@@ -13074,7 +13202,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A457" s="5" t="s">
         <v>458</v>
       </c>
@@ -13082,10 +13210,10 @@
         <v>43512</v>
       </c>
       <c r="C457" s="6">
-        <v>43515</v>
+        <v>43528</v>
       </c>
       <c r="D457" s="14">
-        <v>20.399999999999999</v>
+        <v>27</v>
       </c>
       <c r="E457" s="6">
         <v>43472</v>
@@ -13093,29 +13221,38 @@
       <c r="F457" s="10">
         <v>43515</v>
       </c>
-    </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G457" s="1"/>
+    </row>
+    <row r="458" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A458" s="5" t="s">
         <v>459</v>
       </c>
       <c r="B458" s="6">
         <v>43500</v>
       </c>
-      <c r="C458" s="6"/>
-      <c r="D458" s="14"/>
+      <c r="C458" s="6">
+        <v>43515</v>
+      </c>
+      <c r="D458" s="14">
+        <v>20.399999999999999</v>
+      </c>
       <c r="E458" s="6">
         <v>43472</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A459" s="5" t="s">
         <v>460</v>
       </c>
       <c r="B459" s="6">
         <v>43493</v>
       </c>
-      <c r="C459" s="6"/>
-      <c r="D459" s="14"/>
+      <c r="C459" s="6">
+        <v>43515</v>
+      </c>
+      <c r="D459" s="14">
+        <v>25.9</v>
+      </c>
       <c r="E459" s="6">
         <v>43472</v>
       </c>
@@ -13123,20 +13260,24 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A460" s="5" t="s">
         <v>461</v>
       </c>
       <c r="B460" s="6">
         <v>43507</v>
       </c>
-      <c r="C460" s="6"/>
-      <c r="D460" s="14"/>
+      <c r="C460" s="6">
+        <v>43528</v>
+      </c>
+      <c r="D460" s="14">
+        <v>34.299999999999997</v>
+      </c>
       <c r="E460" s="6">
         <v>43472</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A461" s="5" t="s">
         <v>462</v>
       </c>
@@ -13156,7 +13297,7 @@
         <v>43509</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A462" s="5" t="s">
         <v>463</v>
       </c>
@@ -13173,7 +13314,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A463" s="5" t="s">
         <v>464</v>
       </c>
@@ -13193,7 +13334,7 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A464" s="5" t="s">
         <v>465</v>
       </c>
@@ -13217,8 +13358,12 @@
       <c r="B465" s="6">
         <v>43507</v>
       </c>
-      <c r="C465" s="6"/>
-      <c r="D465" s="14"/>
+      <c r="C465" s="6">
+        <v>43528</v>
+      </c>
+      <c r="D465" s="14">
+        <v>30.7</v>
+      </c>
       <c r="E465" s="6">
         <v>43472</v>
       </c>
@@ -13369,8 +13514,12 @@
       <c r="B474" s="11">
         <v>43515</v>
       </c>
-      <c r="C474" s="11"/>
-      <c r="D474" s="15"/>
+      <c r="C474" s="11">
+        <v>43528</v>
+      </c>
+      <c r="D474" s="15">
+        <v>23</v>
+      </c>
       <c r="E474" s="11">
         <v>43486</v>
       </c>
@@ -13382,8 +13531,12 @@
       <c r="B475" s="11">
         <v>43512</v>
       </c>
-      <c r="C475" s="11"/>
-      <c r="D475" s="15"/>
+      <c r="C475" s="11">
+        <v>43528</v>
+      </c>
+      <c r="D475" s="15">
+        <v>28.3</v>
+      </c>
       <c r="E475" s="11">
         <v>43486</v>
       </c>
@@ -13485,8 +13638,12 @@
       <c r="B481" s="11">
         <v>43509</v>
       </c>
-      <c r="C481" s="11"/>
-      <c r="D481" s="15"/>
+      <c r="C481" s="11">
+        <v>43528</v>
+      </c>
+      <c r="D481" s="15">
+        <v>29.1</v>
+      </c>
       <c r="E481" s="11">
         <v>43486</v>
       </c>

--- a/data/observation_datasheet.xlsx
+++ b/data/observation_datasheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catchamberlain/Documents/git/chillfreeze/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{988C57D9-9262-EA4E-A554-E132BDA4BE2F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2220AB96-8819-2942-B12D-214AF01D4EFB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10760" yWindow="3720" windowWidth="29720" windowHeight="20980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10020" yWindow="2160" windowWidth="29720" windowHeight="20980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="observation_datasheet" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="542">
   <si>
     <t>ID</t>
   </si>
@@ -1523,6 +1523,135 @@
   </si>
   <si>
     <t>BBCH</t>
+  </si>
+  <si>
+    <t>7= full leafout; 5 cont, 2 frz</t>
+  </si>
+  <si>
+    <t>15=budburst</t>
+  </si>
+  <si>
+    <t>5=budburst and frz</t>
+  </si>
+  <si>
+    <t>9=budburst; 5 cont, 4 frz</t>
+  </si>
+  <si>
+    <t>1= in growth chamber during heat</t>
+  </si>
+  <si>
+    <t>none bursted before heat</t>
+  </si>
+  <si>
+    <t>4 bursted day of; 1 cont, 3 frz</t>
+  </si>
+  <si>
+    <t>14 full leaf out before heat</t>
+  </si>
+  <si>
+    <t>1 budburst and frz</t>
+  </si>
+  <si>
+    <t>1 never going to burst</t>
+  </si>
+  <si>
+    <t>9 full leafed out</t>
+  </si>
+  <si>
+    <t>6 budburst; 1 cont and 5 tx; all tx frz</t>
+  </si>
+  <si>
+    <t>13 budburst; 6 cont, 7 tx</t>
+  </si>
+  <si>
+    <t>3 in growth chamber during</t>
+  </si>
+  <si>
+    <t>3 frz before, 1 after</t>
+  </si>
+  <si>
+    <t>all done before</t>
+  </si>
+  <si>
+    <t>8 fully leafed out</t>
+  </si>
+  <si>
+    <t>8 budburst; 5 tx, 3 cont</t>
+  </si>
+  <si>
+    <t>all frz before</t>
+  </si>
+  <si>
+    <t>all before</t>
+  </si>
+  <si>
+    <t>8 budburst; 3 cont, 5 tx</t>
+  </si>
+  <si>
+    <t>On or Before 2/19</t>
+  </si>
+  <si>
+    <t>8 budbursted; 5 tx, 3 cont</t>
+  </si>
+  <si>
+    <t>no budburst</t>
+  </si>
+  <si>
+    <t>1 full leafout</t>
+  </si>
+  <si>
+    <t>one in growth chamber during</t>
+  </si>
+  <si>
+    <t>2 frz before</t>
+  </si>
+  <si>
+    <t>6 budburst; 3 cont, 3 frz</t>
+  </si>
+  <si>
+    <t>10 full leaf out</t>
+  </si>
+  <si>
+    <t>1 no budburst</t>
+  </si>
+  <si>
+    <t>5 budburst; 1 cont, 4 frz</t>
+  </si>
+  <si>
+    <t>1 in growth chamber</t>
+  </si>
+  <si>
+    <t>12 budburst; 5 cont, 7 frz</t>
+  </si>
+  <si>
+    <t>2 in growth chamber</t>
+  </si>
+  <si>
+    <t>1 frz after</t>
+  </si>
+  <si>
+    <t>10 budburst after</t>
+  </si>
+  <si>
+    <t>all frz after</t>
+  </si>
+  <si>
+    <t>5 full leaf out</t>
+  </si>
+  <si>
+    <t>10 budburst; 6 cont, 4 frz</t>
+  </si>
+  <si>
+    <t>6 frz before, 1 after, 1 no bb</t>
+  </si>
+  <si>
+    <t>10 budburst; 7 frz, 3 cont</t>
+  </si>
+  <si>
+    <t>rest frz before</t>
+  </si>
+  <si>
+    <t>15 budburst; 8 frz, 7 cont</t>
   </si>
 </sst>
 </file>
@@ -5050,13 +5179,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M481"/>
+  <dimension ref="A1:N481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B432" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B444" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H464" sqref="H464"/>
+      <selection pane="bottomRight" activeCell="N469" sqref="N469"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5068,7 +5197,7 @@
     <col min="5" max="6" width="10.7109375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>487</v>
       </c>
@@ -5105,8 +5234,11 @@
       <c r="M1" s="18" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N1" s="18" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -5122,8 +5254,11 @@
       <c r="E2" s="4">
         <v>43458</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -5142,8 +5277,11 @@
       <c r="F3" s="10">
         <v>43511</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -5159,8 +5297,11 @@
       <c r="E4" s="4">
         <v>43458</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N4" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -5180,7 +5321,7 @@
         <v>43511</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -5197,7 +5338,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -5217,7 +5358,7 @@
         <v>43521</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -5234,7 +5375,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -5254,7 +5395,7 @@
         <v>43511</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -5271,7 +5412,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
@@ -5294,7 +5435,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
@@ -5307,7 +5448,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -5327,7 +5468,7 @@
         <v>43504</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
@@ -5344,7 +5485,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
@@ -5364,7 +5505,7 @@
         <v>43502</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
@@ -5381,7 +5522,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
@@ -5401,7 +5542,7 @@
         <v>43509</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
@@ -5415,8 +5556,11 @@
       <c r="E18" s="6">
         <v>43472</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="N18" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>20</v>
       </c>
@@ -5429,8 +5573,11 @@
         <v>43472</v>
       </c>
       <c r="F19" s="10"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="N19" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
@@ -5447,7 +5594,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>22</v>
       </c>
@@ -5467,7 +5614,7 @@
         <v>43518</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>23</v>
       </c>
@@ -5484,7 +5631,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>24</v>
       </c>
@@ -5504,7 +5651,7 @@
         <v>43518</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>25</v>
       </c>
@@ -5521,7 +5668,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>26</v>
       </c>
@@ -5537,7 +5684,7 @@
         <v>43528</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>27</v>
       </c>
@@ -5550,7 +5697,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>28</v>
       </c>
@@ -5570,7 +5717,7 @@
         <v>43518</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>29</v>
       </c>
@@ -5587,7 +5734,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>30</v>
       </c>
@@ -5603,7 +5750,7 @@
         <v>43528</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>31</v>
       </c>
@@ -5614,7 +5761,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>32</v>
       </c>
@@ -5634,7 +5781,7 @@
         <v>43521</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>33</v>
       </c>
@@ -5651,7 +5798,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>34</v>
       </c>
@@ -5671,7 +5818,7 @@
         <v>43515</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>35</v>
       </c>
@@ -5683,8 +5830,11 @@
       <c r="E34" s="11">
         <v>43486</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="N34" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>36</v>
       </c>
@@ -5699,8 +5849,11 @@
       <c r="F35" s="10">
         <v>43528</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="N35" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>37</v>
       </c>
@@ -5717,7 +5870,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>38</v>
       </c>
@@ -5733,7 +5886,7 @@
         <v>43528</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>39</v>
       </c>
@@ -5744,7 +5897,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>40</v>
       </c>
@@ -5760,7 +5913,7 @@
         <v>43521</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>41</v>
       </c>
@@ -5771,7 +5924,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>42</v>
       </c>
@@ -5787,7 +5940,7 @@
         <v>43523</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>43</v>
       </c>
@@ -5798,7 +5951,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>44</v>
       </c>
@@ -5814,7 +5967,7 @@
         <v>43528</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>45</v>
       </c>
@@ -5827,7 +5980,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>46</v>
       </c>
@@ -5841,7 +5994,7 @@
       </c>
       <c r="F45" s="10"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>47</v>
       </c>
@@ -5858,7 +6011,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>48</v>
       </c>
@@ -5874,7 +6027,7 @@
         <v>43523</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>49</v>
       </c>
@@ -5887,7 +6040,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>50</v>
       </c>
@@ -5901,7 +6054,7 @@
       </c>
       <c r="F49" s="10"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>51</v>
       </c>
@@ -5917,8 +6070,11 @@
       <c r="E50" s="4">
         <v>43458</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="N50" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>52</v>
       </c>
@@ -5937,8 +6093,11 @@
       <c r="F51" s="10">
         <v>43493</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="N51" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>53</v>
       </c>
@@ -5954,8 +6113,11 @@
       <c r="E52" s="4">
         <v>43458</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="N52" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>54</v>
       </c>
@@ -5975,7 +6137,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>55</v>
       </c>
@@ -5992,7 +6154,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>56</v>
       </c>
@@ -6012,7 +6174,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>57</v>
       </c>
@@ -6029,7 +6191,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>58</v>
       </c>
@@ -6049,7 +6211,7 @@
         <v>43493</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>59</v>
       </c>
@@ -6066,7 +6228,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>60</v>
       </c>
@@ -6086,7 +6248,7 @@
         <v>43504</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>61</v>
       </c>
@@ -6103,7 +6265,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>62</v>
       </c>
@@ -6115,7 +6277,7 @@
       </c>
       <c r="F61" s="10"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>63</v>
       </c>
@@ -6132,7 +6294,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>64</v>
       </c>
@@ -6152,7 +6314,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>65</v>
       </c>
@@ -6169,7 +6331,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>66</v>
       </c>
@@ -6189,7 +6351,7 @@
         <v>43479</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
         <v>67</v>
       </c>
@@ -6205,8 +6367,11 @@
       <c r="E66" s="6">
         <v>43472</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="N66" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
         <v>68</v>
       </c>
@@ -6225,8 +6390,11 @@
       <c r="F67" s="10">
         <v>43507</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="N67" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
         <v>69</v>
       </c>
@@ -6243,7 +6411,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
         <v>70</v>
       </c>
@@ -6263,7 +6431,7 @@
         <v>43504</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
         <v>71</v>
       </c>
@@ -6280,7 +6448,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
         <v>72</v>
       </c>
@@ -6300,7 +6468,7 @@
         <v>43497</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
         <v>73</v>
       </c>
@@ -6311,7 +6479,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
         <v>74</v>
       </c>
@@ -6331,7 +6499,7 @@
         <v>43502</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
         <v>75</v>
       </c>
@@ -6348,7 +6516,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
         <v>76</v>
       </c>
@@ -6364,7 +6532,7 @@
         <v>43518</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
         <v>77</v>
       </c>
@@ -6381,7 +6549,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
         <v>78</v>
       </c>
@@ -6404,7 +6572,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
         <v>79</v>
       </c>
@@ -6421,7 +6589,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
         <v>80</v>
       </c>
@@ -6441,7 +6609,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
         <v>81</v>
       </c>
@@ -6458,7 +6626,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
         <v>82</v>
       </c>
@@ -6478,7 +6646,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
         <v>83</v>
       </c>
@@ -6488,8 +6656,11 @@
       <c r="E82" s="11">
         <v>43486</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="N82" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
         <v>84</v>
       </c>
@@ -6508,8 +6679,11 @@
       <c r="F83" s="10">
         <v>43511</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="N83" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
         <v>85</v>
       </c>
@@ -6525,8 +6699,11 @@
       <c r="E84" s="11">
         <v>43486</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="N84" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
         <v>86</v>
       </c>
@@ -6542,7 +6719,7 @@
         <v>43509</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
         <v>87</v>
       </c>
@@ -6559,7 +6736,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
         <v>88</v>
       </c>
@@ -6571,7 +6748,7 @@
       </c>
       <c r="F87" s="10"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
         <v>89</v>
       </c>
@@ -6582,7 +6759,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
         <v>90</v>
       </c>
@@ -6602,7 +6779,7 @@
         <v>43518</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
         <v>91</v>
       </c>
@@ -6619,7 +6796,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
         <v>92</v>
       </c>
@@ -6639,7 +6816,7 @@
         <v>43511</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
         <v>93</v>
       </c>
@@ -6656,7 +6833,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
         <v>94</v>
       </c>
@@ -6676,7 +6853,7 @@
         <v>43515</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
         <v>95</v>
       </c>
@@ -6693,7 +6870,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
         <v>96</v>
       </c>
@@ -6713,7 +6890,7 @@
         <v>43515</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
         <v>97</v>
       </c>
@@ -6730,7 +6907,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
         <v>98</v>
       </c>
@@ -6750,7 +6927,7 @@
         <v>43515</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>99</v>
       </c>
@@ -6766,8 +6943,11 @@
       <c r="E98" s="4">
         <v>43458</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N98" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>100</v>
       </c>
@@ -6787,7 +6967,7 @@
         <v>43476</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>101</v>
       </c>
@@ -6823,7 +7003,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>102</v>
       </c>
@@ -6843,7 +7023,7 @@
         <v>43473</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>103</v>
       </c>
@@ -6879,7 +7059,7 @@
         <v>35.375</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>104</v>
       </c>
@@ -6899,7 +7079,7 @@
         <v>43476</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>105</v>
       </c>
@@ -6935,7 +7115,7 @@
         <v>37.1</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>106</v>
       </c>
@@ -6974,7 +7154,7 @@
         <v>33.475000000000001</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>107</v>
       </c>
@@ -6991,7 +7171,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>108</v>
       </c>
@@ -7011,7 +7191,7 @@
         <v>43476</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>109</v>
       </c>
@@ -7047,7 +7227,7 @@
         <v>38.375</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>110</v>
       </c>
@@ -7067,7 +7247,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>111</v>
       </c>
@@ -7084,7 +7264,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>112</v>
       </c>
@@ -7104,7 +7284,7 @@
         <v>43473</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>113</v>
       </c>
@@ -7121,7 +7301,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>114</v>
       </c>
@@ -7144,7 +7324,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
         <v>115</v>
       </c>
@@ -7160,8 +7340,11 @@
       <c r="E114" s="6">
         <v>43472</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="N114" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" s="5" t="s">
         <v>116</v>
       </c>
@@ -7181,7 +7364,7 @@
         <v>43493</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" s="5" t="s">
         <v>117</v>
       </c>
@@ -7198,7 +7381,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" s="5" t="s">
         <v>118</v>
       </c>
@@ -7218,7 +7401,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" s="5" t="s">
         <v>119</v>
       </c>
@@ -7235,7 +7418,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" s="5" t="s">
         <v>120</v>
       </c>
@@ -7258,7 +7441,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" s="5" t="s">
         <v>121</v>
       </c>
@@ -7275,7 +7458,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" s="5" t="s">
         <v>122</v>
       </c>
@@ -7295,7 +7478,7 @@
         <v>43497</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" s="5" t="s">
         <v>123</v>
       </c>
@@ -7312,7 +7495,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
         <v>124</v>
       </c>
@@ -7335,7 +7518,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
         <v>125</v>
       </c>
@@ -7352,7 +7535,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" s="5" t="s">
         <v>126</v>
       </c>
@@ -7372,7 +7555,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" s="5" t="s">
         <v>127</v>
       </c>
@@ -7389,7 +7572,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" s="5" t="s">
         <v>128</v>
       </c>
@@ -7409,7 +7592,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" s="5" t="s">
         <v>129</v>
       </c>
@@ -7426,7 +7609,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
         <v>130</v>
       </c>
@@ -7446,7 +7629,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" s="7" t="s">
         <v>131</v>
       </c>
@@ -7462,8 +7645,11 @@
       <c r="E130" s="11">
         <v>43486</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="N130" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" s="7" t="s">
         <v>132</v>
       </c>
@@ -7482,8 +7668,11 @@
       <c r="F131" s="10">
         <v>43504</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="N131" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" s="7" t="s">
         <v>133</v>
       </c>
@@ -7499,8 +7688,11 @@
       <c r="E132" s="11">
         <v>43486</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="N132" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" s="7" t="s">
         <v>134</v>
       </c>
@@ -7520,7 +7712,7 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" s="7" t="s">
         <v>135</v>
       </c>
@@ -7537,7 +7729,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" s="7" t="s">
         <v>136</v>
       </c>
@@ -7557,7 +7749,7 @@
         <v>43511</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" s="7" t="s">
         <v>137</v>
       </c>
@@ -7574,7 +7766,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" s="7" t="s">
         <v>138</v>
       </c>
@@ -7594,7 +7786,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" s="7" t="s">
         <v>139</v>
       </c>
@@ -7611,7 +7803,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" s="7" t="s">
         <v>140</v>
       </c>
@@ -7631,7 +7823,7 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" s="7" t="s">
         <v>141</v>
       </c>
@@ -7648,7 +7840,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" s="7" t="s">
         <v>142</v>
       </c>
@@ -7668,7 +7860,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" s="7" t="s">
         <v>143</v>
       </c>
@@ -7685,7 +7877,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" s="7" t="s">
         <v>144</v>
       </c>
@@ -7701,7 +7893,7 @@
         <v>43504</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" s="7" t="s">
         <v>145</v>
       </c>
@@ -7718,7 +7910,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" s="7" t="s">
         <v>146</v>
       </c>
@@ -7738,7 +7930,7 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
         <v>147</v>
       </c>
@@ -7754,8 +7946,11 @@
       <c r="E146" s="4">
         <v>43458</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="N146" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>148</v>
       </c>
@@ -7775,7 +7970,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
         <v>149</v>
       </c>
@@ -7792,7 +7987,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
         <v>150</v>
       </c>
@@ -7815,7 +8010,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
         <v>151</v>
       </c>
@@ -7832,7 +8027,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
         <v>152</v>
       </c>
@@ -7852,7 +8047,7 @@
         <v>43483</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
         <v>153</v>
       </c>
@@ -7869,7 +8064,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
         <v>154</v>
       </c>
@@ -7889,7 +8084,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
         <v>155</v>
       </c>
@@ -7906,7 +8101,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
         <v>156</v>
       </c>
@@ -7926,7 +8121,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
         <v>157</v>
       </c>
@@ -7943,7 +8138,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
         <v>158</v>
       </c>
@@ -7963,7 +8158,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
         <v>159</v>
       </c>
@@ -7980,7 +8175,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
         <v>160</v>
       </c>
@@ -8000,7 +8195,7 @@
         <v>43483</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
         <v>161</v>
       </c>
@@ -8017,7 +8212,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
         <v>162</v>
       </c>
@@ -8037,7 +8232,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162" s="5" t="s">
         <v>163</v>
       </c>
@@ -8053,8 +8248,11 @@
       <c r="E162" s="6">
         <v>43472</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="N162" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163" s="5" t="s">
         <v>164</v>
       </c>
@@ -8074,7 +8272,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164" s="5" t="s">
         <v>165</v>
       </c>
@@ -8091,7 +8289,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165" s="5" t="s">
         <v>166</v>
       </c>
@@ -8111,7 +8309,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166" s="5" t="s">
         <v>167</v>
       </c>
@@ -8128,7 +8326,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167" s="5" t="s">
         <v>168</v>
       </c>
@@ -8148,7 +8346,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168" s="5" t="s">
         <v>169</v>
       </c>
@@ -8165,7 +8363,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169" s="5" t="s">
         <v>170</v>
       </c>
@@ -8185,7 +8383,7 @@
         <v>43493</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170" s="5" t="s">
         <v>171</v>
       </c>
@@ -8202,7 +8400,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171" s="5" t="s">
         <v>172</v>
       </c>
@@ -8222,7 +8420,7 @@
         <v>43497</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172" s="5" t="s">
         <v>173</v>
       </c>
@@ -8239,7 +8437,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173" s="5" t="s">
         <v>174</v>
       </c>
@@ -8259,7 +8457,7 @@
         <v>43502</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174" s="5" t="s">
         <v>175</v>
       </c>
@@ -8276,7 +8474,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175" s="5" t="s">
         <v>176</v>
       </c>
@@ -8296,7 +8494,7 @@
         <v>43497</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176" s="5" t="s">
         <v>177</v>
       </c>
@@ -8313,7 +8511,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177" s="5" t="s">
         <v>178</v>
       </c>
@@ -8333,7 +8531,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178" s="7" t="s">
         <v>179</v>
       </c>
@@ -8349,8 +8547,11 @@
       <c r="E178" s="11">
         <v>43486</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="N178" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179" s="7" t="s">
         <v>180</v>
       </c>
@@ -8369,8 +8570,11 @@
       <c r="F179" s="10">
         <v>43507</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="N179" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180" s="7" t="s">
         <v>181</v>
       </c>
@@ -8387,7 +8591,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A181" s="7" t="s">
         <v>182</v>
       </c>
@@ -8407,7 +8611,7 @@
         <v>43509</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182" s="7" t="s">
         <v>183</v>
       </c>
@@ -8424,7 +8628,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A183" s="7" t="s">
         <v>184</v>
       </c>
@@ -8444,7 +8648,7 @@
         <v>43509</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A184" s="7" t="s">
         <v>185</v>
       </c>
@@ -8461,7 +8665,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A185" s="7" t="s">
         <v>186</v>
       </c>
@@ -8481,7 +8685,7 @@
         <v>43504</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A186" s="7" t="s">
         <v>187</v>
       </c>
@@ -8498,7 +8702,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A187" s="7" t="s">
         <v>188</v>
       </c>
@@ -8518,7 +8722,7 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A188" s="7" t="s">
         <v>189</v>
       </c>
@@ -8535,7 +8739,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A189" s="7" t="s">
         <v>190</v>
       </c>
@@ -8555,7 +8759,7 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A190" s="7" t="s">
         <v>191</v>
       </c>
@@ -8572,7 +8776,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A191" s="7" t="s">
         <v>192</v>
       </c>
@@ -8592,7 +8796,7 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A192" s="7" t="s">
         <v>193</v>
       </c>
@@ -8609,7 +8813,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A193" s="7" t="s">
         <v>194</v>
       </c>
@@ -8629,7 +8833,7 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
         <v>195</v>
       </c>
@@ -8664,8 +8868,11 @@
         <f>AVERAGE(I194:L194)</f>
         <v>33.75</v>
       </c>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N194" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
         <v>196</v>
       </c>
@@ -8685,7 +8892,7 @@
         <v>43479</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
         <v>197</v>
       </c>
@@ -8702,7 +8909,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
         <v>198</v>
       </c>
@@ -8722,7 +8929,7 @@
         <v>43493</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
         <v>199</v>
       </c>
@@ -8758,7 +8965,7 @@
         <v>34.375</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
         <v>200</v>
       </c>
@@ -8778,7 +8985,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
         <v>201</v>
       </c>
@@ -8795,7 +9002,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
         <v>202</v>
       </c>
@@ -8815,7 +9022,7 @@
         <v>43493</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
         <v>203</v>
       </c>
@@ -8832,7 +9039,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="203" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
         <v>204</v>
       </c>
@@ -8852,7 +9059,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="204" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
         <v>205</v>
       </c>
@@ -8869,7 +9076,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="205" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
         <v>206</v>
       </c>
@@ -8908,7 +9115,7 @@
         <v>32.799999999999997</v>
       </c>
     </row>
-    <row r="206" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
         <v>207</v>
       </c>
@@ -8944,7 +9151,7 @@
         <v>28.674999999999997</v>
       </c>
     </row>
-    <row r="207" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
         <v>208</v>
       </c>
@@ -8967,7 +9174,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
         <v>209</v>
       </c>
@@ -9003,7 +9210,7 @@
         <v>27.574999999999999</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
         <v>210</v>
       </c>
@@ -9023,7 +9230,7 @@
         <v>43473</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A210" s="5" t="s">
         <v>211</v>
       </c>
@@ -9039,8 +9246,11 @@
       <c r="E210" s="6">
         <v>43472</v>
       </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="N210" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A211" s="5" t="s">
         <v>212</v>
       </c>
@@ -9060,7 +9270,7 @@
         <v>43502</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A212" s="5" t="s">
         <v>213</v>
       </c>
@@ -9077,7 +9287,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A213" s="5" t="s">
         <v>214</v>
       </c>
@@ -9100,7 +9310,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A214" s="5" t="s">
         <v>215</v>
       </c>
@@ -9117,7 +9327,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A215" s="5" t="s">
         <v>216</v>
       </c>
@@ -9137,7 +9347,7 @@
         <v>43493</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A216" s="5" t="s">
         <v>217</v>
       </c>
@@ -9154,7 +9364,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A217" s="5" t="s">
         <v>218</v>
       </c>
@@ -9174,7 +9384,7 @@
         <v>43497</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A218" s="5" t="s">
         <v>219</v>
       </c>
@@ -9191,7 +9401,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A219" s="5" t="s">
         <v>220</v>
       </c>
@@ -9211,7 +9421,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A220" s="5" t="s">
         <v>221</v>
       </c>
@@ -9228,7 +9438,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A221" s="5" t="s">
         <v>222</v>
       </c>
@@ -9248,7 +9458,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A222" s="5" t="s">
         <v>223</v>
       </c>
@@ -9265,7 +9475,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A223" s="5" t="s">
         <v>224</v>
       </c>
@@ -9285,7 +9495,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A224" s="5" t="s">
         <v>225</v>
       </c>
@@ -9302,7 +9512,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A225" s="5" t="s">
         <v>226</v>
       </c>
@@ -9322,7 +9532,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A226" s="7" t="s">
         <v>227</v>
       </c>
@@ -9338,8 +9548,11 @@
       <c r="E226" s="11">
         <v>43486</v>
       </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="N226" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A227" s="7" t="s">
         <v>228</v>
       </c>
@@ -9358,8 +9571,11 @@
       <c r="F227" s="10">
         <v>43504</v>
       </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="N227" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A228" s="7" t="s">
         <v>229</v>
       </c>
@@ -9376,7 +9592,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A229" s="7" t="s">
         <v>230</v>
       </c>
@@ -9396,7 +9612,7 @@
         <v>43511</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A230" s="7" t="s">
         <v>231</v>
       </c>
@@ -9413,7 +9629,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A231" s="7" t="s">
         <v>232</v>
       </c>
@@ -9433,7 +9649,7 @@
         <v>43502</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A232" s="7" t="s">
         <v>233</v>
       </c>
@@ -9450,7 +9666,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A233" s="7" t="s">
         <v>234</v>
       </c>
@@ -9470,7 +9686,7 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A234" s="7" t="s">
         <v>235</v>
       </c>
@@ -9487,7 +9703,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A235" s="7" t="s">
         <v>236</v>
       </c>
@@ -9507,7 +9723,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A236" s="7" t="s">
         <v>237</v>
       </c>
@@ -9524,7 +9740,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A237" s="7" t="s">
         <v>238</v>
       </c>
@@ -9547,7 +9763,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A238" s="7" t="s">
         <v>239</v>
       </c>
@@ -9564,7 +9780,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A239" s="7" t="s">
         <v>240</v>
       </c>
@@ -9584,7 +9800,7 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A240" s="7" t="s">
         <v>241</v>
       </c>
@@ -9601,7 +9817,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A241" s="7" t="s">
         <v>242</v>
       </c>
@@ -9624,7 +9840,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A242" s="3" t="s">
         <v>243</v>
       </c>
@@ -9634,8 +9850,11 @@
       <c r="E242" s="4">
         <v>43458</v>
       </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="N242" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A243" s="3" t="s">
         <v>244</v>
       </c>
@@ -9651,7 +9870,7 @@
         <v>43528</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A244" s="3" t="s">
         <v>245</v>
       </c>
@@ -9664,7 +9883,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A245" s="3" t="s">
         <v>246</v>
       </c>
@@ -9680,7 +9899,7 @@
         <v>43528</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A246" s="3" t="s">
         <v>247</v>
       </c>
@@ -9691,7 +9910,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A247" s="3" t="s">
         <v>248</v>
       </c>
@@ -9703,7 +9922,7 @@
       </c>
       <c r="F247" s="10"/>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A248" s="3" t="s">
         <v>249</v>
       </c>
@@ -9714,7 +9933,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="s">
         <v>250</v>
       </c>
@@ -9726,7 +9945,7 @@
       </c>
       <c r="F249" s="10"/>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A250" s="3" t="s">
         <v>251</v>
       </c>
@@ -9737,7 +9956,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A251" s="3" t="s">
         <v>252</v>
       </c>
@@ -9751,7 +9970,7 @@
       </c>
       <c r="F251" s="10"/>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A252" s="3" t="s">
         <v>253</v>
       </c>
@@ -9762,7 +9981,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A253" s="3" t="s">
         <v>254</v>
       </c>
@@ -9774,7 +9993,7 @@
       </c>
       <c r="F253" s="10"/>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A254" s="3" t="s">
         <v>255</v>
       </c>
@@ -9785,7 +10004,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A255" s="3" t="s">
         <v>256</v>
       </c>
@@ -9797,7 +10016,7 @@
       </c>
       <c r="F255" s="10"/>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
         <v>257</v>
       </c>
@@ -9808,7 +10027,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A257" s="3" t="s">
         <v>258</v>
       </c>
@@ -9820,7 +10039,7 @@
       </c>
       <c r="F257" s="10"/>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A258" s="5" t="s">
         <v>259</v>
       </c>
@@ -9830,8 +10049,11 @@
       <c r="E258" s="6">
         <v>43472</v>
       </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="N258" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A259" s="5" t="s">
         <v>260</v>
       </c>
@@ -9843,7 +10065,7 @@
       </c>
       <c r="F259" s="10"/>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A260" s="5" t="s">
         <v>261</v>
       </c>
@@ -9854,7 +10076,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A261" s="5" t="s">
         <v>262</v>
       </c>
@@ -9866,7 +10088,7 @@
       </c>
       <c r="F261" s="10"/>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A262" s="5" t="s">
         <v>263</v>
       </c>
@@ -9877,7 +10099,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A263" s="5" t="s">
         <v>264</v>
       </c>
@@ -9889,7 +10111,7 @@
       </c>
       <c r="F263" s="10"/>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A264" s="5" t="s">
         <v>265</v>
       </c>
@@ -9900,7 +10122,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A265" s="5" t="s">
         <v>266</v>
       </c>
@@ -9912,7 +10134,7 @@
       </c>
       <c r="F265" s="10"/>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A266" s="5" t="s">
         <v>267</v>
       </c>
@@ -9923,7 +10145,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A267" s="5" t="s">
         <v>268</v>
       </c>
@@ -9935,7 +10157,7 @@
       </c>
       <c r="F267" s="10"/>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A268" s="5" t="s">
         <v>269</v>
       </c>
@@ -9946,7 +10168,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A269" s="5" t="s">
         <v>270</v>
       </c>
@@ -9958,7 +10180,7 @@
       </c>
       <c r="F269" s="10"/>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A270" s="5" t="s">
         <v>271</v>
       </c>
@@ -9971,7 +10193,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A271" s="5" t="s">
         <v>272</v>
       </c>
@@ -9983,7 +10205,7 @@
       </c>
       <c r="F271" s="10"/>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A272" s="5" t="s">
         <v>273</v>
       </c>
@@ -9994,7 +10216,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A273" s="5" t="s">
         <v>274</v>
       </c>
@@ -10006,7 +10228,7 @@
       </c>
       <c r="F273" s="10"/>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A274" s="7" t="s">
         <v>275</v>
       </c>
@@ -10016,8 +10238,11 @@
       <c r="E274" s="11">
         <v>43486</v>
       </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="N274" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="275" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A275" s="7" t="s">
         <v>276</v>
       </c>
@@ -10029,7 +10254,7 @@
       </c>
       <c r="F275" s="10"/>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A276" s="7" t="s">
         <v>277</v>
       </c>
@@ -10040,7 +10265,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A277" s="7" t="s">
         <v>278</v>
       </c>
@@ -10052,7 +10277,7 @@
       </c>
       <c r="F277" s="10"/>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A278" s="7" t="s">
         <v>279</v>
       </c>
@@ -10063,7 +10288,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A279" s="7" t="s">
         <v>280</v>
       </c>
@@ -10075,7 +10300,7 @@
       </c>
       <c r="F279" s="10"/>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A280" s="7" t="s">
         <v>281</v>
       </c>
@@ -10086,7 +10311,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A281" s="7" t="s">
         <v>282</v>
       </c>
@@ -10098,7 +10323,7 @@
       </c>
       <c r="F281" s="10"/>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A282" s="7" t="s">
         <v>283</v>
       </c>
@@ -10109,7 +10334,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A283" s="7" t="s">
         <v>284</v>
       </c>
@@ -10121,7 +10346,7 @@
       </c>
       <c r="F283" s="10"/>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A284" s="7" t="s">
         <v>285</v>
       </c>
@@ -10132,7 +10357,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A285" s="7" t="s">
         <v>286</v>
       </c>
@@ -10144,7 +10369,7 @@
       </c>
       <c r="F285" s="10"/>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A286" s="7" t="s">
         <v>287</v>
       </c>
@@ -10155,7 +10380,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A287" s="7" t="s">
         <v>288</v>
       </c>
@@ -10167,7 +10392,7 @@
       </c>
       <c r="F287" s="10"/>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A288" s="7" t="s">
         <v>289</v>
       </c>
@@ -10178,7 +10403,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A289" s="7" t="s">
         <v>290</v>
       </c>
@@ -10190,7 +10415,7 @@
       </c>
       <c r="F289" s="10"/>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A290" s="3" t="s">
         <v>291</v>
       </c>
@@ -10200,8 +10425,11 @@
       <c r="E290" s="4">
         <v>43458</v>
       </c>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="N290" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="291" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A291" s="3" t="s">
         <v>292</v>
       </c>
@@ -10212,8 +10440,11 @@
         <v>43458</v>
       </c>
       <c r="F291" s="10"/>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="N291" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="292" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A292" s="3" t="s">
         <v>293</v>
       </c>
@@ -10223,8 +10454,11 @@
       <c r="E292" s="4">
         <v>43458</v>
       </c>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="N292" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="293" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A293" s="3" t="s">
         <v>294</v>
       </c>
@@ -10235,8 +10469,11 @@
         <v>43458</v>
       </c>
       <c r="F293" s="10"/>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="N293" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="294" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A294" s="3" t="s">
         <v>295</v>
       </c>
@@ -10247,7 +10484,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A295" s="3" t="s">
         <v>296</v>
       </c>
@@ -10259,7 +10496,7 @@
       </c>
       <c r="F295" s="10"/>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A296" s="3" t="s">
         <v>297</v>
       </c>
@@ -10272,7 +10509,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A297" s="3" t="s">
         <v>298</v>
       </c>
@@ -10284,7 +10521,7 @@
       </c>
       <c r="F297" s="10"/>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A298" s="3" t="s">
         <v>299</v>
       </c>
@@ -10295,7 +10532,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A299" s="3" t="s">
         <v>300</v>
       </c>
@@ -10311,7 +10548,7 @@
         <v>43509</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A300" s="3" t="s">
         <v>301</v>
       </c>
@@ -10328,7 +10565,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A301" s="3" t="s">
         <v>302</v>
       </c>
@@ -10344,7 +10581,7 @@
         <v>43515</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A302" s="3" t="s">
         <v>303</v>
       </c>
@@ -10355,7 +10592,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A303" s="3" t="s">
         <v>304</v>
       </c>
@@ -10371,7 +10608,7 @@
         <v>43509</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A304" s="3" t="s">
         <v>305</v>
       </c>
@@ -10388,7 +10625,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A305" s="3" t="s">
         <v>306</v>
       </c>
@@ -10400,7 +10637,7 @@
       </c>
       <c r="F305" s="10"/>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A306" s="5" t="s">
         <v>307</v>
       </c>
@@ -10410,8 +10647,11 @@
       <c r="E306" s="6">
         <v>43472</v>
       </c>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="N306" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="307" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A307" s="5" t="s">
         <v>308</v>
       </c>
@@ -10423,7 +10663,7 @@
       </c>
       <c r="F307" s="10"/>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A308" s="5" t="s">
         <v>309</v>
       </c>
@@ -10434,7 +10674,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A309" s="5" t="s">
         <v>310</v>
       </c>
@@ -10446,7 +10686,7 @@
       </c>
       <c r="F309" s="10"/>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A310" s="5" t="s">
         <v>311</v>
       </c>
@@ -10457,7 +10697,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A311" s="5" t="s">
         <v>312</v>
       </c>
@@ -10469,7 +10709,7 @@
       </c>
       <c r="F311" s="10"/>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A312" s="5" t="s">
         <v>313</v>
       </c>
@@ -10480,7 +10720,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A313" s="5" t="s">
         <v>314</v>
       </c>
@@ -10492,7 +10732,7 @@
       </c>
       <c r="F313" s="10"/>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A314" s="5" t="s">
         <v>315</v>
       </c>
@@ -10503,7 +10743,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A315" s="5" t="s">
         <v>316</v>
       </c>
@@ -10515,7 +10755,7 @@
       </c>
       <c r="F315" s="10"/>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A316" s="5" t="s">
         <v>317</v>
       </c>
@@ -10526,7 +10766,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A317" s="5" t="s">
         <v>318</v>
       </c>
@@ -10538,7 +10778,7 @@
       </c>
       <c r="F317" s="10"/>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A318" s="5" t="s">
         <v>319</v>
       </c>
@@ -10549,7 +10789,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A319" s="5" t="s">
         <v>320</v>
       </c>
@@ -10561,7 +10801,7 @@
       </c>
       <c r="F319" s="10"/>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A320" s="5" t="s">
         <v>321</v>
       </c>
@@ -10572,7 +10812,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A321" s="5" t="s">
         <v>322</v>
       </c>
@@ -10584,7 +10824,7 @@
       </c>
       <c r="F321" s="10"/>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A322" s="7" t="s">
         <v>323</v>
       </c>
@@ -10594,8 +10834,11 @@
       <c r="E322" s="11">
         <v>43486</v>
       </c>
-    </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="N322" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="323" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A323" s="7" t="s">
         <v>324</v>
       </c>
@@ -10607,7 +10850,7 @@
       </c>
       <c r="F323" s="10"/>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A324" s="7" t="s">
         <v>325</v>
       </c>
@@ -10618,7 +10861,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A325" s="7" t="s">
         <v>326</v>
       </c>
@@ -10634,7 +10877,7 @@
         <v>43528</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A326" s="7" t="s">
         <v>327</v>
       </c>
@@ -10645,7 +10888,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A327" s="7" t="s">
         <v>328</v>
       </c>
@@ -10657,7 +10900,7 @@
       </c>
       <c r="F327" s="10"/>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A328" s="7" t="s">
         <v>329</v>
       </c>
@@ -10668,7 +10911,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A329" s="7" t="s">
         <v>330</v>
       </c>
@@ -10680,7 +10923,7 @@
       </c>
       <c r="F329" s="10"/>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A330" s="7" t="s">
         <v>331</v>
       </c>
@@ -10691,7 +10934,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A331" s="7" t="s">
         <v>332</v>
       </c>
@@ -10703,7 +10946,7 @@
       </c>
       <c r="F331" s="10"/>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A332" s="7" t="s">
         <v>333</v>
       </c>
@@ -10714,7 +10957,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A333" s="7" t="s">
         <v>334</v>
       </c>
@@ -10726,7 +10969,7 @@
       </c>
       <c r="F333" s="10"/>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A334" s="7" t="s">
         <v>335</v>
       </c>
@@ -10737,7 +10980,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A335" s="7" t="s">
         <v>336</v>
       </c>
@@ -10753,7 +10996,7 @@
         <v>43528</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A336" s="7" t="s">
         <v>337</v>
       </c>
@@ -10764,7 +11007,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A337" s="7" t="s">
         <v>338</v>
       </c>
@@ -10776,7 +11019,7 @@
       </c>
       <c r="F337" s="10"/>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A338" s="3" t="s">
         <v>339</v>
       </c>
@@ -10811,8 +11054,11 @@
         <f>AVERAGE(I338:L338)</f>
         <v>42.125</v>
       </c>
-    </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N338" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="339" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A339" s="3" t="s">
         <v>340</v>
       </c>
@@ -10851,7 +11097,7 @@
         <v>42.3</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A340" s="3" t="s">
         <v>341</v>
       </c>
@@ -10887,7 +11133,7 @@
         <v>48.449999999999996</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A341" s="3" t="s">
         <v>342</v>
       </c>
@@ -10926,7 +11172,7 @@
         <v>45.824999999999996</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A342" s="3" t="s">
         <v>343</v>
       </c>
@@ -10962,7 +11208,7 @@
         <v>45.05</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A343" s="3" t="s">
         <v>344</v>
       </c>
@@ -11001,7 +11247,7 @@
         <v>40.825000000000003</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A344" s="3" t="s">
         <v>345</v>
       </c>
@@ -11037,7 +11283,7 @@
         <v>37.875</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A345" s="3" t="s">
         <v>346</v>
       </c>
@@ -11076,7 +11322,7 @@
         <v>37.650000000000006</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A346" s="3" t="s">
         <v>347</v>
       </c>
@@ -11112,7 +11358,7 @@
         <v>44.024999999999999</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A347" s="3" t="s">
         <v>348</v>
       </c>
@@ -11151,7 +11397,7 @@
         <v>44.024999999999999</v>
       </c>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A348" s="3" t="s">
         <v>349</v>
       </c>
@@ -11187,7 +11433,7 @@
         <v>42.05</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A349" s="3" t="s">
         <v>350</v>
       </c>
@@ -11226,7 +11472,7 @@
         <v>39.950000000000003</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A350" s="3" t="s">
         <v>351</v>
       </c>
@@ -11262,7 +11508,7 @@
         <v>47.775000000000006</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A351" s="3" t="s">
         <v>352</v>
       </c>
@@ -11304,7 +11550,7 @@
         <v>45.275000000000006</v>
       </c>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A352" s="3" t="s">
         <v>353</v>
       </c>
@@ -11340,7 +11586,7 @@
         <v>47.625</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A353" s="3" t="s">
         <v>354</v>
       </c>
@@ -11360,7 +11606,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A354" s="5" t="s">
         <v>355</v>
       </c>
@@ -11376,8 +11622,11 @@
       <c r="E354" s="6">
         <v>43472</v>
       </c>
-    </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="N354" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="355" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A355" s="5" t="s">
         <v>356</v>
       </c>
@@ -11397,7 +11646,7 @@
         <v>43493</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A356" s="5" t="s">
         <v>357</v>
       </c>
@@ -11414,7 +11663,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A357" s="5" t="s">
         <v>358</v>
       </c>
@@ -11434,7 +11683,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A358" s="5" t="s">
         <v>359</v>
       </c>
@@ -11451,7 +11700,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A359" s="5" t="s">
         <v>360</v>
       </c>
@@ -11471,7 +11720,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A360" s="5" t="s">
         <v>361</v>
       </c>
@@ -11488,7 +11737,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A361" s="5" t="s">
         <v>362</v>
       </c>
@@ -11508,7 +11757,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A362" s="5" t="s">
         <v>363</v>
       </c>
@@ -11525,7 +11774,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A363" s="5" t="s">
         <v>364</v>
       </c>
@@ -11545,7 +11794,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A364" s="5" t="s">
         <v>365</v>
       </c>
@@ -11562,7 +11811,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A365" s="5" t="s">
         <v>366</v>
       </c>
@@ -11582,7 +11831,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A366" s="5" t="s">
         <v>367</v>
       </c>
@@ -11599,7 +11848,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A367" s="5" t="s">
         <v>368</v>
       </c>
@@ -11619,7 +11868,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A368" s="5" t="s">
         <v>369</v>
       </c>
@@ -11636,7 +11885,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A369" s="5" t="s">
         <v>370</v>
       </c>
@@ -11659,7 +11908,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A370" s="7" t="s">
         <v>371</v>
       </c>
@@ -11675,8 +11924,11 @@
       <c r="E370" s="11">
         <v>43486</v>
       </c>
-    </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="N370" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="371" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A371" s="7" t="s">
         <v>372</v>
       </c>
@@ -11696,7 +11948,7 @@
         <v>43502</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A372" s="7" t="s">
         <v>373</v>
       </c>
@@ -11713,7 +11965,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A373" s="7" t="s">
         <v>374</v>
       </c>
@@ -11733,7 +11985,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A374" s="7" t="s">
         <v>375</v>
       </c>
@@ -11750,7 +12002,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A375" s="7" t="s">
         <v>376</v>
       </c>
@@ -11770,7 +12022,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A376" s="7" t="s">
         <v>377</v>
       </c>
@@ -11787,7 +12039,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A377" s="7" t="s">
         <v>378</v>
       </c>
@@ -11807,7 +12059,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A378" s="7" t="s">
         <v>379</v>
       </c>
@@ -11824,7 +12076,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A379" s="7" t="s">
         <v>380</v>
       </c>
@@ -11844,7 +12096,7 @@
         <v>43502</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A380" s="7" t="s">
         <v>381</v>
       </c>
@@ -11861,7 +12113,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A381" s="7" t="s">
         <v>382</v>
       </c>
@@ -11881,7 +12133,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A382" s="7" t="s">
         <v>383</v>
       </c>
@@ -11898,7 +12150,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A383" s="7" t="s">
         <v>384</v>
       </c>
@@ -11921,7 +12173,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A384" s="7" t="s">
         <v>385</v>
       </c>
@@ -11938,7 +12190,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="385" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A385" s="20" t="s">
         <v>386</v>
       </c>
@@ -11951,7 +12203,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A386" s="3" t="s">
         <v>387</v>
       </c>
@@ -11967,8 +12219,11 @@
       <c r="E386" s="4">
         <v>43458</v>
       </c>
-    </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="N386" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="387" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A387" s="3" t="s">
         <v>388</v>
       </c>
@@ -11987,8 +12242,11 @@
       <c r="F387" s="10">
         <v>43507</v>
       </c>
-    </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="N387" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="388" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A388" s="3" t="s">
         <v>389</v>
       </c>
@@ -12000,8 +12258,11 @@
       <c r="E388" s="4">
         <v>43458</v>
       </c>
-    </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="N388" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="389" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A389" s="3" t="s">
         <v>390</v>
       </c>
@@ -12020,8 +12281,11 @@
       <c r="F389" s="10">
         <v>43493</v>
       </c>
-    </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="N389" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="390" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A390" s="3" t="s">
         <v>391</v>
       </c>
@@ -12037,8 +12301,11 @@
       <c r="E390" s="4">
         <v>43458</v>
       </c>
-    </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="N390" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="391" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A391" s="3" t="s">
         <v>392</v>
       </c>
@@ -12058,7 +12325,7 @@
         <v>43515</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A392" s="3" t="s">
         <v>393</v>
       </c>
@@ -12075,7 +12342,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A393" s="3" t="s">
         <v>394</v>
       </c>
@@ -12095,7 +12362,7 @@
         <v>43493</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A394" s="3" t="s">
         <v>395</v>
       </c>
@@ -12112,7 +12379,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A395" s="3" t="s">
         <v>396</v>
       </c>
@@ -12132,7 +12399,7 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A396" s="3" t="s">
         <v>397</v>
       </c>
@@ -12149,7 +12416,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A397" s="3" t="s">
         <v>398</v>
       </c>
@@ -12169,7 +12436,7 @@
         <v>43504</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A398" s="3" t="s">
         <v>399</v>
       </c>
@@ -12186,7 +12453,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A399" s="3" t="s">
         <v>400</v>
       </c>
@@ -12209,7 +12476,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A400" s="3" t="s">
         <v>401</v>
       </c>
@@ -12226,7 +12493,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A401" s="3" t="s">
         <v>402</v>
       </c>
@@ -12246,7 +12513,7 @@
         <v>43493</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A402" s="5" t="s">
         <v>403</v>
       </c>
@@ -12262,8 +12529,11 @@
       <c r="E402" s="6">
         <v>43472</v>
       </c>
-    </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="N402" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="403" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A403" s="5" t="s">
         <v>404</v>
       </c>
@@ -12282,8 +12552,11 @@
       <c r="F403" s="10">
         <v>43515</v>
       </c>
-    </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="N403" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="404" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A404" s="5" t="s">
         <v>405</v>
       </c>
@@ -12299,8 +12572,11 @@
       <c r="E404" s="6">
         <v>43472</v>
       </c>
-    </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="N404" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="405" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A405" s="5" t="s">
         <v>406</v>
       </c>
@@ -12319,8 +12595,11 @@
       <c r="F405" s="10">
         <v>43507</v>
       </c>
-    </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="N405" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="406" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A406" s="5" t="s">
         <v>407</v>
       </c>
@@ -12337,7 +12616,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A407" s="5" t="s">
         <v>408</v>
       </c>
@@ -12357,7 +12636,7 @@
         <v>43518</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A408" s="5" t="s">
         <v>409</v>
       </c>
@@ -12374,7 +12653,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A409" s="5" t="s">
         <v>410</v>
       </c>
@@ -12394,7 +12673,7 @@
         <v>43511</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A410" s="5" t="s">
         <v>411</v>
       </c>
@@ -12411,7 +12690,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A411" s="5" t="s">
         <v>412</v>
       </c>
@@ -12431,7 +12710,7 @@
         <v>43502</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A412" s="5" t="s">
         <v>413</v>
       </c>
@@ -12448,7 +12727,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A413" s="5" t="s">
         <v>414</v>
       </c>
@@ -12468,7 +12747,7 @@
         <v>43515</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A414" s="5" t="s">
         <v>415</v>
       </c>
@@ -12485,7 +12764,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A415" s="5" t="s">
         <v>416</v>
       </c>
@@ -12505,7 +12784,7 @@
         <v>43511</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A416" s="5" t="s">
         <v>417</v>
       </c>
@@ -12522,7 +12801,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A417" s="5" t="s">
         <v>418</v>
       </c>
@@ -12542,7 +12821,7 @@
         <v>43509</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A418" s="7" t="s">
         <v>419</v>
       </c>
@@ -12554,8 +12833,11 @@
       <c r="E418" s="11">
         <v>43486</v>
       </c>
-    </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="N418" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="419" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A419" s="7" t="s">
         <v>420</v>
       </c>
@@ -12570,8 +12852,11 @@
       <c r="F419" s="10">
         <v>43528</v>
       </c>
-    </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="N419" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="420" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A420" s="7" t="s">
         <v>421</v>
       </c>
@@ -12583,8 +12868,11 @@
       <c r="E420" s="11">
         <v>43486</v>
       </c>
-    </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="N420" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="421" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A421" s="7" t="s">
         <v>422</v>
       </c>
@@ -12604,7 +12892,7 @@
         <v>43518</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A422" s="7" t="s">
         <v>423</v>
       </c>
@@ -12617,7 +12905,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A423" s="7" t="s">
         <v>424</v>
       </c>
@@ -12633,7 +12921,7 @@
         <v>43518</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A424" s="7" t="s">
         <v>425</v>
       </c>
@@ -12650,7 +12938,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A425" s="7" t="s">
         <v>426</v>
       </c>
@@ -12666,7 +12954,7 @@
         <v>43521</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A426" s="7" t="s">
         <v>427</v>
       </c>
@@ -12679,7 +12967,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A427" s="7" t="s">
         <v>428</v>
       </c>
@@ -12695,7 +12983,7 @@
         <v>43528</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A428" s="7" t="s">
         <v>429</v>
       </c>
@@ -12712,7 +13000,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A429" s="7" t="s">
         <v>430</v>
       </c>
@@ -12728,7 +13016,7 @@
         <v>43518</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A430" s="7" t="s">
         <v>431</v>
       </c>
@@ -12741,7 +13029,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A431" s="7" t="s">
         <v>432</v>
       </c>
@@ -12755,7 +13043,7 @@
       </c>
       <c r="F431" s="10"/>
     </row>
-    <row r="432" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A432" s="7" t="s">
         <v>433</v>
       </c>
@@ -12773,7 +13061,7 @@
       </c>
       <c r="F432" s="8"/>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A433" s="7" t="s">
         <v>434</v>
       </c>
@@ -12789,7 +13077,7 @@
         <v>43521</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A434" s="3" t="s">
         <v>435</v>
       </c>
@@ -12805,8 +13093,11 @@
       <c r="E434" s="4">
         <v>43458</v>
       </c>
-    </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="N434" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="435" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A435" s="3" t="s">
         <v>436</v>
       </c>
@@ -12825,8 +13116,11 @@
       <c r="F435" s="10">
         <v>43497</v>
       </c>
-    </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="N435" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="436" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A436" s="3" t="s">
         <v>437</v>
       </c>
@@ -12842,8 +13136,11 @@
       <c r="E436" s="4">
         <v>43458</v>
       </c>
-    </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="N436" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="437" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A437" s="3" t="s">
         <v>438</v>
       </c>
@@ -12862,8 +13159,11 @@
       <c r="F437" s="10">
         <v>43502</v>
       </c>
-    </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="N437" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="438" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A438" s="3" t="s">
         <v>439</v>
       </c>
@@ -12880,7 +13180,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A439" s="3" t="s">
         <v>440</v>
       </c>
@@ -12898,7 +13198,7 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A440" s="3" t="s">
         <v>441</v>
       </c>
@@ -12915,7 +13215,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A441" s="3" t="s">
         <v>442</v>
       </c>
@@ -12927,7 +13227,7 @@
       </c>
       <c r="F441" s="10"/>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A442" s="3" t="s">
         <v>443</v>
       </c>
@@ -12944,7 +13244,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A443" s="3" t="s">
         <v>444</v>
       </c>
@@ -12967,7 +13267,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A444" s="3" t="s">
         <v>445</v>
       </c>
@@ -12984,7 +13284,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A445" s="3" t="s">
         <v>446</v>
       </c>
@@ -13004,7 +13304,7 @@
         <v>43497</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A446" s="3" t="s">
         <v>447</v>
       </c>
@@ -13021,7 +13321,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A447" s="3" t="s">
         <v>448</v>
       </c>
@@ -13041,7 +13341,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A448" s="3" t="s">
         <v>449</v>
       </c>
@@ -13058,7 +13358,7 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A449" s="3" t="s">
         <v>450</v>
       </c>
@@ -13074,7 +13374,7 @@
         <v>43523</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A450" s="5" t="s">
         <v>451</v>
       </c>
@@ -13090,8 +13390,11 @@
       <c r="E450" s="6">
         <v>43472</v>
       </c>
-    </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="N450" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="451" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A451" s="5" t="s">
         <v>452</v>
       </c>
@@ -13110,8 +13413,11 @@
       <c r="F451" s="10">
         <v>43507</v>
       </c>
-    </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="N451" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="452" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A452" s="5" t="s">
         <v>453</v>
       </c>
@@ -13127,8 +13433,11 @@
       <c r="E452" s="6">
         <v>43472</v>
       </c>
-    </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="N452" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="453" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A453" s="5" t="s">
         <v>454</v>
       </c>
@@ -13148,7 +13457,7 @@
         <v>43509</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A454" s="5" t="s">
         <v>455</v>
       </c>
@@ -13165,7 +13474,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A455" s="5" t="s">
         <v>456</v>
       </c>
@@ -13185,7 +13494,7 @@
         <v>43509</v>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A456" s="5" t="s">
         <v>457</v>
       </c>
@@ -13202,7 +13511,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A457" s="5" t="s">
         <v>458</v>
       </c>
@@ -13223,7 +13532,7 @@
       </c>
       <c r="G457" s="1"/>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A458" s="5" t="s">
         <v>459</v>
       </c>
@@ -13240,7 +13549,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A459" s="5" t="s">
         <v>460</v>
       </c>
@@ -13260,7 +13569,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A460" s="5" t="s">
         <v>461</v>
       </c>
@@ -13277,7 +13586,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A461" s="5" t="s">
         <v>462</v>
       </c>
@@ -13297,7 +13606,7 @@
         <v>43509</v>
       </c>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A462" s="5" t="s">
         <v>463</v>
       </c>
@@ -13314,7 +13623,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A463" s="5" t="s">
         <v>464</v>
       </c>
@@ -13334,7 +13643,7 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A464" s="5" t="s">
         <v>465</v>
       </c>
@@ -13351,7 +13660,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A465" s="5" t="s">
         <v>466</v>
       </c>
@@ -13371,7 +13680,7 @@
         <v>43515</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A466" s="7" t="s">
         <v>467</v>
       </c>
@@ -13387,8 +13696,11 @@
       <c r="E466" s="11">
         <v>43486</v>
       </c>
-    </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="N466" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="467" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A467" s="7" t="s">
         <v>468</v>
       </c>
@@ -13407,8 +13719,11 @@
       <c r="F467" s="10">
         <v>43507</v>
       </c>
-    </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="N467" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="468" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A468" s="7" t="s">
         <v>469</v>
       </c>
@@ -13424,8 +13739,11 @@
       <c r="E468" s="11">
         <v>43486</v>
       </c>
-    </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="N468" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="469" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A469" s="7" t="s">
         <v>470</v>
       </c>
@@ -13441,7 +13759,7 @@
         <v>43518</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A470" s="7" t="s">
         <v>471</v>
       </c>
@@ -13458,7 +13776,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A471" s="7" t="s">
         <v>472</v>
       </c>
@@ -13474,7 +13792,7 @@
         <v>43518</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A472" s="7" t="s">
         <v>473</v>
       </c>
@@ -13487,7 +13805,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A473" s="7" t="s">
         <v>474</v>
       </c>
@@ -13507,7 +13825,7 @@
         <v>43515</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A474" s="7" t="s">
         <v>475</v>
       </c>
@@ -13524,7 +13842,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A475" s="7" t="s">
         <v>476</v>
       </c>
@@ -13544,7 +13862,7 @@
         <v>43518</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A476" s="7" t="s">
         <v>477</v>
       </c>
@@ -13561,7 +13879,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A477" s="7" t="s">
         <v>478</v>
       </c>
@@ -13581,7 +13899,7 @@
         <v>43518</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A478" s="7" t="s">
         <v>479</v>
       </c>
@@ -13598,7 +13916,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A479" s="7" t="s">
         <v>480</v>
       </c>
@@ -13618,7 +13936,7 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A480" s="7" t="s">
         <v>481</v>
       </c>

--- a/data/observation_datasheet.xlsx
+++ b/data/observation_datasheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28125"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="0" windowWidth="24580" windowHeight="13200" activeTab="2"/>
+    <workbookView xWindow="1000" yWindow="0" windowWidth="17940" windowHeight="13100" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="observation_datasheet" sheetId="1" r:id="rId1"/>
@@ -2826,7 +2826,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Atlas" id="{5156B0E4-0EB1-49FE-A26B-15F6F698AEC6}" vid="{508F7963-D0B5-43F7-BB2C-FCE3009C08EC}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Atlas" id="{5156B0E4-0EB1-49FE-A26B-15F6F698AEC6}" vid="{508F7963-D0B5-43F7-BB2C-FCE3009C08EC}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -18092,10 +18092,10 @@
   <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -18158,7 +18158,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G2" s="33" t="s">
         <v>561</v>
@@ -18187,7 +18187,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="36">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G3" s="36" t="s">
         <v>561</v>
@@ -18216,7 +18216,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="38">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G4" s="38" t="s">
         <v>561</v>
@@ -18245,7 +18245,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G5" s="41">
         <v>7</v>
@@ -18274,7 +18274,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="41">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G6" s="41">
         <v>0</v>
@@ -18303,7 +18303,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="43">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G7" s="43">
         <v>0</v>
@@ -18332,7 +18332,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G8" s="33" t="s">
         <v>561</v>
@@ -18361,7 +18361,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="36">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G9" s="36" t="s">
         <v>561</v>
@@ -18390,7 +18390,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="38">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G10" s="38" t="s">
         <v>561</v>
@@ -18419,7 +18419,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G11" s="41">
         <v>7</v>
@@ -18448,7 +18448,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="41">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G12" s="41">
         <v>7</v>
@@ -18477,7 +18477,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="43">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G13" s="43">
         <v>3</v>
@@ -18506,7 +18506,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G14" s="33" t="s">
         <v>561</v>
@@ -18535,7 +18535,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="36">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G15" s="36" t="s">
         <v>561</v>
@@ -18564,7 +18564,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="38">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G16" s="38" t="s">
         <v>561</v>
@@ -18593,7 +18593,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G17" s="41">
         <v>8</v>
@@ -18622,7 +18622,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="41">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G18" s="41">
         <v>8</v>
@@ -18651,7 +18651,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="43">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G19" s="43">
         <v>8</v>
@@ -18680,7 +18680,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G20" s="33" t="s">
         <v>561</v>
@@ -18709,7 +18709,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="36">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G21" s="36" t="s">
         <v>561</v>
@@ -18738,7 +18738,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="38">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G22" s="38" t="s">
         <v>561</v>
@@ -18767,7 +18767,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G23" s="41">
         <v>8</v>
@@ -18796,7 +18796,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="41">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G24" s="41">
         <v>8</v>
@@ -18825,7 +18825,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="43">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G25" s="43">
         <v>8</v>
@@ -18854,7 +18854,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G26" s="33" t="s">
         <v>561</v>
@@ -18883,7 +18883,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="36">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G27" s="36" t="s">
         <v>561</v>
@@ -18912,7 +18912,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="38">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G28" s="38" t="s">
         <v>561</v>
@@ -18941,7 +18941,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G29" s="41">
         <v>8</v>
@@ -18970,7 +18970,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="41">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G30" s="41">
         <v>8</v>
@@ -18999,7 +18999,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="43">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G31" s="43">
         <v>8</v>
@@ -19028,7 +19028,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G32" s="33" t="s">
         <v>561</v>
@@ -19057,7 +19057,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="36">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G33" s="36" t="s">
         <v>561</v>
@@ -19086,7 +19086,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="38">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G34" s="38" t="s">
         <v>561</v>
@@ -19115,7 +19115,7 @@
         <v>1</v>
       </c>
       <c r="F35" s="41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G35" s="41">
         <v>0</v>
@@ -19144,7 +19144,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="41">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G36" s="41">
         <v>0</v>
@@ -19173,7 +19173,7 @@
         <v>1</v>
       </c>
       <c r="F37" s="43">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G37" s="43">
         <v>0</v>
@@ -19202,7 +19202,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G38" s="33" t="s">
         <v>561</v>
@@ -19231,7 +19231,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="36">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G39" s="36" t="s">
         <v>561</v>
@@ -19260,7 +19260,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="38">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G40" s="38" t="s">
         <v>561</v>
@@ -19289,7 +19289,7 @@
         <v>1</v>
       </c>
       <c r="F41" s="41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G41" s="41">
         <v>2</v>
@@ -19318,7 +19318,7 @@
         <v>1</v>
       </c>
       <c r="F42" s="41">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G42" s="41">
         <v>0</v>
@@ -19347,7 +19347,7 @@
         <v>1</v>
       </c>
       <c r="F43" s="43">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G43" s="43">
         <v>0</v>
@@ -19376,7 +19376,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G44" s="33" t="s">
         <v>561</v>
@@ -19405,7 +19405,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="36">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G45" s="36" t="s">
         <v>561</v>
@@ -19434,7 +19434,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="38">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G46" s="38" t="s">
         <v>561</v>
@@ -19463,7 +19463,7 @@
         <v>1</v>
       </c>
       <c r="F47" s="41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G47" s="41">
         <v>8</v>
@@ -19492,7 +19492,7 @@
         <v>1</v>
       </c>
       <c r="F48" s="41">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G48" s="41">
         <v>8</v>
@@ -19521,7 +19521,7 @@
         <v>1</v>
       </c>
       <c r="F49" s="43">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G49" s="43">
         <v>7</v>
@@ -19553,7 +19553,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G50" s="33" t="s">
         <v>561</v>
@@ -19582,7 +19582,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="36">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G51" s="36" t="s">
         <v>561</v>
@@ -19611,7 +19611,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="38">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G52" s="38" t="s">
         <v>561</v>
@@ -19640,7 +19640,7 @@
         <v>1</v>
       </c>
       <c r="F53" s="41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G53" s="41">
         <v>7</v>
@@ -19669,7 +19669,7 @@
         <v>1</v>
       </c>
       <c r="F54" s="41">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G54" s="41">
         <v>5</v>
@@ -19698,7 +19698,7 @@
         <v>1</v>
       </c>
       <c r="F55" s="43">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G55" s="43">
         <v>0</v>
@@ -19727,7 +19727,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G56" s="33" t="s">
         <v>561</v>
@@ -19756,7 +19756,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="36">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G57" s="36" t="s">
         <v>561</v>
@@ -19785,7 +19785,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="38">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G58" s="38" t="s">
         <v>561</v>
@@ -19814,7 +19814,7 @@
         <v>1</v>
       </c>
       <c r="F59" s="41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G59" s="41">
         <v>6</v>
@@ -19843,7 +19843,7 @@
         <v>1</v>
       </c>
       <c r="F60" s="41">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G60" s="41">
         <v>6</v>
@@ -19872,7 +19872,7 @@
         <v>1</v>
       </c>
       <c r="F61" s="43">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G61" s="43">
         <v>2</v>

--- a/data/observation_datasheet.xlsx
+++ b/data/observation_datasheet.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28125"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catchamberlain/Documents/git/chillfreeze/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0B14A9C6-2D83-5845-9AFB-9F4AD5389615}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="0" windowWidth="17940" windowHeight="13100" activeTab="2"/>
+    <workbookView xWindow="1000" yWindow="460" windowWidth="21020" windowHeight="18240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="observation_datasheet" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Feb19 Breakdown'!$A$1:$J$61</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="563">
   <si>
     <t>ID</t>
   </si>
@@ -1718,7 +1724,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2826,15 +2832,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Atlas" id="{5156B0E4-0EB1-49FE-A26B-15F6F698AEC6}" vid="{508F7963-D0B5-43F7-BB2C-FCE3009C08EC}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Atlas" id="{5156B0E4-0EB1-49FE-A26B-15F6F698AEC6}" vid="{508F7963-D0B5-43F7-BB2C-FCE3009C08EC}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M481"/>
@@ -2843,12 +2849,12 @@
       <selection activeCell="B205" sqref="B205"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2889,492 +2895,492 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
         <v>100</v>
       </c>
@@ -3382,12 +3388,12 @@
         <v>43517</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
         <v>102</v>
       </c>
@@ -3395,27 +3401,27 @@
         <v>43520</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
         <v>107</v>
       </c>
@@ -3423,7 +3429,7 @@
         <v>43520</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
         <v>108</v>
       </c>
@@ -3431,12 +3437,12 @@
         <v>43522</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
         <v>110</v>
       </c>
@@ -3444,7 +3450,7 @@
         <v>43522</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="6" t="s">
         <v>111</v>
       </c>
@@ -3452,7 +3458,7 @@
         <v>43517</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="6" t="s">
         <v>112</v>
       </c>
@@ -3460,7 +3466,7 @@
         <v>43520</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
         <v>113</v>
       </c>
@@ -3468,7 +3474,7 @@
         <v>43520</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="6" t="s">
         <v>114</v>
       </c>
@@ -3476,57 +3482,57 @@
         <v>43522</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="6" t="s">
         <v>125</v>
       </c>
@@ -3534,12 +3540,12 @@
         <v>43525</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="6" t="s">
         <v>127</v>
       </c>
@@ -3547,102 +3553,102 @@
         <v>43525</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="138" spans="1:1">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="140" spans="1:1">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="141" spans="1:1">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="142" spans="1:1">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="144" spans="1:1">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="6" t="s">
         <v>147</v>
       </c>
@@ -3650,7 +3656,7 @@
         <v>43520</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="6" t="s">
         <v>148</v>
       </c>
@@ -3658,12 +3664,12 @@
         <v>43527</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="6" t="s">
         <v>150</v>
       </c>
@@ -3671,7 +3677,7 @@
         <v>43524</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="6" t="s">
         <v>151</v>
       </c>
@@ -3679,7 +3685,7 @@
         <v>43524</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="6" t="s">
         <v>152</v>
       </c>
@@ -3687,7 +3693,7 @@
         <v>43524</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="6" t="s">
         <v>153</v>
       </c>
@@ -3695,7 +3701,7 @@
         <v>43517</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="6" t="s">
         <v>154</v>
       </c>
@@ -3703,7 +3709,7 @@
         <v>43527</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="6" t="s">
         <v>155</v>
       </c>
@@ -3711,7 +3717,7 @@
         <v>43527</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="6" t="s">
         <v>156</v>
       </c>
@@ -3719,7 +3725,7 @@
         <v>43527</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="6" t="s">
         <v>157</v>
       </c>
@@ -3727,7 +3733,7 @@
         <v>43524</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="6" t="s">
         <v>158</v>
       </c>
@@ -3735,7 +3741,7 @@
         <v>43524</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="6" t="s">
         <v>159</v>
       </c>
@@ -3743,7 +3749,7 @@
         <v>43520</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="6" t="s">
         <v>160</v>
       </c>
@@ -3751,7 +3757,7 @@
         <v>43524</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="6" t="s">
         <v>161</v>
       </c>
@@ -3759,7 +3765,7 @@
         <v>43520</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="6" t="s">
         <v>162</v>
       </c>
@@ -3767,172 +3773,172 @@
         <v>43527</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="177" spans="1:1">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="178" spans="1:1">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="179" spans="1:1">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="180" spans="1:1">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="181" spans="1:1">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="182" spans="1:1">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="183" spans="1:1">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="184" spans="1:1">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="185" spans="1:1">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="186" spans="1:1">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="187" spans="1:1">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="188" spans="1:1">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="189" spans="1:1">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="190" spans="1:1">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="191" spans="1:1">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="192" spans="1:1">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="6" t="s">
         <v>196</v>
       </c>
@@ -3940,7 +3946,7 @@
         <v>43515</v>
       </c>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="6" t="s">
         <v>197</v>
       </c>
@@ -3948,17 +3954,17 @@
         <v>43517</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="6" t="s">
         <v>200</v>
       </c>
@@ -3966,17 +3972,17 @@
         <v>43527</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="6" t="s">
         <v>203</v>
       </c>
@@ -3984,7 +3990,7 @@
         <v>43522</v>
       </c>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="6" t="s">
         <v>204</v>
       </c>
@@ -3992,7 +3998,7 @@
         <v>43522</v>
       </c>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" s="6" t="s">
         <v>205</v>
       </c>
@@ -4000,17 +4006,17 @@
         <v>43527</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="206" spans="1:2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" s="6" t="s">
         <v>208</v>
       </c>
@@ -4018,12 +4024,12 @@
         <v>43517</v>
       </c>
     </row>
-    <row r="208" spans="1:2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="6" t="s">
         <v>210</v>
       </c>
@@ -4031,17 +4037,17 @@
         <v>43515</v>
       </c>
     </row>
-    <row r="210" spans="1:2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" s="6" t="s">
         <v>213</v>
       </c>
@@ -4049,697 +4055,697 @@
         <v>43521</v>
       </c>
     </row>
-    <row r="213" spans="1:2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="225" spans="1:1">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="226" spans="1:1">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="227" spans="1:1">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="228" spans="1:1">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="229" spans="1:1">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="230" spans="1:1">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="231" spans="1:1">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="232" spans="1:1">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="233" spans="1:1">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="234" spans="1:1">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="235" spans="1:1">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="236" spans="1:1">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="237" spans="1:1">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="238" spans="1:1">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="239" spans="1:1">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="240" spans="1:1">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="241" spans="1:1">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="242" spans="1:1">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="243" spans="1:1">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="244" spans="1:1">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="245" spans="1:1">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="246" spans="1:1">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="247" spans="1:1">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="248" spans="1:1">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="249" spans="1:1">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="250" spans="1:1">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="251" spans="1:1">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="252" spans="1:1">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="253" spans="1:1">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="254" spans="1:1">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="255" spans="1:1">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="256" spans="1:1">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="257" spans="1:1">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="258" spans="1:1">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="259" spans="1:1">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="260" spans="1:1">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="261" spans="1:1">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="262" spans="1:1">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="263" spans="1:1">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="264" spans="1:1">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="265" spans="1:1">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="266" spans="1:1">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="267" spans="1:1">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="268" spans="1:1">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="269" spans="1:1">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="270" spans="1:1">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="271" spans="1:1">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="272" spans="1:1">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="273" spans="1:1">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="274" spans="1:1">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="275" spans="1:1">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="276" spans="1:1">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="277" spans="1:1">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="278" spans="1:1">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="279" spans="1:1">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="280" spans="1:1">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="281" spans="1:1">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="282" spans="1:1">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="283" spans="1:1">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="284" spans="1:1">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="285" spans="1:1">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="286" spans="1:1">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="287" spans="1:1">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="288" spans="1:1">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="289" spans="1:1">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="290" spans="1:1">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="291" spans="1:1">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="292" spans="1:1">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="293" spans="1:1">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="294" spans="1:1">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="295" spans="1:1">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="296" spans="1:1">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="297" spans="1:1">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="298" spans="1:1">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="299" spans="1:1">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="300" spans="1:1">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="301" spans="1:1">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="302" spans="1:1">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="303" spans="1:1">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="304" spans="1:1">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="305" spans="1:1">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="306" spans="1:1">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="307" spans="1:1">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="308" spans="1:1">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="309" spans="1:1">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="310" spans="1:1">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="311" spans="1:1">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="312" spans="1:1">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="313" spans="1:1">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="314" spans="1:1">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="315" spans="1:1">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="316" spans="1:1">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="317" spans="1:1">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="318" spans="1:1">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="319" spans="1:1">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="320" spans="1:1">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="321" spans="1:1">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="322" spans="1:1">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="323" spans="1:1">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="324" spans="1:1">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="325" spans="1:1">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="326" spans="1:1">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="327" spans="1:1">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="328" spans="1:1">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="329" spans="1:1">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="330" spans="1:1">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="331" spans="1:1">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="332" spans="1:1">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="333" spans="1:1">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="334" spans="1:1">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="335" spans="1:1">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="336" spans="1:1">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="337" spans="1:2">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="338" spans="1:2">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="339" spans="1:2">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="340" spans="1:2">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="341" spans="1:2">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="342" spans="1:2">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="343" spans="1:2">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="344" spans="1:2">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="345" spans="1:2">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="346" spans="1:2">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="347" spans="1:2">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="348" spans="1:2">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="349" spans="1:2">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="350" spans="1:2">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="351" spans="1:2">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" s="6" t="s">
         <v>352</v>
       </c>
@@ -4747,17 +4753,17 @@
         <v>43517</v>
       </c>
     </row>
-    <row r="352" spans="1:2">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="353" spans="1:2">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="354" spans="1:2">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" s="6" t="s">
         <v>355</v>
       </c>
@@ -4765,12 +4771,12 @@
         <v>43521</v>
       </c>
     </row>
-    <row r="355" spans="1:2">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="356" spans="1:2">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" s="6" t="s">
         <v>357</v>
       </c>
@@ -4778,7 +4784,7 @@
         <v>43525</v>
       </c>
     </row>
-    <row r="357" spans="1:2">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" s="6" t="s">
         <v>358</v>
       </c>
@@ -4786,12 +4792,12 @@
         <v>43525</v>
       </c>
     </row>
-    <row r="358" spans="1:2">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="359" spans="1:2">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" s="6" t="s">
         <v>360</v>
       </c>
@@ -4799,7 +4805,7 @@
         <v>43525</v>
       </c>
     </row>
-    <row r="360" spans="1:2">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" s="6" t="s">
         <v>361</v>
       </c>
@@ -4807,32 +4813,32 @@
         <v>43525</v>
       </c>
     </row>
-    <row r="361" spans="1:2">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="362" spans="1:2">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="363" spans="1:2">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="364" spans="1:2">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="365" spans="1:2">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="366" spans="1:2">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" s="6" t="s">
         <v>367</v>
       </c>
@@ -4840,12 +4846,12 @@
         <v>43521</v>
       </c>
     </row>
-    <row r="367" spans="1:2">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="368" spans="1:2">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" s="6" t="s">
         <v>369</v>
       </c>
@@ -4853,567 +4859,567 @@
         <v>43521</v>
       </c>
     </row>
-    <row r="369" spans="1:1">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="370" spans="1:1">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="371" spans="1:1">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="372" spans="1:1">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="373" spans="1:1">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="374" spans="1:1">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="375" spans="1:1">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="376" spans="1:1">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="377" spans="1:1">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="378" spans="1:1">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="379" spans="1:1">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="380" spans="1:1">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="381" spans="1:1">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="382" spans="1:1">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="383" spans="1:1">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="384" spans="1:1">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="385" spans="1:1">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="386" spans="1:1">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="387" spans="1:1">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="388" spans="1:1">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="389" spans="1:1">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="390" spans="1:1">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="391" spans="1:1">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="392" spans="1:1">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="393" spans="1:1">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="394" spans="1:1">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="395" spans="1:1">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="396" spans="1:1">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="397" spans="1:1">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="398" spans="1:1">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="399" spans="1:1">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="400" spans="1:1">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="401" spans="1:1">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="402" spans="1:1">
+    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="403" spans="1:1">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="404" spans="1:1">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="405" spans="1:1">
+    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="406" spans="1:1">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="407" spans="1:1">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="408" spans="1:1">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="409" spans="1:1">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="410" spans="1:1">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="411" spans="1:1">
+    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="412" spans="1:1">
+    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="413" spans="1:1">
+    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="414" spans="1:1">
+    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="415" spans="1:1">
+    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="416" spans="1:1">
+    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="417" spans="1:1">
+    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="418" spans="1:1">
+    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="419" spans="1:1">
+    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="420" spans="1:1">
+    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="421" spans="1:1">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="422" spans="1:1">
+    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="423" spans="1:1">
+    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="424" spans="1:1">
+    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="425" spans="1:1">
+    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="426" spans="1:1">
+    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="427" spans="1:1">
+    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="428" spans="1:1">
+    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="429" spans="1:1">
+    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="430" spans="1:1">
+    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="431" spans="1:1">
+    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="432" spans="1:1">
+    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="433" spans="1:1">
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="434" spans="1:1">
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="435" spans="1:1">
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="436" spans="1:1">
+    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="437" spans="1:1">
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="438" spans="1:1">
+    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="439" spans="1:1">
+    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="440" spans="1:1">
+    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="441" spans="1:1">
+    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="442" spans="1:1">
+    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="443" spans="1:1">
+    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="444" spans="1:1">
+    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="445" spans="1:1">
+    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="446" spans="1:1">
+    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="447" spans="1:1">
+    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="448" spans="1:1">
+    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="449" spans="1:1">
+    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="450" spans="1:1">
+    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="451" spans="1:1">
+    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="452" spans="1:1">
+    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="453" spans="1:1">
+    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="454" spans="1:1">
+    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="455" spans="1:1">
+    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="456" spans="1:1">
+    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="457" spans="1:1">
+    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="458" spans="1:1">
+    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="459" spans="1:1">
+    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="460" spans="1:1">
+    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="461" spans="1:1">
+    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="462" spans="1:1">
+    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="463" spans="1:1">
+    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="464" spans="1:1">
+    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="465" spans="1:1">
+    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="466" spans="1:1">
+    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="467" spans="1:1">
+    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="468" spans="1:1">
+    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="469" spans="1:1">
+    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="470" spans="1:1">
+    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="471" spans="1:1">
+    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="472" spans="1:1">
+    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="473" spans="1:1">
+    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="474" spans="1:1">
+    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="475" spans="1:1">
+    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="476" spans="1:1">
+    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="477" spans="1:1">
+    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="478" spans="1:1">
+    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="479" spans="1:1">
+    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="480" spans="1:1">
+    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="481" spans="1:1">
+    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>482</v>
       </c>
@@ -5431,17 +5437,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N481"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B461" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C451" sqref="C451"/>
+      <selection pane="bottomRight" activeCell="D481" sqref="D481"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
@@ -5451,7 +5457,7 @@
     <col min="7" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>487</v>
       </c>
@@ -5493,7 +5499,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="18">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
@@ -5521,7 +5527,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="18">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>4</v>
       </c>
@@ -5551,7 +5557,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="18">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>5</v>
       </c>
@@ -5579,7 +5585,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="18">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>6</v>
       </c>
@@ -5607,7 +5613,7 @@
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
     </row>
-    <row r="6" spans="1:14" ht="18">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>7</v>
       </c>
@@ -5633,7 +5639,7 @@
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
     </row>
-    <row r="7" spans="1:14" ht="18">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>8</v>
       </c>
@@ -5661,7 +5667,7 @@
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
     </row>
-    <row r="8" spans="1:14" ht="18">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>9</v>
       </c>
@@ -5687,7 +5693,7 @@
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
     </row>
-    <row r="9" spans="1:14" ht="18">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>10</v>
       </c>
@@ -5715,7 +5721,7 @@
       <c r="M9" s="12"/>
       <c r="N9" s="12"/>
     </row>
-    <row r="10" spans="1:14" ht="18">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>11</v>
       </c>
@@ -5741,7 +5747,7 @@
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
     </row>
-    <row r="11" spans="1:14" ht="18">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>12</v>
       </c>
@@ -5771,7 +5777,7 @@
       <c r="M11" s="12"/>
       <c r="N11" s="12"/>
     </row>
-    <row r="12" spans="1:14" ht="18">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>13</v>
       </c>
@@ -5793,7 +5799,7 @@
       <c r="M12" s="12"/>
       <c r="N12" s="12"/>
     </row>
-    <row r="13" spans="1:14" ht="18">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>14</v>
       </c>
@@ -5821,7 +5827,7 @@
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>
     </row>
-    <row r="14" spans="1:14" ht="18">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>15</v>
       </c>
@@ -5847,7 +5853,7 @@
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
     </row>
-    <row r="15" spans="1:14" ht="18">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>16</v>
       </c>
@@ -5875,7 +5881,7 @@
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
     </row>
-    <row r="16" spans="1:14" ht="18">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>17</v>
       </c>
@@ -5901,7 +5907,7 @@
       <c r="M16" s="12"/>
       <c r="N16" s="12"/>
     </row>
-    <row r="17" spans="1:14" ht="18">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>18</v>
       </c>
@@ -5929,7 +5935,7 @@
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
     </row>
-    <row r="18" spans="1:14" ht="18">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
         <v>19</v>
       </c>
@@ -5955,7 +5961,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="18">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="s">
         <v>20</v>
       </c>
@@ -5979,7 +5985,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="18">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="19" t="s">
         <v>21</v>
       </c>
@@ -6005,7 +6011,7 @@
       <c r="M20" s="12"/>
       <c r="N20" s="12"/>
     </row>
-    <row r="21" spans="1:14" ht="18">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
         <v>22</v>
       </c>
@@ -6033,7 +6039,7 @@
       <c r="M21" s="12"/>
       <c r="N21" s="12"/>
     </row>
-    <row r="22" spans="1:14" ht="18">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
         <v>23</v>
       </c>
@@ -6059,7 +6065,7 @@
       <c r="M22" s="12"/>
       <c r="N22" s="12"/>
     </row>
-    <row r="23" spans="1:14" ht="18">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
         <v>24</v>
       </c>
@@ -6087,7 +6093,7 @@
       <c r="M23" s="12"/>
       <c r="N23" s="12"/>
     </row>
-    <row r="24" spans="1:14" ht="18">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="19" t="s">
         <v>25</v>
       </c>
@@ -6113,7 +6119,7 @@
       <c r="M24" s="12"/>
       <c r="N24" s="12"/>
     </row>
-    <row r="25" spans="1:14" ht="18">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
         <v>26</v>
       </c>
@@ -6137,15 +6143,19 @@
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
     </row>
-    <row r="26" spans="1:14" ht="18">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
         <v>27</v>
       </c>
       <c r="B26" s="20">
         <v>43523</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
+      <c r="C26" s="20">
+        <v>43530</v>
+      </c>
+      <c r="D26" s="21">
+        <v>27.4</v>
+      </c>
       <c r="E26" s="20">
         <v>43472</v>
       </c>
@@ -6159,7 +6169,7 @@
       <c r="M26" s="12"/>
       <c r="N26" s="12"/>
     </row>
-    <row r="27" spans="1:14" ht="18">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="19" t="s">
         <v>28</v>
       </c>
@@ -6187,7 +6197,7 @@
       <c r="M27" s="12"/>
       <c r="N27" s="12"/>
     </row>
-    <row r="28" spans="1:14" ht="18">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="19" t="s">
         <v>29</v>
       </c>
@@ -6213,7 +6223,7 @@
       <c r="M28" s="12"/>
       <c r="N28" s="12"/>
     </row>
-    <row r="29" spans="1:14" ht="18">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="19" t="s">
         <v>30</v>
       </c>
@@ -6237,7 +6247,7 @@
       <c r="M29" s="12"/>
       <c r="N29" s="12"/>
     </row>
-    <row r="30" spans="1:14" ht="18">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="19" t="s">
         <v>31</v>
       </c>
@@ -6257,7 +6267,7 @@
       <c r="M30" s="12"/>
       <c r="N30" s="12"/>
     </row>
-    <row r="31" spans="1:14" ht="18">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="19" t="s">
         <v>32</v>
       </c>
@@ -6285,7 +6295,7 @@
       <c r="M31" s="12"/>
       <c r="N31" s="12"/>
     </row>
-    <row r="32" spans="1:14" ht="18">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="19" t="s">
         <v>33</v>
       </c>
@@ -6311,7 +6321,7 @@
       <c r="M32" s="12"/>
       <c r="N32" s="12"/>
     </row>
-    <row r="33" spans="1:14" ht="18">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="19" t="s">
         <v>34</v>
       </c>
@@ -6339,15 +6349,19 @@
       <c r="M33" s="12"/>
       <c r="N33" s="12"/>
     </row>
-    <row r="34" spans="1:14" ht="18">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="22" t="s">
         <v>35</v>
       </c>
       <c r="B34" s="23">
         <v>43518</v>
       </c>
-      <c r="C34" s="23"/>
-      <c r="D34" s="24"/>
+      <c r="C34" s="23">
+        <v>43530</v>
+      </c>
+      <c r="D34" s="24">
+        <v>23.7</v>
+      </c>
       <c r="E34" s="23">
         <v>43486</v>
       </c>
@@ -6363,7 +6377,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="18">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="22" t="s">
         <v>36</v>
       </c>
@@ -6389,7 +6403,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="18">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="22" t="s">
         <v>37</v>
       </c>
@@ -6415,7 +6429,7 @@
       <c r="M36" s="12"/>
       <c r="N36" s="12"/>
     </row>
-    <row r="37" spans="1:14" ht="18">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="22" t="s">
         <v>38</v>
       </c>
@@ -6439,7 +6453,7 @@
       <c r="M37" s="12"/>
       <c r="N37" s="12"/>
     </row>
-    <row r="38" spans="1:14" ht="18">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="22" t="s">
         <v>39</v>
       </c>
@@ -6459,15 +6473,19 @@
       <c r="M38" s="12"/>
       <c r="N38" s="12"/>
     </row>
-    <row r="39" spans="1:14" ht="18">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="22" t="s">
         <v>40</v>
       </c>
       <c r="B39" s="23">
         <v>43515</v>
       </c>
-      <c r="C39" s="23"/>
-      <c r="D39" s="24"/>
+      <c r="C39" s="23">
+        <v>43530</v>
+      </c>
+      <c r="D39" s="24">
+        <v>34.799999999999997</v>
+      </c>
       <c r="E39" s="23">
         <v>43486</v>
       </c>
@@ -6483,11 +6501,13 @@
       <c r="M39" s="12"/>
       <c r="N39" s="12"/>
     </row>
-    <row r="40" spans="1:14" ht="18">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="23"/>
+      <c r="B40" s="23">
+        <v>43530</v>
+      </c>
       <c r="C40" s="23"/>
       <c r="D40" s="24"/>
       <c r="E40" s="23">
@@ -6503,15 +6523,19 @@
       <c r="M40" s="12"/>
       <c r="N40" s="12"/>
     </row>
-    <row r="41" spans="1:14" ht="18">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="22" t="s">
         <v>42</v>
       </c>
       <c r="B41" s="23">
         <v>43515</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="24"/>
+      <c r="C41" s="23">
+        <v>43530</v>
+      </c>
+      <c r="D41" s="24">
+        <v>23.8</v>
+      </c>
       <c r="E41" s="23">
         <v>43486</v>
       </c>
@@ -6527,7 +6551,7 @@
       <c r="M41" s="12"/>
       <c r="N41" s="12"/>
     </row>
-    <row r="42" spans="1:14" ht="18">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="22" t="s">
         <v>43</v>
       </c>
@@ -6547,7 +6571,7 @@
       <c r="M42" s="12"/>
       <c r="N42" s="12"/>
     </row>
-    <row r="43" spans="1:14" ht="18">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="22" t="s">
         <v>44</v>
       </c>
@@ -6571,15 +6595,19 @@
       <c r="M43" s="12"/>
       <c r="N43" s="12"/>
     </row>
-    <row r="44" spans="1:14" ht="18">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="22" t="s">
         <v>45</v>
       </c>
       <c r="B44" s="23">
         <v>43518</v>
       </c>
-      <c r="C44" s="23"/>
-      <c r="D44" s="24"/>
+      <c r="C44" s="23">
+        <v>43530</v>
+      </c>
+      <c r="D44" s="24">
+        <v>27</v>
+      </c>
       <c r="E44" s="23">
         <v>43486</v>
       </c>
@@ -6593,7 +6621,7 @@
       <c r="M44" s="12"/>
       <c r="N44" s="12"/>
     </row>
-    <row r="45" spans="1:14" ht="18">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="22" t="s">
         <v>46</v>
       </c>
@@ -6615,7 +6643,7 @@
       <c r="M45" s="12"/>
       <c r="N45" s="12"/>
     </row>
-    <row r="46" spans="1:14" ht="18">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="22" t="s">
         <v>47</v>
       </c>
@@ -6641,7 +6669,7 @@
       <c r="M46" s="12"/>
       <c r="N46" s="12"/>
     </row>
-    <row r="47" spans="1:14" ht="18">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="22" t="s">
         <v>48</v>
       </c>
@@ -6665,7 +6693,7 @@
       <c r="M47" s="12"/>
       <c r="N47" s="12"/>
     </row>
-    <row r="48" spans="1:14" ht="18">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="22" t="s">
         <v>49</v>
       </c>
@@ -6687,7 +6715,7 @@
       <c r="M48" s="12"/>
       <c r="N48" s="12"/>
     </row>
-    <row r="49" spans="1:14" ht="18">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="22" t="s">
         <v>50</v>
       </c>
@@ -6709,7 +6737,7 @@
       <c r="M49" s="12"/>
       <c r="N49" s="12"/>
     </row>
-    <row r="50" spans="1:14" ht="18">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
         <v>51</v>
       </c>
@@ -6737,7 +6765,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="18">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
         <v>52</v>
       </c>
@@ -6767,7 +6795,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="18">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
         <v>53</v>
       </c>
@@ -6795,7 +6823,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="18">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="14" t="s">
         <v>54</v>
       </c>
@@ -6823,7 +6851,7 @@
       <c r="M53" s="12"/>
       <c r="N53" s="12"/>
     </row>
-    <row r="54" spans="1:14" ht="18">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="14" t="s">
         <v>55</v>
       </c>
@@ -6849,7 +6877,7 @@
       <c r="M54" s="12"/>
       <c r="N54" s="12"/>
     </row>
-    <row r="55" spans="1:14" ht="18">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="14" t="s">
         <v>56</v>
       </c>
@@ -6877,7 +6905,7 @@
       <c r="M55" s="12"/>
       <c r="N55" s="12"/>
     </row>
-    <row r="56" spans="1:14" ht="18">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="14" t="s">
         <v>57</v>
       </c>
@@ -6903,7 +6931,7 @@
       <c r="M56" s="12"/>
       <c r="N56" s="12"/>
     </row>
-    <row r="57" spans="1:14" ht="18">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="14" t="s">
         <v>58</v>
       </c>
@@ -6931,7 +6959,7 @@
       <c r="M57" s="12"/>
       <c r="N57" s="12"/>
     </row>
-    <row r="58" spans="1:14" ht="18">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="14" t="s">
         <v>59</v>
       </c>
@@ -6957,7 +6985,7 @@
       <c r="M58" s="12"/>
       <c r="N58" s="12"/>
     </row>
-    <row r="59" spans="1:14" ht="18">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="14" t="s">
         <v>60</v>
       </c>
@@ -6985,7 +7013,7 @@
       <c r="M59" s="12"/>
       <c r="N59" s="12"/>
     </row>
-    <row r="60" spans="1:14" ht="18">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="14" t="s">
         <v>61</v>
       </c>
@@ -7011,7 +7039,7 @@
       <c r="M60" s="12"/>
       <c r="N60" s="12"/>
     </row>
-    <row r="61" spans="1:14" ht="18">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
         <v>62</v>
       </c>
@@ -7031,7 +7059,7 @@
       <c r="M61" s="12"/>
       <c r="N61" s="12"/>
     </row>
-    <row r="62" spans="1:14" ht="18">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="14" t="s">
         <v>63</v>
       </c>
@@ -7057,7 +7085,7 @@
       <c r="M62" s="12"/>
       <c r="N62" s="12"/>
     </row>
-    <row r="63" spans="1:14" ht="18">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="14" t="s">
         <v>64</v>
       </c>
@@ -7085,7 +7113,7 @@
       <c r="M63" s="12"/>
       <c r="N63" s="12"/>
     </row>
-    <row r="64" spans="1:14" ht="18">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
         <v>65</v>
       </c>
@@ -7111,7 +7139,7 @@
       <c r="M64" s="12"/>
       <c r="N64" s="12"/>
     </row>
-    <row r="65" spans="1:14" ht="18">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="14" t="s">
         <v>66</v>
       </c>
@@ -7139,7 +7167,7 @@
       <c r="M65" s="12"/>
       <c r="N65" s="12"/>
     </row>
-    <row r="66" spans="1:14" ht="18">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="19" t="s">
         <v>67</v>
       </c>
@@ -7167,7 +7195,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="18">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="19" t="s">
         <v>68</v>
       </c>
@@ -7197,7 +7225,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="18">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="19" t="s">
         <v>69</v>
       </c>
@@ -7223,7 +7251,7 @@
       <c r="M68" s="12"/>
       <c r="N68" s="12"/>
     </row>
-    <row r="69" spans="1:14" ht="18">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="19" t="s">
         <v>70</v>
       </c>
@@ -7251,7 +7279,7 @@
       <c r="M69" s="12"/>
       <c r="N69" s="12"/>
     </row>
-    <row r="70" spans="1:14" ht="18">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="19" t="s">
         <v>71</v>
       </c>
@@ -7277,7 +7305,7 @@
       <c r="M70" s="12"/>
       <c r="N70" s="12"/>
     </row>
-    <row r="71" spans="1:14" ht="18">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="19" t="s">
         <v>72</v>
       </c>
@@ -7305,7 +7333,7 @@
       <c r="M71" s="12"/>
       <c r="N71" s="12"/>
     </row>
-    <row r="72" spans="1:14" ht="18">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="19" t="s">
         <v>73</v>
       </c>
@@ -7325,7 +7353,7 @@
       <c r="M72" s="12"/>
       <c r="N72" s="12"/>
     </row>
-    <row r="73" spans="1:14" ht="18">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="19" t="s">
         <v>74</v>
       </c>
@@ -7353,7 +7381,7 @@
       <c r="M73" s="12"/>
       <c r="N73" s="12"/>
     </row>
-    <row r="74" spans="1:14" ht="18">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="19" t="s">
         <v>75</v>
       </c>
@@ -7379,7 +7407,7 @@
       <c r="M74" s="12"/>
       <c r="N74" s="12"/>
     </row>
-    <row r="75" spans="1:14" ht="18">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="19" t="s">
         <v>76</v>
       </c>
@@ -7403,7 +7431,7 @@
       <c r="M75" s="12"/>
       <c r="N75" s="12"/>
     </row>
-    <row r="76" spans="1:14" ht="18">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="19" t="s">
         <v>77</v>
       </c>
@@ -7429,7 +7457,7 @@
       <c r="M76" s="12"/>
       <c r="N76" s="12"/>
     </row>
-    <row r="77" spans="1:14" ht="18">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="19" t="s">
         <v>78</v>
       </c>
@@ -7459,7 +7487,7 @@
       <c r="M77" s="12"/>
       <c r="N77" s="12"/>
     </row>
-    <row r="78" spans="1:14" ht="18">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="19" t="s">
         <v>79</v>
       </c>
@@ -7485,7 +7513,7 @@
       <c r="M78" s="12"/>
       <c r="N78" s="12"/>
     </row>
-    <row r="79" spans="1:14" ht="18">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="19" t="s">
         <v>80</v>
       </c>
@@ -7513,7 +7541,7 @@
       <c r="M79" s="12"/>
       <c r="N79" s="12"/>
     </row>
-    <row r="80" spans="1:14" ht="18">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="19" t="s">
         <v>81</v>
       </c>
@@ -7539,7 +7567,7 @@
       <c r="M80" s="12"/>
       <c r="N80" s="12"/>
     </row>
-    <row r="81" spans="1:14" ht="18">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="19" t="s">
         <v>82</v>
       </c>
@@ -7567,7 +7595,7 @@
       <c r="M81" s="12"/>
       <c r="N81" s="12"/>
     </row>
-    <row r="82" spans="1:14" ht="18">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="22" t="s">
         <v>83</v>
       </c>
@@ -7589,7 +7617,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="18">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="22" t="s">
         <v>84</v>
       </c>
@@ -7619,7 +7647,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="84" spans="1:14" ht="18">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="22" t="s">
         <v>85</v>
       </c>
@@ -7647,7 +7675,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="18">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="22" t="s">
         <v>86</v>
       </c>
@@ -7671,7 +7699,7 @@
       <c r="M85" s="12"/>
       <c r="N85" s="12"/>
     </row>
-    <row r="86" spans="1:14" ht="18">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="22" t="s">
         <v>87</v>
       </c>
@@ -7697,7 +7725,7 @@
       <c r="M86" s="12"/>
       <c r="N86" s="12"/>
     </row>
-    <row r="87" spans="1:14" ht="18">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="22" t="s">
         <v>88</v>
       </c>
@@ -7717,11 +7745,13 @@
       <c r="M87" s="12"/>
       <c r="N87" s="12"/>
     </row>
-    <row r="88" spans="1:14" ht="18">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="B88" s="23"/>
+      <c r="B88" s="23">
+        <v>43530</v>
+      </c>
       <c r="C88" s="23"/>
       <c r="D88" s="24"/>
       <c r="E88" s="23">
@@ -7737,7 +7767,7 @@
       <c r="M88" s="12"/>
       <c r="N88" s="12"/>
     </row>
-    <row r="89" spans="1:14" ht="18">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="22" t="s">
         <v>90</v>
       </c>
@@ -7765,7 +7795,7 @@
       <c r="M89" s="12"/>
       <c r="N89" s="12"/>
     </row>
-    <row r="90" spans="1:14" ht="18">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="22" t="s">
         <v>91</v>
       </c>
@@ -7791,7 +7821,7 @@
       <c r="M90" s="12"/>
       <c r="N90" s="12"/>
     </row>
-    <row r="91" spans="1:14" ht="18">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="22" t="s">
         <v>92</v>
       </c>
@@ -7819,7 +7849,7 @@
       <c r="M91" s="12"/>
       <c r="N91" s="12"/>
     </row>
-    <row r="92" spans="1:14" ht="18">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="22" t="s">
         <v>93</v>
       </c>
@@ -7845,7 +7875,7 @@
       <c r="M92" s="12"/>
       <c r="N92" s="12"/>
     </row>
-    <row r="93" spans="1:14" ht="18">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="22" t="s">
         <v>94</v>
       </c>
@@ -7873,7 +7903,7 @@
       <c r="M93" s="12"/>
       <c r="N93" s="12"/>
     </row>
-    <row r="94" spans="1:14" ht="18">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="22" t="s">
         <v>95</v>
       </c>
@@ -7899,7 +7929,7 @@
       <c r="M94" s="12"/>
       <c r="N94" s="12"/>
     </row>
-    <row r="95" spans="1:14" ht="18">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="22" t="s">
         <v>96</v>
       </c>
@@ -7927,7 +7957,7 @@
       <c r="M95" s="12"/>
       <c r="N95" s="12"/>
     </row>
-    <row r="96" spans="1:14" ht="18">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="22" t="s">
         <v>97</v>
       </c>
@@ -7953,7 +7983,7 @@
       <c r="M96" s="12"/>
       <c r="N96" s="12"/>
     </row>
-    <row r="97" spans="1:14" ht="18">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" s="22" t="s">
         <v>98</v>
       </c>
@@ -7981,7 +8011,7 @@
       <c r="M97" s="12"/>
       <c r="N97" s="12"/>
     </row>
-    <row r="98" spans="1:14" ht="18">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="14" t="s">
         <v>99</v>
       </c>
@@ -8009,7 +8039,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="99" spans="1:14" ht="18">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" s="14" t="s">
         <v>100</v>
       </c>
@@ -8037,7 +8067,7 @@
       <c r="M99" s="12"/>
       <c r="N99" s="12"/>
     </row>
-    <row r="100" spans="1:14" ht="18">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" s="14" t="s">
         <v>101</v>
       </c>
@@ -8076,7 +8106,7 @@
       </c>
       <c r="N100" s="12"/>
     </row>
-    <row r="101" spans="1:14" ht="18">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" s="14" t="s">
         <v>102</v>
       </c>
@@ -8104,7 +8134,7 @@
       <c r="M101" s="12"/>
       <c r="N101" s="12"/>
     </row>
-    <row r="102" spans="1:14" ht="18">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" s="14" t="s">
         <v>103</v>
       </c>
@@ -8143,7 +8173,7 @@
       </c>
       <c r="N102" s="12"/>
     </row>
-    <row r="103" spans="1:14" ht="18">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" s="14" t="s">
         <v>104</v>
       </c>
@@ -8171,7 +8201,7 @@
       <c r="M103" s="12"/>
       <c r="N103" s="12"/>
     </row>
-    <row r="104" spans="1:14" ht="18">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" s="14" t="s">
         <v>105</v>
       </c>
@@ -8210,7 +8240,7 @@
       </c>
       <c r="N104" s="12"/>
     </row>
-    <row r="105" spans="1:14" ht="18">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" s="14" t="s">
         <v>106</v>
       </c>
@@ -8251,7 +8281,7 @@
       </c>
       <c r="N105" s="12"/>
     </row>
-    <row r="106" spans="1:14" ht="18">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" s="14" t="s">
         <v>107</v>
       </c>
@@ -8277,7 +8307,7 @@
       <c r="M106" s="12"/>
       <c r="N106" s="12"/>
     </row>
-    <row r="107" spans="1:14" ht="18">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" s="14" t="s">
         <v>108</v>
       </c>
@@ -8305,7 +8335,7 @@
       <c r="M107" s="12"/>
       <c r="N107" s="12"/>
     </row>
-    <row r="108" spans="1:14" ht="18">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" s="14" t="s">
         <v>109</v>
       </c>
@@ -8344,7 +8374,7 @@
       </c>
       <c r="N108" s="12"/>
     </row>
-    <row r="109" spans="1:14" ht="18">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" s="14" t="s">
         <v>110</v>
       </c>
@@ -8372,7 +8402,7 @@
       <c r="M109" s="12"/>
       <c r="N109" s="12"/>
     </row>
-    <row r="110" spans="1:14" ht="18">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" s="14" t="s">
         <v>111</v>
       </c>
@@ -8398,7 +8428,7 @@
       <c r="M110" s="12"/>
       <c r="N110" s="12"/>
     </row>
-    <row r="111" spans="1:14" ht="18">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" s="14" t="s">
         <v>112</v>
       </c>
@@ -8426,7 +8456,7 @@
       <c r="M111" s="12"/>
       <c r="N111" s="12"/>
     </row>
-    <row r="112" spans="1:14" ht="18">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" s="14" t="s">
         <v>113</v>
       </c>
@@ -8452,7 +8482,7 @@
       <c r="M112" s="12"/>
       <c r="N112" s="12"/>
     </row>
-    <row r="113" spans="1:14" ht="18">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" s="14" t="s">
         <v>114</v>
       </c>
@@ -8482,7 +8512,7 @@
       <c r="M113" s="12"/>
       <c r="N113" s="12"/>
     </row>
-    <row r="114" spans="1:14" ht="18">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" s="19" t="s">
         <v>115</v>
       </c>
@@ -8510,7 +8540,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="115" spans="1:14" ht="18">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" s="19" t="s">
         <v>116</v>
       </c>
@@ -8538,7 +8568,7 @@
       <c r="M115" s="12"/>
       <c r="N115" s="12"/>
     </row>
-    <row r="116" spans="1:14" ht="18">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" s="19" t="s">
         <v>117</v>
       </c>
@@ -8564,7 +8594,7 @@
       <c r="M116" s="12"/>
       <c r="N116" s="12"/>
     </row>
-    <row r="117" spans="1:14" ht="18">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" s="19" t="s">
         <v>118</v>
       </c>
@@ -8592,7 +8622,7 @@
       <c r="M117" s="12"/>
       <c r="N117" s="12"/>
     </row>
-    <row r="118" spans="1:14" ht="18">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" s="19" t="s">
         <v>119</v>
       </c>
@@ -8618,7 +8648,7 @@
       <c r="M118" s="12"/>
       <c r="N118" s="12"/>
     </row>
-    <row r="119" spans="1:14" ht="18">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" s="19" t="s">
         <v>120</v>
       </c>
@@ -8648,7 +8678,7 @@
       <c r="M119" s="12"/>
       <c r="N119" s="12"/>
     </row>
-    <row r="120" spans="1:14" ht="18">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" s="19" t="s">
         <v>121</v>
       </c>
@@ -8674,7 +8704,7 @@
       <c r="M120" s="12"/>
       <c r="N120" s="12"/>
     </row>
-    <row r="121" spans="1:14" ht="18">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" s="19" t="s">
         <v>122</v>
       </c>
@@ -8702,7 +8732,7 @@
       <c r="M121" s="12"/>
       <c r="N121" s="12"/>
     </row>
-    <row r="122" spans="1:14" ht="18">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" s="19" t="s">
         <v>123</v>
       </c>
@@ -8728,7 +8758,7 @@
       <c r="M122" s="12"/>
       <c r="N122" s="12"/>
     </row>
-    <row r="123" spans="1:14" ht="18">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" s="19" t="s">
         <v>124</v>
       </c>
@@ -8758,7 +8788,7 @@
       <c r="M123" s="12"/>
       <c r="N123" s="12"/>
     </row>
-    <row r="124" spans="1:14" ht="18">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" s="19" t="s">
         <v>125</v>
       </c>
@@ -8784,7 +8814,7 @@
       <c r="M124" s="12"/>
       <c r="N124" s="12"/>
     </row>
-    <row r="125" spans="1:14" ht="18">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" s="19" t="s">
         <v>126</v>
       </c>
@@ -8812,7 +8842,7 @@
       <c r="M125" s="12"/>
       <c r="N125" s="12"/>
     </row>
-    <row r="126" spans="1:14" ht="18">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" s="19" t="s">
         <v>127</v>
       </c>
@@ -8838,7 +8868,7 @@
       <c r="M126" s="12"/>
       <c r="N126" s="12"/>
     </row>
-    <row r="127" spans="1:14" ht="18">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" s="19" t="s">
         <v>128</v>
       </c>
@@ -8866,7 +8896,7 @@
       <c r="M127" s="12"/>
       <c r="N127" s="12"/>
     </row>
-    <row r="128" spans="1:14" ht="18">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" s="19" t="s">
         <v>129</v>
       </c>
@@ -8892,7 +8922,7 @@
       <c r="M128" s="12"/>
       <c r="N128" s="12"/>
     </row>
-    <row r="129" spans="1:14" ht="18">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" s="19" t="s">
         <v>130</v>
       </c>
@@ -8920,7 +8950,7 @@
       <c r="M129" s="12"/>
       <c r="N129" s="12"/>
     </row>
-    <row r="130" spans="1:14" ht="18">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" s="22" t="s">
         <v>131</v>
       </c>
@@ -8948,7 +8978,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="131" spans="1:14" ht="18">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" s="22" t="s">
         <v>132</v>
       </c>
@@ -8978,7 +9008,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="132" spans="1:14" ht="18">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" s="22" t="s">
         <v>133</v>
       </c>
@@ -9006,7 +9036,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="133" spans="1:14" ht="18">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" s="22" t="s">
         <v>134</v>
       </c>
@@ -9034,7 +9064,7 @@
       <c r="M133" s="12"/>
       <c r="N133" s="12"/>
     </row>
-    <row r="134" spans="1:14" ht="18">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" s="22" t="s">
         <v>135</v>
       </c>
@@ -9060,7 +9090,7 @@
       <c r="M134" s="12"/>
       <c r="N134" s="12"/>
     </row>
-    <row r="135" spans="1:14" ht="18">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" s="22" t="s">
         <v>136</v>
       </c>
@@ -9088,7 +9118,7 @@
       <c r="M135" s="12"/>
       <c r="N135" s="12"/>
     </row>
-    <row r="136" spans="1:14" ht="18">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" s="22" t="s">
         <v>137</v>
       </c>
@@ -9114,7 +9144,7 @@
       <c r="M136" s="12"/>
       <c r="N136" s="12"/>
     </row>
-    <row r="137" spans="1:14" ht="18">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" s="22" t="s">
         <v>138</v>
       </c>
@@ -9142,7 +9172,7 @@
       <c r="M137" s="12"/>
       <c r="N137" s="12"/>
     </row>
-    <row r="138" spans="1:14" ht="18">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" s="22" t="s">
         <v>139</v>
       </c>
@@ -9168,7 +9198,7 @@
       <c r="M138" s="12"/>
       <c r="N138" s="12"/>
     </row>
-    <row r="139" spans="1:14" ht="18">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" s="22" t="s">
         <v>140</v>
       </c>
@@ -9196,7 +9226,7 @@
       <c r="M139" s="12"/>
       <c r="N139" s="12"/>
     </row>
-    <row r="140" spans="1:14" ht="18">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" s="22" t="s">
         <v>141</v>
       </c>
@@ -9222,7 +9252,7 @@
       <c r="M140" s="12"/>
       <c r="N140" s="12"/>
     </row>
-    <row r="141" spans="1:14" ht="18">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" s="22" t="s">
         <v>142</v>
       </c>
@@ -9250,7 +9280,7 @@
       <c r="M141" s="12"/>
       <c r="N141" s="12"/>
     </row>
-    <row r="142" spans="1:14" ht="18">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" s="22" t="s">
         <v>143</v>
       </c>
@@ -9276,22 +9306,28 @@
       <c r="M142" s="12"/>
       <c r="N142" s="12"/>
     </row>
-    <row r="143" spans="1:14" ht="18">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" s="22" t="s">
         <v>144</v>
       </c>
       <c r="B143" s="23">
         <v>43500</v>
       </c>
-      <c r="C143" s="23"/>
-      <c r="D143" s="24"/>
+      <c r="C143" s="23">
+        <v>43530</v>
+      </c>
+      <c r="D143" s="24">
+        <v>31.4</v>
+      </c>
       <c r="E143" s="23">
         <v>43486</v>
       </c>
       <c r="F143" s="17">
         <v>43504</v>
       </c>
-      <c r="G143" s="12"/>
+      <c r="G143" s="12" t="s">
+        <v>491</v>
+      </c>
       <c r="H143" s="12"/>
       <c r="I143" s="12"/>
       <c r="J143" s="12"/>
@@ -9300,7 +9336,7 @@
       <c r="M143" s="12"/>
       <c r="N143" s="12"/>
     </row>
-    <row r="144" spans="1:14" ht="18">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" s="22" t="s">
         <v>145</v>
       </c>
@@ -9326,7 +9362,7 @@
       <c r="M144" s="12"/>
       <c r="N144" s="12"/>
     </row>
-    <row r="145" spans="1:14" ht="18">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" s="22" t="s">
         <v>146</v>
       </c>
@@ -9354,7 +9390,7 @@
       <c r="M145" s="12"/>
       <c r="N145" s="12"/>
     </row>
-    <row r="146" spans="1:14" ht="18">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" s="14" t="s">
         <v>147</v>
       </c>
@@ -9382,7 +9418,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="147" spans="1:14" ht="18">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" s="14" t="s">
         <v>148</v>
       </c>
@@ -9410,7 +9446,7 @@
       <c r="M147" s="12"/>
       <c r="N147" s="12"/>
     </row>
-    <row r="148" spans="1:14" ht="18">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" s="14" t="s">
         <v>149</v>
       </c>
@@ -9436,7 +9472,7 @@
       <c r="M148" s="12"/>
       <c r="N148" s="12"/>
     </row>
-    <row r="149" spans="1:14" ht="18">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" s="14" t="s">
         <v>150</v>
       </c>
@@ -9466,7 +9502,7 @@
       <c r="M149" s="12"/>
       <c r="N149" s="12"/>
     </row>
-    <row r="150" spans="1:14" ht="18">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" s="14" t="s">
         <v>151</v>
       </c>
@@ -9492,7 +9528,7 @@
       <c r="M150" s="12"/>
       <c r="N150" s="12"/>
     </row>
-    <row r="151" spans="1:14" ht="18">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" s="14" t="s">
         <v>152</v>
       </c>
@@ -9520,7 +9556,7 @@
       <c r="M151" s="12"/>
       <c r="N151" s="12"/>
     </row>
-    <row r="152" spans="1:14" ht="18">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" s="14" t="s">
         <v>153</v>
       </c>
@@ -9546,7 +9582,7 @@
       <c r="M152" s="12"/>
       <c r="N152" s="12"/>
     </row>
-    <row r="153" spans="1:14" ht="18">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153" s="14" t="s">
         <v>154</v>
       </c>
@@ -9574,7 +9610,7 @@
       <c r="M153" s="12"/>
       <c r="N153" s="12"/>
     </row>
-    <row r="154" spans="1:14" ht="18">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154" s="14" t="s">
         <v>155</v>
       </c>
@@ -9600,7 +9636,7 @@
       <c r="M154" s="12"/>
       <c r="N154" s="12"/>
     </row>
-    <row r="155" spans="1:14" ht="18">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155" s="14" t="s">
         <v>156</v>
       </c>
@@ -9628,7 +9664,7 @@
       <c r="M155" s="12"/>
       <c r="N155" s="12"/>
     </row>
-    <row r="156" spans="1:14" ht="18">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" s="14" t="s">
         <v>157</v>
       </c>
@@ -9654,7 +9690,7 @@
       <c r="M156" s="12"/>
       <c r="N156" s="12"/>
     </row>
-    <row r="157" spans="1:14" ht="18">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157" s="14" t="s">
         <v>158</v>
       </c>
@@ -9682,7 +9718,7 @@
       <c r="M157" s="12"/>
       <c r="N157" s="12"/>
     </row>
-    <row r="158" spans="1:14" ht="18">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158" s="14" t="s">
         <v>159</v>
       </c>
@@ -9708,7 +9744,7 @@
       <c r="M158" s="12"/>
       <c r="N158" s="12"/>
     </row>
-    <row r="159" spans="1:14" ht="18">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159" s="14" t="s">
         <v>160</v>
       </c>
@@ -9736,7 +9772,7 @@
       <c r="M159" s="12"/>
       <c r="N159" s="12"/>
     </row>
-    <row r="160" spans="1:14" ht="18">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160" s="14" t="s">
         <v>161</v>
       </c>
@@ -9762,7 +9798,7 @@
       <c r="M160" s="12"/>
       <c r="N160" s="12"/>
     </row>
-    <row r="161" spans="1:14" ht="18">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161" s="14" t="s">
         <v>162</v>
       </c>
@@ -9790,7 +9826,7 @@
       <c r="M161" s="12"/>
       <c r="N161" s="12"/>
     </row>
-    <row r="162" spans="1:14" ht="18">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162" s="19" t="s">
         <v>163</v>
       </c>
@@ -9818,7 +9854,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="163" spans="1:14" ht="18">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163" s="19" t="s">
         <v>164</v>
       </c>
@@ -9846,7 +9882,7 @@
       <c r="M163" s="12"/>
       <c r="N163" s="12"/>
     </row>
-    <row r="164" spans="1:14" ht="18">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164" s="19" t="s">
         <v>165</v>
       </c>
@@ -9872,7 +9908,7 @@
       <c r="M164" s="12"/>
       <c r="N164" s="12"/>
     </row>
-    <row r="165" spans="1:14" ht="18">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165" s="19" t="s">
         <v>166</v>
       </c>
@@ -9900,7 +9936,7 @@
       <c r="M165" s="12"/>
       <c r="N165" s="12"/>
     </row>
-    <row r="166" spans="1:14" ht="18">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166" s="19" t="s">
         <v>167</v>
       </c>
@@ -9926,7 +9962,7 @@
       <c r="M166" s="12"/>
       <c r="N166" s="12"/>
     </row>
-    <row r="167" spans="1:14" ht="18">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167" s="19" t="s">
         <v>168</v>
       </c>
@@ -9954,7 +9990,7 @@
       <c r="M167" s="12"/>
       <c r="N167" s="12"/>
     </row>
-    <row r="168" spans="1:14" ht="18">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168" s="19" t="s">
         <v>169</v>
       </c>
@@ -9980,7 +10016,7 @@
       <c r="M168" s="12"/>
       <c r="N168" s="12"/>
     </row>
-    <row r="169" spans="1:14" ht="18">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169" s="19" t="s">
         <v>170</v>
       </c>
@@ -10008,7 +10044,7 @@
       <c r="M169" s="12"/>
       <c r="N169" s="12"/>
     </row>
-    <row r="170" spans="1:14" ht="18">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170" s="19" t="s">
         <v>171</v>
       </c>
@@ -10034,7 +10070,7 @@
       <c r="M170" s="12"/>
       <c r="N170" s="12"/>
     </row>
-    <row r="171" spans="1:14" ht="18">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171" s="19" t="s">
         <v>172</v>
       </c>
@@ -10062,7 +10098,7 @@
       <c r="M171" s="12"/>
       <c r="N171" s="12"/>
     </row>
-    <row r="172" spans="1:14" ht="18">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172" s="19" t="s">
         <v>173</v>
       </c>
@@ -10088,7 +10124,7 @@
       <c r="M172" s="12"/>
       <c r="N172" s="12"/>
     </row>
-    <row r="173" spans="1:14" ht="18">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173" s="19" t="s">
         <v>174</v>
       </c>
@@ -10116,7 +10152,7 @@
       <c r="M173" s="12"/>
       <c r="N173" s="12"/>
     </row>
-    <row r="174" spans="1:14" ht="18">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174" s="19" t="s">
         <v>175</v>
       </c>
@@ -10142,7 +10178,7 @@
       <c r="M174" s="12"/>
       <c r="N174" s="12"/>
     </row>
-    <row r="175" spans="1:14" ht="18">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175" s="19" t="s">
         <v>176</v>
       </c>
@@ -10170,7 +10206,7 @@
       <c r="M175" s="12"/>
       <c r="N175" s="12"/>
     </row>
-    <row r="176" spans="1:14" ht="18">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176" s="19" t="s">
         <v>177</v>
       </c>
@@ -10196,7 +10232,7 @@
       <c r="M176" s="12"/>
       <c r="N176" s="12"/>
     </row>
-    <row r="177" spans="1:14" ht="18">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177" s="19" t="s">
         <v>178</v>
       </c>
@@ -10224,7 +10260,7 @@
       <c r="M177" s="12"/>
       <c r="N177" s="12"/>
     </row>
-    <row r="178" spans="1:14" ht="18">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178" s="22" t="s">
         <v>179</v>
       </c>
@@ -10252,7 +10288,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="179" spans="1:14" ht="18">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179" s="22" t="s">
         <v>180</v>
       </c>
@@ -10282,7 +10318,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="180" spans="1:14" ht="18">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180" s="22" t="s">
         <v>181</v>
       </c>
@@ -10308,7 +10344,7 @@
       <c r="M180" s="12"/>
       <c r="N180" s="12"/>
     </row>
-    <row r="181" spans="1:14" ht="18">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A181" s="22" t="s">
         <v>182</v>
       </c>
@@ -10336,7 +10372,7 @@
       <c r="M181" s="12"/>
       <c r="N181" s="12"/>
     </row>
-    <row r="182" spans="1:14" ht="18">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182" s="22" t="s">
         <v>183</v>
       </c>
@@ -10362,7 +10398,7 @@
       <c r="M182" s="12"/>
       <c r="N182" s="12"/>
     </row>
-    <row r="183" spans="1:14" ht="18">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A183" s="22" t="s">
         <v>184</v>
       </c>
@@ -10390,7 +10426,7 @@
       <c r="M183" s="12"/>
       <c r="N183" s="12"/>
     </row>
-    <row r="184" spans="1:14" ht="18">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A184" s="22" t="s">
         <v>185</v>
       </c>
@@ -10416,7 +10452,7 @@
       <c r="M184" s="12"/>
       <c r="N184" s="12"/>
     </row>
-    <row r="185" spans="1:14" ht="18">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A185" s="22" t="s">
         <v>186</v>
       </c>
@@ -10444,7 +10480,7 @@
       <c r="M185" s="12"/>
       <c r="N185" s="12"/>
     </row>
-    <row r="186" spans="1:14" ht="18">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A186" s="22" t="s">
         <v>187</v>
       </c>
@@ -10470,7 +10506,7 @@
       <c r="M186" s="12"/>
       <c r="N186" s="12"/>
     </row>
-    <row r="187" spans="1:14" ht="18">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A187" s="22" t="s">
         <v>188</v>
       </c>
@@ -10498,7 +10534,7 @@
       <c r="M187" s="12"/>
       <c r="N187" s="12"/>
     </row>
-    <row r="188" spans="1:14" ht="18">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A188" s="22" t="s">
         <v>189</v>
       </c>
@@ -10524,7 +10560,7 @@
       <c r="M188" s="12"/>
       <c r="N188" s="12"/>
     </row>
-    <row r="189" spans="1:14" ht="18">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A189" s="22" t="s">
         <v>190</v>
       </c>
@@ -10552,7 +10588,7 @@
       <c r="M189" s="12"/>
       <c r="N189" s="12"/>
     </row>
-    <row r="190" spans="1:14" ht="18">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A190" s="22" t="s">
         <v>191</v>
       </c>
@@ -10578,7 +10614,7 @@
       <c r="M190" s="12"/>
       <c r="N190" s="12"/>
     </row>
-    <row r="191" spans="1:14" ht="18">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A191" s="22" t="s">
         <v>192</v>
       </c>
@@ -10606,7 +10642,7 @@
       <c r="M191" s="12"/>
       <c r="N191" s="12"/>
     </row>
-    <row r="192" spans="1:14" ht="18">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A192" s="22" t="s">
         <v>193</v>
       </c>
@@ -10632,7 +10668,7 @@
       <c r="M192" s="12"/>
       <c r="N192" s="12"/>
     </row>
-    <row r="193" spans="1:14" ht="18">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A193" s="22" t="s">
         <v>194</v>
       </c>
@@ -10660,7 +10696,7 @@
       <c r="M193" s="12"/>
       <c r="N193" s="12"/>
     </row>
-    <row r="194" spans="1:14" ht="18">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A194" s="14" t="s">
         <v>195</v>
       </c>
@@ -10701,7 +10737,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="195" spans="1:14" ht="18">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A195" s="14" t="s">
         <v>196</v>
       </c>
@@ -10729,7 +10765,7 @@
       <c r="M195" s="12"/>
       <c r="N195" s="12"/>
     </row>
-    <row r="196" spans="1:14" ht="18">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A196" s="14" t="s">
         <v>197</v>
       </c>
@@ -10755,7 +10791,7 @@
       <c r="M196" s="12"/>
       <c r="N196" s="12"/>
     </row>
-    <row r="197" spans="1:14" ht="18">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A197" s="14" t="s">
         <v>198</v>
       </c>
@@ -10783,7 +10819,7 @@
       <c r="M197" s="12"/>
       <c r="N197" s="12"/>
     </row>
-    <row r="198" spans="1:14" ht="18">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A198" s="14" t="s">
         <v>199</v>
       </c>
@@ -10822,7 +10858,7 @@
       </c>
       <c r="N198" s="12"/>
     </row>
-    <row r="199" spans="1:14" ht="18">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A199" s="14" t="s">
         <v>200</v>
       </c>
@@ -10850,7 +10886,7 @@
       <c r="M199" s="12"/>
       <c r="N199" s="12"/>
     </row>
-    <row r="200" spans="1:14" ht="18">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A200" s="14" t="s">
         <v>201</v>
       </c>
@@ -10876,7 +10912,7 @@
       <c r="M200" s="12"/>
       <c r="N200" s="12"/>
     </row>
-    <row r="201" spans="1:14" ht="18">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A201" s="14" t="s">
         <v>202</v>
       </c>
@@ -10904,7 +10940,7 @@
       <c r="M201" s="12"/>
       <c r="N201" s="12"/>
     </row>
-    <row r="202" spans="1:14" ht="18">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A202" s="14" t="s">
         <v>203</v>
       </c>
@@ -10930,7 +10966,7 @@
       <c r="M202" s="12"/>
       <c r="N202" s="12"/>
     </row>
-    <row r="203" spans="1:14" ht="19" customHeight="1">
+    <row r="203" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="14" t="s">
         <v>204</v>
       </c>
@@ -10958,7 +10994,7 @@
       <c r="M203" s="12"/>
       <c r="N203" s="12"/>
     </row>
-    <row r="204" spans="1:14" ht="17" customHeight="1">
+    <row r="204" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="14" t="s">
         <v>205</v>
       </c>
@@ -10984,7 +11020,7 @@
       <c r="M204" s="12"/>
       <c r="N204" s="12"/>
     </row>
-    <row r="205" spans="1:14" ht="18" customHeight="1">
+    <row r="205" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="14" t="s">
         <v>206</v>
       </c>
@@ -11025,7 +11061,7 @@
       </c>
       <c r="N205" s="12"/>
     </row>
-    <row r="206" spans="1:14" ht="17" customHeight="1">
+    <row r="206" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="14" t="s">
         <v>207</v>
       </c>
@@ -11064,7 +11100,7 @@
       </c>
       <c r="N206" s="12"/>
     </row>
-    <row r="207" spans="1:14" ht="17" customHeight="1">
+    <row r="207" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="14" t="s">
         <v>208</v>
       </c>
@@ -11094,7 +11130,7 @@
       <c r="M207" s="12"/>
       <c r="N207" s="12"/>
     </row>
-    <row r="208" spans="1:14" ht="18">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A208" s="14" t="s">
         <v>209</v>
       </c>
@@ -11133,7 +11169,7 @@
       </c>
       <c r="N208" s="12"/>
     </row>
-    <row r="209" spans="1:14" ht="18">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A209" s="14" t="s">
         <v>210</v>
       </c>
@@ -11161,7 +11197,7 @@
       <c r="M209" s="12"/>
       <c r="N209" s="12"/>
     </row>
-    <row r="210" spans="1:14" ht="18">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A210" s="19" t="s">
         <v>211</v>
       </c>
@@ -11189,7 +11225,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="211" spans="1:14" ht="18">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A211" s="19" t="s">
         <v>212</v>
       </c>
@@ -11217,7 +11253,7 @@
       <c r="M211" s="12"/>
       <c r="N211" s="12"/>
     </row>
-    <row r="212" spans="1:14" ht="18">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A212" s="19" t="s">
         <v>213</v>
       </c>
@@ -11243,7 +11279,7 @@
       <c r="M212" s="12"/>
       <c r="N212" s="12"/>
     </row>
-    <row r="213" spans="1:14" ht="18">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A213" s="19" t="s">
         <v>214</v>
       </c>
@@ -11273,7 +11309,7 @@
       <c r="M213" s="12"/>
       <c r="N213" s="12"/>
     </row>
-    <row r="214" spans="1:14" ht="18">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A214" s="19" t="s">
         <v>215</v>
       </c>
@@ -11299,7 +11335,7 @@
       <c r="M214" s="12"/>
       <c r="N214" s="12"/>
     </row>
-    <row r="215" spans="1:14" ht="18">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A215" s="19" t="s">
         <v>216</v>
       </c>
@@ -11327,7 +11363,7 @@
       <c r="M215" s="12"/>
       <c r="N215" s="12"/>
     </row>
-    <row r="216" spans="1:14" ht="18">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A216" s="19" t="s">
         <v>217</v>
       </c>
@@ -11353,7 +11389,7 @@
       <c r="M216" s="12"/>
       <c r="N216" s="12"/>
     </row>
-    <row r="217" spans="1:14" ht="18">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A217" s="19" t="s">
         <v>218</v>
       </c>
@@ -11381,7 +11417,7 @@
       <c r="M217" s="12"/>
       <c r="N217" s="12"/>
     </row>
-    <row r="218" spans="1:14" ht="18">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A218" s="19" t="s">
         <v>219</v>
       </c>
@@ -11407,7 +11443,7 @@
       <c r="M218" s="12"/>
       <c r="N218" s="12"/>
     </row>
-    <row r="219" spans="1:14" ht="18">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A219" s="19" t="s">
         <v>220</v>
       </c>
@@ -11435,7 +11471,7 @@
       <c r="M219" s="12"/>
       <c r="N219" s="12"/>
     </row>
-    <row r="220" spans="1:14" ht="18">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A220" s="19" t="s">
         <v>221</v>
       </c>
@@ -11461,7 +11497,7 @@
       <c r="M220" s="12"/>
       <c r="N220" s="12"/>
     </row>
-    <row r="221" spans="1:14" ht="18">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A221" s="19" t="s">
         <v>222</v>
       </c>
@@ -11489,7 +11525,7 @@
       <c r="M221" s="12"/>
       <c r="N221" s="12"/>
     </row>
-    <row r="222" spans="1:14" ht="18">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A222" s="19" t="s">
         <v>223</v>
       </c>
@@ -11515,7 +11551,7 @@
       <c r="M222" s="12"/>
       <c r="N222" s="12"/>
     </row>
-    <row r="223" spans="1:14" ht="18">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A223" s="19" t="s">
         <v>224</v>
       </c>
@@ -11543,7 +11579,7 @@
       <c r="M223" s="12"/>
       <c r="N223" s="12"/>
     </row>
-    <row r="224" spans="1:14" ht="18">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A224" s="19" t="s">
         <v>225</v>
       </c>
@@ -11569,7 +11605,7 @@
       <c r="M224" s="12"/>
       <c r="N224" s="12"/>
     </row>
-    <row r="225" spans="1:14" ht="18">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A225" s="19" t="s">
         <v>226</v>
       </c>
@@ -11597,7 +11633,7 @@
       <c r="M225" s="12"/>
       <c r="N225" s="12"/>
     </row>
-    <row r="226" spans="1:14" ht="18">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A226" s="22" t="s">
         <v>227</v>
       </c>
@@ -11625,7 +11661,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="227" spans="1:14" ht="18">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A227" s="22" t="s">
         <v>228</v>
       </c>
@@ -11655,7 +11691,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="228" spans="1:14" ht="18">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A228" s="22" t="s">
         <v>229</v>
       </c>
@@ -11681,7 +11717,7 @@
       <c r="M228" s="12"/>
       <c r="N228" s="12"/>
     </row>
-    <row r="229" spans="1:14" ht="18">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A229" s="22" t="s">
         <v>230</v>
       </c>
@@ -11709,7 +11745,7 @@
       <c r="M229" s="12"/>
       <c r="N229" s="12"/>
     </row>
-    <row r="230" spans="1:14" ht="18">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A230" s="22" t="s">
         <v>231</v>
       </c>
@@ -11735,7 +11771,7 @@
       <c r="M230" s="12"/>
       <c r="N230" s="12"/>
     </row>
-    <row r="231" spans="1:14" ht="18">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A231" s="22" t="s">
         <v>232</v>
       </c>
@@ -11763,7 +11799,7 @@
       <c r="M231" s="12"/>
       <c r="N231" s="12"/>
     </row>
-    <row r="232" spans="1:14" ht="18">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A232" s="22" t="s">
         <v>233</v>
       </c>
@@ -11789,7 +11825,7 @@
       <c r="M232" s="12"/>
       <c r="N232" s="12"/>
     </row>
-    <row r="233" spans="1:14" ht="18">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A233" s="22" t="s">
         <v>234</v>
       </c>
@@ -11817,7 +11853,7 @@
       <c r="M233" s="12"/>
       <c r="N233" s="12"/>
     </row>
-    <row r="234" spans="1:14" ht="18">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A234" s="22" t="s">
         <v>235</v>
       </c>
@@ -11843,7 +11879,7 @@
       <c r="M234" s="12"/>
       <c r="N234" s="12"/>
     </row>
-    <row r="235" spans="1:14" ht="18">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A235" s="22" t="s">
         <v>236</v>
       </c>
@@ -11871,7 +11907,7 @@
       <c r="M235" s="12"/>
       <c r="N235" s="12"/>
     </row>
-    <row r="236" spans="1:14" ht="18">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A236" s="22" t="s">
         <v>237</v>
       </c>
@@ -11897,7 +11933,7 @@
       <c r="M236" s="12"/>
       <c r="N236" s="12"/>
     </row>
-    <row r="237" spans="1:14" ht="18">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A237" s="22" t="s">
         <v>238</v>
       </c>
@@ -11927,7 +11963,7 @@
       <c r="M237" s="12"/>
       <c r="N237" s="12"/>
     </row>
-    <row r="238" spans="1:14" ht="18">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A238" s="22" t="s">
         <v>239</v>
       </c>
@@ -11953,7 +11989,7 @@
       <c r="M238" s="12"/>
       <c r="N238" s="12"/>
     </row>
-    <row r="239" spans="1:14" ht="18">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A239" s="22" t="s">
         <v>240</v>
       </c>
@@ -11981,7 +12017,7 @@
       <c r="M239" s="12"/>
       <c r="N239" s="12"/>
     </row>
-    <row r="240" spans="1:14" ht="18">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A240" s="22" t="s">
         <v>241</v>
       </c>
@@ -12007,7 +12043,7 @@
       <c r="M240" s="12"/>
       <c r="N240" s="12"/>
     </row>
-    <row r="241" spans="1:14" ht="18">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A241" s="22" t="s">
         <v>242</v>
       </c>
@@ -12037,7 +12073,7 @@
       <c r="M241" s="12"/>
       <c r="N241" s="12"/>
     </row>
-    <row r="242" spans="1:14" ht="18">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A242" s="14" t="s">
         <v>243</v>
       </c>
@@ -12059,7 +12095,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="243" spans="1:14" ht="18">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A243" s="14" t="s">
         <v>244</v>
       </c>
@@ -12083,15 +12119,19 @@
       <c r="M243" s="12"/>
       <c r="N243" s="12"/>
     </row>
-    <row r="244" spans="1:14" ht="18">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A244" s="14" t="s">
         <v>245</v>
       </c>
       <c r="B244" s="15">
         <v>43521</v>
       </c>
-      <c r="C244" s="15"/>
-      <c r="D244" s="16"/>
+      <c r="C244" s="15">
+        <v>43530</v>
+      </c>
+      <c r="D244" s="16">
+        <v>40.200000000000003</v>
+      </c>
       <c r="E244" s="15">
         <v>43458</v>
       </c>
@@ -12105,7 +12145,7 @@
       <c r="M244" s="12"/>
       <c r="N244" s="12"/>
     </row>
-    <row r="245" spans="1:14" ht="18">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A245" s="14" t="s">
         <v>246</v>
       </c>
@@ -12129,7 +12169,7 @@
       <c r="M245" s="12"/>
       <c r="N245" s="12"/>
     </row>
-    <row r="246" spans="1:14" ht="18">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A246" s="14" t="s">
         <v>247</v>
       </c>
@@ -12149,7 +12189,7 @@
       <c r="M246" s="12"/>
       <c r="N246" s="12"/>
     </row>
-    <row r="247" spans="1:14" ht="18">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A247" s="14" t="s">
         <v>248</v>
       </c>
@@ -12169,7 +12209,7 @@
       <c r="M247" s="12"/>
       <c r="N247" s="12"/>
     </row>
-    <row r="248" spans="1:14" ht="18">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A248" s="14" t="s">
         <v>249</v>
       </c>
@@ -12189,7 +12229,7 @@
       <c r="M248" s="12"/>
       <c r="N248" s="12"/>
     </row>
-    <row r="249" spans="1:14" ht="18">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A249" s="14" t="s">
         <v>250</v>
       </c>
@@ -12209,7 +12249,7 @@
       <c r="M249" s="12"/>
       <c r="N249" s="12"/>
     </row>
-    <row r="250" spans="1:14" ht="18">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A250" s="14" t="s">
         <v>251</v>
       </c>
@@ -12229,7 +12269,7 @@
       <c r="M250" s="12"/>
       <c r="N250" s="12"/>
     </row>
-    <row r="251" spans="1:14" ht="18">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A251" s="14" t="s">
         <v>252</v>
       </c>
@@ -12251,7 +12291,7 @@
       <c r="M251" s="12"/>
       <c r="N251" s="12"/>
     </row>
-    <row r="252" spans="1:14" ht="18">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A252" s="14" t="s">
         <v>253</v>
       </c>
@@ -12271,7 +12311,7 @@
       <c r="M252" s="12"/>
       <c r="N252" s="12"/>
     </row>
-    <row r="253" spans="1:14" ht="18">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A253" s="14" t="s">
         <v>254</v>
       </c>
@@ -12291,7 +12331,7 @@
       <c r="M253" s="12"/>
       <c r="N253" s="12"/>
     </row>
-    <row r="254" spans="1:14" ht="18">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A254" s="14" t="s">
         <v>255</v>
       </c>
@@ -12311,7 +12351,7 @@
       <c r="M254" s="12"/>
       <c r="N254" s="12"/>
     </row>
-    <row r="255" spans="1:14" ht="18">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A255" s="14" t="s">
         <v>256</v>
       </c>
@@ -12331,7 +12371,7 @@
       <c r="M255" s="12"/>
       <c r="N255" s="12"/>
     </row>
-    <row r="256" spans="1:14" ht="18">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A256" s="14" t="s">
         <v>257</v>
       </c>
@@ -12351,7 +12391,7 @@
       <c r="M256" s="12"/>
       <c r="N256" s="12"/>
     </row>
-    <row r="257" spans="1:14" ht="18">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A257" s="14" t="s">
         <v>258</v>
       </c>
@@ -12371,7 +12411,7 @@
       <c r="M257" s="12"/>
       <c r="N257" s="12"/>
     </row>
-    <row r="258" spans="1:14" ht="18">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A258" s="19" t="s">
         <v>259</v>
       </c>
@@ -12393,7 +12433,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="259" spans="1:14" ht="18">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A259" s="19" t="s">
         <v>260</v>
       </c>
@@ -12413,7 +12453,7 @@
       <c r="M259" s="12"/>
       <c r="N259" s="12"/>
     </row>
-    <row r="260" spans="1:14" ht="18">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A260" s="19" t="s">
         <v>261</v>
       </c>
@@ -12433,7 +12473,7 @@
       <c r="M260" s="12"/>
       <c r="N260" s="12"/>
     </row>
-    <row r="261" spans="1:14" ht="18">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A261" s="19" t="s">
         <v>262</v>
       </c>
@@ -12453,7 +12493,7 @@
       <c r="M261" s="12"/>
       <c r="N261" s="12"/>
     </row>
-    <row r="262" spans="1:14" ht="18">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A262" s="19" t="s">
         <v>263</v>
       </c>
@@ -12473,7 +12513,7 @@
       <c r="M262" s="12"/>
       <c r="N262" s="12"/>
     </row>
-    <row r="263" spans="1:14" ht="18">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A263" s="19" t="s">
         <v>264</v>
       </c>
@@ -12493,7 +12533,7 @@
       <c r="M263" s="12"/>
       <c r="N263" s="12"/>
     </row>
-    <row r="264" spans="1:14" ht="18">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A264" s="19" t="s">
         <v>265</v>
       </c>
@@ -12513,7 +12553,7 @@
       <c r="M264" s="12"/>
       <c r="N264" s="12"/>
     </row>
-    <row r="265" spans="1:14" ht="18">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A265" s="19" t="s">
         <v>266</v>
       </c>
@@ -12533,7 +12573,7 @@
       <c r="M265" s="12"/>
       <c r="N265" s="12"/>
     </row>
-    <row r="266" spans="1:14" ht="18">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A266" s="19" t="s">
         <v>267</v>
       </c>
@@ -12553,7 +12593,7 @@
       <c r="M266" s="12"/>
       <c r="N266" s="12"/>
     </row>
-    <row r="267" spans="1:14" ht="18">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A267" s="19" t="s">
         <v>268</v>
       </c>
@@ -12573,7 +12613,7 @@
       <c r="M267" s="12"/>
       <c r="N267" s="12"/>
     </row>
-    <row r="268" spans="1:14" ht="18">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A268" s="19" t="s">
         <v>269</v>
       </c>
@@ -12593,7 +12633,7 @@
       <c r="M268" s="12"/>
       <c r="N268" s="12"/>
     </row>
-    <row r="269" spans="1:14" ht="18">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A269" s="19" t="s">
         <v>270</v>
       </c>
@@ -12613,7 +12653,7 @@
       <c r="M269" s="12"/>
       <c r="N269" s="12"/>
     </row>
-    <row r="270" spans="1:14" ht="18">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A270" s="19" t="s">
         <v>271</v>
       </c>
@@ -12635,7 +12675,7 @@
       <c r="M270" s="12"/>
       <c r="N270" s="12"/>
     </row>
-    <row r="271" spans="1:14" ht="18">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A271" s="19" t="s">
         <v>272</v>
       </c>
@@ -12655,7 +12695,7 @@
       <c r="M271" s="12"/>
       <c r="N271" s="12"/>
     </row>
-    <row r="272" spans="1:14" ht="18">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A272" s="19" t="s">
         <v>273</v>
       </c>
@@ -12675,7 +12715,7 @@
       <c r="M272" s="12"/>
       <c r="N272" s="12"/>
     </row>
-    <row r="273" spans="1:14" ht="18">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A273" s="19" t="s">
         <v>274</v>
       </c>
@@ -12695,7 +12735,7 @@
       <c r="M273" s="12"/>
       <c r="N273" s="12"/>
     </row>
-    <row r="274" spans="1:14" ht="18">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A274" s="22" t="s">
         <v>275</v>
       </c>
@@ -12717,7 +12757,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="275" spans="1:14" ht="18">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A275" s="22" t="s">
         <v>276</v>
       </c>
@@ -12737,7 +12777,7 @@
       <c r="M275" s="12"/>
       <c r="N275" s="12"/>
     </row>
-    <row r="276" spans="1:14" ht="18">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A276" s="22" t="s">
         <v>277</v>
       </c>
@@ -12757,7 +12797,7 @@
       <c r="M276" s="12"/>
       <c r="N276" s="12"/>
     </row>
-    <row r="277" spans="1:14" ht="18">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A277" s="22" t="s">
         <v>278</v>
       </c>
@@ -12777,7 +12817,7 @@
       <c r="M277" s="12"/>
       <c r="N277" s="12"/>
     </row>
-    <row r="278" spans="1:14" ht="18">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A278" s="22" t="s">
         <v>279</v>
       </c>
@@ -12797,7 +12837,7 @@
       <c r="M278" s="12"/>
       <c r="N278" s="12"/>
     </row>
-    <row r="279" spans="1:14" ht="18">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A279" s="22" t="s">
         <v>280</v>
       </c>
@@ -12817,7 +12857,7 @@
       <c r="M279" s="12"/>
       <c r="N279" s="12"/>
     </row>
-    <row r="280" spans="1:14" ht="18">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A280" s="22" t="s">
         <v>281</v>
       </c>
@@ -12837,7 +12877,7 @@
       <c r="M280" s="12"/>
       <c r="N280" s="12"/>
     </row>
-    <row r="281" spans="1:14" ht="18">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A281" s="22" t="s">
         <v>282</v>
       </c>
@@ -12857,7 +12897,7 @@
       <c r="M281" s="12"/>
       <c r="N281" s="12"/>
     </row>
-    <row r="282" spans="1:14" ht="18">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A282" s="22" t="s">
         <v>283</v>
       </c>
@@ -12877,7 +12917,7 @@
       <c r="M282" s="12"/>
       <c r="N282" s="12"/>
     </row>
-    <row r="283" spans="1:14" ht="18">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A283" s="22" t="s">
         <v>284</v>
       </c>
@@ -12897,7 +12937,7 @@
       <c r="M283" s="12"/>
       <c r="N283" s="12"/>
     </row>
-    <row r="284" spans="1:14" ht="18">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A284" s="22" t="s">
         <v>285</v>
       </c>
@@ -12917,7 +12957,7 @@
       <c r="M284" s="12"/>
       <c r="N284" s="12"/>
     </row>
-    <row r="285" spans="1:14" ht="18">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A285" s="22" t="s">
         <v>286</v>
       </c>
@@ -12937,7 +12977,7 @@
       <c r="M285" s="12"/>
       <c r="N285" s="12"/>
     </row>
-    <row r="286" spans="1:14" ht="18">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A286" s="22" t="s">
         <v>287</v>
       </c>
@@ -12957,7 +12997,7 @@
       <c r="M286" s="12"/>
       <c r="N286" s="12"/>
     </row>
-    <row r="287" spans="1:14" ht="18">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A287" s="22" t="s">
         <v>288</v>
       </c>
@@ -12977,7 +13017,7 @@
       <c r="M287" s="12"/>
       <c r="N287" s="12"/>
     </row>
-    <row r="288" spans="1:14" ht="18">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A288" s="22" t="s">
         <v>289</v>
       </c>
@@ -12997,7 +13037,7 @@
       <c r="M288" s="12"/>
       <c r="N288" s="12"/>
     </row>
-    <row r="289" spans="1:14" ht="18">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A289" s="22" t="s">
         <v>290</v>
       </c>
@@ -13017,7 +13057,7 @@
       <c r="M289" s="12"/>
       <c r="N289" s="12"/>
     </row>
-    <row r="290" spans="1:14" ht="18">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A290" s="14" t="s">
         <v>291</v>
       </c>
@@ -13039,7 +13079,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="291" spans="1:14" ht="18">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A291" s="14" t="s">
         <v>292</v>
       </c>
@@ -13061,7 +13101,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="292" spans="1:14" ht="18">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A292" s="14" t="s">
         <v>293</v>
       </c>
@@ -13083,7 +13123,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="293" spans="1:14" ht="18">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A293" s="14" t="s">
         <v>294</v>
       </c>
@@ -13105,7 +13145,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="294" spans="1:14" ht="18">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A294" s="14" t="s">
         <v>295</v>
       </c>
@@ -13125,7 +13165,7 @@
       <c r="M294" s="12"/>
       <c r="N294" s="12"/>
     </row>
-    <row r="295" spans="1:14" ht="18">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A295" s="14" t="s">
         <v>296</v>
       </c>
@@ -13145,7 +13185,7 @@
       <c r="M295" s="12"/>
       <c r="N295" s="12"/>
     </row>
-    <row r="296" spans="1:14" ht="18">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A296" s="14" t="s">
         <v>297</v>
       </c>
@@ -13167,7 +13207,7 @@
       <c r="M296" s="12"/>
       <c r="N296" s="12"/>
     </row>
-    <row r="297" spans="1:14" ht="18">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A297" s="14" t="s">
         <v>298</v>
       </c>
@@ -13187,7 +13227,7 @@
       <c r="M297" s="12"/>
       <c r="N297" s="12"/>
     </row>
-    <row r="298" spans="1:14" ht="18">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A298" s="14" t="s">
         <v>299</v>
       </c>
@@ -13207,7 +13247,7 @@
       <c r="M298" s="12"/>
       <c r="N298" s="12"/>
     </row>
-    <row r="299" spans="1:14" ht="18">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A299" s="14" t="s">
         <v>300</v>
       </c>
@@ -13231,7 +13271,7 @@
       <c r="M299" s="12"/>
       <c r="N299" s="12"/>
     </row>
-    <row r="300" spans="1:14" ht="18">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A300" s="14" t="s">
         <v>301</v>
       </c>
@@ -13257,7 +13297,7 @@
       <c r="M300" s="12"/>
       <c r="N300" s="12"/>
     </row>
-    <row r="301" spans="1:14" ht="18">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A301" s="14" t="s">
         <v>302</v>
       </c>
@@ -13281,7 +13321,7 @@
       <c r="M301" s="12"/>
       <c r="N301" s="12"/>
     </row>
-    <row r="302" spans="1:14" ht="18">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A302" s="14" t="s">
         <v>303</v>
       </c>
@@ -13301,7 +13341,7 @@
       <c r="M302" s="12"/>
       <c r="N302" s="12"/>
     </row>
-    <row r="303" spans="1:14" ht="18">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A303" s="14" t="s">
         <v>304</v>
       </c>
@@ -13325,7 +13365,7 @@
       <c r="M303" s="12"/>
       <c r="N303" s="12"/>
     </row>
-    <row r="304" spans="1:14" ht="18">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A304" s="14" t="s">
         <v>305</v>
       </c>
@@ -13351,7 +13391,7 @@
       <c r="M304" s="12"/>
       <c r="N304" s="12"/>
     </row>
-    <row r="305" spans="1:14" ht="18">
+    <row r="305" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A305" s="14" t="s">
         <v>306</v>
       </c>
@@ -13371,7 +13411,7 @@
       <c r="M305" s="12"/>
       <c r="N305" s="12"/>
     </row>
-    <row r="306" spans="1:14" ht="18">
+    <row r="306" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A306" s="19" t="s">
         <v>307</v>
       </c>
@@ -13393,7 +13433,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="307" spans="1:14" ht="18">
+    <row r="307" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A307" s="19" t="s">
         <v>308</v>
       </c>
@@ -13413,7 +13453,7 @@
       <c r="M307" s="12"/>
       <c r="N307" s="12"/>
     </row>
-    <row r="308" spans="1:14" ht="18">
+    <row r="308" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A308" s="19" t="s">
         <v>309</v>
       </c>
@@ -13433,7 +13473,7 @@
       <c r="M308" s="12"/>
       <c r="N308" s="12"/>
     </row>
-    <row r="309" spans="1:14" ht="18">
+    <row r="309" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A309" s="19" t="s">
         <v>310</v>
       </c>
@@ -13453,7 +13493,7 @@
       <c r="M309" s="12"/>
       <c r="N309" s="12"/>
     </row>
-    <row r="310" spans="1:14" ht="18">
+    <row r="310" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A310" s="19" t="s">
         <v>311</v>
       </c>
@@ -13473,7 +13513,7 @@
       <c r="M310" s="12"/>
       <c r="N310" s="12"/>
     </row>
-    <row r="311" spans="1:14" ht="18">
+    <row r="311" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A311" s="19" t="s">
         <v>312</v>
       </c>
@@ -13493,7 +13533,7 @@
       <c r="M311" s="12"/>
       <c r="N311" s="12"/>
     </row>
-    <row r="312" spans="1:14" ht="18">
+    <row r="312" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A312" s="19" t="s">
         <v>313</v>
       </c>
@@ -13513,7 +13553,7 @@
       <c r="M312" s="12"/>
       <c r="N312" s="12"/>
     </row>
-    <row r="313" spans="1:14" ht="18">
+    <row r="313" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A313" s="19" t="s">
         <v>314</v>
       </c>
@@ -13533,7 +13573,7 @@
       <c r="M313" s="12"/>
       <c r="N313" s="12"/>
     </row>
-    <row r="314" spans="1:14" ht="18">
+    <row r="314" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A314" s="19" t="s">
         <v>315</v>
       </c>
@@ -13553,7 +13593,7 @@
       <c r="M314" s="12"/>
       <c r="N314" s="12"/>
     </row>
-    <row r="315" spans="1:14" ht="18">
+    <row r="315" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A315" s="19" t="s">
         <v>316</v>
       </c>
@@ -13573,7 +13613,7 @@
       <c r="M315" s="12"/>
       <c r="N315" s="12"/>
     </row>
-    <row r="316" spans="1:14" ht="18">
+    <row r="316" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A316" s="19" t="s">
         <v>317</v>
       </c>
@@ -13593,7 +13633,7 @@
       <c r="M316" s="12"/>
       <c r="N316" s="12"/>
     </row>
-    <row r="317" spans="1:14" ht="18">
+    <row r="317" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A317" s="19" t="s">
         <v>318</v>
       </c>
@@ -13613,7 +13653,7 @@
       <c r="M317" s="12"/>
       <c r="N317" s="12"/>
     </row>
-    <row r="318" spans="1:14" ht="18">
+    <row r="318" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A318" s="19" t="s">
         <v>319</v>
       </c>
@@ -13633,7 +13673,7 @@
       <c r="M318" s="12"/>
       <c r="N318" s="12"/>
     </row>
-    <row r="319" spans="1:14" ht="18">
+    <row r="319" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A319" s="19" t="s">
         <v>320</v>
       </c>
@@ -13653,7 +13693,7 @@
       <c r="M319" s="12"/>
       <c r="N319" s="12"/>
     </row>
-    <row r="320" spans="1:14" ht="18">
+    <row r="320" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A320" s="19" t="s">
         <v>321</v>
       </c>
@@ -13673,7 +13713,7 @@
       <c r="M320" s="12"/>
       <c r="N320" s="12"/>
     </row>
-    <row r="321" spans="1:14" ht="18">
+    <row r="321" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A321" s="19" t="s">
         <v>322</v>
       </c>
@@ -13693,7 +13733,7 @@
       <c r="M321" s="12"/>
       <c r="N321" s="12"/>
     </row>
-    <row r="322" spans="1:14" ht="18">
+    <row r="322" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A322" s="22" t="s">
         <v>323</v>
       </c>
@@ -13715,7 +13755,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="323" spans="1:14" ht="18">
+    <row r="323" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A323" s="22" t="s">
         <v>324</v>
       </c>
@@ -13735,7 +13775,7 @@
       <c r="M323" s="12"/>
       <c r="N323" s="12"/>
     </row>
-    <row r="324" spans="1:14" ht="18">
+    <row r="324" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A324" s="22" t="s">
         <v>325</v>
       </c>
@@ -13755,7 +13795,7 @@
       <c r="M324" s="12"/>
       <c r="N324" s="12"/>
     </row>
-    <row r="325" spans="1:14" ht="18">
+    <row r="325" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A325" s="22" t="s">
         <v>326</v>
       </c>
@@ -13779,7 +13819,7 @@
       <c r="M325" s="12"/>
       <c r="N325" s="12"/>
     </row>
-    <row r="326" spans="1:14" ht="18">
+    <row r="326" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A326" s="22" t="s">
         <v>327</v>
       </c>
@@ -13799,7 +13839,7 @@
       <c r="M326" s="12"/>
       <c r="N326" s="12"/>
     </row>
-    <row r="327" spans="1:14" ht="18">
+    <row r="327" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A327" s="22" t="s">
         <v>328</v>
       </c>
@@ -13819,7 +13859,7 @@
       <c r="M327" s="12"/>
       <c r="N327" s="12"/>
     </row>
-    <row r="328" spans="1:14" ht="18">
+    <row r="328" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A328" s="22" t="s">
         <v>329</v>
       </c>
@@ -13839,7 +13879,7 @@
       <c r="M328" s="12"/>
       <c r="N328" s="12"/>
     </row>
-    <row r="329" spans="1:14" ht="18">
+    <row r="329" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A329" s="22" t="s">
         <v>330</v>
       </c>
@@ -13859,7 +13899,7 @@
       <c r="M329" s="12"/>
       <c r="N329" s="12"/>
     </row>
-    <row r="330" spans="1:14" ht="18">
+    <row r="330" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A330" s="22" t="s">
         <v>331</v>
       </c>
@@ -13879,7 +13919,7 @@
       <c r="M330" s="12"/>
       <c r="N330" s="12"/>
     </row>
-    <row r="331" spans="1:14" ht="18">
+    <row r="331" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A331" s="22" t="s">
         <v>332</v>
       </c>
@@ -13899,7 +13939,7 @@
       <c r="M331" s="12"/>
       <c r="N331" s="12"/>
     </row>
-    <row r="332" spans="1:14" ht="18">
+    <row r="332" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A332" s="22" t="s">
         <v>333</v>
       </c>
@@ -13919,7 +13959,7 @@
       <c r="M332" s="12"/>
       <c r="N332" s="12"/>
     </row>
-    <row r="333" spans="1:14" ht="18">
+    <row r="333" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A333" s="22" t="s">
         <v>334</v>
       </c>
@@ -13939,7 +13979,7 @@
       <c r="M333" s="12"/>
       <c r="N333" s="12"/>
     </row>
-    <row r="334" spans="1:14" ht="18">
+    <row r="334" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A334" s="22" t="s">
         <v>335</v>
       </c>
@@ -13959,7 +13999,7 @@
       <c r="M334" s="12"/>
       <c r="N334" s="12"/>
     </row>
-    <row r="335" spans="1:14" ht="18">
+    <row r="335" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A335" s="22" t="s">
         <v>336</v>
       </c>
@@ -13983,7 +14023,7 @@
       <c r="M335" s="12"/>
       <c r="N335" s="12"/>
     </row>
-    <row r="336" spans="1:14" ht="18">
+    <row r="336" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A336" s="22" t="s">
         <v>337</v>
       </c>
@@ -14003,7 +14043,7 @@
       <c r="M336" s="12"/>
       <c r="N336" s="12"/>
     </row>
-    <row r="337" spans="1:14" ht="18">
+    <row r="337" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A337" s="22" t="s">
         <v>338</v>
       </c>
@@ -14023,7 +14063,7 @@
       <c r="M337" s="12"/>
       <c r="N337" s="12"/>
     </row>
-    <row r="338" spans="1:14" ht="18">
+    <row r="338" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A338" s="14" t="s">
         <v>339</v>
       </c>
@@ -14064,7 +14104,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="339" spans="1:14" ht="18">
+    <row r="339" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A339" s="14" t="s">
         <v>340</v>
       </c>
@@ -14105,7 +14145,7 @@
       </c>
       <c r="N339" s="12"/>
     </row>
-    <row r="340" spans="1:14" ht="18">
+    <row r="340" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A340" s="14" t="s">
         <v>341</v>
       </c>
@@ -14144,7 +14184,7 @@
       </c>
       <c r="N340" s="12"/>
     </row>
-    <row r="341" spans="1:14" ht="18">
+    <row r="341" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A341" s="14" t="s">
         <v>342</v>
       </c>
@@ -14185,7 +14225,7 @@
       </c>
       <c r="N341" s="12"/>
     </row>
-    <row r="342" spans="1:14" ht="18">
+    <row r="342" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A342" s="14" t="s">
         <v>343</v>
       </c>
@@ -14224,7 +14264,7 @@
       </c>
       <c r="N342" s="12"/>
     </row>
-    <row r="343" spans="1:14" ht="18">
+    <row r="343" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A343" s="14" t="s">
         <v>344</v>
       </c>
@@ -14265,7 +14305,7 @@
       </c>
       <c r="N343" s="12"/>
     </row>
-    <row r="344" spans="1:14" ht="18">
+    <row r="344" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A344" s="14" t="s">
         <v>345</v>
       </c>
@@ -14304,7 +14344,7 @@
       </c>
       <c r="N344" s="12"/>
     </row>
-    <row r="345" spans="1:14" ht="18">
+    <row r="345" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A345" s="14" t="s">
         <v>346</v>
       </c>
@@ -14345,7 +14385,7 @@
       </c>
       <c r="N345" s="12"/>
     </row>
-    <row r="346" spans="1:14" ht="18">
+    <row r="346" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A346" s="14" t="s">
         <v>347</v>
       </c>
@@ -14384,7 +14424,7 @@
       </c>
       <c r="N346" s="12"/>
     </row>
-    <row r="347" spans="1:14" ht="18">
+    <row r="347" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A347" s="14" t="s">
         <v>348</v>
       </c>
@@ -14425,7 +14465,7 @@
       </c>
       <c r="N347" s="12"/>
     </row>
-    <row r="348" spans="1:14" ht="18">
+    <row r="348" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A348" s="14" t="s">
         <v>349</v>
       </c>
@@ -14464,7 +14504,7 @@
       </c>
       <c r="N348" s="12"/>
     </row>
-    <row r="349" spans="1:14" ht="18">
+    <row r="349" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A349" s="14" t="s">
         <v>350</v>
       </c>
@@ -14505,7 +14545,7 @@
       </c>
       <c r="N349" s="12"/>
     </row>
-    <row r="350" spans="1:14" ht="18">
+    <row r="350" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A350" s="14" t="s">
         <v>351</v>
       </c>
@@ -14544,7 +14584,7 @@
       </c>
       <c r="N350" s="12"/>
     </row>
-    <row r="351" spans="1:14" ht="18">
+    <row r="351" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A351" s="14" t="s">
         <v>352</v>
       </c>
@@ -14587,7 +14627,7 @@
       </c>
       <c r="N351" s="12"/>
     </row>
-    <row r="352" spans="1:14" ht="18">
+    <row r="352" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A352" s="14" t="s">
         <v>353</v>
       </c>
@@ -14626,7 +14666,7 @@
       </c>
       <c r="N352" s="12"/>
     </row>
-    <row r="353" spans="1:14" ht="18">
+    <row r="353" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A353" s="14" t="s">
         <v>354</v>
       </c>
@@ -14654,7 +14694,7 @@
       <c r="M353" s="12"/>
       <c r="N353" s="12"/>
     </row>
-    <row r="354" spans="1:14" ht="18">
+    <row r="354" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A354" s="19" t="s">
         <v>355</v>
       </c>
@@ -14682,7 +14722,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="355" spans="1:14" ht="18">
+    <row r="355" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A355" s="19" t="s">
         <v>356</v>
       </c>
@@ -14710,7 +14750,7 @@
       <c r="M355" s="12"/>
       <c r="N355" s="12"/>
     </row>
-    <row r="356" spans="1:14" ht="18">
+    <row r="356" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A356" s="19" t="s">
         <v>357</v>
       </c>
@@ -14736,7 +14776,7 @@
       <c r="M356" s="12"/>
       <c r="N356" s="12"/>
     </row>
-    <row r="357" spans="1:14" ht="18">
+    <row r="357" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A357" s="19" t="s">
         <v>358</v>
       </c>
@@ -14764,7 +14804,7 @@
       <c r="M357" s="12"/>
       <c r="N357" s="12"/>
     </row>
-    <row r="358" spans="1:14" ht="18">
+    <row r="358" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A358" s="19" t="s">
         <v>359</v>
       </c>
@@ -14790,7 +14830,7 @@
       <c r="M358" s="12"/>
       <c r="N358" s="12"/>
     </row>
-    <row r="359" spans="1:14" ht="18">
+    <row r="359" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A359" s="19" t="s">
         <v>360</v>
       </c>
@@ -14818,7 +14858,7 @@
       <c r="M359" s="12"/>
       <c r="N359" s="12"/>
     </row>
-    <row r="360" spans="1:14" ht="18">
+    <row r="360" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A360" s="19" t="s">
         <v>361</v>
       </c>
@@ -14844,7 +14884,7 @@
       <c r="M360" s="12"/>
       <c r="N360" s="12"/>
     </row>
-    <row r="361" spans="1:14" ht="18">
+    <row r="361" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A361" s="19" t="s">
         <v>362</v>
       </c>
@@ -14872,7 +14912,7 @@
       <c r="M361" s="12"/>
       <c r="N361" s="12"/>
     </row>
-    <row r="362" spans="1:14" ht="18">
+    <row r="362" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A362" s="19" t="s">
         <v>363</v>
       </c>
@@ -14898,7 +14938,7 @@
       <c r="M362" s="12"/>
       <c r="N362" s="12"/>
     </row>
-    <row r="363" spans="1:14" ht="18">
+    <row r="363" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A363" s="19" t="s">
         <v>364</v>
       </c>
@@ -14926,7 +14966,7 @@
       <c r="M363" s="12"/>
       <c r="N363" s="12"/>
     </row>
-    <row r="364" spans="1:14" ht="18">
+    <row r="364" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A364" s="19" t="s">
         <v>365</v>
       </c>
@@ -14952,7 +14992,7 @@
       <c r="M364" s="12"/>
       <c r="N364" s="12"/>
     </row>
-    <row r="365" spans="1:14" ht="18">
+    <row r="365" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A365" s="19" t="s">
         <v>366</v>
       </c>
@@ -14980,7 +15020,7 @@
       <c r="M365" s="12"/>
       <c r="N365" s="12"/>
     </row>
-    <row r="366" spans="1:14" ht="18">
+    <row r="366" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A366" s="19" t="s">
         <v>367</v>
       </c>
@@ -15006,7 +15046,7 @@
       <c r="M366" s="12"/>
       <c r="N366" s="12"/>
     </row>
-    <row r="367" spans="1:14" ht="18">
+    <row r="367" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A367" s="19" t="s">
         <v>368</v>
       </c>
@@ -15034,7 +15074,7 @@
       <c r="M367" s="12"/>
       <c r="N367" s="12"/>
     </row>
-    <row r="368" spans="1:14" ht="18">
+    <row r="368" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A368" s="19" t="s">
         <v>369</v>
       </c>
@@ -15060,7 +15100,7 @@
       <c r="M368" s="12"/>
       <c r="N368" s="12"/>
     </row>
-    <row r="369" spans="1:14" ht="18">
+    <row r="369" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A369" s="19" t="s">
         <v>370</v>
       </c>
@@ -15090,7 +15130,7 @@
       <c r="M369" s="12"/>
       <c r="N369" s="12"/>
     </row>
-    <row r="370" spans="1:14" ht="18">
+    <row r="370" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A370" s="22" t="s">
         <v>371</v>
       </c>
@@ -15118,7 +15158,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="371" spans="1:14" ht="18">
+    <row r="371" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A371" s="22" t="s">
         <v>372</v>
       </c>
@@ -15146,7 +15186,7 @@
       <c r="M371" s="12"/>
       <c r="N371" s="12"/>
     </row>
-    <row r="372" spans="1:14" ht="18">
+    <row r="372" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A372" s="22" t="s">
         <v>373</v>
       </c>
@@ -15172,7 +15212,7 @@
       <c r="M372" s="12"/>
       <c r="N372" s="12"/>
     </row>
-    <row r="373" spans="1:14" ht="18">
+    <row r="373" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A373" s="22" t="s">
         <v>374</v>
       </c>
@@ -15200,7 +15240,7 @@
       <c r="M373" s="12"/>
       <c r="N373" s="12"/>
     </row>
-    <row r="374" spans="1:14" ht="18">
+    <row r="374" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A374" s="22" t="s">
         <v>375</v>
       </c>
@@ -15226,7 +15266,7 @@
       <c r="M374" s="12"/>
       <c r="N374" s="12"/>
     </row>
-    <row r="375" spans="1:14" ht="18">
+    <row r="375" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A375" s="22" t="s">
         <v>376</v>
       </c>
@@ -15254,7 +15294,7 @@
       <c r="M375" s="12"/>
       <c r="N375" s="12"/>
     </row>
-    <row r="376" spans="1:14" ht="18">
+    <row r="376" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A376" s="22" t="s">
         <v>377</v>
       </c>
@@ -15280,7 +15320,7 @@
       <c r="M376" s="12"/>
       <c r="N376" s="12"/>
     </row>
-    <row r="377" spans="1:14" ht="18">
+    <row r="377" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A377" s="22" t="s">
         <v>378</v>
       </c>
@@ -15308,7 +15348,7 @@
       <c r="M377" s="12"/>
       <c r="N377" s="12"/>
     </row>
-    <row r="378" spans="1:14" ht="18">
+    <row r="378" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A378" s="22" t="s">
         <v>379</v>
       </c>
@@ -15334,7 +15374,7 @@
       <c r="M378" s="12"/>
       <c r="N378" s="12"/>
     </row>
-    <row r="379" spans="1:14" ht="18">
+    <row r="379" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A379" s="22" t="s">
         <v>380</v>
       </c>
@@ -15362,7 +15402,7 @@
       <c r="M379" s="12"/>
       <c r="N379" s="12"/>
     </row>
-    <row r="380" spans="1:14" ht="18">
+    <row r="380" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A380" s="22" t="s">
         <v>381</v>
       </c>
@@ -15388,7 +15428,7 @@
       <c r="M380" s="12"/>
       <c r="N380" s="12"/>
     </row>
-    <row r="381" spans="1:14" ht="18">
+    <row r="381" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A381" s="22" t="s">
         <v>382</v>
       </c>
@@ -15416,7 +15456,7 @@
       <c r="M381" s="12"/>
       <c r="N381" s="12"/>
     </row>
-    <row r="382" spans="1:14" ht="18">
+    <row r="382" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A382" s="22" t="s">
         <v>383</v>
       </c>
@@ -15442,7 +15482,7 @@
       <c r="M382" s="12"/>
       <c r="N382" s="12"/>
     </row>
-    <row r="383" spans="1:14" ht="18">
+    <row r="383" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A383" s="22" t="s">
         <v>384</v>
       </c>
@@ -15472,7 +15512,7 @@
       <c r="M383" s="12"/>
       <c r="N383" s="12"/>
     </row>
-    <row r="384" spans="1:14" ht="18">
+    <row r="384" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A384" s="22" t="s">
         <v>385</v>
       </c>
@@ -15498,7 +15538,7 @@
       <c r="M384" s="12"/>
       <c r="N384" s="12"/>
     </row>
-    <row r="385" spans="1:14" s="5" customFormat="1" ht="18">
+    <row r="385" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A385" s="25" t="s">
         <v>386</v>
       </c>
@@ -15518,7 +15558,7 @@
       <c r="M385" s="29"/>
       <c r="N385" s="29"/>
     </row>
-    <row r="386" spans="1:14" ht="18">
+    <row r="386" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A386" s="14" t="s">
         <v>387</v>
       </c>
@@ -15546,7 +15586,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="387" spans="1:14" ht="18">
+    <row r="387" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A387" s="14" t="s">
         <v>388</v>
       </c>
@@ -15576,7 +15616,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="388" spans="1:14" ht="18">
+    <row r="388" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A388" s="14" t="s">
         <v>389</v>
       </c>
@@ -15600,7 +15640,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="389" spans="1:14" ht="18">
+    <row r="389" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A389" s="14" t="s">
         <v>390</v>
       </c>
@@ -15630,7 +15670,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="390" spans="1:14" ht="18">
+    <row r="390" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A390" s="14" t="s">
         <v>391</v>
       </c>
@@ -15658,7 +15698,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="391" spans="1:14" ht="18">
+    <row r="391" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A391" s="14" t="s">
         <v>392</v>
       </c>
@@ -15686,7 +15726,7 @@
       <c r="M391" s="12"/>
       <c r="N391" s="12"/>
     </row>
-    <row r="392" spans="1:14" ht="18">
+    <row r="392" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A392" s="14" t="s">
         <v>393</v>
       </c>
@@ -15712,7 +15752,7 @@
       <c r="M392" s="12"/>
       <c r="N392" s="12"/>
     </row>
-    <row r="393" spans="1:14" ht="18">
+    <row r="393" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A393" s="14" t="s">
         <v>394</v>
       </c>
@@ -15740,7 +15780,7 @@
       <c r="M393" s="12"/>
       <c r="N393" s="12"/>
     </row>
-    <row r="394" spans="1:14" ht="18">
+    <row r="394" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A394" s="14" t="s">
         <v>395</v>
       </c>
@@ -15766,7 +15806,7 @@
       <c r="M394" s="12"/>
       <c r="N394" s="12"/>
     </row>
-    <row r="395" spans="1:14" ht="18">
+    <row r="395" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A395" s="14" t="s">
         <v>396</v>
       </c>
@@ -15794,7 +15834,7 @@
       <c r="M395" s="12"/>
       <c r="N395" s="12"/>
     </row>
-    <row r="396" spans="1:14" ht="18">
+    <row r="396" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A396" s="14" t="s">
         <v>397</v>
       </c>
@@ -15820,7 +15860,7 @@
       <c r="M396" s="12"/>
       <c r="N396" s="12"/>
     </row>
-    <row r="397" spans="1:14" ht="18">
+    <row r="397" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A397" s="14" t="s">
         <v>398</v>
       </c>
@@ -15848,7 +15888,7 @@
       <c r="M397" s="12"/>
       <c r="N397" s="12"/>
     </row>
-    <row r="398" spans="1:14" ht="18">
+    <row r="398" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A398" s="14" t="s">
         <v>399</v>
       </c>
@@ -15874,7 +15914,7 @@
       <c r="M398" s="12"/>
       <c r="N398" s="12"/>
     </row>
-    <row r="399" spans="1:14" ht="18">
+    <row r="399" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A399" s="14" t="s">
         <v>400</v>
       </c>
@@ -15904,7 +15944,7 @@
       <c r="M399" s="12"/>
       <c r="N399" s="12"/>
     </row>
-    <row r="400" spans="1:14" ht="18">
+    <row r="400" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A400" s="14" t="s">
         <v>401</v>
       </c>
@@ -15930,7 +15970,7 @@
       <c r="M400" s="12"/>
       <c r="N400" s="12"/>
     </row>
-    <row r="401" spans="1:14" ht="18">
+    <row r="401" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A401" s="14" t="s">
         <v>402</v>
       </c>
@@ -15958,7 +15998,7 @@
       <c r="M401" s="12"/>
       <c r="N401" s="12"/>
     </row>
-    <row r="402" spans="1:14" ht="18">
+    <row r="402" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A402" s="19" t="s">
         <v>403</v>
       </c>
@@ -15986,7 +16026,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="403" spans="1:14" ht="18">
+    <row r="403" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A403" s="19" t="s">
         <v>404</v>
       </c>
@@ -16016,7 +16056,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="404" spans="1:14" ht="18">
+    <row r="404" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A404" s="19" t="s">
         <v>405</v>
       </c>
@@ -16044,7 +16084,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="405" spans="1:14" ht="18">
+    <row r="405" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A405" s="19" t="s">
         <v>406</v>
       </c>
@@ -16074,7 +16114,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="406" spans="1:14" ht="18">
+    <row r="406" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A406" s="19" t="s">
         <v>407</v>
       </c>
@@ -16100,7 +16140,7 @@
       <c r="M406" s="12"/>
       <c r="N406" s="12"/>
     </row>
-    <row r="407" spans="1:14" ht="18">
+    <row r="407" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A407" s="19" t="s">
         <v>408</v>
       </c>
@@ -16128,7 +16168,7 @@
       <c r="M407" s="12"/>
       <c r="N407" s="12"/>
     </row>
-    <row r="408" spans="1:14" ht="18">
+    <row r="408" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A408" s="19" t="s">
         <v>409</v>
       </c>
@@ -16154,7 +16194,7 @@
       <c r="M408" s="12"/>
       <c r="N408" s="12"/>
     </row>
-    <row r="409" spans="1:14" ht="18">
+    <row r="409" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A409" s="19" t="s">
         <v>410</v>
       </c>
@@ -16182,7 +16222,7 @@
       <c r="M409" s="12"/>
       <c r="N409" s="12"/>
     </row>
-    <row r="410" spans="1:14" ht="18">
+    <row r="410" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A410" s="19" t="s">
         <v>411</v>
       </c>
@@ -16208,7 +16248,7 @@
       <c r="M410" s="12"/>
       <c r="N410" s="12"/>
     </row>
-    <row r="411" spans="1:14" ht="18">
+    <row r="411" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A411" s="19" t="s">
         <v>412</v>
       </c>
@@ -16236,7 +16276,7 @@
       <c r="M411" s="12"/>
       <c r="N411" s="12"/>
     </row>
-    <row r="412" spans="1:14" ht="18">
+    <row r="412" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A412" s="19" t="s">
         <v>413</v>
       </c>
@@ -16262,7 +16302,7 @@
       <c r="M412" s="12"/>
       <c r="N412" s="12"/>
     </row>
-    <row r="413" spans="1:14" ht="18">
+    <row r="413" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A413" s="19" t="s">
         <v>414</v>
       </c>
@@ -16290,7 +16330,7 @@
       <c r="M413" s="12"/>
       <c r="N413" s="12"/>
     </row>
-    <row r="414" spans="1:14" ht="18">
+    <row r="414" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A414" s="19" t="s">
         <v>415</v>
       </c>
@@ -16316,7 +16356,7 @@
       <c r="M414" s="12"/>
       <c r="N414" s="12"/>
     </row>
-    <row r="415" spans="1:14" ht="18">
+    <row r="415" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A415" s="19" t="s">
         <v>416</v>
       </c>
@@ -16344,7 +16384,7 @@
       <c r="M415" s="12"/>
       <c r="N415" s="12"/>
     </row>
-    <row r="416" spans="1:14" ht="18">
+    <row r="416" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A416" s="19" t="s">
         <v>417</v>
       </c>
@@ -16370,7 +16410,7 @@
       <c r="M416" s="12"/>
       <c r="N416" s="12"/>
     </row>
-    <row r="417" spans="1:14" ht="18">
+    <row r="417" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A417" s="19" t="s">
         <v>418</v>
       </c>
@@ -16398,15 +16438,19 @@
       <c r="M417" s="12"/>
       <c r="N417" s="12"/>
     </row>
-    <row r="418" spans="1:14" ht="18">
+    <row r="418" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A418" s="22" t="s">
         <v>419</v>
       </c>
       <c r="B418" s="23">
         <v>43518</v>
       </c>
-      <c r="C418" s="23"/>
-      <c r="D418" s="24"/>
+      <c r="C418" s="23">
+        <v>43530</v>
+      </c>
+      <c r="D418" s="24">
+        <v>47.7</v>
+      </c>
       <c r="E418" s="23">
         <v>43486</v>
       </c>
@@ -16422,7 +16466,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="419" spans="1:14" ht="18">
+    <row r="419" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A419" s="22" t="s">
         <v>420</v>
       </c>
@@ -16448,7 +16492,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="420" spans="1:14" ht="18">
+    <row r="420" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A420" s="22" t="s">
         <v>421</v>
       </c>
@@ -16472,7 +16516,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="421" spans="1:14" ht="18">
+    <row r="421" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A421" s="22" t="s">
         <v>422</v>
       </c>
@@ -16500,7 +16544,7 @@
       <c r="M421" s="12"/>
       <c r="N421" s="12"/>
     </row>
-    <row r="422" spans="1:14" ht="18">
+    <row r="422" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A422" s="22" t="s">
         <v>423</v>
       </c>
@@ -16522,7 +16566,7 @@
       <c r="M422" s="12"/>
       <c r="N422" s="12"/>
     </row>
-    <row r="423" spans="1:14" ht="18">
+    <row r="423" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A423" s="22" t="s">
         <v>424</v>
       </c>
@@ -16546,7 +16590,7 @@
       <c r="M423" s="12"/>
       <c r="N423" s="12"/>
     </row>
-    <row r="424" spans="1:14" ht="18">
+    <row r="424" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A424" s="22" t="s">
         <v>425</v>
       </c>
@@ -16572,7 +16616,7 @@
       <c r="M424" s="12"/>
       <c r="N424" s="12"/>
     </row>
-    <row r="425" spans="1:14" ht="18">
+    <row r="425" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A425" s="22" t="s">
         <v>426</v>
       </c>
@@ -16596,15 +16640,19 @@
       <c r="M425" s="12"/>
       <c r="N425" s="12"/>
     </row>
-    <row r="426" spans="1:14" ht="18">
+    <row r="426" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A426" s="22" t="s">
         <v>427</v>
       </c>
       <c r="B426" s="23">
         <v>43515</v>
       </c>
-      <c r="C426" s="23"/>
-      <c r="D426" s="24"/>
+      <c r="C426" s="23">
+        <v>43530</v>
+      </c>
+      <c r="D426" s="24">
+        <v>58.5</v>
+      </c>
       <c r="E426" s="23">
         <v>43486</v>
       </c>
@@ -16618,7 +16666,7 @@
       <c r="M426" s="12"/>
       <c r="N426" s="12"/>
     </row>
-    <row r="427" spans="1:14" ht="18">
+    <row r="427" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A427" s="22" t="s">
         <v>428</v>
       </c>
@@ -16642,7 +16690,7 @@
       <c r="M427" s="12"/>
       <c r="N427" s="12"/>
     </row>
-    <row r="428" spans="1:14" ht="18">
+    <row r="428" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A428" s="22" t="s">
         <v>429</v>
       </c>
@@ -16668,7 +16716,7 @@
       <c r="M428" s="12"/>
       <c r="N428" s="12"/>
     </row>
-    <row r="429" spans="1:14" ht="18">
+    <row r="429" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A429" s="22" t="s">
         <v>430</v>
       </c>
@@ -16692,7 +16740,7 @@
       <c r="M429" s="12"/>
       <c r="N429" s="12"/>
     </row>
-    <row r="430" spans="1:14" ht="18">
+    <row r="430" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A430" s="22" t="s">
         <v>431</v>
       </c>
@@ -16714,15 +16762,19 @@
       <c r="M430" s="12"/>
       <c r="N430" s="12"/>
     </row>
-    <row r="431" spans="1:14" ht="18">
+    <row r="431" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A431" s="22" t="s">
         <v>432</v>
       </c>
       <c r="B431" s="23">
         <v>43521</v>
       </c>
-      <c r="C431" s="23"/>
-      <c r="D431" s="24"/>
+      <c r="C431" s="23">
+        <v>43530</v>
+      </c>
+      <c r="D431" s="24">
+        <v>48.4</v>
+      </c>
       <c r="E431" s="23">
         <v>43486</v>
       </c>
@@ -16736,7 +16788,7 @@
       <c r="M431" s="12"/>
       <c r="N431" s="12"/>
     </row>
-    <row r="432" spans="1:14" s="5" customFormat="1" ht="18">
+    <row r="432" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A432" s="22" t="s">
         <v>433</v>
       </c>
@@ -16762,15 +16814,19 @@
       <c r="M432" s="29"/>
       <c r="N432" s="29"/>
     </row>
-    <row r="433" spans="1:14" ht="18">
+    <row r="433" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A433" s="22" t="s">
         <v>434</v>
       </c>
       <c r="B433" s="23">
         <v>43515</v>
       </c>
-      <c r="C433" s="23"/>
-      <c r="D433" s="24"/>
+      <c r="C433" s="23">
+        <v>43530</v>
+      </c>
+      <c r="D433" s="24">
+        <v>48.9</v>
+      </c>
       <c r="E433" s="23">
         <v>43486</v>
       </c>
@@ -16786,7 +16842,7 @@
       <c r="M433" s="12"/>
       <c r="N433" s="12"/>
     </row>
-    <row r="434" spans="1:14" ht="18">
+    <row r="434" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A434" s="14" t="s">
         <v>435</v>
       </c>
@@ -16814,7 +16870,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="435" spans="1:14" ht="18">
+    <row r="435" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A435" s="14" t="s">
         <v>436</v>
       </c>
@@ -16844,7 +16900,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="436" spans="1:14" ht="18">
+    <row r="436" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A436" s="14" t="s">
         <v>437</v>
       </c>
@@ -16872,7 +16928,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="437" spans="1:14" ht="18">
+    <row r="437" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A437" s="14" t="s">
         <v>438</v>
       </c>
@@ -16902,7 +16958,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="438" spans="1:14" ht="18">
+    <row r="438" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A438" s="14" t="s">
         <v>439</v>
       </c>
@@ -16928,7 +16984,7 @@
       <c r="M438" s="12"/>
       <c r="N438" s="12"/>
     </row>
-    <row r="439" spans="1:14" ht="18">
+    <row r="439" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A439" s="14" t="s">
         <v>440</v>
       </c>
@@ -16954,7 +17010,7 @@
       <c r="M439" s="12"/>
       <c r="N439" s="12"/>
     </row>
-    <row r="440" spans="1:14" ht="18">
+    <row r="440" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A440" s="14" t="s">
         <v>441</v>
       </c>
@@ -16980,7 +17036,7 @@
       <c r="M440" s="12"/>
       <c r="N440" s="12"/>
     </row>
-    <row r="441" spans="1:14" ht="18">
+    <row r="441" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A441" s="14" t="s">
         <v>442</v>
       </c>
@@ -17000,7 +17056,7 @@
       <c r="M441" s="12"/>
       <c r="N441" s="12"/>
     </row>
-    <row r="442" spans="1:14" ht="18">
+    <row r="442" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A442" s="14" t="s">
         <v>443</v>
       </c>
@@ -17026,7 +17082,7 @@
       <c r="M442" s="12"/>
       <c r="N442" s="12"/>
     </row>
-    <row r="443" spans="1:14" ht="18">
+    <row r="443" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A443" s="14" t="s">
         <v>444</v>
       </c>
@@ -17056,7 +17112,7 @@
       <c r="M443" s="12"/>
       <c r="N443" s="12"/>
     </row>
-    <row r="444" spans="1:14" ht="18">
+    <row r="444" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A444" s="14" t="s">
         <v>445</v>
       </c>
@@ -17082,7 +17138,7 @@
       <c r="M444" s="12"/>
       <c r="N444" s="12"/>
     </row>
-    <row r="445" spans="1:14" ht="18">
+    <row r="445" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A445" s="14" t="s">
         <v>446</v>
       </c>
@@ -17110,7 +17166,7 @@
       <c r="M445" s="12"/>
       <c r="N445" s="12"/>
     </row>
-    <row r="446" spans="1:14" ht="18">
+    <row r="446" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A446" s="14" t="s">
         <v>447</v>
       </c>
@@ -17136,7 +17192,7 @@
       <c r="M446" s="12"/>
       <c r="N446" s="12"/>
     </row>
-    <row r="447" spans="1:14" ht="18">
+    <row r="447" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A447" s="14" t="s">
         <v>448</v>
       </c>
@@ -17164,7 +17220,7 @@
       <c r="M447" s="12"/>
       <c r="N447" s="12"/>
     </row>
-    <row r="448" spans="1:14" ht="18">
+    <row r="448" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A448" s="14" t="s">
         <v>449</v>
       </c>
@@ -17190,7 +17246,7 @@
       <c r="M448" s="12"/>
       <c r="N448" s="12"/>
     </row>
-    <row r="449" spans="1:14" ht="18">
+    <row r="449" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A449" s="14" t="s">
         <v>450</v>
       </c>
@@ -17214,7 +17270,7 @@
       <c r="M449" s="12"/>
       <c r="N449" s="12"/>
     </row>
-    <row r="450" spans="1:14" ht="18">
+    <row r="450" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A450" s="19" t="s">
         <v>451</v>
       </c>
@@ -17242,7 +17298,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="451" spans="1:14" ht="18">
+    <row r="451" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A451" s="19" t="s">
         <v>452</v>
       </c>
@@ -17272,7 +17328,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="452" spans="1:14" ht="18">
+    <row r="452" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A452" s="19" t="s">
         <v>453</v>
       </c>
@@ -17300,7 +17356,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="453" spans="1:14" ht="18">
+    <row r="453" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A453" s="19" t="s">
         <v>454</v>
       </c>
@@ -17328,7 +17384,7 @@
       <c r="M453" s="12"/>
       <c r="N453" s="12"/>
     </row>
-    <row r="454" spans="1:14" ht="18">
+    <row r="454" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A454" s="19" t="s">
         <v>455</v>
       </c>
@@ -17354,7 +17410,7 @@
       <c r="M454" s="12"/>
       <c r="N454" s="12"/>
     </row>
-    <row r="455" spans="1:14" ht="18">
+    <row r="455" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A455" s="19" t="s">
         <v>456</v>
       </c>
@@ -17382,7 +17438,7 @@
       <c r="M455" s="12"/>
       <c r="N455" s="12"/>
     </row>
-    <row r="456" spans="1:14" ht="18">
+    <row r="456" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A456" s="19" t="s">
         <v>457</v>
       </c>
@@ -17408,7 +17464,7 @@
       <c r="M456" s="12"/>
       <c r="N456" s="12"/>
     </row>
-    <row r="457" spans="1:14" ht="18">
+    <row r="457" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A457" s="19" t="s">
         <v>458</v>
       </c>
@@ -17436,7 +17492,7 @@
       <c r="M457" s="12"/>
       <c r="N457" s="12"/>
     </row>
-    <row r="458" spans="1:14" ht="18">
+    <row r="458" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A458" s="19" t="s">
         <v>459</v>
       </c>
@@ -17462,7 +17518,7 @@
       <c r="M458" s="12"/>
       <c r="N458" s="12"/>
     </row>
-    <row r="459" spans="1:14" ht="18">
+    <row r="459" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A459" s="19" t="s">
         <v>460</v>
       </c>
@@ -17490,7 +17546,7 @@
       <c r="M459" s="12"/>
       <c r="N459" s="12"/>
     </row>
-    <row r="460" spans="1:14" ht="18">
+    <row r="460" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A460" s="19" t="s">
         <v>461</v>
       </c>
@@ -17516,7 +17572,7 @@
       <c r="M460" s="12"/>
       <c r="N460" s="12"/>
     </row>
-    <row r="461" spans="1:14" ht="18">
+    <row r="461" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A461" s="19" t="s">
         <v>462</v>
       </c>
@@ -17544,7 +17600,7 @@
       <c r="M461" s="12"/>
       <c r="N461" s="12"/>
     </row>
-    <row r="462" spans="1:14" ht="18">
+    <row r="462" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A462" s="19" t="s">
         <v>463</v>
       </c>
@@ -17570,7 +17626,7 @@
       <c r="M462" s="12"/>
       <c r="N462" s="12"/>
     </row>
-    <row r="463" spans="1:14" ht="18">
+    <row r="463" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A463" s="19" t="s">
         <v>464</v>
       </c>
@@ -17598,7 +17654,7 @@
       <c r="M463" s="12"/>
       <c r="N463" s="12"/>
     </row>
-    <row r="464" spans="1:14" ht="18">
+    <row r="464" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A464" s="19" t="s">
         <v>465</v>
       </c>
@@ -17624,7 +17680,7 @@
       <c r="M464" s="12"/>
       <c r="N464" s="12"/>
     </row>
-    <row r="465" spans="1:14" ht="18">
+    <row r="465" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A465" s="19" t="s">
         <v>466</v>
       </c>
@@ -17652,7 +17708,7 @@
       <c r="M465" s="12"/>
       <c r="N465" s="12"/>
     </row>
-    <row r="466" spans="1:14" ht="18">
+    <row r="466" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A466" s="22" t="s">
         <v>467</v>
       </c>
@@ -17680,7 +17736,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="467" spans="1:14" ht="18">
+    <row r="467" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A467" s="22" t="s">
         <v>468</v>
       </c>
@@ -17710,7 +17766,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="468" spans="1:14" ht="18">
+    <row r="468" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A468" s="22" t="s">
         <v>469</v>
       </c>
@@ -17738,7 +17794,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="469" spans="1:14" ht="18">
+    <row r="469" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A469" s="22" t="s">
         <v>470</v>
       </c>
@@ -17762,7 +17818,7 @@
       <c r="M469" s="12"/>
       <c r="N469" s="12"/>
     </row>
-    <row r="470" spans="1:14" ht="18">
+    <row r="470" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A470" s="22" t="s">
         <v>471</v>
       </c>
@@ -17788,15 +17844,19 @@
       <c r="M470" s="12"/>
       <c r="N470" s="12"/>
     </row>
-    <row r="471" spans="1:14" ht="18">
+    <row r="471" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A471" s="22" t="s">
         <v>472</v>
       </c>
       <c r="B471" s="23">
         <v>43504</v>
       </c>
-      <c r="C471" s="23"/>
-      <c r="D471" s="24"/>
+      <c r="C471" s="23">
+        <v>43530</v>
+      </c>
+      <c r="D471" s="24">
+        <v>32.4</v>
+      </c>
       <c r="E471" s="23">
         <v>43486</v>
       </c>
@@ -17812,7 +17872,7 @@
       <c r="M471" s="12"/>
       <c r="N471" s="12"/>
     </row>
-    <row r="472" spans="1:14" ht="18">
+    <row r="472" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A472" s="22" t="s">
         <v>473</v>
       </c>
@@ -17834,7 +17894,7 @@
       <c r="M472" s="12"/>
       <c r="N472" s="12"/>
     </row>
-    <row r="473" spans="1:14" ht="18">
+    <row r="473" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A473" s="22" t="s">
         <v>474</v>
       </c>
@@ -17862,7 +17922,7 @@
       <c r="M473" s="12"/>
       <c r="N473" s="12"/>
     </row>
-    <row r="474" spans="1:14" ht="18">
+    <row r="474" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A474" s="22" t="s">
         <v>475</v>
       </c>
@@ -17888,7 +17948,7 @@
       <c r="M474" s="12"/>
       <c r="N474" s="12"/>
     </row>
-    <row r="475" spans="1:14" ht="18">
+    <row r="475" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A475" s="22" t="s">
         <v>476</v>
       </c>
@@ -17916,7 +17976,7 @@
       <c r="M475" s="12"/>
       <c r="N475" s="12"/>
     </row>
-    <row r="476" spans="1:14" ht="18">
+    <row r="476" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A476" s="22" t="s">
         <v>477</v>
       </c>
@@ -17942,7 +18002,7 @@
       <c r="M476" s="12"/>
       <c r="N476" s="12"/>
     </row>
-    <row r="477" spans="1:14" ht="18">
+    <row r="477" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A477" s="22" t="s">
         <v>478</v>
       </c>
@@ -17970,7 +18030,7 @@
       <c r="M477" s="12"/>
       <c r="N477" s="12"/>
     </row>
-    <row r="478" spans="1:14" ht="18">
+    <row r="478" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A478" s="22" t="s">
         <v>479</v>
       </c>
@@ -17996,7 +18056,7 @@
       <c r="M478" s="12"/>
       <c r="N478" s="12"/>
     </row>
-    <row r="479" spans="1:14" ht="18">
+    <row r="479" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A479" s="22" t="s">
         <v>480</v>
       </c>
@@ -18024,15 +18084,19 @@
       <c r="M479" s="12"/>
       <c r="N479" s="12"/>
     </row>
-    <row r="480" spans="1:14" ht="18">
+    <row r="480" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A480" s="22" t="s">
         <v>481</v>
       </c>
       <c r="B480" s="23">
         <v>43515</v>
       </c>
-      <c r="C480" s="23"/>
-      <c r="D480" s="24"/>
+      <c r="C480" s="23">
+        <v>43530</v>
+      </c>
+      <c r="D480" s="24">
+        <v>34.799999999999997</v>
+      </c>
       <c r="E480" s="23">
         <v>43486</v>
       </c>
@@ -18046,7 +18110,7 @@
       <c r="M480" s="12"/>
       <c r="N480" s="12"/>
     </row>
-    <row r="481" spans="1:14" ht="18">
+    <row r="481" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A481" s="22" t="s">
         <v>482</v>
       </c>
@@ -18088,17 +18152,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B37" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.140625" style="7" bestFit="1" customWidth="1"/>
@@ -18112,7 +18176,7 @@
     <col min="10" max="16384" width="10.7109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
         <v>542</v>
       </c>
@@ -18141,7 +18205,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="45" t="s">
         <v>547</v>
       </c>
@@ -18170,7 +18234,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="46" t="s">
         <v>547</v>
       </c>
@@ -18199,7 +18263,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="46" t="s">
         <v>547</v>
       </c>
@@ -18228,7 +18292,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="46" t="s">
         <v>547</v>
       </c>
@@ -18257,7 +18321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="46" t="s">
         <v>547</v>
       </c>
@@ -18286,7 +18350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="47" t="s">
         <v>547</v>
       </c>
@@ -18315,7 +18379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="45" t="s">
         <v>548</v>
       </c>
@@ -18344,7 +18408,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="46" t="s">
         <v>548</v>
       </c>
@@ -18373,7 +18437,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="46" t="s">
         <v>548</v>
       </c>
@@ -18402,7 +18466,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="46" t="s">
         <v>548</v>
       </c>
@@ -18431,7 +18495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="46" t="s">
         <v>548</v>
       </c>
@@ -18460,7 +18524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="47" t="s">
         <v>548</v>
       </c>
@@ -18489,7 +18553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="45" t="s">
         <v>549</v>
       </c>
@@ -18518,7 +18582,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="46" t="s">
         <v>549</v>
       </c>
@@ -18547,7 +18611,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="46" t="s">
         <v>549</v>
       </c>
@@ -18576,7 +18640,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="46" t="s">
         <v>549</v>
       </c>
@@ -18605,7 +18669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="46" t="s">
         <v>549</v>
       </c>
@@ -18634,7 +18698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="47" t="s">
         <v>549</v>
       </c>
@@ -18663,7 +18727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="45" t="s">
         <v>550</v>
       </c>
@@ -18692,7 +18756,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="46" t="s">
         <v>550</v>
       </c>
@@ -18721,7 +18785,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="46" t="s">
         <v>550</v>
       </c>
@@ -18750,7 +18814,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="46" t="s">
         <v>550</v>
       </c>
@@ -18779,7 +18843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="46" t="s">
         <v>550</v>
       </c>
@@ -18808,7 +18872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="47" t="s">
         <v>550</v>
       </c>
@@ -18837,7 +18901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="45" t="s">
         <v>551</v>
       </c>
@@ -18866,7 +18930,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="48" t="s">
         <v>551</v>
       </c>
@@ -18895,7 +18959,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="48" t="s">
         <v>551</v>
       </c>
@@ -18924,7 +18988,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="48" t="s">
         <v>551</v>
       </c>
@@ -18953,7 +19017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="48" t="s">
         <v>551</v>
       </c>
@@ -18982,7 +19046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="49" t="s">
         <v>551</v>
       </c>
@@ -19011,7 +19075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="45" t="s">
         <v>553</v>
       </c>
@@ -19040,7 +19104,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="46" t="s">
         <v>553</v>
       </c>
@@ -19069,7 +19133,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="46" t="s">
         <v>553</v>
       </c>
@@ -19098,7 +19162,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="46" t="s">
         <v>553</v>
       </c>
@@ -19127,7 +19191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="46" t="s">
         <v>553</v>
       </c>
@@ -19156,7 +19220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="47" t="s">
         <v>553</v>
       </c>
@@ -19185,7 +19249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="45" t="s">
         <v>554</v>
       </c>
@@ -19214,7 +19278,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="46" t="s">
         <v>554</v>
       </c>
@@ -19243,7 +19307,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="46" t="s">
         <v>554</v>
       </c>
@@ -19272,7 +19336,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="46" t="s">
         <v>554</v>
       </c>
@@ -19301,7 +19365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="46" t="s">
         <v>554</v>
       </c>
@@ -19330,7 +19394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="47" t="s">
         <v>554</v>
       </c>
@@ -19359,7 +19423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="45" t="s">
         <v>555</v>
       </c>
@@ -19388,7 +19452,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="46" t="s">
         <v>555</v>
       </c>
@@ -19417,7 +19481,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="46" t="s">
         <v>555</v>
       </c>
@@ -19446,7 +19510,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="46" t="s">
         <v>555</v>
       </c>
@@ -19475,7 +19539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="46" t="s">
         <v>555</v>
       </c>
@@ -19504,7 +19568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="47" t="s">
         <v>555</v>
       </c>
@@ -19536,7 +19600,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="45" t="s">
         <v>556</v>
       </c>
@@ -19565,7 +19629,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="46" t="s">
         <v>556</v>
       </c>
@@ -19594,7 +19658,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="46" t="s">
         <v>556</v>
       </c>
@@ -19623,7 +19687,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="46" t="s">
         <v>556</v>
       </c>
@@ -19652,7 +19716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="46" t="s">
         <v>556</v>
       </c>
@@ -19681,7 +19745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="47" t="s">
         <v>556</v>
       </c>
@@ -19710,7 +19774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="45" t="s">
         <v>557</v>
       </c>
@@ -19739,7 +19803,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="46" t="s">
         <v>557</v>
       </c>
@@ -19768,7 +19832,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="46" t="s">
         <v>557</v>
       </c>
@@ -19797,7 +19861,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="46" t="s">
         <v>557</v>
       </c>
@@ -19826,7 +19890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="46" t="s">
         <v>557</v>
       </c>
@@ -19855,7 +19919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="47" t="s">
         <v>557</v>
       </c>
@@ -19885,7 +19949,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J61"/>
+  <autoFilter ref="A1:J61" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/data/observation_datasheet.xlsx
+++ b/data/observation_datasheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catchamberlain/Documents/git/chillfreeze/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0B14A9C6-2D83-5845-9AFB-9F4AD5389615}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{40FFE16E-0223-EF4F-A4A0-54A1BE3ABF40}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="460" windowWidth="21020" windowHeight="18240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="570">
   <si>
     <t>ID</t>
   </si>
@@ -1719,6 +1719,27 @@
   </si>
   <si>
     <t>* missing one</t>
+  </si>
+  <si>
+    <t>not really much going on - may decide to toss</t>
+  </si>
+  <si>
+    <t>60dayheight</t>
+  </si>
+  <si>
+    <t>chl1</t>
+  </si>
+  <si>
+    <t>chl2</t>
+  </si>
+  <si>
+    <t>chl3</t>
+  </si>
+  <si>
+    <t>chl4</t>
+  </si>
+  <si>
+    <t>chlavg</t>
   </si>
 </sst>
 </file>
@@ -2418,7 +2439,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -2471,6 +2492,7 @@
     <xf numFmtId="0" fontId="20" fillId="38" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="38" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="38" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="94">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -5438,13 +5460,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N481"/>
+  <dimension ref="A1:U481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D481" sqref="D481"/>
+      <selection pane="bottomRight" activeCell="E468" sqref="E468"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5454,10 +5476,12 @@
     <col min="3" max="3" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="10.85546875" hidden="1" customWidth="1"/>
+    <col min="14" max="15" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>487</v>
       </c>
@@ -5498,8 +5522,26 @@
       <c r="N1" s="13" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P1" s="50" t="s">
+        <v>564</v>
+      </c>
+      <c r="Q1" s="50" t="s">
+        <v>565</v>
+      </c>
+      <c r="R1" s="50" t="s">
+        <v>566</v>
+      </c>
+      <c r="S1" s="50" t="s">
+        <v>567</v>
+      </c>
+      <c r="T1" s="50" t="s">
+        <v>568</v>
+      </c>
+      <c r="U1" s="50" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
@@ -5527,7 +5569,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>4</v>
       </c>
@@ -5557,7 +5599,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>5</v>
       </c>
@@ -5585,7 +5627,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>6</v>
       </c>
@@ -5613,7 +5655,7 @@
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>7</v>
       </c>
@@ -5639,7 +5681,7 @@
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>8</v>
       </c>
@@ -5667,7 +5709,7 @@
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>9</v>
       </c>
@@ -5693,7 +5735,7 @@
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>10</v>
       </c>
@@ -5721,7 +5763,7 @@
       <c r="M9" s="12"/>
       <c r="N9" s="12"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>11</v>
       </c>
@@ -5747,7 +5789,7 @@
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>12</v>
       </c>
@@ -5777,15 +5819,19 @@
       <c r="M11" s="12"/>
       <c r="N11" s="12"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="15">
         <v>43518</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
+      <c r="C12" s="15">
+        <v>43532</v>
+      </c>
+      <c r="D12" s="16">
+        <v>22.6</v>
+      </c>
       <c r="E12" s="15">
         <v>43458</v>
       </c>
@@ -5799,7 +5845,7 @@
       <c r="M12" s="12"/>
       <c r="N12" s="12"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>14</v>
       </c>
@@ -5827,7 +5873,7 @@
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>15</v>
       </c>
@@ -5853,7 +5899,7 @@
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>16</v>
       </c>
@@ -5881,7 +5927,7 @@
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>17</v>
       </c>
@@ -5973,7 +6019,9 @@
       <c r="E19" s="20">
         <v>43472</v>
       </c>
-      <c r="F19" s="17"/>
+      <c r="F19" s="17">
+        <v>43532</v>
+      </c>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
@@ -6230,8 +6278,12 @@
       <c r="B29" s="20">
         <v>43515</v>
       </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="21"/>
+      <c r="C29" s="20">
+        <v>43532</v>
+      </c>
+      <c r="D29" s="21">
+        <v>27.7</v>
+      </c>
       <c r="E29" s="20">
         <v>43472</v>
       </c>
@@ -6555,7 +6607,9 @@
       <c r="A42" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="23"/>
+      <c r="B42" s="23">
+        <v>43532</v>
+      </c>
       <c r="C42" s="23"/>
       <c r="D42" s="24"/>
       <c r="E42" s="23">
@@ -6633,7 +6687,9 @@
       <c r="E45" s="23">
         <v>43486</v>
       </c>
-      <c r="F45" s="17"/>
+      <c r="F45" s="17">
+        <v>43532</v>
+      </c>
       <c r="G45" s="12"/>
       <c r="H45" s="12"/>
       <c r="I45" s="12"/>
@@ -6727,7 +6783,9 @@
       <c r="E49" s="23">
         <v>43486</v>
       </c>
-      <c r="F49" s="17"/>
+      <c r="F49" s="17">
+        <v>43532</v>
+      </c>
       <c r="G49" s="12"/>
       <c r="H49" s="12"/>
       <c r="I49" s="12"/>
@@ -7414,15 +7472,21 @@
       <c r="B75" s="20">
         <v>43512</v>
       </c>
-      <c r="C75" s="20"/>
-      <c r="D75" s="21"/>
+      <c r="C75" s="20">
+        <v>43532</v>
+      </c>
+      <c r="D75" s="21">
+        <v>27</v>
+      </c>
       <c r="E75" s="20">
         <v>43472</v>
       </c>
       <c r="F75" s="17">
         <v>43518</v>
       </c>
-      <c r="G75" s="12"/>
+      <c r="G75" s="12" t="s">
+        <v>563</v>
+      </c>
       <c r="H75" s="12"/>
       <c r="I75" s="12"/>
       <c r="J75" s="12"/>
@@ -7599,7 +7663,9 @@
       <c r="A82" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="B82" s="23"/>
+      <c r="B82" s="23">
+        <v>43532</v>
+      </c>
       <c r="C82" s="23"/>
       <c r="D82" s="24"/>
       <c r="E82" s="23">
@@ -7749,9 +7815,7 @@
       <c r="A88" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="B88" s="23">
-        <v>43530</v>
-      </c>
+      <c r="B88" s="23"/>
       <c r="C88" s="23"/>
       <c r="D88" s="24"/>
       <c r="E88" s="23">
@@ -12281,7 +12345,9 @@
       <c r="E251" s="15">
         <v>43458</v>
       </c>
-      <c r="F251" s="17"/>
+      <c r="F251" s="17">
+        <v>43532</v>
+      </c>
       <c r="G251" s="12"/>
       <c r="H251" s="12"/>
       <c r="I251" s="12"/>
@@ -12537,7 +12603,9 @@
       <c r="A264" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="B264" s="20"/>
+      <c r="B264" s="20">
+        <v>43532</v>
+      </c>
       <c r="C264" s="20"/>
       <c r="D264" s="21"/>
       <c r="E264" s="20">
@@ -13192,8 +13260,12 @@
       <c r="B296" s="15">
         <v>43495</v>
       </c>
-      <c r="C296" s="15"/>
-      <c r="D296" s="16"/>
+      <c r="C296" s="15">
+        <v>43532</v>
+      </c>
+      <c r="D296" s="16">
+        <v>28.5</v>
+      </c>
       <c r="E296" s="15">
         <v>43458</v>
       </c>
@@ -14043,7 +14115,7 @@
       <c r="M336" s="12"/>
       <c r="N336" s="12"/>
     </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A337" s="22" t="s">
         <v>338</v>
       </c>
@@ -14063,7 +14135,7 @@
       <c r="M337" s="12"/>
       <c r="N337" s="12"/>
     </row>
-    <row r="338" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A338" s="14" t="s">
         <v>339</v>
       </c>
@@ -14104,7 +14176,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A339" s="14" t="s">
         <v>340</v>
       </c>
@@ -14145,7 +14217,7 @@
       </c>
       <c r="N339" s="12"/>
     </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A340" s="14" t="s">
         <v>341</v>
       </c>
@@ -14184,7 +14256,7 @@
       </c>
       <c r="N340" s="12"/>
     </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A341" s="14" t="s">
         <v>342</v>
       </c>
@@ -14225,7 +14297,7 @@
       </c>
       <c r="N341" s="12"/>
     </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A342" s="14" t="s">
         <v>343</v>
       </c>
@@ -14264,7 +14336,7 @@
       </c>
       <c r="N342" s="12"/>
     </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A343" s="14" t="s">
         <v>344</v>
       </c>
@@ -14305,7 +14377,7 @@
       </c>
       <c r="N343" s="12"/>
     </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A344" s="14" t="s">
         <v>345</v>
       </c>
@@ -14344,7 +14416,7 @@
       </c>
       <c r="N344" s="12"/>
     </row>
-    <row r="345" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A345" s="14" t="s">
         <v>346</v>
       </c>
@@ -14385,7 +14457,7 @@
       </c>
       <c r="N345" s="12"/>
     </row>
-    <row r="346" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A346" s="14" t="s">
         <v>347</v>
       </c>
@@ -14424,7 +14496,7 @@
       </c>
       <c r="N346" s="12"/>
     </row>
-    <row r="347" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A347" s="14" t="s">
         <v>348</v>
       </c>
@@ -14465,7 +14537,7 @@
       </c>
       <c r="N347" s="12"/>
     </row>
-    <row r="348" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A348" s="14" t="s">
         <v>349</v>
       </c>
@@ -14504,7 +14576,7 @@
       </c>
       <c r="N348" s="12"/>
     </row>
-    <row r="349" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A349" s="14" t="s">
         <v>350</v>
       </c>
@@ -14545,7 +14617,7 @@
       </c>
       <c r="N349" s="12"/>
     </row>
-    <row r="350" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A350" s="14" t="s">
         <v>351</v>
       </c>
@@ -14584,7 +14656,7 @@
       </c>
       <c r="N350" s="12"/>
     </row>
-    <row r="351" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A351" s="14" t="s">
         <v>352</v>
       </c>
@@ -14627,7 +14699,7 @@
       </c>
       <c r="N351" s="12"/>
     </row>
-    <row r="352" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A352" s="14" t="s">
         <v>353</v>
       </c>
@@ -14665,6 +14737,25 @@
         <v>47.625</v>
       </c>
       <c r="N352" s="12"/>
+      <c r="P352">
+        <v>60.1</v>
+      </c>
+      <c r="Q352">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="R352">
+        <v>48.6</v>
+      </c>
+      <c r="S352">
+        <v>57</v>
+      </c>
+      <c r="T352">
+        <v>50.4</v>
+      </c>
+      <c r="U352">
+        <f>AVERAGE(Q352:T352)</f>
+        <v>48.325000000000003</v>
+      </c>
     </row>
     <row r="353" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A353" s="14" t="s">
@@ -16551,8 +16642,12 @@
       <c r="B422" s="23">
         <v>43521</v>
       </c>
-      <c r="C422" s="23"/>
-      <c r="D422" s="24"/>
+      <c r="C422" s="23">
+        <v>43532</v>
+      </c>
+      <c r="D422" s="24">
+        <v>39.9</v>
+      </c>
       <c r="E422" s="23">
         <v>43486</v>
       </c>
@@ -16723,8 +16818,12 @@
       <c r="B429" s="23">
         <v>43518</v>
       </c>
-      <c r="C429" s="23"/>
-      <c r="D429" s="24"/>
+      <c r="C429" s="23">
+        <v>43532</v>
+      </c>
+      <c r="D429" s="24">
+        <v>47.6</v>
+      </c>
       <c r="E429" s="23">
         <v>43486</v>
       </c>
@@ -16747,8 +16846,12 @@
       <c r="B430" s="23">
         <v>43521</v>
       </c>
-      <c r="C430" s="23"/>
-      <c r="D430" s="24"/>
+      <c r="C430" s="23">
+        <v>43532</v>
+      </c>
+      <c r="D430" s="24">
+        <v>45</v>
+      </c>
       <c r="E430" s="23">
         <v>43486</v>
       </c>
@@ -17801,8 +17904,12 @@
       <c r="B469" s="23">
         <v>43511</v>
       </c>
-      <c r="C469" s="23"/>
-      <c r="D469" s="24"/>
+      <c r="C469" s="23">
+        <v>43532</v>
+      </c>
+      <c r="D469" s="24">
+        <v>29.4</v>
+      </c>
       <c r="E469" s="23">
         <v>43486</v>
       </c>
@@ -17879,8 +17986,12 @@
       <c r="B472" s="23">
         <v>43507</v>
       </c>
-      <c r="C472" s="23"/>
-      <c r="D472" s="24"/>
+      <c r="C472" s="23">
+        <v>43521</v>
+      </c>
+      <c r="D472" s="24">
+        <v>35.4</v>
+      </c>
       <c r="E472" s="23">
         <v>43486</v>
       </c>

--- a/data/observation_datasheet.xlsx
+++ b/data/observation_datasheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catchamberlain/Documents/git/chillfreeze/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{40FFE16E-0223-EF4F-A4A0-54A1BE3ABF40}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{824821F3-2717-DD4A-A389-214581E90901}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="460" windowWidth="21020" windowHeight="18240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6060" yWindow="500" windowWidth="21520" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="observation_datasheet" sheetId="1" r:id="rId1"/>
@@ -5463,10 +5463,10 @@
   <dimension ref="A1:U481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B333" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E468" sqref="E468"/>
+      <selection pane="bottomRight" activeCell="P352" sqref="P352"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5991,7 +5991,9 @@
       <c r="C18" s="20">
         <v>43528</v>
       </c>
-      <c r="D18" s="21"/>
+      <c r="D18" s="21">
+        <v>22.1</v>
+      </c>
       <c r="E18" s="20">
         <v>43472</v>
       </c>
@@ -6014,8 +6016,12 @@
       <c r="B19" s="20">
         <v>43528</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
+      <c r="C19" s="20">
+        <v>43539</v>
+      </c>
+      <c r="D19" s="21">
+        <v>27.9</v>
+      </c>
       <c r="E19" s="20">
         <v>43472</v>
       </c>
@@ -6174,8 +6180,12 @@
       <c r="B25" s="20">
         <v>43521</v>
       </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="21"/>
+      <c r="C25" s="20">
+        <v>43535</v>
+      </c>
+      <c r="D25" s="21">
+        <v>29.5</v>
+      </c>
       <c r="E25" s="20">
         <v>43472</v>
       </c>
@@ -6303,7 +6313,9 @@
       <c r="A30" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="20"/>
+      <c r="B30" s="20">
+        <v>43535</v>
+      </c>
       <c r="C30" s="20"/>
       <c r="D30" s="21"/>
       <c r="E30" s="20">
@@ -6436,8 +6448,12 @@
       <c r="B35" s="23">
         <v>43525</v>
       </c>
-      <c r="C35" s="23"/>
-      <c r="D35" s="24"/>
+      <c r="C35" s="23">
+        <v>43535</v>
+      </c>
+      <c r="D35" s="24">
+        <v>29.4</v>
+      </c>
       <c r="E35" s="23">
         <v>43486</v>
       </c>
@@ -6509,7 +6525,9 @@
       <c r="A38" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="23"/>
+      <c r="B38" s="23">
+        <v>43535</v>
+      </c>
       <c r="C38" s="23"/>
       <c r="D38" s="24"/>
       <c r="E38" s="23">
@@ -6560,8 +6578,12 @@
       <c r="B40" s="23">
         <v>43530</v>
       </c>
-      <c r="C40" s="23"/>
-      <c r="D40" s="24"/>
+      <c r="C40" s="23">
+        <v>43539</v>
+      </c>
+      <c r="D40" s="24">
+        <v>20.8</v>
+      </c>
       <c r="E40" s="23">
         <v>43486</v>
       </c>
@@ -6610,8 +6632,12 @@
       <c r="B42" s="23">
         <v>43532</v>
       </c>
-      <c r="C42" s="23"/>
-      <c r="D42" s="24"/>
+      <c r="C42" s="23">
+        <v>43539</v>
+      </c>
+      <c r="D42" s="24">
+        <v>20.100000000000001</v>
+      </c>
       <c r="E42" s="23">
         <v>43486</v>
       </c>
@@ -6632,7 +6658,9 @@
       <c r="B43" s="23">
         <v>43521</v>
       </c>
-      <c r="C43" s="23"/>
+      <c r="C43" s="23">
+        <v>43535</v>
+      </c>
       <c r="D43" s="24"/>
       <c r="E43" s="23">
         <v>43486</v>
@@ -6682,8 +6710,12 @@
       <c r="B45" s="23">
         <v>43528</v>
       </c>
-      <c r="C45" s="23"/>
-      <c r="D45" s="24"/>
+      <c r="C45" s="23">
+        <v>43536</v>
+      </c>
+      <c r="D45" s="24">
+        <v>28.8</v>
+      </c>
       <c r="E45" s="23">
         <v>43486</v>
       </c>
@@ -6778,8 +6810,12 @@
       <c r="B49" s="23">
         <v>43525</v>
       </c>
-      <c r="C49" s="23"/>
-      <c r="D49" s="24"/>
+      <c r="C49" s="23">
+        <v>43539</v>
+      </c>
+      <c r="D49" s="24">
+        <v>24.3</v>
+      </c>
       <c r="E49" s="23">
         <v>43486</v>
       </c>
@@ -7748,8 +7784,12 @@
       <c r="B85" s="23">
         <v>43502</v>
       </c>
-      <c r="C85" s="23"/>
-      <c r="D85" s="24"/>
+      <c r="C85" s="23">
+        <v>43539</v>
+      </c>
+      <c r="D85" s="24">
+        <v>22</v>
+      </c>
       <c r="E85" s="23">
         <v>43486</v>
       </c>
@@ -10732,7 +10772,7 @@
       <c r="M192" s="12"/>
       <c r="N192" s="12"/>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A193" s="22" t="s">
         <v>194</v>
       </c>
@@ -10760,7 +10800,7 @@
       <c r="M193" s="12"/>
       <c r="N193" s="12"/>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A194" s="14" t="s">
         <v>195</v>
       </c>
@@ -10801,7 +10841,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A195" s="14" t="s">
         <v>196</v>
       </c>
@@ -10829,7 +10869,7 @@
       <c r="M195" s="12"/>
       <c r="N195" s="12"/>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A196" s="14" t="s">
         <v>197</v>
       </c>
@@ -10855,7 +10895,7 @@
       <c r="M196" s="12"/>
       <c r="N196" s="12"/>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A197" s="14" t="s">
         <v>198</v>
       </c>
@@ -10883,7 +10923,7 @@
       <c r="M197" s="12"/>
       <c r="N197" s="12"/>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A198" s="14" t="s">
         <v>199</v>
       </c>
@@ -10922,7 +10962,7 @@
       </c>
       <c r="N198" s="12"/>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A199" s="14" t="s">
         <v>200</v>
       </c>
@@ -10950,7 +10990,7 @@
       <c r="M199" s="12"/>
       <c r="N199" s="12"/>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A200" s="14" t="s">
         <v>201</v>
       </c>
@@ -10976,7 +11016,7 @@
       <c r="M200" s="12"/>
       <c r="N200" s="12"/>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A201" s="14" t="s">
         <v>202</v>
       </c>
@@ -11004,7 +11044,7 @@
       <c r="M201" s="12"/>
       <c r="N201" s="12"/>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A202" s="14" t="s">
         <v>203</v>
       </c>
@@ -11030,7 +11070,7 @@
       <c r="M202" s="12"/>
       <c r="N202" s="12"/>
     </row>
-    <row r="203" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:21" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="14" t="s">
         <v>204</v>
       </c>
@@ -11058,7 +11098,7 @@
       <c r="M203" s="12"/>
       <c r="N203" s="12"/>
     </row>
-    <row r="204" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="14" t="s">
         <v>205</v>
       </c>
@@ -11084,7 +11124,7 @@
       <c r="M204" s="12"/>
       <c r="N204" s="12"/>
     </row>
-    <row r="205" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="14" t="s">
         <v>206</v>
       </c>
@@ -11125,7 +11165,7 @@
       </c>
       <c r="N205" s="12"/>
     </row>
-    <row r="206" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="14" t="s">
         <v>207</v>
       </c>
@@ -11164,7 +11204,7 @@
       </c>
       <c r="N206" s="12"/>
     </row>
-    <row r="207" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="14" t="s">
         <v>208</v>
       </c>
@@ -11194,7 +11234,7 @@
       <c r="M207" s="12"/>
       <c r="N207" s="12"/>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A208" s="14" t="s">
         <v>209</v>
       </c>
@@ -11232,6 +11272,25 @@
         <v>27.574999999999999</v>
       </c>
       <c r="N208" s="12"/>
+      <c r="P208">
+        <v>60.7</v>
+      </c>
+      <c r="Q208">
+        <v>26.6</v>
+      </c>
+      <c r="R208">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="S208">
+        <v>26.2</v>
+      </c>
+      <c r="T208">
+        <v>26</v>
+      </c>
+      <c r="U208">
+        <f>AVERAGE(Q208:T208)</f>
+        <v>28.25</v>
+      </c>
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A209" s="14" t="s">
@@ -12166,8 +12225,12 @@
       <c r="B243" s="15">
         <v>43523</v>
       </c>
-      <c r="C243" s="15"/>
-      <c r="D243" s="16"/>
+      <c r="C243" s="15">
+        <v>43539</v>
+      </c>
+      <c r="D243" s="16">
+        <v>45</v>
+      </c>
       <c r="E243" s="15">
         <v>43458</v>
       </c>
@@ -12361,7 +12424,9 @@
       <c r="A252" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="B252" s="15"/>
+      <c r="B252" s="15">
+        <v>43539</v>
+      </c>
       <c r="C252" s="15"/>
       <c r="D252" s="16"/>
       <c r="E252" s="15">
@@ -12503,7 +12568,9 @@
       <c r="A259" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="B259" s="20"/>
+      <c r="B259" s="20">
+        <v>43536</v>
+      </c>
       <c r="C259" s="20"/>
       <c r="D259" s="21"/>
       <c r="E259" s="20">
@@ -12645,7 +12712,9 @@
       <c r="A266" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="B266" s="20"/>
+      <c r="B266" s="20">
+        <v>43535</v>
+      </c>
       <c r="C266" s="20"/>
       <c r="D266" s="21"/>
       <c r="E266" s="20">
@@ -12728,8 +12797,12 @@
       <c r="B270" s="20">
         <v>43525</v>
       </c>
-      <c r="C270" s="20"/>
-      <c r="D270" s="21"/>
+      <c r="C270" s="20">
+        <v>43535</v>
+      </c>
+      <c r="D270" s="21">
+        <v>20.100000000000001</v>
+      </c>
       <c r="E270" s="20">
         <v>43472</v>
       </c>
@@ -12767,7 +12840,9 @@
       <c r="A272" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="B272" s="20"/>
+      <c r="B272" s="20">
+        <v>43535</v>
+      </c>
       <c r="C272" s="20"/>
       <c r="D272" s="21"/>
       <c r="E272" s="20">
@@ -14175,6 +14250,25 @@
       <c r="N338" s="12" t="s">
         <v>518</v>
       </c>
+      <c r="P338">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="Q338">
+        <v>22.9</v>
+      </c>
+      <c r="R338">
+        <v>49.6</v>
+      </c>
+      <c r="S338">
+        <v>46.9</v>
+      </c>
+      <c r="T338">
+        <v>41.4</v>
+      </c>
+      <c r="U338">
+        <f t="shared" ref="U338:U350" si="1">AVERAGE(Q338:T338)</f>
+        <v>40.200000000000003</v>
+      </c>
     </row>
     <row r="339" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A339" s="14" t="s">
@@ -14251,10 +14345,29 @@
         <v>39.9</v>
       </c>
       <c r="M340" s="12">
-        <f t="shared" ref="M340:M352" si="1">AVERAGE(I340:L340)</f>
+        <f t="shared" ref="M340:M352" si="2">AVERAGE(I340:L340)</f>
         <v>48.449999999999996</v>
       </c>
       <c r="N340" s="12"/>
+      <c r="P340">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="Q340">
+        <v>46.9</v>
+      </c>
+      <c r="R340">
+        <v>42.4</v>
+      </c>
+      <c r="S340">
+        <v>50</v>
+      </c>
+      <c r="T340">
+        <v>47.4</v>
+      </c>
+      <c r="U340">
+        <f t="shared" si="1"/>
+        <v>46.675000000000004</v>
+      </c>
     </row>
     <row r="341" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A341" s="14" t="s">
@@ -14296,6 +14409,25 @@
         <v>45.824999999999996</v>
       </c>
       <c r="N341" s="12"/>
+      <c r="P341">
+        <v>77.2</v>
+      </c>
+      <c r="Q341">
+        <v>52.6</v>
+      </c>
+      <c r="R341">
+        <v>44</v>
+      </c>
+      <c r="S341">
+        <v>52</v>
+      </c>
+      <c r="T341">
+        <v>49.1</v>
+      </c>
+      <c r="U341">
+        <f t="shared" si="1"/>
+        <v>49.424999999999997</v>
+      </c>
     </row>
     <row r="342" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A342" s="14" t="s">
@@ -14331,10 +14463,29 @@
         <v>46.5</v>
       </c>
       <c r="M342" s="12">
+        <f t="shared" si="2"/>
+        <v>45.05</v>
+      </c>
+      <c r="N342" s="12"/>
+      <c r="P342">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="Q342">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="R342">
+        <v>41.2</v>
+      </c>
+      <c r="S342">
+        <v>35.9</v>
+      </c>
+      <c r="T342">
+        <v>45.1</v>
+      </c>
+      <c r="U342">
         <f t="shared" si="1"/>
-        <v>45.05</v>
-      </c>
-      <c r="N342" s="12"/>
+        <v>40.5</v>
+      </c>
     </row>
     <row r="343" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A343" s="14" t="s">
@@ -14372,10 +14523,29 @@
         <v>40.5</v>
       </c>
       <c r="M343" s="12">
+        <f t="shared" si="2"/>
+        <v>40.825000000000003</v>
+      </c>
+      <c r="N343" s="12"/>
+      <c r="P343">
+        <v>77.3</v>
+      </c>
+      <c r="Q343">
+        <v>44.2</v>
+      </c>
+      <c r="R343">
+        <v>35</v>
+      </c>
+      <c r="S343">
+        <v>37.5</v>
+      </c>
+      <c r="T343">
+        <v>40.4</v>
+      </c>
+      <c r="U343">
         <f t="shared" si="1"/>
-        <v>40.825000000000003</v>
-      </c>
-      <c r="N343" s="12"/>
+        <v>39.274999999999999</v>
+      </c>
     </row>
     <row r="344" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A344" s="14" t="s">
@@ -14411,10 +14581,29 @@
         <v>27</v>
       </c>
       <c r="M344" s="12">
+        <f t="shared" si="2"/>
+        <v>37.875</v>
+      </c>
+      <c r="N344" s="12"/>
+      <c r="P344">
+        <v>60.5</v>
+      </c>
+      <c r="Q344">
+        <v>47.5</v>
+      </c>
+      <c r="R344">
+        <v>46.6</v>
+      </c>
+      <c r="S344">
+        <v>42.6</v>
+      </c>
+      <c r="T344">
+        <v>41.6</v>
+      </c>
+      <c r="U344">
         <f t="shared" si="1"/>
-        <v>37.875</v>
-      </c>
-      <c r="N344" s="12"/>
+        <v>44.574999999999996</v>
+      </c>
     </row>
     <row r="345" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A345" s="14" t="s">
@@ -14452,10 +14641,29 @@
         <v>37.9</v>
       </c>
       <c r="M345" s="12">
+        <f t="shared" si="2"/>
+        <v>37.650000000000006</v>
+      </c>
+      <c r="N345" s="12"/>
+      <c r="P345">
+        <v>62.5</v>
+      </c>
+      <c r="Q345">
+        <v>46.2</v>
+      </c>
+      <c r="R345">
+        <v>45.2</v>
+      </c>
+      <c r="S345">
+        <v>43.4</v>
+      </c>
+      <c r="T345">
+        <v>45.7</v>
+      </c>
+      <c r="U345">
         <f t="shared" si="1"/>
-        <v>37.650000000000006</v>
-      </c>
-      <c r="N345" s="12"/>
+        <v>45.125</v>
+      </c>
     </row>
     <row r="346" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A346" s="14" t="s">
@@ -14491,10 +14699,29 @@
         <v>44.5</v>
       </c>
       <c r="M346" s="12">
+        <f t="shared" si="2"/>
+        <v>44.024999999999999</v>
+      </c>
+      <c r="N346" s="12"/>
+      <c r="P346">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="Q346">
+        <v>53.9</v>
+      </c>
+      <c r="R346">
+        <v>42.6</v>
+      </c>
+      <c r="S346">
+        <v>43.3</v>
+      </c>
+      <c r="T346">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="U346">
         <f t="shared" si="1"/>
-        <v>44.024999999999999</v>
-      </c>
-      <c r="N346" s="12"/>
+        <v>44.525000000000006</v>
+      </c>
     </row>
     <row r="347" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A347" s="14" t="s">
@@ -14532,7 +14759,7 @@
         <v>44.5</v>
       </c>
       <c r="M347" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44.024999999999999</v>
       </c>
       <c r="N347" s="12"/>
@@ -14571,10 +14798,29 @@
         <v>42.3</v>
       </c>
       <c r="M348" s="12">
+        <f t="shared" si="2"/>
+        <v>42.05</v>
+      </c>
+      <c r="N348" s="12"/>
+      <c r="P348">
+        <v>52.2</v>
+      </c>
+      <c r="Q348">
+        <v>42.9</v>
+      </c>
+      <c r="R348">
+        <v>45.5</v>
+      </c>
+      <c r="S348">
+        <v>52.3</v>
+      </c>
+      <c r="T348">
+        <v>40.6</v>
+      </c>
+      <c r="U348">
         <f t="shared" si="1"/>
-        <v>42.05</v>
-      </c>
-      <c r="N348" s="12"/>
+        <v>45.324999999999996</v>
+      </c>
     </row>
     <row r="349" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A349" s="14" t="s">
@@ -14612,10 +14858,29 @@
         <v>42.9</v>
       </c>
       <c r="M349" s="12">
+        <f t="shared" si="2"/>
+        <v>39.950000000000003</v>
+      </c>
+      <c r="N349" s="12"/>
+      <c r="P349">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="Q349">
+        <v>42.8</v>
+      </c>
+      <c r="R349">
+        <v>37.6</v>
+      </c>
+      <c r="S349">
+        <v>39.4</v>
+      </c>
+      <c r="T349">
+        <v>39.5</v>
+      </c>
+      <c r="U349">
         <f t="shared" si="1"/>
-        <v>39.950000000000003</v>
-      </c>
-      <c r="N349" s="12"/>
+        <v>39.825000000000003</v>
+      </c>
     </row>
     <row r="350" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A350" s="14" t="s">
@@ -14651,10 +14916,29 @@
         <v>52.3</v>
       </c>
       <c r="M350" s="12">
+        <f t="shared" si="2"/>
+        <v>47.775000000000006</v>
+      </c>
+      <c r="N350" s="12"/>
+      <c r="P350">
+        <v>60.1</v>
+      </c>
+      <c r="Q350">
+        <v>54.3</v>
+      </c>
+      <c r="R350">
+        <v>47.8</v>
+      </c>
+      <c r="S350">
+        <v>46.5</v>
+      </c>
+      <c r="T350">
+        <v>50.1</v>
+      </c>
+      <c r="U350">
         <f t="shared" si="1"/>
-        <v>47.775000000000006</v>
-      </c>
-      <c r="N350" s="12"/>
+        <v>49.674999999999997</v>
+      </c>
     </row>
     <row r="351" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A351" s="14" t="s">
@@ -14694,7 +14978,7 @@
         <v>48.2</v>
       </c>
       <c r="M351" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45.275000000000006</v>
       </c>
       <c r="N351" s="12"/>
@@ -14733,7 +15017,7 @@
         <v>48.9</v>
       </c>
       <c r="M352" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>47.625</v>
       </c>
       <c r="N352" s="12"/>
@@ -16564,8 +16848,12 @@
       <c r="B419" s="23">
         <v>43528</v>
       </c>
-      <c r="C419" s="23"/>
-      <c r="D419" s="24"/>
+      <c r="C419" s="23">
+        <v>43539</v>
+      </c>
+      <c r="D419" s="24">
+        <v>45.2</v>
+      </c>
       <c r="E419" s="23">
         <v>43486</v>
       </c>
@@ -16590,8 +16878,12 @@
       <c r="B420" s="23">
         <v>43521</v>
       </c>
-      <c r="C420" s="23"/>
-      <c r="D420" s="24"/>
+      <c r="C420" s="23">
+        <v>43535</v>
+      </c>
+      <c r="D420" s="24">
+        <v>57.7</v>
+      </c>
       <c r="E420" s="23">
         <v>43486</v>
       </c>
@@ -16668,8 +16960,12 @@
       <c r="B423" s="23">
         <v>43512</v>
       </c>
-      <c r="C423" s="23"/>
-      <c r="D423" s="24"/>
+      <c r="C423" s="23">
+        <v>43535</v>
+      </c>
+      <c r="D423" s="24">
+        <v>54.1</v>
+      </c>
       <c r="E423" s="23">
         <v>43486</v>
       </c>
@@ -16718,8 +17014,12 @@
       <c r="B425" s="23">
         <v>43521</v>
       </c>
-      <c r="C425" s="23"/>
-      <c r="D425" s="24"/>
+      <c r="C425" s="23">
+        <v>43535</v>
+      </c>
+      <c r="D425" s="24">
+        <v>49</v>
+      </c>
       <c r="E425" s="23">
         <v>43486</v>
       </c>
@@ -16768,8 +17068,12 @@
       <c r="B427" s="23">
         <v>43528</v>
       </c>
-      <c r="C427" s="23"/>
-      <c r="D427" s="24"/>
+      <c r="C427" s="23">
+        <v>43539</v>
+      </c>
+      <c r="D427" s="24">
+        <v>61.5</v>
+      </c>
       <c r="E427" s="23">
         <v>43486</v>
       </c>
@@ -17356,8 +17660,12 @@
       <c r="B449" s="15">
         <v>43515</v>
       </c>
-      <c r="C449" s="15"/>
-      <c r="D449" s="16"/>
+      <c r="C449" s="15">
+        <v>43535</v>
+      </c>
+      <c r="D449" s="16">
+        <v>24.2</v>
+      </c>
       <c r="E449" s="15">
         <v>43458</v>
       </c>

--- a/data/observation_datasheet.xlsx
+++ b/data/observation_datasheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catchamberlain/Documents/git/chillfreeze/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{824821F3-2717-DD4A-A389-214581E90901}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{65C88C0A-01A3-9147-8A82-874AF9514671}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6060" yWindow="500" windowWidth="21520" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="573">
   <si>
     <t>ID</t>
   </si>
@@ -1740,6 +1740,15 @@
   </si>
   <si>
     <t>chlavg</t>
+  </si>
+  <si>
+    <t>ht.diff</t>
+  </si>
+  <si>
+    <t>tx_chlavg</t>
+  </si>
+  <si>
+    <t>tx_htdiff</t>
   </si>
 </sst>
 </file>
@@ -5460,13 +5469,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:U481"/>
+  <dimension ref="A1:X481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B333" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P352" sqref="P352"/>
+      <selection pane="bottomRight" activeCell="X196" sqref="X196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5481,7 +5490,7 @@
     <col min="14" max="15" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>487</v>
       </c>
@@ -5540,8 +5549,17 @@
       <c r="U1" s="50" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V1" s="50" t="s">
+        <v>570</v>
+      </c>
+      <c r="W1" s="50" t="s">
+        <v>571</v>
+      </c>
+      <c r="X1" s="50" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
@@ -5568,8 +5586,16 @@
       <c r="N2" s="12" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U2" t="e">
+        <f>AVERAGE(Q2:T2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V2">
+        <f>P2-D2</f>
+        <v>-29.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>4</v>
       </c>
@@ -5598,8 +5624,16 @@
       <c r="N3" s="12" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U3" t="e">
+        <f t="shared" ref="U3:U66" si="0">AVERAGE(Q3:T3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:V66" si="1">P3-D3</f>
+        <v>-22.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>5</v>
       </c>
@@ -5626,8 +5660,16 @@
       <c r="N4" s="12" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="1"/>
+        <v>-30.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>6</v>
       </c>
@@ -5654,8 +5696,16 @@
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="1"/>
+        <v>-22.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>7</v>
       </c>
@@ -5680,8 +5730,16 @@
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U6" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="1"/>
+        <v>-16.399999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>8</v>
       </c>
@@ -5708,8 +5766,16 @@
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="1"/>
+        <v>-22.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>9</v>
       </c>
@@ -5734,8 +5800,16 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="1"/>
+        <v>-22.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>10</v>
       </c>
@@ -5762,8 +5836,16 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
       <c r="N9" s="12"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="1"/>
+        <v>-31.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>11</v>
       </c>
@@ -5788,8 +5870,16 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U10" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="1"/>
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>12</v>
       </c>
@@ -5818,8 +5908,16 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
       <c r="N11" s="12"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U11" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="1"/>
+        <v>-25.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>13</v>
       </c>
@@ -5844,8 +5942,16 @@
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
       <c r="N12" s="12"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U12" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="1"/>
+        <v>-22.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>14</v>
       </c>
@@ -5872,8 +5978,16 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="1"/>
+        <v>-27.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>15</v>
       </c>
@@ -5898,8 +6012,16 @@
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U14" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="1"/>
+        <v>-22.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>16</v>
       </c>
@@ -5926,8 +6048,16 @@
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U15" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="1"/>
+        <v>-33.299999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>17</v>
       </c>
@@ -5952,8 +6082,16 @@
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
       <c r="N16" s="12"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U16" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="1"/>
+        <v>-20.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>18</v>
       </c>
@@ -5980,8 +6118,16 @@
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U17" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="1"/>
+        <v>-36.299999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
         <v>19</v>
       </c>
@@ -6008,8 +6154,16 @@
       <c r="N18" s="12" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U18" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="1"/>
+        <v>-22.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="s">
         <v>20</v>
       </c>
@@ -6038,8 +6192,16 @@
       <c r="N19" s="12" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U19" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="1"/>
+        <v>-27.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="19" t="s">
         <v>21</v>
       </c>
@@ -6064,8 +6226,16 @@
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
       <c r="N20" s="12"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U20" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="1"/>
+        <v>-34.299999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
         <v>22</v>
       </c>
@@ -6092,8 +6262,16 @@
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
       <c r="N21" s="12"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U21" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="1"/>
+        <v>-30.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
         <v>23</v>
       </c>
@@ -6118,8 +6296,16 @@
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
       <c r="N22" s="12"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U22" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="1"/>
+        <v>-30.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
         <v>24</v>
       </c>
@@ -6146,8 +6332,16 @@
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
       <c r="N23" s="12"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U23" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="1"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="19" t="s">
         <v>25</v>
       </c>
@@ -6172,8 +6366,16 @@
       <c r="L24" s="12"/>
       <c r="M24" s="12"/>
       <c r="N24" s="12"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U24" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="1"/>
+        <v>-17.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
         <v>26</v>
       </c>
@@ -6200,8 +6402,16 @@
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U25" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="1"/>
+        <v>-29.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
         <v>27</v>
       </c>
@@ -6226,8 +6436,16 @@
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
       <c r="N26" s="12"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U26" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="1"/>
+        <v>-27.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="19" t="s">
         <v>28</v>
       </c>
@@ -6254,8 +6472,16 @@
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
       <c r="N27" s="12"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U27" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="1"/>
+        <v>-24.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="19" t="s">
         <v>29</v>
       </c>
@@ -6280,8 +6506,16 @@
       <c r="L28" s="12"/>
       <c r="M28" s="12"/>
       <c r="N28" s="12"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U28" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="1"/>
+        <v>-27.7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="19" t="s">
         <v>30</v>
       </c>
@@ -6308,16 +6542,28 @@
       <c r="L29" s="12"/>
       <c r="M29" s="12"/>
       <c r="N29" s="12"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U29" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="1"/>
+        <v>-27.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="19" t="s">
         <v>31</v>
       </c>
       <c r="B30" s="20">
         <v>43535</v>
       </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="21"/>
+      <c r="C30" s="20">
+        <v>43542</v>
+      </c>
+      <c r="D30" s="21">
+        <v>19.100000000000001</v>
+      </c>
       <c r="E30" s="20">
         <v>43472</v>
       </c>
@@ -6330,8 +6576,16 @@
       <c r="L30" s="12"/>
       <c r="M30" s="12"/>
       <c r="N30" s="12"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U30" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="1"/>
+        <v>-19.100000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="19" t="s">
         <v>32</v>
       </c>
@@ -6358,8 +6612,16 @@
       <c r="L31" s="12"/>
       <c r="M31" s="12"/>
       <c r="N31" s="12"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U31" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="1"/>
+        <v>-35.200000000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="19" t="s">
         <v>33</v>
       </c>
@@ -6384,8 +6646,16 @@
       <c r="L32" s="12"/>
       <c r="M32" s="12"/>
       <c r="N32" s="12"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U32" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="1"/>
+        <v>-30.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="19" t="s">
         <v>34</v>
       </c>
@@ -6412,8 +6682,16 @@
       <c r="L33" s="12"/>
       <c r="M33" s="12"/>
       <c r="N33" s="12"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U33" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="1"/>
+        <v>-21.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="22" t="s">
         <v>35</v>
       </c>
@@ -6440,8 +6718,16 @@
       <c r="N34" s="12" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U34" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="1"/>
+        <v>-23.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="22" t="s">
         <v>36</v>
       </c>
@@ -6470,8 +6756,16 @@
       <c r="N35" s="12" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U35" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="1"/>
+        <v>-29.4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="22" t="s">
         <v>37</v>
       </c>
@@ -6496,8 +6790,16 @@
       <c r="L36" s="12"/>
       <c r="M36" s="12"/>
       <c r="N36" s="12"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="1"/>
+        <v>-28.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="22" t="s">
         <v>38</v>
       </c>
@@ -6520,16 +6822,28 @@
       <c r="L37" s="12"/>
       <c r="M37" s="12"/>
       <c r="N37" s="12"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U37" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="22" t="s">
         <v>39</v>
       </c>
       <c r="B38" s="23">
         <v>43535</v>
       </c>
-      <c r="C38" s="23"/>
-      <c r="D38" s="24"/>
+      <c r="C38" s="23">
+        <v>43542</v>
+      </c>
+      <c r="D38" s="24">
+        <v>28.8</v>
+      </c>
       <c r="E38" s="23">
         <v>43486</v>
       </c>
@@ -6542,8 +6856,16 @@
       <c r="L38" s="12"/>
       <c r="M38" s="12"/>
       <c r="N38" s="12"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U38" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="1"/>
+        <v>-28.8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" s="22" t="s">
         <v>40</v>
       </c>
@@ -6570,8 +6892,16 @@
       <c r="L39" s="12"/>
       <c r="M39" s="12"/>
       <c r="N39" s="12"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U39" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="1"/>
+        <v>-34.799999999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="22" t="s">
         <v>41</v>
       </c>
@@ -6596,8 +6926,16 @@
       <c r="L40" s="12"/>
       <c r="M40" s="12"/>
       <c r="N40" s="12"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U40" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="1"/>
+        <v>-20.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="22" t="s">
         <v>42</v>
       </c>
@@ -6624,8 +6962,16 @@
       <c r="L41" s="12"/>
       <c r="M41" s="12"/>
       <c r="N41" s="12"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U41" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="1"/>
+        <v>-23.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="22" t="s">
         <v>43</v>
       </c>
@@ -6650,8 +6996,16 @@
       <c r="L42" s="12"/>
       <c r="M42" s="12"/>
       <c r="N42" s="12"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U42" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="1"/>
+        <v>-20.100000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="22" t="s">
         <v>44</v>
       </c>
@@ -6676,8 +7030,16 @@
       <c r="L43" s="12"/>
       <c r="M43" s="12"/>
       <c r="N43" s="12"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U43" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="22" t="s">
         <v>45</v>
       </c>
@@ -6702,8 +7064,16 @@
       <c r="L44" s="12"/>
       <c r="M44" s="12"/>
       <c r="N44" s="12"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U44" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="1"/>
+        <v>-27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" s="22" t="s">
         <v>46</v>
       </c>
@@ -6730,8 +7100,16 @@
       <c r="L45" s="12"/>
       <c r="M45" s="12"/>
       <c r="N45" s="12"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U45" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="1"/>
+        <v>-28.8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" s="22" t="s">
         <v>47</v>
       </c>
@@ -6756,16 +7134,28 @@
       <c r="L46" s="12"/>
       <c r="M46" s="12"/>
       <c r="N46" s="12"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U46" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="1"/>
+        <v>-33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" s="22" t="s">
         <v>48</v>
       </c>
       <c r="B47" s="23">
         <v>43515</v>
       </c>
-      <c r="C47" s="23"/>
-      <c r="D47" s="24"/>
+      <c r="C47" s="23">
+        <v>43542</v>
+      </c>
+      <c r="D47" s="24">
+        <v>31.1</v>
+      </c>
       <c r="E47" s="23">
         <v>43486</v>
       </c>
@@ -6780,8 +7170,16 @@
       <c r="L47" s="12"/>
       <c r="M47" s="12"/>
       <c r="N47" s="12"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U47" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="1"/>
+        <v>-31.1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" s="22" t="s">
         <v>49</v>
       </c>
@@ -6802,8 +7200,16 @@
       <c r="L48" s="12"/>
       <c r="M48" s="12"/>
       <c r="N48" s="12"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U48" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" s="22" t="s">
         <v>50</v>
       </c>
@@ -6830,8 +7236,16 @@
       <c r="L49" s="12"/>
       <c r="M49" s="12"/>
       <c r="N49" s="12"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U49" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="1"/>
+        <v>-24.3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
         <v>51</v>
       </c>
@@ -6858,8 +7272,16 @@
       <c r="N50" s="12" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U50" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="1"/>
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
         <v>52</v>
       </c>
@@ -6888,8 +7310,16 @@
       <c r="N51" s="12" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U51" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V51">
+        <f t="shared" si="1"/>
+        <v>-31.8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
         <v>53</v>
       </c>
@@ -6916,8 +7346,16 @@
       <c r="N52" s="12" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U52" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V52">
+        <f t="shared" si="1"/>
+        <v>-20.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" s="14" t="s">
         <v>54</v>
       </c>
@@ -6944,8 +7382,16 @@
       <c r="L53" s="12"/>
       <c r="M53" s="12"/>
       <c r="N53" s="12"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U53" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V53">
+        <f t="shared" si="1"/>
+        <v>-29.4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" s="14" t="s">
         <v>55</v>
       </c>
@@ -6970,8 +7416,16 @@
       <c r="L54" s="12"/>
       <c r="M54" s="12"/>
       <c r="N54" s="12"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U54" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V54">
+        <f t="shared" si="1"/>
+        <v>-32.6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" s="14" t="s">
         <v>56</v>
       </c>
@@ -6998,8 +7452,16 @@
       <c r="L55" s="12"/>
       <c r="M55" s="12"/>
       <c r="N55" s="12"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U55" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V55">
+        <f t="shared" si="1"/>
+        <v>-32.200000000000003</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56" s="14" t="s">
         <v>57</v>
       </c>
@@ -7024,8 +7486,16 @@
       <c r="L56" s="12"/>
       <c r="M56" s="12"/>
       <c r="N56" s="12"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U56" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V56">
+        <f t="shared" si="1"/>
+        <v>-33.299999999999997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57" s="14" t="s">
         <v>58</v>
       </c>
@@ -7052,8 +7522,16 @@
       <c r="L57" s="12"/>
       <c r="M57" s="12"/>
       <c r="N57" s="12"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U57" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V57">
+        <f t="shared" si="1"/>
+        <v>-35.200000000000003</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58" s="14" t="s">
         <v>59</v>
       </c>
@@ -7078,8 +7556,16 @@
       <c r="L58" s="12"/>
       <c r="M58" s="12"/>
       <c r="N58" s="12"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U58" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V58">
+        <f t="shared" si="1"/>
+        <v>-28.9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59" s="14" t="s">
         <v>60</v>
       </c>
@@ -7106,8 +7592,16 @@
       <c r="L59" s="12"/>
       <c r="M59" s="12"/>
       <c r="N59" s="12"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U59" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V59">
+        <f t="shared" si="1"/>
+        <v>-36.799999999999997</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60" s="14" t="s">
         <v>61</v>
       </c>
@@ -7132,8 +7626,16 @@
       <c r="L60" s="12"/>
       <c r="M60" s="12"/>
       <c r="N60" s="12"/>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U60" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V60">
+        <f t="shared" si="1"/>
+        <v>-52.4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
         <v>62</v>
       </c>
@@ -7152,8 +7654,16 @@
       <c r="L61" s="12"/>
       <c r="M61" s="12"/>
       <c r="N61" s="12"/>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U61" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62" s="14" t="s">
         <v>63</v>
       </c>
@@ -7178,8 +7688,16 @@
       <c r="L62" s="12"/>
       <c r="M62" s="12"/>
       <c r="N62" s="12"/>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U62" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V62">
+        <f t="shared" si="1"/>
+        <v>-26.2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" s="14" t="s">
         <v>64</v>
       </c>
@@ -7206,8 +7724,16 @@
       <c r="L63" s="12"/>
       <c r="M63" s="12"/>
       <c r="N63" s="12"/>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U63" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V63">
+        <f t="shared" si="1"/>
+        <v>-32.200000000000003</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
         <v>65</v>
       </c>
@@ -7232,8 +7758,16 @@
       <c r="L64" s="12"/>
       <c r="M64" s="12"/>
       <c r="N64" s="12"/>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U64" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V64">
+        <f t="shared" si="1"/>
+        <v>-21.6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65" s="14" t="s">
         <v>66</v>
       </c>
@@ -7260,8 +7794,16 @@
       <c r="L65" s="12"/>
       <c r="M65" s="12"/>
       <c r="N65" s="12"/>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U65" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V65">
+        <f t="shared" si="1"/>
+        <v>-31.6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" s="19" t="s">
         <v>67</v>
       </c>
@@ -7288,8 +7830,16 @@
       <c r="N66" s="12" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U66" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V66">
+        <f t="shared" si="1"/>
+        <v>-46.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" s="19" t="s">
         <v>68</v>
       </c>
@@ -7318,8 +7868,16 @@
       <c r="N67" s="12" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U67" t="e">
+        <f t="shared" ref="U67:U130" si="2">AVERAGE(Q67:T67)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V67">
+        <f t="shared" ref="V67:V130" si="3">P67-D67</f>
+        <v>-17.100000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" s="19" t="s">
         <v>69</v>
       </c>
@@ -7344,8 +7902,16 @@
       <c r="L68" s="12"/>
       <c r="M68" s="12"/>
       <c r="N68" s="12"/>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U68" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V68">
+        <f t="shared" si="3"/>
+        <v>-36.4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69" s="19" t="s">
         <v>70</v>
       </c>
@@ -7372,8 +7938,16 @@
       <c r="L69" s="12"/>
       <c r="M69" s="12"/>
       <c r="N69" s="12"/>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U69" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V69">
+        <f t="shared" si="3"/>
+        <v>-28.7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70" s="19" t="s">
         <v>71</v>
       </c>
@@ -7398,8 +7972,16 @@
       <c r="L70" s="12"/>
       <c r="M70" s="12"/>
       <c r="N70" s="12"/>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U70" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V70">
+        <f t="shared" si="3"/>
+        <v>-36.6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71" s="19" t="s">
         <v>72</v>
       </c>
@@ -7426,8 +8008,16 @@
       <c r="L71" s="12"/>
       <c r="M71" s="12"/>
       <c r="N71" s="12"/>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U71" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V71">
+        <f t="shared" si="3"/>
+        <v>-32.200000000000003</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" s="19" t="s">
         <v>73</v>
       </c>
@@ -7446,8 +8036,16 @@
       <c r="L72" s="12"/>
       <c r="M72" s="12"/>
       <c r="N72" s="12"/>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U72" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V72">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73" s="19" t="s">
         <v>74</v>
       </c>
@@ -7474,8 +8072,16 @@
       <c r="L73" s="12"/>
       <c r="M73" s="12"/>
       <c r="N73" s="12"/>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U73" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V73">
+        <f t="shared" si="3"/>
+        <v>-25.4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="19" t="s">
         <v>75</v>
       </c>
@@ -7500,8 +8106,16 @@
       <c r="L74" s="12"/>
       <c r="M74" s="12"/>
       <c r="N74" s="12"/>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U74" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V74">
+        <f t="shared" si="3"/>
+        <v>-33.799999999999997</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="19" t="s">
         <v>76</v>
       </c>
@@ -7530,8 +8144,16 @@
       <c r="L75" s="12"/>
       <c r="M75" s="12"/>
       <c r="N75" s="12"/>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U75" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V75">
+        <f t="shared" si="3"/>
+        <v>-27</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="19" t="s">
         <v>77</v>
       </c>
@@ -7556,8 +8178,16 @@
       <c r="L76" s="12"/>
       <c r="M76" s="12"/>
       <c r="N76" s="12"/>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U76" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V76">
+        <f t="shared" si="3"/>
+        <v>-27</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77" s="19" t="s">
         <v>78</v>
       </c>
@@ -7586,8 +8216,16 @@
       <c r="L77" s="12"/>
       <c r="M77" s="12"/>
       <c r="N77" s="12"/>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U77" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V77">
+        <f t="shared" si="3"/>
+        <v>-28.6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78" s="19" t="s">
         <v>79</v>
       </c>
@@ -7612,8 +8250,16 @@
       <c r="L78" s="12"/>
       <c r="M78" s="12"/>
       <c r="N78" s="12"/>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U78" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V78">
+        <f t="shared" si="3"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="19" t="s">
         <v>80</v>
       </c>
@@ -7640,8 +8286,16 @@
       <c r="L79" s="12"/>
       <c r="M79" s="12"/>
       <c r="N79" s="12"/>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U79" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V79">
+        <f t="shared" si="3"/>
+        <v>-25.4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80" s="19" t="s">
         <v>81</v>
       </c>
@@ -7666,8 +8320,16 @@
       <c r="L80" s="12"/>
       <c r="M80" s="12"/>
       <c r="N80" s="12"/>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U80" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V80">
+        <f t="shared" si="3"/>
+        <v>-30.4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A81" s="19" t="s">
         <v>82</v>
       </c>
@@ -7694,8 +8356,16 @@
       <c r="L81" s="12"/>
       <c r="M81" s="12"/>
       <c r="N81" s="12"/>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U81" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V81">
+        <f t="shared" si="3"/>
+        <v>-25.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A82" s="22" t="s">
         <v>83</v>
       </c>
@@ -7718,8 +8388,16 @@
       <c r="N82" s="12" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U82" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V82">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A83" s="22" t="s">
         <v>84</v>
       </c>
@@ -7748,8 +8426,16 @@
       <c r="N83" s="12" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U83" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V83">
+        <f t="shared" si="3"/>
+        <v>-29</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A84" s="22" t="s">
         <v>85</v>
       </c>
@@ -7776,8 +8462,16 @@
       <c r="N84" s="12" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U84" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V84">
+        <f t="shared" si="3"/>
+        <v>-25.4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A85" s="22" t="s">
         <v>86</v>
       </c>
@@ -7804,8 +8498,16 @@
       <c r="L85" s="12"/>
       <c r="M85" s="12"/>
       <c r="N85" s="12"/>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U85" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V85">
+        <f t="shared" si="3"/>
+        <v>-22</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A86" s="22" t="s">
         <v>87</v>
       </c>
@@ -7830,8 +8532,16 @@
       <c r="L86" s="12"/>
       <c r="M86" s="12"/>
       <c r="N86" s="12"/>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U86" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V86">
+        <f t="shared" si="3"/>
+        <v>-35.4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A87" s="22" t="s">
         <v>88</v>
       </c>
@@ -7850,8 +8560,16 @@
       <c r="L87" s="12"/>
       <c r="M87" s="12"/>
       <c r="N87" s="12"/>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U87" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A88" s="22" t="s">
         <v>89</v>
       </c>
@@ -7870,8 +8588,16 @@
       <c r="L88" s="12"/>
       <c r="M88" s="12"/>
       <c r="N88" s="12"/>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U88" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V88">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A89" s="22" t="s">
         <v>90</v>
       </c>
@@ -7898,8 +8624,16 @@
       <c r="L89" s="12"/>
       <c r="M89" s="12"/>
       <c r="N89" s="12"/>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U89" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V89">
+        <f t="shared" si="3"/>
+        <v>-31.3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A90" s="22" t="s">
         <v>91</v>
       </c>
@@ -7924,8 +8658,16 @@
       <c r="L90" s="12"/>
       <c r="M90" s="12"/>
       <c r="N90" s="12"/>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U90" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V90">
+        <f t="shared" si="3"/>
+        <v>-29.1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A91" s="22" t="s">
         <v>92</v>
       </c>
@@ -7952,8 +8694,16 @@
       <c r="L91" s="12"/>
       <c r="M91" s="12"/>
       <c r="N91" s="12"/>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U91" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V91">
+        <f t="shared" si="3"/>
+        <v>-20.2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A92" s="22" t="s">
         <v>93</v>
       </c>
@@ -7978,8 +8728,16 @@
       <c r="L92" s="12"/>
       <c r="M92" s="12"/>
       <c r="N92" s="12"/>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U92" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V92">
+        <f t="shared" si="3"/>
+        <v>-27.3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A93" s="22" t="s">
         <v>94</v>
       </c>
@@ -8006,8 +8764,16 @@
       <c r="L93" s="12"/>
       <c r="M93" s="12"/>
       <c r="N93" s="12"/>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U93" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V93">
+        <f t="shared" si="3"/>
+        <v>-25.5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A94" s="22" t="s">
         <v>95</v>
       </c>
@@ -8032,8 +8798,16 @@
       <c r="L94" s="12"/>
       <c r="M94" s="12"/>
       <c r="N94" s="12"/>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U94" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V94">
+        <f t="shared" si="3"/>
+        <v>-27</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A95" s="22" t="s">
         <v>96</v>
       </c>
@@ -8060,8 +8834,16 @@
       <c r="L95" s="12"/>
       <c r="M95" s="12"/>
       <c r="N95" s="12"/>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U95" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V95">
+        <f t="shared" si="3"/>
+        <v>-28.3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A96" s="22" t="s">
         <v>97</v>
       </c>
@@ -8086,8 +8868,16 @@
       <c r="L96" s="12"/>
       <c r="M96" s="12"/>
       <c r="N96" s="12"/>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U96" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V96">
+        <f t="shared" si="3"/>
+        <v>-33.1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A97" s="22" t="s">
         <v>98</v>
       </c>
@@ -8114,8 +8904,16 @@
       <c r="L97" s="12"/>
       <c r="M97" s="12"/>
       <c r="N97" s="12"/>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U97" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V97">
+        <f t="shared" si="3"/>
+        <v>-23.4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A98" s="14" t="s">
         <v>99</v>
       </c>
@@ -8142,8 +8940,16 @@
       <c r="N98" s="12" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U98" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V98">
+        <f t="shared" si="3"/>
+        <v>-40.200000000000003</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A99" s="14" t="s">
         <v>100</v>
       </c>
@@ -8170,8 +8976,16 @@
       <c r="L99" s="12"/>
       <c r="M99" s="12"/>
       <c r="N99" s="12"/>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U99" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V99">
+        <f t="shared" si="3"/>
+        <v>-33.9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A100" s="14" t="s">
         <v>101</v>
       </c>
@@ -8209,8 +9023,16 @@
         <v>30.5</v>
       </c>
       <c r="N100" s="12"/>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U100" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V100">
+        <f t="shared" si="3"/>
+        <v>-34.4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A101" s="14" t="s">
         <v>102</v>
       </c>
@@ -8237,8 +9059,16 @@
       <c r="L101" s="12"/>
       <c r="M101" s="12"/>
       <c r="N101" s="12"/>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U101" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V101">
+        <f t="shared" si="3"/>
+        <v>-32.799999999999997</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A102" s="14" t="s">
         <v>103</v>
       </c>
@@ -8276,8 +9106,16 @@
         <v>35.375</v>
       </c>
       <c r="N102" s="12"/>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U102" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V102">
+        <f t="shared" si="3"/>
+        <v>-36.1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A103" s="14" t="s">
         <v>104</v>
       </c>
@@ -8304,8 +9142,16 @@
       <c r="L103" s="12"/>
       <c r="M103" s="12"/>
       <c r="N103" s="12"/>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U103" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V103">
+        <f t="shared" si="3"/>
+        <v>-39.4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A104" s="14" t="s">
         <v>105</v>
       </c>
@@ -8343,8 +9189,16 @@
         <v>37.1</v>
       </c>
       <c r="N104" s="12"/>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U104" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V104">
+        <f t="shared" si="3"/>
+        <v>-34.1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A105" s="14" t="s">
         <v>106</v>
       </c>
@@ -8384,8 +9238,16 @@
         <v>33.475000000000001</v>
       </c>
       <c r="N105" s="12"/>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U105" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V105">
+        <f t="shared" si="3"/>
+        <v>-41.2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A106" s="14" t="s">
         <v>107</v>
       </c>
@@ -8410,8 +9272,16 @@
       <c r="L106" s="12"/>
       <c r="M106" s="12"/>
       <c r="N106" s="12"/>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U106" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V106">
+        <f t="shared" si="3"/>
+        <v>-41.4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A107" s="14" t="s">
         <v>108</v>
       </c>
@@ -8438,8 +9308,16 @@
       <c r="L107" s="12"/>
       <c r="M107" s="12"/>
       <c r="N107" s="12"/>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U107" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V107">
+        <f t="shared" si="3"/>
+        <v>-31.2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A108" s="14" t="s">
         <v>109</v>
       </c>
@@ -8477,8 +9355,16 @@
         <v>38.375</v>
       </c>
       <c r="N108" s="12"/>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U108" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V108">
+        <f t="shared" si="3"/>
+        <v>-35.200000000000003</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A109" s="14" t="s">
         <v>110</v>
       </c>
@@ -8505,8 +9391,16 @@
       <c r="L109" s="12"/>
       <c r="M109" s="12"/>
       <c r="N109" s="12"/>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U109" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V109">
+        <f t="shared" si="3"/>
+        <v>-28.1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A110" s="14" t="s">
         <v>111</v>
       </c>
@@ -8531,8 +9425,16 @@
       <c r="L110" s="12"/>
       <c r="M110" s="12"/>
       <c r="N110" s="12"/>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U110" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V110">
+        <f t="shared" si="3"/>
+        <v>-30.6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A111" s="14" t="s">
         <v>112</v>
       </c>
@@ -8559,8 +9461,16 @@
       <c r="L111" s="12"/>
       <c r="M111" s="12"/>
       <c r="N111" s="12"/>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U111" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V111">
+        <f t="shared" si="3"/>
+        <v>-43.9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A112" s="14" t="s">
         <v>113</v>
       </c>
@@ -8585,8 +9495,16 @@
       <c r="L112" s="12"/>
       <c r="M112" s="12"/>
       <c r="N112" s="12"/>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U112" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V112">
+        <f t="shared" si="3"/>
+        <v>-33.200000000000003</v>
+      </c>
+    </row>
+    <row r="113" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A113" s="14" t="s">
         <v>114</v>
       </c>
@@ -8615,8 +9533,16 @@
       <c r="L113" s="12"/>
       <c r="M113" s="12"/>
       <c r="N113" s="12"/>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U113" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V113">
+        <f t="shared" si="3"/>
+        <v>-39</v>
+      </c>
+    </row>
+    <row r="114" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A114" s="19" t="s">
         <v>115</v>
       </c>
@@ -8643,8 +9569,16 @@
       <c r="N114" s="12" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U114" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V114">
+        <f t="shared" si="3"/>
+        <v>-28.4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A115" s="19" t="s">
         <v>116</v>
       </c>
@@ -8671,8 +9605,16 @@
       <c r="L115" s="12"/>
       <c r="M115" s="12"/>
       <c r="N115" s="12"/>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U115" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V115">
+        <f t="shared" si="3"/>
+        <v>-26.2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A116" s="19" t="s">
         <v>117</v>
       </c>
@@ -8697,8 +9639,16 @@
       <c r="L116" s="12"/>
       <c r="M116" s="12"/>
       <c r="N116" s="12"/>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U116" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V116">
+        <f t="shared" si="3"/>
+        <v>-36.4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A117" s="19" t="s">
         <v>118</v>
       </c>
@@ -8725,8 +9675,16 @@
       <c r="L117" s="12"/>
       <c r="M117" s="12"/>
       <c r="N117" s="12"/>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U117" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V117">
+        <f t="shared" si="3"/>
+        <v>-38.6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A118" s="19" t="s">
         <v>119</v>
       </c>
@@ -8751,8 +9709,16 @@
       <c r="L118" s="12"/>
       <c r="M118" s="12"/>
       <c r="N118" s="12"/>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U118" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V118">
+        <f t="shared" si="3"/>
+        <v>-45.2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A119" s="19" t="s">
         <v>120</v>
       </c>
@@ -8781,8 +9747,16 @@
       <c r="L119" s="12"/>
       <c r="M119" s="12"/>
       <c r="N119" s="12"/>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U119" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V119">
+        <f t="shared" si="3"/>
+        <v>-39</v>
+      </c>
+    </row>
+    <row r="120" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A120" s="19" t="s">
         <v>121</v>
       </c>
@@ -8807,8 +9781,16 @@
       <c r="L120" s="12"/>
       <c r="M120" s="12"/>
       <c r="N120" s="12"/>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U120" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V120">
+        <f t="shared" si="3"/>
+        <v>-27.8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A121" s="19" t="s">
         <v>122</v>
       </c>
@@ -8835,8 +9817,16 @@
       <c r="L121" s="12"/>
       <c r="M121" s="12"/>
       <c r="N121" s="12"/>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U121" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V121">
+        <f t="shared" si="3"/>
+        <v>-29.2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A122" s="19" t="s">
         <v>123</v>
       </c>
@@ -8861,8 +9851,16 @@
       <c r="L122" s="12"/>
       <c r="M122" s="12"/>
       <c r="N122" s="12"/>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U122" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V122">
+        <f t="shared" si="3"/>
+        <v>-45.8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A123" s="19" t="s">
         <v>124</v>
       </c>
@@ -8891,8 +9889,16 @@
       <c r="L123" s="12"/>
       <c r="M123" s="12"/>
       <c r="N123" s="12"/>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U123" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V123">
+        <f t="shared" si="3"/>
+        <v>-47.7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A124" s="19" t="s">
         <v>125</v>
       </c>
@@ -8917,8 +9923,16 @@
       <c r="L124" s="12"/>
       <c r="M124" s="12"/>
       <c r="N124" s="12"/>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U124" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V124">
+        <f t="shared" si="3"/>
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="125" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A125" s="19" t="s">
         <v>126</v>
       </c>
@@ -8945,8 +9959,16 @@
       <c r="L125" s="12"/>
       <c r="M125" s="12"/>
       <c r="N125" s="12"/>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U125" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V125">
+        <f t="shared" si="3"/>
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="126" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A126" s="19" t="s">
         <v>127</v>
       </c>
@@ -8971,8 +9993,16 @@
       <c r="L126" s="12"/>
       <c r="M126" s="12"/>
       <c r="N126" s="12"/>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U126" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V126">
+        <f t="shared" si="3"/>
+        <v>-38.700000000000003</v>
+      </c>
+    </row>
+    <row r="127" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A127" s="19" t="s">
         <v>128</v>
       </c>
@@ -8999,8 +10029,16 @@
       <c r="L127" s="12"/>
       <c r="M127" s="12"/>
       <c r="N127" s="12"/>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U127" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V127">
+        <f t="shared" si="3"/>
+        <v>-40.4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A128" s="19" t="s">
         <v>129</v>
       </c>
@@ -9025,8 +10063,16 @@
       <c r="L128" s="12"/>
       <c r="M128" s="12"/>
       <c r="N128" s="12"/>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U128" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V128">
+        <f t="shared" si="3"/>
+        <v>-38.700000000000003</v>
+      </c>
+    </row>
+    <row r="129" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A129" s="19" t="s">
         <v>130</v>
       </c>
@@ -9053,8 +10099,16 @@
       <c r="L129" s="12"/>
       <c r="M129" s="12"/>
       <c r="N129" s="12"/>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U129" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V129">
+        <f t="shared" si="3"/>
+        <v>-47.1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A130" s="22" t="s">
         <v>131</v>
       </c>
@@ -9081,8 +10135,16 @@
       <c r="N130" s="12" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U130" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V130">
+        <f t="shared" si="3"/>
+        <v>-38.6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A131" s="22" t="s">
         <v>132</v>
       </c>
@@ -9111,8 +10173,16 @@
       <c r="N131" s="12" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U131" t="e">
+        <f t="shared" ref="U131:U194" si="4">AVERAGE(Q131:T131)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V131">
+        <f t="shared" ref="V131:V194" si="5">P131-D131</f>
+        <v>-33.5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A132" s="22" t="s">
         <v>133</v>
       </c>
@@ -9139,8 +10209,16 @@
       <c r="N132" s="12" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U132" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V132">
+        <f t="shared" si="5"/>
+        <v>-36.200000000000003</v>
+      </c>
+    </row>
+    <row r="133" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A133" s="22" t="s">
         <v>134</v>
       </c>
@@ -9167,8 +10245,16 @@
       <c r="L133" s="12"/>
       <c r="M133" s="12"/>
       <c r="N133" s="12"/>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U133" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V133">
+        <f t="shared" si="5"/>
+        <v>-40.1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A134" s="22" t="s">
         <v>135</v>
       </c>
@@ -9193,8 +10279,16 @@
       <c r="L134" s="12"/>
       <c r="M134" s="12"/>
       <c r="N134" s="12"/>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U134" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V134">
+        <f t="shared" si="5"/>
+        <v>-45.7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A135" s="22" t="s">
         <v>136</v>
       </c>
@@ -9221,8 +10315,16 @@
       <c r="L135" s="12"/>
       <c r="M135" s="12"/>
       <c r="N135" s="12"/>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U135" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V135">
+        <f t="shared" si="5"/>
+        <v>-37.200000000000003</v>
+      </c>
+    </row>
+    <row r="136" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A136" s="22" t="s">
         <v>137</v>
       </c>
@@ -9247,8 +10349,16 @@
       <c r="L136" s="12"/>
       <c r="M136" s="12"/>
       <c r="N136" s="12"/>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U136" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V136">
+        <f t="shared" si="5"/>
+        <v>-46.6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A137" s="22" t="s">
         <v>138</v>
       </c>
@@ -9275,8 +10385,16 @@
       <c r="L137" s="12"/>
       <c r="M137" s="12"/>
       <c r="N137" s="12"/>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U137" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V137">
+        <f t="shared" si="5"/>
+        <v>-33</v>
+      </c>
+    </row>
+    <row r="138" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A138" s="22" t="s">
         <v>139</v>
       </c>
@@ -9301,8 +10419,16 @@
       <c r="L138" s="12"/>
       <c r="M138" s="12"/>
       <c r="N138" s="12"/>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U138" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V138">
+        <f t="shared" si="5"/>
+        <v>-28.4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A139" s="22" t="s">
         <v>140</v>
       </c>
@@ -9329,8 +10455,16 @@
       <c r="L139" s="12"/>
       <c r="M139" s="12"/>
       <c r="N139" s="12"/>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U139" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V139">
+        <f t="shared" si="5"/>
+        <v>-45.6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A140" s="22" t="s">
         <v>141</v>
       </c>
@@ -9355,8 +10489,16 @@
       <c r="L140" s="12"/>
       <c r="M140" s="12"/>
       <c r="N140" s="12"/>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U140" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V140">
+        <f t="shared" si="5"/>
+        <v>-30.8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A141" s="22" t="s">
         <v>142</v>
       </c>
@@ -9383,8 +10525,16 @@
       <c r="L141" s="12"/>
       <c r="M141" s="12"/>
       <c r="N141" s="12"/>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U141" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V141">
+        <f t="shared" si="5"/>
+        <v>-36</v>
+      </c>
+    </row>
+    <row r="142" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A142" s="22" t="s">
         <v>143</v>
       </c>
@@ -9409,8 +10559,16 @@
       <c r="L142" s="12"/>
       <c r="M142" s="12"/>
       <c r="N142" s="12"/>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U142" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V142">
+        <f t="shared" si="5"/>
+        <v>-38.4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A143" s="22" t="s">
         <v>144</v>
       </c>
@@ -9439,8 +10597,16 @@
       <c r="L143" s="12"/>
       <c r="M143" s="12"/>
       <c r="N143" s="12"/>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U143" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V143">
+        <f t="shared" si="5"/>
+        <v>-31.4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A144" s="22" t="s">
         <v>145</v>
       </c>
@@ -9465,8 +10631,16 @@
       <c r="L144" s="12"/>
       <c r="M144" s="12"/>
       <c r="N144" s="12"/>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U144" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V144">
+        <f t="shared" si="5"/>
+        <v>-25.8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A145" s="22" t="s">
         <v>146</v>
       </c>
@@ -9493,8 +10667,16 @@
       <c r="L145" s="12"/>
       <c r="M145" s="12"/>
       <c r="N145" s="12"/>
-    </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U145" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V145">
+        <f t="shared" si="5"/>
+        <v>-39.700000000000003</v>
+      </c>
+    </row>
+    <row r="146" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A146" s="14" t="s">
         <v>147</v>
       </c>
@@ -9521,8 +10703,16 @@
       <c r="N146" s="12" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U146" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V146">
+        <f t="shared" si="5"/>
+        <v>-56.2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A147" s="14" t="s">
         <v>148</v>
       </c>
@@ -9549,8 +10739,16 @@
       <c r="L147" s="12"/>
       <c r="M147" s="12"/>
       <c r="N147" s="12"/>
-    </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U147" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V147">
+        <f t="shared" si="5"/>
+        <v>-56.4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A148" s="14" t="s">
         <v>149</v>
       </c>
@@ -9575,8 +10773,16 @@
       <c r="L148" s="12"/>
       <c r="M148" s="12"/>
       <c r="N148" s="12"/>
-    </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U148" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V148">
+        <f t="shared" si="5"/>
+        <v>-60.5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A149" s="14" t="s">
         <v>150</v>
       </c>
@@ -9605,8 +10811,16 @@
       <c r="L149" s="12"/>
       <c r="M149" s="12"/>
       <c r="N149" s="12"/>
-    </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U149" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V149">
+        <f t="shared" si="5"/>
+        <v>-56.5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A150" s="14" t="s">
         <v>151</v>
       </c>
@@ -9631,8 +10845,16 @@
       <c r="L150" s="12"/>
       <c r="M150" s="12"/>
       <c r="N150" s="12"/>
-    </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U150" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V150">
+        <f t="shared" si="5"/>
+        <v>-53.8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A151" s="14" t="s">
         <v>152</v>
       </c>
@@ -9659,8 +10881,16 @@
       <c r="L151" s="12"/>
       <c r="M151" s="12"/>
       <c r="N151" s="12"/>
-    </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U151" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V151">
+        <f t="shared" si="5"/>
+        <v>-49.4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A152" s="14" t="s">
         <v>153</v>
       </c>
@@ -9685,8 +10915,16 @@
       <c r="L152" s="12"/>
       <c r="M152" s="12"/>
       <c r="N152" s="12"/>
-    </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U152" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V152">
+        <f t="shared" si="5"/>
+        <v>-39.4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A153" s="14" t="s">
         <v>154</v>
       </c>
@@ -9713,8 +10951,16 @@
       <c r="L153" s="12"/>
       <c r="M153" s="12"/>
       <c r="N153" s="12"/>
-    </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U153" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V153">
+        <f t="shared" si="5"/>
+        <v>-45.1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A154" s="14" t="s">
         <v>155</v>
       </c>
@@ -9739,8 +10985,16 @@
       <c r="L154" s="12"/>
       <c r="M154" s="12"/>
       <c r="N154" s="12"/>
-    </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U154" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V154">
+        <f t="shared" si="5"/>
+        <v>-46.2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A155" s="14" t="s">
         <v>156</v>
       </c>
@@ -9767,8 +11021,16 @@
       <c r="L155" s="12"/>
       <c r="M155" s="12"/>
       <c r="N155" s="12"/>
-    </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U155" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V155">
+        <f t="shared" si="5"/>
+        <v>-44.8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A156" s="14" t="s">
         <v>157</v>
       </c>
@@ -9793,8 +11055,16 @@
       <c r="L156" s="12"/>
       <c r="M156" s="12"/>
       <c r="N156" s="12"/>
-    </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U156" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V156">
+        <f t="shared" si="5"/>
+        <v>-55.7</v>
+      </c>
+    </row>
+    <row r="157" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A157" s="14" t="s">
         <v>158</v>
       </c>
@@ -9821,8 +11091,16 @@
       <c r="L157" s="12"/>
       <c r="M157" s="12"/>
       <c r="N157" s="12"/>
-    </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U157" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V157">
+        <f t="shared" si="5"/>
+        <v>-37.1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A158" s="14" t="s">
         <v>159</v>
       </c>
@@ -9847,8 +11125,16 @@
       <c r="L158" s="12"/>
       <c r="M158" s="12"/>
       <c r="N158" s="12"/>
-    </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U158" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V158">
+        <f t="shared" si="5"/>
+        <v>-52.8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A159" s="14" t="s">
         <v>160</v>
       </c>
@@ -9875,8 +11161,16 @@
       <c r="L159" s="12"/>
       <c r="M159" s="12"/>
       <c r="N159" s="12"/>
-    </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U159" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V159">
+        <f t="shared" si="5"/>
+        <v>-43.8</v>
+      </c>
+    </row>
+    <row r="160" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A160" s="14" t="s">
         <v>161</v>
       </c>
@@ -9901,8 +11195,16 @@
       <c r="L160" s="12"/>
       <c r="M160" s="12"/>
       <c r="N160" s="12"/>
-    </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U160" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V160">
+        <f t="shared" si="5"/>
+        <v>-51.7</v>
+      </c>
+    </row>
+    <row r="161" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A161" s="14" t="s">
         <v>162</v>
       </c>
@@ -9929,8 +11231,16 @@
       <c r="L161" s="12"/>
       <c r="M161" s="12"/>
       <c r="N161" s="12"/>
-    </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U161" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V161">
+        <f t="shared" si="5"/>
+        <v>-47</v>
+      </c>
+    </row>
+    <row r="162" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A162" s="19" t="s">
         <v>163</v>
       </c>
@@ -9957,8 +11267,16 @@
       <c r="N162" s="12" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U162" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V162">
+        <f t="shared" si="5"/>
+        <v>-50.2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A163" s="19" t="s">
         <v>164</v>
       </c>
@@ -9985,8 +11303,16 @@
       <c r="L163" s="12"/>
       <c r="M163" s="12"/>
       <c r="N163" s="12"/>
-    </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U163" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V163">
+        <f t="shared" si="5"/>
+        <v>-48.8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A164" s="19" t="s">
         <v>165</v>
       </c>
@@ -10011,8 +11337,16 @@
       <c r="L164" s="12"/>
       <c r="M164" s="12"/>
       <c r="N164" s="12"/>
-    </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U164" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V164">
+        <f t="shared" si="5"/>
+        <v>-36</v>
+      </c>
+    </row>
+    <row r="165" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A165" s="19" t="s">
         <v>166</v>
       </c>
@@ -10039,8 +11373,16 @@
       <c r="L165" s="12"/>
       <c r="M165" s="12"/>
       <c r="N165" s="12"/>
-    </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U165" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V165">
+        <f t="shared" si="5"/>
+        <v>-51.4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A166" s="19" t="s">
         <v>167</v>
       </c>
@@ -10065,8 +11407,16 @@
       <c r="L166" s="12"/>
       <c r="M166" s="12"/>
       <c r="N166" s="12"/>
-    </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U166" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V166">
+        <f t="shared" si="5"/>
+        <v>-36.200000000000003</v>
+      </c>
+    </row>
+    <row r="167" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A167" s="19" t="s">
         <v>168</v>
       </c>
@@ -10093,8 +11443,16 @@
       <c r="L167" s="12"/>
       <c r="M167" s="12"/>
       <c r="N167" s="12"/>
-    </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U167" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V167">
+        <f t="shared" si="5"/>
+        <v>-54.8</v>
+      </c>
+    </row>
+    <row r="168" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A168" s="19" t="s">
         <v>169</v>
       </c>
@@ -10119,8 +11477,16 @@
       <c r="L168" s="12"/>
       <c r="M168" s="12"/>
       <c r="N168" s="12"/>
-    </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U168" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V168">
+        <f t="shared" si="5"/>
+        <v>-59.1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A169" s="19" t="s">
         <v>170</v>
       </c>
@@ -10147,8 +11513,16 @@
       <c r="L169" s="12"/>
       <c r="M169" s="12"/>
       <c r="N169" s="12"/>
-    </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U169" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V169">
+        <f t="shared" si="5"/>
+        <v>-46</v>
+      </c>
+    </row>
+    <row r="170" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A170" s="19" t="s">
         <v>171</v>
       </c>
@@ -10173,8 +11547,16 @@
       <c r="L170" s="12"/>
       <c r="M170" s="12"/>
       <c r="N170" s="12"/>
-    </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U170" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V170">
+        <f t="shared" si="5"/>
+        <v>-51.3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A171" s="19" t="s">
         <v>172</v>
       </c>
@@ -10201,8 +11583,16 @@
       <c r="L171" s="12"/>
       <c r="M171" s="12"/>
       <c r="N171" s="12"/>
-    </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U171" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V171">
+        <f t="shared" si="5"/>
+        <v>-34.200000000000003</v>
+      </c>
+    </row>
+    <row r="172" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A172" s="19" t="s">
         <v>173</v>
       </c>
@@ -10227,8 +11617,16 @@
       <c r="L172" s="12"/>
       <c r="M172" s="12"/>
       <c r="N172" s="12"/>
-    </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U172" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V172">
+        <f t="shared" si="5"/>
+        <v>-43.6</v>
+      </c>
+    </row>
+    <row r="173" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A173" s="19" t="s">
         <v>174</v>
       </c>
@@ -10255,8 +11653,16 @@
       <c r="L173" s="12"/>
       <c r="M173" s="12"/>
       <c r="N173" s="12"/>
-    </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U173" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V173">
+        <f t="shared" si="5"/>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="174" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A174" s="19" t="s">
         <v>175</v>
       </c>
@@ -10281,8 +11687,16 @@
       <c r="L174" s="12"/>
       <c r="M174" s="12"/>
       <c r="N174" s="12"/>
-    </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U174" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V174">
+        <f t="shared" si="5"/>
+        <v>-46.2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A175" s="19" t="s">
         <v>176</v>
       </c>
@@ -10309,8 +11723,16 @@
       <c r="L175" s="12"/>
       <c r="M175" s="12"/>
       <c r="N175" s="12"/>
-    </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U175" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V175">
+        <f t="shared" si="5"/>
+        <v>-47.4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A176" s="19" t="s">
         <v>177</v>
       </c>
@@ -10335,8 +11757,16 @@
       <c r="L176" s="12"/>
       <c r="M176" s="12"/>
       <c r="N176" s="12"/>
-    </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U176" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V176">
+        <f t="shared" si="5"/>
+        <v>-56.8</v>
+      </c>
+    </row>
+    <row r="177" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A177" s="19" t="s">
         <v>178</v>
       </c>
@@ -10363,8 +11793,16 @@
       <c r="L177" s="12"/>
       <c r="M177" s="12"/>
       <c r="N177" s="12"/>
-    </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U177" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V177">
+        <f t="shared" si="5"/>
+        <v>-53.4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A178" s="22" t="s">
         <v>179</v>
       </c>
@@ -10391,8 +11829,16 @@
       <c r="N178" s="12" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U178" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V178">
+        <f t="shared" si="5"/>
+        <v>-51.8</v>
+      </c>
+    </row>
+    <row r="179" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A179" s="22" t="s">
         <v>180</v>
       </c>
@@ -10421,8 +11867,16 @@
       <c r="N179" s="12" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U179" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V179">
+        <f t="shared" si="5"/>
+        <v>-54.1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A180" s="22" t="s">
         <v>181</v>
       </c>
@@ -10447,8 +11901,16 @@
       <c r="L180" s="12"/>
       <c r="M180" s="12"/>
       <c r="N180" s="12"/>
-    </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U180" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V180">
+        <f t="shared" si="5"/>
+        <v>-46.6</v>
+      </c>
+    </row>
+    <row r="181" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A181" s="22" t="s">
         <v>182</v>
       </c>
@@ -10475,8 +11937,16 @@
       <c r="L181" s="12"/>
       <c r="M181" s="12"/>
       <c r="N181" s="12"/>
-    </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U181" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V181">
+        <f t="shared" si="5"/>
+        <v>-47.9</v>
+      </c>
+    </row>
+    <row r="182" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A182" s="22" t="s">
         <v>183</v>
       </c>
@@ -10501,8 +11971,16 @@
       <c r="L182" s="12"/>
       <c r="M182" s="12"/>
       <c r="N182" s="12"/>
-    </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U182" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V182">
+        <f t="shared" si="5"/>
+        <v>-41.4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A183" s="22" t="s">
         <v>184</v>
       </c>
@@ -10529,8 +12007,16 @@
       <c r="L183" s="12"/>
       <c r="M183" s="12"/>
       <c r="N183" s="12"/>
-    </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U183" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V183">
+        <f t="shared" si="5"/>
+        <v>-53.4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A184" s="22" t="s">
         <v>185</v>
       </c>
@@ -10555,8 +12041,16 @@
       <c r="L184" s="12"/>
       <c r="M184" s="12"/>
       <c r="N184" s="12"/>
-    </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U184" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V184">
+        <f t="shared" si="5"/>
+        <v>-51.6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A185" s="22" t="s">
         <v>186</v>
       </c>
@@ -10583,8 +12077,16 @@
       <c r="L185" s="12"/>
       <c r="M185" s="12"/>
       <c r="N185" s="12"/>
-    </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U185" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V185">
+        <f t="shared" si="5"/>
+        <v>-50.6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A186" s="22" t="s">
         <v>187</v>
       </c>
@@ -10609,8 +12111,16 @@
       <c r="L186" s="12"/>
       <c r="M186" s="12"/>
       <c r="N186" s="12"/>
-    </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U186" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V186">
+        <f t="shared" si="5"/>
+        <v>-54.7</v>
+      </c>
+    </row>
+    <row r="187" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A187" s="22" t="s">
         <v>188</v>
       </c>
@@ -10637,8 +12147,16 @@
       <c r="L187" s="12"/>
       <c r="M187" s="12"/>
       <c r="N187" s="12"/>
-    </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U187" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V187">
+        <f t="shared" si="5"/>
+        <v>-55.2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A188" s="22" t="s">
         <v>189</v>
       </c>
@@ -10663,8 +12181,16 @@
       <c r="L188" s="12"/>
       <c r="M188" s="12"/>
       <c r="N188" s="12"/>
-    </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U188" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V188">
+        <f t="shared" si="5"/>
+        <v>-49.8</v>
+      </c>
+    </row>
+    <row r="189" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A189" s="22" t="s">
         <v>190</v>
       </c>
@@ -10691,8 +12217,16 @@
       <c r="L189" s="12"/>
       <c r="M189" s="12"/>
       <c r="N189" s="12"/>
-    </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U189" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V189">
+        <f t="shared" si="5"/>
+        <v>-51.6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A190" s="22" t="s">
         <v>191</v>
       </c>
@@ -10717,8 +12251,16 @@
       <c r="L190" s="12"/>
       <c r="M190" s="12"/>
       <c r="N190" s="12"/>
-    </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U190" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V190">
+        <f t="shared" si="5"/>
+        <v>-53.7</v>
+      </c>
+    </row>
+    <row r="191" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A191" s="22" t="s">
         <v>192</v>
       </c>
@@ -10745,8 +12287,16 @@
       <c r="L191" s="12"/>
       <c r="M191" s="12"/>
       <c r="N191" s="12"/>
-    </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U191" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V191">
+        <f t="shared" si="5"/>
+        <v>-46.3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A192" s="22" t="s">
         <v>193</v>
       </c>
@@ -10771,8 +12321,16 @@
       <c r="L192" s="12"/>
       <c r="M192" s="12"/>
       <c r="N192" s="12"/>
-    </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U192" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V192">
+        <f t="shared" si="5"/>
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="193" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A193" s="22" t="s">
         <v>194</v>
       </c>
@@ -10799,8 +12357,16 @@
       <c r="L193" s="12"/>
       <c r="M193" s="12"/>
       <c r="N193" s="12"/>
-    </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U193" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V193">
+        <f t="shared" si="5"/>
+        <v>-46.5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A194" s="14" t="s">
         <v>195</v>
       </c>
@@ -10840,8 +12406,24 @@
       <c r="N194" s="12" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U194" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V194">
+        <f t="shared" si="5"/>
+        <v>-55.8</v>
+      </c>
+      <c r="W194" t="e">
+        <f>AVERAGE(U194,U196,U198,U200,U202,U204,U206,U208)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X194">
+        <f>AVERAGE(V194,V196,V198,V200,V202,V204,V206,V208)</f>
+        <v>-38.5625</v>
+      </c>
+    </row>
+    <row r="195" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A195" s="14" t="s">
         <v>196</v>
       </c>
@@ -10868,8 +12450,24 @@
       <c r="L195" s="12"/>
       <c r="M195" s="12"/>
       <c r="N195" s="12"/>
-    </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U195" t="e">
+        <f t="shared" ref="U195:U258" si="6">AVERAGE(Q195:T195)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V195">
+        <f t="shared" ref="V195:V258" si="7">P195-D195</f>
+        <v>-57.6</v>
+      </c>
+      <c r="W195" t="e">
+        <f>AVERAGE(U195,U197,U199,U201,U203,U205,U207,U209)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X195">
+        <f>AVERAGE(V195,V197,V199,V201,V203,V205,V207,V209)</f>
+        <v>-52.774999999999999</v>
+      </c>
+    </row>
+    <row r="196" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A196" s="14" t="s">
         <v>197</v>
       </c>
@@ -10894,8 +12492,16 @@
       <c r="L196" s="12"/>
       <c r="M196" s="12"/>
       <c r="N196" s="12"/>
-    </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U196" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V196">
+        <f t="shared" si="7"/>
+        <v>-61.1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A197" s="14" t="s">
         <v>198</v>
       </c>
@@ -10922,8 +12528,16 @@
       <c r="L197" s="12"/>
       <c r="M197" s="12"/>
       <c r="N197" s="12"/>
-    </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U197" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V197">
+        <f t="shared" si="7"/>
+        <v>-31.8</v>
+      </c>
+    </row>
+    <row r="198" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A198" s="14" t="s">
         <v>199</v>
       </c>
@@ -10961,8 +12575,31 @@
         <v>34.375</v>
       </c>
       <c r="N198" s="12"/>
-    </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P198">
+        <v>47.9</v>
+      </c>
+      <c r="Q198">
+        <v>29.8</v>
+      </c>
+      <c r="R198">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="S198">
+        <v>25.9</v>
+      </c>
+      <c r="T198">
+        <v>31.2</v>
+      </c>
+      <c r="U198">
+        <f t="shared" si="6"/>
+        <v>30.05</v>
+      </c>
+      <c r="V198">
+        <f t="shared" si="7"/>
+        <v>13.699999999999996</v>
+      </c>
+    </row>
+    <row r="199" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A199" s="14" t="s">
         <v>200</v>
       </c>
@@ -10989,8 +12626,16 @@
       <c r="L199" s="12"/>
       <c r="M199" s="12"/>
       <c r="N199" s="12"/>
-    </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U199" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V199">
+        <f t="shared" si="7"/>
+        <v>-54.4</v>
+      </c>
+    </row>
+    <row r="200" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A200" s="14" t="s">
         <v>201</v>
       </c>
@@ -11015,8 +12660,16 @@
       <c r="L200" s="12"/>
       <c r="M200" s="12"/>
       <c r="N200" s="12"/>
-    </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U200" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V200">
+        <f t="shared" si="7"/>
+        <v>-51.6</v>
+      </c>
+    </row>
+    <row r="201" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A201" s="14" t="s">
         <v>202</v>
       </c>
@@ -11043,8 +12696,16 @@
       <c r="L201" s="12"/>
       <c r="M201" s="12"/>
       <c r="N201" s="12"/>
-    </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U201" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V201">
+        <f t="shared" si="7"/>
+        <v>-51.8</v>
+      </c>
+    </row>
+    <row r="202" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A202" s="14" t="s">
         <v>203</v>
       </c>
@@ -11069,8 +12730,16 @@
       <c r="L202" s="12"/>
       <c r="M202" s="12"/>
       <c r="N202" s="12"/>
-    </row>
-    <row r="203" spans="1:21" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U202" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V202">
+        <f t="shared" si="7"/>
+        <v>-54.1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:24" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="14" t="s">
         <v>204</v>
       </c>
@@ -11097,8 +12766,16 @@
       <c r="L203" s="12"/>
       <c r="M203" s="12"/>
       <c r="N203" s="12"/>
-    </row>
-    <row r="204" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U203" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V203">
+        <f t="shared" si="7"/>
+        <v>-49.2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:24" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="14" t="s">
         <v>205</v>
       </c>
@@ -11123,8 +12800,16 @@
       <c r="L204" s="12"/>
       <c r="M204" s="12"/>
       <c r="N204" s="12"/>
-    </row>
-    <row r="205" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U204" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V204">
+        <f t="shared" si="7"/>
+        <v>-51.3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="14" t="s">
         <v>206</v>
       </c>
@@ -11160,12 +12845,20 @@
         <v>33.1</v>
       </c>
       <c r="M205" s="12">
-        <f t="shared" ref="M205:M206" si="0">AVERAGE(I205:L205)</f>
+        <f t="shared" ref="M205:M206" si="8">AVERAGE(I205:L205)</f>
         <v>32.799999999999997</v>
       </c>
       <c r="N205" s="12"/>
-    </row>
-    <row r="206" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U205" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V205">
+        <f t="shared" si="7"/>
+        <v>-58.2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:24" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="14" t="s">
         <v>207</v>
       </c>
@@ -11199,12 +12892,20 @@
         <v>30.6</v>
       </c>
       <c r="M206" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>28.674999999999997</v>
       </c>
       <c r="N206" s="12"/>
-    </row>
-    <row r="207" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U206" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V206">
+        <f t="shared" si="7"/>
+        <v>-53.6</v>
+      </c>
+    </row>
+    <row r="207" spans="1:24" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="14" t="s">
         <v>208</v>
       </c>
@@ -11233,8 +12934,16 @@
       <c r="L207" s="12"/>
       <c r="M207" s="12"/>
       <c r="N207" s="12"/>
-    </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U207" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V207">
+        <f t="shared" si="7"/>
+        <v>-60.8</v>
+      </c>
+    </row>
+    <row r="208" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A208" s="14" t="s">
         <v>209</v>
       </c>
@@ -11288,11 +12997,15 @@
         <v>26</v>
       </c>
       <c r="U208">
-        <f>AVERAGE(Q208:T208)</f>
+        <f t="shared" si="6"/>
         <v>28.25</v>
       </c>
-    </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="V208">
+        <f t="shared" si="7"/>
+        <v>5.3000000000000043</v>
+      </c>
+    </row>
+    <row r="209" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A209" s="14" t="s">
         <v>210</v>
       </c>
@@ -11319,8 +13032,16 @@
       <c r="L209" s="12"/>
       <c r="M209" s="12"/>
       <c r="N209" s="12"/>
-    </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U209" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V209">
+        <f t="shared" si="7"/>
+        <v>-58.4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A210" s="19" t="s">
         <v>211</v>
       </c>
@@ -11347,8 +13068,16 @@
       <c r="N210" s="12" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U210" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V210">
+        <f t="shared" si="7"/>
+        <v>-48.4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A211" s="19" t="s">
         <v>212</v>
       </c>
@@ -11375,8 +13104,16 @@
       <c r="L211" s="12"/>
       <c r="M211" s="12"/>
       <c r="N211" s="12"/>
-    </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U211" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V211">
+        <f t="shared" si="7"/>
+        <v>-39.5</v>
+      </c>
+    </row>
+    <row r="212" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A212" s="19" t="s">
         <v>213</v>
       </c>
@@ -11401,8 +13138,16 @@
       <c r="L212" s="12"/>
       <c r="M212" s="12"/>
       <c r="N212" s="12"/>
-    </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U212" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V212">
+        <f t="shared" si="7"/>
+        <v>-57.6</v>
+      </c>
+    </row>
+    <row r="213" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A213" s="19" t="s">
         <v>214</v>
       </c>
@@ -11431,8 +13176,16 @@
       <c r="L213" s="12"/>
       <c r="M213" s="12"/>
       <c r="N213" s="12"/>
-    </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U213" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V213">
+        <f t="shared" si="7"/>
+        <v>-53.8</v>
+      </c>
+    </row>
+    <row r="214" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A214" s="19" t="s">
         <v>215</v>
       </c>
@@ -11457,8 +13210,16 @@
       <c r="L214" s="12"/>
       <c r="M214" s="12"/>
       <c r="N214" s="12"/>
-    </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U214" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V214">
+        <f t="shared" si="7"/>
+        <v>-39.6</v>
+      </c>
+    </row>
+    <row r="215" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A215" s="19" t="s">
         <v>216</v>
       </c>
@@ -11485,8 +13246,16 @@
       <c r="L215" s="12"/>
       <c r="M215" s="12"/>
       <c r="N215" s="12"/>
-    </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U215" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V215">
+        <f t="shared" si="7"/>
+        <v>-39.1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A216" s="19" t="s">
         <v>217</v>
       </c>
@@ -11511,8 +13280,16 @@
       <c r="L216" s="12"/>
       <c r="M216" s="12"/>
       <c r="N216" s="12"/>
-    </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U216" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V216">
+        <f t="shared" si="7"/>
+        <v>-52</v>
+      </c>
+    </row>
+    <row r="217" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A217" s="19" t="s">
         <v>218</v>
       </c>
@@ -11539,8 +13316,16 @@
       <c r="L217" s="12"/>
       <c r="M217" s="12"/>
       <c r="N217" s="12"/>
-    </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U217" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V217">
+        <f t="shared" si="7"/>
+        <v>-48.2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A218" s="19" t="s">
         <v>219</v>
       </c>
@@ -11565,8 +13350,16 @@
       <c r="L218" s="12"/>
       <c r="M218" s="12"/>
       <c r="N218" s="12"/>
-    </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U218" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V218">
+        <f t="shared" si="7"/>
+        <v>-48.2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A219" s="19" t="s">
         <v>220</v>
       </c>
@@ -11593,8 +13386,16 @@
       <c r="L219" s="12"/>
       <c r="M219" s="12"/>
       <c r="N219" s="12"/>
-    </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U219" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V219">
+        <f t="shared" si="7"/>
+        <v>-51.2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A220" s="19" t="s">
         <v>221</v>
       </c>
@@ -11619,8 +13420,16 @@
       <c r="L220" s="12"/>
       <c r="M220" s="12"/>
       <c r="N220" s="12"/>
-    </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U220" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V220">
+        <f t="shared" si="7"/>
+        <v>-51.4</v>
+      </c>
+    </row>
+    <row r="221" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A221" s="19" t="s">
         <v>222</v>
       </c>
@@ -11647,8 +13456,16 @@
       <c r="L221" s="12"/>
       <c r="M221" s="12"/>
       <c r="N221" s="12"/>
-    </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U221" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V221">
+        <f t="shared" si="7"/>
+        <v>-43.6</v>
+      </c>
+    </row>
+    <row r="222" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A222" s="19" t="s">
         <v>223</v>
       </c>
@@ -11673,8 +13490,16 @@
       <c r="L222" s="12"/>
       <c r="M222" s="12"/>
       <c r="N222" s="12"/>
-    </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U222" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V222">
+        <f t="shared" si="7"/>
+        <v>-50.2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A223" s="19" t="s">
         <v>224</v>
       </c>
@@ -11701,8 +13526,16 @@
       <c r="L223" s="12"/>
       <c r="M223" s="12"/>
       <c r="N223" s="12"/>
-    </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U223" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V223">
+        <f t="shared" si="7"/>
+        <v>-50.2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A224" s="19" t="s">
         <v>225</v>
       </c>
@@ -11727,8 +13560,16 @@
       <c r="L224" s="12"/>
       <c r="M224" s="12"/>
       <c r="N224" s="12"/>
-    </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U224" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V224">
+        <f t="shared" si="7"/>
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="225" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A225" s="19" t="s">
         <v>226</v>
       </c>
@@ -11755,8 +13596,16 @@
       <c r="L225" s="12"/>
       <c r="M225" s="12"/>
       <c r="N225" s="12"/>
-    </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U225" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V225">
+        <f t="shared" si="7"/>
+        <v>-34.200000000000003</v>
+      </c>
+    </row>
+    <row r="226" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A226" s="22" t="s">
         <v>227</v>
       </c>
@@ -11783,8 +13632,16 @@
       <c r="N226" s="12" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U226" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V226">
+        <f t="shared" si="7"/>
+        <v>-62.9</v>
+      </c>
+    </row>
+    <row r="227" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A227" s="22" t="s">
         <v>228</v>
       </c>
@@ -11813,8 +13670,16 @@
       <c r="N227" s="12" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U227" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V227">
+        <f t="shared" si="7"/>
+        <v>-49.5</v>
+      </c>
+    </row>
+    <row r="228" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A228" s="22" t="s">
         <v>229</v>
       </c>
@@ -11839,8 +13704,16 @@
       <c r="L228" s="12"/>
       <c r="M228" s="12"/>
       <c r="N228" s="12"/>
-    </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U228" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V228">
+        <f t="shared" si="7"/>
+        <v>-41.6</v>
+      </c>
+    </row>
+    <row r="229" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A229" s="22" t="s">
         <v>230</v>
       </c>
@@ -11867,8 +13740,16 @@
       <c r="L229" s="12"/>
       <c r="M229" s="12"/>
       <c r="N229" s="12"/>
-    </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U229" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V229">
+        <f t="shared" si="7"/>
+        <v>-50.3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A230" s="22" t="s">
         <v>231</v>
       </c>
@@ -11893,8 +13774,16 @@
       <c r="L230" s="12"/>
       <c r="M230" s="12"/>
       <c r="N230" s="12"/>
-    </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U230" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V230">
+        <f t="shared" si="7"/>
+        <v>-49.6</v>
+      </c>
+    </row>
+    <row r="231" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A231" s="22" t="s">
         <v>232</v>
       </c>
@@ -11921,8 +13810,16 @@
       <c r="L231" s="12"/>
       <c r="M231" s="12"/>
       <c r="N231" s="12"/>
-    </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U231" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V231">
+        <f t="shared" si="7"/>
+        <v>-56</v>
+      </c>
+    </row>
+    <row r="232" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A232" s="22" t="s">
         <v>233</v>
       </c>
@@ -11947,8 +13844,16 @@
       <c r="L232" s="12"/>
       <c r="M232" s="12"/>
       <c r="N232" s="12"/>
-    </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U232" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V232">
+        <f t="shared" si="7"/>
+        <v>-36.200000000000003</v>
+      </c>
+    </row>
+    <row r="233" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A233" s="22" t="s">
         <v>234</v>
       </c>
@@ -11975,8 +13880,16 @@
       <c r="L233" s="12"/>
       <c r="M233" s="12"/>
       <c r="N233" s="12"/>
-    </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U233" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V233">
+        <f t="shared" si="7"/>
+        <v>-40.6</v>
+      </c>
+    </row>
+    <row r="234" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A234" s="22" t="s">
         <v>235</v>
       </c>
@@ -12001,8 +13914,16 @@
       <c r="L234" s="12"/>
       <c r="M234" s="12"/>
       <c r="N234" s="12"/>
-    </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U234" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V234">
+        <f t="shared" si="7"/>
+        <v>-55</v>
+      </c>
+    </row>
+    <row r="235" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A235" s="22" t="s">
         <v>236</v>
       </c>
@@ -12029,8 +13950,16 @@
       <c r="L235" s="12"/>
       <c r="M235" s="12"/>
       <c r="N235" s="12"/>
-    </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U235" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V235">
+        <f t="shared" si="7"/>
+        <v>-55.9</v>
+      </c>
+    </row>
+    <row r="236" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A236" s="22" t="s">
         <v>237</v>
       </c>
@@ -12055,8 +13984,16 @@
       <c r="L236" s="12"/>
       <c r="M236" s="12"/>
       <c r="N236" s="12"/>
-    </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U236" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V236">
+        <f t="shared" si="7"/>
+        <v>-53.4</v>
+      </c>
+    </row>
+    <row r="237" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A237" s="22" t="s">
         <v>238</v>
       </c>
@@ -12085,8 +14022,16 @@
       <c r="L237" s="12"/>
       <c r="M237" s="12"/>
       <c r="N237" s="12"/>
-    </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U237" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V237">
+        <f t="shared" si="7"/>
+        <v>-47.3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A238" s="22" t="s">
         <v>239</v>
       </c>
@@ -12111,8 +14056,16 @@
       <c r="L238" s="12"/>
       <c r="M238" s="12"/>
       <c r="N238" s="12"/>
-    </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U238" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V238">
+        <f t="shared" si="7"/>
+        <v>-60.4</v>
+      </c>
+    </row>
+    <row r="239" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A239" s="22" t="s">
         <v>240</v>
       </c>
@@ -12139,8 +14092,16 @@
       <c r="L239" s="12"/>
       <c r="M239" s="12"/>
       <c r="N239" s="12"/>
-    </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U239" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V239">
+        <f t="shared" si="7"/>
+        <v>-55.6</v>
+      </c>
+    </row>
+    <row r="240" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A240" s="22" t="s">
         <v>241</v>
       </c>
@@ -12165,8 +14126,16 @@
       <c r="L240" s="12"/>
       <c r="M240" s="12"/>
       <c r="N240" s="12"/>
-    </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U240" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V240">
+        <f t="shared" si="7"/>
+        <v>-50.2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A241" s="22" t="s">
         <v>242</v>
       </c>
@@ -12195,8 +14164,16 @@
       <c r="L241" s="12"/>
       <c r="M241" s="12"/>
       <c r="N241" s="12"/>
-    </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U241" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V241">
+        <f t="shared" si="7"/>
+        <v>-58.6</v>
+      </c>
+    </row>
+    <row r="242" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A242" s="14" t="s">
         <v>243</v>
       </c>
@@ -12217,8 +14194,16 @@
       <c r="N242" s="12" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U242" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V242">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A243" s="14" t="s">
         <v>244</v>
       </c>
@@ -12245,8 +14230,16 @@
       <c r="L243" s="12"/>
       <c r="M243" s="12"/>
       <c r="N243" s="12"/>
-    </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U243" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V243">
+        <f t="shared" si="7"/>
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="244" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A244" s="14" t="s">
         <v>245</v>
       </c>
@@ -12271,16 +14264,28 @@
       <c r="L244" s="12"/>
       <c r="M244" s="12"/>
       <c r="N244" s="12"/>
-    </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U244" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V244">
+        <f t="shared" si="7"/>
+        <v>-40.200000000000003</v>
+      </c>
+    </row>
+    <row r="245" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A245" s="14" t="s">
         <v>246</v>
       </c>
       <c r="B245" s="15">
         <v>43525</v>
       </c>
-      <c r="C245" s="15"/>
-      <c r="D245" s="16"/>
+      <c r="C245" s="15">
+        <v>43542</v>
+      </c>
+      <c r="D245" s="16">
+        <v>26.9</v>
+      </c>
       <c r="E245" s="15">
         <v>43458</v>
       </c>
@@ -12295,8 +14300,16 @@
       <c r="L245" s="12"/>
       <c r="M245" s="12"/>
       <c r="N245" s="12"/>
-    </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U245" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V245">
+        <f t="shared" si="7"/>
+        <v>-26.9</v>
+      </c>
+    </row>
+    <row r="246" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A246" s="14" t="s">
         <v>247</v>
       </c>
@@ -12315,8 +14328,16 @@
       <c r="L246" s="12"/>
       <c r="M246" s="12"/>
       <c r="N246" s="12"/>
-    </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U246" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V246">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A247" s="14" t="s">
         <v>248</v>
       </c>
@@ -12335,8 +14356,16 @@
       <c r="L247" s="12"/>
       <c r="M247" s="12"/>
       <c r="N247" s="12"/>
-    </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U247" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V247">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A248" s="14" t="s">
         <v>249</v>
       </c>
@@ -12355,8 +14384,16 @@
       <c r="L248" s="12"/>
       <c r="M248" s="12"/>
       <c r="N248" s="12"/>
-    </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U248" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V248">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A249" s="14" t="s">
         <v>250</v>
       </c>
@@ -12375,8 +14412,16 @@
       <c r="L249" s="12"/>
       <c r="M249" s="12"/>
       <c r="N249" s="12"/>
-    </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U249" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V249">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A250" s="14" t="s">
         <v>251</v>
       </c>
@@ -12395,8 +14440,16 @@
       <c r="L250" s="12"/>
       <c r="M250" s="12"/>
       <c r="N250" s="12"/>
-    </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U250" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V250">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A251" s="14" t="s">
         <v>252</v>
       </c>
@@ -12419,8 +14472,16 @@
       <c r="L251" s="12"/>
       <c r="M251" s="12"/>
       <c r="N251" s="12"/>
-    </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U251" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V251">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A252" s="14" t="s">
         <v>253</v>
       </c>
@@ -12441,8 +14502,16 @@
       <c r="L252" s="12"/>
       <c r="M252" s="12"/>
       <c r="N252" s="12"/>
-    </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U252" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V252">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A253" s="14" t="s">
         <v>254</v>
       </c>
@@ -12461,12 +14530,22 @@
       <c r="L253" s="12"/>
       <c r="M253" s="12"/>
       <c r="N253" s="12"/>
-    </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U253" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V253">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A254" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="B254" s="15"/>
+      <c r="B254" s="15">
+        <v>43542</v>
+      </c>
       <c r="C254" s="15"/>
       <c r="D254" s="16"/>
       <c r="E254" s="15">
@@ -12481,8 +14560,16 @@
       <c r="L254" s="12"/>
       <c r="M254" s="12"/>
       <c r="N254" s="12"/>
-    </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U254" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V254">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A255" s="14" t="s">
         <v>256</v>
       </c>
@@ -12501,8 +14588,16 @@
       <c r="L255" s="12"/>
       <c r="M255" s="12"/>
       <c r="N255" s="12"/>
-    </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U255" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V255">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A256" s="14" t="s">
         <v>257</v>
       </c>
@@ -12521,8 +14616,16 @@
       <c r="L256" s="12"/>
       <c r="M256" s="12"/>
       <c r="N256" s="12"/>
-    </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U256" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V256">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A257" s="14" t="s">
         <v>258</v>
       </c>
@@ -12541,8 +14644,16 @@
       <c r="L257" s="12"/>
       <c r="M257" s="12"/>
       <c r="N257" s="12"/>
-    </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U257" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V257">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A258" s="19" t="s">
         <v>259</v>
       </c>
@@ -12563,8 +14674,16 @@
       <c r="N258" s="12" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U258" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V258">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A259" s="19" t="s">
         <v>260</v>
       </c>
@@ -12576,7 +14695,9 @@
       <c r="E259" s="20">
         <v>43472</v>
       </c>
-      <c r="F259" s="17"/>
+      <c r="F259" s="17">
+        <v>43542</v>
+      </c>
       <c r="G259" s="12"/>
       <c r="H259" s="12"/>
       <c r="I259" s="12"/>
@@ -12585,8 +14706,16 @@
       <c r="L259" s="12"/>
       <c r="M259" s="12"/>
       <c r="N259" s="12"/>
-    </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U259" t="e">
+        <f t="shared" ref="U259:U322" si="9">AVERAGE(Q259:T259)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V259">
+        <f t="shared" ref="V259:V322" si="10">P259-D259</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A260" s="19" t="s">
         <v>261</v>
       </c>
@@ -12605,8 +14734,16 @@
       <c r="L260" s="12"/>
       <c r="M260" s="12"/>
       <c r="N260" s="12"/>
-    </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U260" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V260">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A261" s="19" t="s">
         <v>262</v>
       </c>
@@ -12625,8 +14762,16 @@
       <c r="L261" s="12"/>
       <c r="M261" s="12"/>
       <c r="N261" s="12"/>
-    </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U261" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V261">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A262" s="19" t="s">
         <v>263</v>
       </c>
@@ -12645,8 +14790,16 @@
       <c r="L262" s="12"/>
       <c r="M262" s="12"/>
       <c r="N262" s="12"/>
-    </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U262" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V262">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A263" s="19" t="s">
         <v>264</v>
       </c>
@@ -12665,16 +14818,28 @@
       <c r="L263" s="12"/>
       <c r="M263" s="12"/>
       <c r="N263" s="12"/>
-    </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U263" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V263">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A264" s="19" t="s">
         <v>265</v>
       </c>
       <c r="B264" s="20">
         <v>43532</v>
       </c>
-      <c r="C264" s="20"/>
-      <c r="D264" s="21"/>
+      <c r="C264" s="20">
+        <v>43542</v>
+      </c>
+      <c r="D264" s="21">
+        <v>29.2</v>
+      </c>
       <c r="E264" s="20">
         <v>43472</v>
       </c>
@@ -12687,8 +14852,16 @@
       <c r="L264" s="12"/>
       <c r="M264" s="12"/>
       <c r="N264" s="12"/>
-    </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U264" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V264">
+        <f t="shared" si="10"/>
+        <v>-29.2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A265" s="19" t="s">
         <v>266</v>
       </c>
@@ -12707,8 +14880,16 @@
       <c r="L265" s="12"/>
       <c r="M265" s="12"/>
       <c r="N265" s="12"/>
-    </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U265" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V265">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A266" s="19" t="s">
         <v>267</v>
       </c>
@@ -12729,8 +14910,16 @@
       <c r="L266" s="12"/>
       <c r="M266" s="12"/>
       <c r="N266" s="12"/>
-    </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U266" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V266">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A267" s="19" t="s">
         <v>268</v>
       </c>
@@ -12749,8 +14938,16 @@
       <c r="L267" s="12"/>
       <c r="M267" s="12"/>
       <c r="N267" s="12"/>
-    </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U267" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V267">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A268" s="19" t="s">
         <v>269</v>
       </c>
@@ -12769,8 +14966,16 @@
       <c r="L268" s="12"/>
       <c r="M268" s="12"/>
       <c r="N268" s="12"/>
-    </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U268" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V268">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A269" s="19" t="s">
         <v>270</v>
       </c>
@@ -12789,8 +14994,16 @@
       <c r="L269" s="12"/>
       <c r="M269" s="12"/>
       <c r="N269" s="12"/>
-    </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U269" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V269">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A270" s="19" t="s">
         <v>271</v>
       </c>
@@ -12815,8 +15028,16 @@
       <c r="L270" s="12"/>
       <c r="M270" s="12"/>
       <c r="N270" s="12"/>
-    </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U270" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V270">
+        <f t="shared" si="10"/>
+        <v>-20.100000000000001</v>
+      </c>
+    </row>
+    <row r="271" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A271" s="19" t="s">
         <v>272</v>
       </c>
@@ -12835,16 +15056,28 @@
       <c r="L271" s="12"/>
       <c r="M271" s="12"/>
       <c r="N271" s="12"/>
-    </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U271" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V271">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A272" s="19" t="s">
         <v>273</v>
       </c>
       <c r="B272" s="20">
         <v>43535</v>
       </c>
-      <c r="C272" s="20"/>
-      <c r="D272" s="21"/>
+      <c r="C272" s="20">
+        <v>43542</v>
+      </c>
+      <c r="D272" s="21">
+        <v>21.9</v>
+      </c>
       <c r="E272" s="20">
         <v>43472</v>
       </c>
@@ -12857,8 +15090,16 @@
       <c r="L272" s="12"/>
       <c r="M272" s="12"/>
       <c r="N272" s="12"/>
-    </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U272" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V272">
+        <f t="shared" si="10"/>
+        <v>-21.9</v>
+      </c>
+    </row>
+    <row r="273" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A273" s="19" t="s">
         <v>274</v>
       </c>
@@ -12877,8 +15118,16 @@
       <c r="L273" s="12"/>
       <c r="M273" s="12"/>
       <c r="N273" s="12"/>
-    </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U273" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V273">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A274" s="22" t="s">
         <v>275</v>
       </c>
@@ -12899,8 +15148,16 @@
       <c r="N274" s="12" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U274" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V274">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A275" s="22" t="s">
         <v>276</v>
       </c>
@@ -12919,8 +15176,16 @@
       <c r="L275" s="12"/>
       <c r="M275" s="12"/>
       <c r="N275" s="12"/>
-    </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U275" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V275">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A276" s="22" t="s">
         <v>277</v>
       </c>
@@ -12939,8 +15204,16 @@
       <c r="L276" s="12"/>
       <c r="M276" s="12"/>
       <c r="N276" s="12"/>
-    </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U276" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V276">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A277" s="22" t="s">
         <v>278</v>
       </c>
@@ -12959,8 +15232,16 @@
       <c r="L277" s="12"/>
       <c r="M277" s="12"/>
       <c r="N277" s="12"/>
-    </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U277" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V277">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A278" s="22" t="s">
         <v>279</v>
       </c>
@@ -12979,8 +15260,16 @@
       <c r="L278" s="12"/>
       <c r="M278" s="12"/>
       <c r="N278" s="12"/>
-    </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U278" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V278">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A279" s="22" t="s">
         <v>280</v>
       </c>
@@ -12999,8 +15288,16 @@
       <c r="L279" s="12"/>
       <c r="M279" s="12"/>
       <c r="N279" s="12"/>
-    </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U279" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V279">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A280" s="22" t="s">
         <v>281</v>
       </c>
@@ -13019,8 +15316,16 @@
       <c r="L280" s="12"/>
       <c r="M280" s="12"/>
       <c r="N280" s="12"/>
-    </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U280" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V280">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A281" s="22" t="s">
         <v>282</v>
       </c>
@@ -13039,8 +15344,16 @@
       <c r="L281" s="12"/>
       <c r="M281" s="12"/>
       <c r="N281" s="12"/>
-    </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U281" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V281">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A282" s="22" t="s">
         <v>283</v>
       </c>
@@ -13059,8 +15372,16 @@
       <c r="L282" s="12"/>
       <c r="M282" s="12"/>
       <c r="N282" s="12"/>
-    </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U282" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V282">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A283" s="22" t="s">
         <v>284</v>
       </c>
@@ -13079,8 +15400,16 @@
       <c r="L283" s="12"/>
       <c r="M283" s="12"/>
       <c r="N283" s="12"/>
-    </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U283" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V283">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A284" s="22" t="s">
         <v>285</v>
       </c>
@@ -13099,8 +15428,16 @@
       <c r="L284" s="12"/>
       <c r="M284" s="12"/>
       <c r="N284" s="12"/>
-    </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U284" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V284">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A285" s="22" t="s">
         <v>286</v>
       </c>
@@ -13119,8 +15456,16 @@
       <c r="L285" s="12"/>
       <c r="M285" s="12"/>
       <c r="N285" s="12"/>
-    </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U285" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V285">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A286" s="22" t="s">
         <v>287</v>
       </c>
@@ -13139,8 +15484,16 @@
       <c r="L286" s="12"/>
       <c r="M286" s="12"/>
       <c r="N286" s="12"/>
-    </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U286" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V286">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A287" s="22" t="s">
         <v>288</v>
       </c>
@@ -13159,8 +15512,16 @@
       <c r="L287" s="12"/>
       <c r="M287" s="12"/>
       <c r="N287" s="12"/>
-    </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U287" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V287">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A288" s="22" t="s">
         <v>289</v>
       </c>
@@ -13179,8 +15540,16 @@
       <c r="L288" s="12"/>
       <c r="M288" s="12"/>
       <c r="N288" s="12"/>
-    </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U288" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V288">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A289" s="22" t="s">
         <v>290</v>
       </c>
@@ -13199,8 +15568,16 @@
       <c r="L289" s="12"/>
       <c r="M289" s="12"/>
       <c r="N289" s="12"/>
-    </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U289" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V289">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A290" s="14" t="s">
         <v>291</v>
       </c>
@@ -13221,8 +15598,16 @@
       <c r="N290" s="12" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U290" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V290">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A291" s="14" t="s">
         <v>292</v>
       </c>
@@ -13243,8 +15628,16 @@
       <c r="N291" s="12" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U291" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V291">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A292" s="14" t="s">
         <v>293</v>
       </c>
@@ -13265,8 +15658,16 @@
       <c r="N292" s="12" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U292" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V292">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A293" s="14" t="s">
         <v>294</v>
       </c>
@@ -13287,8 +15688,16 @@
       <c r="N293" s="12" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U293" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V293">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A294" s="14" t="s">
         <v>295</v>
       </c>
@@ -13307,8 +15716,16 @@
       <c r="L294" s="12"/>
       <c r="M294" s="12"/>
       <c r="N294" s="12"/>
-    </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U294" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V294">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A295" s="14" t="s">
         <v>296</v>
       </c>
@@ -13327,8 +15744,16 @@
       <c r="L295" s="12"/>
       <c r="M295" s="12"/>
       <c r="N295" s="12"/>
-    </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U295" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V295">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A296" s="14" t="s">
         <v>297</v>
       </c>
@@ -13353,8 +15778,16 @@
       <c r="L296" s="12"/>
       <c r="M296" s="12"/>
       <c r="N296" s="12"/>
-    </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U296" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V296">
+        <f t="shared" si="10"/>
+        <v>-28.5</v>
+      </c>
+    </row>
+    <row r="297" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A297" s="14" t="s">
         <v>298</v>
       </c>
@@ -13373,8 +15806,16 @@
       <c r="L297" s="12"/>
       <c r="M297" s="12"/>
       <c r="N297" s="12"/>
-    </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U297" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V297">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A298" s="14" t="s">
         <v>299</v>
       </c>
@@ -13393,16 +15834,28 @@
       <c r="L298" s="12"/>
       <c r="M298" s="12"/>
       <c r="N298" s="12"/>
-    </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U298" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V298">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A299" s="14" t="s">
         <v>300</v>
       </c>
       <c r="B299" s="15">
         <v>43495</v>
       </c>
-      <c r="C299" s="15"/>
-      <c r="D299" s="16"/>
+      <c r="C299" s="15">
+        <v>43542</v>
+      </c>
+      <c r="D299" s="16">
+        <v>26.7</v>
+      </c>
       <c r="E299" s="15">
         <v>43458</v>
       </c>
@@ -13417,8 +15870,16 @@
       <c r="L299" s="12"/>
       <c r="M299" s="12"/>
       <c r="N299" s="12"/>
-    </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U299" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V299">
+        <f t="shared" si="10"/>
+        <v>-26.7</v>
+      </c>
+    </row>
+    <row r="300" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A300" s="14" t="s">
         <v>301</v>
       </c>
@@ -13443,8 +15904,16 @@
       <c r="L300" s="12"/>
       <c r="M300" s="12"/>
       <c r="N300" s="12"/>
-    </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U300" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V300">
+        <f t="shared" si="10"/>
+        <v>-21.8</v>
+      </c>
+    </row>
+    <row r="301" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A301" s="14" t="s">
         <v>302</v>
       </c>
@@ -13467,8 +15936,16 @@
       <c r="L301" s="12"/>
       <c r="M301" s="12"/>
       <c r="N301" s="12"/>
-    </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U301" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V301">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A302" s="14" t="s">
         <v>303</v>
       </c>
@@ -13487,8 +15964,16 @@
       <c r="L302" s="12"/>
       <c r="M302" s="12"/>
       <c r="N302" s="12"/>
-    </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U302" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V302">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A303" s="14" t="s">
         <v>304</v>
       </c>
@@ -13511,8 +15996,16 @@
       <c r="L303" s="12"/>
       <c r="M303" s="12"/>
       <c r="N303" s="12"/>
-    </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U303" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V303">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A304" s="14" t="s">
         <v>305</v>
       </c>
@@ -13537,8 +16030,16 @@
       <c r="L304" s="12"/>
       <c r="M304" s="12"/>
       <c r="N304" s="12"/>
-    </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U304" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V304">
+        <f t="shared" si="10"/>
+        <v>-23.6</v>
+      </c>
+    </row>
+    <row r="305" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A305" s="14" t="s">
         <v>306</v>
       </c>
@@ -13557,8 +16058,16 @@
       <c r="L305" s="12"/>
       <c r="M305" s="12"/>
       <c r="N305" s="12"/>
-    </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U305" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V305">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A306" s="19" t="s">
         <v>307</v>
       </c>
@@ -13579,8 +16088,16 @@
       <c r="N306" s="12" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U306" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V306">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A307" s="19" t="s">
         <v>308</v>
       </c>
@@ -13599,8 +16116,16 @@
       <c r="L307" s="12"/>
       <c r="M307" s="12"/>
       <c r="N307" s="12"/>
-    </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U307" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V307">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A308" s="19" t="s">
         <v>309</v>
       </c>
@@ -13619,8 +16144,16 @@
       <c r="L308" s="12"/>
       <c r="M308" s="12"/>
       <c r="N308" s="12"/>
-    </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U308" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V308">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A309" s="19" t="s">
         <v>310</v>
       </c>
@@ -13639,8 +16172,16 @@
       <c r="L309" s="12"/>
       <c r="M309" s="12"/>
       <c r="N309" s="12"/>
-    </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U309" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V309">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A310" s="19" t="s">
         <v>311</v>
       </c>
@@ -13659,8 +16200,16 @@
       <c r="L310" s="12"/>
       <c r="M310" s="12"/>
       <c r="N310" s="12"/>
-    </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U310" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V310">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A311" s="19" t="s">
         <v>312</v>
       </c>
@@ -13679,8 +16228,16 @@
       <c r="L311" s="12"/>
       <c r="M311" s="12"/>
       <c r="N311" s="12"/>
-    </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U311" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V311">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A312" s="19" t="s">
         <v>313</v>
       </c>
@@ -13699,8 +16256,16 @@
       <c r="L312" s="12"/>
       <c r="M312" s="12"/>
       <c r="N312" s="12"/>
-    </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U312" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V312">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A313" s="19" t="s">
         <v>314</v>
       </c>
@@ -13719,8 +16284,16 @@
       <c r="L313" s="12"/>
       <c r="M313" s="12"/>
       <c r="N313" s="12"/>
-    </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U313" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V313">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A314" s="19" t="s">
         <v>315</v>
       </c>
@@ -13739,8 +16312,16 @@
       <c r="L314" s="12"/>
       <c r="M314" s="12"/>
       <c r="N314" s="12"/>
-    </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U314" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V314">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A315" s="19" t="s">
         <v>316</v>
       </c>
@@ -13759,8 +16340,16 @@
       <c r="L315" s="12"/>
       <c r="M315" s="12"/>
       <c r="N315" s="12"/>
-    </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U315" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V315">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A316" s="19" t="s">
         <v>317</v>
       </c>
@@ -13779,8 +16368,16 @@
       <c r="L316" s="12"/>
       <c r="M316" s="12"/>
       <c r="N316" s="12"/>
-    </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U316" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V316">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A317" s="19" t="s">
         <v>318</v>
       </c>
@@ -13799,8 +16396,16 @@
       <c r="L317" s="12"/>
       <c r="M317" s="12"/>
       <c r="N317" s="12"/>
-    </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U317" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V317">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A318" s="19" t="s">
         <v>319</v>
       </c>
@@ -13819,8 +16424,16 @@
       <c r="L318" s="12"/>
       <c r="M318" s="12"/>
       <c r="N318" s="12"/>
-    </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U318" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V318">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A319" s="19" t="s">
         <v>320</v>
       </c>
@@ -13839,8 +16452,16 @@
       <c r="L319" s="12"/>
       <c r="M319" s="12"/>
       <c r="N319" s="12"/>
-    </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U319" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V319">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A320" s="19" t="s">
         <v>321</v>
       </c>
@@ -13859,8 +16480,16 @@
       <c r="L320" s="12"/>
       <c r="M320" s="12"/>
       <c r="N320" s="12"/>
-    </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U320" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V320">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A321" s="19" t="s">
         <v>322</v>
       </c>
@@ -13879,8 +16508,16 @@
       <c r="L321" s="12"/>
       <c r="M321" s="12"/>
       <c r="N321" s="12"/>
-    </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U321" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V321">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A322" s="22" t="s">
         <v>323</v>
       </c>
@@ -13901,8 +16538,16 @@
       <c r="N322" s="12" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U322" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V322">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A323" s="22" t="s">
         <v>324</v>
       </c>
@@ -13921,8 +16566,16 @@
       <c r="L323" s="12"/>
       <c r="M323" s="12"/>
       <c r="N323" s="12"/>
-    </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U323" t="e">
+        <f t="shared" ref="U323:U386" si="11">AVERAGE(Q323:T323)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V323">
+        <f t="shared" ref="V323:V386" si="12">P323-D323</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A324" s="22" t="s">
         <v>325</v>
       </c>
@@ -13941,8 +16594,16 @@
       <c r="L324" s="12"/>
       <c r="M324" s="12"/>
       <c r="N324" s="12"/>
-    </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U324" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V324">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A325" s="22" t="s">
         <v>326</v>
       </c>
@@ -13965,8 +16626,16 @@
       <c r="L325" s="12"/>
       <c r="M325" s="12"/>
       <c r="N325" s="12"/>
-    </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U325" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V325">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A326" s="22" t="s">
         <v>327</v>
       </c>
@@ -13985,8 +16654,16 @@
       <c r="L326" s="12"/>
       <c r="M326" s="12"/>
       <c r="N326" s="12"/>
-    </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U326" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V326">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A327" s="22" t="s">
         <v>328</v>
       </c>
@@ -14005,8 +16682,16 @@
       <c r="L327" s="12"/>
       <c r="M327" s="12"/>
       <c r="N327" s="12"/>
-    </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U327" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V327">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A328" s="22" t="s">
         <v>329</v>
       </c>
@@ -14025,8 +16710,16 @@
       <c r="L328" s="12"/>
       <c r="M328" s="12"/>
       <c r="N328" s="12"/>
-    </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U328" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V328">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A329" s="22" t="s">
         <v>330</v>
       </c>
@@ -14045,8 +16738,16 @@
       <c r="L329" s="12"/>
       <c r="M329" s="12"/>
       <c r="N329" s="12"/>
-    </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U329" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V329">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A330" s="22" t="s">
         <v>331</v>
       </c>
@@ -14065,8 +16766,16 @@
       <c r="L330" s="12"/>
       <c r="M330" s="12"/>
       <c r="N330" s="12"/>
-    </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U330" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V330">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A331" s="22" t="s">
         <v>332</v>
       </c>
@@ -14085,8 +16794,16 @@
       <c r="L331" s="12"/>
       <c r="M331" s="12"/>
       <c r="N331" s="12"/>
-    </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U331" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V331">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A332" s="22" t="s">
         <v>333</v>
       </c>
@@ -14105,8 +16822,16 @@
       <c r="L332" s="12"/>
       <c r="M332" s="12"/>
       <c r="N332" s="12"/>
-    </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U332" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V332">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A333" s="22" t="s">
         <v>334</v>
       </c>
@@ -14125,8 +16850,16 @@
       <c r="L333" s="12"/>
       <c r="M333" s="12"/>
       <c r="N333" s="12"/>
-    </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U333" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V333">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A334" s="22" t="s">
         <v>335</v>
       </c>
@@ -14145,8 +16878,16 @@
       <c r="L334" s="12"/>
       <c r="M334" s="12"/>
       <c r="N334" s="12"/>
-    </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U334" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V334">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A335" s="22" t="s">
         <v>336</v>
       </c>
@@ -14169,8 +16910,16 @@
       <c r="L335" s="12"/>
       <c r="M335" s="12"/>
       <c r="N335" s="12"/>
-    </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U335" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V335">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A336" s="22" t="s">
         <v>337</v>
       </c>
@@ -14189,8 +16938,16 @@
       <c r="L336" s="12"/>
       <c r="M336" s="12"/>
       <c r="N336" s="12"/>
-    </row>
-    <row r="337" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U336" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V336">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A337" s="22" t="s">
         <v>338</v>
       </c>
@@ -14209,8 +16966,16 @@
       <c r="L337" s="12"/>
       <c r="M337" s="12"/>
       <c r="N337" s="12"/>
-    </row>
-    <row r="338" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U337" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V337">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A338" s="14" t="s">
         <v>339</v>
       </c>
@@ -14266,11 +17031,23 @@
         <v>41.4</v>
       </c>
       <c r="U338">
-        <f t="shared" ref="U338:U350" si="1">AVERAGE(Q338:T338)</f>
+        <f t="shared" si="11"/>
         <v>40.200000000000003</v>
       </c>
-    </row>
-    <row r="339" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V338">
+        <f t="shared" si="12"/>
+        <v>46.100000000000009</v>
+      </c>
+      <c r="W338">
+        <f>AVERAGE(U338,U340,U342,U344,U346,U348,U350,U352)</f>
+        <v>44.975000000000001</v>
+      </c>
+      <c r="X338">
+        <f>AVERAGE(V338,V340,V342,V344,V346,V348,V350,V352)</f>
+        <v>41.287499999999994</v>
+      </c>
+    </row>
+    <row r="339" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A339" s="14" t="s">
         <v>340</v>
       </c>
@@ -14310,8 +17087,39 @@
         <v>42.3</v>
       </c>
       <c r="N339" s="12"/>
-    </row>
-    <row r="340" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P339">
+        <v>89.1</v>
+      </c>
+      <c r="Q339">
+        <v>47.1</v>
+      </c>
+      <c r="R339">
+        <v>47</v>
+      </c>
+      <c r="S339">
+        <v>42.5</v>
+      </c>
+      <c r="T339">
+        <v>34</v>
+      </c>
+      <c r="U339">
+        <f t="shared" si="11"/>
+        <v>42.65</v>
+      </c>
+      <c r="V339">
+        <f t="shared" si="12"/>
+        <v>54.099999999999994</v>
+      </c>
+      <c r="W339" t="e">
+        <f>AVERAGE(U339,U341,U343,U345,U347,U349,U351,U353)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X339">
+        <f>AVERAGE(V339,V341,V343,V345,V347,V349,V351,V353)</f>
+        <v>36.574999999999996</v>
+      </c>
+    </row>
+    <row r="340" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A340" s="14" t="s">
         <v>341</v>
       </c>
@@ -14345,7 +17153,7 @@
         <v>39.9</v>
       </c>
       <c r="M340" s="12">
-        <f t="shared" ref="M340:M352" si="2">AVERAGE(I340:L340)</f>
+        <f t="shared" ref="M340:M352" si="13">AVERAGE(I340:L340)</f>
         <v>48.449999999999996</v>
       </c>
       <c r="N340" s="12"/>
@@ -14365,11 +17173,15 @@
         <v>47.4</v>
       </c>
       <c r="U340">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>46.675000000000004</v>
       </c>
-    </row>
-    <row r="341" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V340">
+        <f t="shared" si="12"/>
+        <v>50.300000000000004</v>
+      </c>
+    </row>
+    <row r="341" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A341" s="14" t="s">
         <v>342</v>
       </c>
@@ -14425,11 +17237,15 @@
         <v>49.1</v>
       </c>
       <c r="U341">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>49.424999999999997</v>
       </c>
-    </row>
-    <row r="342" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V341">
+        <f t="shared" si="12"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="342" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A342" s="14" t="s">
         <v>343</v>
       </c>
@@ -14463,7 +17279,7 @@
         <v>46.5</v>
       </c>
       <c r="M342" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>45.05</v>
       </c>
       <c r="N342" s="12"/>
@@ -14483,11 +17299,15 @@
         <v>45.1</v>
       </c>
       <c r="U342">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>40.5</v>
       </c>
-    </row>
-    <row r="343" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V342">
+        <f t="shared" si="12"/>
+        <v>38.100000000000009</v>
+      </c>
+    </row>
+    <row r="343" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A343" s="14" t="s">
         <v>344</v>
       </c>
@@ -14523,7 +17343,7 @@
         <v>40.5</v>
       </c>
       <c r="M343" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>40.825000000000003</v>
       </c>
       <c r="N343" s="12"/>
@@ -14543,11 +17363,15 @@
         <v>40.4</v>
       </c>
       <c r="U343">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>39.274999999999999</v>
       </c>
-    </row>
-    <row r="344" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V343">
+        <f t="shared" si="12"/>
+        <v>58.099999999999994</v>
+      </c>
+    </row>
+    <row r="344" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A344" s="14" t="s">
         <v>345</v>
       </c>
@@ -14581,7 +17405,7 @@
         <v>27</v>
       </c>
       <c r="M344" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>37.875</v>
       </c>
       <c r="N344" s="12"/>
@@ -14601,11 +17425,15 @@
         <v>41.6</v>
       </c>
       <c r="U344">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>44.574999999999996</v>
       </c>
-    </row>
-    <row r="345" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V344">
+        <f t="shared" si="12"/>
+        <v>44.7</v>
+      </c>
+    </row>
+    <row r="345" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A345" s="14" t="s">
         <v>346</v>
       </c>
@@ -14641,7 +17469,7 @@
         <v>37.9</v>
       </c>
       <c r="M345" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>37.650000000000006</v>
       </c>
       <c r="N345" s="12"/>
@@ -14661,11 +17489,15 @@
         <v>45.7</v>
       </c>
       <c r="U345">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>45.125</v>
       </c>
-    </row>
-    <row r="346" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V345">
+        <f t="shared" si="12"/>
+        <v>38.700000000000003</v>
+      </c>
+    </row>
+    <row r="346" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A346" s="14" t="s">
         <v>347</v>
       </c>
@@ -14699,7 +17531,7 @@
         <v>44.5</v>
       </c>
       <c r="M346" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>44.024999999999999</v>
       </c>
       <c r="N346" s="12"/>
@@ -14719,11 +17551,15 @@
         <v>38.299999999999997</v>
       </c>
       <c r="U346">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>44.525000000000006</v>
       </c>
-    </row>
-    <row r="347" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V346">
+        <f t="shared" si="12"/>
+        <v>43.699999999999996</v>
+      </c>
+    </row>
+    <row r="347" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A347" s="14" t="s">
         <v>348</v>
       </c>
@@ -14759,12 +17595,35 @@
         <v>44.5</v>
       </c>
       <c r="M347" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>44.024999999999999</v>
       </c>
       <c r="N347" s="12"/>
-    </row>
-    <row r="348" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P347">
+        <v>66</v>
+      </c>
+      <c r="Q347">
+        <v>37.4</v>
+      </c>
+      <c r="R347">
+        <v>29.6</v>
+      </c>
+      <c r="S347">
+        <v>47.1</v>
+      </c>
+      <c r="T347">
+        <v>46.4</v>
+      </c>
+      <c r="U347">
+        <f t="shared" si="11"/>
+        <v>40.125</v>
+      </c>
+      <c r="V347">
+        <f t="shared" si="12"/>
+        <v>41.4</v>
+      </c>
+    </row>
+    <row r="348" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A348" s="14" t="s">
         <v>349</v>
       </c>
@@ -14798,7 +17657,7 @@
         <v>42.3</v>
       </c>
       <c r="M348" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>42.05</v>
       </c>
       <c r="N348" s="12"/>
@@ -14818,11 +17677,15 @@
         <v>40.6</v>
       </c>
       <c r="U348">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>45.324999999999996</v>
       </c>
-    </row>
-    <row r="349" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V348">
+        <f t="shared" si="12"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="349" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A349" s="14" t="s">
         <v>350</v>
       </c>
@@ -14858,7 +17721,7 @@
         <v>42.9</v>
       </c>
       <c r="M349" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>39.950000000000003</v>
       </c>
       <c r="N349" s="12"/>
@@ -14878,11 +17741,15 @@
         <v>39.5</v>
       </c>
       <c r="U349">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>39.825000000000003</v>
       </c>
-    </row>
-    <row r="350" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V349">
+        <f t="shared" si="12"/>
+        <v>37.100000000000009</v>
+      </c>
+    </row>
+    <row r="350" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A350" s="14" t="s">
         <v>351</v>
       </c>
@@ -14916,7 +17783,7 @@
         <v>52.3</v>
       </c>
       <c r="M350" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>47.775000000000006</v>
       </c>
       <c r="N350" s="12"/>
@@ -14936,11 +17803,15 @@
         <v>50.1</v>
       </c>
       <c r="U350">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>49.674999999999997</v>
       </c>
-    </row>
-    <row r="351" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V350">
+        <f t="shared" si="12"/>
+        <v>41.7</v>
+      </c>
+    </row>
+    <row r="351" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A351" s="14" t="s">
         <v>352</v>
       </c>
@@ -14978,12 +17849,20 @@
         <v>48.2</v>
       </c>
       <c r="M351" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>45.275000000000006</v>
       </c>
       <c r="N351" s="12"/>
-    </row>
-    <row r="352" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U351" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V351">
+        <f t="shared" si="12"/>
+        <v>-27.2</v>
+      </c>
+    </row>
+    <row r="352" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A352" s="14" t="s">
         <v>353</v>
       </c>
@@ -15017,7 +17896,7 @@
         <v>48.9</v>
       </c>
       <c r="M352" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>47.625</v>
       </c>
       <c r="N352" s="12"/>
@@ -15037,11 +17916,15 @@
         <v>50.4</v>
       </c>
       <c r="U352">
-        <f>AVERAGE(Q352:T352)</f>
+        <f t="shared" si="11"/>
         <v>48.325000000000003</v>
       </c>
-    </row>
-    <row r="353" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="V352">
+        <f t="shared" si="12"/>
+        <v>33.700000000000003</v>
+      </c>
+    </row>
+    <row r="353" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A353" s="14" t="s">
         <v>354</v>
       </c>
@@ -15068,8 +17951,31 @@
       <c r="L353" s="12"/>
       <c r="M353" s="12"/>
       <c r="N353" s="12"/>
-    </row>
-    <row r="354" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P353">
+        <v>63.2</v>
+      </c>
+      <c r="Q353">
+        <v>46.2</v>
+      </c>
+      <c r="R353">
+        <v>51</v>
+      </c>
+      <c r="S353">
+        <v>51.5</v>
+      </c>
+      <c r="T353">
+        <v>45.3</v>
+      </c>
+      <c r="U353">
+        <f t="shared" si="11"/>
+        <v>48.5</v>
+      </c>
+      <c r="V353">
+        <f t="shared" si="12"/>
+        <v>31.400000000000002</v>
+      </c>
+    </row>
+    <row r="354" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A354" s="19" t="s">
         <v>355</v>
       </c>
@@ -15096,8 +18002,16 @@
       <c r="N354" s="12" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="355" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U354" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V354">
+        <f t="shared" si="12"/>
+        <v>-18.8</v>
+      </c>
+    </row>
+    <row r="355" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A355" s="19" t="s">
         <v>356</v>
       </c>
@@ -15124,8 +18038,16 @@
       <c r="L355" s="12"/>
       <c r="M355" s="12"/>
       <c r="N355" s="12"/>
-    </row>
-    <row r="356" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U355" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V355">
+        <f t="shared" si="12"/>
+        <v>-31.8</v>
+      </c>
+    </row>
+    <row r="356" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A356" s="19" t="s">
         <v>357</v>
       </c>
@@ -15150,8 +18072,16 @@
       <c r="L356" s="12"/>
       <c r="M356" s="12"/>
       <c r="N356" s="12"/>
-    </row>
-    <row r="357" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U356" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V356">
+        <f t="shared" si="12"/>
+        <v>-22.3</v>
+      </c>
+    </row>
+    <row r="357" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A357" s="19" t="s">
         <v>358</v>
       </c>
@@ -15178,8 +18108,16 @@
       <c r="L357" s="12"/>
       <c r="M357" s="12"/>
       <c r="N357" s="12"/>
-    </row>
-    <row r="358" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U357" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V357">
+        <f t="shared" si="12"/>
+        <v>-18.399999999999999</v>
+      </c>
+    </row>
+    <row r="358" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A358" s="19" t="s">
         <v>359</v>
       </c>
@@ -15204,8 +18142,16 @@
       <c r="L358" s="12"/>
       <c r="M358" s="12"/>
       <c r="N358" s="12"/>
-    </row>
-    <row r="359" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U358" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V358">
+        <f t="shared" si="12"/>
+        <v>-29.4</v>
+      </c>
+    </row>
+    <row r="359" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A359" s="19" t="s">
         <v>360</v>
       </c>
@@ -15232,8 +18178,16 @@
       <c r="L359" s="12"/>
       <c r="M359" s="12"/>
       <c r="N359" s="12"/>
-    </row>
-    <row r="360" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U359" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V359">
+        <f t="shared" si="12"/>
+        <v>-19.600000000000001</v>
+      </c>
+    </row>
+    <row r="360" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A360" s="19" t="s">
         <v>361</v>
       </c>
@@ -15258,8 +18212,16 @@
       <c r="L360" s="12"/>
       <c r="M360" s="12"/>
       <c r="N360" s="12"/>
-    </row>
-    <row r="361" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U360" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V360">
+        <f t="shared" si="12"/>
+        <v>-22.2</v>
+      </c>
+    </row>
+    <row r="361" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A361" s="19" t="s">
         <v>362</v>
       </c>
@@ -15286,8 +18248,16 @@
       <c r="L361" s="12"/>
       <c r="M361" s="12"/>
       <c r="N361" s="12"/>
-    </row>
-    <row r="362" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U361" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V361">
+        <f t="shared" si="12"/>
+        <v>-25.8</v>
+      </c>
+    </row>
+    <row r="362" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A362" s="19" t="s">
         <v>363</v>
       </c>
@@ -15312,8 +18282,16 @@
       <c r="L362" s="12"/>
       <c r="M362" s="12"/>
       <c r="N362" s="12"/>
-    </row>
-    <row r="363" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U362" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V362">
+        <f t="shared" si="12"/>
+        <v>-24.2</v>
+      </c>
+    </row>
+    <row r="363" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A363" s="19" t="s">
         <v>364</v>
       </c>
@@ -15340,8 +18318,16 @@
       <c r="L363" s="12"/>
       <c r="M363" s="12"/>
       <c r="N363" s="12"/>
-    </row>
-    <row r="364" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U363" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V363">
+        <f t="shared" si="12"/>
+        <v>-20.399999999999999</v>
+      </c>
+    </row>
+    <row r="364" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A364" s="19" t="s">
         <v>365</v>
       </c>
@@ -15366,8 +18352,16 @@
       <c r="L364" s="12"/>
       <c r="M364" s="12"/>
       <c r="N364" s="12"/>
-    </row>
-    <row r="365" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U364" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V364">
+        <f t="shared" si="12"/>
+        <v>-27.8</v>
+      </c>
+    </row>
+    <row r="365" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A365" s="19" t="s">
         <v>366</v>
       </c>
@@ -15394,8 +18388,16 @@
       <c r="L365" s="12"/>
       <c r="M365" s="12"/>
       <c r="N365" s="12"/>
-    </row>
-    <row r="366" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U365" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V365">
+        <f t="shared" si="12"/>
+        <v>-29.6</v>
+      </c>
+    </row>
+    <row r="366" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A366" s="19" t="s">
         <v>367</v>
       </c>
@@ -15420,8 +18422,16 @@
       <c r="L366" s="12"/>
       <c r="M366" s="12"/>
       <c r="N366" s="12"/>
-    </row>
-    <row r="367" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U366" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V366">
+        <f t="shared" si="12"/>
+        <v>-28.6</v>
+      </c>
+    </row>
+    <row r="367" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A367" s="19" t="s">
         <v>368</v>
       </c>
@@ -15448,8 +18458,16 @@
       <c r="L367" s="12"/>
       <c r="M367" s="12"/>
       <c r="N367" s="12"/>
-    </row>
-    <row r="368" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U367" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V367">
+        <f t="shared" si="12"/>
+        <v>-25.6</v>
+      </c>
+    </row>
+    <row r="368" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A368" s="19" t="s">
         <v>369</v>
       </c>
@@ -15474,8 +18492,16 @@
       <c r="L368" s="12"/>
       <c r="M368" s="12"/>
       <c r="N368" s="12"/>
-    </row>
-    <row r="369" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U368" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V368">
+        <f t="shared" si="12"/>
+        <v>-25.4</v>
+      </c>
+    </row>
+    <row r="369" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A369" s="19" t="s">
         <v>370</v>
       </c>
@@ -15504,8 +18530,16 @@
       <c r="L369" s="12"/>
       <c r="M369" s="12"/>
       <c r="N369" s="12"/>
-    </row>
-    <row r="370" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U369" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V369">
+        <f t="shared" si="12"/>
+        <v>-25.2</v>
+      </c>
+    </row>
+    <row r="370" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A370" s="22" t="s">
         <v>371</v>
       </c>
@@ -15532,8 +18566,16 @@
       <c r="N370" s="12" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="371" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U370" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V370">
+        <f t="shared" si="12"/>
+        <v>-26</v>
+      </c>
+    </row>
+    <row r="371" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A371" s="22" t="s">
         <v>372</v>
       </c>
@@ -15560,8 +18602,16 @@
       <c r="L371" s="12"/>
       <c r="M371" s="12"/>
       <c r="N371" s="12"/>
-    </row>
-    <row r="372" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U371" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V371">
+        <f t="shared" si="12"/>
+        <v>-24.1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A372" s="22" t="s">
         <v>373</v>
       </c>
@@ -15586,8 +18636,16 @@
       <c r="L372" s="12"/>
       <c r="M372" s="12"/>
       <c r="N372" s="12"/>
-    </row>
-    <row r="373" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U372" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V372">
+        <f t="shared" si="12"/>
+        <v>-21.2</v>
+      </c>
+    </row>
+    <row r="373" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A373" s="22" t="s">
         <v>374</v>
       </c>
@@ -15614,8 +18672,16 @@
       <c r="L373" s="12"/>
       <c r="M373" s="12"/>
       <c r="N373" s="12"/>
-    </row>
-    <row r="374" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U373" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V373">
+        <f t="shared" si="12"/>
+        <v>-26</v>
+      </c>
+    </row>
+    <row r="374" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A374" s="22" t="s">
         <v>375</v>
       </c>
@@ -15640,8 +18706,16 @@
       <c r="L374" s="12"/>
       <c r="M374" s="12"/>
       <c r="N374" s="12"/>
-    </row>
-    <row r="375" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U374" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V374">
+        <f t="shared" si="12"/>
+        <v>-25.6</v>
+      </c>
+    </row>
+    <row r="375" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A375" s="22" t="s">
         <v>376</v>
       </c>
@@ -15668,8 +18742,16 @@
       <c r="L375" s="12"/>
       <c r="M375" s="12"/>
       <c r="N375" s="12"/>
-    </row>
-    <row r="376" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U375" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V375">
+        <f t="shared" si="12"/>
+        <v>-27.4</v>
+      </c>
+    </row>
+    <row r="376" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A376" s="22" t="s">
         <v>377</v>
       </c>
@@ -15694,8 +18776,16 @@
       <c r="L376" s="12"/>
       <c r="M376" s="12"/>
       <c r="N376" s="12"/>
-    </row>
-    <row r="377" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U376" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V376">
+        <f t="shared" si="12"/>
+        <v>-27.4</v>
+      </c>
+    </row>
+    <row r="377" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A377" s="22" t="s">
         <v>378</v>
       </c>
@@ -15722,8 +18812,16 @@
       <c r="L377" s="12"/>
       <c r="M377" s="12"/>
       <c r="N377" s="12"/>
-    </row>
-    <row r="378" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U377" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V377">
+        <f t="shared" si="12"/>
+        <v>-18.2</v>
+      </c>
+    </row>
+    <row r="378" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A378" s="22" t="s">
         <v>379</v>
       </c>
@@ -15748,8 +18846,16 @@
       <c r="L378" s="12"/>
       <c r="M378" s="12"/>
       <c r="N378" s="12"/>
-    </row>
-    <row r="379" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U378" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V378">
+        <f t="shared" si="12"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="379" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A379" s="22" t="s">
         <v>380</v>
       </c>
@@ -15776,8 +18882,16 @@
       <c r="L379" s="12"/>
       <c r="M379" s="12"/>
       <c r="N379" s="12"/>
-    </row>
-    <row r="380" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U379" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V379">
+        <f t="shared" si="12"/>
+        <v>-34</v>
+      </c>
+    </row>
+    <row r="380" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A380" s="22" t="s">
         <v>381</v>
       </c>
@@ -15802,8 +18916,16 @@
       <c r="L380" s="12"/>
       <c r="M380" s="12"/>
       <c r="N380" s="12"/>
-    </row>
-    <row r="381" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U380" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V380">
+        <f t="shared" si="12"/>
+        <v>-25.4</v>
+      </c>
+    </row>
+    <row r="381" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A381" s="22" t="s">
         <v>382</v>
       </c>
@@ -15830,8 +18952,16 @@
       <c r="L381" s="12"/>
       <c r="M381" s="12"/>
       <c r="N381" s="12"/>
-    </row>
-    <row r="382" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U381" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V381">
+        <f t="shared" si="12"/>
+        <v>-32.6</v>
+      </c>
+    </row>
+    <row r="382" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A382" s="22" t="s">
         <v>383</v>
       </c>
@@ -15856,8 +18986,16 @@
       <c r="L382" s="12"/>
       <c r="M382" s="12"/>
       <c r="N382" s="12"/>
-    </row>
-    <row r="383" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U382" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V382">
+        <f t="shared" si="12"/>
+        <v>-28.2</v>
+      </c>
+    </row>
+    <row r="383" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A383" s="22" t="s">
         <v>384</v>
       </c>
@@ -15886,8 +19024,16 @@
       <c r="L383" s="12"/>
       <c r="M383" s="12"/>
       <c r="N383" s="12"/>
-    </row>
-    <row r="384" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U383" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V383">
+        <f t="shared" si="12"/>
+        <v>-26.2</v>
+      </c>
+    </row>
+    <row r="384" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A384" s="22" t="s">
         <v>385</v>
       </c>
@@ -15912,8 +19058,16 @@
       <c r="L384" s="12"/>
       <c r="M384" s="12"/>
       <c r="N384" s="12"/>
-    </row>
-    <row r="385" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U384" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V384">
+        <f t="shared" si="12"/>
+        <v>-22.4</v>
+      </c>
+    </row>
+    <row r="385" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A385" s="25" t="s">
         <v>386</v>
       </c>
@@ -15932,8 +19086,16 @@
       <c r="L385" s="29"/>
       <c r="M385" s="29"/>
       <c r="N385" s="29"/>
-    </row>
-    <row r="386" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U385" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V385">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A386" s="14" t="s">
         <v>387</v>
       </c>
@@ -15960,8 +19122,16 @@
       <c r="N386" s="12" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="387" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U386" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V386">
+        <f t="shared" si="12"/>
+        <v>-46</v>
+      </c>
+    </row>
+    <row r="387" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A387" s="14" t="s">
         <v>388</v>
       </c>
@@ -15990,8 +19160,16 @@
       <c r="N387" s="12" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="388" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U387" t="e">
+        <f t="shared" ref="U387:U450" si="14">AVERAGE(Q387:T387)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V387">
+        <f t="shared" ref="V387:V450" si="15">P387-D387</f>
+        <v>-65.400000000000006</v>
+      </c>
+    </row>
+    <row r="388" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A388" s="14" t="s">
         <v>389</v>
       </c>
@@ -16014,8 +19192,16 @@
       <c r="N388" s="12" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="389" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U388" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V388">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A389" s="14" t="s">
         <v>390</v>
       </c>
@@ -16044,8 +19230,16 @@
       <c r="N389" s="12" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="390" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U389" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V389">
+        <f t="shared" si="15"/>
+        <v>-49.8</v>
+      </c>
+    </row>
+    <row r="390" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A390" s="14" t="s">
         <v>391</v>
       </c>
@@ -16072,8 +19266,16 @@
       <c r="N390" s="12" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="391" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U390" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V390">
+        <f t="shared" si="15"/>
+        <v>-48.8</v>
+      </c>
+    </row>
+    <row r="391" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A391" s="14" t="s">
         <v>392</v>
       </c>
@@ -16100,8 +19302,16 @@
       <c r="L391" s="12"/>
       <c r="M391" s="12"/>
       <c r="N391" s="12"/>
-    </row>
-    <row r="392" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U391" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V391">
+        <f t="shared" si="15"/>
+        <v>-48.6</v>
+      </c>
+    </row>
+    <row r="392" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A392" s="14" t="s">
         <v>393</v>
       </c>
@@ -16126,8 +19336,16 @@
       <c r="L392" s="12"/>
       <c r="M392" s="12"/>
       <c r="N392" s="12"/>
-    </row>
-    <row r="393" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U392" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V392">
+        <f t="shared" si="15"/>
+        <v>-54.6</v>
+      </c>
+    </row>
+    <row r="393" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A393" s="14" t="s">
         <v>394</v>
       </c>
@@ -16154,8 +19372,16 @@
       <c r="L393" s="12"/>
       <c r="M393" s="12"/>
       <c r="N393" s="12"/>
-    </row>
-    <row r="394" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U393" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V393">
+        <f t="shared" si="15"/>
+        <v>-38.6</v>
+      </c>
+    </row>
+    <row r="394" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A394" s="14" t="s">
         <v>395</v>
       </c>
@@ -16180,8 +19406,16 @@
       <c r="L394" s="12"/>
       <c r="M394" s="12"/>
       <c r="N394" s="12"/>
-    </row>
-    <row r="395" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U394" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V394">
+        <f t="shared" si="15"/>
+        <v>-44.8</v>
+      </c>
+    </row>
+    <row r="395" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A395" s="14" t="s">
         <v>396</v>
       </c>
@@ -16208,8 +19442,16 @@
       <c r="L395" s="12"/>
       <c r="M395" s="12"/>
       <c r="N395" s="12"/>
-    </row>
-    <row r="396" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U395" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V395">
+        <f t="shared" si="15"/>
+        <v>-39.4</v>
+      </c>
+    </row>
+    <row r="396" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A396" s="14" t="s">
         <v>397</v>
       </c>
@@ -16234,8 +19476,16 @@
       <c r="L396" s="12"/>
       <c r="M396" s="12"/>
       <c r="N396" s="12"/>
-    </row>
-    <row r="397" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U396" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V396">
+        <f t="shared" si="15"/>
+        <v>-40.4</v>
+      </c>
+    </row>
+    <row r="397" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A397" s="14" t="s">
         <v>398</v>
       </c>
@@ -16262,8 +19512,16 @@
       <c r="L397" s="12"/>
       <c r="M397" s="12"/>
       <c r="N397" s="12"/>
-    </row>
-    <row r="398" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U397" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V397">
+        <f t="shared" si="15"/>
+        <v>-56.6</v>
+      </c>
+    </row>
+    <row r="398" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A398" s="14" t="s">
         <v>399</v>
       </c>
@@ -16288,8 +19546,16 @@
       <c r="L398" s="12"/>
       <c r="M398" s="12"/>
       <c r="N398" s="12"/>
-    </row>
-    <row r="399" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U398" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V398">
+        <f t="shared" si="15"/>
+        <v>-55.4</v>
+      </c>
+    </row>
+    <row r="399" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A399" s="14" t="s">
         <v>400</v>
       </c>
@@ -16318,8 +19584,16 @@
       <c r="L399" s="12"/>
       <c r="M399" s="12"/>
       <c r="N399" s="12"/>
-    </row>
-    <row r="400" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U399" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V399">
+        <f t="shared" si="15"/>
+        <v>-43.4</v>
+      </c>
+    </row>
+    <row r="400" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A400" s="14" t="s">
         <v>401</v>
       </c>
@@ -16344,8 +19618,16 @@
       <c r="L400" s="12"/>
       <c r="M400" s="12"/>
       <c r="N400" s="12"/>
-    </row>
-    <row r="401" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U400" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V400">
+        <f t="shared" si="15"/>
+        <v>-59.2</v>
+      </c>
+    </row>
+    <row r="401" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A401" s="14" t="s">
         <v>402</v>
       </c>
@@ -16372,8 +19654,16 @@
       <c r="L401" s="12"/>
       <c r="M401" s="12"/>
       <c r="N401" s="12"/>
-    </row>
-    <row r="402" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U401" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V401">
+        <f t="shared" si="15"/>
+        <v>-58.4</v>
+      </c>
+    </row>
+    <row r="402" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A402" s="19" t="s">
         <v>403</v>
       </c>
@@ -16400,8 +19690,16 @@
       <c r="N402" s="12" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="403" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U402" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V402">
+        <f t="shared" si="15"/>
+        <v>-57.6</v>
+      </c>
+    </row>
+    <row r="403" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A403" s="19" t="s">
         <v>404</v>
       </c>
@@ -16430,8 +19728,16 @@
       <c r="N403" s="12" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="404" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U403" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V403">
+        <f t="shared" si="15"/>
+        <v>-50.9</v>
+      </c>
+    </row>
+    <row r="404" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A404" s="19" t="s">
         <v>405</v>
       </c>
@@ -16458,8 +19764,16 @@
       <c r="N404" s="12" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="405" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U404" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V404">
+        <f t="shared" si="15"/>
+        <v>-50.4</v>
+      </c>
+    </row>
+    <row r="405" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A405" s="19" t="s">
         <v>406</v>
       </c>
@@ -16488,8 +19802,16 @@
       <c r="N405" s="12" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="406" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U405" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V405">
+        <f t="shared" si="15"/>
+        <v>-45.4</v>
+      </c>
+    </row>
+    <row r="406" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A406" s="19" t="s">
         <v>407</v>
       </c>
@@ -16514,8 +19836,16 @@
       <c r="L406" s="12"/>
       <c r="M406" s="12"/>
       <c r="N406" s="12"/>
-    </row>
-    <row r="407" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U406" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V406">
+        <f t="shared" si="15"/>
+        <v>-50.6</v>
+      </c>
+    </row>
+    <row r="407" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A407" s="19" t="s">
         <v>408</v>
       </c>
@@ -16542,8 +19872,16 @@
       <c r="L407" s="12"/>
       <c r="M407" s="12"/>
       <c r="N407" s="12"/>
-    </row>
-    <row r="408" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U407" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V407">
+        <f t="shared" si="15"/>
+        <v>-58.3</v>
+      </c>
+    </row>
+    <row r="408" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A408" s="19" t="s">
         <v>409</v>
       </c>
@@ -16568,8 +19906,16 @@
       <c r="L408" s="12"/>
       <c r="M408" s="12"/>
       <c r="N408" s="12"/>
-    </row>
-    <row r="409" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U408" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V408">
+        <f t="shared" si="15"/>
+        <v>-58.3</v>
+      </c>
+    </row>
+    <row r="409" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A409" s="19" t="s">
         <v>410</v>
       </c>
@@ -16596,8 +19942,16 @@
       <c r="L409" s="12"/>
       <c r="M409" s="12"/>
       <c r="N409" s="12"/>
-    </row>
-    <row r="410" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U409" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V409">
+        <f t="shared" si="15"/>
+        <v>-50.4</v>
+      </c>
+    </row>
+    <row r="410" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A410" s="19" t="s">
         <v>411</v>
       </c>
@@ -16622,8 +19976,16 @@
       <c r="L410" s="12"/>
       <c r="M410" s="12"/>
       <c r="N410" s="12"/>
-    </row>
-    <row r="411" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U410" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V410">
+        <f t="shared" si="15"/>
+        <v>-43.7</v>
+      </c>
+    </row>
+    <row r="411" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A411" s="19" t="s">
         <v>412</v>
       </c>
@@ -16650,8 +20012,16 @@
       <c r="L411" s="12"/>
       <c r="M411" s="12"/>
       <c r="N411" s="12"/>
-    </row>
-    <row r="412" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U411" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V411">
+        <f t="shared" si="15"/>
+        <v>-44.8</v>
+      </c>
+    </row>
+    <row r="412" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A412" s="19" t="s">
         <v>413</v>
       </c>
@@ -16676,8 +20046,16 @@
       <c r="L412" s="12"/>
       <c r="M412" s="12"/>
       <c r="N412" s="12"/>
-    </row>
-    <row r="413" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U412" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V412">
+        <f t="shared" si="15"/>
+        <v>-57.2</v>
+      </c>
+    </row>
+    <row r="413" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A413" s="19" t="s">
         <v>414</v>
       </c>
@@ -16704,8 +20082,16 @@
       <c r="L413" s="12"/>
       <c r="M413" s="12"/>
       <c r="N413" s="12"/>
-    </row>
-    <row r="414" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U413" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V413">
+        <f t="shared" si="15"/>
+        <v>-44.1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A414" s="19" t="s">
         <v>415</v>
       </c>
@@ -16730,8 +20116,16 @@
       <c r="L414" s="12"/>
       <c r="M414" s="12"/>
       <c r="N414" s="12"/>
-    </row>
-    <row r="415" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U414" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V414">
+        <f t="shared" si="15"/>
+        <v>-51.1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A415" s="19" t="s">
         <v>416</v>
       </c>
@@ -16758,8 +20152,16 @@
       <c r="L415" s="12"/>
       <c r="M415" s="12"/>
       <c r="N415" s="12"/>
-    </row>
-    <row r="416" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U415" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V415">
+        <f t="shared" si="15"/>
+        <v>-58.5</v>
+      </c>
+    </row>
+    <row r="416" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A416" s="19" t="s">
         <v>417</v>
       </c>
@@ -16784,8 +20186,16 @@
       <c r="L416" s="12"/>
       <c r="M416" s="12"/>
       <c r="N416" s="12"/>
-    </row>
-    <row r="417" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U416" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V416">
+        <f t="shared" si="15"/>
+        <v>-52.6</v>
+      </c>
+    </row>
+    <row r="417" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A417" s="19" t="s">
         <v>418</v>
       </c>
@@ -16812,8 +20222,16 @@
       <c r="L417" s="12"/>
       <c r="M417" s="12"/>
       <c r="N417" s="12"/>
-    </row>
-    <row r="418" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U417" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V417">
+        <f t="shared" si="15"/>
+        <v>-44.1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A418" s="22" t="s">
         <v>419</v>
       </c>
@@ -16840,8 +20258,16 @@
       <c r="N418" s="12" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="419" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U418" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V418">
+        <f t="shared" si="15"/>
+        <v>-47.7</v>
+      </c>
+    </row>
+    <row r="419" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A419" s="22" t="s">
         <v>420</v>
       </c>
@@ -16870,8 +20296,16 @@
       <c r="N419" s="12" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="420" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U419" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V419">
+        <f t="shared" si="15"/>
+        <v>-45.2</v>
+      </c>
+    </row>
+    <row r="420" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A420" s="22" t="s">
         <v>421</v>
       </c>
@@ -16898,8 +20332,16 @@
       <c r="N420" s="12" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="421" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U420" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V420">
+        <f t="shared" si="15"/>
+        <v>-57.7</v>
+      </c>
+    </row>
+    <row r="421" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A421" s="22" t="s">
         <v>422</v>
       </c>
@@ -16926,8 +20368,16 @@
       <c r="L421" s="12"/>
       <c r="M421" s="12"/>
       <c r="N421" s="12"/>
-    </row>
-    <row r="422" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U421" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V421">
+        <f t="shared" si="15"/>
+        <v>-46.8</v>
+      </c>
+    </row>
+    <row r="422" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A422" s="22" t="s">
         <v>423</v>
       </c>
@@ -16952,8 +20402,16 @@
       <c r="L422" s="12"/>
       <c r="M422" s="12"/>
       <c r="N422" s="12"/>
-    </row>
-    <row r="423" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U422" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V422">
+        <f t="shared" si="15"/>
+        <v>-39.9</v>
+      </c>
+    </row>
+    <row r="423" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A423" s="22" t="s">
         <v>424</v>
       </c>
@@ -16980,8 +20438,16 @@
       <c r="L423" s="12"/>
       <c r="M423" s="12"/>
       <c r="N423" s="12"/>
-    </row>
-    <row r="424" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U423" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V423">
+        <f t="shared" si="15"/>
+        <v>-54.1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A424" s="22" t="s">
         <v>425</v>
       </c>
@@ -17006,8 +20472,16 @@
       <c r="L424" s="12"/>
       <c r="M424" s="12"/>
       <c r="N424" s="12"/>
-    </row>
-    <row r="425" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U424" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V424">
+        <f t="shared" si="15"/>
+        <v>-45.2</v>
+      </c>
+    </row>
+    <row r="425" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A425" s="22" t="s">
         <v>426</v>
       </c>
@@ -17034,8 +20508,16 @@
       <c r="L425" s="12"/>
       <c r="M425" s="12"/>
       <c r="N425" s="12"/>
-    </row>
-    <row r="426" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U425" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V425">
+        <f t="shared" si="15"/>
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="426" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A426" s="22" t="s">
         <v>427</v>
       </c>
@@ -17060,8 +20542,16 @@
       <c r="L426" s="12"/>
       <c r="M426" s="12"/>
       <c r="N426" s="12"/>
-    </row>
-    <row r="427" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U426" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V426">
+        <f t="shared" si="15"/>
+        <v>-58.5</v>
+      </c>
+    </row>
+    <row r="427" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A427" s="22" t="s">
         <v>428</v>
       </c>
@@ -17088,8 +20578,16 @@
       <c r="L427" s="12"/>
       <c r="M427" s="12"/>
       <c r="N427" s="12"/>
-    </row>
-    <row r="428" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U427" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V427">
+        <f t="shared" si="15"/>
+        <v>-61.5</v>
+      </c>
+    </row>
+    <row r="428" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A428" s="22" t="s">
         <v>429</v>
       </c>
@@ -17114,8 +20612,16 @@
       <c r="L428" s="12"/>
       <c r="M428" s="12"/>
       <c r="N428" s="12"/>
-    </row>
-    <row r="429" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U428" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V428">
+        <f t="shared" si="15"/>
+        <v>-40.5</v>
+      </c>
+    </row>
+    <row r="429" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A429" s="22" t="s">
         <v>430</v>
       </c>
@@ -17142,8 +20648,16 @@
       <c r="L429" s="12"/>
       <c r="M429" s="12"/>
       <c r="N429" s="12"/>
-    </row>
-    <row r="430" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U429" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V429">
+        <f t="shared" si="15"/>
+        <v>-47.6</v>
+      </c>
+    </row>
+    <row r="430" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A430" s="22" t="s">
         <v>431</v>
       </c>
@@ -17168,8 +20682,16 @@
       <c r="L430" s="12"/>
       <c r="M430" s="12"/>
       <c r="N430" s="12"/>
-    </row>
-    <row r="431" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U430" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V430">
+        <f t="shared" si="15"/>
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="431" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A431" s="22" t="s">
         <v>432</v>
       </c>
@@ -17194,8 +20716,16 @@
       <c r="L431" s="12"/>
       <c r="M431" s="12"/>
       <c r="N431" s="12"/>
-    </row>
-    <row r="432" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U431" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V431">
+        <f t="shared" si="15"/>
+        <v>-48.4</v>
+      </c>
+    </row>
+    <row r="432" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A432" s="22" t="s">
         <v>433</v>
       </c>
@@ -17220,8 +20750,16 @@
       <c r="L432" s="29"/>
       <c r="M432" s="29"/>
       <c r="N432" s="29"/>
-    </row>
-    <row r="433" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U432" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V432">
+        <f t="shared" si="15"/>
+        <v>-42.9</v>
+      </c>
+    </row>
+    <row r="433" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A433" s="22" t="s">
         <v>434</v>
       </c>
@@ -17248,8 +20786,16 @@
       <c r="L433" s="12"/>
       <c r="M433" s="12"/>
       <c r="N433" s="12"/>
-    </row>
-    <row r="434" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U433" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V433">
+        <f t="shared" si="15"/>
+        <v>-48.9</v>
+      </c>
+    </row>
+    <row r="434" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A434" s="14" t="s">
         <v>435</v>
       </c>
@@ -17276,8 +20822,16 @@
       <c r="N434" s="12" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="435" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U434" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V434">
+        <f t="shared" si="15"/>
+        <v>-21.1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A435" s="14" t="s">
         <v>436</v>
       </c>
@@ -17306,8 +20860,16 @@
       <c r="N435" s="12" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="436" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U435" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V435">
+        <f t="shared" si="15"/>
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="436" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A436" s="14" t="s">
         <v>437</v>
       </c>
@@ -17334,8 +20896,16 @@
       <c r="N436" s="12" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="437" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U436" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V436">
+        <f t="shared" si="15"/>
+        <v>-33.6</v>
+      </c>
+    </row>
+    <row r="437" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A437" s="14" t="s">
         <v>438</v>
       </c>
@@ -17364,8 +20934,16 @@
       <c r="N437" s="12" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="438" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U437" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V437">
+        <f t="shared" si="15"/>
+        <v>-29.5</v>
+      </c>
+    </row>
+    <row r="438" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A438" s="14" t="s">
         <v>439</v>
       </c>
@@ -17390,8 +20968,16 @@
       <c r="L438" s="12"/>
       <c r="M438" s="12"/>
       <c r="N438" s="12"/>
-    </row>
-    <row r="439" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U438" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V438">
+        <f t="shared" si="15"/>
+        <v>-19.5</v>
+      </c>
+    </row>
+    <row r="439" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A439" s="14" t="s">
         <v>440</v>
       </c>
@@ -17416,8 +21002,16 @@
       <c r="L439" s="12"/>
       <c r="M439" s="12"/>
       <c r="N439" s="12"/>
-    </row>
-    <row r="440" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U439" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V439">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A440" s="14" t="s">
         <v>441</v>
       </c>
@@ -17442,8 +21036,16 @@
       <c r="L440" s="12"/>
       <c r="M440" s="12"/>
       <c r="N440" s="12"/>
-    </row>
-    <row r="441" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U440" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V440">
+        <f t="shared" si="15"/>
+        <v>-32.200000000000003</v>
+      </c>
+    </row>
+    <row r="441" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A441" s="14" t="s">
         <v>442</v>
       </c>
@@ -17462,8 +21064,16 @@
       <c r="L441" s="12"/>
       <c r="M441" s="12"/>
       <c r="N441" s="12"/>
-    </row>
-    <row r="442" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U441" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V441">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A442" s="14" t="s">
         <v>443</v>
       </c>
@@ -17488,8 +21098,16 @@
       <c r="L442" s="12"/>
       <c r="M442" s="12"/>
       <c r="N442" s="12"/>
-    </row>
-    <row r="443" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U442" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V442">
+        <f t="shared" si="15"/>
+        <v>-33.6</v>
+      </c>
+    </row>
+    <row r="443" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A443" s="14" t="s">
         <v>444</v>
       </c>
@@ -17518,8 +21136,16 @@
       <c r="L443" s="12"/>
       <c r="M443" s="12"/>
       <c r="N443" s="12"/>
-    </row>
-    <row r="444" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U443" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V443">
+        <f t="shared" si="15"/>
+        <v>-26.8</v>
+      </c>
+    </row>
+    <row r="444" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A444" s="14" t="s">
         <v>445</v>
       </c>
@@ -17544,8 +21170,16 @@
       <c r="L444" s="12"/>
       <c r="M444" s="12"/>
       <c r="N444" s="12"/>
-    </row>
-    <row r="445" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U444" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V444">
+        <f t="shared" si="15"/>
+        <v>-22.2</v>
+      </c>
+    </row>
+    <row r="445" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A445" s="14" t="s">
         <v>446</v>
       </c>
@@ -17572,8 +21206,16 @@
       <c r="L445" s="12"/>
       <c r="M445" s="12"/>
       <c r="N445" s="12"/>
-    </row>
-    <row r="446" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U445" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V445">
+        <f t="shared" si="15"/>
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="446" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A446" s="14" t="s">
         <v>447</v>
       </c>
@@ -17598,8 +21240,16 @@
       <c r="L446" s="12"/>
       <c r="M446" s="12"/>
       <c r="N446" s="12"/>
-    </row>
-    <row r="447" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U446" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V446">
+        <f t="shared" si="15"/>
+        <v>-27.6</v>
+      </c>
+    </row>
+    <row r="447" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A447" s="14" t="s">
         <v>448</v>
       </c>
@@ -17626,8 +21276,16 @@
       <c r="L447" s="12"/>
       <c r="M447" s="12"/>
       <c r="N447" s="12"/>
-    </row>
-    <row r="448" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U447" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V447">
+        <f t="shared" si="15"/>
+        <v>-24.7</v>
+      </c>
+    </row>
+    <row r="448" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A448" s="14" t="s">
         <v>449</v>
       </c>
@@ -17652,8 +21310,16 @@
       <c r="L448" s="12"/>
       <c r="M448" s="12"/>
       <c r="N448" s="12"/>
-    </row>
-    <row r="449" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U448" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V448">
+        <f t="shared" si="15"/>
+        <v>-33</v>
+      </c>
+    </row>
+    <row r="449" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A449" s="14" t="s">
         <v>450</v>
       </c>
@@ -17680,8 +21346,16 @@
       <c r="L449" s="12"/>
       <c r="M449" s="12"/>
       <c r="N449" s="12"/>
-    </row>
-    <row r="450" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U449" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V449">
+        <f t="shared" si="15"/>
+        <v>-24.2</v>
+      </c>
+    </row>
+    <row r="450" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A450" s="19" t="s">
         <v>451</v>
       </c>
@@ -17708,8 +21382,16 @@
       <c r="N450" s="12" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="451" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U450" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V450">
+        <f t="shared" si="15"/>
+        <v>-25.6</v>
+      </c>
+    </row>
+    <row r="451" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A451" s="19" t="s">
         <v>452</v>
       </c>
@@ -17738,8 +21420,16 @@
       <c r="N451" s="12" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="452" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U451" t="e">
+        <f t="shared" ref="U451:U481" si="16">AVERAGE(Q451:T451)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V451">
+        <f t="shared" ref="V451:V481" si="17">P451-D451</f>
+        <v>-27.9</v>
+      </c>
+    </row>
+    <row r="452" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A452" s="19" t="s">
         <v>453</v>
       </c>
@@ -17766,8 +21456,16 @@
       <c r="N452" s="12" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="453" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U452" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V452">
+        <f t="shared" si="17"/>
+        <v>-28.4</v>
+      </c>
+    </row>
+    <row r="453" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A453" s="19" t="s">
         <v>454</v>
       </c>
@@ -17794,8 +21492,16 @@
       <c r="L453" s="12"/>
       <c r="M453" s="12"/>
       <c r="N453" s="12"/>
-    </row>
-    <row r="454" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U453" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V453">
+        <f t="shared" si="17"/>
+        <v>-34.799999999999997</v>
+      </c>
+    </row>
+    <row r="454" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A454" s="19" t="s">
         <v>455</v>
       </c>
@@ -17820,8 +21526,16 @@
       <c r="L454" s="12"/>
       <c r="M454" s="12"/>
       <c r="N454" s="12"/>
-    </row>
-    <row r="455" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U454" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V454">
+        <f t="shared" si="17"/>
+        <v>-35.1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A455" s="19" t="s">
         <v>456</v>
       </c>
@@ -17848,8 +21562,16 @@
       <c r="L455" s="12"/>
       <c r="M455" s="12"/>
       <c r="N455" s="12"/>
-    </row>
-    <row r="456" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U455" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V455">
+        <f t="shared" si="17"/>
+        <v>-26.4</v>
+      </c>
+    </row>
+    <row r="456" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A456" s="19" t="s">
         <v>457</v>
       </c>
@@ -17874,8 +21596,16 @@
       <c r="L456" s="12"/>
       <c r="M456" s="12"/>
       <c r="N456" s="12"/>
-    </row>
-    <row r="457" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U456" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V456">
+        <f t="shared" si="17"/>
+        <v>-22.7</v>
+      </c>
+    </row>
+    <row r="457" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A457" s="19" t="s">
         <v>458</v>
       </c>
@@ -17902,8 +21632,16 @@
       <c r="L457" s="12"/>
       <c r="M457" s="12"/>
       <c r="N457" s="12"/>
-    </row>
-    <row r="458" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U457" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V457">
+        <f t="shared" si="17"/>
+        <v>-27</v>
+      </c>
+    </row>
+    <row r="458" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A458" s="19" t="s">
         <v>459</v>
       </c>
@@ -17928,8 +21666,16 @@
       <c r="L458" s="12"/>
       <c r="M458" s="12"/>
       <c r="N458" s="12"/>
-    </row>
-    <row r="459" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U458" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V458">
+        <f t="shared" si="17"/>
+        <v>-20.399999999999999</v>
+      </c>
+    </row>
+    <row r="459" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A459" s="19" t="s">
         <v>460</v>
       </c>
@@ -17956,8 +21702,16 @@
       <c r="L459" s="12"/>
       <c r="M459" s="12"/>
       <c r="N459" s="12"/>
-    </row>
-    <row r="460" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U459" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V459">
+        <f t="shared" si="17"/>
+        <v>-25.9</v>
+      </c>
+    </row>
+    <row r="460" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A460" s="19" t="s">
         <v>461</v>
       </c>
@@ -17982,8 +21736,16 @@
       <c r="L460" s="12"/>
       <c r="M460" s="12"/>
       <c r="N460" s="12"/>
-    </row>
-    <row r="461" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U460" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V460">
+        <f t="shared" si="17"/>
+        <v>-34.299999999999997</v>
+      </c>
+    </row>
+    <row r="461" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A461" s="19" t="s">
         <v>462</v>
       </c>
@@ -18010,8 +21772,16 @@
       <c r="L461" s="12"/>
       <c r="M461" s="12"/>
       <c r="N461" s="12"/>
-    </row>
-    <row r="462" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U461" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V461">
+        <f t="shared" si="17"/>
+        <v>-32.700000000000003</v>
+      </c>
+    </row>
+    <row r="462" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A462" s="19" t="s">
         <v>463</v>
       </c>
@@ -18036,8 +21806,16 @@
       <c r="L462" s="12"/>
       <c r="M462" s="12"/>
       <c r="N462" s="12"/>
-    </row>
-    <row r="463" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U462" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V462">
+        <f t="shared" si="17"/>
+        <v>-22.5</v>
+      </c>
+    </row>
+    <row r="463" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A463" s="19" t="s">
         <v>464</v>
       </c>
@@ -18064,8 +21842,16 @@
       <c r="L463" s="12"/>
       <c r="M463" s="12"/>
       <c r="N463" s="12"/>
-    </row>
-    <row r="464" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U463" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V463">
+        <f t="shared" si="17"/>
+        <v>-31.6</v>
+      </c>
+    </row>
+    <row r="464" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A464" s="19" t="s">
         <v>465</v>
       </c>
@@ -18090,8 +21876,16 @@
       <c r="L464" s="12"/>
       <c r="M464" s="12"/>
       <c r="N464" s="12"/>
-    </row>
-    <row r="465" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U464" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V464">
+        <f t="shared" si="17"/>
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="465" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A465" s="19" t="s">
         <v>466</v>
       </c>
@@ -18118,8 +21912,16 @@
       <c r="L465" s="12"/>
       <c r="M465" s="12"/>
       <c r="N465" s="12"/>
-    </row>
-    <row r="466" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U465" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V465">
+        <f t="shared" si="17"/>
+        <v>-30.7</v>
+      </c>
+    </row>
+    <row r="466" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A466" s="22" t="s">
         <v>467</v>
       </c>
@@ -18146,8 +21948,16 @@
       <c r="N466" s="12" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="467" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U466" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V466">
+        <f t="shared" si="17"/>
+        <v>-20.3</v>
+      </c>
+    </row>
+    <row r="467" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A467" s="22" t="s">
         <v>468</v>
       </c>
@@ -18176,8 +21986,16 @@
       <c r="N467" s="12" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="468" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U467" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V467">
+        <f t="shared" si="17"/>
+        <v>-23.6</v>
+      </c>
+    </row>
+    <row r="468" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A468" s="22" t="s">
         <v>469</v>
       </c>
@@ -18204,8 +22022,16 @@
       <c r="N468" s="12" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="469" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U468" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V468">
+        <f t="shared" si="17"/>
+        <v>-32.4</v>
+      </c>
+    </row>
+    <row r="469" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A469" s="22" t="s">
         <v>470</v>
       </c>
@@ -18232,8 +22058,16 @@
       <c r="L469" s="12"/>
       <c r="M469" s="12"/>
       <c r="N469" s="12"/>
-    </row>
-    <row r="470" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U469" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V469">
+        <f t="shared" si="17"/>
+        <v>-29.4</v>
+      </c>
+    </row>
+    <row r="470" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A470" s="22" t="s">
         <v>471</v>
       </c>
@@ -18258,8 +22092,16 @@
       <c r="L470" s="12"/>
       <c r="M470" s="12"/>
       <c r="N470" s="12"/>
-    </row>
-    <row r="471" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U470" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V470">
+        <f t="shared" si="17"/>
+        <v>-26.4</v>
+      </c>
+    </row>
+    <row r="471" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A471" s="22" t="s">
         <v>472</v>
       </c>
@@ -18286,8 +22128,16 @@
       <c r="L471" s="12"/>
       <c r="M471" s="12"/>
       <c r="N471" s="12"/>
-    </row>
-    <row r="472" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U471" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V471">
+        <f t="shared" si="17"/>
+        <v>-32.4</v>
+      </c>
+    </row>
+    <row r="472" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A472" s="22" t="s">
         <v>473</v>
       </c>
@@ -18312,8 +22162,16 @@
       <c r="L472" s="12"/>
       <c r="M472" s="12"/>
       <c r="N472" s="12"/>
-    </row>
-    <row r="473" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U472" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V472">
+        <f t="shared" si="17"/>
+        <v>-35.4</v>
+      </c>
+    </row>
+    <row r="473" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A473" s="22" t="s">
         <v>474</v>
       </c>
@@ -18340,8 +22198,16 @@
       <c r="L473" s="12"/>
       <c r="M473" s="12"/>
       <c r="N473" s="12"/>
-    </row>
-    <row r="474" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U473" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V473">
+        <f t="shared" si="17"/>
+        <v>-35.4</v>
+      </c>
+    </row>
+    <row r="474" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A474" s="22" t="s">
         <v>475</v>
       </c>
@@ -18366,8 +22232,16 @@
       <c r="L474" s="12"/>
       <c r="M474" s="12"/>
       <c r="N474" s="12"/>
-    </row>
-    <row r="475" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U474" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V474">
+        <f t="shared" si="17"/>
+        <v>-23</v>
+      </c>
+    </row>
+    <row r="475" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A475" s="22" t="s">
         <v>476</v>
       </c>
@@ -18394,8 +22268,16 @@
       <c r="L475" s="12"/>
       <c r="M475" s="12"/>
       <c r="N475" s="12"/>
-    </row>
-    <row r="476" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U475" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V475">
+        <f t="shared" si="17"/>
+        <v>-28.3</v>
+      </c>
+    </row>
+    <row r="476" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A476" s="22" t="s">
         <v>477</v>
       </c>
@@ -18420,8 +22302,16 @@
       <c r="L476" s="12"/>
       <c r="M476" s="12"/>
       <c r="N476" s="12"/>
-    </row>
-    <row r="477" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U476" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V476">
+        <f t="shared" si="17"/>
+        <v>-23.4</v>
+      </c>
+    </row>
+    <row r="477" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A477" s="22" t="s">
         <v>478</v>
       </c>
@@ -18448,8 +22338,16 @@
       <c r="L477" s="12"/>
       <c r="M477" s="12"/>
       <c r="N477" s="12"/>
-    </row>
-    <row r="478" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U477" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V477">
+        <f t="shared" si="17"/>
+        <v>-25.4</v>
+      </c>
+    </row>
+    <row r="478" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A478" s="22" t="s">
         <v>479</v>
       </c>
@@ -18474,8 +22372,16 @@
       <c r="L478" s="12"/>
       <c r="M478" s="12"/>
       <c r="N478" s="12"/>
-    </row>
-    <row r="479" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U478" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V478">
+        <f t="shared" si="17"/>
+        <v>-27.9</v>
+      </c>
+    </row>
+    <row r="479" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A479" s="22" t="s">
         <v>480</v>
       </c>
@@ -18502,8 +22408,16 @@
       <c r="L479" s="12"/>
       <c r="M479" s="12"/>
       <c r="N479" s="12"/>
-    </row>
-    <row r="480" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U479" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V479">
+        <f t="shared" si="17"/>
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="480" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A480" s="22" t="s">
         <v>481</v>
       </c>
@@ -18528,8 +22442,16 @@
       <c r="L480" s="12"/>
       <c r="M480" s="12"/>
       <c r="N480" s="12"/>
-    </row>
-    <row r="481" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="U480" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V480">
+        <f t="shared" si="17"/>
+        <v>-34.799999999999997</v>
+      </c>
+    </row>
+    <row r="481" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A481" s="22" t="s">
         <v>482</v>
       </c>
@@ -18558,6 +22480,14 @@
       <c r="L481" s="12"/>
       <c r="M481" s="12"/>
       <c r="N481" s="12"/>
+      <c r="U481" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V481">
+        <f t="shared" si="17"/>
+        <v>-29.1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/observation_datasheet.xlsx
+++ b/data/observation_datasheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catchamberlain/Documents/git/chillfreeze/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{59871612-34D9-D348-9248-ABA103DBC0A5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{648A27E5-A3FF-3240-A35A-42D85E7A9F66}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10060" yWindow="4860" windowWidth="21520" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2877,7 +2877,7 @@
   <dimension ref="A1:M481"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B205" sqref="B205"/>
+      <selection activeCell="A338" sqref="A338:XFD481"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2926,402 +2926,402 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>82</v>
       </c>
@@ -3331,87 +3331,87 @@
         <v>83</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
         <v>100</v>
       </c>
@@ -3419,12 +3419,12 @@
         <v>43517</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
         <v>102</v>
       </c>
@@ -3432,27 +3432,27 @@
         <v>43520</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
         <v>107</v>
       </c>
@@ -3460,7 +3460,7 @@
         <v>43520</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
         <v>108</v>
       </c>
@@ -3468,12 +3468,12 @@
         <v>43522</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
         <v>110</v>
       </c>
@@ -3481,7 +3481,7 @@
         <v>43522</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="6" t="s">
         <v>111</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>43517</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="6" t="s">
         <v>112</v>
       </c>
@@ -3497,7 +3497,7 @@
         <v>43520</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
         <v>113</v>
       </c>
@@ -3505,7 +3505,7 @@
         <v>43520</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="6" t="s">
         <v>114</v>
       </c>
@@ -3513,57 +3513,57 @@
         <v>43522</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="6" t="s">
         <v>125</v>
       </c>
@@ -3571,12 +3571,12 @@
         <v>43525</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="6" t="s">
         <v>127</v>
       </c>
@@ -3584,102 +3584,102 @@
         <v>43525</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="6" t="s">
         <v>147</v>
       </c>
@@ -3687,7 +3687,7 @@
         <v>43520</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="6" t="s">
         <v>148</v>
       </c>
@@ -3695,12 +3695,12 @@
         <v>43527</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="6" t="s">
         <v>150</v>
       </c>
@@ -3708,7 +3708,7 @@
         <v>43524</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="6" t="s">
         <v>151</v>
       </c>
@@ -3716,7 +3716,7 @@
         <v>43524</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="6" t="s">
         <v>152</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>43524</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="6" t="s">
         <v>153</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>43517</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="6" t="s">
         <v>154</v>
       </c>
@@ -3740,7 +3740,7 @@
         <v>43527</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="6" t="s">
         <v>155</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>43527</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="6" t="s">
         <v>156</v>
       </c>
@@ -3756,7 +3756,7 @@
         <v>43527</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="6" t="s">
         <v>157</v>
       </c>
@@ -3764,7 +3764,7 @@
         <v>43524</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="6" t="s">
         <v>158</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>43524</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="6" t="s">
         <v>159</v>
       </c>
@@ -3780,7 +3780,7 @@
         <v>43520</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="6" t="s">
         <v>160</v>
       </c>
@@ -3788,7 +3788,7 @@
         <v>43524</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="6" t="s">
         <v>161</v>
       </c>
@@ -3796,7 +3796,7 @@
         <v>43520</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="6" t="s">
         <v>162</v>
       </c>
@@ -3804,172 +3804,172 @@
         <v>43527</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="6" t="s">
         <v>196</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>43515</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="6" t="s">
         <v>197</v>
       </c>
@@ -3985,17 +3985,17 @@
         <v>43517</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="6" t="s">
         <v>200</v>
       </c>
@@ -4003,17 +4003,17 @@
         <v>43527</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="6" t="s">
         <v>203</v>
       </c>
@@ -4021,7 +4021,7 @@
         <v>43522</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="6" t="s">
         <v>204</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>43522</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="6" t="s">
         <v>205</v>
       </c>
@@ -4037,17 +4037,17 @@
         <v>43527</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="6" t="s">
         <v>208</v>
       </c>
@@ -4055,12 +4055,12 @@
         <v>43517</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="6" t="s">
         <v>210</v>
       </c>
@@ -4068,17 +4068,17 @@
         <v>43515</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="6" t="s">
         <v>213</v>
       </c>
@@ -4086,147 +4086,147 @@
         <v>43521</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>242</v>
       </c>
@@ -4711,72 +4711,72 @@
         <v>338</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" s="6" t="s">
         <v>352</v>
       </c>
@@ -4784,17 +4784,17 @@
         <v>43517</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" s="6" t="s">
         <v>355</v>
       </c>
@@ -4802,12 +4802,12 @@
         <v>43521</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" s="6" t="s">
         <v>357</v>
       </c>
@@ -4815,7 +4815,7 @@
         <v>43525</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" s="6" t="s">
         <v>358</v>
       </c>
@@ -4823,12 +4823,12 @@
         <v>43525</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" s="6" t="s">
         <v>360</v>
       </c>
@@ -4836,7 +4836,7 @@
         <v>43525</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" s="6" t="s">
         <v>361</v>
       </c>
@@ -4844,32 +4844,32 @@
         <v>43525</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" s="6" t="s">
         <v>367</v>
       </c>
@@ -4877,12 +4877,12 @@
         <v>43521</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" s="6" t="s">
         <v>369</v>
       </c>
@@ -4890,567 +4890,567 @@
         <v>43521</v>
       </c>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>482</v>
       </c>
@@ -5458,7 +5458,7 @@
   </sheetData>
   <printOptions headings="1" gridLines="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="67" fitToHeight="11" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup scale="62" fitToHeight="2" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5472,10 +5472,10 @@
   <dimension ref="A1:Z481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B248" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z100" sqref="Z100"/>
+      <selection pane="bottomRight" activeCell="R82" sqref="R82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8379,19 +8379,19 @@
       </c>
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A82" s="22" t="s">
+      <c r="A82" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="B82" s="23">
+      <c r="B82" s="26">
         <v>43532</v>
       </c>
-      <c r="C82" s="23"/>
-      <c r="D82" s="24"/>
-      <c r="E82" s="23">
+      <c r="C82" s="26"/>
+      <c r="D82" s="27"/>
+      <c r="E82" s="26">
         <v>43486</v>
       </c>
-      <c r="F82" s="9"/>
-      <c r="G82" s="12"/>
+      <c r="F82" s="26"/>
+      <c r="G82" s="28"/>
       <c r="H82" s="12"/>
       <c r="I82" s="12"/>
       <c r="J82" s="12"/>
@@ -12633,7 +12633,7 @@
       <c r="M196" s="12"/>
       <c r="N196" s="12"/>
       <c r="W196" t="e">
-        <f t="shared" ref="W195:W258" si="7">AVERAGE(Q196:T196)</f>
+        <f t="shared" ref="W196:W258" si="7">AVERAGE(Q196:T196)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="X196">

--- a/data/observation_datasheet.xlsx
+++ b/data/observation_datasheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catchamberlain/Documents/git/chillfreeze/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{648A27E5-A3FF-3240-A35A-42D85E7A9F66}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B1F07466-5EF9-2545-97D0-18B34B707B98}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10060" yWindow="4860" windowWidth="21520" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5472,10 +5472,10 @@
   <dimension ref="A1:Z481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B248" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G328" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R82" sqref="R82"/>
+      <selection pane="bottomRight" activeCell="X346" sqref="X346"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8967,7 +8967,7 @@
       </c>
       <c r="Z98">
         <f>AVERAGE(X98,X100,X102,X104,X106,X108,X110,X112)</f>
-        <v>-14.075000000000001</v>
+        <v>-9.5875000000000021</v>
       </c>
     </row>
     <row r="99" spans="1:26" x14ac:dyDescent="0.2">
@@ -8997,13 +8997,28 @@
       <c r="L99" s="12"/>
       <c r="M99" s="12"/>
       <c r="N99" s="12"/>
-      <c r="W99" t="e">
+      <c r="P99">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="Q99">
+        <v>21.9</v>
+      </c>
+      <c r="R99">
+        <v>25</v>
+      </c>
+      <c r="S99">
+        <v>24.5</v>
+      </c>
+      <c r="T99">
+        <v>23.9</v>
+      </c>
+      <c r="W99">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>23.825000000000003</v>
       </c>
       <c r="X99">
         <f t="shared" si="3"/>
-        <v>-33.9</v>
+        <v>2.8000000000000043</v>
       </c>
       <c r="Y99" t="e">
         <f>AVERAGE(W99,W101,W103,W105,W107,W109,W111,W113)</f>
@@ -9011,7 +9026,7 @@
       </c>
       <c r="Z99">
         <f>AVERAGE(X99,X101,X103,X105,X107,X109,X111,X113)</f>
-        <v>-30.324999999999999</v>
+        <v>-25.737500000000001</v>
       </c>
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.2">
@@ -9529,13 +9544,28 @@
       <c r="L110" s="12"/>
       <c r="M110" s="12"/>
       <c r="N110" s="12"/>
-      <c r="W110" t="e">
+      <c r="P110">
+        <v>35.9</v>
+      </c>
+      <c r="Q110">
+        <v>25.2</v>
+      </c>
+      <c r="R110">
+        <v>27.2</v>
+      </c>
+      <c r="S110">
+        <v>27.8</v>
+      </c>
+      <c r="T110">
+        <v>23</v>
+      </c>
+      <c r="W110">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>25.8</v>
       </c>
       <c r="X110">
         <f t="shared" si="3"/>
-        <v>-30.6</v>
+        <v>5.2999999999999972</v>
       </c>
     </row>
     <row r="111" spans="1:26" x14ac:dyDescent="0.2">
@@ -11019,13 +11049,28 @@
       <c r="L152" s="12"/>
       <c r="M152" s="12"/>
       <c r="N152" s="12"/>
-      <c r="W152" t="e">
+      <c r="P152">
+        <v>46.8</v>
+      </c>
+      <c r="Q152">
+        <v>29.1</v>
+      </c>
+      <c r="R152">
+        <v>26.8</v>
+      </c>
+      <c r="S152">
+        <v>29.4</v>
+      </c>
+      <c r="T152">
+        <v>25.9</v>
+      </c>
+      <c r="W152">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>27.800000000000004</v>
       </c>
       <c r="X152">
         <f t="shared" si="5"/>
-        <v>-39.4</v>
+        <v>7.3999999999999986</v>
       </c>
     </row>
     <row r="153" spans="1:24" x14ac:dyDescent="0.2">
@@ -12539,7 +12584,7 @@
       </c>
       <c r="Z194">
         <f>AVERAGE(X194,X196,X198,X200,X202,X204,X206,X208)</f>
-        <v>-23.4</v>
+        <v>-15.5625</v>
       </c>
     </row>
     <row r="195" spans="1:26" x14ac:dyDescent="0.2">
@@ -12604,7 +12649,7 @@
       </c>
       <c r="Z195">
         <f>AVERAGE(X195,X197,X199,X201,X203,X205,X207,X209)</f>
-        <v>-30.337500000000002</v>
+        <v>-22.375</v>
       </c>
     </row>
     <row r="196" spans="1:26" x14ac:dyDescent="0.2">
@@ -12632,13 +12677,28 @@
       <c r="L196" s="12"/>
       <c r="M196" s="12"/>
       <c r="N196" s="12"/>
-      <c r="W196" t="e">
+      <c r="P196">
+        <v>62.7</v>
+      </c>
+      <c r="Q196">
+        <v>32.5</v>
+      </c>
+      <c r="R196">
+        <v>31.4</v>
+      </c>
+      <c r="S196">
+        <v>31.9</v>
+      </c>
+      <c r="T196">
+        <v>32.5</v>
+      </c>
+      <c r="W196">
         <f t="shared" ref="W196:W258" si="7">AVERAGE(Q196:T196)</f>
-        <v>#DIV/0!</v>
+        <v>32.075000000000003</v>
       </c>
       <c r="X196">
         <f t="shared" si="6"/>
-        <v>-61.1</v>
+        <v>1.6000000000000014</v>
       </c>
     </row>
     <row r="197" spans="1:26" x14ac:dyDescent="0.2">
@@ -13104,13 +13164,28 @@
       <c r="L207" s="12"/>
       <c r="M207" s="12"/>
       <c r="N207" s="12"/>
-      <c r="W207" t="e">
+      <c r="P207">
+        <v>63.7</v>
+      </c>
+      <c r="Q207">
+        <v>39</v>
+      </c>
+      <c r="R207">
+        <v>34.9</v>
+      </c>
+      <c r="S207">
+        <v>36.6</v>
+      </c>
+      <c r="T207">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="W207">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="X207">
         <f t="shared" si="6"/>
-        <v>-60.8</v>
+        <v>2.9000000000000057</v>
       </c>
     </row>
     <row r="208" spans="1:26" x14ac:dyDescent="0.2">
@@ -17299,13 +17374,13 @@
         <f t="shared" si="12"/>
         <v>54.099999999999994</v>
       </c>
-      <c r="Y339" t="e">
+      <c r="Y339">
         <f>AVERAGE(W339,W341,W343,W345,W347,W349,W351,W353)</f>
-        <v>#DIV/0!</v>
+        <v>42.837499999999999</v>
       </c>
       <c r="Z339">
         <f>AVERAGE(X339,X341,X343,X345,X347,X349,X351,X353)</f>
-        <v>36.574999999999996</v>
+        <v>44.274999999999991</v>
       </c>
     </row>
     <row r="340" spans="1:26" x14ac:dyDescent="0.2">
@@ -18042,13 +18117,28 @@
         <v>45.275000000000006</v>
       </c>
       <c r="N351" s="12"/>
-      <c r="W351" t="e">
+      <c r="P351">
+        <v>61.6</v>
+      </c>
+      <c r="Q351">
+        <v>24.3</v>
+      </c>
+      <c r="R351">
+        <v>46</v>
+      </c>
+      <c r="S351">
+        <v>50.2</v>
+      </c>
+      <c r="T351">
+        <v>30.6</v>
+      </c>
+      <c r="W351">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>37.774999999999999</v>
       </c>
       <c r="X351">
         <f t="shared" si="12"/>
-        <v>-27.2</v>
+        <v>34.400000000000006</v>
       </c>
     </row>
     <row r="352" spans="1:26" x14ac:dyDescent="0.2">

--- a/data/observation_datasheet.xlsx
+++ b/data/observation_datasheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catchamberlain/Documents/git/chillfreeze/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B1F07466-5EF9-2545-97D0-18B34B707B98}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0DD04C49-8367-6F43-9030-B156844A8419}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10060" yWindow="4860" windowWidth="21520" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14360" yWindow="1560" windowWidth="21520" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="observation_datasheet" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="574">
   <si>
     <t>ID</t>
   </si>
@@ -1749,6 +1749,9 @@
   </si>
   <si>
     <t>tx_htdiff</t>
+  </si>
+  <si>
+    <t>*evidence of damage</t>
   </si>
 </sst>
 </file>
@@ -5472,10 +5475,10 @@
   <dimension ref="A1:Z481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G328" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F133" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X346" sqref="X346"/>
+      <selection pane="bottomRight" activeCell="T147" sqref="T147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8967,7 +8970,7 @@
       </c>
       <c r="Z98">
         <f>AVERAGE(X98,X100,X102,X104,X106,X108,X110,X112)</f>
-        <v>-9.5875000000000021</v>
+        <v>1.1749999999999989</v>
       </c>
     </row>
     <row r="99" spans="1:26" x14ac:dyDescent="0.2">
@@ -9026,7 +9029,7 @@
       </c>
       <c r="Z99">
         <f>AVERAGE(X99,X101,X103,X105,X107,X109,X111,X113)</f>
-        <v>-25.737500000000001</v>
+        <v>-0.19999999999999885</v>
       </c>
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.2">
@@ -9118,13 +9121,28 @@
       <c r="L101" s="12"/>
       <c r="M101" s="12"/>
       <c r="N101" s="12"/>
-      <c r="W101" t="e">
+      <c r="P101">
+        <v>37</v>
+      </c>
+      <c r="Q101">
+        <v>27.6</v>
+      </c>
+      <c r="R101">
+        <v>26.6</v>
+      </c>
+      <c r="S101">
+        <v>10.6</v>
+      </c>
+      <c r="T101">
+        <v>30.2</v>
+      </c>
+      <c r="W101">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>23.75</v>
       </c>
       <c r="X101">
         <f t="shared" si="3"/>
-        <v>-32.799999999999997</v>
+        <v>4.2000000000000028</v>
       </c>
     </row>
     <row r="102" spans="1:26" x14ac:dyDescent="0.2">
@@ -9376,13 +9394,28 @@
       <c r="L106" s="12"/>
       <c r="M106" s="12"/>
       <c r="N106" s="12"/>
-      <c r="W106" t="e">
+      <c r="P106">
+        <v>48.4</v>
+      </c>
+      <c r="Q106">
+        <v>27.5</v>
+      </c>
+      <c r="R106">
+        <v>28.8</v>
+      </c>
+      <c r="S106">
+        <v>21.8</v>
+      </c>
+      <c r="T106">
+        <v>31.4</v>
+      </c>
+      <c r="W106">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>27.375</v>
       </c>
       <c r="X106">
         <f t="shared" si="3"/>
-        <v>-41.4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107" spans="1:26" x14ac:dyDescent="0.2">
@@ -9412,13 +9445,28 @@
       <c r="L107" s="12"/>
       <c r="M107" s="12"/>
       <c r="N107" s="12"/>
-      <c r="W107" t="e">
+      <c r="P107">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="Q107">
+        <v>26.2</v>
+      </c>
+      <c r="R107">
+        <v>29.6</v>
+      </c>
+      <c r="S107">
+        <v>31.1</v>
+      </c>
+      <c r="T107">
+        <v>26.4</v>
+      </c>
+      <c r="W107">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>28.325000000000003</v>
       </c>
       <c r="X107">
         <f t="shared" si="3"/>
-        <v>-31.2</v>
+        <v>3.5000000000000036</v>
       </c>
     </row>
     <row r="108" spans="1:26" x14ac:dyDescent="0.2">
@@ -9510,13 +9558,28 @@
       <c r="L109" s="12"/>
       <c r="M109" s="12"/>
       <c r="N109" s="12"/>
-      <c r="W109" t="e">
+      <c r="P109">
+        <v>32.4</v>
+      </c>
+      <c r="Q109">
+        <v>25.7</v>
+      </c>
+      <c r="R109">
+        <v>28.6</v>
+      </c>
+      <c r="S109">
+        <v>23</v>
+      </c>
+      <c r="T109">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="W109">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>27.65</v>
       </c>
       <c r="X109">
         <f t="shared" si="3"/>
-        <v>-28.1</v>
+        <v>4.2999999999999972</v>
       </c>
     </row>
     <row r="110" spans="1:26" x14ac:dyDescent="0.2">
@@ -9595,13 +9658,28 @@
       <c r="L111" s="12"/>
       <c r="M111" s="12"/>
       <c r="N111" s="12"/>
-      <c r="W111" t="e">
+      <c r="P111">
+        <v>54.5</v>
+      </c>
+      <c r="Q111">
+        <v>25.7</v>
+      </c>
+      <c r="R111">
+        <v>26.7</v>
+      </c>
+      <c r="S111">
+        <v>31.3</v>
+      </c>
+      <c r="T111">
+        <v>24</v>
+      </c>
+      <c r="W111">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>26.925000000000001</v>
       </c>
       <c r="X111">
         <f t="shared" si="3"/>
-        <v>-43.9</v>
+        <v>10.600000000000001</v>
       </c>
     </row>
     <row r="112" spans="1:26" x14ac:dyDescent="0.2">
@@ -9629,13 +9707,28 @@
       <c r="L112" s="12"/>
       <c r="M112" s="12"/>
       <c r="N112" s="12"/>
-      <c r="W112" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="P112">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="Q112">
+        <v>27.3</v>
+      </c>
+      <c r="R112">
+        <v>19.3</v>
+      </c>
+      <c r="S112">
+        <v>21.8</v>
+      </c>
+      <c r="T112">
+        <v>25</v>
+      </c>
+      <c r="W112">
+        <f>AVERAGE(Q112:S112)</f>
+        <v>22.8</v>
       </c>
       <c r="X112">
-        <f t="shared" si="3"/>
-        <v>-33.200000000000003</v>
+        <f>P112-D112</f>
+        <v>4.5</v>
       </c>
     </row>
     <row r="113" spans="1:24" x14ac:dyDescent="0.2">
@@ -9667,13 +9760,28 @@
       <c r="L113" s="12"/>
       <c r="M113" s="12"/>
       <c r="N113" s="12"/>
-      <c r="W113" t="e">
+      <c r="P113">
+        <v>45.7</v>
+      </c>
+      <c r="Q113">
+        <v>22.2</v>
+      </c>
+      <c r="R113">
+        <v>28.9</v>
+      </c>
+      <c r="S113">
+        <v>21</v>
+      </c>
+      <c r="T113">
+        <v>15.7</v>
+      </c>
+      <c r="W113">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>21.95</v>
       </c>
       <c r="X113">
         <f t="shared" si="3"/>
-        <v>-39</v>
+        <v>6.7000000000000028</v>
       </c>
     </row>
     <row r="114" spans="1:24" x14ac:dyDescent="0.2">
@@ -10837,13 +10945,28 @@
       <c r="N146" s="12" t="s">
         <v>518</v>
       </c>
-      <c r="W146" t="e">
+      <c r="P146">
+        <v>61.7</v>
+      </c>
+      <c r="Q146">
+        <v>29.9</v>
+      </c>
+      <c r="R146">
+        <v>26.6</v>
+      </c>
+      <c r="S146">
+        <v>26.5</v>
+      </c>
+      <c r="T146">
+        <v>30.4</v>
+      </c>
+      <c r="W146">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>28.35</v>
       </c>
       <c r="X146">
         <f t="shared" si="5"/>
-        <v>-56.2</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="147" spans="1:24" x14ac:dyDescent="0.2">
@@ -10907,13 +11030,28 @@
       <c r="L148" s="12"/>
       <c r="M148" s="12"/>
       <c r="N148" s="12"/>
-      <c r="W148" t="e">
+      <c r="P148">
+        <v>62.6</v>
+      </c>
+      <c r="Q148">
+        <v>28</v>
+      </c>
+      <c r="R148">
+        <v>31</v>
+      </c>
+      <c r="S148">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="T148">
+        <v>40.6</v>
+      </c>
+      <c r="W148">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>33.225000000000001</v>
       </c>
       <c r="X148">
         <f t="shared" si="5"/>
-        <v>-60.5</v>
+        <v>2.1000000000000014</v>
       </c>
     </row>
     <row r="149" spans="1:24" x14ac:dyDescent="0.2">
@@ -11274,13 +11412,28 @@
       <c r="L158" s="12"/>
       <c r="M158" s="12"/>
       <c r="N158" s="12"/>
-      <c r="W158" t="e">
+      <c r="P158">
+        <v>58.3</v>
+      </c>
+      <c r="Q158">
+        <v>36.9</v>
+      </c>
+      <c r="R158">
+        <v>29.7</v>
+      </c>
+      <c r="S158">
+        <v>31.5</v>
+      </c>
+      <c r="T158">
+        <v>28.5</v>
+      </c>
+      <c r="W158">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>31.65</v>
       </c>
       <c r="X158">
         <f t="shared" si="5"/>
-        <v>-52.8</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="159" spans="1:24" x14ac:dyDescent="0.2">
@@ -11344,13 +11497,28 @@
       <c r="L160" s="12"/>
       <c r="M160" s="12"/>
       <c r="N160" s="12"/>
-      <c r="W160" t="e">
+      <c r="P160">
+        <v>63.2</v>
+      </c>
+      <c r="Q160">
+        <v>27.9</v>
+      </c>
+      <c r="R160">
+        <v>31.2</v>
+      </c>
+      <c r="S160">
+        <v>31.4</v>
+      </c>
+      <c r="T160">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="W160">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>31.3</v>
       </c>
       <c r="X160">
         <f t="shared" si="5"/>
-        <v>-51.7</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="161" spans="1:24" x14ac:dyDescent="0.2">
@@ -12584,7 +12752,7 @@
       </c>
       <c r="Z194">
         <f>AVERAGE(X194,X196,X198,X200,X202,X204,X206,X208)</f>
-        <v>-15.5625</v>
+        <v>-8.1750000000000007</v>
       </c>
     </row>
     <row r="195" spans="1:26" x14ac:dyDescent="0.2">
@@ -12649,7 +12817,7 @@
       </c>
       <c r="Z195">
         <f>AVERAGE(X195,X197,X199,X201,X203,X205,X207,X209)</f>
-        <v>-22.375</v>
+        <v>-16.337500000000002</v>
       </c>
     </row>
     <row r="196" spans="1:26" x14ac:dyDescent="0.2">
@@ -12930,13 +13098,28 @@
       <c r="L202" s="12"/>
       <c r="M202" s="12"/>
       <c r="N202" s="12"/>
-      <c r="W202" t="e">
+      <c r="P202">
+        <v>59.1</v>
+      </c>
+      <c r="Q202">
+        <v>27.4</v>
+      </c>
+      <c r="R202">
+        <v>28.2</v>
+      </c>
+      <c r="S202">
+        <v>28.5</v>
+      </c>
+      <c r="T202">
+        <v>32.1</v>
+      </c>
+      <c r="W202">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>29.049999999999997</v>
       </c>
       <c r="X202">
         <f t="shared" si="6"/>
-        <v>-54.1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="203" spans="1:26" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -12966,13 +13149,31 @@
       <c r="L203" s="12"/>
       <c r="M203" s="12"/>
       <c r="N203" s="12"/>
-      <c r="W203" t="e">
+      <c r="P203">
+        <v>48.3</v>
+      </c>
+      <c r="Q203">
+        <v>32.1</v>
+      </c>
+      <c r="R203">
+        <v>31.3</v>
+      </c>
+      <c r="S203">
+        <v>36.4</v>
+      </c>
+      <c r="T203">
+        <v>30.3</v>
+      </c>
+      <c r="U203" t="s">
+        <v>573</v>
+      </c>
+      <c r="W203">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>32.525000000000006</v>
       </c>
       <c r="X203">
         <f t="shared" si="6"/>
-        <v>-49.2</v>
+        <v>-0.90000000000000568</v>
       </c>
     </row>
     <row r="204" spans="1:26" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -13750,13 +13951,28 @@
       <c r="L222" s="12"/>
       <c r="M222" s="12"/>
       <c r="N222" s="12"/>
-      <c r="W222" t="e">
+      <c r="P222">
+        <v>56.8</v>
+      </c>
+      <c r="Q222">
+        <v>32.1</v>
+      </c>
+      <c r="R222">
+        <v>29.3</v>
+      </c>
+      <c r="S222">
+        <v>35.9</v>
+      </c>
+      <c r="T222">
+        <v>27.9</v>
+      </c>
+      <c r="W222">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>31.300000000000004</v>
       </c>
       <c r="X222">
         <f t="shared" si="6"/>
-        <v>-50.2</v>
+        <v>6.5999999999999943</v>
       </c>
     </row>
     <row r="223" spans="1:24" x14ac:dyDescent="0.2">
@@ -14716,8 +14932,12 @@
       <c r="B251" s="15">
         <v>43528</v>
       </c>
-      <c r="C251" s="15"/>
-      <c r="D251" s="16"/>
+      <c r="C251" s="15">
+        <v>43553</v>
+      </c>
+      <c r="D251" s="16">
+        <v>34.1</v>
+      </c>
       <c r="E251" s="15">
         <v>43458</v>
       </c>
@@ -14738,7 +14958,7 @@
       </c>
       <c r="X251">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-34.1</v>
       </c>
     </row>
     <row r="252" spans="1:24" x14ac:dyDescent="0.2">
@@ -14748,8 +14968,12 @@
       <c r="B252" s="15">
         <v>43539</v>
       </c>
-      <c r="C252" s="15"/>
-      <c r="D252" s="16"/>
+      <c r="C252" s="15">
+        <v>43553</v>
+      </c>
+      <c r="D252" s="16">
+        <v>27.7</v>
+      </c>
       <c r="E252" s="15">
         <v>43458</v>
       </c>
@@ -14768,7 +14992,7 @@
       </c>
       <c r="X252">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-27.7</v>
       </c>
     </row>
     <row r="253" spans="1:24" x14ac:dyDescent="0.2">
@@ -14806,8 +15030,12 @@
       <c r="B254" s="15">
         <v>43542</v>
       </c>
-      <c r="C254" s="15"/>
-      <c r="D254" s="16"/>
+      <c r="C254" s="15">
+        <v>43553</v>
+      </c>
+      <c r="D254" s="16">
+        <v>30.3</v>
+      </c>
       <c r="E254" s="15">
         <v>43458</v>
       </c>
@@ -14826,7 +15054,7 @@
       </c>
       <c r="X254">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-30.3</v>
       </c>
     </row>
     <row r="255" spans="1:24" x14ac:dyDescent="0.2">
@@ -14917,7 +15145,9 @@
       <c r="A258" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="B258" s="20"/>
+      <c r="B258" s="20">
+        <v>43553</v>
+      </c>
       <c r="C258" s="20"/>
       <c r="D258" s="21"/>
       <c r="E258" s="20">
@@ -14950,8 +15180,12 @@
       <c r="B259" s="20">
         <v>43536</v>
       </c>
-      <c r="C259" s="20"/>
-      <c r="D259" s="21"/>
+      <c r="C259" s="20">
+        <v>43551</v>
+      </c>
+      <c r="D259" s="21">
+        <v>35.9</v>
+      </c>
       <c r="E259" s="20">
         <v>43472</v>
       </c>
@@ -14972,7 +15206,7 @@
       </c>
       <c r="X259">
         <f t="shared" ref="X259:X322" si="10">P259-D259</f>
-        <v>0</v>
+        <v>-35.9</v>
       </c>
     </row>
     <row r="260" spans="1:24" x14ac:dyDescent="0.2">
@@ -16184,8 +16418,12 @@
       <c r="B301" s="15">
         <v>43507</v>
       </c>
-      <c r="C301" s="15"/>
-      <c r="D301" s="16"/>
+      <c r="C301" s="15">
+        <v>43553</v>
+      </c>
+      <c r="D301" s="16">
+        <v>25.4</v>
+      </c>
       <c r="E301" s="15">
         <v>43458</v>
       </c>
@@ -16206,7 +16444,7 @@
       </c>
       <c r="X301">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-25.4</v>
       </c>
     </row>
     <row r="302" spans="1:24" x14ac:dyDescent="0.2">
@@ -16244,8 +16482,12 @@
       <c r="B303" s="15">
         <v>43495</v>
       </c>
-      <c r="C303" s="15"/>
-      <c r="D303" s="16"/>
+      <c r="C303" s="15">
+        <v>43551</v>
+      </c>
+      <c r="D303" s="16">
+        <v>32.200000000000003</v>
+      </c>
       <c r="E303" s="15">
         <v>43458</v>
       </c>
@@ -16266,7 +16508,7 @@
       </c>
       <c r="X303">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-32.200000000000003</v>
       </c>
     </row>
     <row r="304" spans="1:24" x14ac:dyDescent="0.2">
@@ -18281,13 +18523,28 @@
       <c r="N354" s="12" t="s">
         <v>518</v>
       </c>
-      <c r="W354" t="e">
+      <c r="P354">
+        <v>87.2</v>
+      </c>
+      <c r="Q354">
+        <v>44</v>
+      </c>
+      <c r="R354">
+        <v>41.9</v>
+      </c>
+      <c r="S354">
+        <v>46.5</v>
+      </c>
+      <c r="T354">
+        <v>47.9</v>
+      </c>
+      <c r="W354">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>45.075000000000003</v>
       </c>
       <c r="X354">
         <f t="shared" si="12"/>
-        <v>-18.8</v>
+        <v>68.400000000000006</v>
       </c>
     </row>
     <row r="355" spans="1:24" x14ac:dyDescent="0.2">
@@ -18701,13 +18958,28 @@
       <c r="L366" s="12"/>
       <c r="M366" s="12"/>
       <c r="N366" s="12"/>
-      <c r="W366" t="e">
+      <c r="P366">
+        <v>88.7</v>
+      </c>
+      <c r="Q366">
+        <v>40.6</v>
+      </c>
+      <c r="R366">
+        <v>44.5</v>
+      </c>
+      <c r="S366">
+        <v>51</v>
+      </c>
+      <c r="T366">
+        <v>48.1</v>
+      </c>
+      <c r="W366">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>46.05</v>
       </c>
       <c r="X366">
         <f t="shared" si="12"/>
-        <v>-28.6</v>
+        <v>60.1</v>
       </c>
     </row>
     <row r="367" spans="1:24" x14ac:dyDescent="0.2">
@@ -18771,13 +19043,28 @@
       <c r="L368" s="12"/>
       <c r="M368" s="12"/>
       <c r="N368" s="12"/>
-      <c r="W368" t="e">
+      <c r="P368">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="Q368">
+        <v>46.4</v>
+      </c>
+      <c r="R368">
+        <v>31.4</v>
+      </c>
+      <c r="S368">
+        <v>47.1</v>
+      </c>
+      <c r="T368">
+        <v>44.7</v>
+      </c>
+      <c r="W368">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>42.400000000000006</v>
       </c>
       <c r="X368">
         <f t="shared" si="12"/>
-        <v>-25.4</v>
+        <v>47.500000000000007</v>
       </c>
     </row>
     <row r="369" spans="1:24" x14ac:dyDescent="0.2">

--- a/data/observation_datasheet.xlsx
+++ b/data/observation_datasheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catchamberlain/Documents/git/chillfreeze/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0DD04C49-8367-6F43-9030-B156844A8419}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{79E323BC-1A1F-6B42-9F21-5745E83AD3C4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14360" yWindow="1560" windowWidth="21520" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26900" yWindow="880" windowWidth="21520" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="observation_datasheet" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="575">
   <si>
     <t>ID</t>
   </si>
@@ -1752,6 +1752,9 @@
   </si>
   <si>
     <t>*evidence of damage</t>
+  </si>
+  <si>
+    <t>mg/cm2</t>
   </si>
 </sst>
 </file>
@@ -5472,13 +5475,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z481"/>
+  <dimension ref="A1:AA481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F133" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="P93" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T147" sqref="T147"/>
+      <selection pane="bottomRight" activeCell="AB106" sqref="AB106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5494,7 +5497,7 @@
     <col min="20" max="22" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>487</v>
       </c>
@@ -5564,8 +5567,11 @@
       <c r="Z1" s="50" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA1" s="50" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
@@ -5601,7 +5607,7 @@
         <v>-29.6</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>4</v>
       </c>
@@ -5639,7 +5645,7 @@
         <v>-22.6</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>5</v>
       </c>
@@ -5675,7 +5681,7 @@
         <v>-30.1</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>6</v>
       </c>
@@ -5711,7 +5717,7 @@
         <v>-22.2</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>7</v>
       </c>
@@ -5745,7 +5751,7 @@
         <v>-16.399999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>8</v>
       </c>
@@ -5781,7 +5787,7 @@
         <v>-22.1</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>9</v>
       </c>
@@ -5815,7 +5821,7 @@
         <v>-22.5</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>10</v>
       </c>
@@ -5851,7 +5857,7 @@
         <v>-31.1</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>11</v>
       </c>
@@ -5885,7 +5891,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>12</v>
       </c>
@@ -5923,7 +5929,7 @@
         <v>-25.2</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>13</v>
       </c>
@@ -5957,7 +5963,7 @@
         <v>-22.6</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>14</v>
       </c>
@@ -5993,7 +5999,7 @@
         <v>-27.6</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>15</v>
       </c>
@@ -6027,7 +6033,7 @@
         <v>-22.1</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>16</v>
       </c>
@@ -6063,7 +6069,7 @@
         <v>-33.299999999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>17</v>
       </c>
@@ -8893,7 +8899,7 @@
         <v>-33.1</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A97" s="22" t="s">
         <v>98</v>
       </c>
@@ -8929,7 +8935,7 @@
         <v>-23.4</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A98" s="14" t="s">
         <v>99</v>
       </c>
@@ -8973,7 +8979,7 @@
         <v>1.1749999999999989</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A99" s="14" t="s">
         <v>100</v>
       </c>
@@ -9031,8 +9037,11 @@
         <f>AVERAGE(X99,X101,X103,X105,X107,X109,X111,X113)</f>
         <v>-0.19999999999999885</v>
       </c>
-    </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA99">
+        <v>6.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A100" s="14" t="s">
         <v>101</v>
       </c>
@@ -9093,8 +9102,11 @@
         <f t="shared" si="3"/>
         <v>5.3000000000000043</v>
       </c>
-    </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA100">
+        <v>1.24E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A101" s="14" t="s">
         <v>102</v>
       </c>
@@ -9144,8 +9156,11 @@
         <f t="shared" si="3"/>
         <v>4.2000000000000028</v>
       </c>
-    </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA101">
+        <v>6.6E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A102" s="14" t="s">
         <v>103</v>
       </c>
@@ -9206,8 +9221,11 @@
         <f t="shared" si="3"/>
         <v>11.5</v>
       </c>
-    </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA102">
+        <v>1.2699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A103" s="14" t="s">
         <v>104</v>
       </c>
@@ -9243,7 +9261,7 @@
         <v>-39.4</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A104" s="14" t="s">
         <v>105</v>
       </c>
@@ -9304,8 +9322,11 @@
         <f t="shared" si="3"/>
         <v>9.7999999999999972</v>
       </c>
-    </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA104">
+        <v>1.38E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A105" s="14" t="s">
         <v>106</v>
       </c>
@@ -9368,8 +9389,11 @@
         <f t="shared" si="3"/>
         <v>5.6999999999999957</v>
       </c>
-    </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA105">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A106" s="14" t="s">
         <v>107</v>
       </c>
@@ -9417,8 +9441,11 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA106">
+        <v>1.01E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A107" s="14" t="s">
         <v>108</v>
       </c>
@@ -9468,8 +9495,11 @@
         <f t="shared" si="3"/>
         <v>3.5000000000000036</v>
       </c>
-    </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA107">
+        <v>1.11E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A108" s="14" t="s">
         <v>109</v>
       </c>
@@ -9530,8 +9560,11 @@
         <f t="shared" si="3"/>
         <v>6.1999999999999957</v>
       </c>
-    </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA108">
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A109" s="14" t="s">
         <v>110</v>
       </c>
@@ -9581,8 +9614,11 @@
         <f t="shared" si="3"/>
         <v>4.2999999999999972</v>
       </c>
-    </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA109">
+        <v>1.04E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A110" s="14" t="s">
         <v>111</v>
       </c>
@@ -9630,8 +9666,11 @@
         <f t="shared" si="3"/>
         <v>5.2999999999999972</v>
       </c>
-    </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA110">
+        <v>8.6E-3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A111" s="14" t="s">
         <v>112</v>
       </c>
@@ -9681,8 +9720,11 @@
         <f t="shared" si="3"/>
         <v>10.600000000000001</v>
       </c>
-    </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA111">
+        <v>9.7000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A112" s="14" t="s">
         <v>113</v>
       </c>
@@ -9730,8 +9772,11 @@
         <f>P112-D112</f>
         <v>4.5</v>
       </c>
-    </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="AA112">
+        <v>6.3E-3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A113" s="14" t="s">
         <v>114</v>
       </c>
@@ -9783,8 +9828,11 @@
         <f t="shared" si="3"/>
         <v>6.7000000000000028</v>
       </c>
-    </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="AA113">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A114" s="19" t="s">
         <v>115</v>
       </c>
@@ -9820,7 +9868,7 @@
         <v>-28.4</v>
       </c>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A115" s="19" t="s">
         <v>116</v>
       </c>
@@ -9856,7 +9904,7 @@
         <v>-26.2</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A116" s="19" t="s">
         <v>117</v>
       </c>
@@ -9890,7 +9938,7 @@
         <v>-36.4</v>
       </c>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A117" s="19" t="s">
         <v>118</v>
       </c>
@@ -9926,7 +9974,7 @@
         <v>-38.6</v>
       </c>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A118" s="19" t="s">
         <v>119</v>
       </c>
@@ -9960,7 +10008,7 @@
         <v>-45.2</v>
       </c>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A119" s="19" t="s">
         <v>120</v>
       </c>
@@ -9998,7 +10046,7 @@
         <v>-39</v>
       </c>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A120" s="19" t="s">
         <v>121</v>
       </c>
@@ -10032,7 +10080,7 @@
         <v>-27.8</v>
       </c>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A121" s="19" t="s">
         <v>122</v>
       </c>
@@ -10068,7 +10116,7 @@
         <v>-29.2</v>
       </c>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A122" s="19" t="s">
         <v>123</v>
       </c>
@@ -10102,7 +10150,7 @@
         <v>-45.8</v>
       </c>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A123" s="19" t="s">
         <v>124</v>
       </c>
@@ -10140,7 +10188,7 @@
         <v>-47.7</v>
       </c>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A124" s="19" t="s">
         <v>125</v>
       </c>
@@ -10165,16 +10213,34 @@
       <c r="L124" s="12"/>
       <c r="M124" s="12"/>
       <c r="N124" s="12"/>
-      <c r="W124" t="e">
+      <c r="P124">
+        <v>51.2</v>
+      </c>
+      <c r="Q124">
+        <v>22.6</v>
+      </c>
+      <c r="R124">
+        <v>27</v>
+      </c>
+      <c r="S124">
+        <v>35.6</v>
+      </c>
+      <c r="T124">
+        <v>28.5</v>
+      </c>
+      <c r="W124">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>28.425000000000001</v>
       </c>
       <c r="X124">
         <f t="shared" si="3"/>
-        <v>-35</v>
-      </c>
-    </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.2">
+        <v>16.200000000000003</v>
+      </c>
+      <c r="AA124">
+        <v>1.12E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A125" s="19" t="s">
         <v>126</v>
       </c>
@@ -10210,7 +10276,7 @@
         <v>-35</v>
       </c>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A126" s="19" t="s">
         <v>127</v>
       </c>
@@ -10235,16 +10301,34 @@
       <c r="L126" s="12"/>
       <c r="M126" s="12"/>
       <c r="N126" s="12"/>
-      <c r="W126" t="e">
+      <c r="P126">
+        <v>43.5</v>
+      </c>
+      <c r="Q126">
+        <v>39</v>
+      </c>
+      <c r="R126">
+        <v>45</v>
+      </c>
+      <c r="S126">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="T126">
+        <v>25.3</v>
+      </c>
+      <c r="W126">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>37.274999999999999</v>
       </c>
       <c r="X126">
         <f t="shared" si="3"/>
-        <v>-38.700000000000003</v>
-      </c>
-    </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.2">
+        <v>4.7999999999999972</v>
+      </c>
+      <c r="AA126">
+        <v>2.0799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A127" s="19" t="s">
         <v>128</v>
       </c>
@@ -10280,7 +10364,7 @@
         <v>-40.4</v>
       </c>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A128" s="19" t="s">
         <v>129</v>
       </c>
@@ -10882,7 +10966,7 @@
         <v>-25.8</v>
       </c>
     </row>
-    <row r="145" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A145" s="22" t="s">
         <v>146</v>
       </c>
@@ -10918,7 +11002,7 @@
         <v>-39.700000000000003</v>
       </c>
     </row>
-    <row r="146" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A146" s="14" t="s">
         <v>147</v>
       </c>
@@ -10968,8 +11052,11 @@
         <f t="shared" si="5"/>
         <v>5.5</v>
       </c>
-    </row>
-    <row r="147" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="AA146">
+        <v>1.11E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A147" s="14" t="s">
         <v>148</v>
       </c>
@@ -11005,7 +11092,7 @@
         <v>-56.4</v>
       </c>
     </row>
-    <row r="148" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A148" s="14" t="s">
         <v>149</v>
       </c>
@@ -11053,8 +11140,11 @@
         <f t="shared" si="5"/>
         <v>2.1000000000000014</v>
       </c>
-    </row>
-    <row r="149" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="AA148">
+        <v>1.6199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A149" s="14" t="s">
         <v>150</v>
       </c>
@@ -11083,16 +11173,34 @@
       <c r="L149" s="12"/>
       <c r="M149" s="12"/>
       <c r="N149" s="12"/>
-      <c r="W149" t="e">
+      <c r="P149">
+        <v>65.8</v>
+      </c>
+      <c r="Q149">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="R149">
+        <v>40</v>
+      </c>
+      <c r="S149">
+        <v>33.6</v>
+      </c>
+      <c r="T149">
+        <v>28.3</v>
+      </c>
+      <c r="W149">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>34.800000000000004</v>
       </c>
       <c r="X149">
         <f t="shared" si="5"/>
-        <v>-56.5</v>
-      </c>
-    </row>
-    <row r="150" spans="1:24" x14ac:dyDescent="0.2">
+        <v>9.2999999999999972</v>
+      </c>
+      <c r="AA149">
+        <v>1.7899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A150" s="14" t="s">
         <v>151</v>
       </c>
@@ -11117,16 +11225,34 @@
       <c r="L150" s="12"/>
       <c r="M150" s="12"/>
       <c r="N150" s="12"/>
-      <c r="W150" t="e">
+      <c r="P150">
+        <v>57.6</v>
+      </c>
+      <c r="Q150">
+        <v>29.1</v>
+      </c>
+      <c r="R150">
+        <v>31.3</v>
+      </c>
+      <c r="S150">
+        <v>29.2</v>
+      </c>
+      <c r="T150">
+        <v>31.9</v>
+      </c>
+      <c r="W150">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>30.375</v>
       </c>
       <c r="X150">
         <f t="shared" si="5"/>
-        <v>-53.8</v>
-      </c>
-    </row>
-    <row r="151" spans="1:24" x14ac:dyDescent="0.2">
+        <v>3.8000000000000043</v>
+      </c>
+      <c r="AA150">
+        <v>1.32E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A151" s="14" t="s">
         <v>152</v>
       </c>
@@ -11153,16 +11279,34 @@
       <c r="L151" s="12"/>
       <c r="M151" s="12"/>
       <c r="N151" s="12"/>
-      <c r="W151" t="e">
+      <c r="P151">
+        <v>54.3</v>
+      </c>
+      <c r="Q151">
+        <v>35.5</v>
+      </c>
+      <c r="R151">
+        <v>28.3</v>
+      </c>
+      <c r="S151">
+        <v>28</v>
+      </c>
+      <c r="T151">
+        <v>30.6</v>
+      </c>
+      <c r="W151">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>30.6</v>
       </c>
       <c r="X151">
         <f t="shared" si="5"/>
-        <v>-49.4</v>
-      </c>
-    </row>
-    <row r="152" spans="1:24" x14ac:dyDescent="0.2">
+        <v>4.8999999999999986</v>
+      </c>
+      <c r="AA151">
+        <v>1.34E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A152" s="14" t="s">
         <v>153</v>
       </c>
@@ -11210,8 +11354,11 @@
         <f t="shared" si="5"/>
         <v>7.3999999999999986</v>
       </c>
-    </row>
-    <row r="153" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="AA152">
+        <v>1.0500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A153" s="14" t="s">
         <v>154</v>
       </c>
@@ -11247,7 +11394,7 @@
         <v>-45.1</v>
       </c>
     </row>
-    <row r="154" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A154" s="14" t="s">
         <v>155</v>
       </c>
@@ -11281,7 +11428,7 @@
         <v>-46.2</v>
       </c>
     </row>
-    <row r="155" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A155" s="14" t="s">
         <v>156</v>
       </c>
@@ -11317,7 +11464,7 @@
         <v>-44.8</v>
       </c>
     </row>
-    <row r="156" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A156" s="14" t="s">
         <v>157</v>
       </c>
@@ -11342,16 +11489,34 @@
       <c r="L156" s="12"/>
       <c r="M156" s="12"/>
       <c r="N156" s="12"/>
-      <c r="W156" t="e">
+      <c r="P156">
+        <v>59.2</v>
+      </c>
+      <c r="Q156">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="R156">
+        <v>20.3</v>
+      </c>
+      <c r="S156">
+        <v>35.4</v>
+      </c>
+      <c r="T156">
+        <v>26.1</v>
+      </c>
+      <c r="W156">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>29.25</v>
       </c>
       <c r="X156">
         <f t="shared" si="5"/>
-        <v>-55.7</v>
-      </c>
-    </row>
-    <row r="157" spans="1:24" x14ac:dyDescent="0.2">
+        <v>3.5</v>
+      </c>
+      <c r="AA156">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A157" s="14" t="s">
         <v>158</v>
       </c>
@@ -11378,16 +11543,34 @@
       <c r="L157" s="12"/>
       <c r="M157" s="12"/>
       <c r="N157" s="12"/>
-      <c r="W157" t="e">
+      <c r="P157">
+        <v>45</v>
+      </c>
+      <c r="Q157">
+        <v>41.4</v>
+      </c>
+      <c r="R157">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="S157">
+        <v>51.4</v>
+      </c>
+      <c r="T157">
+        <v>38</v>
+      </c>
+      <c r="W157">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>42.625</v>
       </c>
       <c r="X157">
         <f t="shared" si="5"/>
-        <v>-37.1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:24" x14ac:dyDescent="0.2">
+        <v>7.8999999999999986</v>
+      </c>
+      <c r="AA157">
+        <v>2.7199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A158" s="14" t="s">
         <v>159</v>
       </c>
@@ -11435,8 +11618,11 @@
         <f t="shared" si="5"/>
         <v>5.5</v>
       </c>
-    </row>
-    <row r="159" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="AA158">
+        <v>1.4500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A159" s="14" t="s">
         <v>160</v>
       </c>
@@ -11463,16 +11649,34 @@
       <c r="L159" s="12"/>
       <c r="M159" s="12"/>
       <c r="N159" s="12"/>
-      <c r="W159" t="e">
+      <c r="P159">
+        <v>56.8</v>
+      </c>
+      <c r="Q159">
+        <v>39.4</v>
+      </c>
+      <c r="R159">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="S159">
+        <v>38.9</v>
+      </c>
+      <c r="T159">
+        <v>37</v>
+      </c>
+      <c r="W159">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>38.25</v>
       </c>
       <c r="X159">
         <f t="shared" si="5"/>
-        <v>-43.8</v>
-      </c>
-    </row>
-    <row r="160" spans="1:24" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="AA159">
+        <v>2.1899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A160" s="14" t="s">
         <v>161</v>
       </c>
@@ -11520,6 +11724,9 @@
         <f t="shared" si="5"/>
         <v>11.5</v>
       </c>
+      <c r="AA160">
+        <v>1.41E-2</v>
+      </c>
     </row>
     <row r="161" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A161" s="14" t="s">
@@ -12647,7 +12854,7 @@
         <v>-49</v>
       </c>
     </row>
-    <row r="193" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A193" s="22" t="s">
         <v>194</v>
       </c>
@@ -12683,7 +12890,7 @@
         <v>-46.5</v>
       </c>
     </row>
-    <row r="194" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A194" s="14" t="s">
         <v>195</v>
       </c>
@@ -12754,8 +12961,11 @@
         <f>AVERAGE(X194,X196,X198,X200,X202,X204,X206,X208)</f>
         <v>-8.1750000000000007</v>
       </c>
-    </row>
-    <row r="195" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA194">
+        <v>9.5999999999999992E-3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A195" s="14" t="s">
         <v>196</v>
       </c>
@@ -12819,8 +13029,11 @@
         <f>AVERAGE(X195,X197,X199,X201,X203,X205,X207,X209)</f>
         <v>-16.337500000000002</v>
       </c>
-    </row>
-    <row r="196" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA195">
+        <v>1.11E-2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A196" s="14" t="s">
         <v>197</v>
       </c>
@@ -12868,8 +13081,11 @@
         <f t="shared" si="6"/>
         <v>1.6000000000000014</v>
       </c>
-    </row>
-    <row r="197" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA196">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A197" s="14" t="s">
         <v>198</v>
       </c>
@@ -12905,7 +13121,7 @@
         <v>-31.8</v>
       </c>
     </row>
-    <row r="198" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A198" s="14" t="s">
         <v>199</v>
       </c>
@@ -12966,8 +13182,11 @@
         <f t="shared" si="6"/>
         <v>13.699999999999996</v>
       </c>
-    </row>
-    <row r="199" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA198">
+        <v>1.2800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A199" s="14" t="s">
         <v>200</v>
       </c>
@@ -13003,7 +13222,7 @@
         <v>-54.4</v>
       </c>
     </row>
-    <row r="200" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A200" s="14" t="s">
         <v>201</v>
       </c>
@@ -13037,7 +13256,7 @@
         <v>-51.6</v>
       </c>
     </row>
-    <row r="201" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A201" s="14" t="s">
         <v>202</v>
       </c>
@@ -13073,7 +13292,7 @@
         <v>-51.8</v>
       </c>
     </row>
-    <row r="202" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A202" s="14" t="s">
         <v>203</v>
       </c>
@@ -13121,8 +13340,11 @@
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="203" spans="1:26" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA202">
+        <v>1.18E-2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="14" t="s">
         <v>204</v>
       </c>
@@ -13175,8 +13397,11 @@
         <f t="shared" si="6"/>
         <v>-0.90000000000000568</v>
       </c>
-    </row>
-    <row r="204" spans="1:26" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA203">
+        <v>1.54E-2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:27" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="14" t="s">
         <v>205</v>
       </c>
@@ -13210,7 +13435,7 @@
         <v>-51.3</v>
       </c>
     </row>
-    <row r="205" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="14" t="s">
         <v>206</v>
       </c>
@@ -13273,8 +13498,11 @@
         <f t="shared" si="6"/>
         <v>3.1999999999999957</v>
       </c>
-    </row>
-    <row r="206" spans="1:26" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA205">
+        <v>1.2699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:27" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="14" t="s">
         <v>207</v>
       </c>
@@ -13335,8 +13563,11 @@
         <f t="shared" si="6"/>
         <v>6.7999999999999972</v>
       </c>
-    </row>
-    <row r="207" spans="1:26" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA206">
+        <v>4.3E-3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:27" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="14" t="s">
         <v>208</v>
       </c>
@@ -13388,8 +13619,11 @@
         <f t="shared" si="6"/>
         <v>2.9000000000000057</v>
       </c>
-    </row>
-    <row r="208" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA207">
+        <v>2.01E-2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A208" s="14" t="s">
         <v>209</v>
       </c>
@@ -13450,8 +13684,11 @@
         <f t="shared" si="6"/>
         <v>5.3000000000000043</v>
       </c>
-    </row>
-    <row r="209" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="AA208">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A209" s="14" t="s">
         <v>210</v>
       </c>
@@ -13501,8 +13738,11 @@
         <f t="shared" si="6"/>
         <v>2.6000000000000014</v>
       </c>
-    </row>
-    <row r="210" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="AA209">
+        <v>1.5800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A210" s="19" t="s">
         <v>211</v>
       </c>
@@ -13538,7 +13778,7 @@
         <v>-48.4</v>
       </c>
     </row>
-    <row r="211" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A211" s="19" t="s">
         <v>212</v>
       </c>
@@ -13574,7 +13814,7 @@
         <v>-39.5</v>
       </c>
     </row>
-    <row r="212" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A212" s="19" t="s">
         <v>213</v>
       </c>
@@ -13608,7 +13848,7 @@
         <v>-57.6</v>
       </c>
     </row>
-    <row r="213" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A213" s="19" t="s">
         <v>214</v>
       </c>
@@ -13646,7 +13886,7 @@
         <v>-53.8</v>
       </c>
     </row>
-    <row r="214" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A214" s="19" t="s">
         <v>215</v>
       </c>
@@ -13680,7 +13920,7 @@
         <v>-39.6</v>
       </c>
     </row>
-    <row r="215" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A215" s="19" t="s">
         <v>216</v>
       </c>
@@ -13716,7 +13956,7 @@
         <v>-39.1</v>
       </c>
     </row>
-    <row r="216" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A216" s="19" t="s">
         <v>217</v>
       </c>
@@ -13750,7 +13990,7 @@
         <v>-52</v>
       </c>
     </row>
-    <row r="217" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A217" s="19" t="s">
         <v>218</v>
       </c>
@@ -13786,7 +14026,7 @@
         <v>-48.2</v>
       </c>
     </row>
-    <row r="218" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A218" s="19" t="s">
         <v>219</v>
       </c>
@@ -13820,7 +14060,7 @@
         <v>-48.2</v>
       </c>
     </row>
-    <row r="219" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A219" s="19" t="s">
         <v>220</v>
       </c>
@@ -13856,7 +14096,7 @@
         <v>-51.2</v>
       </c>
     </row>
-    <row r="220" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A220" s="19" t="s">
         <v>221</v>
       </c>
@@ -13890,7 +14130,7 @@
         <v>-51.4</v>
       </c>
     </row>
-    <row r="221" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A221" s="19" t="s">
         <v>222</v>
       </c>
@@ -13926,7 +14166,7 @@
         <v>-43.6</v>
       </c>
     </row>
-    <row r="222" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A222" s="19" t="s">
         <v>223</v>
       </c>
@@ -13974,8 +14214,11 @@
         <f t="shared" si="6"/>
         <v>6.5999999999999943</v>
       </c>
-    </row>
-    <row r="223" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="AA222">
+        <v>1.41E-2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A223" s="19" t="s">
         <v>224</v>
       </c>
@@ -14011,7 +14254,7 @@
         <v>-50.2</v>
       </c>
     </row>
-    <row r="224" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A224" s="19" t="s">
         <v>225</v>
       </c>
@@ -14845,7 +15088,9 @@
       <c r="A248" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="B248" s="15"/>
+      <c r="B248" s="15">
+        <v>43556</v>
+      </c>
       <c r="C248" s="15"/>
       <c r="D248" s="16"/>
       <c r="E248" s="15">
@@ -17453,7 +17698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A337" s="22" t="s">
         <v>338</v>
       </c>
@@ -17481,7 +17726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A338" s="14" t="s">
         <v>339</v>
       </c>
@@ -17552,8 +17797,11 @@
         <f>AVERAGE(X338,X340,X342,X344,X346,X348,X350,X352)</f>
         <v>41.287499999999994</v>
       </c>
-    </row>
-    <row r="339" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA338">
+        <v>2.4199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A339" s="14" t="s">
         <v>340</v>
       </c>
@@ -17624,8 +17872,11 @@
         <f>AVERAGE(X339,X341,X343,X345,X347,X349,X351,X353)</f>
         <v>44.274999999999991</v>
       </c>
-    </row>
-    <row r="340" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA339">
+        <v>2.7300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A340" s="14" t="s">
         <v>341</v>
       </c>
@@ -17686,8 +17937,11 @@
         <f t="shared" si="12"/>
         <v>50.300000000000004</v>
       </c>
-    </row>
-    <row r="341" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA340">
+        <v>3.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A341" s="14" t="s">
         <v>342</v>
       </c>
@@ -17750,8 +18004,11 @@
         <f t="shared" si="12"/>
         <v>59</v>
       </c>
-    </row>
-    <row r="342" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA341">
+        <v>3.6200000000000003E-2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A342" s="14" t="s">
         <v>343</v>
       </c>
@@ -17812,8 +18069,11 @@
         <f t="shared" si="12"/>
         <v>38.100000000000009</v>
       </c>
-    </row>
-    <row r="343" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA342">
+        <v>2.46E-2</v>
+      </c>
+    </row>
+    <row r="343" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A343" s="14" t="s">
         <v>344</v>
       </c>
@@ -17876,8 +18136,11 @@
         <f t="shared" si="12"/>
         <v>58.099999999999994</v>
       </c>
-    </row>
-    <row r="344" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA343">
+        <v>2.3099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="344" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A344" s="14" t="s">
         <v>345</v>
       </c>
@@ -17938,8 +18201,11 @@
         <f t="shared" si="12"/>
         <v>44.7</v>
       </c>
-    </row>
-    <row r="345" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA344">
+        <v>2.9700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="345" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A345" s="14" t="s">
         <v>346</v>
       </c>
@@ -18002,8 +18268,11 @@
         <f t="shared" si="12"/>
         <v>38.700000000000003</v>
       </c>
-    </row>
-    <row r="346" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA345">
+        <v>3.04E-2</v>
+      </c>
+    </row>
+    <row r="346" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A346" s="14" t="s">
         <v>347</v>
       </c>
@@ -18064,8 +18333,11 @@
         <f t="shared" si="12"/>
         <v>43.699999999999996</v>
       </c>
-    </row>
-    <row r="347" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA346">
+        <v>2.9700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="347" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A347" s="14" t="s">
         <v>348</v>
       </c>
@@ -18128,8 +18400,11 @@
         <f t="shared" si="12"/>
         <v>41.4</v>
       </c>
-    </row>
-    <row r="348" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA347">
+        <v>2.4199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="348" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A348" s="14" t="s">
         <v>349</v>
       </c>
@@ -18190,8 +18465,11 @@
         <f t="shared" si="12"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="349" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA348">
+        <v>3.0700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A349" s="14" t="s">
         <v>350</v>
       </c>
@@ -18254,8 +18532,11 @@
         <f t="shared" si="12"/>
         <v>37.100000000000009</v>
       </c>
-    </row>
-    <row r="350" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA349">
+        <v>2.3800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="350" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A350" s="14" t="s">
         <v>351</v>
       </c>
@@ -18316,8 +18597,11 @@
         <f t="shared" si="12"/>
         <v>41.7</v>
       </c>
-    </row>
-    <row r="351" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA350">
+        <v>3.6499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="351" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A351" s="14" t="s">
         <v>352</v>
       </c>
@@ -18382,8 +18666,11 @@
         <f t="shared" si="12"/>
         <v>34.400000000000006</v>
       </c>
-    </row>
-    <row r="352" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA351">
+        <v>2.1399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="352" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A352" s="14" t="s">
         <v>353</v>
       </c>
@@ -18444,8 +18731,11 @@
         <f t="shared" si="12"/>
         <v>33.700000000000003</v>
       </c>
-    </row>
-    <row r="353" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="AA352">
+        <v>3.4700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="353" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A353" s="14" t="s">
         <v>354</v>
       </c>
@@ -18495,8 +18785,11 @@
         <f t="shared" si="12"/>
         <v>31.400000000000002</v>
       </c>
-    </row>
-    <row r="354" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="AA353">
+        <v>3.49E-2</v>
+      </c>
+    </row>
+    <row r="354" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A354" s="19" t="s">
         <v>355</v>
       </c>
@@ -18546,8 +18839,11 @@
         <f t="shared" si="12"/>
         <v>68.400000000000006</v>
       </c>
-    </row>
-    <row r="355" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="AA354">
+        <v>3.04E-2</v>
+      </c>
+    </row>
+    <row r="355" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A355" s="19" t="s">
         <v>356</v>
       </c>
@@ -18583,7 +18879,7 @@
         <v>-31.8</v>
       </c>
     </row>
-    <row r="356" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A356" s="19" t="s">
         <v>357</v>
       </c>
@@ -18608,16 +18904,34 @@
       <c r="L356" s="12"/>
       <c r="M356" s="12"/>
       <c r="N356" s="12"/>
-      <c r="W356" t="e">
+      <c r="P356">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="Q356">
+        <v>44.9</v>
+      </c>
+      <c r="R356">
+        <v>45.8</v>
+      </c>
+      <c r="S356">
+        <v>43.8</v>
+      </c>
+      <c r="T356">
+        <v>46.3</v>
+      </c>
+      <c r="W356">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>45.2</v>
       </c>
       <c r="X356">
         <f t="shared" si="12"/>
-        <v>-22.3</v>
-      </c>
-    </row>
-    <row r="357" spans="1:24" x14ac:dyDescent="0.2">
+        <v>57.100000000000009</v>
+      </c>
+      <c r="AA356">
+        <v>3.0499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A357" s="19" t="s">
         <v>358</v>
       </c>
@@ -18644,16 +18958,34 @@
       <c r="L357" s="12"/>
       <c r="M357" s="12"/>
       <c r="N357" s="12"/>
-      <c r="W357" t="e">
+      <c r="P357">
+        <v>84.9</v>
+      </c>
+      <c r="Q357">
+        <v>45.4</v>
+      </c>
+      <c r="R357">
+        <v>43.4</v>
+      </c>
+      <c r="S357">
+        <v>14</v>
+      </c>
+      <c r="T357">
+        <v>45.1</v>
+      </c>
+      <c r="W357">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>36.975000000000001</v>
       </c>
       <c r="X357">
         <f t="shared" si="12"/>
-        <v>-18.399999999999999</v>
-      </c>
-    </row>
-    <row r="358" spans="1:24" x14ac:dyDescent="0.2">
+        <v>66.5</v>
+      </c>
+      <c r="AA357">
+        <v>2.0400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A358" s="19" t="s">
         <v>359</v>
       </c>
@@ -18687,7 +19019,7 @@
         <v>-29.4</v>
       </c>
     </row>
-    <row r="359" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A359" s="19" t="s">
         <v>360</v>
       </c>
@@ -18714,16 +19046,34 @@
       <c r="L359" s="12"/>
       <c r="M359" s="12"/>
       <c r="N359" s="12"/>
-      <c r="W359" t="e">
+      <c r="P359">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="Q359">
+        <v>43.1</v>
+      </c>
+      <c r="R359">
+        <v>41.1</v>
+      </c>
+      <c r="S359">
+        <v>42.6</v>
+      </c>
+      <c r="T359">
+        <v>26.7</v>
+      </c>
+      <c r="W359">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>38.375</v>
       </c>
       <c r="X359">
         <f t="shared" si="12"/>
-        <v>-19.600000000000001</v>
-      </c>
-    </row>
-    <row r="360" spans="1:24" x14ac:dyDescent="0.2">
+        <v>55.499999999999993</v>
+      </c>
+      <c r="AA359">
+        <v>2.2100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="360" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A360" s="19" t="s">
         <v>361</v>
       </c>
@@ -18748,16 +19098,34 @@
       <c r="L360" s="12"/>
       <c r="M360" s="12"/>
       <c r="N360" s="12"/>
-      <c r="W360" t="e">
+      <c r="P360">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="Q360">
+        <v>44.5</v>
+      </c>
+      <c r="R360">
+        <v>38.1</v>
+      </c>
+      <c r="S360">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="T360">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="W360">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>40.625</v>
       </c>
       <c r="X360">
         <f t="shared" si="12"/>
-        <v>-22.2</v>
-      </c>
-    </row>
-    <row r="361" spans="1:24" x14ac:dyDescent="0.2">
+        <v>51.7</v>
+      </c>
+      <c r="AA360">
+        <v>2.4799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="361" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A361" s="19" t="s">
         <v>362</v>
       </c>
@@ -18793,7 +19161,7 @@
         <v>-25.8</v>
       </c>
     </row>
-    <row r="362" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A362" s="19" t="s">
         <v>363</v>
       </c>
@@ -18827,7 +19195,7 @@
         <v>-24.2</v>
       </c>
     </row>
-    <row r="363" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A363" s="19" t="s">
         <v>364</v>
       </c>
@@ -18863,7 +19231,7 @@
         <v>-20.399999999999999</v>
       </c>
     </row>
-    <row r="364" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A364" s="19" t="s">
         <v>365</v>
       </c>
@@ -18897,7 +19265,7 @@
         <v>-27.8</v>
       </c>
     </row>
-    <row r="365" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A365" s="19" t="s">
         <v>366</v>
       </c>
@@ -18933,7 +19301,7 @@
         <v>-29.6</v>
       </c>
     </row>
-    <row r="366" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A366" s="19" t="s">
         <v>367</v>
       </c>
@@ -18981,8 +19349,11 @@
         <f t="shared" si="12"/>
         <v>60.1</v>
       </c>
-    </row>
-    <row r="367" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="AA366">
+        <v>3.1600000000000003E-2</v>
+      </c>
+    </row>
+    <row r="367" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A367" s="19" t="s">
         <v>368</v>
       </c>
@@ -19018,7 +19389,7 @@
         <v>-25.6</v>
       </c>
     </row>
-    <row r="368" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A368" s="19" t="s">
         <v>369</v>
       </c>
@@ -19066,6 +19437,9 @@
         <f t="shared" si="12"/>
         <v>47.500000000000007</v>
       </c>
+      <c r="AA368">
+        <v>2.7E-2</v>
+      </c>
     </row>
     <row r="369" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A369" s="19" t="s">
@@ -19633,7 +20007,7 @@
         <v>-22.4</v>
       </c>
     </row>
-    <row r="385" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A385" s="25" t="s">
         <v>386</v>
       </c>
@@ -19660,8 +20034,9 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="386" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="AA385"/>
+    </row>
+    <row r="386" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A386" s="14" t="s">
         <v>387</v>
       </c>
@@ -19697,7 +20072,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="387" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A387" s="14" t="s">
         <v>388</v>
       </c>
@@ -19734,8 +20109,9 @@
         <f t="shared" ref="X387:X450" si="15">P387-D387</f>
         <v>-65.400000000000006</v>
       </c>
-    </row>
-    <row r="388" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="AA387" s="5"/>
+    </row>
+    <row r="388" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A388" s="25" t="s">
         <v>389</v>
       </c>
@@ -19767,7 +20143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A389" s="14" t="s">
         <v>390</v>
       </c>
@@ -19805,7 +20181,7 @@
         <v>-49.8</v>
       </c>
     </row>
-    <row r="390" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A390" s="14" t="s">
         <v>391</v>
       </c>
@@ -19841,7 +20217,7 @@
         <v>-48.8</v>
       </c>
     </row>
-    <row r="391" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A391" s="14" t="s">
         <v>392</v>
       </c>
@@ -19877,7 +20253,7 @@
         <v>-48.6</v>
       </c>
     </row>
-    <row r="392" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A392" s="14" t="s">
         <v>393</v>
       </c>
@@ -19911,7 +20287,7 @@
         <v>-54.6</v>
       </c>
     </row>
-    <row r="393" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A393" s="14" t="s">
         <v>394</v>
       </c>
@@ -19947,7 +20323,7 @@
         <v>-38.6</v>
       </c>
     </row>
-    <row r="394" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A394" s="14" t="s">
         <v>395</v>
       </c>
@@ -19981,7 +20357,7 @@
         <v>-44.8</v>
       </c>
     </row>
-    <row r="395" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A395" s="14" t="s">
         <v>396</v>
       </c>
@@ -20017,7 +20393,7 @@
         <v>-39.4</v>
       </c>
     </row>
-    <row r="396" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A396" s="14" t="s">
         <v>397</v>
       </c>
@@ -20051,7 +20427,7 @@
         <v>-40.4</v>
       </c>
     </row>
-    <row r="397" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A397" s="14" t="s">
         <v>398</v>
       </c>
@@ -20087,7 +20463,7 @@
         <v>-56.6</v>
       </c>
     </row>
-    <row r="398" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A398" s="14" t="s">
         <v>399</v>
       </c>
@@ -20121,7 +20497,7 @@
         <v>-55.4</v>
       </c>
     </row>
-    <row r="399" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A399" s="14" t="s">
         <v>400</v>
       </c>
@@ -20159,7 +20535,7 @@
         <v>-43.4</v>
       </c>
     </row>
-    <row r="400" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A400" s="14" t="s">
         <v>401</v>
       </c>
@@ -20761,7 +21137,7 @@
         <v>-52.6</v>
       </c>
     </row>
-    <row r="417" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A417" s="19" t="s">
         <v>418</v>
       </c>
@@ -20797,7 +21173,7 @@
         <v>-44.1</v>
       </c>
     </row>
-    <row r="418" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A418" s="22" t="s">
         <v>419</v>
       </c>
@@ -20833,7 +21209,7 @@
         <v>-47.7</v>
       </c>
     </row>
-    <row r="419" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A419" s="22" t="s">
         <v>420</v>
       </c>
@@ -20871,7 +21247,7 @@
         <v>-45.2</v>
       </c>
     </row>
-    <row r="420" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A420" s="22" t="s">
         <v>421</v>
       </c>
@@ -20907,7 +21283,7 @@
         <v>-57.7</v>
       </c>
     </row>
-    <row r="421" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A421" s="22" t="s">
         <v>422</v>
       </c>
@@ -20943,7 +21319,7 @@
         <v>-46.8</v>
       </c>
     </row>
-    <row r="422" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A422" s="22" t="s">
         <v>423</v>
       </c>
@@ -20977,7 +21353,7 @@
         <v>-39.9</v>
       </c>
     </row>
-    <row r="423" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A423" s="22" t="s">
         <v>424</v>
       </c>
@@ -21013,7 +21389,7 @@
         <v>-54.1</v>
       </c>
     </row>
-    <row r="424" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A424" s="22" t="s">
         <v>425</v>
       </c>
@@ -21047,7 +21423,7 @@
         <v>-45.2</v>
       </c>
     </row>
-    <row r="425" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A425" s="22" t="s">
         <v>426</v>
       </c>
@@ -21083,7 +21459,7 @@
         <v>-49</v>
       </c>
     </row>
-    <row r="426" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A426" s="22" t="s">
         <v>427</v>
       </c>
@@ -21117,7 +21493,7 @@
         <v>-58.5</v>
       </c>
     </row>
-    <row r="427" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A427" s="22" t="s">
         <v>428</v>
       </c>
@@ -21153,7 +21529,7 @@
         <v>-61.5</v>
       </c>
     </row>
-    <row r="428" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A428" s="22" t="s">
         <v>429</v>
       </c>
@@ -21187,7 +21563,7 @@
         <v>-40.5</v>
       </c>
     </row>
-    <row r="429" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A429" s="22" t="s">
         <v>430</v>
       </c>
@@ -21223,7 +21599,7 @@
         <v>-47.6</v>
       </c>
     </row>
-    <row r="430" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A430" s="22" t="s">
         <v>431</v>
       </c>
@@ -21257,7 +21633,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="431" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A431" s="22" t="s">
         <v>432</v>
       </c>
@@ -21291,7 +21667,7 @@
         <v>-48.4</v>
       </c>
     </row>
-    <row r="432" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A432" s="22" t="s">
         <v>433</v>
       </c>
@@ -21324,8 +21700,9 @@
         <f t="shared" si="15"/>
         <v>-42.9</v>
       </c>
-    </row>
-    <row r="433" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="AA432"/>
+    </row>
+    <row r="433" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A433" s="22" t="s">
         <v>434</v>
       </c>
@@ -21361,7 +21738,7 @@
         <v>-48.9</v>
       </c>
     </row>
-    <row r="434" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A434" s="14" t="s">
         <v>435</v>
       </c>
@@ -21396,8 +21773,9 @@
         <f t="shared" si="15"/>
         <v>-21.1</v>
       </c>
-    </row>
-    <row r="435" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="AA434" s="5"/>
+    </row>
+    <row r="435" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A435" s="14" t="s">
         <v>436</v>
       </c>
@@ -21435,7 +21813,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="436" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A436" s="14" t="s">
         <v>437</v>
       </c>
@@ -21471,7 +21849,7 @@
         <v>-33.6</v>
       </c>
     </row>
-    <row r="437" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A437" s="14" t="s">
         <v>438</v>
       </c>
@@ -21509,7 +21887,7 @@
         <v>-29.5</v>
       </c>
     </row>
-    <row r="438" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A438" s="14" t="s">
         <v>439</v>
       </c>
@@ -21543,7 +21921,7 @@
         <v>-19.5</v>
       </c>
     </row>
-    <row r="439" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A439" s="14" t="s">
         <v>440</v>
       </c>
@@ -21577,7 +21955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A440" s="14" t="s">
         <v>441</v>
       </c>
@@ -21611,7 +21989,7 @@
         <v>-32.200000000000003</v>
       </c>
     </row>
-    <row r="441" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A441" s="25" t="s">
         <v>442</v>
       </c>
@@ -21639,7 +22017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A442" s="14" t="s">
         <v>443</v>
       </c>
@@ -21673,7 +22051,7 @@
         <v>-33.6</v>
       </c>
     </row>
-    <row r="443" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A443" s="14" t="s">
         <v>444</v>
       </c>
@@ -21711,7 +22089,7 @@
         <v>-26.8</v>
       </c>
     </row>
-    <row r="444" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A444" s="14" t="s">
         <v>445</v>
       </c>
@@ -21745,7 +22123,7 @@
         <v>-22.2</v>
       </c>
     </row>
-    <row r="445" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A445" s="14" t="s">
         <v>446</v>
       </c>
@@ -21781,7 +22159,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="446" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A446" s="14" t="s">
         <v>447</v>
       </c>
@@ -21815,7 +22193,7 @@
         <v>-27.6</v>
       </c>
     </row>
-    <row r="447" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A447" s="14" t="s">
         <v>448</v>
       </c>
@@ -21851,7 +22229,7 @@
         <v>-24.7</v>
       </c>
     </row>
-    <row r="448" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A448" s="14" t="s">
         <v>449</v>
       </c>

--- a/data/observation_datasheet.xlsx
+++ b/data/observation_datasheet.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28125"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catchamberlain/Documents/git/chillfreeze/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{79E323BC-1A1F-6B42-9F21-5745E83AD3C4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26900" yWindow="880" windowWidth="21520" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="observation_datasheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Feb19 Breakdown'!$A$1:$J$61</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1760,7 +1754,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2869,15 +2863,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Atlas" id="{5156B0E4-0EB1-49FE-A26B-15F6F698AEC6}" vid="{508F7963-D0B5-43F7-BB2C-FCE3009C08EC}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Atlas" id="{5156B0E4-0EB1-49FE-A26B-15F6F698AEC6}" vid="{508F7963-D0B5-43F7-BB2C-FCE3009C08EC}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M481"/>
@@ -2886,12 +2880,12 @@
       <selection activeCell="A338" sqref="A338:XFD481"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2932,492 +2926,492 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" hidden="1">
       <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" hidden="1">
       <c r="A3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" hidden="1">
       <c r="A4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" hidden="1">
       <c r="A5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" hidden="1">
       <c r="A6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" hidden="1">
       <c r="A7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" hidden="1">
       <c r="A8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" hidden="1">
       <c r="A9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" hidden="1">
       <c r="A10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" hidden="1">
       <c r="A11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" hidden="1">
       <c r="A12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" hidden="1">
       <c r="A13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" hidden="1">
       <c r="A14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" hidden="1">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" hidden="1">
       <c r="A16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" hidden="1">
       <c r="A17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" hidden="1">
       <c r="A18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" hidden="1">
       <c r="A19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" hidden="1">
       <c r="A20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" hidden="1">
       <c r="A21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" hidden="1">
       <c r="A22" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" hidden="1">
       <c r="A23" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" hidden="1">
       <c r="A24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" hidden="1">
       <c r="A25" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" hidden="1">
       <c r="A26" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" hidden="1">
       <c r="A27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" hidden="1">
       <c r="A28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" hidden="1">
       <c r="A29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" hidden="1">
       <c r="A30" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" hidden="1">
       <c r="A31" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" hidden="1">
       <c r="A32" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" hidden="1">
       <c r="A33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" hidden="1">
       <c r="A34" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" hidden="1">
       <c r="A35" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" hidden="1">
       <c r="A36" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" hidden="1">
       <c r="A37" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" hidden="1">
       <c r="A38" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" hidden="1">
       <c r="A39" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" hidden="1">
       <c r="A40" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" hidden="1">
       <c r="A41" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" hidden="1">
       <c r="A42" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" hidden="1">
       <c r="A43" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" hidden="1">
       <c r="A44" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" hidden="1">
       <c r="A45" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1" hidden="1">
       <c r="A46" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1" hidden="1">
       <c r="A47" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1" hidden="1">
       <c r="A48" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" hidden="1">
       <c r="A49" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" hidden="1">
       <c r="A50" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" hidden="1">
       <c r="A51" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" hidden="1">
       <c r="A52" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" hidden="1">
       <c r="A53" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" hidden="1">
       <c r="A54" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" hidden="1">
       <c r="A55" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" hidden="1">
       <c r="A56" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" hidden="1">
       <c r="A57" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" hidden="1">
       <c r="A58" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" hidden="1">
       <c r="A59" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1" hidden="1">
       <c r="A60" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="61" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1" hidden="1">
       <c r="A61" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="62" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1" hidden="1">
       <c r="A62" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1" hidden="1">
       <c r="A63" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1" hidden="1">
       <c r="A64" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" hidden="1">
       <c r="A65" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" hidden="1">
       <c r="A66" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1" hidden="1">
       <c r="A67" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" hidden="1">
       <c r="A68" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="69" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1" hidden="1">
       <c r="A69" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1" hidden="1">
       <c r="A70" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1" hidden="1">
       <c r="A71" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="72" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1" hidden="1">
       <c r="A72" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="73" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1" hidden="1">
       <c r="A73" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1" hidden="1">
       <c r="A74" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1" hidden="1">
       <c r="A75" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="76" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1" hidden="1">
       <c r="A76" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="77" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1" hidden="1">
       <c r="A77" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1" hidden="1">
       <c r="A78" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="79" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1" hidden="1">
       <c r="A79" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1" hidden="1">
       <c r="A80" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="81" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1" hidden="1">
       <c r="A81" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1">
       <c r="A82" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1" hidden="1">
       <c r="A83" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1" hidden="1">
       <c r="A84" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1" hidden="1">
       <c r="A85" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1" hidden="1">
       <c r="A86" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1" hidden="1">
       <c r="A87" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1" hidden="1">
       <c r="A88" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1" hidden="1">
       <c r="A89" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1" hidden="1">
       <c r="A90" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1" hidden="1">
       <c r="A91" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1" hidden="1">
       <c r="A92" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1" hidden="1">
       <c r="A93" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1" hidden="1">
       <c r="A94" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1" hidden="1">
       <c r="A95" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="96" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1" hidden="1">
       <c r="A96" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" hidden="1">
       <c r="A97" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="98" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" hidden="1">
       <c r="A98" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="99" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" hidden="1">
       <c r="A99" s="6" t="s">
         <v>100</v>
       </c>
@@ -3425,12 +3419,12 @@
         <v>43517</v>
       </c>
     </row>
-    <row r="100" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" hidden="1">
       <c r="A100" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="101" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" hidden="1">
       <c r="A101" s="6" t="s">
         <v>102</v>
       </c>
@@ -3438,27 +3432,27 @@
         <v>43520</v>
       </c>
     </row>
-    <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" hidden="1">
       <c r="A102" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="103" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" hidden="1">
       <c r="A103" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="104" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" hidden="1">
       <c r="A104" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="105" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" hidden="1">
       <c r="A105" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="106" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" hidden="1">
       <c r="A106" s="6" t="s">
         <v>107</v>
       </c>
@@ -3466,7 +3460,7 @@
         <v>43520</v>
       </c>
     </row>
-    <row r="107" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" hidden="1">
       <c r="A107" s="6" t="s">
         <v>108</v>
       </c>
@@ -3474,12 +3468,12 @@
         <v>43522</v>
       </c>
     </row>
-    <row r="108" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" hidden="1">
       <c r="A108" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="109" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" hidden="1">
       <c r="A109" s="6" t="s">
         <v>110</v>
       </c>
@@ -3487,7 +3481,7 @@
         <v>43522</v>
       </c>
     </row>
-    <row r="110" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" hidden="1">
       <c r="A110" s="6" t="s">
         <v>111</v>
       </c>
@@ -3495,7 +3489,7 @@
         <v>43517</v>
       </c>
     </row>
-    <row r="111" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" hidden="1">
       <c r="A111" s="6" t="s">
         <v>112</v>
       </c>
@@ -3503,7 +3497,7 @@
         <v>43520</v>
       </c>
     </row>
-    <row r="112" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" hidden="1">
       <c r="A112" s="6" t="s">
         <v>113</v>
       </c>
@@ -3511,7 +3505,7 @@
         <v>43520</v>
       </c>
     </row>
-    <row r="113" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" hidden="1">
       <c r="A113" s="6" t="s">
         <v>114</v>
       </c>
@@ -3519,57 +3513,57 @@
         <v>43522</v>
       </c>
     </row>
-    <row r="114" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" hidden="1">
       <c r="A114" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="115" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" hidden="1">
       <c r="A115" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="116" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" hidden="1">
       <c r="A116" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="117" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" hidden="1">
       <c r="A117" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="118" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" hidden="1">
       <c r="A118" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="119" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" hidden="1">
       <c r="A119" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="120" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" hidden="1">
       <c r="A120" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="121" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" hidden="1">
       <c r="A121" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="122" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" hidden="1">
       <c r="A122" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="123" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" hidden="1">
       <c r="A123" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="124" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" hidden="1">
       <c r="A124" s="6" t="s">
         <v>125</v>
       </c>
@@ -3577,12 +3571,12 @@
         <v>43525</v>
       </c>
     </row>
-    <row r="125" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" hidden="1">
       <c r="A125" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="126" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" hidden="1">
       <c r="A126" s="6" t="s">
         <v>127</v>
       </c>
@@ -3590,102 +3584,102 @@
         <v>43525</v>
       </c>
     </row>
-    <row r="127" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" hidden="1">
       <c r="A127" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="128" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" hidden="1">
       <c r="A128" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="129" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:1" hidden="1">
       <c r="A129" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="130" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:1" hidden="1">
       <c r="A130" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="131" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:1" hidden="1">
       <c r="A131" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="132" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:1" hidden="1">
       <c r="A132" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="133" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:1" hidden="1">
       <c r="A133" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="134" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:1" hidden="1">
       <c r="A134" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="135" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:1" hidden="1">
       <c r="A135" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="136" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:1" hidden="1">
       <c r="A136" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="137" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:1" hidden="1">
       <c r="A137" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="138" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:1" hidden="1">
       <c r="A138" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="139" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:1" hidden="1">
       <c r="A139" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="140" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:1" hidden="1">
       <c r="A140" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="141" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:1" hidden="1">
       <c r="A141" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="142" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:1" hidden="1">
       <c r="A142" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="143" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:1" hidden="1">
       <c r="A143" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="144" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:1" hidden="1">
       <c r="A144" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="145" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" hidden="1">
       <c r="A145" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="146" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" hidden="1">
       <c r="A146" s="6" t="s">
         <v>147</v>
       </c>
@@ -3693,7 +3687,7 @@
         <v>43520</v>
       </c>
     </row>
-    <row r="147" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" hidden="1">
       <c r="A147" s="6" t="s">
         <v>148</v>
       </c>
@@ -3701,12 +3695,12 @@
         <v>43527</v>
       </c>
     </row>
-    <row r="148" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" hidden="1">
       <c r="A148" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="149" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" hidden="1">
       <c r="A149" s="6" t="s">
         <v>150</v>
       </c>
@@ -3714,7 +3708,7 @@
         <v>43524</v>
       </c>
     </row>
-    <row r="150" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" hidden="1">
       <c r="A150" s="6" t="s">
         <v>151</v>
       </c>
@@ -3722,7 +3716,7 @@
         <v>43524</v>
       </c>
     </row>
-    <row r="151" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" hidden="1">
       <c r="A151" s="6" t="s">
         <v>152</v>
       </c>
@@ -3730,7 +3724,7 @@
         <v>43524</v>
       </c>
     </row>
-    <row r="152" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" hidden="1">
       <c r="A152" s="6" t="s">
         <v>153</v>
       </c>
@@ -3738,7 +3732,7 @@
         <v>43517</v>
       </c>
     </row>
-    <row r="153" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" hidden="1">
       <c r="A153" s="6" t="s">
         <v>154</v>
       </c>
@@ -3746,7 +3740,7 @@
         <v>43527</v>
       </c>
     </row>
-    <row r="154" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" hidden="1">
       <c r="A154" s="6" t="s">
         <v>155</v>
       </c>
@@ -3754,7 +3748,7 @@
         <v>43527</v>
       </c>
     </row>
-    <row r="155" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" hidden="1">
       <c r="A155" s="6" t="s">
         <v>156</v>
       </c>
@@ -3762,7 +3756,7 @@
         <v>43527</v>
       </c>
     </row>
-    <row r="156" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" hidden="1">
       <c r="A156" s="6" t="s">
         <v>157</v>
       </c>
@@ -3770,7 +3764,7 @@
         <v>43524</v>
       </c>
     </row>
-    <row r="157" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" hidden="1">
       <c r="A157" s="6" t="s">
         <v>158</v>
       </c>
@@ -3778,7 +3772,7 @@
         <v>43524</v>
       </c>
     </row>
-    <row r="158" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" hidden="1">
       <c r="A158" s="6" t="s">
         <v>159</v>
       </c>
@@ -3786,7 +3780,7 @@
         <v>43520</v>
       </c>
     </row>
-    <row r="159" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" hidden="1">
       <c r="A159" s="6" t="s">
         <v>160</v>
       </c>
@@ -3794,7 +3788,7 @@
         <v>43524</v>
       </c>
     </row>
-    <row r="160" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" hidden="1">
       <c r="A160" s="6" t="s">
         <v>161</v>
       </c>
@@ -3802,7 +3796,7 @@
         <v>43520</v>
       </c>
     </row>
-    <row r="161" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2" hidden="1">
       <c r="A161" s="6" t="s">
         <v>162</v>
       </c>
@@ -3810,172 +3804,172 @@
         <v>43527</v>
       </c>
     </row>
-    <row r="162" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2" hidden="1">
       <c r="A162" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="163" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2" hidden="1">
       <c r="A163" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="164" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2" hidden="1">
       <c r="A164" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="165" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2" hidden="1">
       <c r="A165" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="166" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2" hidden="1">
       <c r="A166" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="167" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2" hidden="1">
       <c r="A167" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="168" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2" hidden="1">
       <c r="A168" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="169" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2" hidden="1">
       <c r="A169" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="170" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2" hidden="1">
       <c r="A170" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="171" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2" hidden="1">
       <c r="A171" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="172" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2" hidden="1">
       <c r="A172" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="173" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2" hidden="1">
       <c r="A173" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="174" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2" hidden="1">
       <c r="A174" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="175" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2" hidden="1">
       <c r="A175" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="176" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2" hidden="1">
       <c r="A176" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="177" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:1" hidden="1">
       <c r="A177" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="178" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:1" hidden="1">
       <c r="A178" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="179" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:1" hidden="1">
       <c r="A179" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="180" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:1" hidden="1">
       <c r="A180" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="181" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:1" hidden="1">
       <c r="A181" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="182" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:1" hidden="1">
       <c r="A182" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="183" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:1" hidden="1">
       <c r="A183" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="184" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:1" hidden="1">
       <c r="A184" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="185" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:1" hidden="1">
       <c r="A185" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="186" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:1" hidden="1">
       <c r="A186" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="187" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:1" hidden="1">
       <c r="A187" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="188" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:1" hidden="1">
       <c r="A188" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="189" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:1" hidden="1">
       <c r="A189" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="190" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:1" hidden="1">
       <c r="A190" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="191" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:1" hidden="1">
       <c r="A191" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="192" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:1" hidden="1">
       <c r="A192" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="193" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2" hidden="1">
       <c r="A193" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="194" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2" hidden="1">
       <c r="A194" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="195" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2" hidden="1">
       <c r="A195" s="6" t="s">
         <v>196</v>
       </c>
@@ -3983,7 +3977,7 @@
         <v>43515</v>
       </c>
     </row>
-    <row r="196" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2" hidden="1">
       <c r="A196" s="6" t="s">
         <v>197</v>
       </c>
@@ -3991,17 +3985,17 @@
         <v>43517</v>
       </c>
     </row>
-    <row r="197" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2" hidden="1">
       <c r="A197" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="198" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2" hidden="1">
       <c r="A198" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="199" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2" hidden="1">
       <c r="A199" s="6" t="s">
         <v>200</v>
       </c>
@@ -4009,17 +4003,17 @@
         <v>43527</v>
       </c>
     </row>
-    <row r="200" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2" hidden="1">
       <c r="A200" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="201" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2" hidden="1">
       <c r="A201" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="202" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2" hidden="1">
       <c r="A202" s="6" t="s">
         <v>203</v>
       </c>
@@ -4027,7 +4021,7 @@
         <v>43522</v>
       </c>
     </row>
-    <row r="203" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2" hidden="1">
       <c r="A203" s="6" t="s">
         <v>204</v>
       </c>
@@ -4035,7 +4029,7 @@
         <v>43522</v>
       </c>
     </row>
-    <row r="204" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:2" hidden="1">
       <c r="A204" s="6" t="s">
         <v>205</v>
       </c>
@@ -4043,17 +4037,17 @@
         <v>43527</v>
       </c>
     </row>
-    <row r="205" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:2" hidden="1">
       <c r="A205" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="206" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:2" hidden="1">
       <c r="A206" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="207" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:2" hidden="1">
       <c r="A207" s="6" t="s">
         <v>208</v>
       </c>
@@ -4061,12 +4055,12 @@
         <v>43517</v>
       </c>
     </row>
-    <row r="208" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2" hidden="1">
       <c r="A208" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="209" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:2" hidden="1">
       <c r="A209" s="6" t="s">
         <v>210</v>
       </c>
@@ -4074,17 +4068,17 @@
         <v>43515</v>
       </c>
     </row>
-    <row r="210" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:2" hidden="1">
       <c r="A210" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="211" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:2" hidden="1">
       <c r="A211" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="212" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:2" hidden="1">
       <c r="A212" s="6" t="s">
         <v>213</v>
       </c>
@@ -4092,697 +4086,697 @@
         <v>43521</v>
       </c>
     </row>
-    <row r="213" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:2" hidden="1">
       <c r="A213" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="214" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:2" hidden="1">
       <c r="A214" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="215" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:2" hidden="1">
       <c r="A215" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="216" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:2" hidden="1">
       <c r="A216" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="217" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:2" hidden="1">
       <c r="A217" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="218" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:2" hidden="1">
       <c r="A218" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="219" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:2" hidden="1">
       <c r="A219" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="220" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:2" hidden="1">
       <c r="A220" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="221" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:2" hidden="1">
       <c r="A221" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="222" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:2" hidden="1">
       <c r="A222" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="223" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:2" hidden="1">
       <c r="A223" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="224" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:2" hidden="1">
       <c r="A224" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="225" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:1" hidden="1">
       <c r="A225" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="226" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:1" hidden="1">
       <c r="A226" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="227" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:1" hidden="1">
       <c r="A227" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="228" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:1" hidden="1">
       <c r="A228" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="229" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:1" hidden="1">
       <c r="A229" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="230" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:1" hidden="1">
       <c r="A230" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="231" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:1" hidden="1">
       <c r="A231" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="232" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:1" hidden="1">
       <c r="A232" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="233" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:1" hidden="1">
       <c r="A233" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="234" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:1" hidden="1">
       <c r="A234" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="235" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:1" hidden="1">
       <c r="A235" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="236" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:1" hidden="1">
       <c r="A236" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="237" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:1" hidden="1">
       <c r="A237" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="238" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:1" hidden="1">
       <c r="A238" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="239" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:1" hidden="1">
       <c r="A239" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="240" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:1" hidden="1">
       <c r="A240" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="241" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:1" hidden="1">
       <c r="A241" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:1">
       <c r="A242" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:1">
       <c r="A243" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:1">
       <c r="A244" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:1">
       <c r="A245" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:1">
       <c r="A246" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:1">
       <c r="A247" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:1">
       <c r="A248" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:1">
       <c r="A249" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:1">
       <c r="A250" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:1">
       <c r="A251" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:1">
       <c r="A252" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:1">
       <c r="A253" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:1">
       <c r="A254" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:1">
       <c r="A255" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:1">
       <c r="A256" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:1">
       <c r="A257" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:1">
       <c r="A258" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:1">
       <c r="A259" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:1">
       <c r="A260" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:1">
       <c r="A261" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:1">
       <c r="A262" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:1">
       <c r="A263" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:1">
       <c r="A264" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:1">
       <c r="A265" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:1">
       <c r="A266" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:1">
       <c r="A267" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:1">
       <c r="A268" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:1">
       <c r="A269" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:1">
       <c r="A270" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:1">
       <c r="A271" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:1">
       <c r="A272" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:1">
       <c r="A273" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:1">
       <c r="A274" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:1">
       <c r="A275" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:1">
       <c r="A276" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:1">
       <c r="A277" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:1">
       <c r="A278" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:1">
       <c r="A279" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:1">
       <c r="A280" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:1">
       <c r="A281" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:1">
       <c r="A282" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:1">
       <c r="A283" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:1">
       <c r="A284" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:1">
       <c r="A285" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:1">
       <c r="A286" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:1">
       <c r="A287" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:1">
       <c r="A288" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:1">
       <c r="A289" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:1">
       <c r="A290" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:1">
       <c r="A291" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:1">
       <c r="A292" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:1">
       <c r="A293" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:1">
       <c r="A294" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:1">
       <c r="A295" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:1">
       <c r="A296" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:1">
       <c r="A297" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:1">
       <c r="A298" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:1">
       <c r="A299" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:1">
       <c r="A300" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:1">
       <c r="A301" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:1">
       <c r="A302" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:1">
       <c r="A303" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:1">
       <c r="A304" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:1">
       <c r="A305" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:1">
       <c r="A306" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:1">
       <c r="A307" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:1">
       <c r="A308" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:1">
       <c r="A309" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:1">
       <c r="A310" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:1">
       <c r="A311" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:1">
       <c r="A312" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:1">
       <c r="A313" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:1">
       <c r="A314" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:1">
       <c r="A315" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:1">
       <c r="A316" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:1">
       <c r="A317" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:1">
       <c r="A318" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:1">
       <c r="A319" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:1">
       <c r="A320" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:1">
       <c r="A321" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:1">
       <c r="A322" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:1">
       <c r="A323" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:1">
       <c r="A324" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:1">
       <c r="A325" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:1">
       <c r="A326" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:1">
       <c r="A327" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:1">
       <c r="A328" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:1">
       <c r="A329" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:1">
       <c r="A330" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:1">
       <c r="A331" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:1">
       <c r="A332" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:1">
       <c r="A333" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:1">
       <c r="A334" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:1">
       <c r="A335" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:1">
       <c r="A336" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:2">
       <c r="A337" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="338" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:2" hidden="1">
       <c r="A338" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="339" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:2" hidden="1">
       <c r="A339" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="340" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:2" hidden="1">
       <c r="A340" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="341" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:2" hidden="1">
       <c r="A341" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="342" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:2" hidden="1">
       <c r="A342" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="343" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:2" hidden="1">
       <c r="A343" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="344" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:2" hidden="1">
       <c r="A344" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="345" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:2" hidden="1">
       <c r="A345" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="346" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:2" hidden="1">
       <c r="A346" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="347" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:2" hidden="1">
       <c r="A347" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="348" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:2" hidden="1">
       <c r="A348" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="349" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:2" hidden="1">
       <c r="A349" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="350" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:2" hidden="1">
       <c r="A350" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="351" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:2" hidden="1">
       <c r="A351" s="6" t="s">
         <v>352</v>
       </c>
@@ -4790,17 +4784,17 @@
         <v>43517</v>
       </c>
     </row>
-    <row r="352" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:2" hidden="1">
       <c r="A352" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="353" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:2" hidden="1">
       <c r="A353" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="354" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:2" hidden="1">
       <c r="A354" s="6" t="s">
         <v>355</v>
       </c>
@@ -4808,12 +4802,12 @@
         <v>43521</v>
       </c>
     </row>
-    <row r="355" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:2" hidden="1">
       <c r="A355" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="356" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:2" hidden="1">
       <c r="A356" s="6" t="s">
         <v>357</v>
       </c>
@@ -4821,7 +4815,7 @@
         <v>43525</v>
       </c>
     </row>
-    <row r="357" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:2" hidden="1">
       <c r="A357" s="6" t="s">
         <v>358</v>
       </c>
@@ -4829,12 +4823,12 @@
         <v>43525</v>
       </c>
     </row>
-    <row r="358" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:2" hidden="1">
       <c r="A358" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="359" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:2" hidden="1">
       <c r="A359" s="6" t="s">
         <v>360</v>
       </c>
@@ -4842,7 +4836,7 @@
         <v>43525</v>
       </c>
     </row>
-    <row r="360" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:2" hidden="1">
       <c r="A360" s="6" t="s">
         <v>361</v>
       </c>
@@ -4850,32 +4844,32 @@
         <v>43525</v>
       </c>
     </row>
-    <row r="361" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:2" hidden="1">
       <c r="A361" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="362" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:2" hidden="1">
       <c r="A362" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="363" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:2" hidden="1">
       <c r="A363" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="364" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:2" hidden="1">
       <c r="A364" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="365" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:2" hidden="1">
       <c r="A365" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="366" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:2" hidden="1">
       <c r="A366" s="6" t="s">
         <v>367</v>
       </c>
@@ -4883,12 +4877,12 @@
         <v>43521</v>
       </c>
     </row>
-    <row r="367" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:2" hidden="1">
       <c r="A367" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="368" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:2" hidden="1">
       <c r="A368" s="6" t="s">
         <v>369</v>
       </c>
@@ -4896,567 +4890,567 @@
         <v>43521</v>
       </c>
     </row>
-    <row r="369" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:1" hidden="1">
       <c r="A369" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="370" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:1" hidden="1">
       <c r="A370" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="371" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:1" hidden="1">
       <c r="A371" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="372" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:1" hidden="1">
       <c r="A372" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="373" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:1" hidden="1">
       <c r="A373" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="374" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:1" hidden="1">
       <c r="A374" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="375" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:1" hidden="1">
       <c r="A375" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="376" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:1" hidden="1">
       <c r="A376" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="377" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:1" hidden="1">
       <c r="A377" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="378" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:1" hidden="1">
       <c r="A378" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="379" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:1" hidden="1">
       <c r="A379" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="380" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:1" hidden="1">
       <c r="A380" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="381" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:1" hidden="1">
       <c r="A381" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="382" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:1" hidden="1">
       <c r="A382" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="383" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:1" hidden="1">
       <c r="A383" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="384" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:1" hidden="1">
       <c r="A384" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="385" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:1" hidden="1">
       <c r="A385" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="386" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:1" hidden="1">
       <c r="A386" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="387" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:1" hidden="1">
       <c r="A387" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="388" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:1" hidden="1">
       <c r="A388" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="389" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:1" hidden="1">
       <c r="A389" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="390" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:1" hidden="1">
       <c r="A390" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="391" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:1" hidden="1">
       <c r="A391" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="392" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:1" hidden="1">
       <c r="A392" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="393" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:1" hidden="1">
       <c r="A393" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="394" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:1" hidden="1">
       <c r="A394" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="395" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:1" hidden="1">
       <c r="A395" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="396" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:1" hidden="1">
       <c r="A396" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="397" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:1" hidden="1">
       <c r="A397" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="398" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:1" hidden="1">
       <c r="A398" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="399" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:1" hidden="1">
       <c r="A399" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="400" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:1" hidden="1">
       <c r="A400" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="401" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:1" hidden="1">
       <c r="A401" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="402" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:1" hidden="1">
       <c r="A402" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="403" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:1" hidden="1">
       <c r="A403" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="404" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:1" hidden="1">
       <c r="A404" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="405" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:1" hidden="1">
       <c r="A405" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="406" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:1" hidden="1">
       <c r="A406" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="407" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:1" hidden="1">
       <c r="A407" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="408" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:1" hidden="1">
       <c r="A408" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="409" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:1" hidden="1">
       <c r="A409" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="410" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:1" hidden="1">
       <c r="A410" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="411" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:1" hidden="1">
       <c r="A411" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="412" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:1" hidden="1">
       <c r="A412" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="413" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:1" hidden="1">
       <c r="A413" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="414" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:1" hidden="1">
       <c r="A414" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="415" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:1" hidden="1">
       <c r="A415" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="416" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:1" hidden="1">
       <c r="A416" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="417" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:1" hidden="1">
       <c r="A417" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="418" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:1" hidden="1">
       <c r="A418" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="419" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:1" hidden="1">
       <c r="A419" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="420" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:1" hidden="1">
       <c r="A420" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="421" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:1" hidden="1">
       <c r="A421" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="422" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:1" hidden="1">
       <c r="A422" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="423" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:1" hidden="1">
       <c r="A423" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="424" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:1" hidden="1">
       <c r="A424" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="425" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:1" hidden="1">
       <c r="A425" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="426" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:1" hidden="1">
       <c r="A426" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="427" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:1" hidden="1">
       <c r="A427" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="428" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:1" hidden="1">
       <c r="A428" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="429" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:1" hidden="1">
       <c r="A429" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="430" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:1" hidden="1">
       <c r="A430" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="431" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:1" hidden="1">
       <c r="A431" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="432" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:1" hidden="1">
       <c r="A432" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="433" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:1" hidden="1">
       <c r="A433" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="434" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:1" hidden="1">
       <c r="A434" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="435" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:1" hidden="1">
       <c r="A435" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="436" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:1" hidden="1">
       <c r="A436" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="437" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:1" hidden="1">
       <c r="A437" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="438" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:1" hidden="1">
       <c r="A438" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="439" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:1" hidden="1">
       <c r="A439" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="440" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:1" hidden="1">
       <c r="A440" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="441" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:1" hidden="1">
       <c r="A441" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="442" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:1" hidden="1">
       <c r="A442" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="443" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:1" hidden="1">
       <c r="A443" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="444" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:1" hidden="1">
       <c r="A444" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="445" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:1" hidden="1">
       <c r="A445" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="446" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:1" hidden="1">
       <c r="A446" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="447" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:1" hidden="1">
       <c r="A447" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="448" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:1" hidden="1">
       <c r="A448" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="449" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:1" hidden="1">
       <c r="A449" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="450" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:1" hidden="1">
       <c r="A450" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="451" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:1" hidden="1">
       <c r="A451" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="452" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:1" hidden="1">
       <c r="A452" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="453" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:1" hidden="1">
       <c r="A453" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="454" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:1" hidden="1">
       <c r="A454" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="455" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:1" hidden="1">
       <c r="A455" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="456" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:1" hidden="1">
       <c r="A456" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="457" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:1" hidden="1">
       <c r="A457" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="458" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:1" hidden="1">
       <c r="A458" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="459" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:1" hidden="1">
       <c r="A459" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="460" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:1" hidden="1">
       <c r="A460" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="461" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:1" hidden="1">
       <c r="A461" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="462" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:1" hidden="1">
       <c r="A462" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="463" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:1" hidden="1">
       <c r="A463" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="464" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:1" hidden="1">
       <c r="A464" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="465" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:1" hidden="1">
       <c r="A465" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="466" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:1" hidden="1">
       <c r="A466" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="467" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:1" hidden="1">
       <c r="A467" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="468" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:1" hidden="1">
       <c r="A468" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="469" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:1" hidden="1">
       <c r="A469" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="470" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:1" hidden="1">
       <c r="A470" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="471" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:1" hidden="1">
       <c r="A471" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="472" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:1" hidden="1">
       <c r="A472" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="473" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:1" hidden="1">
       <c r="A473" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="474" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:1" hidden="1">
       <c r="A474" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="475" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:1" hidden="1">
       <c r="A475" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="476" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:1" hidden="1">
       <c r="A476" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="477" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:1" hidden="1">
       <c r="A477" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="478" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:1" hidden="1">
       <c r="A478" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="479" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:1" hidden="1">
       <c r="A479" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="480" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:1" hidden="1">
       <c r="A480" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="481" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:1" hidden="1">
       <c r="A481" t="s">
         <v>482</v>
       </c>
@@ -5474,17 +5468,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="P93" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="V190" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AB106" sqref="AB106"/>
+      <selection pane="bottomRight" activeCell="AA204" sqref="AA204"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="13" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
@@ -5497,7 +5491,7 @@
     <col min="20" max="22" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="18">
       <c r="A1" s="8" t="s">
         <v>487</v>
       </c>
@@ -5571,7 +5565,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="18">
       <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
@@ -5607,7 +5601,7 @@
         <v>-29.6</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="18">
       <c r="A3" s="14" t="s">
         <v>4</v>
       </c>
@@ -5645,7 +5639,7 @@
         <v>-22.6</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="18">
       <c r="A4" s="14" t="s">
         <v>5</v>
       </c>
@@ -5681,7 +5675,7 @@
         <v>-30.1</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="18">
       <c r="A5" s="14" t="s">
         <v>6</v>
       </c>
@@ -5717,7 +5711,7 @@
         <v>-22.2</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" ht="18">
       <c r="A6" s="14" t="s">
         <v>7</v>
       </c>
@@ -5751,7 +5745,7 @@
         <v>-16.399999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" ht="18">
       <c r="A7" s="14" t="s">
         <v>8</v>
       </c>
@@ -5787,7 +5781,7 @@
         <v>-22.1</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" ht="18">
       <c r="A8" s="14" t="s">
         <v>9</v>
       </c>
@@ -5821,7 +5815,7 @@
         <v>-22.5</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" ht="18">
       <c r="A9" s="14" t="s">
         <v>10</v>
       </c>
@@ -5857,7 +5851,7 @@
         <v>-31.1</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" ht="18">
       <c r="A10" s="14" t="s">
         <v>11</v>
       </c>
@@ -5891,7 +5885,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" ht="18">
       <c r="A11" s="14" t="s">
         <v>12</v>
       </c>
@@ -5929,7 +5923,7 @@
         <v>-25.2</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" ht="18">
       <c r="A12" s="14" t="s">
         <v>13</v>
       </c>
@@ -5963,7 +5957,7 @@
         <v>-22.6</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" ht="18">
       <c r="A13" s="14" t="s">
         <v>14</v>
       </c>
@@ -5999,7 +5993,7 @@
         <v>-27.6</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" ht="18">
       <c r="A14" s="14" t="s">
         <v>15</v>
       </c>
@@ -6033,7 +6027,7 @@
         <v>-22.1</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" ht="18">
       <c r="A15" s="14" t="s">
         <v>16</v>
       </c>
@@ -6069,7 +6063,7 @@
         <v>-33.299999999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" ht="18">
       <c r="A16" s="14" t="s">
         <v>17</v>
       </c>
@@ -6103,7 +6097,7 @@
         <v>-20.2</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" ht="18">
       <c r="A17" s="14" t="s">
         <v>18</v>
       </c>
@@ -6139,7 +6133,7 @@
         <v>-36.299999999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" ht="18">
       <c r="A18" s="19" t="s">
         <v>19</v>
       </c>
@@ -6175,7 +6169,7 @@
         <v>-22.1</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" ht="18">
       <c r="A19" s="19" t="s">
         <v>20</v>
       </c>
@@ -6213,7 +6207,7 @@
         <v>-27.9</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" ht="18">
       <c r="A20" s="19" t="s">
         <v>21</v>
       </c>
@@ -6247,7 +6241,7 @@
         <v>-34.299999999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" ht="18">
       <c r="A21" s="19" t="s">
         <v>22</v>
       </c>
@@ -6283,7 +6277,7 @@
         <v>-30.9</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" ht="18">
       <c r="A22" s="19" t="s">
         <v>23</v>
       </c>
@@ -6317,7 +6311,7 @@
         <v>-30.9</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" ht="18">
       <c r="A23" s="19" t="s">
         <v>24</v>
       </c>
@@ -6353,7 +6347,7 @@
         <v>-21</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" ht="18">
       <c r="A24" s="19" t="s">
         <v>25</v>
       </c>
@@ -6387,7 +6381,7 @@
         <v>-17.8</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" ht="18">
       <c r="A25" s="19" t="s">
         <v>26</v>
       </c>
@@ -6423,7 +6417,7 @@
         <v>-29.5</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" ht="18">
       <c r="A26" s="19" t="s">
         <v>27</v>
       </c>
@@ -6457,7 +6451,7 @@
         <v>-27.4</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" ht="18">
       <c r="A27" s="19" t="s">
         <v>28</v>
       </c>
@@ -6493,7 +6487,7 @@
         <v>-24.7</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" ht="18">
       <c r="A28" s="19" t="s">
         <v>29</v>
       </c>
@@ -6527,7 +6521,7 @@
         <v>-27.7</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" ht="18">
       <c r="A29" s="19" t="s">
         <v>30</v>
       </c>
@@ -6563,7 +6557,7 @@
         <v>-27.7</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" ht="18">
       <c r="A30" s="19" t="s">
         <v>31</v>
       </c>
@@ -6597,7 +6591,7 @@
         <v>-19.100000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" ht="18">
       <c r="A31" s="19" t="s">
         <v>32</v>
       </c>
@@ -6633,7 +6627,7 @@
         <v>-35.200000000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" ht="18">
       <c r="A32" s="19" t="s">
         <v>33</v>
       </c>
@@ -6667,7 +6661,7 @@
         <v>-30.2</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" ht="18">
       <c r="A33" s="19" t="s">
         <v>34</v>
       </c>
@@ -6703,7 +6697,7 @@
         <v>-21.4</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" ht="18">
       <c r="A34" s="22" t="s">
         <v>35</v>
       </c>
@@ -6739,7 +6733,7 @@
         <v>-23.7</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" ht="18">
       <c r="A35" s="22" t="s">
         <v>36</v>
       </c>
@@ -6777,7 +6771,7 @@
         <v>-29.4</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" ht="18">
       <c r="A36" s="22" t="s">
         <v>37</v>
       </c>
@@ -6811,7 +6805,7 @@
         <v>-28.8</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" ht="18">
       <c r="A37" s="22" t="s">
         <v>38</v>
       </c>
@@ -6847,7 +6841,7 @@
         <v>-16.8</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" ht="18">
       <c r="A38" s="22" t="s">
         <v>39</v>
       </c>
@@ -6881,7 +6875,7 @@
         <v>-28.8</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" ht="18">
       <c r="A39" s="22" t="s">
         <v>40</v>
       </c>
@@ -6917,7 +6911,7 @@
         <v>-34.799999999999997</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" ht="18">
       <c r="A40" s="22" t="s">
         <v>41</v>
       </c>
@@ -6951,7 +6945,7 @@
         <v>-20.8</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" ht="18">
       <c r="A41" s="22" t="s">
         <v>42</v>
       </c>
@@ -6987,7 +6981,7 @@
         <v>-23.8</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" ht="18">
       <c r="A42" s="22" t="s">
         <v>43</v>
       </c>
@@ -7021,7 +7015,7 @@
         <v>-20.100000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" ht="18">
       <c r="A43" s="22" t="s">
         <v>44</v>
       </c>
@@ -7057,7 +7051,7 @@
         <v>-33.5</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" ht="18">
       <c r="A44" s="22" t="s">
         <v>45</v>
       </c>
@@ -7091,7 +7085,7 @@
         <v>-27</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24" ht="18">
       <c r="A45" s="22" t="s">
         <v>46</v>
       </c>
@@ -7127,7 +7121,7 @@
         <v>-28.8</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24" ht="18">
       <c r="A46" s="22" t="s">
         <v>47</v>
       </c>
@@ -7161,7 +7155,7 @@
         <v>-33</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:24" ht="18">
       <c r="A47" s="22" t="s">
         <v>48</v>
       </c>
@@ -7197,7 +7191,7 @@
         <v>-31.1</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:24" ht="18">
       <c r="A48" s="22" t="s">
         <v>49</v>
       </c>
@@ -7231,7 +7225,7 @@
         <v>-19</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:24" ht="18">
       <c r="A49" s="22" t="s">
         <v>50</v>
       </c>
@@ -7267,7 +7261,7 @@
         <v>-24.3</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:24" ht="18">
       <c r="A50" s="14" t="s">
         <v>51</v>
       </c>
@@ -7303,7 +7297,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:24" ht="18">
       <c r="A51" s="14" t="s">
         <v>52</v>
       </c>
@@ -7341,7 +7335,7 @@
         <v>-31.8</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:24" ht="18">
       <c r="A52" s="14" t="s">
         <v>53</v>
       </c>
@@ -7377,7 +7371,7 @@
         <v>-20.2</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:24" ht="18">
       <c r="A53" s="14" t="s">
         <v>54</v>
       </c>
@@ -7413,7 +7407,7 @@
         <v>-29.4</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:24" ht="18">
       <c r="A54" s="14" t="s">
         <v>55</v>
       </c>
@@ -7447,7 +7441,7 @@
         <v>-32.6</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:24" ht="18">
       <c r="A55" s="14" t="s">
         <v>56</v>
       </c>
@@ -7483,7 +7477,7 @@
         <v>-32.200000000000003</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:24" ht="18">
       <c r="A56" s="14" t="s">
         <v>57</v>
       </c>
@@ -7517,7 +7511,7 @@
         <v>-33.299999999999997</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:24" ht="18">
       <c r="A57" s="14" t="s">
         <v>58</v>
       </c>
@@ -7553,7 +7547,7 @@
         <v>-35.200000000000003</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:24" ht="18">
       <c r="A58" s="14" t="s">
         <v>59</v>
       </c>
@@ -7587,7 +7581,7 @@
         <v>-28.9</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:24" ht="18">
       <c r="A59" s="14" t="s">
         <v>60</v>
       </c>
@@ -7623,7 +7617,7 @@
         <v>-36.799999999999997</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:24" ht="18">
       <c r="A60" s="14" t="s">
         <v>61</v>
       </c>
@@ -7657,7 +7651,7 @@
         <v>-52.4</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:24" ht="18">
       <c r="A61" s="25" t="s">
         <v>62</v>
       </c>
@@ -7685,7 +7679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:24" ht="18">
       <c r="A62" s="14" t="s">
         <v>63</v>
       </c>
@@ -7719,7 +7713,7 @@
         <v>-26.2</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:24" ht="18">
       <c r="A63" s="14" t="s">
         <v>64</v>
       </c>
@@ -7755,7 +7749,7 @@
         <v>-32.200000000000003</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:24" ht="18">
       <c r="A64" s="14" t="s">
         <v>65</v>
       </c>
@@ -7789,7 +7783,7 @@
         <v>-21.6</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:24" ht="18">
       <c r="A65" s="14" t="s">
         <v>66</v>
       </c>
@@ -7825,7 +7819,7 @@
         <v>-31.6</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:24" ht="18">
       <c r="A66" s="19" t="s">
         <v>67</v>
       </c>
@@ -7861,7 +7855,7 @@
         <v>-46.5</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:24" ht="18">
       <c r="A67" s="19" t="s">
         <v>68</v>
       </c>
@@ -7899,7 +7893,7 @@
         <v>-17.100000000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:24" ht="18">
       <c r="A68" s="19" t="s">
         <v>69</v>
       </c>
@@ -7933,7 +7927,7 @@
         <v>-36.4</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:24" ht="18">
       <c r="A69" s="19" t="s">
         <v>70</v>
       </c>
@@ -7969,7 +7963,7 @@
         <v>-28.7</v>
       </c>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:24" ht="18">
       <c r="A70" s="19" t="s">
         <v>71</v>
       </c>
@@ -8003,7 +7997,7 @@
         <v>-36.6</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:24" ht="18">
       <c r="A71" s="19" t="s">
         <v>72</v>
       </c>
@@ -8039,7 +8033,7 @@
         <v>-32.200000000000003</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:24" ht="18">
       <c r="A72" s="25" t="s">
         <v>73</v>
       </c>
@@ -8067,7 +8061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:24" ht="18">
       <c r="A73" s="19" t="s">
         <v>74</v>
       </c>
@@ -8103,7 +8097,7 @@
         <v>-25.4</v>
       </c>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:24" ht="18">
       <c r="A74" s="19" t="s">
         <v>75</v>
       </c>
@@ -8137,7 +8131,7 @@
         <v>-33.799999999999997</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:24" ht="18">
       <c r="A75" s="19" t="s">
         <v>76</v>
       </c>
@@ -8175,7 +8169,7 @@
         <v>-27</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:24" ht="18">
       <c r="A76" s="19" t="s">
         <v>77</v>
       </c>
@@ -8209,7 +8203,7 @@
         <v>-27</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:24" ht="18">
       <c r="A77" s="19" t="s">
         <v>78</v>
       </c>
@@ -8247,7 +8241,7 @@
         <v>-28.6</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:24" ht="18">
       <c r="A78" s="19" t="s">
         <v>79</v>
       </c>
@@ -8281,7 +8275,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:24" ht="18">
       <c r="A79" s="19" t="s">
         <v>80</v>
       </c>
@@ -8317,7 +8311,7 @@
         <v>-25.4</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:24" ht="18">
       <c r="A80" s="19" t="s">
         <v>81</v>
       </c>
@@ -8351,7 +8345,7 @@
         <v>-30.4</v>
       </c>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:24" ht="18">
       <c r="A81" s="19" t="s">
         <v>82</v>
       </c>
@@ -8387,7 +8381,7 @@
         <v>-25.5</v>
       </c>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:24" ht="18">
       <c r="A82" s="25" t="s">
         <v>83</v>
       </c>
@@ -8419,7 +8413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:24" ht="18">
       <c r="A83" s="22" t="s">
         <v>84</v>
       </c>
@@ -8457,7 +8451,7 @@
         <v>-29</v>
       </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:24" ht="18">
       <c r="A84" s="22" t="s">
         <v>85</v>
       </c>
@@ -8493,7 +8487,7 @@
         <v>-25.4</v>
       </c>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:24" ht="18">
       <c r="A85" s="22" t="s">
         <v>86</v>
       </c>
@@ -8529,7 +8523,7 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:24" ht="18">
       <c r="A86" s="22" t="s">
         <v>87</v>
       </c>
@@ -8563,7 +8557,7 @@
         <v>-35.4</v>
       </c>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:24" ht="18">
       <c r="A87" s="25" t="s">
         <v>88</v>
       </c>
@@ -8591,7 +8585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:24" ht="18">
       <c r="A88" s="25" t="s">
         <v>89</v>
       </c>
@@ -8619,7 +8613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:24" ht="18">
       <c r="A89" s="22" t="s">
         <v>90</v>
       </c>
@@ -8655,7 +8649,7 @@
         <v>-31.3</v>
       </c>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:24" ht="18">
       <c r="A90" s="22" t="s">
         <v>91</v>
       </c>
@@ -8689,7 +8683,7 @@
         <v>-29.1</v>
       </c>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:24" ht="18">
       <c r="A91" s="22" t="s">
         <v>92</v>
       </c>
@@ -8725,7 +8719,7 @@
         <v>-20.2</v>
       </c>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:24" ht="18">
       <c r="A92" s="22" t="s">
         <v>93</v>
       </c>
@@ -8759,7 +8753,7 @@
         <v>-27.3</v>
       </c>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:24" ht="18">
       <c r="A93" s="22" t="s">
         <v>94</v>
       </c>
@@ -8795,7 +8789,7 @@
         <v>-25.5</v>
       </c>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:24" ht="18">
       <c r="A94" s="22" t="s">
         <v>95</v>
       </c>
@@ -8829,7 +8823,7 @@
         <v>-27</v>
       </c>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:24" ht="18">
       <c r="A95" s="22" t="s">
         <v>96</v>
       </c>
@@ -8865,7 +8859,7 @@
         <v>-28.3</v>
       </c>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:24" ht="18">
       <c r="A96" s="22" t="s">
         <v>97</v>
       </c>
@@ -8899,7 +8893,7 @@
         <v>-33.1</v>
       </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:27" ht="18">
       <c r="A97" s="22" t="s">
         <v>98</v>
       </c>
@@ -8935,7 +8929,7 @@
         <v>-23.4</v>
       </c>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:27" ht="18">
       <c r="A98" s="14" t="s">
         <v>99</v>
       </c>
@@ -8979,7 +8973,7 @@
         <v>1.1749999999999989</v>
       </c>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:27" ht="18">
       <c r="A99" s="14" t="s">
         <v>100</v>
       </c>
@@ -9041,7 +9035,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:27" ht="18">
       <c r="A100" s="14" t="s">
         <v>101</v>
       </c>
@@ -9106,7 +9100,7 @@
         <v>1.24E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:27" ht="18">
       <c r="A101" s="14" t="s">
         <v>102</v>
       </c>
@@ -9160,7 +9154,7 @@
         <v>6.6E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:27" ht="18">
       <c r="A102" s="14" t="s">
         <v>103</v>
       </c>
@@ -9225,7 +9219,7 @@
         <v>1.2699999999999999E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:27" ht="18">
       <c r="A103" s="14" t="s">
         <v>104</v>
       </c>
@@ -9261,7 +9255,7 @@
         <v>-39.4</v>
       </c>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:27" ht="18">
       <c r="A104" s="14" t="s">
         <v>105</v>
       </c>
@@ -9326,7 +9320,7 @@
         <v>1.38E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:27" ht="18">
       <c r="A105" s="14" t="s">
         <v>106</v>
       </c>
@@ -9393,7 +9387,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:27" ht="18">
       <c r="A106" s="14" t="s">
         <v>107</v>
       </c>
@@ -9445,7 +9439,7 @@
         <v>1.01E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:27" ht="18">
       <c r="A107" s="14" t="s">
         <v>108</v>
       </c>
@@ -9499,7 +9493,7 @@
         <v>1.11E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:27" ht="18">
       <c r="A108" s="14" t="s">
         <v>109</v>
       </c>
@@ -9564,7 +9558,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:27" ht="18">
       <c r="A109" s="14" t="s">
         <v>110</v>
       </c>
@@ -9618,7 +9612,7 @@
         <v>1.04E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:27" ht="18">
       <c r="A110" s="14" t="s">
         <v>111</v>
       </c>
@@ -9670,7 +9664,7 @@
         <v>8.6E-3</v>
       </c>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:27" ht="18">
       <c r="A111" s="14" t="s">
         <v>112</v>
       </c>
@@ -9724,7 +9718,7 @@
         <v>9.7000000000000003E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:27" ht="18">
       <c r="A112" s="14" t="s">
         <v>113</v>
       </c>
@@ -9776,7 +9770,7 @@
         <v>6.3E-3</v>
       </c>
     </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:27" ht="18">
       <c r="A113" s="14" t="s">
         <v>114</v>
       </c>
@@ -9832,7 +9826,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:27" ht="18">
       <c r="A114" s="19" t="s">
         <v>115</v>
       </c>
@@ -9868,7 +9862,7 @@
         <v>-28.4</v>
       </c>
     </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:27" ht="18">
       <c r="A115" s="19" t="s">
         <v>116</v>
       </c>
@@ -9904,7 +9898,7 @@
         <v>-26.2</v>
       </c>
     </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:27" ht="18">
       <c r="A116" s="19" t="s">
         <v>117</v>
       </c>
@@ -9938,7 +9932,7 @@
         <v>-36.4</v>
       </c>
     </row>
-    <row r="117" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:27" ht="18">
       <c r="A117" s="19" t="s">
         <v>118</v>
       </c>
@@ -9974,7 +9968,7 @@
         <v>-38.6</v>
       </c>
     </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:27" ht="18">
       <c r="A118" s="19" t="s">
         <v>119</v>
       </c>
@@ -10008,7 +10002,7 @@
         <v>-45.2</v>
       </c>
     </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:27" ht="18">
       <c r="A119" s="19" t="s">
         <v>120</v>
       </c>
@@ -10046,7 +10040,7 @@
         <v>-39</v>
       </c>
     </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:27" ht="18">
       <c r="A120" s="19" t="s">
         <v>121</v>
       </c>
@@ -10080,7 +10074,7 @@
         <v>-27.8</v>
       </c>
     </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:27" ht="18">
       <c r="A121" s="19" t="s">
         <v>122</v>
       </c>
@@ -10116,7 +10110,7 @@
         <v>-29.2</v>
       </c>
     </row>
-    <row r="122" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:27" ht="18">
       <c r="A122" s="19" t="s">
         <v>123</v>
       </c>
@@ -10150,7 +10144,7 @@
         <v>-45.8</v>
       </c>
     </row>
-    <row r="123" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:27" ht="18">
       <c r="A123" s="19" t="s">
         <v>124</v>
       </c>
@@ -10188,7 +10182,7 @@
         <v>-47.7</v>
       </c>
     </row>
-    <row r="124" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:27" ht="18">
       <c r="A124" s="19" t="s">
         <v>125</v>
       </c>
@@ -10240,7 +10234,7 @@
         <v>1.12E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:27" ht="18">
       <c r="A125" s="19" t="s">
         <v>126</v>
       </c>
@@ -10276,7 +10270,7 @@
         <v>-35</v>
       </c>
     </row>
-    <row r="126" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:27" ht="18">
       <c r="A126" s="19" t="s">
         <v>127</v>
       </c>
@@ -10328,7 +10322,7 @@
         <v>2.0799999999999999E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:27" ht="18">
       <c r="A127" s="19" t="s">
         <v>128</v>
       </c>
@@ -10364,7 +10358,7 @@
         <v>-40.4</v>
       </c>
     </row>
-    <row r="128" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:27" ht="18">
       <c r="A128" s="19" t="s">
         <v>129</v>
       </c>
@@ -10398,7 +10392,7 @@
         <v>-38.700000000000003</v>
       </c>
     </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:24" ht="18">
       <c r="A129" s="19" t="s">
         <v>130</v>
       </c>
@@ -10434,7 +10428,7 @@
         <v>-47.1</v>
       </c>
     </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:24" ht="18">
       <c r="A130" s="22" t="s">
         <v>131</v>
       </c>
@@ -10470,7 +10464,7 @@
         <v>-38.6</v>
       </c>
     </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:24" ht="18">
       <c r="A131" s="22" t="s">
         <v>132</v>
       </c>
@@ -10508,7 +10502,7 @@
         <v>-33.5</v>
       </c>
     </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:24" ht="18">
       <c r="A132" s="22" t="s">
         <v>133</v>
       </c>
@@ -10544,7 +10538,7 @@
         <v>-36.200000000000003</v>
       </c>
     </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:24" ht="18">
       <c r="A133" s="22" t="s">
         <v>134</v>
       </c>
@@ -10580,7 +10574,7 @@
         <v>-40.1</v>
       </c>
     </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:24" ht="18">
       <c r="A134" s="22" t="s">
         <v>135</v>
       </c>
@@ -10614,7 +10608,7 @@
         <v>-45.7</v>
       </c>
     </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:24" ht="18">
       <c r="A135" s="22" t="s">
         <v>136</v>
       </c>
@@ -10650,7 +10644,7 @@
         <v>-37.200000000000003</v>
       </c>
     </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:24" ht="18">
       <c r="A136" s="22" t="s">
         <v>137</v>
       </c>
@@ -10684,7 +10678,7 @@
         <v>-46.6</v>
       </c>
     </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:24" ht="18">
       <c r="A137" s="22" t="s">
         <v>138</v>
       </c>
@@ -10720,7 +10714,7 @@
         <v>-33</v>
       </c>
     </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:24" ht="18">
       <c r="A138" s="22" t="s">
         <v>139</v>
       </c>
@@ -10754,7 +10748,7 @@
         <v>-28.4</v>
       </c>
     </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:24" ht="18">
       <c r="A139" s="22" t="s">
         <v>140</v>
       </c>
@@ -10790,7 +10784,7 @@
         <v>-45.6</v>
       </c>
     </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:24" ht="18">
       <c r="A140" s="22" t="s">
         <v>141</v>
       </c>
@@ -10824,7 +10818,7 @@
         <v>-30.8</v>
       </c>
     </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:24" ht="18">
       <c r="A141" s="22" t="s">
         <v>142</v>
       </c>
@@ -10860,7 +10854,7 @@
         <v>-36</v>
       </c>
     </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:24" ht="18">
       <c r="A142" s="22" t="s">
         <v>143</v>
       </c>
@@ -10894,7 +10888,7 @@
         <v>-38.4</v>
       </c>
     </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:24" ht="18">
       <c r="A143" s="22" t="s">
         <v>144</v>
       </c>
@@ -10932,7 +10926,7 @@
         <v>-31.4</v>
       </c>
     </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:24" ht="18">
       <c r="A144" s="22" t="s">
         <v>145</v>
       </c>
@@ -10966,7 +10960,7 @@
         <v>-25.8</v>
       </c>
     </row>
-    <row r="145" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:27" ht="18">
       <c r="A145" s="22" t="s">
         <v>146</v>
       </c>
@@ -11002,7 +10996,7 @@
         <v>-39.700000000000003</v>
       </c>
     </row>
-    <row r="146" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:27" ht="18">
       <c r="A146" s="14" t="s">
         <v>147</v>
       </c>
@@ -11056,7 +11050,7 @@
         <v>1.11E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:27" ht="18">
       <c r="A147" s="14" t="s">
         <v>148</v>
       </c>
@@ -11083,16 +11077,34 @@
       <c r="L147" s="12"/>
       <c r="M147" s="12"/>
       <c r="N147" s="12"/>
-      <c r="W147" t="e">
+      <c r="P147">
+        <v>61.5</v>
+      </c>
+      <c r="Q147">
+        <v>30.6</v>
+      </c>
+      <c r="R147">
+        <v>26</v>
+      </c>
+      <c r="S147">
+        <v>24</v>
+      </c>
+      <c r="T147">
+        <v>28.3</v>
+      </c>
+      <c r="W147">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>27.224999999999998</v>
       </c>
       <c r="X147">
         <f t="shared" si="5"/>
-        <v>-56.4</v>
-      </c>
-    </row>
-    <row r="148" spans="1:27" x14ac:dyDescent="0.2">
+        <v>5.1000000000000014</v>
+      </c>
+      <c r="AA147">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="148" spans="1:27" ht="18">
       <c r="A148" s="14" t="s">
         <v>149</v>
       </c>
@@ -11144,7 +11156,7 @@
         <v>1.6199999999999999E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:27" ht="18">
       <c r="A149" s="14" t="s">
         <v>150</v>
       </c>
@@ -11200,7 +11212,7 @@
         <v>1.7899999999999999E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:27" ht="18">
       <c r="A150" s="14" t="s">
         <v>151</v>
       </c>
@@ -11252,7 +11264,7 @@
         <v>1.32E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:27" ht="18">
       <c r="A151" s="14" t="s">
         <v>152</v>
       </c>
@@ -11306,7 +11318,7 @@
         <v>1.34E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:27" ht="18">
       <c r="A152" s="14" t="s">
         <v>153</v>
       </c>
@@ -11358,7 +11370,7 @@
         <v>1.0500000000000001E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:27" ht="18">
       <c r="A153" s="14" t="s">
         <v>154</v>
       </c>
@@ -11385,16 +11397,34 @@
       <c r="L153" s="12"/>
       <c r="M153" s="12"/>
       <c r="N153" s="12"/>
-      <c r="W153" t="e">
+      <c r="P153">
+        <v>52.9</v>
+      </c>
+      <c r="Q153">
+        <v>25.4</v>
+      </c>
+      <c r="R153">
+        <v>25.5</v>
+      </c>
+      <c r="S153">
+        <v>29.7</v>
+      </c>
+      <c r="T153">
+        <v>25.7</v>
+      </c>
+      <c r="W153">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>26.574999999999999</v>
       </c>
       <c r="X153">
         <f t="shared" si="5"/>
-        <v>-45.1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:27" x14ac:dyDescent="0.2">
+        <v>7.7999999999999972</v>
+      </c>
+      <c r="AA153">
+        <v>9.2999999999999992E-3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:27" ht="18">
       <c r="A154" s="14" t="s">
         <v>155</v>
       </c>
@@ -11419,16 +11449,34 @@
       <c r="L154" s="12"/>
       <c r="M154" s="12"/>
       <c r="N154" s="12"/>
-      <c r="W154" t="e">
+      <c r="P154">
+        <v>53.9</v>
+      </c>
+      <c r="Q154">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="R154">
+        <v>26.8</v>
+      </c>
+      <c r="S154">
+        <v>31.5</v>
+      </c>
+      <c r="T154">
+        <v>27.8</v>
+      </c>
+      <c r="W154">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>29.7</v>
       </c>
       <c r="X154">
         <f t="shared" si="5"/>
-        <v>-46.2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:27" x14ac:dyDescent="0.2">
+        <v>7.6999999999999957</v>
+      </c>
+      <c r="AA154">
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:27" ht="18">
       <c r="A155" s="14" t="s">
         <v>156</v>
       </c>
@@ -11455,16 +11503,34 @@
       <c r="L155" s="12"/>
       <c r="M155" s="12"/>
       <c r="N155" s="12"/>
-      <c r="W155" t="e">
+      <c r="P155">
+        <v>52.8</v>
+      </c>
+      <c r="Q155">
+        <v>29.7</v>
+      </c>
+      <c r="R155">
+        <v>27</v>
+      </c>
+      <c r="S155">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="T155">
+        <v>27.2</v>
+      </c>
+      <c r="W155">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>29.3</v>
       </c>
       <c r="X155">
         <f t="shared" si="5"/>
-        <v>-44.8</v>
-      </c>
-    </row>
-    <row r="156" spans="1:27" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="AA155">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:27" ht="18">
       <c r="A156" s="14" t="s">
         <v>157</v>
       </c>
@@ -11516,7 +11582,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:27" ht="18">
       <c r="A157" s="14" t="s">
         <v>158</v>
       </c>
@@ -11570,7 +11636,7 @@
         <v>2.7199999999999998E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:27" ht="18">
       <c r="A158" s="14" t="s">
         <v>159</v>
       </c>
@@ -11622,7 +11688,7 @@
         <v>1.4500000000000001E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:27" ht="18">
       <c r="A159" s="14" t="s">
         <v>160</v>
       </c>
@@ -11676,7 +11742,7 @@
         <v>2.1899999999999999E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:27" ht="18">
       <c r="A160" s="14" t="s">
         <v>161</v>
       </c>
@@ -11728,7 +11794,7 @@
         <v>1.41E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:27" ht="18">
       <c r="A161" s="14" t="s">
         <v>162</v>
       </c>
@@ -11755,16 +11821,34 @@
       <c r="L161" s="12"/>
       <c r="M161" s="12"/>
       <c r="N161" s="12"/>
-      <c r="W161" t="e">
+      <c r="P161">
+        <v>53.3</v>
+      </c>
+      <c r="Q161">
+        <v>29.6</v>
+      </c>
+      <c r="R161">
+        <v>26.2</v>
+      </c>
+      <c r="S161">
+        <v>22.3</v>
+      </c>
+      <c r="T161">
+        <v>22.3</v>
+      </c>
+      <c r="W161">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>25.099999999999998</v>
       </c>
       <c r="X161">
         <f t="shared" si="5"/>
-        <v>-47</v>
-      </c>
-    </row>
-    <row r="162" spans="1:24" x14ac:dyDescent="0.2">
+        <v>6.2999999999999972</v>
+      </c>
+      <c r="AA161">
+        <v>7.9000000000000008E-3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:27" ht="18">
       <c r="A162" s="19" t="s">
         <v>163</v>
       </c>
@@ -11800,7 +11884,7 @@
         <v>-50.2</v>
       </c>
     </row>
-    <row r="163" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:27" ht="18">
       <c r="A163" s="19" t="s">
         <v>164</v>
       </c>
@@ -11836,7 +11920,7 @@
         <v>-48.8</v>
       </c>
     </row>
-    <row r="164" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:27" ht="18">
       <c r="A164" s="19" t="s">
         <v>165</v>
       </c>
@@ -11870,7 +11954,7 @@
         <v>-36</v>
       </c>
     </row>
-    <row r="165" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:27" ht="18">
       <c r="A165" s="19" t="s">
         <v>166</v>
       </c>
@@ -11906,7 +11990,7 @@
         <v>-51.4</v>
       </c>
     </row>
-    <row r="166" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:27" ht="18">
       <c r="A166" s="19" t="s">
         <v>167</v>
       </c>
@@ -11940,7 +12024,7 @@
         <v>-36.200000000000003</v>
       </c>
     </row>
-    <row r="167" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:27" ht="18">
       <c r="A167" s="19" t="s">
         <v>168</v>
       </c>
@@ -11976,7 +12060,7 @@
         <v>-54.8</v>
       </c>
     </row>
-    <row r="168" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:27" ht="18">
       <c r="A168" s="19" t="s">
         <v>169</v>
       </c>
@@ -12010,7 +12094,7 @@
         <v>-59.1</v>
       </c>
     </row>
-    <row r="169" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:27" ht="18">
       <c r="A169" s="19" t="s">
         <v>170</v>
       </c>
@@ -12046,7 +12130,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="170" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:27" ht="18">
       <c r="A170" s="19" t="s">
         <v>171</v>
       </c>
@@ -12080,7 +12164,7 @@
         <v>-51.3</v>
       </c>
     </row>
-    <row r="171" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:27" ht="18">
       <c r="A171" s="19" t="s">
         <v>172</v>
       </c>
@@ -12116,7 +12200,7 @@
         <v>-34.200000000000003</v>
       </c>
     </row>
-    <row r="172" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:27" ht="18">
       <c r="A172" s="19" t="s">
         <v>173</v>
       </c>
@@ -12150,7 +12234,7 @@
         <v>-43.6</v>
       </c>
     </row>
-    <row r="173" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:27" ht="18">
       <c r="A173" s="19" t="s">
         <v>174</v>
       </c>
@@ -12186,7 +12270,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="174" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:27" ht="18">
       <c r="A174" s="19" t="s">
         <v>175</v>
       </c>
@@ -12220,7 +12304,7 @@
         <v>-46.2</v>
       </c>
     </row>
-    <row r="175" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:27" ht="18">
       <c r="A175" s="19" t="s">
         <v>176</v>
       </c>
@@ -12256,7 +12340,7 @@
         <v>-47.4</v>
       </c>
     </row>
-    <row r="176" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:27" ht="18">
       <c r="A176" s="19" t="s">
         <v>177</v>
       </c>
@@ -12290,7 +12374,7 @@
         <v>-56.8</v>
       </c>
     </row>
-    <row r="177" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:24" ht="18">
       <c r="A177" s="19" t="s">
         <v>178</v>
       </c>
@@ -12326,7 +12410,7 @@
         <v>-53.4</v>
       </c>
     </row>
-    <row r="178" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:24" ht="18">
       <c r="A178" s="22" t="s">
         <v>179</v>
       </c>
@@ -12362,7 +12446,7 @@
         <v>-51.8</v>
       </c>
     </row>
-    <row r="179" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:24" ht="18">
       <c r="A179" s="22" t="s">
         <v>180</v>
       </c>
@@ -12400,7 +12484,7 @@
         <v>-54.1</v>
       </c>
     </row>
-    <row r="180" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:24" ht="18">
       <c r="A180" s="22" t="s">
         <v>181</v>
       </c>
@@ -12434,7 +12518,7 @@
         <v>-46.6</v>
       </c>
     </row>
-    <row r="181" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:24" ht="18">
       <c r="A181" s="22" t="s">
         <v>182</v>
       </c>
@@ -12470,7 +12554,7 @@
         <v>-47.9</v>
       </c>
     </row>
-    <row r="182" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:24" ht="18">
       <c r="A182" s="22" t="s">
         <v>183</v>
       </c>
@@ -12504,7 +12588,7 @@
         <v>-41.4</v>
       </c>
     </row>
-    <row r="183" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:24" ht="18">
       <c r="A183" s="22" t="s">
         <v>184</v>
       </c>
@@ -12540,7 +12624,7 @@
         <v>-53.4</v>
       </c>
     </row>
-    <row r="184" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:24" ht="18">
       <c r="A184" s="22" t="s">
         <v>185</v>
       </c>
@@ -12574,7 +12658,7 @@
         <v>-51.6</v>
       </c>
     </row>
-    <row r="185" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:24" ht="18">
       <c r="A185" s="22" t="s">
         <v>186</v>
       </c>
@@ -12610,7 +12694,7 @@
         <v>-50.6</v>
       </c>
     </row>
-    <row r="186" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:24" ht="18">
       <c r="A186" s="22" t="s">
         <v>187</v>
       </c>
@@ -12644,7 +12728,7 @@
         <v>-54.7</v>
       </c>
     </row>
-    <row r="187" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:24" ht="18">
       <c r="A187" s="22" t="s">
         <v>188</v>
       </c>
@@ -12680,7 +12764,7 @@
         <v>-55.2</v>
       </c>
     </row>
-    <row r="188" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:24" ht="18">
       <c r="A188" s="22" t="s">
         <v>189</v>
       </c>
@@ -12714,7 +12798,7 @@
         <v>-49.8</v>
       </c>
     </row>
-    <row r="189" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:24" ht="18">
       <c r="A189" s="22" t="s">
         <v>190</v>
       </c>
@@ -12750,7 +12834,7 @@
         <v>-51.6</v>
       </c>
     </row>
-    <row r="190" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:24" ht="18">
       <c r="A190" s="22" t="s">
         <v>191</v>
       </c>
@@ -12784,7 +12868,7 @@
         <v>-53.7</v>
       </c>
     </row>
-    <row r="191" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:24" ht="18">
       <c r="A191" s="22" t="s">
         <v>192</v>
       </c>
@@ -12820,7 +12904,7 @@
         <v>-46.3</v>
       </c>
     </row>
-    <row r="192" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:24" ht="18">
       <c r="A192" s="22" t="s">
         <v>193</v>
       </c>
@@ -12854,7 +12938,7 @@
         <v>-49</v>
       </c>
     </row>
-    <row r="193" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:27" ht="18">
       <c r="A193" s="22" t="s">
         <v>194</v>
       </c>
@@ -12890,7 +12974,7 @@
         <v>-46.5</v>
       </c>
     </row>
-    <row r="194" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:27" ht="18">
       <c r="A194" s="14" t="s">
         <v>195</v>
       </c>
@@ -12959,13 +13043,13 @@
       </c>
       <c r="Z194">
         <f>AVERAGE(X194,X196,X198,X200,X202,X204,X206,X208)</f>
-        <v>-8.1750000000000007</v>
+        <v>-1.0125000000000002</v>
       </c>
       <c r="AA194">
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="195" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:27" ht="18">
       <c r="A195" s="14" t="s">
         <v>196</v>
       </c>
@@ -13027,13 +13111,13 @@
       </c>
       <c r="Z195">
         <f>AVERAGE(X195,X197,X199,X201,X203,X205,X207,X209)</f>
-        <v>-16.337500000000002</v>
+        <v>-9.0749999999999993</v>
       </c>
       <c r="AA195">
         <v>1.11E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:27" ht="18">
       <c r="A196" s="14" t="s">
         <v>197</v>
       </c>
@@ -13085,7 +13169,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:27" ht="18">
       <c r="A197" s="14" t="s">
         <v>198</v>
       </c>
@@ -13121,7 +13205,7 @@
         <v>-31.8</v>
       </c>
     </row>
-    <row r="198" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:27" ht="18">
       <c r="A198" s="14" t="s">
         <v>199</v>
       </c>
@@ -13186,7 +13270,7 @@
         <v>1.2800000000000001E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:27" ht="18">
       <c r="A199" s="14" t="s">
         <v>200</v>
       </c>
@@ -13213,16 +13297,34 @@
       <c r="L199" s="12"/>
       <c r="M199" s="12"/>
       <c r="N199" s="12"/>
-      <c r="W199" t="e">
+      <c r="P199">
+        <v>58.1</v>
+      </c>
+      <c r="Q199">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="R199">
+        <v>31.4</v>
+      </c>
+      <c r="S199">
+        <v>34.1</v>
+      </c>
+      <c r="T199">
+        <v>37.9</v>
+      </c>
+      <c r="W199">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>34.274999999999999</v>
       </c>
       <c r="X199">
         <f t="shared" si="6"/>
-        <v>-54.4</v>
-      </c>
-    </row>
-    <row r="200" spans="1:27" x14ac:dyDescent="0.2">
+        <v>3.7000000000000028</v>
+      </c>
+      <c r="AA199">
+        <v>1.7399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:27" ht="18">
       <c r="A200" s="14" t="s">
         <v>201</v>
       </c>
@@ -13256,7 +13358,7 @@
         <v>-51.6</v>
       </c>
     </row>
-    <row r="201" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:27" ht="18">
       <c r="A201" s="14" t="s">
         <v>202</v>
       </c>
@@ -13292,7 +13394,7 @@
         <v>-51.8</v>
       </c>
     </row>
-    <row r="202" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:27" ht="18">
       <c r="A202" s="14" t="s">
         <v>203</v>
       </c>
@@ -13344,7 +13446,7 @@
         <v>1.18E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:27" ht="19" customHeight="1">
       <c r="A203" s="14" t="s">
         <v>204</v>
       </c>
@@ -13401,7 +13503,7 @@
         <v>1.54E-2</v>
       </c>
     </row>
-    <row r="204" spans="1:27" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:27" ht="17" customHeight="1">
       <c r="A204" s="14" t="s">
         <v>205</v>
       </c>
@@ -13426,16 +13528,34 @@
       <c r="L204" s="12"/>
       <c r="M204" s="12"/>
       <c r="N204" s="12"/>
-      <c r="W204" t="e">
+      <c r="P204">
+        <v>57.3</v>
+      </c>
+      <c r="Q204">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="R204">
+        <v>38.4</v>
+      </c>
+      <c r="S204">
+        <v>41.4</v>
+      </c>
+      <c r="T204">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="W204">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>38.674999999999997</v>
       </c>
       <c r="X204">
         <f t="shared" si="6"/>
-        <v>-51.3</v>
-      </c>
-    </row>
-    <row r="205" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="AA204">
+        <v>2.24E-2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:27" ht="18" customHeight="1">
       <c r="A205" s="14" t="s">
         <v>206</v>
       </c>
@@ -13502,7 +13622,7 @@
         <v>1.2699999999999999E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:27" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:27" ht="17" customHeight="1">
       <c r="A206" s="14" t="s">
         <v>207</v>
       </c>
@@ -13567,7 +13687,7 @@
         <v>4.3E-3</v>
       </c>
     </row>
-    <row r="207" spans="1:27" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:27" ht="17" customHeight="1">
       <c r="A207" s="14" t="s">
         <v>208</v>
       </c>
@@ -13623,7 +13743,7 @@
         <v>2.01E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:27" ht="18">
       <c r="A208" s="14" t="s">
         <v>209</v>
       </c>
@@ -13688,7 +13808,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:27" ht="18">
       <c r="A209" s="14" t="s">
         <v>210</v>
       </c>
@@ -13742,7 +13862,7 @@
         <v>1.5800000000000002E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:27" ht="18">
       <c r="A210" s="19" t="s">
         <v>211</v>
       </c>
@@ -13778,7 +13898,7 @@
         <v>-48.4</v>
       </c>
     </row>
-    <row r="211" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:27" ht="18">
       <c r="A211" s="19" t="s">
         <v>212</v>
       </c>
@@ -13814,7 +13934,7 @@
         <v>-39.5</v>
       </c>
     </row>
-    <row r="212" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:27" ht="18">
       <c r="A212" s="19" t="s">
         <v>213</v>
       </c>
@@ -13848,7 +13968,7 @@
         <v>-57.6</v>
       </c>
     </row>
-    <row r="213" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:27" ht="18">
       <c r="A213" s="19" t="s">
         <v>214</v>
       </c>
@@ -13886,7 +14006,7 @@
         <v>-53.8</v>
       </c>
     </row>
-    <row r="214" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:27" ht="18">
       <c r="A214" s="19" t="s">
         <v>215</v>
       </c>
@@ -13920,7 +14040,7 @@
         <v>-39.6</v>
       </c>
     </row>
-    <row r="215" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:27" ht="18">
       <c r="A215" s="19" t="s">
         <v>216</v>
       </c>
@@ -13956,7 +14076,7 @@
         <v>-39.1</v>
       </c>
     </row>
-    <row r="216" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:27" ht="18">
       <c r="A216" s="19" t="s">
         <v>217</v>
       </c>
@@ -13990,7 +14110,7 @@
         <v>-52</v>
       </c>
     </row>
-    <row r="217" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:27" ht="18">
       <c r="A217" s="19" t="s">
         <v>218</v>
       </c>
@@ -14026,7 +14146,7 @@
         <v>-48.2</v>
       </c>
     </row>
-    <row r="218" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:27" ht="18">
       <c r="A218" s="19" t="s">
         <v>219</v>
       </c>
@@ -14060,7 +14180,7 @@
         <v>-48.2</v>
       </c>
     </row>
-    <row r="219" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:27" ht="18">
       <c r="A219" s="19" t="s">
         <v>220</v>
       </c>
@@ -14096,7 +14216,7 @@
         <v>-51.2</v>
       </c>
     </row>
-    <row r="220" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:27" ht="18">
       <c r="A220" s="19" t="s">
         <v>221</v>
       </c>
@@ -14130,7 +14250,7 @@
         <v>-51.4</v>
       </c>
     </row>
-    <row r="221" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:27" ht="18">
       <c r="A221" s="19" t="s">
         <v>222</v>
       </c>
@@ -14166,7 +14286,7 @@
         <v>-43.6</v>
       </c>
     </row>
-    <row r="222" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:27" ht="18">
       <c r="A222" s="19" t="s">
         <v>223</v>
       </c>
@@ -14218,7 +14338,7 @@
         <v>1.41E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:27" ht="18">
       <c r="A223" s="19" t="s">
         <v>224</v>
       </c>
@@ -14254,7 +14374,7 @@
         <v>-50.2</v>
       </c>
     </row>
-    <row r="224" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:27" ht="18">
       <c r="A224" s="19" t="s">
         <v>225</v>
       </c>
@@ -14288,7 +14408,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="225" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:24" ht="18">
       <c r="A225" s="19" t="s">
         <v>226</v>
       </c>
@@ -14324,7 +14444,7 @@
         <v>-34.200000000000003</v>
       </c>
     </row>
-    <row r="226" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:24" ht="18">
       <c r="A226" s="22" t="s">
         <v>227</v>
       </c>
@@ -14360,7 +14480,7 @@
         <v>-62.9</v>
       </c>
     </row>
-    <row r="227" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:24" ht="18">
       <c r="A227" s="22" t="s">
         <v>228</v>
       </c>
@@ -14398,7 +14518,7 @@
         <v>-49.5</v>
       </c>
     </row>
-    <row r="228" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:24" ht="18">
       <c r="A228" s="22" t="s">
         <v>229</v>
       </c>
@@ -14432,7 +14552,7 @@
         <v>-41.6</v>
       </c>
     </row>
-    <row r="229" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:24" ht="18">
       <c r="A229" s="22" t="s">
         <v>230</v>
       </c>
@@ -14468,7 +14588,7 @@
         <v>-50.3</v>
       </c>
     </row>
-    <row r="230" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:24" ht="18">
       <c r="A230" s="22" t="s">
         <v>231</v>
       </c>
@@ -14502,7 +14622,7 @@
         <v>-49.6</v>
       </c>
     </row>
-    <row r="231" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:24" ht="18">
       <c r="A231" s="22" t="s">
         <v>232</v>
       </c>
@@ -14538,7 +14658,7 @@
         <v>-56</v>
       </c>
     </row>
-    <row r="232" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:24" ht="18">
       <c r="A232" s="22" t="s">
         <v>233</v>
       </c>
@@ -14572,7 +14692,7 @@
         <v>-36.200000000000003</v>
       </c>
     </row>
-    <row r="233" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:24" ht="18">
       <c r="A233" s="22" t="s">
         <v>234</v>
       </c>
@@ -14608,7 +14728,7 @@
         <v>-40.6</v>
       </c>
     </row>
-    <row r="234" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:24" ht="18">
       <c r="A234" s="22" t="s">
         <v>235</v>
       </c>
@@ -14642,7 +14762,7 @@
         <v>-55</v>
       </c>
     </row>
-    <row r="235" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:24" ht="18">
       <c r="A235" s="22" t="s">
         <v>236</v>
       </c>
@@ -14678,7 +14798,7 @@
         <v>-55.9</v>
       </c>
     </row>
-    <row r="236" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:24" ht="18">
       <c r="A236" s="22" t="s">
         <v>237</v>
       </c>
@@ -14712,7 +14832,7 @@
         <v>-53.4</v>
       </c>
     </row>
-    <row r="237" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:24" ht="18">
       <c r="A237" s="22" t="s">
         <v>238</v>
       </c>
@@ -14750,7 +14870,7 @@
         <v>-47.3</v>
       </c>
     </row>
-    <row r="238" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:24" ht="18">
       <c r="A238" s="22" t="s">
         <v>239</v>
       </c>
@@ -14784,7 +14904,7 @@
         <v>-60.4</v>
       </c>
     </row>
-    <row r="239" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:24" ht="18">
       <c r="A239" s="22" t="s">
         <v>240</v>
       </c>
@@ -14820,7 +14940,7 @@
         <v>-55.6</v>
       </c>
     </row>
-    <row r="240" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:24" ht="18">
       <c r="A240" s="22" t="s">
         <v>241</v>
       </c>
@@ -14854,7 +14974,7 @@
         <v>-50.2</v>
       </c>
     </row>
-    <row r="241" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:24" ht="18">
       <c r="A241" s="22" t="s">
         <v>242</v>
       </c>
@@ -14892,7 +15012,7 @@
         <v>-58.6</v>
       </c>
     </row>
-    <row r="242" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:24" ht="18">
       <c r="A242" s="14" t="s">
         <v>243</v>
       </c>
@@ -14922,7 +15042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:24" ht="18">
       <c r="A243" s="14" t="s">
         <v>244</v>
       </c>
@@ -14958,7 +15078,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="244" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:24" ht="18">
       <c r="A244" s="14" t="s">
         <v>245</v>
       </c>
@@ -14992,7 +15112,7 @@
         <v>-40.200000000000003</v>
       </c>
     </row>
-    <row r="245" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:24" ht="18">
       <c r="A245" s="14" t="s">
         <v>246</v>
       </c>
@@ -15028,7 +15148,7 @@
         <v>-26.9</v>
       </c>
     </row>
-    <row r="246" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:24" ht="18">
       <c r="A246" s="14" t="s">
         <v>247</v>
       </c>
@@ -15056,7 +15176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:24" ht="18">
       <c r="A247" s="14" t="s">
         <v>248</v>
       </c>
@@ -15084,7 +15204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:24" ht="18">
       <c r="A248" s="14" t="s">
         <v>249</v>
       </c>
@@ -15114,7 +15234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:24" ht="18">
       <c r="A249" s="14" t="s">
         <v>250</v>
       </c>
@@ -15142,7 +15262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:24" ht="18">
       <c r="A250" s="14" t="s">
         <v>251</v>
       </c>
@@ -15170,7 +15290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:24" ht="18">
       <c r="A251" s="14" t="s">
         <v>252</v>
       </c>
@@ -15206,7 +15326,7 @@
         <v>-34.1</v>
       </c>
     </row>
-    <row r="252" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:24" ht="18">
       <c r="A252" s="14" t="s">
         <v>253</v>
       </c>
@@ -15240,7 +15360,7 @@
         <v>-27.7</v>
       </c>
     </row>
-    <row r="253" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:24" ht="18">
       <c r="A253" s="14" t="s">
         <v>254</v>
       </c>
@@ -15268,7 +15388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:24" ht="18">
       <c r="A254" s="14" t="s">
         <v>255</v>
       </c>
@@ -15302,7 +15422,7 @@
         <v>-30.3</v>
       </c>
     </row>
-    <row r="255" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:24" ht="18">
       <c r="A255" s="14" t="s">
         <v>256</v>
       </c>
@@ -15330,7 +15450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:24" ht="18">
       <c r="A256" s="14" t="s">
         <v>257</v>
       </c>
@@ -15358,7 +15478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:24" ht="18">
       <c r="A257" s="14" t="s">
         <v>258</v>
       </c>
@@ -15386,7 +15506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:24" ht="18">
       <c r="A258" s="19" t="s">
         <v>259</v>
       </c>
@@ -15418,7 +15538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:24" ht="18">
       <c r="A259" s="19" t="s">
         <v>260</v>
       </c>
@@ -15454,7 +15574,7 @@
         <v>-35.9</v>
       </c>
     </row>
-    <row r="260" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:24" ht="18">
       <c r="A260" s="19" t="s">
         <v>261</v>
       </c>
@@ -15482,7 +15602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:24" ht="18">
       <c r="A261" s="19" t="s">
         <v>262</v>
       </c>
@@ -15510,7 +15630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:24" ht="18">
       <c r="A262" s="19" t="s">
         <v>263</v>
       </c>
@@ -15538,7 +15658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:24" ht="18">
       <c r="A263" s="19" t="s">
         <v>264</v>
       </c>
@@ -15566,7 +15686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:24" ht="18">
       <c r="A264" s="19" t="s">
         <v>265</v>
       </c>
@@ -15600,7 +15720,7 @@
         <v>-29.2</v>
       </c>
     </row>
-    <row r="265" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:24" ht="18">
       <c r="A265" s="19" t="s">
         <v>266</v>
       </c>
@@ -15628,7 +15748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:24" ht="18">
       <c r="A266" s="19" t="s">
         <v>267</v>
       </c>
@@ -15662,7 +15782,7 @@
         <v>-38.6</v>
       </c>
     </row>
-    <row r="267" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:24" ht="18">
       <c r="A267" s="19" t="s">
         <v>268</v>
       </c>
@@ -15690,7 +15810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:24" ht="18">
       <c r="A268" s="19" t="s">
         <v>269</v>
       </c>
@@ -15718,7 +15838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:24" ht="18">
       <c r="A269" s="19" t="s">
         <v>270</v>
       </c>
@@ -15746,7 +15866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:24" ht="18">
       <c r="A270" s="19" t="s">
         <v>271</v>
       </c>
@@ -15780,7 +15900,7 @@
         <v>-20.100000000000001</v>
       </c>
     </row>
-    <row r="271" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:24" ht="18">
       <c r="A271" s="19" t="s">
         <v>272</v>
       </c>
@@ -15808,7 +15928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:24" ht="18">
       <c r="A272" s="19" t="s">
         <v>273</v>
       </c>
@@ -15842,7 +15962,7 @@
         <v>-21.9</v>
       </c>
     </row>
-    <row r="273" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:24" ht="18">
       <c r="A273" s="19" t="s">
         <v>274</v>
       </c>
@@ -15870,7 +15990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:24" ht="18">
       <c r="A274" s="22" t="s">
         <v>275</v>
       </c>
@@ -15900,7 +16020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:24" ht="18">
       <c r="A275" s="22" t="s">
         <v>276</v>
       </c>
@@ -15928,7 +16048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:24" ht="18">
       <c r="A276" s="22" t="s">
         <v>277</v>
       </c>
@@ -15956,7 +16076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:24" ht="18">
       <c r="A277" s="22" t="s">
         <v>278</v>
       </c>
@@ -15984,7 +16104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:24" ht="18">
       <c r="A278" s="22" t="s">
         <v>279</v>
       </c>
@@ -16012,7 +16132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:24" ht="18">
       <c r="A279" s="22" t="s">
         <v>280</v>
       </c>
@@ -16040,7 +16160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:24" ht="18">
       <c r="A280" s="22" t="s">
         <v>281</v>
       </c>
@@ -16068,7 +16188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:24" ht="18">
       <c r="A281" s="22" t="s">
         <v>282</v>
       </c>
@@ -16096,7 +16216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:24" ht="18">
       <c r="A282" s="22" t="s">
         <v>283</v>
       </c>
@@ -16124,7 +16244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:24" ht="18">
       <c r="A283" s="22" t="s">
         <v>284</v>
       </c>
@@ -16152,7 +16272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:24" ht="18">
       <c r="A284" s="22" t="s">
         <v>285</v>
       </c>
@@ -16180,7 +16300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:24" ht="18">
       <c r="A285" s="22" t="s">
         <v>286</v>
       </c>
@@ -16208,7 +16328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:24" ht="18">
       <c r="A286" s="22" t="s">
         <v>287</v>
       </c>
@@ -16236,7 +16356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:24" ht="18">
       <c r="A287" s="22" t="s">
         <v>288</v>
       </c>
@@ -16264,7 +16384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:24" ht="18">
       <c r="A288" s="22" t="s">
         <v>289</v>
       </c>
@@ -16292,7 +16412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:24" ht="18">
       <c r="A289" s="22" t="s">
         <v>290</v>
       </c>
@@ -16320,7 +16440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:24" ht="18">
       <c r="A290" s="14" t="s">
         <v>291</v>
       </c>
@@ -16350,7 +16470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:24" ht="18">
       <c r="A291" s="14" t="s">
         <v>292</v>
       </c>
@@ -16380,7 +16500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:24" ht="18">
       <c r="A292" s="14" t="s">
         <v>293</v>
       </c>
@@ -16410,7 +16530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:24" ht="18">
       <c r="A293" s="14" t="s">
         <v>294</v>
       </c>
@@ -16440,7 +16560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:24" ht="18">
       <c r="A294" s="14" t="s">
         <v>295</v>
       </c>
@@ -16468,7 +16588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:24" ht="18">
       <c r="A295" s="14" t="s">
         <v>296</v>
       </c>
@@ -16496,7 +16616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:24" ht="18">
       <c r="A296" s="14" t="s">
         <v>297</v>
       </c>
@@ -16530,7 +16650,7 @@
         <v>-28.5</v>
       </c>
     </row>
-    <row r="297" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:24" ht="18">
       <c r="A297" s="14" t="s">
         <v>298</v>
       </c>
@@ -16558,7 +16678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:24" ht="18">
       <c r="A298" s="14" t="s">
         <v>299</v>
       </c>
@@ -16586,7 +16706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:24" ht="18">
       <c r="A299" s="14" t="s">
         <v>300</v>
       </c>
@@ -16622,7 +16742,7 @@
         <v>-26.7</v>
       </c>
     </row>
-    <row r="300" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:24" ht="18">
       <c r="A300" s="14" t="s">
         <v>301</v>
       </c>
@@ -16656,7 +16776,7 @@
         <v>-21.8</v>
       </c>
     </row>
-    <row r="301" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:24" ht="18">
       <c r="A301" s="14" t="s">
         <v>302</v>
       </c>
@@ -16692,7 +16812,7 @@
         <v>-25.4</v>
       </c>
     </row>
-    <row r="302" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:24" ht="18">
       <c r="A302" s="14" t="s">
         <v>303</v>
       </c>
@@ -16720,7 +16840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:24" ht="18">
       <c r="A303" s="14" t="s">
         <v>304</v>
       </c>
@@ -16756,7 +16876,7 @@
         <v>-32.200000000000003</v>
       </c>
     </row>
-    <row r="304" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:24" ht="18">
       <c r="A304" s="14" t="s">
         <v>305</v>
       </c>
@@ -16790,7 +16910,7 @@
         <v>-23.6</v>
       </c>
     </row>
-    <row r="305" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:24" ht="18">
       <c r="A305" s="14" t="s">
         <v>306</v>
       </c>
@@ -16818,7 +16938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:24" ht="18">
       <c r="A306" s="19" t="s">
         <v>307</v>
       </c>
@@ -16848,7 +16968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:24" ht="18">
       <c r="A307" s="19" t="s">
         <v>308</v>
       </c>
@@ -16876,7 +16996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:24" ht="18">
       <c r="A308" s="19" t="s">
         <v>309</v>
       </c>
@@ -16904,7 +17024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:24" ht="18">
       <c r="A309" s="19" t="s">
         <v>310</v>
       </c>
@@ -16932,7 +17052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:24" ht="18">
       <c r="A310" s="19" t="s">
         <v>311</v>
       </c>
@@ -16960,7 +17080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:24" ht="18">
       <c r="A311" s="19" t="s">
         <v>312</v>
       </c>
@@ -16988,7 +17108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:24" ht="18">
       <c r="A312" s="19" t="s">
         <v>313</v>
       </c>
@@ -17016,7 +17136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:24" ht="18">
       <c r="A313" s="19" t="s">
         <v>314</v>
       </c>
@@ -17044,7 +17164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:24" ht="18">
       <c r="A314" s="19" t="s">
         <v>315</v>
       </c>
@@ -17072,7 +17192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:24" ht="18">
       <c r="A315" s="19" t="s">
         <v>316</v>
       </c>
@@ -17100,7 +17220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:24" ht="18">
       <c r="A316" s="19" t="s">
         <v>317</v>
       </c>
@@ -17128,7 +17248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:24" ht="18">
       <c r="A317" s="19" t="s">
         <v>318</v>
       </c>
@@ -17156,7 +17276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:24" ht="18">
       <c r="A318" s="19" t="s">
         <v>319</v>
       </c>
@@ -17184,7 +17304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:24" ht="18">
       <c r="A319" s="19" t="s">
         <v>320</v>
       </c>
@@ -17212,7 +17332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:24" ht="18">
       <c r="A320" s="19" t="s">
         <v>321</v>
       </c>
@@ -17240,7 +17360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:24" ht="18">
       <c r="A321" s="19" t="s">
         <v>322</v>
       </c>
@@ -17268,7 +17388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:24" ht="18">
       <c r="A322" s="22" t="s">
         <v>323</v>
       </c>
@@ -17298,7 +17418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:24" ht="18">
       <c r="A323" s="22" t="s">
         <v>324</v>
       </c>
@@ -17326,7 +17446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:24" ht="18">
       <c r="A324" s="22" t="s">
         <v>325</v>
       </c>
@@ -17354,7 +17474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:24" ht="18">
       <c r="A325" s="22" t="s">
         <v>326</v>
       </c>
@@ -17386,7 +17506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:24" ht="18">
       <c r="A326" s="22" t="s">
         <v>327</v>
       </c>
@@ -17414,7 +17534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:24" ht="18">
       <c r="A327" s="22" t="s">
         <v>328</v>
       </c>
@@ -17442,7 +17562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:24" ht="18">
       <c r="A328" s="22" t="s">
         <v>329</v>
       </c>
@@ -17470,7 +17590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:24" ht="18">
       <c r="A329" s="22" t="s">
         <v>330</v>
       </c>
@@ -17498,7 +17618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:24" ht="18">
       <c r="A330" s="22" t="s">
         <v>331</v>
       </c>
@@ -17526,7 +17646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:24" ht="18">
       <c r="A331" s="22" t="s">
         <v>332</v>
       </c>
@@ -17554,7 +17674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:24" ht="18">
       <c r="A332" s="22" t="s">
         <v>333</v>
       </c>
@@ -17582,7 +17702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:24" ht="18">
       <c r="A333" s="22" t="s">
         <v>334</v>
       </c>
@@ -17610,7 +17730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:24" ht="18">
       <c r="A334" s="22" t="s">
         <v>335</v>
       </c>
@@ -17638,7 +17758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:24" ht="18">
       <c r="A335" s="22" t="s">
         <v>336</v>
       </c>
@@ -17670,7 +17790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:24" ht="18">
       <c r="A336" s="22" t="s">
         <v>337</v>
       </c>
@@ -17698,7 +17818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:27" ht="18">
       <c r="A337" s="22" t="s">
         <v>338</v>
       </c>
@@ -17726,7 +17846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:27" ht="18">
       <c r="A338" s="14" t="s">
         <v>339</v>
       </c>
@@ -17801,7 +17921,7 @@
         <v>2.4199999999999999E-2</v>
       </c>
     </row>
-    <row r="339" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:27" ht="18">
       <c r="A339" s="14" t="s">
         <v>340</v>
       </c>
@@ -17876,7 +17996,7 @@
         <v>2.7300000000000001E-2</v>
       </c>
     </row>
-    <row r="340" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:27" ht="18">
       <c r="A340" s="14" t="s">
         <v>341</v>
       </c>
@@ -17941,7 +18061,7 @@
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="341" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:27" ht="18">
       <c r="A341" s="14" t="s">
         <v>342</v>
       </c>
@@ -18008,7 +18128,7 @@
         <v>3.6200000000000003E-2</v>
       </c>
     </row>
-    <row r="342" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:27" ht="18">
       <c r="A342" s="14" t="s">
         <v>343</v>
       </c>
@@ -18073,7 +18193,7 @@
         <v>2.46E-2</v>
       </c>
     </row>
-    <row r="343" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:27" ht="18">
       <c r="A343" s="14" t="s">
         <v>344</v>
       </c>
@@ -18140,7 +18260,7 @@
         <v>2.3099999999999999E-2</v>
       </c>
     </row>
-    <row r="344" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:27" ht="18">
       <c r="A344" s="14" t="s">
         <v>345</v>
       </c>
@@ -18205,7 +18325,7 @@
         <v>2.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="345" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:27" ht="18">
       <c r="A345" s="14" t="s">
         <v>346</v>
       </c>
@@ -18272,7 +18392,7 @@
         <v>3.04E-2</v>
       </c>
     </row>
-    <row r="346" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:27" ht="18">
       <c r="A346" s="14" t="s">
         <v>347</v>
       </c>
@@ -18337,7 +18457,7 @@
         <v>2.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="347" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:27" ht="18">
       <c r="A347" s="14" t="s">
         <v>348</v>
       </c>
@@ -18404,7 +18524,7 @@
         <v>2.4199999999999999E-2</v>
       </c>
     </row>
-    <row r="348" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:27" ht="18">
       <c r="A348" s="14" t="s">
         <v>349</v>
       </c>
@@ -18469,7 +18589,7 @@
         <v>3.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="349" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:27" ht="18">
       <c r="A349" s="14" t="s">
         <v>350</v>
       </c>
@@ -18536,7 +18656,7 @@
         <v>2.3800000000000002E-2</v>
       </c>
     </row>
-    <row r="350" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:27" ht="18">
       <c r="A350" s="14" t="s">
         <v>351</v>
       </c>
@@ -18601,7 +18721,7 @@
         <v>3.6499999999999998E-2</v>
       </c>
     </row>
-    <row r="351" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:27" ht="18">
       <c r="A351" s="14" t="s">
         <v>352</v>
       </c>
@@ -18670,7 +18790,7 @@
         <v>2.1399999999999999E-2</v>
       </c>
     </row>
-    <row r="352" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:27" ht="18">
       <c r="A352" s="14" t="s">
         <v>353</v>
       </c>
@@ -18735,7 +18855,7 @@
         <v>3.4700000000000002E-2</v>
       </c>
     </row>
-    <row r="353" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:27" ht="18">
       <c r="A353" s="14" t="s">
         <v>354</v>
       </c>
@@ -18789,7 +18909,7 @@
         <v>3.49E-2</v>
       </c>
     </row>
-    <row r="354" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:27" ht="18">
       <c r="A354" s="19" t="s">
         <v>355</v>
       </c>
@@ -18843,7 +18963,7 @@
         <v>3.04E-2</v>
       </c>
     </row>
-    <row r="355" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:27" ht="18">
       <c r="A355" s="19" t="s">
         <v>356</v>
       </c>
@@ -18879,7 +18999,7 @@
         <v>-31.8</v>
       </c>
     </row>
-    <row r="356" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:27" ht="18">
       <c r="A356" s="19" t="s">
         <v>357</v>
       </c>
@@ -18931,7 +19051,7 @@
         <v>3.0499999999999999E-2</v>
       </c>
     </row>
-    <row r="357" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:27" ht="18">
       <c r="A357" s="19" t="s">
         <v>358</v>
       </c>
@@ -18985,7 +19105,7 @@
         <v>2.0400000000000001E-2</v>
       </c>
     </row>
-    <row r="358" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:27" ht="18">
       <c r="A358" s="19" t="s">
         <v>359</v>
       </c>
@@ -19019,7 +19139,7 @@
         <v>-29.4</v>
       </c>
     </row>
-    <row r="359" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:27" ht="18">
       <c r="A359" s="19" t="s">
         <v>360</v>
       </c>
@@ -19073,7 +19193,7 @@
         <v>2.2100000000000002E-2</v>
       </c>
     </row>
-    <row r="360" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:27" ht="18">
       <c r="A360" s="19" t="s">
         <v>361</v>
       </c>
@@ -19125,7 +19245,7 @@
         <v>2.4799999999999999E-2</v>
       </c>
     </row>
-    <row r="361" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:27" ht="18">
       <c r="A361" s="19" t="s">
         <v>362</v>
       </c>
@@ -19161,7 +19281,7 @@
         <v>-25.8</v>
       </c>
     </row>
-    <row r="362" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:27" ht="18">
       <c r="A362" s="19" t="s">
         <v>363</v>
       </c>
@@ -19195,7 +19315,7 @@
         <v>-24.2</v>
       </c>
     </row>
-    <row r="363" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:27" ht="18">
       <c r="A363" s="19" t="s">
         <v>364</v>
       </c>
@@ -19231,7 +19351,7 @@
         <v>-20.399999999999999</v>
       </c>
     </row>
-    <row r="364" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:27" ht="18">
       <c r="A364" s="19" t="s">
         <v>365</v>
       </c>
@@ -19265,7 +19385,7 @@
         <v>-27.8</v>
       </c>
     </row>
-    <row r="365" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:27" ht="18">
       <c r="A365" s="19" t="s">
         <v>366</v>
       </c>
@@ -19301,7 +19421,7 @@
         <v>-29.6</v>
       </c>
     </row>
-    <row r="366" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:27" ht="18">
       <c r="A366" s="19" t="s">
         <v>367</v>
       </c>
@@ -19353,7 +19473,7 @@
         <v>3.1600000000000003E-2</v>
       </c>
     </row>
-    <row r="367" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:27" ht="18">
       <c r="A367" s="19" t="s">
         <v>368</v>
       </c>
@@ -19389,7 +19509,7 @@
         <v>-25.6</v>
       </c>
     </row>
-    <row r="368" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:27" ht="18">
       <c r="A368" s="19" t="s">
         <v>369</v>
       </c>
@@ -19441,7 +19561,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="369" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:24" ht="18">
       <c r="A369" s="19" t="s">
         <v>370</v>
       </c>
@@ -19479,7 +19599,7 @@
         <v>-25.2</v>
       </c>
     </row>
-    <row r="370" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:24" ht="18">
       <c r="A370" s="22" t="s">
         <v>371</v>
       </c>
@@ -19515,7 +19635,7 @@
         <v>-26</v>
       </c>
     </row>
-    <row r="371" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:24" ht="18">
       <c r="A371" s="22" t="s">
         <v>372</v>
       </c>
@@ -19551,7 +19671,7 @@
         <v>-24.1</v>
       </c>
     </row>
-    <row r="372" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:24" ht="18">
       <c r="A372" s="22" t="s">
         <v>373</v>
       </c>
@@ -19585,7 +19705,7 @@
         <v>-21.2</v>
       </c>
     </row>
-    <row r="373" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:24" ht="18">
       <c r="A373" s="22" t="s">
         <v>374</v>
       </c>
@@ -19621,7 +19741,7 @@
         <v>-26</v>
       </c>
     </row>
-    <row r="374" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:24" ht="18">
       <c r="A374" s="22" t="s">
         <v>375</v>
       </c>
@@ -19655,7 +19775,7 @@
         <v>-25.6</v>
       </c>
     </row>
-    <row r="375" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:24" ht="18">
       <c r="A375" s="22" t="s">
         <v>376</v>
       </c>
@@ -19691,7 +19811,7 @@
         <v>-27.4</v>
       </c>
     </row>
-    <row r="376" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:24" ht="18">
       <c r="A376" s="22" t="s">
         <v>377</v>
       </c>
@@ -19725,7 +19845,7 @@
         <v>-27.4</v>
       </c>
     </row>
-    <row r="377" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:24" ht="18">
       <c r="A377" s="22" t="s">
         <v>378</v>
       </c>
@@ -19761,7 +19881,7 @@
         <v>-18.2</v>
       </c>
     </row>
-    <row r="378" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:24" ht="18">
       <c r="A378" s="22" t="s">
         <v>379</v>
       </c>
@@ -19795,7 +19915,7 @@
         <v>-21</v>
       </c>
     </row>
-    <row r="379" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:24" ht="18">
       <c r="A379" s="22" t="s">
         <v>380</v>
       </c>
@@ -19831,7 +19951,7 @@
         <v>-34</v>
       </c>
     </row>
-    <row r="380" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:24" ht="18">
       <c r="A380" s="22" t="s">
         <v>381</v>
       </c>
@@ -19865,7 +19985,7 @@
         <v>-25.4</v>
       </c>
     </row>
-    <row r="381" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:24" ht="18">
       <c r="A381" s="22" t="s">
         <v>382</v>
       </c>
@@ -19901,7 +20021,7 @@
         <v>-32.6</v>
       </c>
     </row>
-    <row r="382" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:24" ht="18">
       <c r="A382" s="22" t="s">
         <v>383</v>
       </c>
@@ -19935,7 +20055,7 @@
         <v>-28.2</v>
       </c>
     </row>
-    <row r="383" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:24" ht="18">
       <c r="A383" s="22" t="s">
         <v>384</v>
       </c>
@@ -19973,7 +20093,7 @@
         <v>-26.2</v>
       </c>
     </row>
-    <row r="384" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:24" ht="18">
       <c r="A384" s="22" t="s">
         <v>385</v>
       </c>
@@ -20007,7 +20127,7 @@
         <v>-22.4</v>
       </c>
     </row>
-    <row r="385" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:27" s="5" customFormat="1" ht="18">
       <c r="A385" s="25" t="s">
         <v>386</v>
       </c>
@@ -20036,7 +20156,7 @@
       </c>
       <c r="AA385"/>
     </row>
-    <row r="386" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:27" ht="18">
       <c r="A386" s="14" t="s">
         <v>387</v>
       </c>
@@ -20072,7 +20192,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="387" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:27" ht="18">
       <c r="A387" s="14" t="s">
         <v>388</v>
       </c>
@@ -20111,7 +20231,7 @@
       </c>
       <c r="AA387" s="5"/>
     </row>
-    <row r="388" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:27" ht="18">
       <c r="A388" s="25" t="s">
         <v>389</v>
       </c>
@@ -20143,7 +20263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:27" ht="18">
       <c r="A389" s="14" t="s">
         <v>390</v>
       </c>
@@ -20181,7 +20301,7 @@
         <v>-49.8</v>
       </c>
     </row>
-    <row r="390" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:27" ht="18">
       <c r="A390" s="14" t="s">
         <v>391</v>
       </c>
@@ -20217,7 +20337,7 @@
         <v>-48.8</v>
       </c>
     </row>
-    <row r="391" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:27" ht="18">
       <c r="A391" s="14" t="s">
         <v>392</v>
       </c>
@@ -20253,7 +20373,7 @@
         <v>-48.6</v>
       </c>
     </row>
-    <row r="392" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:27" ht="18">
       <c r="A392" s="14" t="s">
         <v>393</v>
       </c>
@@ -20287,7 +20407,7 @@
         <v>-54.6</v>
       </c>
     </row>
-    <row r="393" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:27" ht="18">
       <c r="A393" s="14" t="s">
         <v>394</v>
       </c>
@@ -20323,7 +20443,7 @@
         <v>-38.6</v>
       </c>
     </row>
-    <row r="394" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:27" ht="18">
       <c r="A394" s="14" t="s">
         <v>395</v>
       </c>
@@ -20357,7 +20477,7 @@
         <v>-44.8</v>
       </c>
     </row>
-    <row r="395" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:27" ht="18">
       <c r="A395" s="14" t="s">
         <v>396</v>
       </c>
@@ -20393,7 +20513,7 @@
         <v>-39.4</v>
       </c>
     </row>
-    <row r="396" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:27" ht="18">
       <c r="A396" s="14" t="s">
         <v>397</v>
       </c>
@@ -20427,7 +20547,7 @@
         <v>-40.4</v>
       </c>
     </row>
-    <row r="397" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:27" ht="18">
       <c r="A397" s="14" t="s">
         <v>398</v>
       </c>
@@ -20463,7 +20583,7 @@
         <v>-56.6</v>
       </c>
     </row>
-    <row r="398" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:27" ht="18">
       <c r="A398" s="14" t="s">
         <v>399</v>
       </c>
@@ -20497,7 +20617,7 @@
         <v>-55.4</v>
       </c>
     </row>
-    <row r="399" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:27" ht="18">
       <c r="A399" s="14" t="s">
         <v>400</v>
       </c>
@@ -20535,7 +20655,7 @@
         <v>-43.4</v>
       </c>
     </row>
-    <row r="400" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:27" ht="18">
       <c r="A400" s="14" t="s">
         <v>401</v>
       </c>
@@ -20569,7 +20689,7 @@
         <v>-59.2</v>
       </c>
     </row>
-    <row r="401" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:24" ht="18">
       <c r="A401" s="14" t="s">
         <v>402</v>
       </c>
@@ -20605,7 +20725,7 @@
         <v>-58.4</v>
       </c>
     </row>
-    <row r="402" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:24" ht="18">
       <c r="A402" s="19" t="s">
         <v>403</v>
       </c>
@@ -20641,7 +20761,7 @@
         <v>-57.6</v>
       </c>
     </row>
-    <row r="403" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:24" ht="18">
       <c r="A403" s="19" t="s">
         <v>404</v>
       </c>
@@ -20679,7 +20799,7 @@
         <v>-50.9</v>
       </c>
     </row>
-    <row r="404" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:24" ht="18">
       <c r="A404" s="19" t="s">
         <v>405</v>
       </c>
@@ -20715,7 +20835,7 @@
         <v>-50.4</v>
       </c>
     </row>
-    <row r="405" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:24" ht="18">
       <c r="A405" s="19" t="s">
         <v>406</v>
       </c>
@@ -20753,7 +20873,7 @@
         <v>-45.4</v>
       </c>
     </row>
-    <row r="406" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:24" ht="18">
       <c r="A406" s="19" t="s">
         <v>407</v>
       </c>
@@ -20787,7 +20907,7 @@
         <v>-50.6</v>
       </c>
     </row>
-    <row r="407" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:24" ht="18">
       <c r="A407" s="19" t="s">
         <v>408</v>
       </c>
@@ -20823,7 +20943,7 @@
         <v>-58.3</v>
       </c>
     </row>
-    <row r="408" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:24" ht="18">
       <c r="A408" s="19" t="s">
         <v>409</v>
       </c>
@@ -20857,7 +20977,7 @@
         <v>-58.3</v>
       </c>
     </row>
-    <row r="409" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:24" ht="18">
       <c r="A409" s="19" t="s">
         <v>410</v>
       </c>
@@ -20893,7 +21013,7 @@
         <v>-50.4</v>
       </c>
     </row>
-    <row r="410" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:24" ht="18">
       <c r="A410" s="19" t="s">
         <v>411</v>
       </c>
@@ -20927,7 +21047,7 @@
         <v>-43.7</v>
       </c>
     </row>
-    <row r="411" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:24" ht="18">
       <c r="A411" s="19" t="s">
         <v>412</v>
       </c>
@@ -20963,7 +21083,7 @@
         <v>-44.8</v>
       </c>
     </row>
-    <row r="412" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:24" ht="18">
       <c r="A412" s="19" t="s">
         <v>413</v>
       </c>
@@ -20997,7 +21117,7 @@
         <v>-57.2</v>
       </c>
     </row>
-    <row r="413" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:24" ht="18">
       <c r="A413" s="19" t="s">
         <v>414</v>
       </c>
@@ -21033,7 +21153,7 @@
         <v>-44.1</v>
       </c>
     </row>
-    <row r="414" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:24" ht="18">
       <c r="A414" s="19" t="s">
         <v>415</v>
       </c>
@@ -21067,7 +21187,7 @@
         <v>-51.1</v>
       </c>
     </row>
-    <row r="415" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:24" ht="18">
       <c r="A415" s="19" t="s">
         <v>416</v>
       </c>
@@ -21103,7 +21223,7 @@
         <v>-58.5</v>
       </c>
     </row>
-    <row r="416" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:24" ht="18">
       <c r="A416" s="19" t="s">
         <v>417</v>
       </c>
@@ -21137,7 +21257,7 @@
         <v>-52.6</v>
       </c>
     </row>
-    <row r="417" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:27" ht="18">
       <c r="A417" s="19" t="s">
         <v>418</v>
       </c>
@@ -21173,7 +21293,7 @@
         <v>-44.1</v>
       </c>
     </row>
-    <row r="418" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:27" ht="18">
       <c r="A418" s="22" t="s">
         <v>419</v>
       </c>
@@ -21209,7 +21329,7 @@
         <v>-47.7</v>
       </c>
     </row>
-    <row r="419" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:27" ht="18">
       <c r="A419" s="22" t="s">
         <v>420</v>
       </c>
@@ -21247,7 +21367,7 @@
         <v>-45.2</v>
       </c>
     </row>
-    <row r="420" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:27" ht="18">
       <c r="A420" s="22" t="s">
         <v>421</v>
       </c>
@@ -21283,7 +21403,7 @@
         <v>-57.7</v>
       </c>
     </row>
-    <row r="421" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:27" ht="18">
       <c r="A421" s="22" t="s">
         <v>422</v>
       </c>
@@ -21319,7 +21439,7 @@
         <v>-46.8</v>
       </c>
     </row>
-    <row r="422" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:27" ht="18">
       <c r="A422" s="22" t="s">
         <v>423</v>
       </c>
@@ -21353,7 +21473,7 @@
         <v>-39.9</v>
       </c>
     </row>
-    <row r="423" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:27" ht="18">
       <c r="A423" s="22" t="s">
         <v>424</v>
       </c>
@@ -21389,7 +21509,7 @@
         <v>-54.1</v>
       </c>
     </row>
-    <row r="424" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:27" ht="18">
       <c r="A424" s="22" t="s">
         <v>425</v>
       </c>
@@ -21423,7 +21543,7 @@
         <v>-45.2</v>
       </c>
     </row>
-    <row r="425" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:27" ht="18">
       <c r="A425" s="22" t="s">
         <v>426</v>
       </c>
@@ -21459,7 +21579,7 @@
         <v>-49</v>
       </c>
     </row>
-    <row r="426" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:27" ht="18">
       <c r="A426" s="22" t="s">
         <v>427</v>
       </c>
@@ -21493,7 +21613,7 @@
         <v>-58.5</v>
       </c>
     </row>
-    <row r="427" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:27" ht="18">
       <c r="A427" s="22" t="s">
         <v>428</v>
       </c>
@@ -21529,7 +21649,7 @@
         <v>-61.5</v>
       </c>
     </row>
-    <row r="428" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:27" ht="18">
       <c r="A428" s="22" t="s">
         <v>429</v>
       </c>
@@ -21563,7 +21683,7 @@
         <v>-40.5</v>
       </c>
     </row>
-    <row r="429" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:27" ht="18">
       <c r="A429" s="22" t="s">
         <v>430</v>
       </c>
@@ -21599,7 +21719,7 @@
         <v>-47.6</v>
       </c>
     </row>
-    <row r="430" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:27" ht="18">
       <c r="A430" s="22" t="s">
         <v>431</v>
       </c>
@@ -21633,7 +21753,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="431" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:27" ht="18">
       <c r="A431" s="22" t="s">
         <v>432</v>
       </c>
@@ -21667,7 +21787,7 @@
         <v>-48.4</v>
       </c>
     </row>
-    <row r="432" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:27" s="5" customFormat="1" ht="18">
       <c r="A432" s="22" t="s">
         <v>433</v>
       </c>
@@ -21702,7 +21822,7 @@
       </c>
       <c r="AA432"/>
     </row>
-    <row r="433" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:27" ht="18">
       <c r="A433" s="22" t="s">
         <v>434</v>
       </c>
@@ -21738,7 +21858,7 @@
         <v>-48.9</v>
       </c>
     </row>
-    <row r="434" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:27" ht="18">
       <c r="A434" s="14" t="s">
         <v>435</v>
       </c>
@@ -21775,7 +21895,7 @@
       </c>
       <c r="AA434" s="5"/>
     </row>
-    <row r="435" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:27" ht="18">
       <c r="A435" s="14" t="s">
         <v>436</v>
       </c>
@@ -21813,7 +21933,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="436" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:27" ht="18">
       <c r="A436" s="14" t="s">
         <v>437</v>
       </c>
@@ -21849,7 +21969,7 @@
         <v>-33.6</v>
       </c>
     </row>
-    <row r="437" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:27" ht="18">
       <c r="A437" s="14" t="s">
         <v>438</v>
       </c>
@@ -21887,7 +22007,7 @@
         <v>-29.5</v>
       </c>
     </row>
-    <row r="438" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:27" ht="18">
       <c r="A438" s="14" t="s">
         <v>439</v>
       </c>
@@ -21921,7 +22041,7 @@
         <v>-19.5</v>
       </c>
     </row>
-    <row r="439" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:27" ht="18">
       <c r="A439" s="14" t="s">
         <v>440</v>
       </c>
@@ -21955,7 +22075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:27" ht="18">
       <c r="A440" s="14" t="s">
         <v>441</v>
       </c>
@@ -21989,7 +22109,7 @@
         <v>-32.200000000000003</v>
       </c>
     </row>
-    <row r="441" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:27" ht="18">
       <c r="A441" s="25" t="s">
         <v>442</v>
       </c>
@@ -22017,7 +22137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:27" ht="18">
       <c r="A442" s="14" t="s">
         <v>443</v>
       </c>
@@ -22051,7 +22171,7 @@
         <v>-33.6</v>
       </c>
     </row>
-    <row r="443" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:27" ht="18">
       <c r="A443" s="14" t="s">
         <v>444</v>
       </c>
@@ -22089,7 +22209,7 @@
         <v>-26.8</v>
       </c>
     </row>
-    <row r="444" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:27" ht="18">
       <c r="A444" s="14" t="s">
         <v>445</v>
       </c>
@@ -22123,7 +22243,7 @@
         <v>-22.2</v>
       </c>
     </row>
-    <row r="445" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:27" ht="18">
       <c r="A445" s="14" t="s">
         <v>446</v>
       </c>
@@ -22159,7 +22279,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="446" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:27" ht="18">
       <c r="A446" s="14" t="s">
         <v>447</v>
       </c>
@@ -22193,7 +22313,7 @@
         <v>-27.6</v>
       </c>
     </row>
-    <row r="447" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:27" ht="18">
       <c r="A447" s="14" t="s">
         <v>448</v>
       </c>
@@ -22229,7 +22349,7 @@
         <v>-24.7</v>
       </c>
     </row>
-    <row r="448" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:27" ht="18">
       <c r="A448" s="14" t="s">
         <v>449</v>
       </c>
@@ -22263,7 +22383,7 @@
         <v>-33</v>
       </c>
     </row>
-    <row r="449" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:24" ht="18">
       <c r="A449" s="14" t="s">
         <v>450</v>
       </c>
@@ -22299,7 +22419,7 @@
         <v>-24.2</v>
       </c>
     </row>
-    <row r="450" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:24" ht="18">
       <c r="A450" s="19" t="s">
         <v>451</v>
       </c>
@@ -22335,7 +22455,7 @@
         <v>-25.6</v>
       </c>
     </row>
-    <row r="451" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:24" ht="18">
       <c r="A451" s="19" t="s">
         <v>452</v>
       </c>
@@ -22373,7 +22493,7 @@
         <v>-27.9</v>
       </c>
     </row>
-    <row r="452" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:24" ht="18">
       <c r="A452" s="19" t="s">
         <v>453</v>
       </c>
@@ -22409,7 +22529,7 @@
         <v>-28.4</v>
       </c>
     </row>
-    <row r="453" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:24" ht="18">
       <c r="A453" s="19" t="s">
         <v>454</v>
       </c>
@@ -22445,7 +22565,7 @@
         <v>-34.799999999999997</v>
       </c>
     </row>
-    <row r="454" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:24" ht="18">
       <c r="A454" s="19" t="s">
         <v>455</v>
       </c>
@@ -22479,7 +22599,7 @@
         <v>-35.1</v>
       </c>
     </row>
-    <row r="455" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:24" ht="18">
       <c r="A455" s="19" t="s">
         <v>456</v>
       </c>
@@ -22515,7 +22635,7 @@
         <v>-26.4</v>
       </c>
     </row>
-    <row r="456" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:24" ht="18">
       <c r="A456" s="19" t="s">
         <v>457</v>
       </c>
@@ -22549,7 +22669,7 @@
         <v>-22.7</v>
       </c>
     </row>
-    <row r="457" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:24" ht="18">
       <c r="A457" s="19" t="s">
         <v>458</v>
       </c>
@@ -22585,7 +22705,7 @@
         <v>-27</v>
       </c>
     </row>
-    <row r="458" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:24" ht="18">
       <c r="A458" s="19" t="s">
         <v>459</v>
       </c>
@@ -22619,7 +22739,7 @@
         <v>-20.399999999999999</v>
       </c>
     </row>
-    <row r="459" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:24" ht="18">
       <c r="A459" s="19" t="s">
         <v>460</v>
       </c>
@@ -22655,7 +22775,7 @@
         <v>-25.9</v>
       </c>
     </row>
-    <row r="460" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:24" ht="18">
       <c r="A460" s="19" t="s">
         <v>461</v>
       </c>
@@ -22689,7 +22809,7 @@
         <v>-34.299999999999997</v>
       </c>
     </row>
-    <row r="461" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:24" ht="18">
       <c r="A461" s="19" t="s">
         <v>462</v>
       </c>
@@ -22725,7 +22845,7 @@
         <v>-32.700000000000003</v>
       </c>
     </row>
-    <row r="462" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:24" ht="18">
       <c r="A462" s="19" t="s">
         <v>463</v>
       </c>
@@ -22759,7 +22879,7 @@
         <v>-22.5</v>
       </c>
     </row>
-    <row r="463" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:24" ht="18">
       <c r="A463" s="19" t="s">
         <v>464</v>
       </c>
@@ -22795,7 +22915,7 @@
         <v>-31.6</v>
       </c>
     </row>
-    <row r="464" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:24" ht="18">
       <c r="A464" s="19" t="s">
         <v>465</v>
       </c>
@@ -22829,7 +22949,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="465" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:24" ht="18">
       <c r="A465" s="19" t="s">
         <v>466</v>
       </c>
@@ -22865,7 +22985,7 @@
         <v>-30.7</v>
       </c>
     </row>
-    <row r="466" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:24" ht="18">
       <c r="A466" s="22" t="s">
         <v>467</v>
       </c>
@@ -22901,7 +23021,7 @@
         <v>-20.3</v>
       </c>
     </row>
-    <row r="467" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:24" ht="18">
       <c r="A467" s="22" t="s">
         <v>468</v>
       </c>
@@ -22939,7 +23059,7 @@
         <v>-23.6</v>
       </c>
     </row>
-    <row r="468" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:24" ht="18">
       <c r="A468" s="22" t="s">
         <v>469</v>
       </c>
@@ -22975,7 +23095,7 @@
         <v>-32.4</v>
       </c>
     </row>
-    <row r="469" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:24" ht="18">
       <c r="A469" s="22" t="s">
         <v>470</v>
       </c>
@@ -23011,7 +23131,7 @@
         <v>-29.4</v>
       </c>
     </row>
-    <row r="470" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:24" ht="18">
       <c r="A470" s="22" t="s">
         <v>471</v>
       </c>
@@ -23045,7 +23165,7 @@
         <v>-26.4</v>
       </c>
     </row>
-    <row r="471" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:24" ht="18">
       <c r="A471" s="22" t="s">
         <v>472</v>
       </c>
@@ -23081,7 +23201,7 @@
         <v>-32.4</v>
       </c>
     </row>
-    <row r="472" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:24" ht="18">
       <c r="A472" s="22" t="s">
         <v>473</v>
       </c>
@@ -23115,7 +23235,7 @@
         <v>-35.4</v>
       </c>
     </row>
-    <row r="473" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:24" ht="18">
       <c r="A473" s="22" t="s">
         <v>474</v>
       </c>
@@ -23151,7 +23271,7 @@
         <v>-35.4</v>
       </c>
     </row>
-    <row r="474" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:24" ht="18">
       <c r="A474" s="22" t="s">
         <v>475</v>
       </c>
@@ -23185,7 +23305,7 @@
         <v>-23</v>
       </c>
     </row>
-    <row r="475" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:24" ht="18">
       <c r="A475" s="22" t="s">
         <v>476</v>
       </c>
@@ -23221,7 +23341,7 @@
         <v>-28.3</v>
       </c>
     </row>
-    <row r="476" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:24" ht="18">
       <c r="A476" s="22" t="s">
         <v>477</v>
       </c>
@@ -23255,7 +23375,7 @@
         <v>-23.4</v>
       </c>
     </row>
-    <row r="477" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:24" ht="18">
       <c r="A477" s="22" t="s">
         <v>478</v>
       </c>
@@ -23291,7 +23411,7 @@
         <v>-25.4</v>
       </c>
     </row>
-    <row r="478" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:24" ht="18">
       <c r="A478" s="22" t="s">
         <v>479</v>
       </c>
@@ -23325,7 +23445,7 @@
         <v>-27.9</v>
       </c>
     </row>
-    <row r="479" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:24" ht="18">
       <c r="A479" s="22" t="s">
         <v>480</v>
       </c>
@@ -23361,7 +23481,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="480" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:24" ht="18">
       <c r="A480" s="22" t="s">
         <v>481</v>
       </c>
@@ -23395,7 +23515,7 @@
         <v>-34.799999999999997</v>
       </c>
     </row>
-    <row r="481" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:24" ht="18">
       <c r="A481" s="22" t="s">
         <v>482</v>
       </c>
@@ -23445,7 +23565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -23455,7 +23575,7 @@
       <selection pane="bottomRight" activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.140625" style="7" bestFit="1" customWidth="1"/>
@@ -23469,7 +23589,7 @@
     <col min="10" max="16384" width="10.7109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="31" t="s">
         <v>542</v>
       </c>
@@ -23498,7 +23618,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="45" t="s">
         <v>547</v>
       </c>
@@ -23527,7 +23647,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="46" t="s">
         <v>547</v>
       </c>
@@ -23556,7 +23676,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="46" t="s">
         <v>547</v>
       </c>
@@ -23585,7 +23705,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="46" t="s">
         <v>547</v>
       </c>
@@ -23614,7 +23734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="46" t="s">
         <v>547</v>
       </c>
@@ -23643,7 +23763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="47" t="s">
         <v>547</v>
       </c>
@@ -23672,7 +23792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="45" t="s">
         <v>548</v>
       </c>
@@ -23701,7 +23821,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="46" t="s">
         <v>548</v>
       </c>
@@ -23730,7 +23850,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="46" t="s">
         <v>548</v>
       </c>
@@ -23759,7 +23879,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="46" t="s">
         <v>548</v>
       </c>
@@ -23788,7 +23908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" s="46" t="s">
         <v>548</v>
       </c>
@@ -23817,7 +23937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" s="47" t="s">
         <v>548</v>
       </c>
@@ -23846,7 +23966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" s="45" t="s">
         <v>549</v>
       </c>
@@ -23875,7 +23995,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" s="46" t="s">
         <v>549</v>
       </c>
@@ -23904,7 +24024,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" s="46" t="s">
         <v>549</v>
       </c>
@@ -23933,7 +24053,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" s="46" t="s">
         <v>549</v>
       </c>
@@ -23962,7 +24082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" s="46" t="s">
         <v>549</v>
       </c>
@@ -23991,7 +24111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" s="47" t="s">
         <v>549</v>
       </c>
@@ -24020,7 +24140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20" s="45" t="s">
         <v>550</v>
       </c>
@@ -24049,7 +24169,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21" s="46" t="s">
         <v>550</v>
       </c>
@@ -24078,7 +24198,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22" s="46" t="s">
         <v>550</v>
       </c>
@@ -24107,7 +24227,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23" s="46" t="s">
         <v>550</v>
       </c>
@@ -24136,7 +24256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24" s="46" t="s">
         <v>550</v>
       </c>
@@ -24165,7 +24285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25" s="47" t="s">
         <v>550</v>
       </c>
@@ -24194,7 +24314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9">
       <c r="A26" s="45" t="s">
         <v>551</v>
       </c>
@@ -24223,7 +24343,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="A27" s="48" t="s">
         <v>551</v>
       </c>
@@ -24252,7 +24372,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9">
       <c r="A28" s="48" t="s">
         <v>551</v>
       </c>
@@ -24281,7 +24401,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="A29" s="48" t="s">
         <v>551</v>
       </c>
@@ -24310,7 +24430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9">
       <c r="A30" s="48" t="s">
         <v>551</v>
       </c>
@@ -24339,7 +24459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9">
       <c r="A31" s="49" t="s">
         <v>551</v>
       </c>
@@ -24368,7 +24488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9">
       <c r="A32" s="45" t="s">
         <v>553</v>
       </c>
@@ -24397,7 +24517,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9">
       <c r="A33" s="46" t="s">
         <v>553</v>
       </c>
@@ -24426,7 +24546,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9">
       <c r="A34" s="46" t="s">
         <v>553</v>
       </c>
@@ -24455,7 +24575,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9">
       <c r="A35" s="46" t="s">
         <v>553</v>
       </c>
@@ -24484,7 +24604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9">
       <c r="A36" s="46" t="s">
         <v>553</v>
       </c>
@@ -24513,7 +24633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9">
       <c r="A37" s="47" t="s">
         <v>553</v>
       </c>
@@ -24542,7 +24662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9">
       <c r="A38" s="45" t="s">
         <v>554</v>
       </c>
@@ -24571,7 +24691,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9">
       <c r="A39" s="46" t="s">
         <v>554</v>
       </c>
@@ -24600,7 +24720,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9">
       <c r="A40" s="46" t="s">
         <v>554</v>
       </c>
@@ -24629,7 +24749,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9">
       <c r="A41" s="46" t="s">
         <v>554</v>
       </c>
@@ -24658,7 +24778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9">
       <c r="A42" s="46" t="s">
         <v>554</v>
       </c>
@@ -24687,7 +24807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9">
       <c r="A43" s="47" t="s">
         <v>554</v>
       </c>
@@ -24716,7 +24836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9">
       <c r="A44" s="45" t="s">
         <v>555</v>
       </c>
@@ -24745,7 +24865,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9">
       <c r="A45" s="46" t="s">
         <v>555</v>
       </c>
@@ -24774,7 +24894,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9">
       <c r="A46" s="46" t="s">
         <v>555</v>
       </c>
@@ -24803,7 +24923,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9">
       <c r="A47" s="46" t="s">
         <v>555</v>
       </c>
@@ -24832,7 +24952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9">
       <c r="A48" s="46" t="s">
         <v>555</v>
       </c>
@@ -24861,7 +24981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10">
       <c r="A49" s="47" t="s">
         <v>555</v>
       </c>
@@ -24893,7 +25013,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10">
       <c r="A50" s="45" t="s">
         <v>556</v>
       </c>
@@ -24922,7 +25042,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10">
       <c r="A51" s="46" t="s">
         <v>556</v>
       </c>
@@ -24951,7 +25071,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10">
       <c r="A52" s="46" t="s">
         <v>556</v>
       </c>
@@ -24980,7 +25100,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10">
       <c r="A53" s="46" t="s">
         <v>556</v>
       </c>
@@ -25009,7 +25129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10">
       <c r="A54" s="46" t="s">
         <v>556</v>
       </c>
@@ -25038,7 +25158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10">
       <c r="A55" s="47" t="s">
         <v>556</v>
       </c>
@@ -25067,7 +25187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10">
       <c r="A56" s="45" t="s">
         <v>557</v>
       </c>
@@ -25096,7 +25216,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10">
       <c r="A57" s="46" t="s">
         <v>557</v>
       </c>
@@ -25125,7 +25245,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10">
       <c r="A58" s="46" t="s">
         <v>557</v>
       </c>
@@ -25154,7 +25274,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10">
       <c r="A59" s="46" t="s">
         <v>557</v>
       </c>
@@ -25183,7 +25303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10">
       <c r="A60" s="46" t="s">
         <v>557</v>
       </c>
@@ -25212,7 +25332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10">
       <c r="A61" s="47" t="s">
         <v>557</v>
       </c>
@@ -25242,7 +25362,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J61" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A1:J61"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/data/observation_datasheet.xlsx
+++ b/data/observation_datasheet.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28125"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catchamberlain/Documents/git/chillfreeze/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A111F2D2-E458-EA47-BC69-0A68FA09F416}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14360" activeTab="1"/>
+    <workbookView xWindow="9460" yWindow="2740" windowWidth="25600" windowHeight="14360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="observation_datasheet" sheetId="1" r:id="rId1"/>
@@ -14,8 +20,14 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Feb19 Breakdown'!$A$1:$J$61</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -1754,7 +1766,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1910,12 +1922,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri Light"/>
+      <family val="2"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri Light"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="40">
@@ -2863,15 +2877,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Atlas" id="{5156B0E4-0EB1-49FE-A26B-15F6F698AEC6}" vid="{508F7963-D0B5-43F7-BB2C-FCE3009C08EC}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Atlas" id="{5156B0E4-0EB1-49FE-A26B-15F6F698AEC6}" vid="{508F7963-D0B5-43F7-BB2C-FCE3009C08EC}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M481"/>
@@ -2880,12 +2894,12 @@
       <selection activeCell="A338" sqref="A338:XFD481"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2926,492 +2940,492 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:13" hidden="1">
+    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:13" hidden="1">
+    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" hidden="1">
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" hidden="1">
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:13" hidden="1">
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:13" hidden="1">
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:13" hidden="1">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:13" hidden="1">
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:13" hidden="1">
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:13" hidden="1">
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:13" hidden="1">
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:13" hidden="1">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:13" hidden="1">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:13" hidden="1">
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:13" hidden="1">
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:1" hidden="1">
+    <row r="17" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:1" hidden="1">
+    <row r="18" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:1" hidden="1">
+    <row r="19" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:1" hidden="1">
+    <row r="20" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:1" hidden="1">
+    <row r="21" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:1" hidden="1">
+    <row r="22" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:1" hidden="1">
+    <row r="23" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:1" hidden="1">
+    <row r="24" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:1" hidden="1">
+    <row r="25" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:1" hidden="1">
+    <row r="26" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:1" hidden="1">
+    <row r="27" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:1" hidden="1">
+    <row r="28" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:1" hidden="1">
+    <row r="29" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:1" hidden="1">
+    <row r="30" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:1" hidden="1">
+    <row r="31" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:1" hidden="1">
+    <row r="32" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:1" hidden="1">
+    <row r="33" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:1" hidden="1">
+    <row r="34" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:1" hidden="1">
+    <row r="35" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:1" hidden="1">
+    <row r="36" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:1" hidden="1">
+    <row r="37" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:1" hidden="1">
+    <row r="38" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:1" hidden="1">
+    <row r="39" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:1" hidden="1">
+    <row r="40" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:1" hidden="1">
+    <row r="41" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:1" hidden="1">
+    <row r="42" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:1" hidden="1">
+    <row r="43" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:1" hidden="1">
+    <row r="44" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:1" hidden="1">
+    <row r="45" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:1" hidden="1">
+    <row r="46" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:1" hidden="1">
+    <row r="47" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:1" hidden="1">
+    <row r="48" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:1" hidden="1">
+    <row r="49" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:1" hidden="1">
+    <row r="50" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:1" hidden="1">
+    <row r="51" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:1" hidden="1">
+    <row r="52" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:1" hidden="1">
+    <row r="53" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:1" hidden="1">
+    <row r="54" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:1" hidden="1">
+    <row r="55" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:1" hidden="1">
+    <row r="56" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:1" hidden="1">
+    <row r="57" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="1:1" hidden="1">
+    <row r="58" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:1" hidden="1">
+    <row r="59" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:1" hidden="1">
+    <row r="60" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="61" spans="1:1" hidden="1">
+    <row r="61" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="62" spans="1:1" hidden="1">
+    <row r="62" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="1:1" hidden="1">
+    <row r="63" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="1:1" hidden="1">
+    <row r="64" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:1" hidden="1">
+    <row r="65" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="1:1" hidden="1">
+    <row r="66" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:1" hidden="1">
+    <row r="67" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:1" hidden="1">
+    <row r="68" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="69" spans="1:1" hidden="1">
+    <row r="69" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:1" hidden="1">
+    <row r="70" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:1" hidden="1">
+    <row r="71" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="72" spans="1:1" hidden="1">
+    <row r="72" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="73" spans="1:1" hidden="1">
+    <row r="73" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="1:1" hidden="1">
+    <row r="74" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="1:1" hidden="1">
+    <row r="75" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="76" spans="1:1" hidden="1">
+    <row r="76" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="77" spans="1:1" hidden="1">
+    <row r="77" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:1" hidden="1">
+    <row r="78" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="79" spans="1:1" hidden="1">
+    <row r="79" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="1:1" hidden="1">
+    <row r="80" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="81" spans="1:1" hidden="1">
+    <row r="81" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="83" spans="1:1" hidden="1">
+    <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="84" spans="1:1" hidden="1">
+    <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="85" spans="1:1" hidden="1">
+    <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="86" spans="1:1" hidden="1">
+    <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>87</v>
       </c>
     </row>
-    <row 